--- a/examples/USA OGD/Baton_rouge/Baton_Rouge_Crime_Incidents_profile.xlsx
+++ b/examples/USA OGD/Baton_rouge/Baton_Rouge_Crime_Incidents_profile.xlsx
@@ -375,62 +375,62 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>attribute_count</t>
+          <t>sum</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>sum</t>
+          <t>mean</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>median</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>median</t>
+          <t>stddev</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>stddev</t>
+          <t>variance</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>variance</t>
+          <t>min_value</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>min_value</t>
+          <t>max_value</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>max_value</t>
+          <t>min_len</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>min_len</t>
+          <t>max_len</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>max_len</t>
+          <t>null_count</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>null_count</t>
+          <t>blank_count</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>blank_count</t>
+          <t>negative_count</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
@@ -445,30 +445,40 @@
       </c>
       <c r="S1" t="inlineStr">
         <is>
+          <t>least_frequent_value</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>least_frequent_count</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
           <t>most_frequent_value</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>most_frequent_count</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>csim</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="Y1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="Z1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -485,47 +495,47 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>267773</v>
       </c>
       <c r="E2" t="n">
-        <v>267773</v>
+        <v>340417667458605</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1289578095.957985</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1300034784.5</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>147339057.48456</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.170879786043849e+16</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1000000543</v>
       </c>
       <c r="K2" t="n">
-        <v>-1</v>
+        <v>2500032927</v>
       </c>
       <c r="L2" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N2" t="n">
-        <v>19</v>
+        <v>3796</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -537,24 +547,32 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>1200126218</t>
+          <t>1100000226</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>76</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>(Null)</t>
+        </is>
       </c>
       <c r="V2" t="n">
-        <v>2692372</v>
+        <v>3796</v>
       </c>
       <c r="W2" t="n">
-        <v>181497</v>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>['01/13/2011', '01/13/2012', '01/13/2013', '01/13/2015', '01/13/2016', '01/14/2011', '01/14/2013', '01/14/2014', '01/14/2015', '01/14/2016', '01/15/2014', '01/15/2016', '01/16/2011', '01/16/2012', '01/16/2013', '01/16/2014', '01/16/2015', '01/16/2016', '01/17/2011', '01/17/2012', '01/17/2014', '01/17/2016', '01/18/2011', '01/18/2012', '01/18/2013', '01/18/2015', '01/19/2011', '01/19/2014', '01/19/2015', '01/19/2016', '01/20/2011', '01/20/2012', '01/20/2013', '01/20/2014', '01/20/2015', '01/20/2016', '01/21/2011', '01/21/2012', '01/21/2013', '01/21/2015', '01/21/2016', '01/22/2011', '01/22/2014', '01/22/2016', '01/23/2011', '01/23/2012', '01/23/2013', '01/23/2014', '01/23/2015', '01/23/2016', '01/24/2011', '01/24/2013', '01/24/2014', '01/24/2016', '01/25/2011', '01/25/2012', '01/25/2013', '01/25/2016', '01/26/2011', '01/26/2012', '01/26/2013', '01/26/2014', '01/26/2015', '01/26/2016', '01/27/2011', '01/27/2012', '01/27/2013', '01/27/2014', '01/27/2015', '01/27/2016', '01/28/2011', '01/28/2012', '01/28/2013', '01/28/2014', '01/28/2016', '01/29/2011', '01/29/2012', '01/29/2013', '01/29/2014', '01/29/2015', '01/29/2016', '01/30/2011', '01/30/2012', '01/30/2014', '01/30/2015', '01/30/2016', '01/31/2011', '01/31/2013', '01/31/2014', '01/31/2015', '01/31/2016', '02/13/2012', '02/13/2013', '02/13/2014', '02/13/2015', '02/14/2011', '02/14/2013', '02/14/2014', '02/14/2015', '02/15/2011', '02/15/2012', '02/15/2013', '02/16/2011', '02/16/2012', '02/16/2013', '02/16/2014', '02/16/2015', '02/17/2011', '02/17/2012', '02/17/2013', '02/17/2014', '02/18/2011', '02/18/2012', '02/18/2014', '02/18/2015', '02/19/2011', '02/19/2012', '02/19/2013', '02/19/2014', '02/19/2015', '02/20/2013', '02/20/2014', '02/20/2015', '02/21/2011', '02/21/2012', '02/21/2013', '02/21/2014', '02/21/2015', '02/22/2012', '02/22/2013', '02/22/2014', '02/23/2011', '02/23/2012', '02/23/2013', '02/23/2014', '02/23/2015', '02/24/2011', '02/24/2012', '02/24/2015', '02/25/2011', '02/25/2012', '02/25/2014', '02/26/2011', '02/26/2012', '02/26/2013', '02/26/2014', '02/26/2015', '02/27/2011', '02/27/2013', '02/27/2014', '02/27/2015', '02/28/2011', '02/28/2012', '02/28/2013', '02/28/2014', '02/28/2015', '02/29/2012', '03/13/2011', '03/13/2012', '03/13/2014', '03/13/2015', '03/14/2011', '03/14/2012', '03/14/2013', '03/14/2014', '03/14/2015', '03/15/2012', '03/15/2013', '03/15/2014', '03/15/2015', '03/16/2011', '03/16/2012', '03/16/2014', '03/16/2015', '03/17/2011', '03/17/2012', '03/17/2013', '03/17/2015', '03/18/2011', '03/18/2012', '03/18/2013', '03/18/2014', '03/18/2015', '03/19/2011', '03/19/2012', '03/19/2014', '03/19/2015', '03/20/2011', '03/20/2012', '03/20/2013', '03/20/2014', '03/20/2015', '03/21/2011', '03/21/2013', '03/21/2014', '03/21/2015', '03/22/2011', '03/22/2012', '03/22/2013', '03/22/2014', '03/22/2015', '03/23/2011', '03/23/2013', '03/23/2014', '03/23/2015', '03/24/2011', '03/24/2012', '03/24/2013', '03/24/2014', '03/24/2015', '03/25/2011', '03/25/2013', '03/25/2014', '03/25/2015', '03/26/2011', '03/26/2012', '03/26/2013', '03/26/2014', '03/26/2015', '03/27/2011', '03/27/2012', '03/27/2013', '03/27/2014', '03/27/2015', '03/28/2011', '03/28/2012', '03/28/2013', '03/28/2014', '03/28/2015', '03/29/2012', '03/29/2013', '03/29/2015', '03/30/2011', '03/30/2012', '03/30/2013', '03/30/2014', '03/31/2011', '03/31/2012', '03/31/2013', '03/31/2014', '03/31/2015', '04/13/2012', '04/13/2013', '04/13/2015', '04/14/2011', '04/14/2012', '04/14/2013', '04/14/2014', '04/14/2015', '04/15/2011', '04/15/2012', '04/15/2013', '04/15/2014', '04/15/2015', '04/16/2011', '04/16/2012', '04/16/2013', '04/16/2014', '04/16/2015', '04/17/2011', '04/17/2012', '04/17/2013', '04/17/2014', '04/17/2015', '04/18/2013', '04/18/2014', '04/18/2015', '04/19/2011', '04/19/2013', '04/20/2011', '04/20/2012', '04/20/2013', '04/20/2014', '04/20/2015', '04/21/2012', '04/21/2013', '04/21/2014', '04/21/2015', '04/22/2011', '04/22/2012', '04/22/2013', '04/22/2014', '04/22/2015', '04/23/2011', '04/23/2012', '04/23/2014', '04/23/2015', '04/24/2011', '04/24/2012', '04/24/2013', '04/24/2014', '04/24/2015', '04/25/2012', '04/25/2013', '04/25/2014', '04/26/2011', '04/26/2013', '04/26/2014', '04/26/2015', '04/27/2011', '04/27/2012', '04/27/2013', '04/27/2014', '04/27/2015', '04/28/2011', '04/28/2012', '04/28/2013', '04/28/2014', '04/28/2015', '04/29/2011', '04/29/2013', '04/29/2015', '04/30/2011', '04/30/2012', '04/30/2014', '04/30/2015', '05/13/2011', '05/13/2012', '05/13/2013', '05/13/2014', '05/13/2015', '05/14/2011', '05/14/2012', '05/14/2013', '05/14/2014', '05/14/2015', '05/15/2011', '05/15/2012', '05/15/2013', '05/15/2014', '05/15/2015', '05/16/2011', '05/16/2012', '05/16/2013', '05/16/2014', '05/17/2011', '05/17/2012', '05/17/2013', '05/17/2014', '05/17/2015', '05/18/2011', '05/18/2012', '05/18/2013', '05/18/2014', '05/19/2011', '05/19/2012', '05/19/2013', '05/20/2011', '05/20/2012', '05/20/2013', '05/20/2014', '05/20/2015', '05/21/2011', '05/21/2013', '05/21/2014', '05/21/2015', '05/22/2012', '05/22/2013', '05/22/2015', '05/23/2011', '05/23/2014', '05/23/2015', '05/24/2011', '05/24/2014', '05/24/2015', '05/25/2011', '05/25/2012', '05/25/2013', '05/25/2014', '05/25/2015', '05/26/2011', '05/26/2012', '05/26/2013', '05/26/2015', '05/27/2011', '05/27/2013', '05/27/2014', '05/27/2015', '05/28/2011', '05/28/2012', '05/28/2013', '05/28/2014', '05/28/2015', '05/29/2011', '05/29/2012', '05/29/2013', '05/29/2014', '05/29/2015', '05/30/2011', '05/30/2012', '05/30/2013', '05/30/2014', '05/30/2015', '05/31/2011', '05/31/2012', '05/31/2013', '05/31/2014', '05/31/2015', '06/13/2012', '06/13/2013', '06/13/2014', '06/13/2015', '06/14/2011', '06/14/2012', '06/14/2013', '06/14/2014', '06/14/2015', '06/15/2011', '06/15/2012', '06/15/2013', '06/15/2014', '06/15/2015', '06/16/2011', '06/16/2012', '06/16/2013', '06/16/2014', '06/17/2011', '06/17/2012', '06/17/2014', '06/18/2011', '06/18/2012', '06/18/2014', '06/18/2015', '06/19/2011', '06/19/2012', '06/19/2013', '06/19/2014', '06/19/2015', '06/20/2011', '06/20/2012', '06/20/2013', '06/20/2014', '06/20/2015', '06/21/2012', '06/21/2013', '06/21/2014', '06/21/2015', '06/22/2011', '06/22/2012', '06/22/2013', '06/23/2011', '06/23/2012', '06/23/2013', '06/23/2014', '06/23/2015', '06/24/2011', '06/24/2012', '06/24/2013', '06/24/2015', '06/25/2011', '06/25/2012', '06/25/2013', '06/26/2011', '06/26/2013', '06/26/2014', '06/26/2015', '06/27/2012', '06/27/2013', '06/27/2014', '06/28/2011', '06/28/2012', '06/28/2013', '06/28/2014', '06/28/2015', '06/29/2011', '06/29/2012', '06/29/2014', '06/29/2015', '06/30/2011', '06/30/2012', '06/30/2013', '06/30/2015', '07/13/2011', '07/13/2014', '07/13/2015', '07/14/2011', '07/14/2013', '07/14/2014', '07/14/2015', '07/15/2011', '07/15/2012', '07/15/2013', '07/15/2014', '07/15/2015', '07/16/2012', '07/16/2013', '07/16/2014', '07/16/2015', '07/17/2011', '07/17/2012', '07/17/2013', '07/17/2015', '07/18/2011', '07/18/2013', '07/18/2014', '07/18/2015', '07/19/2011', '07/19/2013', '07/19/2014', '07/19/2015', '07/20/2011', '07/20/2012', '07/20/2013', '07/20/2014', '07/20/2015', '07/21/2011', '07/21/2012', '07/21/2014', '07/21/2015', '07/22/2011', '07/22/2012', '07/22/2013', '07/22/2014', '07/22/2015', '07/23/2011', '07/23/2013', '07/23/2014', '07/24/2011', '07/24/2012', '07/24/2013', '07/24/2014', '07/24/2015', '07/25/2011', '07/25/2012', '07/25/2013', '07/25/2014', '07/25/2015', '07/26/2011', '07/26/2013', '07/26/2014', '07/26/2015', '07/27/2012', '07/27/2013', '07/27/2014', '07/27/2015', '07/28/2011', '07/28/2012', '07/28/2013', '07/28/2014', '07/28/2015', '07/29/2011', '07/29/2012', '07/29/2013', '07/29/2014', '07/29/2015', '07/30/2012', '07/30/2013', '07/30/2014', '07/31/2011', '07/31/2012', '07/31/2014', '08/13/2011', '08/13/2013', '08/13/2014', '08/13/2015', '08/14/2011', '08/14/2013', '08/14/2014', '08/14/2015', '08/15/2011', '08/15/2012', '08/15/2013', '08/15/2014', '08/15/2015', '08/16/2011', '08/16/2012', '08/16/2013', '08/16/2014', '08/16/2015', '08/17/2011', '08/17/2012', '08/17/2013', '08/17/2014', '08/17/2015', '08/18/2012', '08/18/2013', '08/18/2014', '08/18/2015', '08/19/2013', '08/19/2014', '08/19/2015', '08/20/2011', '08/20/2012', '08/20/2013', '08/20/2014', '08/21/2011', '08/21/2012', '08/21/2013', '08/21/2014', '08/21/2015', '08/22/2011', '08/22/2012', '08/22/2013', '08/22/2014', '08/22/2015', '08/23/2011', '08/23/2012', '08/23/2013', '08/23/2014', '08/23/2015', '08/24/2011', '08/24/2012', '08/24/2013', '08/24/2014', '08/24/2015', '08/25/2011', '08/25/2012', '08/25/2013', '08/25/2015', '08/26/2011', '08/26/2013', '08/26/2014', '08/27/2011', '08/27/2013', '08/27/2014', '08/27/2015', '08/28/2011', '08/28/2012', '08/28/2013', '08/28/2014', '08/28/2015', '08/29/2011', '08/29/2012', '08/29/2014', '08/29/2015', '08/30/2012', '08/30/2013', '08/30/2014', '08/30/2015', '08/31/2011', '08/31/2012', '08/31/2013', '08/31/2015', '09/13/2011', '09/13/2012', '09/13/2013', '09/13/2014', '09/13/2015', '09/14/2012', '09/14/2013', '09/14/2014', '09/14/2015', '09/15/2012', '09/15/2013', '09/15/2014', '09/15/2015', '09/16/2011', '09/16/2012', '09/16/2014', '09/16/2015', '09/17/2011', '09/17/2013', '09/17/2014', '09/18/2011', '09/18/2012', '09/18/2013', '09/18/2014', '09/18/2015', '09/19/2012', '09/19/2013', '09/19/2014', '09/19/2015', '09/20/2011', '09/20/2012', '09/20/2015', '09/21/2011', '09/21/2012', '09/21/2013', '09/21/2014', '09/21/2015', '09/22/2011', '09/22/2015', '09/23/2011', '09/23/2012', '09/23/2013', '09/24/2012', '09/24/2013', '09/24/2014', '09/24/2015', '09/25/2011', '09/25/2013', '09/25/2014', '09/26/2011', '09/26/2013', '09/26/2014', '09/26/2015', '09/27/2011', '09/27/2012', '09/27/2013', '09/27/2014', '09/28/2012', '09/28/2013', '09/28/2014', '09/28/2015', '09/29/2012', '09/29/2013', '09/29/2014', '09/29/2015', '09/30/2011', '09/30/2012', '09/30/2014', '09/30/2015', '10/13/2011', '10/13/2012', '10/13/2014', '10/13/2015', '10/14/2011', '10/14/2015', '10/15/2011', '10/15/2012', '10/15/2013', '10/15/2014', '10/15/2015', '10/16/2011', '10/16/2012', '10/16/2013', '10/16/2014', '10/16/2015', '10/17/2012', '10/17/2014', '10/17/2015', '10/18/2011', '10/18/2012', '10/18/2013', '10/18/2014', '10/18/2015', '10/19/2011', '10/19/2012', '10/19/2013', '10/19/2014', '10/19/2015', '10/20/2012', '10/20/2013', '10/20/2014', '10/20/2015', '10/21/2011', '10/21/2012', '10/21/2013', '10/21/2014', '10/22/2011', '10/22/2012', '10/22/2013', '10/22/2014', '10/22/2015', '10/23/2011', '10/23/2013', '10/23/2014', '10/23/2015', '10/24/2011', '10/24/2012', '10/24/2015', '10/25/2011', '10/25/2013', '10/25/2014', '10/25/2015', '10/26/2012', '10/26/2013', '10/26/2015', '10/27/2011', '10/27/2012', '10/27/2014', '10/27/2015', '10/28/2011', '10/28/2012', '10/28/2014', '10/28/2015', '10/29/2011', '10/29/2012', '10/29/2013', '10/29/2014', '10/29/2015', '10/30/2011', '10/30/2012', '10/30/2013', '10/30/2014', '10/30/2015', '10/31/2011', '10/31/2012', '10/31/2013', '10/31/2015', '1000000543', '1000002035', '1000002377', '1000002595', '1000002691', '1000002749', '1000003034', '1000004444', '1000004524', '1000005075', '1000005346', '1000005862', '1000006014', '1000006054', '1000006108', '1000006192', '1000006236', '1000006463', '1000006649', '1000007030', '1000007295', '1000007298', '1000008540', '1000009461', '1000009624', '1000010305', '1000010649', '1000010765', '1000010884', '1000011333', '1000011517', '1000011735', '1000012300', '1000013084', '1000013310', '1000013653', '1000014173', '1000014871', '1000014923', '1000016020', '1000016810', '1000016970', '1000017485', '1000017523', '1000018019', '1000018753', '1000020044', '1000020228', '1000020345', '1000020448', '1000021444', '1000021792', '1000021881', '1000022435', '1000023408', '1000023603', '1000024192', '1000024526', '1000024869', '1000026069', '1000026316', '1000027076', '1000027697', '1000028011', '1000028399', '1000028445', '1000028715', '1000029126', '1000029772', '1000030240', '1000030283', '1000030290', '1000030910', '1000031082', '1000031810', '1000032871', '1000032910', '1000033305', '1000033587', '1000034820', '1000035071', '1000035104', '1000035450', '1000036000', '1000036064', '1000036214', '1000036218', '1000036597', '1000037560', '1000037627', '1000037711', '1000037738', '1000037766', '1000038029', '1000038281', '1000038733', '1000038866', '1000038951', '1000039320', '1000041296', '1000041859', '1000041949', '1000041972', '1000042223', '1000042479', '1000043467', '1000043493', '1000043658', '1000043822', '1000043962', '1000044123', '1000044290', '1000044881', '1000045647', '1000045702', '1000045776', '1000047396', '1000047542', '1000047864', '1000048143', '1000048185', '1000048914', '1000049336', '1000050473', '1000051048', '1000051134', '1000051355', '1000051369', '1000051831', '1000052159', '1000052257', '1000052555', '1000052559', '1000052620', '1000053492', '1000053620', '1000053794', '1000053930', '1000053991', '1000054087', '1000054101', '1000054179', '1000054668', '1000055174', '1000055596', '1000056502', '1000057350', '1000057572', '1000057666', '1000058016', '1000058303', '1000058607', '1000058630', '1000058759', '1000059163', '1000059509', '1000059647', '1000059659', '1000059904', '1000059978', '1000061459', '1000061697', '1000062277', '1000062456', '1000062583', '1000062667', '1000063098', '1000063461', '1000063518', '1000063753', '1000064414', '1000064892', '1000065144', '1000065188', '1000065440', '1000065543', '1000065913', '1000067151', '1000067382', '1000067446', '1000067721', '1000067743', '1000067745', '1000067804', '1000067819', '1000067829', '1000067843', '1000067906', '1000068144', '1000068333', '1000068868', '1000069954', '1000071754', '1000071819', '1000071870', '1000072135', '1000072235', '1000073034', '1000073042', '1000073686', '1000074244', '1000074316', '1000074390', '1000074401', '1000074415', '1000074494', '1000074527', '1000074725', '1000075459', '1000076518', '1000076523', '1000076753', '1000076935', '1000077271', '1000077396', '1000077539', '1000077540', '1000077598', '1000077690', '1000077747', '1000077946', '1000077966', '1000077981', '1000078360', '1000078416', '1000078682', '1000078740', '1000078842', '1000078899', '1000079243', '1000079682', '1000079753', '1000080003', '1000080145', '1000080203', '1000080617', '1000080698', '1000080702', '1000080767', '1000080923', '1000081108', '1000081288', '1000081290', '1000081355', '1000081389', '1000081420', '1000081521', '1000082174', '1000082249', '1000082416', '1000082635', '1000082975', '1000083334', '1000083447', '1000083759', '1000083772', '1000083870', '1000083914', '1000084226', '1000084648', '1000084924', '1000085113', '1000085170', '1000085366', '1000085418', '1000085527', '1000085774', '1000085797', '1000086171', '1000086481', '1000086951', '1000086959', '1000086994', '1000087270', '1000087320', '1000088036', '1000088184', '1000088194', '1000088289', '1000088501', '1000088534', '1000088635', '1000088894', '1000088953', '1000089783', '1000090732', '1000090927', '1000091289', '1000091311', '1000091391', '1000091708', '1000092224', '1000092795', '1000092952', '1000092969', '1000093096', '1000093121', '1000093200', '1000093237', '1000093567', '1000093678', '1000093804', '1000093884', '1000093927', '1000094125', '1000094205', '1000094568', '1000094592', '1000094644', '1000094919', '1000095032', '1000095359', '1000095448', '1000095502', '1000095846', '1000096034', '1000096279', '1000096430', '1000096486', '1000096782', '1000096806', '1000096857', '1000097102', '1000097212', '1000097474', '1000097501', '1000097585', '1000098118', '1000098201', '1000098458', '1000098464', '1000099312', '1000099333', '1000099525', '1000099593', '1000099734', '1000100613', '1000102084', '1000102085', '1000102086', '1000102088', '1000102109', '1000102452', '1000102532', '1000102656', '1000102697', '1000103103', '1000103275', '1000103325', '1000103460', '1000103627', '1000103694', '1000104307', '1000104447', '1000104699', '1000104812', '1000105027', '1000105160', '1000105168', '1000105626', '1000105729', '1000105973', '1000106041', '1000106062', '1000106124', '1000106160', '1000106751', '1000106948', '1000107258', '1000107453', '1000108100', '1000108276', '1000108511', '1000108552', '1000108987', '1000109136', '1000109494', '1000109735', '1000109784', '1000110129', '1000110137', '1000110189', '1000111116', '1000111158', '1000111193', '1000111367', '1000111705', '1000111744', '1000111908', '1000112041', '1000112409', '1000112508', '1000112538', '1000112901', '1000112942', '1000113183', '1000113471', '1000113743', '1000113873', '1000113909', '1000113913', '1000114069', '1000114102', '1000114144', '1000114163', '1000114478', '1000114521', '1000114573', '1000114965', '1000114974', '1000115519', '1000116021', '1000116101', '1000116108', '1000116131', '1000116275', '1000116374', '1000116712', '1000117634', '1000118338', '1000118390', '1000118483', '1000118672', '1000118770', '1000118776', '1000118821', '1000119028', '1000119163', '1000119176', '1000119281', '1000119304', '1000119331', '1000119488', '1000119520', '1000119576', '1000119625', '1000119969', '1000120185', '1000120204', '1000120422', '1000120535', '1000120574', '1000120597', '1000121025', '1000121440', '1000121443', '1000121546', '1000121658', '1000121682', '1000121918', '1000122086', '1000122221', '1000122266', '1000122577', '1000122664', '1000123083', '1000123195', '1000123226', '1000123901', '1000124065', '1000124180', '1000124263', '1000124300', '1000124359', '1000124453', '1000124486', '1000124723', '1000124729', '1000124765', '1000124836', '1000124940', '1000125108', '1000125147', '1000125706', '1000125744', '1000126090', '1000126230', '1000126409', '1000126544', '1000126557', '1000126734', '1000127645', '1000127781', '1000128304', '1000128314', '1000128724', '1000129066', '1000129084', '1000129191', '1000129281', '1000129355', '1000129537', '1000129568', '1000129678', '1000130010', '1000130701', '1000130766', '1000131040', '1000131104', '1000131410', '1000131713', '1000131762', '1000132105', '1000132146', '1000132166', '1000132259', '1000132445', '1000492027', '11/13/2011', '11/13/2012', '11/13/2014', '11/13/2015', '11/14/2012', '11/14/2013', '11/14/2014', '11/14/2015', '11/15/2011', '11/15/2012', '11/15/2013', '11/15/2015', '11/16/2011', '11/16/2012', '11/16/2013', '11/16/2014', '11/16/2015', '11/17/2011', '11/17/2012', '11/17/2013', '11/17/2014', '11/17/2015', '11/18/2011', '11/18/2012', '11/18/2015', '11/19/2011', '11/19/2014', '11/19/2015', '11/20/2011', '11/20/2013', '11/20/2014', '11/20/2015', '11/21/2011', '11/21/2012', '11/21/2014', '11/21/2015', '11/22/2013', '11/22/2014', '11/22/2015', '11/23/2012', '11/23/2013', '11/23/2014', '11/23/2015', '11/24/2011', '11/24/2012', '11/24/2014', '11/24/2015', '11/25/2011', '11/25/2014', '11/25/2015', '11/26/2011', '11/26/2012', '11/26/2014', '11/26/2015', '11/27/2011', '11/27/2013', '11/27/2014', '11/27/2015', '11/28/2012', '11/28/2013', '11/28/2015', '11/29/2011', '11/29/2012', '11/29/2014', '11/29/2015', '11/30/2011', '11/30/2012', '11/30/2013', '11/30/2014', '11/30/2015', '1100000013', '1100000024', '1100000030', '1100000034', '1100000037', '1100000038', '1100000043', '1100000048', '1100000050', '1100000052', '1100000056', '1100000057', '1100000059', '1100000060', '1100000061', '1100000063', '1100000065', '1100000070', '1100000071', '1100000072', '1100000075', '1100000077', '1100000093', '1100000094', '1100000106', '1100000123', '1100000126', '1100000131', '1100000137', '1100000138', '1100000140', '1100000141', '1100000143', '1100000144', '1100000151', '1100000157', '1100000159', '1100000160', '1100000161', '1100000163', '1100000166', '1100000167', '1100000169', '1100000173', '1100000174', '1100000178', '1100000180', '1100000186', '1100000196', '1100000198', '1100000200', '1100000207', '1100000214', '1100000221', '1100000223', '1100000224', '1100000225', '1100000226', '1100000230', '1100000232', '1100000234', '1100000237', '1100000240', '1100000241', '1100000243', '1100000251', '1100000255', '1100000258', '1100000260', '1100000261', '1100000262', '1100000263', '1100000266', '1100000267', '1100000270', '1100000277', '1100000282', '1100000284', '1100000285', '1100000287', '1100000289', '1100000290', '1100000301', '1100000305', '1100000307', '1100000311', '1100000319', '1100000322', '1100000324', '1100000325', '1100000326', '1100000333', '1100000336', '1100000337', '1100000339', '1100000353', '1100000362', '1100000376', '1100000378', '1100000384', '1100000386', '1100000387', '1100000390', '1100000392', '1100000393', '1100000394', '1100000395', '1100000400', '1100000404', '1100000406', '1100000407', '1100000408', '1100000409', '1100000412', '1100000415', '1100000424', '1100000431', '1100000436', '1100000442', '1100000444', '1100000449', '1100000450', '1100000451', '1100000457', '1100000458', '1100000459', '1100000473', '1100000477', '1100000479', '1100000487', '1100000490', '1100000498', '1100000505', '1100000509', '1100000513', '1100000515', '1100000517', '1100000519', '1100000522', '1100000527', '1100000531', '1100000534', '1100000538', '1100000540', '1100000549', '1100000550', '1100000551', '1100000552', '1100000553', '1100000555', '1100000559', '1100000561', '1100000562', '1100000563', '1100000564', '1100000565', '1100000578', '1100000581', '1100000587', '1100000588', '1100000589', '1100000590', '1100000598', '1100000600', '1100000603', '1100000606', '1100000609', '1100000611', '1100000618', '1100000622', '1100000623', '1100000629', '1100000632', '1100000633', '1100000634', '1100000635', '1100000637', '1100000640', '1100000648', '1100000654', '1100000657', '1100000658', '1100000659', '1100000666', '1100000667', '1100000670', '1100000672', '1100000673', '1100000678', '1100000686', '1100000690', '1100000691', '1100000693', '1100000697', '1100000709', '1100000710', '1100000714', '1100000719', '1100000722', '1100000728', '1100000732', '1100000734', '1100000736', '1100000739', '1100000740', '1100000743', '1100000750', '1100000751', '1100000752', '1100000767', '1100000773', '1100000774', '1100000778', '1100000782', '1100000788', '1100000791', '1100000793', '1100000797', '1100000798', '1100000804', '1100000807', '1100000808', '1100000810', '1100000813', '1100000818', '1100000824', '1100000825', '1100000827', '1100000832', '1100000833', '1100000834', '1100000836', '1100000838', '1100000853', '1100000857', '1100000861', '1100000866', '1100000867', '1100000868', '1100000870', '1100000876', '1100000878', '1100000880', '1100000882', '1100000885', '1100000887', '1100000890', '1100000893', '1100000894', '1100000897', '1100000900', '1100000902', '1100000909', '1100000914', '1100000915', '1100000916', '1100000917', '1100000925', '1100000931', '1100000934', '1100000935', '1100000938', '1100000942', '1100000943', '1100000950', '1100000952', '1100000956', '1100000959', '1100000963', '1100000966', '1100000972', '1100000975', '1100000976', '1100000977', '1100000978', '1100000979', '1100000982', '1100000984', '1100000986', '1100000990', '1100000993', '1100000997', '1100001003', '1100001005', '1100001008', '1100001013', '1100001019', '1100001021', '1100001048', '1100001049', '1100001052', '1100001053', '1100001063', '1100001068', '1100001073', '1100001078', '1100001079', '1100001082', '1100001084', '1100001086', '1100001093', '1100001097', '1100001101', '1100001103', '1100001106', '1100001109', '1100001112', '1100001114', '1100001115', '1100001126', '1100001129', '1100001130', '1100001132', '1100001136', '1100001137', '1100001139', '1100001140', '1100001141', '1100001142', '1100001143', '1100001144', '1100001146', '1100001147', '1100001149', '1100001150', '1100001153', '1100001156', '1100001159', '1100001166', '1100001167', '1100001170', '1100001175', '1100001190', '1100001194', '1100001196', '1100001199', '1100001200', '1100001201', '1100001202', '1100001205', '1100001212', '1100001213', '1100001218', '1100001220', '1100001221', '1100001224', '1100001225', '1100001226', '1100001230', '1100001232', '1100001235', '1100001242', '1100001248', '1100001250', '1100001251', '1100001255', '1100001256', '1100001260', '1100001278', '1100001279', '1100001284', '1100001285', '1100001288', '1100001290', '1100001297', '1100001313', '1100001320', '1100001321', '1100001323', '1100001324', '1100001327', '1100001328', '1100001335', '1100001338', '1100001339', '1100001342', '1100001356', '1100001362', '1100001363', '1100001364', '1100001367', '1100001371', '1100001378', '1100001382', '1100001383', '1100001385', '1100001387', '1100001388', '1100001390', '1100001391', '1100001393', '1100001395', '1100001397', '1100001401', '1100001418', '1100001435', '1100001437', '1100001439', '1100001441', '1100001442', '1100001448', '1100001450', '1100001458', '1100001460', '1100001471', '1100001472', '1100001474', '1100001475', '1100001486', '1100001487', '1100001491', '1100001494', '1100001498', '1100001500', '1100001513', '1100001514', '1100001516', '1100001519', '1100001521', '1100001523', '1100001524', '1100001525', '1100001528', '1100001529', '1100001530', '1100001535', '1100001545', '1100001551', '1100001554', '1100001555', '1100001559', '1100001565', '1100001567', '1100001568', '1100001573', '1100001577', '1100001581', '1100001582', '1100001587', '1100001588', '1100001590', '1100001597', '1100001601', '1100001604', '1100001607', '1100001608', '1100001615', '1100001617', '1100001620', '1100001622', '1100001623', '1100001636', '1100001638', '1100001640', '1100001645', '1100001652', '1100001658', '1100001660', '1100001662', '1100001664', '1100001671', '1100001677', '1100001678', '1100001683', '1100001684', '1100001689', '1100001690', '1100001691', '1100001694', '1100001697', '1100001699', '1100001700', '1100001701', '1100001702', '1100001704', '1100001712', '1100001713', '1100001715', '1100001720', '1100001721', '1100001723', '1100001724', '1100001726', '1100001729', '1100001734', '1100001735', '1100001736', '1100001738', '1100001739', '1100001743', '1100001747', '1100001749', '1100001751', '1100001758', '1100001760', '1100001769', '1100001774', '1100001775', '1100001779', '1100001780', '1100001781', '1100001783', '1100001785', '1100001788', '1100001795', '1100001796', '1100001798', '1100001804', '1100001807', '1100001808', '1100001809', '1100001811', '1100001812', '1100001817', '1100001821', '1100001824', '1100001825', '1100001831', '1100001836', '1100001839', '1100001842', '1100001843', '1100001844', '1100001846', '1100001854', '1100001855', '1100001862', '1100001866', '1100001870', '1100001875', '1100001878', '1100001880', '1100001881', '1100001886', '1100001887', '1100001889', '1100001891', '1100001897', '1100001904', '1100001906', '1100001907', '1100001910', '1100001912', '1100001914', '1100001915', '1100001922', '1100001924', '1100001927', '1100001928', '1100001930', '1100001931', '1100001938', '1100001939', '1100001940', '1100001941', '1100001943', '1100001949', '1100001950', '1100001951', '1100001954', '1100001963', '1100001970', '1100001975', '1100001979', '1100001983', '1100001985', '1100001989', '1100001995', '1100001997', '1100002000', '1100002005', '1100002018', '1100002022', '1100002028', '1100002036', '1100002038', '1100002048', '1100002049', '1100002052', '1100002054', '1100002058', '1100002062', '1100002063', '1100002064', '1100002065', '1100002066', '1100002067', '1100002069', '1100002070', '1100002074', '1100002076', '1100002077', '1100002079', '1100002080', '1100002082', '1100002083', '1100002085', '1100002086', '1100002089', '1100002090', '1100002095', '1100002096', '1100002106', '1100002109', '1100002111', '1100002121', '1100002131', '1100002140', '1100002142', '1100002143', '1100002144', '1100002146', '1100002148', '1100002150', '1100002151', '1100002155', '1100002156', '1100002158', '1100002159', '1100002170', '1100002175', '1100002176', '1100002178', '1100002181', '1100002193', '1100002197', '1100002201', '1100002203', '1100002209', '1100002211', '1100002212', '1100002215', '1100002219', '1100002230', '1100002232', '1100002235', '1100002240', '1100002245', '1100002249', '1100002251', '1100002254', '1100002255', '1100002256', '1100002258', '1100002261', '1100002272', '1100002276', '1100002284', '1100002285', '1100002290', '1100002293', '1100002294', '1100002297', '1100002298', '1100002299', '1100002301', '1100002303', '1100002308', '1100002309', '1100002310', '1100002314', '1100002315', '1100002316', '1100002318', '1100002319', '1100002321', '1100002322', '1100002324', '1100002327', '1100002328', '1100002330', '1100002340', '1100002346', '1100002349', '1100002350', '1100002352', '1100002354', '1100002358', '1100002367', '1100002368', '1100002375', '1100002377', '1100002378', '1100002382', '1100002389', '1100002392', '1100002397', '1100002401', '1100002403', '1100002404', '1100002407', '1100002409', '1100002411', '1100002416', '1100002418', '1100002421', '1100002422', '1100002428', '1100002429', '1100002430', '1100002431', '1100002432', '1100002436', '1100002438', '1100002439', '1100002441', '1100002442', '1100002445', '1100002447', '1100002455', '1100002465', '1100002469', '1100002471', '1100002472', '1100002479', '1100002484', '1100002487', '1100002489', '1100002490', '1100002491', '1100002494', '1100002495', '1100002496', '1100002497', '1100002500', '1100002502', '1100002503', '1100002504', '1100002507', '1100002508', '1100002509', '1100002510', '1100002511', '1100002516', '1100002520', '1100002521', '1100002522', '1100002524', '1100002526', '1100002527', '1100002532', '1100002534', '1100002535', '1100002543', '1100002548', '1100002549', '1100002550', '1100002551', '1100002557', '1100002567', '1100002569', '1100002570', '1100002573', '1100002585', '1100002591', '1100002600', '1100002601', '1100002602', '1100002608', '1100002612', '1100002614', '1100002615', '1100002625', '1100002628', '1100002633', '1100002637', '1100002638', '1100002640', '1100002641', '1100002644', '1100002649', '1100002652', '1100002653', '1100002655', '1100002656', '1100002663', '1100002664', '1100002665', '1100002667', '1100002674', '1100002677', '1100002678', '1100002679', '1100002681', '1100002685', '1100002686', '1100002689', '1100002693', '1100002700', '1100002701', '1100002702', '1100002703', '1100002705', '1100002706', '1100002707', '1100002725', '1100002729', '1100002741', '1100002742', '1100002747', '1100002750', '1100002752', '1100002753', '1100002757', '1100002760', '1100002761', '1100002762', '1100002766', '1100002771', '1100002776', '1100002780', '1100002786', '1100002787', '1100002789', '1100002791', '1100002798', '1100002799', '1100002802', '1100002803', '1100002806', '1100002810', '1100002811', '1100002818', '1100002823', '1100002826', '1100002832', '1100002833', '1100002834', '1100002835', '1100002842', '1100002844', '1100002845', '1100002846', '1100002848', '1100002855', '1100002858', '1100002859', '1100002860', '1100002861', '1100002864', '1100002865', '1100002867', '1100002870', '1100002879', '1100002883', '1100002884', '1100002887', '1100002892', '1100002893', '1100002900', '1100002902', '1100002904', '1100002905', '1100002908', '1100002911', '1100002915', '1100002918', '1100002919', '1100002921', '1100002922', '1100002924', '1100002925', '1100002932', '1100002933', '1100002936', '1100002940', '1100002944', '1100002946', '1100002947', '1100002948', '1100002952', '1100002953', '1100002957', '1100002958', '1100002960', '1100002970', '1100002981', '1100002987', '1100002993', '1100003000', '1100003002', '1100003003', '1100003017', '1100003019', '1100003020', '1100003021', '1100003022', '1100003026', '1100003030', '1100003032', '1100003035', '1100003037', '1100003038', '1100003040', '1100003043', '1100003048', '1100003052', '1100003055', '1100003063', '1100003068', '1100003070', '1100003073', '1100003078', '1100003083', '1100003086', '1100003090', '1100003093', '1100003094', '1100003096', '1100003098', '1100003100', '1100003122', '1100003127', '1100003128', '1100003136', '1100003143', '1100003144', '1100003147', '1100003149', '1100003150', '1100003166', '1100003170', '1100003172', '1100003175', '1100003176', '1100003179', '1100003188', '1100003190', '1100003193', '1100003199', '1100003213', '1100003220', '1100003238', '1100003244', '1100003248', '1100003252', '1100003253', '1100003254', '1100003260', '1100003261', '1100003262', '1100003267', '1100003270', '1100003271', '1100003272', '1100003273', '1100003274', '1100003275', '1100003277', '1100003278', '1100003280', '1100003283', '1100003287', '1100003288', '1100003290', '1100003291', '1100003294', '1100003299', '1100003300', '1100003303', '1100003305', '1100003311', '1100003315', '1100003316', '1100003318', '1100003319', '1100003320', '1100003323', '1100003325', '1100003327', '1100003328', '1100003330', '1100003331', '1100003333', '1100003334', '1100003335', '1100003338', '1100003341', '1100003342', '1100003343', '1100003346', '1100003351', '11000</t>
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
+        <v>2662536</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>179955</v>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>['(Null)', '1000000543', '1000002035', '1000002377', '1000002595', '1000002691', '1000002749', '1000003034', '1000004444', '1000004524', '1000005075', '1000005346', '1000005862', '1000006014', '1000006054', '1000006108', '1000006192', '1000006236', '1000006463', '1000006649', '1000007030', '1000007295', '1000007298', '1000008540', '1000009461', '1000009624', '1000010305', '1000010649', '1000010765', '1000010884', '1000011333', '1000011517', '1000011735', '1000012300', '1000013084', '1000013310', '1000013653', '1000014173', '1000014871', '1000014923', '1000016020', '1000016810', '1000016970', '1000017485', '1000017523', '1000018019', '1000018753', '1000020044', '1000020228', '1000020345', '1000020448', '1000021444', '1000021792', '1000021881', '1000022435', '1000023408', '1000023603', '1000024192', '1000024526', '1000024869', '1000026069', '1000026316', '1000027076', '1000027697', '1000028011', '1000028399', '1000028445', '1000028715', '1000029126', '1000029772', '1000030240', '1000030283', '1000030290', '1000030910', '1000031082', '1000031810', '1000032871', '1000032910', '1000033305', '1000033587', '1000034820', '1000035071', '1000035104', '1000035450', '1000036000', '1000036064', '1000036214', '1000036218', '1000036597', '1000037560', '1000037627', '1000037711', '1000037738', '1000037766', '1000038029', '1000038281', '1000038733', '1000038866', '1000038951', '1000039320', '1000041296', '1000041859', '1000041949', '1000041972', '1000042223', '1000042479', '1000043467', '1000043493', '1000043658', '1000043822', '1000043962', '1000044123', '1000044290', '1000044881', '1000045647', '1000045702', '1000045776', '1000047396', '1000047542', '1000047864', '1000048143', '1000048185', '1000048914', '1000049336', '1000050473', '1000051048', '1000051134', '1000051355', '1000051369', '1000051831', '1000052159', '1000052257', '1000052555', '1000052559', '1000052620', '1000053492', '1000053620', '1000053794', '1000053930', '1000053991', '1000054087', '1000054101', '1000054179', '1000054668', '1000055174', '1000055596', '1000056502', '1000057350', '1000057572', '1000057666', '1000058016', '1000058303', '1000058607', '1000058630', '1000058759', '1000059163', '1000059509', '1000059647', '1000059659', '1000059904', '1000059978', '1000061459', '1000061697', '1000062277', '1000062456', '1000062583', '1000062667', '1000063098', '1000063461', '1000063518', '1000063753', '1000064414', '1000064892', '1000065144', '1000065188', '1000065440', '1000065543', '1000065913', '1000067151', '1000067382', '1000067446', '1000067721', '1000067743', '1000067745', '1000067804', '1000067819', '1000067829', '1000067843', '1000067906', '1000068144', '1000068333', '1000068868', '1000069954', '1000071754', '1000071819', '1000071870', '1000072135', '1000072235', '1000073034', '1000073042', '1000073686', '1000074244', '1000074316', '1000074390', '1000074401', '1000074415', '1000074494', '1000074527', '1000074725', '1000075459', '1000076518', '1000076523', '1000076753', '1000076935', '1000077271', '1000077396', '1000077539', '1000077540', '1000077598', '1000077690', '1000077747', '1000077946', '1000077966', '1000077981', '1000078360', '1000078416', '1000078682', '1000078740', '1000078842', '1000078899', '1000079243', '1000079682', '1000079753', '1000080003', '1000080145', '1000080203', '1000080617', '1000080698', '1000080702', '1000080767', '1000080923', '1000081108', '1000081288', '1000081290', '1000081355', '1000081389', '1000081420', '1000081521', '1000082174', '1000082249', '1000082416', '1000082635', '1000082975', '1000083334', '1000083447', '1000083759', '1000083772', '1000083870', '1000083914', '1000084226', '1000084648', '1000084924', '1000085113', '1000085170', '1000085366', '1000085418', '1000085527', '1000085774', '1000085797', '1000086171', '1000086481', '1000086951', '1000086959', '1000086994', '1000087270', '1000087320', '1000088036', '1000088184', '1000088194', '1000088289', '1000088501', '1000088534', '1000088635', '1000088894', '1000088953', '1000089783', '1000090732', '1000090927', '1000091289', '1000091311', '1000091391', '1000091708', '1000092224', '1000092795', '1000092952', '1000092969', '1000093096', '1000093121', '1000093200', '1000093237', '1000093567', '1000093678', '1000093804', '1000093884', '1000093927', '1000094125', '1000094205', '1000094568', '1000094592', '1000094644', '1000094919', '1000095032', '1000095359', '1000095448', '1000095502', '1000095846', '1000096034', '1000096279', '1000096430', '1000096486', '1000096782', '1000096806', '1000096857', '1000097102', '1000097212', '1000097474', '1000097501', '1000097585', '1000098118', '1000098201', '1000098458', '1000098464', '1000099312', '1000099333', '1000099525', '1000099593', '1000099734', '1000100613', '1000102084', '1000102085', '1000102086', '1000102088', '1000102109', '1000102452', '1000102532', '1000102656', '1000102697', '1000103103', '1000103275', '1000103325', '1000103460', '1000103627', '1000103694', '1000104307', '1000104447', '1000104699', '1000104812', '1000105027', '1000105160', '1000105168', '1000105626', '1000105729', '1000105973', '1000106041', '1000106062', '1000106124', '1000106160', '1000106751', '1000106948', '1000107258', '1000107453', '1000108100', '1000108276', '1000108511', '1000108552', '1000108987', '1000109136', '1000109494', '1000109735', '1000109784', '1000110129', '1000110137', '1000110189', '1000111116', '1000111158', '1000111193', '1000111367', '1000111705', '1000111744', '1000111908', '1000112041', '1000112409', '1000112508', '1000112538', '1000112901', '1000112942', '1000113183', '1000113471', '1000113743', '1000113873', '1000113909', '1000113913', '1000114069', '1000114102', '1000114144', '1000114163', '1000114478', '1000114521', '1000114573', '1000114965', '1000114974', '1000115519', '1000116021', '1000116101', '1000116108', '1000116131', '1000116275', '1000116374', '1000116712', '1000117634', '1000118338', '1000118390', '1000118483', '1000118672', '1000118770', '1000118776', '1000118821', '1000119028', '1000119163', '1000119176', '1000119281', '1000119304', '1000119331', '1000119488', '1000119520', '1000119576', '1000119625', '1000119969', '1000120185', '1000120204', '1000120422', '1000120535', '1000120574', '1000120597', '1000121025', '1000121440', '1000121443', '1000121546', '1000121658', '1000121682', '1000121918', '1000122086', '1000122221', '1000122266', '1000122577', '1000122664', '1000123083', '1000123195', '1000123226', '1000123901', '1000124065', '1000124180', '1000124263', '1000124300', '1000124359', '1000124453', '1000124486', '1000124723', '1000124729', '1000124765', '1000124836', '1000124940', '1000125108', '1000125147', '1000125706', '1000125744', '1000126090', '1000126230', '1000126409', '1000126544', '1000126557', '1000126734', '1000127645', '1000127781', '1000128304', '1000128314', '1000128724', '1000129066', '1000129084', '1000129191', '1000129281', '1000129355', '1000129537', '1000129568', '1000129678', '1000130010', '1000130701', '1000130766', '1000131040', '1000131104', '1000131410', '1000131713', '1000131762', '1000132105', '1000132146', '1000132166', '1000132259', '1000132445', '1000492027', '1100000013', '1100000024', '1100000030', '1100000034', '1100000037', '1100000038', '1100000043', '1100000048', '1100000050', '1100000052', '1100000056', '1100000057', '1100000059', '1100000060', '1100000061', '1100000063', '1100000065', '1100000070', '1100000071', '1100000072', '1100000075', '1100000077', '1100000093', '1100000094', '1100000106', '1100000123', '1100000126', '1100000131', '1100000137', '1100000138', '1100000140', '1100000141', '1100000143', '1100000144', '1100000151', '1100000157', '1100000159', '1100000160', '1100000161', '1100000163', '1100000166', '1100000167', '1100000169', '1100000173', '1100000174', '1100000178', '1100000180', '1100000186', '1100000196', '1100000198', '1100000200', '1100000207', '1100000214', '1100000221', '1100000223', '1100000224', '1100000225', '1100000226', '1100000230', '1100000232', '1100000234', '1100000237', '1100000240', '1100000241', '1100000243', '1100000251', '1100000255', '1100000258', '1100000260', '1100000261', '1100000262', '1100000263', '1100000266', '1100000267', '1100000270', '1100000277', '1100000282', '1100000284', '1100000285', '1100000287', '1100000289', '1100000290', '1100000301', '1100000305', '1100000307', '1100000311', '1100000319', '1100000322', '1100000324', '1100000325', '1100000326', '1100000333', '1100000336', '1100000337', '1100000339', '1100000353', '1100000362', '1100000376', '1100000378', '1100000384', '1100000386', '1100000387', '1100000390', '1100000392', '1100000393', '1100000394', '1100000395', '1100000400', '1100000404', '1100000406', '1100000407', '1100000408', '1100000409', '1100000412', '1100000415', '1100000424', '1100000431', '1100000436', '1100000442', '1100000444', '1100000449', '1100000450', '1100000451', '1100000457', '1100000458', '1100000459', '1100000473', '1100000477', '1100000479', '1100000487', '1100000490', '1100000498', '1100000505', '1100000509', '1100000513', '1100000515', '1100000517', '1100000519', '1100000522', '1100000527', '1100000531', '1100000534', '1100000538', '1100000540', '1100000549', '1100000550', '1100000551', '1100000552', '1100000553', '1100000555', '1100000559', '1100000561', '1100000562', '1100000563', '1100000564', '1100000565', '1100000578', '1100000581', '1100000587', '1100000588', '1100000589', '1100000590', '1100000598', '1100000600', '1100000603', '1100000606', '1100000609', '1100000611', '1100000618', '1100000622', '1100000623', '1100000629', '1100000632', '1100000633', '1100000634', '1100000635', '1100000637', '1100000640', '1100000648', '1100000654', '1100000657', '1100000658', '1100000659', '1100000666', '1100000667', '1100000670', '1100000672', '1100000673', '1100000678', '1100000686', '1100000690', '1100000691', '1100000693', '1100000697', '1100000709', '1100000710', '1100000714', '1100000719', '1100000722', '1100000728', '1100000732', '1100000734', '1100000736', '1100000739', '1100000740', '1100000743', '1100000750', '1100000751', '1100000752', '1100000767', '1100000773', '1100000774', '1100000778', '1100000782', '1100000788', '1100000791', '1100000793', '1100000797', '1100000798', '1100000804', '1100000807', '1100000808', '1100000810', '1100000813', '1100000818', '1100000824', '1100000825', '1100000827', '1100000832', '1100000833', '1100000834', '1100000836', '1100000838', '1100000853', '1100000857', '1100000861', '1100000866', '1100000867', '1100000868', '1100000870', '1100000876', '1100000878', '1100000880', '1100000882', '1100000885', '1100000887', '1100000890', '1100000893', '1100000894', '1100000897', '1100000900', '1100000902', '1100000909', '1100000914', '1100000915', '1100000916', '1100000917', '1100000925', '1100000931', '1100000934', '1100000935', '1100000938', '1100000942', '1100000943', '1100000950', '1100000952', '1100000956', '1100000959', '1100000963', '1100000966', '1100000972', '1100000975', '1100000976', '1100000977', '1100000978', '1100000979', '1100000982', '1100000984', '1100000986', '1100000990', '1100000993', '1100000997', '1100001003', '1100001005', '1100001008', '1100001013', '1100001019', '1100001021', '1100001048', '1100001049', '1100001052', '1100001053', '1100001063', '1100001068', '1100001073', '1100001078', '1100001079', '1100001082', '1100001084', '1100001086', '1100001093', '1100001097', '1100001101', '1100001103', '1100001106', '1100001109', '1100001112', '1100001114', '1100001115', '1100001126', '1100001129', '1100001130', '1100001132', '1100001136', '1100001137', '1100001139', '1100001140', '1100001141', '1100001142', '1100001143', '1100001144', '1100001146', '1100001147', '1100001149', '1100001150', '1100001153', '1100001156', '1100001159', '1100001166', '1100001167', '1100001170', '1100001175', '1100001190', '1100001194', '1100001196', '1100001199', '1100001200', '1100001201', '1100001202', '1100001205', '1100001212', '1100001213', '1100001218', '1100001220', '1100001221', '1100001224', '1100001225', '1100001226', '1100001230', '1100001232', '1100001235', '1100001242', '1100001248', '1100001250', '1100001251', '1100001255', '1100001256', '1100001260', '1100001278', '1100001279', '1100001284', '1100001285', '1100001288', '1100001290', '1100001297', '1100001313', '1100001320', '1100001321', '1100001323', '1100001324', '1100001327', '1100001328', '1100001335', '1100001338', '1100001339', '1100001342', '1100001356', '1100001362', '1100001363', '1100001364', '1100001367', '1100001371', '1100001378', '1100001382', '1100001383', '1100001385', '1100001387', '1100001388', '1100001390', '1100001391', '1100001393', '1100001395', '1100001397', '1100001401', '1100001418', '1100001435', '1100001437', '1100001439', '1100001441', '1100001442', '1100001448', '1100001450', '1100001458', '1100001460', '1100001471', '1100001472', '1100001474', '1100001475', '1100001486', '1100001487', '1100001491', '1100001494', '1100001498', '1100001500', '1100001513', '1100001514', '1100001516', '1100001519', '1100001521', '1100001523', '1100001524', '1100001525', '1100001528', '1100001529', '1100001530', '1100001535', '1100001545', '1100001551', '1100001554', '1100001555', '1100001559', '1100001565', '1100001567', '1100001568', '1100001573', '1100001577', '1100001581', '1100001582', '1100001587', '1100001588', '1100001590', '1100001597', '1100001601', '1100001604', '1100001607', '1100001608', '1100001615', '1100001617', '1100001620', '1100001622', '1100001623', '1100001636', '1100001638', '1100001640', '1100001645', '1100001652', '1100001658', '1100001660', '1100001662', '1100001664', '1100001671', '1100001677', '1100001678', '1100001683', '1100001684', '1100001689', '1100001690', '1100001691', '1100001694', '1100001697', '1100001699', '1100001700', '1100001701', '1100001702', '1100001704', '1100001712', '1100001713', '1100001715', '1100001720', '1100001721', '1100001723', '1100001724', '1100001726', '1100001729', '1100001734', '1100001735', '1100001736', '1100001738', '1100001739', '1100001743', '1100001747', '1100001749', '1100001751', '1100001758', '1100001760', '1100001769', '1100001774', '1100001775', '1100001779', '1100001780', '1100001781', '1100001783', '1100001785', '1100001788', '1100001795', '1100001796', '1100001798', '1100001804', '1100001807', '1100001808', '1100001809', '1100001811', '1100001812', '1100001817', '1100001821', '1100001824', '1100001825', '1100001831', '1100001836', '1100001839', '1100001842', '1100001843', '1100001844', '1100001846', '1100001854', '1100001855', '1100001862', '1100001866', '1100001870', '1100001875', '1100001878', '1100001880', '1100001881', '1100001886', '1100001887', '1100001889', '1100001891', '1100001897', '1100001904', '1100001906', '1100001907', '1100001910', '1100001912', '1100001914', '1100001915', '1100001922', '1100001924', '1100001927', '1100001928', '1100001930', '1100001931', '1100001938', '1100001939', '1100001940', '1100001941', '1100001943', '1100001949', '1100001950', '1100001951', '1100001954', '1100001963', '1100001970', '1100001975', '1100001979', '1100001983', '1100001985', '1100001989', '1100001995', '1100001997', '1100002000', '1100002005', '1100002018', '1100002022', '1100002028', '1100002036', '1100002038', '1100002048', '1100002049', '1100002052', '1100002054', '1100002058', '1100002062', '1100002063', '1100002064', '1100002065', '1100002066', '1100002067', '1100002069', '1100002070', '1100002074', '1100002076', '1100002077', '1100002079', '1100002080', '1100002082', '1100002083', '1100002085', '1100002086', '1100002089', '1100002090', '1100002095', '1100002096', '1100002106', '1100002109', '1100002111', '1100002121', '1100002131', '1100002140', '1100002142', '1100002143', '1100002144', '1100002146', '1100002148', '1100002150', '1100002151', '1100002155', '1100002156', '1100002158', '1100002159', '1100002170', '1100002175', '1100002176', '1100002178', '1100002181', '1100002193', '1100002197', '1100002201', '1100002203', '1100002209', '1100002211', '1100002212', '1100002215', '1100002219', '1100002230', '1100002232', '1100002235', '1100002240', '1100002245', '1100002249', '1100002251', '1100002254', '1100002255', '1100002256', '1100002258', '1100002261', '1100002272', '1100002276', '1100002284', '1100002285', '1100002290', '1100002293', '1100002294', '1100002297', '1100002298', '1100002299', '1100002301', '1100002303', '1100002308', '1100002309', '1100002310', '1100002314', '1100002315', '1100002316', '1100002318', '1100002319', '1100002321', '1100002322', '1100002324', '1100002327', '1100002328', '1100002330', '1100002340', '1100002346', '1100002349', '1100002350', '1100002352', '1100002354', '1100002358', '1100002367', '1100002368', '1100002375', '1100002377', '1100002378', '1100002382', '1100002389', '1100002392', '1100002397', '1100002401', '1100002403', '1100002404', '1100002407', '1100002409', '1100002411', '1100002416', '1100002418', '1100002421', '1100002422', '1100002428', '1100002429', '1100002430', '1100002431', '1100002432', '1100002436', '1100002438', '1100002439', '1100002441', '1100002442', '1100002445', '1100002447', '1100002455', '1100002465', '1100002469', '1100002471', '1100002472', '1100002479', '1100002484', '1100002487', '1100002489', '1100002490', '1100002491', '1100002494', '1100002495', '1100002496', '1100002497', '1100002500', '1100002502', '1100002503', '1100002504', '1100002507', '1100002508', '1100002509', '1100002510', '1100002511', '1100002516', '1100002520', '1100002521', '1100002522', '1100002524', '1100002526', '1100002527', '1100002532', '1100002534', '1100002535', '1100002543', '1100002548', '1100002549', '1100002550', '1100002551', '1100002557', '1100002567', '1100002569', '1100002570', '1100002573', '1100002585', '1100002591', '1100002600', '1100002601', '1100002602', '1100002608', '1100002612', '1100002614', '1100002615', '1100002625', '1100002628', '1100002633', '1100002637', '1100002638', '1100002640', '1100002641', '1100002644', '1100002649', '1100002652', '1100002653', '1100002655', '1100002656', '1100002663', '1100002664', '1100002665', '1100002667', '1100002674', '1100002677', '1100002678', '1100002679', '1100002681', '1100002685', '1100002686', '1100002689', '1100002693', '1100002700', '1100002701', '1100002702', '1100002703', '1100002705', '1100002706', '1100002707', '1100002725', '1100002729', '1100002741', '1100002742', '1100002747', '1100002750', '1100002752', '1100002753', '1100002757', '1100002760', '1100002761', '1100002762', '1100002766', '1100002771', '1100002776', '1100002780', '1100002786', '1100002787', '1100002789', '1100002791', '1100002798', '1100002799', '1100002802', '1100002803', '1100002806', '1100002810', '1100002811', '1100002818', '1100002823', '1100002826', '1100002832', '1100002833', '1100002834', '1100002835', '1100002842', '1100002844', '1100002845', '1100002846', '1100002848', '1100002855', '1100002858', '1100002859', '1100002860', '1100002861', '1100002864', '1100002865', '1100002867', '1100002870', '1100002879', '1100002883', '1100002884', '1100002887', '1100002892', '1100002893', '1100002900', '1100002902', '1100002904', '1100002905', '1100002908', '1100002911', '1100002915', '1100002918', '1100002919', '1100002921', '1100002922', '1100002924', '1100002925', '1100002932', '1100002933', '1100002936', '1100002940', '1100002944', '1100002946', '1100002947', '1100002948', '1100002952', '1100002953', '1100002957', '1100002958', '1100002960', '1100002970', '1100002981', '1100002987', '1100002993', '1100003000', '1100003002', '1100003003', '1100003017', '1100003019', '1100003020', '1100003021', '1100003022', '1100003026', '1100003030', '1100003032', '1100003035', '1100003037', '1100003038', '1100003040', '1100003043', '1100003048', '1100003052', '1100003055', '1100003063', '1100003068', '1100003070', '1100003073', '1100003078', '1100003083', '1100003086', '1100003090', '1100003093', '1100003094', '1100003096', '1100003098', '1100003100', '1100003122', '1100003127', '1100003128', '1100003136', '1100003143', '1100003144', '1100003147', '1100003149', '1100003150', '1100003166', '1100003170', '1100003172', '1100003175', '1100003176', '1100003179', '1100003188', '1100003190', '1100003193', '1100003199', '1100003213', '1100003220', '1100003238', '1100003244', '1100003248', '1100003252', '1100003253', '1100003254', '1100003260', '1100003261', '1100003262', '1100003267', '1100003270', '1100003271', '1100003272', '1100003273', '1100003274', '1100003275', '1100003277', '1100003278', '1100003280', '1100003283', '1100003287', '1100003288', '1100003290', '1100003291', '1100003294', '1100003299', '1100003300', '1100003303', '1100003305', '1100003311', '1100003315', '1100003316', '1100003318', '1100003319', '1100003320', '1100003323', '1100003325', '1100003327', '1100003328', '1100003330', '1100003331', '1100003333', '1100003334', '1100003335', '1100003338', '1100003341', '1100003342', '1100003343', '1100003346', '1100003351', '1100003352', '1100003355', '1100003356', '1100003357', '1100003364', '1100003369', '1100003370', '1100003378', '1100003384', '1100003386', '1100003387', '1100003388', '1100003393', '1100003394', '1100003399', '1100003401', '1100003403', '1100003412', '1100003414', '1100003420', '1100003422', '1100003427', '1100003428', '1100003440', '1100003449', '1100003453', '1100003455', '1100003456', '1100003459', '1100003463', '1100003468', '1100003482', '1100003489', '1100003490', '1100003493', '1100003494', '1100003497', '1100003500', '1100003512', '1100003513', '1100003521', '1100003523', '1100003530', '1100003549', '1100003554', '1100003555', '1100003556', '1100003561', '1100003564', '1100003567', '1100003571', '1100003572', '1100003573', '1100003575', '1100003580', '1100003582', '1100003590', '1100003593', '1100003596', '1100003603', '1100003604', '1100003605', '1100003608', '1100003611', '1100003615', '1100003617', '1100003620', '1100003623', '1100003624', '1100003627', '1100003628', '1100003630', '1100003632', '1100003633', '1100003639', '1100003642', '1100003648', '1100003656', '1100003659', '1100003660', '1100003663', '1100003664', '1100003667', '1100003670', '1100003672', '1100003674', '1100003680', '1100003681', '1100003685', '1100003688', '1100003689', '1100003691', '1100003695', '1100003697', '1100003699', '1100003709', '1100003710', '1100003711', '1100003713', '1100003714', '1100003716', '1100003720', '1100003721', '1100003725', '1100003726', '1100003729', '1100003732', '1100003740', '1100003743', '1100003744', '1100003747', '1100003750', '1100003753', '1100003755', '1100003756', '1100003760', '1100003763', '1100003764', '1100003765', '1100003768', '1100003771', '1100003779', '1100003783', '1100003787', '1100003789', '1100003790', '1100003791', '1100003797', '1100003804', '1100003807', '1100003808', '1100003814', '1100003815', '1100003819', '1100003821', '1100003826', '1100003828', '1100003830', '1100003831', '1100003836', '1100003846', '1100003850', '1100003852', '1100003854', '1100003855', '1100003860', '1100003866', '1100003867', '1100003874', '1100003877', '1100003885', '1100003890', '1100003891', '1100003893', '1100003901', '1100003903', '1100003904', '1100003912', '1100003917', '1100003922', '1100003927', '1100003931', '1100003932', '1100003935', '1100003939', '1100003944', '1100003951', '1100003955', '1100003969', '1100003972', '1100003973', '1100003974', '1100003976', '1100003977', '1100003979', '1100003981', '1100003983', '1100003987', '1100003993', '1100003997', '1100004005', '1100004007', '1100004025', '1100004029', '1100004032', '1100004033', '1100004039', '1100004040', '1100004041', '1100004042', '1100004044', '1100004047', '1100004051', '1100004055', '1100004056', '1100004064', '1100004073', '1100004075', '1100004078', '1100004080', '1100004082', '1100004084', '1100004088', '1100004090', '1100004097', '1100004102', '1100004108', '1100004110', '1100004111', '1100004115', '1100004119', '1100004125', '1100004126', '1100004140', '1100004143', '1100004154', '1100004161', '1100004164', '1100004177', '1100004178', '1100004179', '1100004181', '1100004182', '1100004184', '1100004186', '1100004187', '1100004188', '1100004189', '1100004191', '1100004197', '1100004199', '1100004209', '1100004210', '1100004211', '1100004212', '1100004213', '1100004214', '1100004215', '1100004216', '1100004217', '1100004218', '1100004219', '1100004220', '1100004225', '1100004227', '1100004228', '1100004232', '1100004237', '1100004241', '1100004243', '1100004248', '1100004256', '1100004260', '1100004261', '1100004263', '1100004268', '1100004271', '1100004272', '1100004278', '1100004283', '1100004285', '1100004290', '1100004291', '1100004293', '1100004297', '1100004298', '1100004300', '1100004301', '1100004303', '1100004305', '1100004306', '1100004309', '1100004313', '1100004316', '1100004320', '1100004321', '1100004322', '1100004323', '1100004329', '1100004331', '1100004333', '1100004339', '1100004343', '1100004349', '1100004352', '1100004355', '1100004357', '1100004359', '1100004361', '1100004364', '1100004365', '1100004367', '1100004371', '1100004382', '1100004394', '1100004396', '1100004398', '1100004402', '1100004405', '1100004407', '1100004420', '1100004422', '1100004424', '1100004425', '1100004426', '1100004430', '1100004432', '1100004435', '1100004436', '1100004440', '1100004442', '1100004445', '1100004446', '1100004451', '1100004452', '1100004454', '1100004455', '1100004456', '1100004457', '1100004459', '1100004461', '1100004462', '1100004463', '1100004464', '1100004466', '1100004468', '1100004470', '1100004471', '1100004475', '1100004477', '1100004478', '1100004484', '1100004485', '1100004487', '1100004488', '1100004490', '1100004492', '1100004495', '1100004496', '1100004497', '1100004498', '1100004500', '1100004507', '1100004509', '1100004511', '1100004513', '1100004516', '1100004517', '1100004519', '1100004521', '1100004523', '1100004526', '1100004527', '1100004528', '1100004529', '1100004530', '1100004532', '1100004534', '1100004540', '1100004543', '1100004545', '1100004548', '1100004550', '1100004551', '1100004553', '1100004557', '1100004566', '1100004567', '1100004571', '1100004576', '1100004577', '1100004586', '1100004587', '1100004589', '1100004590', '1100004592', '1100004593', '1100004608', '1100004617', '1100004619', '1100004620', '1100004624', '1100004626', '1100004632', '1100004634', '1100004639', '1100004642', '1100004643', '1100004645', '1100004648', '1100004653', '1100004657', '1100004658', '1100004662', '1100004663', '1100004664', '1100004667', '1100004678', '1100004683', '1100004692', '1100004693', '1100004694', '1100004696', '1100004699', '1100004700', '1100004703', '1100004707', '1100004709', '1100004710', '1100004712', '1100004713', '1100004715', '1100004718', '1100004719', '1100004720', '1100004721', '1100004723', '1100004724', '1100004726', '1100004727', '1100004729', '1100004733', '1100004734', '1100004736', '1100004739', '1100004740', '1100004741', '1100004745', '1100004751', '1100004752', '1100004754', '1100004757', '1100004761', '1100004763', '1100004765', '1100004768', '1100004769', '1100004770', '1100004774', '1100004782', '1100004784', '1100004786', '1100004787', '1100004793', '1100004794', '1100004795', '1100004796', '1100004797', '1100004798', '1100004799', '1100004801', '1100004805', '1100004806', '1100004808', '1100004810', '1100004811', '1100004815', '1100004816', '1100004817', '1100004822', '1100004823', '1100004825', '1100004826', '1100004828', '1100004830', '1100004832', '1100004835', '1100004836', '1100004838', '1100004839', '1100004840', '1100004843', '1100004849', '1100004853', '1100004856', '1100004862', '1100004863', '1100004864', '1100004865', '1100004872', '1100004873', '1100004874', '1100004875', '1100004876', '1100004878', '1100004881', '1100004884', '1100004888', '1100004895', '1100004897', '1100004898', '1100004902', '1100004905', '1100004906', '1100004907', '1100004910', '1100004915', '1100004919', '1100004922', '1100004923', '1100004928', '1100004933', '1100004939', '1100004941', '1100004942', '1100004946', '1100004947', '1100004948', '1100004961', '1100004962', '1100004967', '1100004971', '1100004972', '1100004985', '1100004987', '1100004988', '1100004995', '1100004997', '1100004999', '1100005000', '1100005006', '1100005011', '1100005012', '1100005013', '1100005014', '1100005015', '1100005018', '1100005024', '1100005025', '1100005029', '1100005030', '1100005031', '1100005032', '1100005034', '1100005036', '1100005039', '1100005042', '1100005043', '1100005045', '1100005048', '1100005052', '1100005053', '1100005057', '1100005058', '1100005062', '1100005065', '1100005068', '1100005070', '1100005071', '1100005074', '1100005075', '1100005079', '1100005081', '1100005086', '1100005087', '1100005090', '1100005091', '1100005092', '1100005097', '1100005099', '1100005100', '1100005106', '1100005112', '1100005115', '1100005116', '1100005118', '1100005120', '1100005122', '1100005125', '1100005129', '1100005130', '1100005137', '1100005155', '1100005158', '1100005161', '1100005163', '1100005165', '1100005166', '1100005168', '1100005169', '1100005171', '1100005173', '1100005174', '1100005175', '1100005178', '1100005180', '1100005182', '1100005183', '1100005184', '1100005186', '1100005189', '1100005190', '1100005191', '1100005194', '1100005197', '1100005198', '1100005204', '1100005206', '1100005207', '1100005209', '1100005210', '1100005212', '1100005214', '1100005215', '1100005216', '1100005218', '1100005219', '1100005221', '1100005222', '1100005223', '1100005224', '1100005225', '1100005228', '1100005233', '1100005234', '1100005239', '1100005240', '1100005245', '1100005246', '1100005248', '1100005253', '1100005255', '1100005262', '1100005264', '1100005270', '1100005271', '1100005272', '1100005275', '1100005282', '1100005287', '1100005288', '1100005289', '1100005291', '1100005296', '1100005299', '1100005300', '1100005302', '1100005303', '1100005304', '1100005306', '1100005310', '1100005322', '1100005325', '1100005334', '1100005335', '1100005338', '1100005340', '1100005341', '1100005342', '1100005347', '1100005350', '1100005352', '1100005353', '1100005356', '1100005358', '1100005361', '1100005368', '1100005373', '1100005376', '1100005377', '1100005379', '1100005380', '1100005382', '1100005386', '1100005388', '1100005392', '1100005394', '1100005396', '1100005398', '1100005399', '1100005406', '1100005408', '1100005409', '1100005411', '1100005412', '1100005414', '1100005416', '1100005417', '1100005421', '1100005423', '1100005428', '1100005429', '1100005434', '1100005436', '1100005437', '1100005439', '1100005443', '1100005445', '1100005450', '1100005451', '1100005452', '1100005457', '1100005465', '1100005467', '1100005476', '1100005477', '1100005478', '1100005480', '1100005481', '1100005482', '1100005483', '1100005493', '1100005494', '1100005495', '1100005503', '1100005504', '1100005507', '1100005508', '1100005513', '1100005516', '1100005520', '1100005528', '1100005529', '1100005536', '1100005545', '1100005550', '1100005551', '1100005562', '1100005576', '1100005581', '1100005584', '1100005585', '1100005589', '1100005591', '1100005597', '1100005600', '1100005603', '1100005604', '1100005605', '1100005606', '1100005607', '1100005610', '1100005612', '1100005615', '1100005616', '1100005619', '1100005623', '1100005626', '1100005630', '1100005632', '1100005634', '1100005639', '1100005641', '1100005642', '1100005646', '1100005653', '1100005656', '1100005661', '1100005662', '1100005666', '1100005676', '1100005678', '1100005682', '1100005685', '1100005687', '1100005693', '1100005694', '1100005696', '1100005697', '1100005698', '1100005700', '1100005701', '1100005704', '1100005706', '1100005707', '1100005708', '1100005709', '1100005710', '1100005713', '1100005717', '1100005718', '1100005722', '1100005729', '1100005733', '1100005734', '1100005735', '1100005737', '1100005738', '1100005739', '1100005744', '1100005748', '1100005752', '1100005761', '1100005765', '1100005770', '1100005771', '1100005772', '1100005774', '1100005775', '1100005776', '1100005777', '1100005778', '1100005781', '1100005788', '1100005791', '1100005793', '1100005796', '1100005797', '1100005798', '1100005801', '1100005805', '1100005808', '1100005813', '1100005818', '1100005822', '1100005826', '1100005830', '1100005831', '1100005852', '1100005858', '1100005860', '1100005863', '1100005866', '1100005867', '1100005873', '1100005874', '1100005875', '1100005877', '1100005882', '1100005883', '1100005884', '1100005891', '1100005892', '1100005893', '1100005897', '1100005899', '1100005900', '1100005904', '1100005908', '1100005909', '1100005911', '1100005913', '1100005916', '1100005922', '1100005923', '1100005924', '1100005927', '1100005928', '1100005935', '1100005936', '1100005937', '1100005948', '1100005951', '1100005954', '1100005962', '1100005963', '1100005964', '1100005966', '1100005969', '110000597</t>
         </is>
       </c>
     </row>
@@ -576,7 +594,7 @@
         <v>267773</v>
       </c>
       <c r="E3" t="n">
-        <v>267773</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -591,19 +609,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K3" t="n">
         <v>-1</v>
       </c>
       <c r="L3" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="M3" t="n">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -621,24 +639,32 @@
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>JUVENILE</t>
+          <t>2016-07-02 00:00:00</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2796</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>03/25/2011</t>
+        </is>
       </c>
       <c r="V3" t="n">
-        <v>3605316</v>
+        <v>287</v>
       </c>
       <c r="W3" t="n">
-        <v>1866</v>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>['01/13/2011', '01/13/2012', '01/13/2013', '01/13/2014', '01/13/2015', '01/13/2016', '01/14/2011', '01/14/2012', '01/14/2013', '01/14/2014', '01/14/2015', '01/14/2016', '01/15/2011', '01/15/2012', '01/15/2013', '01/15/2014', '01/15/2015', '01/15/2016', '01/16/2011', '01/16/2012', '01/16/2013', '01/16/2014', '01/16/2015', '01/16/2016', '01/17/2011', '01/17/2012', '01/17/2013', '01/17/2014', '01/17/2015', '01/17/2016', '01/18/2011', '01/18/2012', '01/18/2013', '01/18/2014', '01/18/2015', '01/18/2016', '01/19/2011', '01/19/2012', '01/19/2013', '01/19/2014', '01/19/2015', '01/19/2016', '01/20/2011', '01/20/2012', '01/20/2013', '01/20/2014', '01/20/2015', '01/20/2016', '01/21/2011', '01/21/2012', '01/21/2013', '01/21/2014', '01/21/2015', '01/21/2016', '01/22/2011', '01/22/2012', '01/22/2013', '01/22/2014', '01/22/2015', '01/22/2016', '01/23/2011', '01/23/2012', '01/23/2013', '01/23/2014', '01/23/2015', '01/23/2016', '01/24/2011', '01/24/2012', '01/24/2013', '01/24/2014', '01/24/2015', '01/24/2016', '01/25/2011', '01/25/2012', '01/25/2013', '01/25/2014', '01/25/2015', '01/25/2016', '01/26/2011', '01/26/2012', '01/26/2013', '01/26/2014', '01/26/2015', '01/26/2016', '01/27/2011', '01/27/2012', '01/27/2013', '01/27/2014', '01/27/2015', '01/27/2016', '01/28/2011', '01/28/2012', '01/28/2013', '01/28/2014', '01/28/2015', '01/28/2016', '01/29/2011', '01/29/2012', '01/29/2013', '01/29/2014', '01/29/2015', '01/29/2016', '01/30/2011', '01/30/2012', '01/30/2013', '01/30/2014', '01/30/2015', '01/30/2016', '01/31/2011', '01/31/2012', '01/31/2013', '01/31/2014', '01/31/2015', '01/31/2016', '02/13/2011', '02/13/2012', '02/13/2013', '02/13/2014', '02/13/2015', '02/14/2011', '02/14/2012', '02/14/2013', '02/14/2014', '02/14/2015', '02/15/2011', '02/15/2012', '02/15/2013', '02/15/2014', '02/15/2015', '02/16/2011', '02/16/2012', '02/16/2013', '02/16/2014', '02/16/2015', '02/17/2011', '02/17/2012', '02/17/2013', '02/17/2014', '02/17/2015', '02/18/2011', '02/18/2012', '02/18/2013', '02/18/2014', '02/18/2015', '02/19/2011', '02/19/2012', '02/19/2013', '02/19/2014', '02/19/2015', '02/20/2011', '02/20/2012', '02/20/2013', '02/20/2014', '02/20/2015', '02/21/2011', '02/21/2012', '02/21/2013', '02/21/2014', '02/21/2015', '02/22/2011', '02/22/2012', '02/22/2013', '02/22/2014', '02/22/2015', '02/23/2011', '02/23/2012', '02/23/2013', '02/23/2014', '02/23/2015', '02/24/2011', '02/24/2012', '02/24/2013', '02/24/2014', '02/24/2015', '02/25/2011', '02/25/2012', '02/25/2013', '02/25/2014', '02/25/2015', '02/26/2011', '02/26/2012', '02/26/2013', '02/26/2014', '02/26/2015', '02/27/2011', '02/27/2012', '02/27/2013', '02/27/2014', '02/27/2015', '02/28/2011', '02/28/2012', '02/28/2013', '02/28/2014', '02/28/2015', '02/29/2012', '03/13/2011', '03/13/2012', '03/13/2013', '03/13/2014', '03/13/2015', '03/14/2011', '03/14/2012', '03/14/2013', '03/14/2014', '03/14/2015', '03/15/2011', '03/15/2012', '03/15/2013', '03/15/2014', '03/15/2015', '03/16/2011', '03/16/2012', '03/16/2013', '03/16/2014', '03/16/2015', '03/17/2011', '03/17/2012', '03/17/2013', '03/17/2014', '03/17/2015', '03/18/2011', '03/18/2012', '03/18/2013', '03/18/2014', '03/18/2015', '03/19/2011', '03/19/2012', '03/19/2013', '03/19/2014', '03/19/2015', '03/20/2011', '03/20/2012', '03/20/2013', '03/20/2014', '03/20/2015', '03/21/2011', '03/21/2012', '03/21/2013', '03/21/2014', '03/21/2015', '03/22/2011', '03/22/2012', '03/22/2013', '03/22/2014', '03/22/2015', '03/23/2011', '03/23/2012', '03/23/2013', '03/23/2014', '03/23/2015', '03/24/2011', '03/24/2012', '03/24/2013', '03/24/2014', '03/24/2015', '03/25/2011', '03/25/2012', '03/25/2013', '03/25/2014', '03/25/2015', '03/26/2011', '03/26/2012', '03/26/2013', '03/26/2014', '03/26/2015', '03/27/2011', '03/27/2012', '03/27/2013', '03/27/2014', '03/27/2015', '03/28/2011', '03/28/2012', '03/28/2013', '03/28/2014', '03/28/2015', '03/29/2011', '03/29/2012', '03/29/2013', '03/29/2014', '03/29/2015', '03/30/2011', '03/30/2012', '03/30/2013', '03/30/2014', '03/30/2015', '03/31/2011', '03/31/2012', '03/31/2013', '03/31/2014', '03/31/2015', '04/13/2011', '04/13/2012', '04/13/2013', '04/13/2014', '04/13/2015', '04/14/2011', '04/14/2012', '04/14/2013', '04/14/2014', '04/14/2015', '04/15/2011', '04/15/2012', '04/15/2013', '04/15/2014', '04/15/2015', '04/16/2011', '04/16/2012', '04/16/2013', '04/16/2014', '04/16/2015', '04/17/2011', '04/17/2012', '04/17/2013', '04/17/2014', '04/17/2015', '04/18/2011', '04/18/2012', '04/18/2013', '04/18/2014', '04/18/2015', '04/19/2011', '04/19/2012', '04/19/2013', '04/19/2014', '04/19/2015', '04/20/2011', '04/20/2012', '04/20/2013', '04/20/2014', '04/20/2015', '04/21/2011', '04/21/2012', '04/21/2013', '04/21/2014', '04/21/2015', '04/22/2011', '04/22/2012', '04/22/2013', '04/22/2014', '04/22/2015', '04/23/2011', '04/23/2012', '04/23/2013', '04/23/2014', '04/23/2015', '04/24/2011', '04/24/2012', '04/24/2013', '04/24/2014', '04/24/2015', '04/25/2011', '04/25/2012', '04/25/2013', '04/25/2014', '04/25/2015', '04/26/2011', '04/26/2012', '04/26/2013', '04/26/2014', '04/26/2015', '04/27/2011', '04/27/2012', '04/27/2013', '04/27/2014', '04/27/2015', '04/28/2011', '04/28/2012', '04/28/2013', '04/28/2014', '04/28/2015', '04/29/2011', '04/29/2012', '04/29/2013', '04/29/2014', '04/29/2015', '04/30/2011', '04/30/2012', '04/30/2013', '04/30/2014', '04/30/2015', '05/13/2011', '05/13/2012', '05/13/2013', '05/13/2014', '05/13/2015', '05/14/2011', '05/14/2012', '05/14/2013', '05/14/2014', '05/14/2015', '05/15/2011', '05/15/2012', '05/15/2013', '05/15/2014', '05/15/2015', '05/16/2011', '05/16/2012', '05/16/2013', '05/16/2014', '05/16/2015', '05/17/2011', '05/17/2012', '05/17/2013', '05/17/2014', '05/17/2015', '05/18/2011', '05/18/2012', '05/18/2013', '05/18/2014', '05/18/2015', '05/19/2011', '05/19/2012', '05/19/2013', '05/19/2014', '05/19/2015', '05/20/2011', '05/20/2012', '05/20/2013', '05/20/2014', '05/20/2015', '05/21/2011', '05/21/2012', '05/21/2013', '05/21/2014', '05/21/2015', '05/22/2011', '05/22/2012', '05/22/2013', '05/22/2014', '05/22/2015', '05/23/2011', '05/23/2012', '05/23/2013', '05/23/2014', '05/23/2015', '05/24/2011', '05/24/2012', '05/24/2013', '05/24/2014', '05/24/2015', '05/25/2011', '05/25/2012', '05/25/2013', '05/25/2014', '05/25/2015', '05/26/2011', '05/26/2012', '05/26/2013', '05/26/2014', '05/26/2015', '05/27/2011', '05/27/2012', '05/27/2013', '05/27/2014', '05/27/2015', '05/28/2011', '05/28/2012', '05/28/2013', '05/28/2014', '05/28/2015', '05/29/2011', '05/29/2012', '05/29/2013', '05/29/2014', '05/29/2015', '05/30/2011', '05/30/2012', '05/30/2013', '05/30/2014', '05/30/2015', '05/31/2011', '05/31/2012', '05/31/2013', '05/31/2014', '05/31/2015', '06/13/2011', '06/13/2012', '06/13/2013', '06/13/2014', '06/13/2015', '06/14/2011', '06/14/2012', '06/14/2013', '06/14/2014', '06/14/2015', '06/15/2011', '06/15/2012', '06/15/2013', '06/15/2014', '06/15/2015', '06/16/2011', '06/16/2012', '06/16/2013', '06/16/2014', '06/16/2015', '06/17/2011', '06/17/2012', '06/17/2013', '06/17/2014', '06/17/2015', '06/18/2011', '06/18/2012', '06/18/2013', '06/18/2014', '06/18/2015', '06/19/2011', '06/19/2012', '06/19/2013', '06/19/2014', '06/19/2015', '06/20/2011', '06/20/2012', '06/20/2013', '06/20/2014', '06/20/2015', '06/21/2011', '06/21/2012', '06/21/2013', '06/21/2014', '06/21/2015', '06/22/2011', '06/22/2012', '06/22/2013', '06/22/2014', '06/22/2015', '06/23/2011', '06/23/2012', '06/23/2013', '06/23/2014', '06/23/2015', '06/24/2011', '06/24/2012', '06/24/2013', '06/24/2014', '06/24/2015', '06/25/2011', '06/25/2012', '06/25/2013', '06/25/2014', '06/25/2015', '06/26/2011', '06/26/2012', '06/26/2013', '06/26/2014', '06/26/2015', '06/27/2011', '06/27/2012', '06/27/2013', '06/27/2014', '06/27/2015', '06/28/2011', '06/28/2012', '06/28/2013', '06/28/2014', '06/28/2015', '06/29/2011', '06/29/2012', '06/29/2013', '06/29/2014', '06/29/2015', '06/30/2011', '06/30/2012', '06/30/2013', '06/30/2014', '06/30/2015', '07/13/2011', '07/13/2012', '07/13/2013', '07/13/2014', '07/13/2015', '07/14/2011', '07/14/2012', '07/14/2013', '07/14/2014', '07/14/2015', '07/15/2011', '07/15/2012', '07/15/2013', '07/15/2014', '07/15/2015', '07/16/2011', '07/16/2012', '07/16/2013', '07/16/2014', '07/16/2015', '07/17/2011', '07/17/2012', '07/17/2013', '07/17/2014', '07/17/2015', '07/18/2011', '07/18/2012', '07/18/2013', '07/18/2014', '07/18/2015', '07/19/2011', '07/19/2012', '07/19/2013', '07/19/2014', '07/19/2015', '07/20/2011', '07/20/2012', '07/20/2013', '07/20/2014', '07/20/2015', '07/21/2011', '07/21/2012', '07/21/2013', '07/21/2014', '07/21/2015', '07/22/2011', '07/22/2012', '07/22/2013', '07/22/2014', '07/22/2015', '07/23/2011', '07/23/2012', '07/23/2013', '07/23/2014', '07/23/2015', '07/24/2011', '07/24/2012', '07/24/2013', '07/24/2014', '07/24/2015', '07/25/2011', '07/25/2012', '07/25/2013', '07/25/2014', '07/25/2015', '07/26/2011', '07/26/2012', '07/26/2013', '07/26/2014', '07/26/2015', '07/27/2011', '07/27/2012', '07/27/2013', '07/27/2014', '07/27/2015', '07/28/2011', '07/28/2012', '07/28/2013', '07/28/2014', '07/28/2015', '07/29/2011', '07/29/2012', '07/29/2013', '07/29/2014', '07/29/2015', '07/30/2011', '07/30/2012', '07/30/2013', '07/30/2014', '07/30/2015', '07/31/2011', '07/31/2012', '07/31/2013', '07/31/2014', '07/31/2015', '08/13/2011', '08/13/2012', '08/13/2013', '08/13/2014', '08/13/2015', '08/14/2011', '08/14/2012', '08/14/2013', '08/14/2014', '08/14/2015', '08/15/2011', '08/15/2012', '08/15/2013', '08/15/2014', '08/15/2015', '08/16/2011', '08/16/2012', '08/16/2013', '08/16/2014', '08/16/2015', '08/17/2011', '08/17/2012', '08/17/2013', '08/17/2014', '08/17/2015', '08/18/2011', '08/18/2012', '08/18/2013', '08/18/2014', '08/18/2015', '08/19/2011', '08/19/2012', '08/19/2013', '08/19/2014', '08/19/2015', '08/20/2011', '08/20/2012', '08/20/2013', '08/20/2014', '08/20/2015', '08/21/2011', '08/21/2012', '08/21/2013', '08/21/2014', '08/21/2015', '08/22/2011', '08/22/2012', '08/22/2013', '08/22/2014', '08/22/2015', '08/23/2011', '08/23/2012', '08/23/2013', '08/23/2014', '08/23/2015', '08/24/2011', '08/24/2012', '08/24/2013', '08/24/2014', '08/24/2015', '08/25/2011', '08/25/2012', '08/25/2013', '08/25/2014', '08/25/2015', '08/26/2011', '08/26/2012', '08/26/2013', '08/26/2014', '08/26/2015', '08/27/2011', '08/27/2012', '08/27/2013', '08/27/2014', '08/27/2015', '08/28/2011', '08/28/2012', '08/28/2013', '08/28/2014', '08/28/2015', '08/29/2011', '08/29/2012', '08/29/2013', '08/29/2014', '08/29/2015', '08/30/2011', '08/30/2012', '08/30/2013', '08/30/2014', '08/30/2015', '08/31/2011', '08/31/2012', '08/31/2013', '08/31/2014', '08/31/2015', '09/13/2011', '09/13/2012', '09/13/2013', '09/13/2014', '09/13/2015', '09/14/2011', '09/14/2012', '09/14/2013', '09/14/2014', '09/14/2015', '09/15/2011', '09/15/2012', '09/15/2013', '09/15/2014', '09/15/2015', '09/16/2011', '09/16/2012', '09/16/2013', '09/16/2014', '09/16/2015', '09/17/2011', '09/17/2012', '09/17/2013', '09/17/2014', '09/17/2015', '09/18/2011', '09/18/2012', '09/18/2013', '09/18/2014', '09/18/2015', '09/19/2011', '09/19/2012', '09/19/2013', '09/19/2014', '09/19/2015', '09/20/2011', '09/20/2012', '09/20/2013', '09/20/2014', '09/20/2015', '09/21/2011', '09/21/2012', '09/21/2013', '09/21/2014', '09/21/2015', '09/22/2011', '09/22/2012', '09/22/2013', '09/22/2014', '09/22/2015', '09/23/2011', '09/23/2012', '09/23/2013', '09/23/2014', '09/23/2015', '09/24/2011', '09/24/2012', '09/24/2013', '09/24/2014', '09/24/2015', '09/25/2011', '09/25/2012', '09/25/2013', '09/25/2014', '09/25/2015', '09/26/2011', '09/26/2012', '09/26/2013', '09/26/2014', '09/26/2015', '09/27/2011', '09/27/2012', '09/27/2013', '09/27/2014', '09/27/2015', '09/28/2011', '09/28/2012', '09/28/2013', '09/28/2014', '09/28/2015', '09/29/2011', '09/29/2012', '09/29/2013', '09/29/2014', '09/29/2015', '09/30/2011', '09/30/2012', '09/30/2013', '09/30/2014', '09/30/2015', '10/13/2011', '10/13/2012', '10/13/2013', '10/13/2014', '10/13/2015', '10/14/2011', '10/14/2012', '10/14/2013', '10/14/2014', '10/14/2015', '10/15/2011', '10/15/2012', '10/15/2013', '10/15/2014', '10/15/2015', '10/16/2011', '10/16/2012', '10/16/2013', '10/16/2014', '10/16/2015', '10/17/2011', '10/17/2012', '10/17/2013', '10/17/2014', '10/17/2015', '10/18/2011', '10/18/2012', '10/18/2013', '10/18/2014', '10/18/2015', '10/19/2011', '10/19/2012', '10/19/2013', '10/19/2014', '10/19/2015', '10/20/2011', '10/20/2012', '10/20/2013', '10/20/2014', '10/20/2015', '10/21/2011', '10/21/2012', '10/21/2013', '10/21/2014', '10/21/2015', '10/22/2011', '10/22/2012', '10/22/2013', '10/22/2014', '10/22/2015', '10/23/2011', '10/23/2012', '10/23/2013', '10/23/2014', '10/23/2015', '10/24/2011', '10/24/2012', '10/24/2013', '10/24/2014', '10/24/2015', '10/25/2011', '10/25/2012', '10/25/2013', '10/25/2014', '10/25/2015', '10/26/2011', '10/26/2012', '10/26/2013', '10/26/2014', '10/26/2015', '10/27/2011', '10/27/2012', '10/27/2013', '10/27/2014', '10/27/2015', '10/28/2011', '10/28/2012', '10/28/2013', '10/28/2014', '10/28/2015', '10/29/2011', '10/29/2012', '10/29/2013', '10/29/2014', '10/29/2015', '10/30/2011', '10/30/2012', '10/30/2013', '10/30/2014', '10/30/2015', '10/31/2011', '10/31/2012', '10/31/2013', '10/31/2014', '10/31/2015', '11/13/2011', '11/13/2012', '11/13/2013', '11/13/2014', '11/13/2015', '11/14/2011', '11/14/2012', '11/14/2013', '11/14/2014', '11/14/2015', '11/15/2011', '11/15/2012', '11/15/2013', '11/15/2014', '11/15/2015', '11/16/2011', '11/16/2012', '11/16/2013', '11/16/2014', '11/16/2015', '11/17/2011', '11/17/2012', '11/17/2013', '11/17/2014', '11/17/2015', '11/18/2011', '11/18/2012', '11/18/2013', '11/18/2014', '11/18/2015', '11/19/2011', '11/19/2012', '11/19/2013', '11/19/2014', '11/19/2015', '11/20/2011', '11/20/2012', '11/20/2013', '11/20/2014', '11/20/2015', '11/21/2011', '11/21/2012', '11/21/2013', '11/21/2014', '11/21/2015', '11/22/2011', '11/22/2012', '11/22/2013', '11/22/2014', '11/22/2015', '11/23/2011', '11/23/2012', '11/23/2013', '11/23/2014', '11/23/2015', '11/24/2011', '11/24/2012', '11/24/2013', '11/24/2014', '11/24/2015', '11/25/2011', '11/25/2012', '11/25/2013', '11/25/2014', '11/25/2015', '11/26/2011', '11/26/2012', '11/26/2013', '11/26/2014', '11/26/2015', '11/27/2011', '11/27/2012', '11/27/2013', '11/27/2014', '11/27/2015', '11/28/2011', '11/28/2012', '11/28/2013', '11/28/2014', '11/28/2015', '11/29/2011', '11/29/2012', '11/29/2013', '11/29/2014', '11/29/2015', '11/30/2011', '11/30/2012', '11/30/2013', '11/30/2014', '11/30/2015', '12/13/2011', '12/13/2012', '12/13/2013', '12/13/2014', '12/13/2015', '12/14/2011', '12/14/2012', '12/14/2013', '12/14/2014', '12/14/2015', '12/15/2011', '12/15/2012', '12/15/2013', '12/15/2014', '12/15/2015', '12/16/2011', '12/16/2012', '12/16/2013', '12/16/2014', '12/16/2015', '12/17/2011', '12/17/2012', '12/17/2013', '12/17/2014', '12/17/2015', '12/18/2011', '12/18/2012', '12/18/2013', '12/18/2014', '12/18/2015', '12/19/2011', '12/19/2012', '12/19/2013', '12/19/2014', '12/19/2015', '12/20/2011', '12/20/2012', '12/20/2013', '12/20/2014', '12/20/2015', '12/21/2011', '12/21/2012', '12/21/2013', '12/21/2014', '12/21/2015', '12/22/2011', '12/22/2012', '12/22/2013', '12/22/2014', '12/22/2015', '12/23/2011', '12/23/2012', '12/23/2013', '12/23/2014', '12/23/2015', '12/24/2011', '12/24/2012', '12/24/2013', '12/24/2014', '12/24/2015', '12/25/2011', '12/25/2012', '12/25/2013', '12/25/2014', '12/25/2015', '12/26/2011', '12/26/2012', '12/26/2013', '12/26/2014', '12/26/2015', '12/27/2011', '12/27/2012', '12/27/2013', '12/27/2014', '12/27/2015', '12/28/2011', '12/28/2012', '12/28/2013', '12/28/2014', '12/28/2015', '12/29/2011', '12/29/2012', '12/29/2013', '12/29/2014', '12/29/2015', '12/30/2011', '12/30/2012', '12/30/2013', '12/30/2014', '12/30/2015', '12/31/2011', '12/31/2012', '12/31/2013', '12/31/2014', '12/31/2015', '2011-01-01 00:00:00', '2011-01-02 00:00:00', '2011-01-03 00:00:00', '2011-01-04 00:00:00', '2011-01-05 00:00:00', '2011-01-06 00:00:00', '2011-01-07 00:00:00', '2011-01-08 00:00:00', '2011-01-09 00:00:00', '2011-01-10 00:00:00', '2011-01-11 00:00:00', '2011-01-12 00:00:00', '2011-02-01 00:00:00', '2011-02-02 00:00:00', '2011-02-03 00:00:00', '2011-02-04 00:00:00', '2011-02-05 00:00:00', '2011-02-06 00:00:00', '2011-02-07 00:00:00', '2011-02-08 00:00:00', '2011-02-09 00:00:00', '2011-02-10 00:00:00', '2011-02-11 00:00:00', '2011-02-12 00:00:00', '2011-03-01 00:00:00', '2011-03-02 00:00:00', '2011-03-03 00:00:00', '2011-03-04 00:00:00', '2011-03-05 00:00:00', '2011-03-06 00:00:00', '2011-03-07 00:00:00', '2011-03-08 00:00:00', '2011-03-09 00:00:00', '2011-03-10 00:00:00', '2011-03-11 00:00:00', '2011-03-12 00:00:00', '2011-04-01 00:00:00', '2011-04-02 00:00:00', '2011-04-03 00:00:00', '2011-04-04 00:00:00', '2011-04-05 00:00:00', '2011-04-06 00:00:00', '2011-04-07 00:00:00', '2011-04-08 00:00:00', '2011-04-09 00:00:00', '2011-04-10 00:00:00', '2011-04-11 00:00:00', '2011-04-12 00:00:00', '2011-05-01 00:00:00', '2011-05-02 00:00:00', '2011-05-03 00:00:00', '2011-05-04 00:00:00', '2011-05-05 00:00:00', '2011-05-06 00:00:00', '2011-05-07 00:00:00', '2011-05-08 00:00:00', '2011-05-09 00:00:00', '2011-05-10 00:00:00', '2011-05-11 00:00:00', '2011-05-12 00:00:00', '2011-06-01 00:00:00', '2011-06-02 00:00:00', '2011-06-03 00:00:00', '2011-06-04 00:00:00', '2011-06-05 00:00:00', '2011-06-06 00:00:00', '2011-06-07 00:00:00', '2011-06-08 00:00:00', '2011-06-09 00:00:00', '2011-06-10 00:00:00', '2011-06-11 00:00:00', '2011-06-12 00:00:00', '2011-07-01 00:00:00', '2011-07-02 00:00:00', '2011-07-03 00:00:00', '2011-07-04 00:00:00', '2011-07-05 00:00:00', '2011-07-06 00:00:00', '2011-07-07 00:00:00', '2011-07-08 00:00:00', '2011-07-09 00:00:00', '2011-07-10 00:00:00', '2011-07-11 00:00:00', '2011-07-12 00:00:00', '2011-08-01 00:00:00', '2011-08-02 00:00:00', '2011-08-03 00:00:00', '2011-08-04 00:00:00', '2011-08-05 00:00:00', '2011-08-06 00:00:00', '2011-08-07 00:00:00', '2011-08-08 00:00:00', '2011-08-09 00:00:00', '2011-08-10 00:00:00', '2011-08-11 00:00:00', '2011-08-12 00:00:00', '2011-09-01 00:00:00', '2011-09-02 00:00:00', '2011-09-03 00:00:00', '2011-09-04 00:00:00', '2011-09-05 00:00:00', '2011-09-06 00:00:00', '2011-09-07 00:00:00', '2011-09-08 00:00:00', '2011-09-09 00:00:00', '2011-09-10 00:00:00', '2011-09-11 00:00:00', '2011-09-12 00:00:00', '2011-10-01 00:00:00', '2011-10-02 00:00:00', '2011-10-03 00:00:00', '2011-10-04 00:00:00', '2011-10-05 00:00:00', '2011-10-06 00:00:00', '2011-10-07 00:00:00', '2011-10-08 00:00:00', '2011-10-09 00:00:00', '2011-10-10 00:00:00', '2011-10-11 00:00:00', '2011-10-12 00:00:00', '2011-11-01 00:00:00', '2011-11-02 00:00:00', '2011-11-03 00:00:00', '2011-11-04 00:00:00', '2011-11-05 00:00:00', '2011-11-06 00:00:00', '2011-11-07 00:00:00', '2011-11-08 00:00:00', '2011-11-09 00:00:00', '2011-11-10 00:00:00', '2011-11-11 00:00:00', '2011-11-12 00:00:00', '2011-12-01 00:00:00', '2011-12-02 00:00:00', '2011-12-03 00:00:00', '2011-12-04 00:00:00', '2011-12-05 00:00:00', '2011-12-06 00:00:00', '2011-12-07 00:00:00', '2011-12-08 00:00:00', '2011-12-09 00:00:00', '2011-12-10 00:00:00', '2011-12-11 00:00:00', '2011-12-12 00:00:00', '2012-01-01 00:00:00', '2012-01-02 00:00:00', '2012-01-03 00:00:00', '2012-01-04 00:00:00', '2012-01-05 00:00:00', '2012-01-06 00:00:00', '2012-01-07 00:00:00', '2012-01-08 00:00:00', '2012-01-09 00:00:00', '2012-01-10 00:00:00', '2012-01-11 00:00:00', '2012-01-12 00:00:00', '2012-02-01 00:00:00', '2012-02-02 00:00:00', '2012-02-03 00:00:00', '2012-02-04 00:00:00', '2012-02-05 00:00:00', '2012-02-06 00:00:00', '2012-02-07 00:00:00', '2012-02-08 00:00:00', '2012-02-09 00:00:00', '2012-02-10 00:00:00', '2012-02-11 00:00:00', '2012-02-12 00:00:00', '2012-03-01 00:00:00', '2012-03-02 00:00:00', '2012-03-03 00:00:00', '2012-03-04 00:00:00', '2012-03-05 00:00:00', '2012-03-06 00:00:00', '2012-03-07 00:00:00', '2012-03-08 00:00:00', '2012-03-09 00:00:00', '2012-03-10 00:00:00', '2012-03-11 00:00:00', '2012-03-12 00:00:00', '2012-04-01 00:00:00', '2012-04-02 00:00:00', '2012-04-03 00:00:00', '2012-04-04 00:00:00', '2012-04-05 00:00:00', '2012-04-06 00:00:00', '2012-04-07 00:00:00', '2012-04-08 00:00:00', '2012-04-09 00:00:00', '2012-04-10 00:00:00', '2012-04-11 00:00:00', '2012-04-12 00:00:00', '2012-05-01 00:00:00', '2012-05-02 00:00:00', '2012-05-03 00:00:00', '2012-05-04 00:00:00', '2012-05-05 00:00:00', '2012-05-06 00:00:00', '2012-05-07 00:00:00', '2012-05-08 00:00:00', '2012-05-09 00:00:00', '2012-05-10 00:00:00', '2012-05-11 00:00:00', '2012-05-12 00:00:00', '2012-06-01 00:00:00', '2012-06-02 00:00:00', '2012-06-03 00:00:00', '2012-06-04 00:00:00', '2012-06-05 00:00:00', '2012-06-06 00:00:00', '2012-06-07 00:00:00', '2012-06-08 00:00:00', '2012-06-09 00:00:00', '2012-06-10 00:00:00', '2012-06-11 00:00:00', '2012-06-12 00:00:00', '2012-07-01 00:00:00', '2012-07-02 00:00:00', '2012-07-03 00:00:00', '2012-07-04 00:00:00', '2012-07-05 00:00:00', '2012-07-06 00:00:00', '2012-07-07 00:00:00', '2012-07-08 00:00:00', '2012-07-09 00:00:00', '2012-07-10 00:00:00', '2012-07-11 00:00:00', '2012-07-12 00:00:00', '2012-08-01 00:00:00', '2012-08-02 00:00:00', '2012-08-03 00:00:00', '2012-08-04 00:00:00', '2012-08-05 00:00:00', '2012-08-06 00:00:00', '2012-08-07 00:00:00', '2012-08-08 00:00:00', '2012-08-09 00:00:00', '2012-08-10 00:00:00', '2012-08-11 00:00:00', '2012-08-12 00:00:00', '2012-09-01 00:00:00', '2012-09-02 00:00:00', '2012-09-03 00:00:00', '2012-09-04 00:00:00', '2012-09-05 00:00:00', '2012-09-06 00:00:00', '2012-09-07 00:00:00', '2012-09-08 00:00:00', '2012-09-09 00:00:00', '2012-09-10 00:00:00', '2012-09-11 00:00:00', '2012-09-12 00:00:00', '2012-10-01 00:00:00', '2012-10-02 00:00:00', '2012-10-03 00:00:00', '2012-10-04 00:00:00', '2012-10-05 00:00:00', '2012-10-06 00:00:00', '2012-10-07 00:00:00', '2012-10-08 00:00:00', '2012-10-09 00:00:00', '2012-10-10 00:00:00', '2012-10-11 00:00:00', '2012-10-12 00:00:00', '2012-11-01 00:00:00', '2012-11-02 00:00:00', '2012-11-03 00:00:00', '2012-11-04 00:00:00', '2012-11-05 00:00:00', '2012-11-06 00:00:00', '2012-11-07 00:00:00', '2012-11-08 00:00:00', '2012-11-09 00:00:00', '2012-11-10 00:00:00', '2012-11-11 00:00:00', '2012-11-12 00:00:00', '2012-12-01 00:00:00', '2012-12-02 00:00:00', '2012-12-03 00:00:00', '2012-12-04 00:00:00', '2012-12-05 00:00:00', '2012-12-06 00:00:00', '2012-12-07 00:00:00', '2012-12-08 00:00:00', '2012-12-09 00:00:00', '2012-12-10 00:00:00', '2012-12-11 00:00:00', '2012-12-12 00:00:00', '2013-01-01 00:00:00', '2013-01-02 00:00:00', '2013-01-03 00:00:00', '2013-01-04 00:00:00', '2013-01-05 00:00:00', '2013-01-06 00:00:00', '2013-01-07 00:00:00', '2013-01-08 00:00:00', '2013-01-09 00:00:00', '2013-01-10 00:00:00', '2013-01-11 00:00:00', '2013-01-12 00:00:00', '2013-02-01 00:00:00', '2013-02-02 00:00:00', '2013-02-03 00:00:00', '2013-02-04 00:00:00', '2013-02-05 00:00:00', '2013-02-06 00:00:00', '2013-02-07 00:00:00', '2013-02-08 00:00:00', '2013-02-09 00:00:00', '2013-02-10 00:00:00', '2013-02-11 00:00:00', '2013-02-12 00:00:00', '2013-03-01 00:00:00', '2013-03-02 00:00:00', '2013-03-03 00:00:00', '2013-03-04 00:00:00', '2013-03-05 00:00:00', '2013-03-06 00:00:00', '2013-03-07 00:00:00', '2013-03-08 00:00:00', '2013-03-09 00:00:00', '2013-03-10 00:00:00', '2013-03-11 00:00:00', '2013-03-12 00:00:00', '2013-04-01 00:00:00', '2013-04-02 00:00:00', '2013-04-03 00:00:00', '2013-04-04 00:00:00', '2013-04-05 00:00:00', '2013-04-06 00:00:00', '2013-04-07 00:00:00', '2013-04-08 00:00:00', '2013-04-09 00:00:00', '2013-04-10 00:00:00', '2013-04-11 00:00:00', '2013-04-12 00:00:00', '2013-05-01 00:00:00', '2013-05-02 00:00:00', '2013-05-03 00:00:00', '2013-05-04 00:00:00', '2013-05-05 00:00:00', '2013-05-06 00:00:00', '2013-05-07 00:00:00', '2013-05-08 00:00:00', '2013-05-09 00:00:00', '2013-05-10 00:00:00', '2013-05-11 00:00:00', '2013-05-12 00:00:00', '2013-06-01 00:00:00', '2013-06-02 00:00:00', '2013-06-03 00:00:00', '2013-06-04 00:00:00', '2013-06-05 00:00:00', '2013-06-06 00:00:00', '2013-06-07 00:00:00', '2013-06-08 00:00:00', '2013-06-09 00:00:00', '2013-06-10 00:00:00', '2013-06-11 00:00:00', '2013-06-12 00:00:00', '2013-07-01 00:00:00', '2013-07-02 00:00:00', '2013-07-03 00:00:00', '2013-07-04 00:00:00', '2013-07-05 00:00:00', '2013-07-06 00:00:00', '2013-07-07 00:00:00', '2013-07-08 00:00:00', '2013-07-09 00:00:00', '2013-07-10 00:00:00', '2013-07-11 00:00:00', '2013-07-12 00:00:00', '2013-08-01 00:00:00', '2013-08-02 00:00:00', '2013-08-03 00:00:00', '2013-08-04 00:00:00', '2013-08-05 00:00:00', '2013-08-06 00:00:00', '2013-08-07 00:00:00', '2013-08-08 00:00:00', '2013-08-09 00:00:00', '2013-08-10 00:00:00', '2013-08-11 00:00:00', '2013-08-12 00:00:00', '2013-09-01 00:00:00', '2013-09-02 00:00:00', '2013-09-03 00:00:00', '2013-09-04 00:00:00', '2013-09-05 00:00:00', '2013-09-06 00:00:00', '2013-09-07 00:00:00', '2013-09-08 00:00:00', '2013-09-09 00:00:00', '2013-09-10 00:00:00', '2013-09-11 00:00:00', '2013-09-12 00:00:00', '2013-10-01 00:00:00', '2013-10-02 00:00:00', '2013-10-03 00:00:00', '2013-10-04 00:00:00', '2013-10-05 00:00:00', '2013-10-06 00:00:00', '2013-10-07 00:00:00', '2013-10-08 00:00:00', '2013-10-09 00:00:00', '2013-10-10 00:00:00', '2013-10-11 00:00:00', '2013-10-12 00:00:00', '2013-11-01 00:00:00', '2013-11-02 00:00:00', '2013-11-03 00:00:00', '2013-11-04 00:00:00', '2013-11-05 00:00:00', '2013-11-06 00:00:00', '2013-11-07 00:00:00', '2013-11-08 00:00:00', '2013-11-09 00:00:00', '2013-11-10 00:00:00', '2013-11-11 00:00:00', '2013-11-12 00:00:00', '2013-12-01 00:00:00', '2013-12-02 00:00:00', '2013-12-03 00:00:00', '2013-12-04 00:00:00', '2013-12-05 00:00:00', '2013-12-06 00:00:00', '2013-12-07 00:00:00', '2013-12-08 00:00:00', '2013-12-09 00:00:00', '2013-12-10 00:00:00', '2013-12-11 00:00:00', '2013-12-12 00:00:00', '2014-01-01 00:00:00', '2014-01-02 00:00:00', '2014-01-03 00:00:00', '2014-01-04 00:00:00', '2014-01-05 00:00:00', '2014-01-06 00:00:00', '2014-01-07 00:00:00', '2014-01-08 00:00:00', '2014-01-09 00:00:00', '2014-01-10 00:00:00', '2014-01-11 00:00:00', '2014-01-12 00:00:00', '2014-02-01 00:00:00', '2014-02-02 00:00:00', '2014-02-03 00:00:00', '2014-02-04 00:00:00', '2014-02-05 00:00:00', '2014-02-06 00:00:00', '2014-02-07 00:00:00', '2014-02-08 00:00:00', '2014-02-09 00:00:00', '2014-02-10 00:00:00', '2014-02-11 00:00:00', '2014-02-12 00:00:00', '2014-03-01 00:00:00', '2014-03-02 00:00:00', '2014-03-03 00:00:00', '2014-03-04 00:00:00', '2014-03-05 00:00:00', '2014-03-06 00:00:00', '2014-03-07 00:00:00', '2014-03-08 00:00:00', '2014-03-09 00:00:00', '2014-03-10 00:00:00', '2014-03-11 00:00:00', '2014-03-12 00:00:00', '2014-04-01 00:00:00', '2014-04-02 00:00:00', '2014-04-03 00:00:00', '2014-04-04 00:00:00', '2014-04-05 00:00:00', '2014-04-06 00:00:00', '2014-04-07 00:00:00', '2014-04-08 00:00:00', '2014-04-09 00:00:00', '2014-04-10 00:00:00', '2014-04-11 00:00:00', '2014-04-12 00:00:00', '2014-05-01 00:00:00', '2014-05-02 00:00:00', '2014-05-03 00:00:00', '2014-05-04 00:00:00', '2014-05-05 00:00:00', '2014-05-06 00:00:00', '2014-05-07 00:00:00', '2014-05-08 00:00:00', '2014-05-09 00:00:00', '2014-05-10 00:00:00', '2014-05-11 00:00:00', '2014-05-12 00:00:00', '2014-06-01 00:00:00', '2014-06-02 00:00:00', '2014-06-03 00:00:00', '2014-06-04 00:00:00', '2014-06-05 00:00:00', '2014-06-06 00:00:00', '2014-06-07 00:00:00', '2014-06-08 00:00:00', '2014-06-09 00:00:00', '2014-06-10 00:00:00', '2014-06-11 00:00:00', '2014-06-12 00:00:00', '2014-07-01 00:00:00', '2014-07-02 00:00:00', '2014-07-03 00:00:00', '2014-07-04 00:00:00', '2014-07-05 00:00:00', '2014-07-06 00:00:00', '2014-07-07 00:00:00', '2014-07-08 00:00:00', '2014-07-09 00:00:00', '2014-07-10 00:00:00', '2014-07-11 00:00:00', '2014-07-12 00:00:00', '2014-08-01 00:00:00', '2014-08-02 00:00:00', '2014-08-03 00:00:00', '2014-08-04 00:00:00', '2014-08-05 00:00:00', '2014-08-06 00:00:00', '2014-08-07 00:00:00', '2014-08-08 00:00:00', '2014-08-09 00:00:00', '2014-08-10 00:00:00', '2014-08-11 00:00:00', '2014-08-12 00:00:00', '2014-09-01 00:00:00', '2014-09-02 00:00:00', '2014-09-03 00:00:00', '2014-09-04 00:00:00', '2014-09-05 00:00:00', '2014-09-06 00:00:00', '2014-09-07 00:00:00', '2014-09-08 00:00:00', '2014-09-09 00:00:00', '2014-09-10 00:00:00', '2014-09-11 00:00:00', '2014-09-12 00:00:00', '2014-10-01 00:00:00', '2014-10-02 00:00:00', '2014-10-03 00:00:00', '2014-10-04 00:00:00', '2014-10-05 00:00:00', '2014-10-06 00:00:00', '2014-10-07 00:00:00', '2014-10-08 00:00:00', '2014-10-09 00:00:00', '2014-10-10 00:00:00', '2014-10-11 00:00:00', '2014-10-12 00:00:00', '2014-11-01 00:00:00', '2014-11-02 00:00:00', '2014-11-03 00:00:00', '2014-11-04 00:00:00', '2014-11-05 00:00:00', '2014-11-06 00:00:00', '2014-11-07 00:00:00', '2014-11-08 00:00:00', '2014-11-09 00:00:00', '2014-11-10 00:00:00', '2014-11-11 00:00:00', '2014-11-12 00:00:00', '2014-12-01 00:00:00', '2014-12-02 00:00:00', '2014-12-03 00:00:00', '2014-12-04 00:00:00', '2014-12-05 00:00:00', '2014-12-06 00:00:00', '2014-12-07 00:00:00', '2014-12-08 00:00:00', '2014-12-09 00:00:00', '2014-12-10 00:00:00', '2014-12-11 00:00:00', '2014-12-12 00:00:00', '2015-01-01 00:00:00', '2015-01-02 00:00:00', '2015-01-03 00:00:00', '2015-01-04 00:00:00', '2015-01-05 00:00:00', '2015-01-06 00:00:00', '2015-01-07 00:00:00', '2015-01-08 00:00:00', '2015-01-09 00:00:00', '2015-01-10 00:00:00', '2015-01-11 00:00:00', '2015-01-12 00:00:00', '2015-02-01 00:00:00', '2015-02-02 00:00:00', '2015-02-03 00:00:00', '2015-02-04 00:00:00', '2015-02-05 00:00:00', '2015-02-06 00:00:00', '2015-02-07 00:00:00', '2015-02-08 00:00:00', '2015-02-09 00:00:00', '2015-02-10 00:00:00', '2015-02-11 00:00:00', '2015-02-12 00:00:00', '2015-03-01 00:00:00', '2015-03-02 00:00:00', '2015-03-03 00:00:00', '2015-03-04 00:00:00', '2015-03-05 00:00:00', '2015-03-06 00:00:00', '2015-03-07 00:00:00', '2015-03-08 00:00:00', '2015-03-09 00:00:00', '2015-03-10 00:00:00', '2015-03-11 00:00:00', '2015-03-12 00:00:00', '2015-04-01 00:00:00', '2015-04-02 00:00:00', '2015-04-03 00:00:00', '2015-04-04 00:00:00', '2015-04-05 00:00:00', '2015-04-06 00:00:00', '2015-04-07 00:00:00', '2015-04-08 00:00:00', '2015-04-09 00:00:00', '2015-04-10 00:00:00', '2015-04-11 00:00:00', '2015-04-12 00:00:00', '2015-05-01 00:00:00', '2015-05-02 00:00:00', '2015-05-03 00:00:00', '2015-05-04 00:00:00', '2015-05-05 00:00:00', '2015-05-06 00:00:00', '2015-05-07 00:00:00', '2015-05-08 00:00:00', '2015-05-09 00:00:00', '2015-05-10 00:00:00', '2015-05-11 00:00:00', '2015-05-12 00:00:00', '2015-06-01 00:00:00', '2015-06-02 00:00:00', '2015-06-03 00:00:00', '2015-06-04 00:00:00', '2015-06-05 00:00:00', '2015-06-06 00:00:00', '2015-06-07 00:00:00', '2015-06-08 00:00:00', '2015-06-09 00:00:00', '2015-06-10 00:00:00', '2015-06-11 00:00:00', '2015-06-12 00:00:00', '2015-07-01 00:00:00', '2015-07-02 00:00:00', '2015-07-03 00:00:00', '2015-07-04 00:00:00', '2015-07-05 00:00:00', '2015-07-06 00:00:00', '2015-07-07 00:00:00', '2015-07-08 00:00:00', '2015-07-09 00:00:00', '2015-07-10 00:00:00', '2015-07-11 00:00:00', '2015-07-12 00:00:00', '2015-08-01 00:00:00', '2015-08-02 00:00:00', '2015-08-03 00:00:00', '2015-08-04 00:00:00', '2015-08-05 00:00:00', '2015-08-06 00:00:00', '2015-08-07 00:00:00', '2015-08-08 00:00:00', '2015-08-09 00:00:00', '2015-08-10 00:00:00', '2015-08-11 00:00:00', '2015-08-12 00:00:00', '2015-09-01 00:00:00', '2015-09-02 00:00:00', '2015-09-03 00:00:00', '2015-09-04 00:00:00', '2015-09-05 00:00:00', '2015-09-06 00:00:00', '2015-09-07 00:00:00', '2015-09-08 00:00:00', '2015-09-09 00:00:00', '2015-09-10 00:00:00', '2015-09-11 00:00:00', '2015-09-12 00:00:00', '2015-10-01 00:00:00', '2015-10-02 00:00:00', '2015-10-03 00:00:00', '2015-10-04 00:00:00', '2015-10-05 00:00:00', '2015-10-06 00:00:00', '2015-10-07 00:00:00', '2015-10-08 00:00:00', '2015-10-09 00:00:00', '2015-10-10 00:00:00', '2015-10-11 00:00:00', '2015-10-12 00:00:00', '2015-11-01 00:00:00', '2015-11-02 00:00:00', '2015-11-03 00:00:00', '2015-11-04 00:00:00', '2015-11-05 00:00:00', '2015-11-06 00:00:00', '2015-11-07 00:00:00', '2015-11-08 00:00:00', '2015-11-09 00:00:00', '2015-11-10 00:00:00', '2015-11-11 00:00:00', '2015-11-12 00:00:00', '2015-12-01 00:00:00', '2015-12-02 00:00:00', '2015-12-03 00:00:00', '2015-12-04 00:00:00', '2015-12-05 00:00:00', '2015-12-06 00:00:00', '2015-12-07 00:00:00', '2015-12-08 00:00:00', '2015-12-09 00:00:00', '2015-12-10 00:00:00', '2015-12-11 00:00:00', '2015-12-12 00:00:00', '2016-01-01 00:00:00', '2016-01-02 00:00:00', '2016-02-01 00:00:00', '2016-02-02 00:00:00', '2016-03-01 00:00:00', '2016-03-02 00:00:00', '2016-04-01 00:00:00', '2016-04-02 00:00:00', '2016-05-01 00:00:00', '2016-05-02 00:00:00', '2016-06-01 00:00:00', '2016-06-02 00:00:00', '2016-07-01 00:00:00', '2016-07-02 00:00:00', '2016-08-01 00:00:00', '2016-09-01 00:00:00', '2016-10-01 00:00:00', '2016-11-01 00:00:00', '2016-12-01 00:00:00', 'JUVENILE', 'SEXUAL</t>
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>3621560</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1864</v>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>['01/13/2011', '01/13/2012', '01/13/2013', '01/13/2014', '01/13/2015', '01/13/2016', '01/14/2011', '01/14/2012', '01/14/2013', '01/14/2014', '01/14/2015', '01/14/2016', '01/15/2011', '01/15/2012', '01/15/2013', '01/15/2014', '01/15/2015', '01/15/2016', '01/16/2011', '01/16/2012', '01/16/2013', '01/16/2014', '01/16/2015', '01/16/2016', '01/17/2011', '01/17/2012', '01/17/2013', '01/17/2014', '01/17/2015', '01/17/2016', '01/18/2011', '01/18/2012', '01/18/2013', '01/18/2014', '01/18/2015', '01/18/2016', '01/19/2011', '01/19/2012', '01/19/2013', '01/19/2014', '01/19/2015', '01/19/2016', '01/20/2011', '01/20/2012', '01/20/2013', '01/20/2014', '01/20/2015', '01/20/2016', '01/21/2011', '01/21/2012', '01/21/2013', '01/21/2014', '01/21/2015', '01/21/2016', '01/22/2011', '01/22/2012', '01/22/2013', '01/22/2014', '01/22/2015', '01/22/2016', '01/23/2011', '01/23/2012', '01/23/2013', '01/23/2014', '01/23/2015', '01/23/2016', '01/24/2011', '01/24/2012', '01/24/2013', '01/24/2014', '01/24/2015', '01/24/2016', '01/25/2011', '01/25/2012', '01/25/2013', '01/25/2014', '01/25/2015', '01/25/2016', '01/26/2011', '01/26/2012', '01/26/2013', '01/26/2014', '01/26/2015', '01/26/2016', '01/27/2011', '01/27/2012', '01/27/2013', '01/27/2014', '01/27/2015', '01/27/2016', '01/28/2011', '01/28/2012', '01/28/2013', '01/28/2014', '01/28/2015', '01/28/2016', '01/29/2011', '01/29/2012', '01/29/2013', '01/29/2014', '01/29/2015', '01/29/2016', '01/30/2011', '01/30/2012', '01/30/2013', '01/30/2014', '01/30/2015', '01/30/2016', '01/31/2011', '01/31/2012', '01/31/2013', '01/31/2014', '01/31/2015', '01/31/2016', '02/13/2011', '02/13/2012', '02/13/2013', '02/13/2014', '02/13/2015', '02/14/2011', '02/14/2012', '02/14/2013', '02/14/2014', '02/14/2015', '02/15/2011', '02/15/2012', '02/15/2013', '02/15/2014', '02/15/2015', '02/16/2011', '02/16/2012', '02/16/2013', '02/16/2014', '02/16/2015', '02/17/2011', '02/17/2012', '02/17/2013', '02/17/2014', '02/17/2015', '02/18/2011', '02/18/2012', '02/18/2013', '02/18/2014', '02/18/2015', '02/19/2011', '02/19/2012', '02/19/2013', '02/19/2014', '02/19/2015', '02/20/2011', '02/20/2012', '02/20/2013', '02/20/2014', '02/20/2015', '02/21/2011', '02/21/2012', '02/21/2013', '02/21/2014', '02/21/2015', '02/22/2011', '02/22/2012', '02/22/2013', '02/22/2014', '02/22/2015', '02/23/2011', '02/23/2012', '02/23/2013', '02/23/2014', '02/23/2015', '02/24/2011', '02/24/2012', '02/24/2013', '02/24/2014', '02/24/2015', '02/25/2011', '02/25/2012', '02/25/2013', '02/25/2014', '02/25/2015', '02/26/2011', '02/26/2012', '02/26/2013', '02/26/2014', '02/26/2015', '02/27/2011', '02/27/2012', '02/27/2013', '02/27/2014', '02/27/2015', '02/28/2011', '02/28/2012', '02/28/2013', '02/28/2014', '02/28/2015', '02/29/2012', '03/13/2011', '03/13/2012', '03/13/2013', '03/13/2014', '03/13/2015', '03/14/2011', '03/14/2012', '03/14/2013', '03/14/2014', '03/14/2015', '03/15/2011', '03/15/2012', '03/15/2013', '03/15/2014', '03/15/2015', '03/16/2011', '03/16/2012', '03/16/2013', '03/16/2014', '03/16/2015', '03/17/2011', '03/17/2012', '03/17/2013', '03/17/2014', '03/17/2015', '03/18/2011', '03/18/2012', '03/18/2013', '03/18/2014', '03/18/2015', '03/19/2011', '03/19/2012', '03/19/2013', '03/19/2014', '03/19/2015', '03/20/2011', '03/20/2012', '03/20/2013', '03/20/2014', '03/20/2015', '03/21/2011', '03/21/2012', '03/21/2013', '03/21/2014', '03/21/2015', '03/22/2011', '03/22/2012', '03/22/2013', '03/22/2014', '03/22/2015', '03/23/2011', '03/23/2012', '03/23/2013', '03/23/2014', '03/23/2015', '03/24/2011', '03/24/2012', '03/24/2013', '03/24/2014', '03/24/2015', '03/25/2011', '03/25/2012', '03/25/2013', '03/25/2014', '03/25/2015', '03/26/2011', '03/26/2012', '03/26/2013', '03/26/2014', '03/26/2015', '03/27/2011', '03/27/2012', '03/27/2013', '03/27/2014', '03/27/2015', '03/28/2011', '03/28/2012', '03/28/2013', '03/28/2014', '03/28/2015', '03/29/2011', '03/29/2012', '03/29/2013', '03/29/2014', '03/29/2015', '03/30/2011', '03/30/2012', '03/30/2013', '03/30/2014', '03/30/2015', '03/31/2011', '03/31/2012', '03/31/2013', '03/31/2014', '03/31/2015', '04/13/2011', '04/13/2012', '04/13/2013', '04/13/2014', '04/13/2015', '04/14/2011', '04/14/2012', '04/14/2013', '04/14/2014', '04/14/2015', '04/15/2011', '04/15/2012', '04/15/2013', '04/15/2014', '04/15/2015', '04/16/2011', '04/16/2012', '04/16/2013', '04/16/2014', '04/16/2015', '04/17/2011', '04/17/2012', '04/17/2013', '04/17/2014', '04/17/2015', '04/18/2011', '04/18/2012', '04/18/2013', '04/18/2014', '04/18/2015', '04/19/2011', '04/19/2012', '04/19/2013', '04/19/2014', '04/19/2015', '04/20/2011', '04/20/2012', '04/20/2013', '04/20/2014', '04/20/2015', '04/21/2011', '04/21/2012', '04/21/2013', '04/21/2014', '04/21/2015', '04/22/2011', '04/22/2012', '04/22/2013', '04/22/2014', '04/22/2015', '04/23/2011', '04/23/2012', '04/23/2013', '04/23/2014', '04/23/2015', '04/24/2011', '04/24/2012', '04/24/2013', '04/24/2014', '04/24/2015', '04/25/2011', '04/25/2012', '04/25/2013', '04/25/2014', '04/25/2015', '04/26/2011', '04/26/2012', '04/26/2013', '04/26/2014', '04/26/2015', '04/27/2011', '04/27/2012', '04/27/2013', '04/27/2014', '04/27/2015', '04/28/2011', '04/28/2012', '04/28/2013', '04/28/2014', '04/28/2015', '04/29/2011', '04/29/2012', '04/29/2013', '04/29/2014', '04/29/2015', '04/30/2011', '04/30/2012', '04/30/2013', '04/30/2014', '04/30/2015', '05/13/2011', '05/13/2012', '05/13/2013', '05/13/2014', '05/13/2015', '05/14/2011', '05/14/2012', '05/14/2013', '05/14/2014', '05/14/2015', '05/15/2011', '05/15/2012', '05/15/2013', '05/15/2014', '05/15/2015', '05/16/2011', '05/16/2012', '05/16/2013', '05/16/2014', '05/16/2015', '05/17/2011', '05/17/2012', '05/17/2013', '05/17/2014', '05/17/2015', '05/18/2011', '05/18/2012', '05/18/2013', '05/18/2014', '05/18/2015', '05/19/2011', '05/19/2012', '05/19/2013', '05/19/2014', '05/19/2015', '05/20/2011', '05/20/2012', '05/20/2013', '05/20/2014', '05/20/2015', '05/21/2011', '05/21/2012', '05/21/2013', '05/21/2014', '05/21/2015', '05/22/2011', '05/22/2012', '05/22/2013', '05/22/2014', '05/22/2015', '05/23/2011', '05/23/2012', '05/23/2013', '05/23/2014', '05/23/2015', '05/24/2011', '05/24/2012', '05/24/2013', '05/24/2014', '05/24/2015', '05/25/2011', '05/25/2012', '05/25/2013', '05/25/2014', '05/25/2015', '05/26/2011', '05/26/2012', '05/26/2013', '05/26/2014', '05/26/2015', '05/27/2011', '05/27/2012', '05/27/2013', '05/27/2014', '05/27/2015', '05/28/2011', '05/28/2012', '05/28/2013', '05/28/2014', '05/28/2015', '05/29/2011', '05/29/2012', '05/29/2013', '05/29/2014', '05/29/2015', '05/30/2011', '05/30/2012', '05/30/2013', '05/30/2014', '05/30/2015', '05/31/2011', '05/31/2012', '05/31/2013', '05/31/2014', '05/31/2015', '06/13/2011', '06/13/2012', '06/13/2013', '06/13/2014', '06/13/2015', '06/14/2011', '06/14/2012', '06/14/2013', '06/14/2014', '06/14/2015', '06/15/2011', '06/15/2012', '06/15/2013', '06/15/2014', '06/15/2015', '06/16/2011', '06/16/2012', '06/16/2013', '06/16/2014', '06/16/2015', '06/17/2011', '06/17/2012', '06/17/2013', '06/17/2014', '06/17/2015', '06/18/2011', '06/18/2012', '06/18/2013', '06/18/2014', '06/18/2015', '06/19/2011', '06/19/2012', '06/19/2013', '06/19/2014', '06/19/2015', '06/20/2011', '06/20/2012', '06/20/2013', '06/20/2014', '06/20/2015', '06/21/2011', '06/21/2012', '06/21/2013', '06/21/2014', '06/21/2015', '06/22/2011', '06/22/2012', '06/22/2013', '06/22/2014', '06/22/2015', '06/23/2011', '06/23/2012', '06/23/2013', '06/23/2014', '06/23/2015', '06/24/2011', '06/24/2012', '06/24/2013', '06/24/2014', '06/24/2015', '06/25/2011', '06/25/2012', '06/25/2013', '06/25/2014', '06/25/2015', '06/26/2011', '06/26/2012', '06/26/2013', '06/26/2014', '06/26/2015', '06/27/2011', '06/27/2012', '06/27/2013', '06/27/2014', '06/27/2015', '06/28/2011', '06/28/2012', '06/28/2013', '06/28/2014', '06/28/2015', '06/29/2011', '06/29/2012', '06/29/2013', '06/29/2014', '06/29/2015', '06/30/2011', '06/30/2012', '06/30/2013', '06/30/2014', '06/30/2015', '07/13/2011', '07/13/2012', '07/13/2013', '07/13/2014', '07/13/2015', '07/14/2011', '07/14/2012', '07/14/2013', '07/14/2014', '07/14/2015', '07/15/2011', '07/15/2012', '07/15/2013', '07/15/2014', '07/15/2015', '07/16/2011', '07/16/2012', '07/16/2013', '07/16/2014', '07/16/2015', '07/17/2011', '07/17/2012', '07/17/2013', '07/17/2014', '07/17/2015', '07/18/2011', '07/18/2012', '07/18/2013', '07/18/2014', '07/18/2015', '07/19/2011', '07/19/2012', '07/19/2013', '07/19/2014', '07/19/2015', '07/20/2011', '07/20/2012', '07/20/2013', '07/20/2014', '07/20/2015', '07/21/2011', '07/21/2012', '07/21/2013', '07/21/2014', '07/21/2015', '07/22/2011', '07/22/2012', '07/22/2013', '07/22/2014', '07/22/2015', '07/23/2011', '07/23/2012', '07/23/2013', '07/23/2014', '07/23/2015', '07/24/2011', '07/24/2012', '07/24/2013', '07/24/2014', '07/24/2015', '07/25/2011', '07/25/2012', '07/25/2013', '07/25/2014', '07/25/2015', '07/26/2011', '07/26/2012', '07/26/2013', '07/26/2014', '07/26/2015', '07/27/2011', '07/27/2012', '07/27/2013', '07/27/2014', '07/27/2015', '07/28/2011', '07/28/2012', '07/28/2013', '07/28/2014', '07/28/2015', '07/29/2011', '07/29/2012', '07/29/2013', '07/29/2014', '07/29/2015', '07/30/2011', '07/30/2012', '07/30/2013', '07/30/2014', '07/30/2015', '07/31/2011', '07/31/2012', '07/31/2013', '07/31/2014', '07/31/2015', '08/13/2011', '08/13/2012', '08/13/2013', '08/13/2014', '08/13/2015', '08/14/2011', '08/14/2012', '08/14/2013', '08/14/2014', '08/14/2015', '08/15/2011', '08/15/2012', '08/15/2013', '08/15/2014', '08/15/2015', '08/16/2011', '08/16/2012', '08/16/2013', '08/16/2014', '08/16/2015', '08/17/2011', '08/17/2012', '08/17/2013', '08/17/2014', '08/17/2015', '08/18/2011', '08/18/2012', '08/18/2013', '08/18/2014', '08/18/2015', '08/19/2011', '08/19/2012', '08/19/2013', '08/19/2014', '08/19/2015', '08/20/2011', '08/20/2012', '08/20/2013', '08/20/2014', '08/20/2015', '08/21/2011', '08/21/2012', '08/21/2013', '08/21/2014', '08/21/2015', '08/22/2011', '08/22/2012', '08/22/2013', '08/22/2014', '08/22/2015', '08/23/2011', '08/23/2012', '08/23/2013', '08/23/2014', '08/23/2015', '08/24/2011', '08/24/2012', '08/24/2013', '08/24/2014', '08/24/2015', '08/25/2011', '08/25/2012', '08/25/2013', '08/25/2014', '08/25/2015', '08/26/2011', '08/26/2012', '08/26/2013', '08/26/2014', '08/26/2015', '08/27/2011', '08/27/2012', '08/27/2013', '08/27/2014', '08/27/2015', '08/28/2011', '08/28/2012', '08/28/2013', '08/28/2014', '08/28/2015', '08/29/2011', '08/29/2012', '08/29/2013', '08/29/2014', '08/29/2015', '08/30/2011', '08/30/2012', '08/30/2013', '08/30/2014', '08/30/2015', '08/31/2011', '08/31/2012', '08/31/2013', '08/31/2014', '08/31/2015', '09/13/2011', '09/13/2012', '09/13/2013', '09/13/2014', '09/13/2015', '09/14/2011', '09/14/2012', '09/14/2013', '09/14/2014', '09/14/2015', '09/15/2011', '09/15/2012', '09/15/2013', '09/15/2014', '09/15/2015', '09/16/2011', '09/16/2012', '09/16/2013', '09/16/2014', '09/16/2015', '09/17/2011', '09/17/2012', '09/17/2013', '09/17/2014', '09/17/2015', '09/18/2011', '09/18/2012', '09/18/2013', '09/18/2014', '09/18/2015', '09/19/2011', '09/19/2012', '09/19/2013', '09/19/2014', '09/19/2015', '09/20/2011', '09/20/2012', '09/20/2013', '09/20/2014', '09/20/2015', '09/21/2011', '09/21/2012', '09/21/2013', '09/21/2014', '09/21/2015', '09/22/2011', '09/22/2012', '09/22/2013', '09/22/2014', '09/22/2015', '09/23/2011', '09/23/2012', '09/23/2013', '09/23/2014', '09/23/2015', '09/24/2011', '09/24/2012', '09/24/2013', '09/24/2014', '09/24/2015', '09/25/2011', '09/25/2012', '09/25/2013', '09/25/2014', '09/25/2015', '09/26/2011', '09/26/2012', '09/26/2013', '09/26/2014', '09/26/2015', '09/27/2011', '09/27/2012', '09/27/2013', '09/27/2014', '09/27/2015', '09/28/2011', '09/28/2012', '09/28/2013', '09/28/2014', '09/28/2015', '09/29/2011', '09/29/2012', '09/29/2013', '09/29/2014', '09/29/2015', '09/30/2011', '09/30/2012', '09/30/2013', '09/30/2014', '09/30/2015', '10/13/2011', '10/13/2012', '10/13/2013', '10/13/2014', '10/13/2015', '10/14/2011', '10/14/2012', '10/14/2013', '10/14/2014', '10/14/2015', '10/15/2011', '10/15/2012', '10/15/2013', '10/15/2014', '10/15/2015', '10/16/2011', '10/16/2012', '10/16/2013', '10/16/2014', '10/16/2015', '10/17/2011', '10/17/2012', '10/17/2013', '10/17/2014', '10/17/2015', '10/18/2011', '10/18/2012', '10/18/2013', '10/18/2014', '10/18/2015', '10/19/2011', '10/19/2012', '10/19/2013', '10/19/2014', '10/19/2015', '10/20/2011', '10/20/2012', '10/20/2013', '10/20/2014', '10/20/2015', '10/21/2011', '10/21/2012', '10/21/2013', '10/21/2014', '10/21/2015', '10/22/2011', '10/22/2012', '10/22/2013', '10/22/2014', '10/22/2015', '10/23/2011', '10/23/2012', '10/23/2013', '10/23/2014', '10/23/2015', '10/24/2011', '10/24/2012', '10/24/2013', '10/24/2014', '10/24/2015', '10/25/2011', '10/25/2012', '10/25/2013', '10/25/2014', '10/25/2015', '10/26/2011', '10/26/2012', '10/26/2013', '10/26/2014', '10/26/2015', '10/27/2011', '10/27/2012', '10/27/2013', '10/27/2014', '10/27/2015', '10/28/2011', '10/28/2012', '10/28/2013', '10/28/2014', '10/28/2015', '10/29/2011', '10/29/2012', '10/29/2013', '10/29/2014', '10/29/2015', '10/30/2011', '10/30/2012', '10/30/2013', '10/30/2014', '10/30/2015', '10/31/2011', '10/31/2012', '10/31/2013', '10/31/2014', '10/31/2015', '11/13/2011', '11/13/2012', '11/13/2013', '11/13/2014', '11/13/2015', '11/14/2011', '11/14/2012', '11/14/2013', '11/14/2014', '11/14/2015', '11/15/2011', '11/15/2012', '11/15/2013', '11/15/2014', '11/15/2015', '11/16/2011', '11/16/2012', '11/16/2013', '11/16/2014', '11/16/2015', '11/17/2011', '11/17/2012', '11/17/2013', '11/17/2014', '11/17/2015', '11/18/2011', '11/18/2012', '11/18/2013', '11/18/2014', '11/18/2015', '11/19/2011', '11/19/2012', '11/19/2013', '11/19/2014', '11/19/2015', '11/20/2011', '11/20/2012', '11/20/2013', '11/20/2014', '11/20/2015', '11/21/2011', '11/21/2012', '11/21/2013', '11/21/2014', '11/21/2015', '11/22/2011', '11/22/2012', '11/22/2013', '11/22/2014', '11/22/2015', '11/23/2011', '11/23/2012', '11/23/2013', '11/23/2014', '11/23/2015', '11/24/2011', '11/24/2012', '11/24/2013', '11/24/2014', '11/24/2015', '11/25/2011', '11/25/2012', '11/25/2013', '11/25/2014', '11/25/2015', '11/26/2011', '11/26/2012', '11/26/2013', '11/26/2014', '11/26/2015', '11/27/2011', '11/27/2012', '11/27/2013', '11/27/2014', '11/27/2015', '11/28/2011', '11/28/2012', '11/28/2013', '11/28/2014', '11/28/2015', '11/29/2011', '11/29/2012', '11/29/2013', '11/29/2014', '11/29/2015', '11/30/2011', '11/30/2012', '11/30/2013', '11/30/2014', '11/30/2015', '12/13/2011', '12/13/2012', '12/13/2013', '12/13/2014', '12/13/2015', '12/14/2011', '12/14/2012', '12/14/2013', '12/14/2014', '12/14/2015', '12/15/2011', '12/15/2012', '12/15/2013', '12/15/2014', '12/15/2015', '12/16/2011', '12/16/2012', '12/16/2013', '12/16/2014', '12/16/2015', '12/17/2011', '12/17/2012', '12/17/2013', '12/17/2014', '12/17/2015', '12/18/2011', '12/18/2012', '12/18/2013', '12/18/2014', '12/18/2015', '12/19/2011', '12/19/2012', '12/19/2013', '12/19/2014', '12/19/2015', '12/20/2011', '12/20/2012', '12/20/2013', '12/20/2014', '12/20/2015', '12/21/2011', '12/21/2012', '12/21/2013', '12/21/2014', '12/21/2015', '12/22/2011', '12/22/2012', '12/22/2013', '12/22/2014', '12/22/2015', '12/23/2011', '12/23/2012', '12/23/2013', '12/23/2014', '12/23/2015', '12/24/2011', '12/24/2012', '12/24/2013', '12/24/2014', '12/24/2015', '12/25/2011', '12/25/2012', '12/25/2013', '12/25/2014', '12/25/2015', '12/26/2011', '12/26/2012', '12/26/2013', '12/26/2014', '12/26/2015', '12/27/2011', '12/27/2012', '12/27/2013', '12/27/2014', '12/27/2015', '12/28/2011', '12/28/2012', '12/28/2013', '12/28/2014', '12/28/2015', '12/29/2011', '12/29/2012', '12/29/2013', '12/29/2014', '12/29/2015', '12/30/2011', '12/30/2012', '12/30/2013', '12/30/2014', '12/30/2015', '12/31/2011', '12/31/2012', '12/31/2013', '12/31/2014', '12/31/2015', '2011-01-01 00:00:00', '2011-01-02 00:00:00', '2011-01-03 00:00:00', '2011-01-04 00:00:00', '2011-01-05 00:00:00', '2011-01-06 00:00:00', '2011-01-07 00:00:00', '2011-01-08 00:00:00', '2011-01-09 00:00:00', '2011-01-10 00:00:00', '2011-01-11 00:00:00', '2011-01-12 00:00:00', '2011-02-01 00:00:00', '2011-02-02 00:00:00', '2011-02-03 00:00:00', '2011-02-04 00:00:00', '2011-02-05 00:00:00', '2011-02-06 00:00:00', '2011-02-07 00:00:00', '2011-02-08 00:00:00', '2011-02-09 00:00:00', '2011-02-10 00:00:00', '2011-02-11 00:00:00', '2011-02-12 00:00:00', '2011-03-01 00:00:00', '2011-03-02 00:00:00', '2011-03-03 00:00:00', '2011-03-04 00:00:00', '2011-03-05 00:00:00', '2011-03-06 00:00:00', '2011-03-07 00:00:00', '2011-03-08 00:00:00', '2011-03-09 00:00:00', '2011-03-10 00:00:00', '2011-03-11 00:00:00', '2011-03-12 00:00:00', '2011-04-01 00:00:00', '2011-04-02 00:00:00', '2011-04-03 00:00:00', '2011-04-04 00:00:00', '2011-04-05 00:00:00', '2011-04-06 00:00:00', '2011-04-07 00:00:00', '2011-04-08 00:00:00', '2011-04-09 00:00:00', '2011-04-10 00:00:00', '2011-04-11 00:00:00', '2011-04-12 00:00:00', '2011-05-01 00:00:00', '2011-05-02 00:00:00', '2011-05-03 00:00:00', '2011-05-04 00:00:00', '2011-05-05 00:00:00', '2011-05-06 00:00:00', '2011-05-07 00:00:00', '2011-05-08 00:00:00', '2011-05-09 00:00:00', '2011-05-10 00:00:00', '2011-05-11 00:00:00', '2011-05-12 00:00:00', '2011-06-01 00:00:00', '2011-06-02 00:00:00', '2011-06-03 00:00:00', '2011-06-04 00:00:00', '2011-06-05 00:00:00', '2011-06-06 00:00:00', '2011-06-07 00:00:00', '2011-06-08 00:00:00', '2011-06-09 00:00:00', '2011-06-10 00:00:00', '2011-06-11 00:00:00', '2011-06-12 00:00:00', '2011-07-01 00:00:00', '2011-07-02 00:00:00', '2011-07-03 00:00:00', '2011-07-04 00:00:00', '2011-07-05 00:00:00', '2011-07-06 00:00:00', '2011-07-07 00:00:00', '2011-07-08 00:00:00', '2011-07-09 00:00:00', '2011-07-10 00:00:00', '2011-07-11 00:00:00', '2011-07-12 00:00:00', '2011-08-01 00:00:00', '2011-08-02 00:00:00', '2011-08-03 00:00:00', '2011-08-04 00:00:00', '2011-08-05 00:00:00', '2011-08-06 00:00:00', '2011-08-07 00:00:00', '2011-08-08 00:00:00', '2011-08-09 00:00:00', '2011-08-10 00:00:00', '2011-08-11 00:00:00', '2011-08-12 00:00:00', '2011-09-01 00:00:00', '2011-09-02 00:00:00', '2011-09-03 00:00:00', '2011-09-04 00:00:00', '2011-09-05 00:00:00', '2011-09-06 00:00:00', '2011-09-07 00:00:00', '2011-09-08 00:00:00', '2011-09-09 00:00:00', '2011-09-10 00:00:00', '2011-09-11 00:00:00', '2011-09-12 00:00:00', '2011-10-01 00:00:00', '2011-10-02 00:00:00', '2011-10-03 00:00:00', '2011-10-04 00:00:00', '2011-10-05 00:00:00', '2011-10-06 00:00:00', '2011-10-07 00:00:00', '2011-10-08 00:00:00', '2011-10-09 00:00:00', '2011-10-10 00:00:00', '2011-10-11 00:00:00', '2011-10-12 00:00:00', '2011-11-01 00:00:00', '2011-11-02 00:00:00', '2011-11-03 00:00:00', '2011-11-04 00:00:00', '2011-11-05 00:00:00', '2011-11-06 00:00:00', '2011-11-07 00:00:00', '2011-11-08 00:00:00', '2011-11-09 00:00:00', '2011-11-10 00:00:00', '2011-11-11 00:00:00', '2011-11-12 00:00:00', '2011-12-01 00:00:00', '2011-12-02 00:00:00', '2011-12-03 00:00:00', '2011-12-04 00:00:00', '2011-12-05 00:00:00', '2011-12-06 00:00:00', '2011-12-07 00:00:00', '2011-12-08 00:00:00', '2011-12-09 00:00:00', '2011-12-10 00:00:00', '2011-12-11 00:00:00', '2011-12-12 00:00:00', '2012-01-01 00:00:00', '2012-01-02 00:00:00', '2012-01-03 00:00:00', '2012-01-04 00:00:00', '2012-01-05 00:00:00', '2012-01-06 00:00:00', '2012-01-07 00:00:00', '2012-01-08 00:00:00', '2012-01-09 00:00:00', '2012-01-10 00:00:00', '2012-01-11 00:00:00', '2012-01-12 00:00:00', '2012-02-01 00:00:00', '2012-02-02 00:00:00', '2012-02-03 00:00:00', '2012-02-04 00:00:00', '2012-02-05 00:00:00', '2012-02-06 00:00:00', '2012-02-07 00:00:00', '2012-02-08 00:00:00', '2012-02-09 00:00:00', '2012-02-10 00:00:00', '2012-02-11 00:00:00', '2012-02-12 00:00:00', '2012-03-01 00:00:00', '2012-03-02 00:00:00', '2012-03-03 00:00:00', '2012-03-04 00:00:00', '2012-03-05 00:00:00', '2012-03-06 00:00:00', '2012-03-07 00:00:00', '2012-03-08 00:00:00', '2012-03-09 00:00:00', '2012-03-10 00:00:00', '2012-03-11 00:00:00', '2012-03-12 00:00:00', '2012-04-01 00:00:00', '2012-04-02 00:00:00', '2012-04-03 00:00:00', '2012-04-04 00:00:00', '2012-04-05 00:00:00', '2012-04-06 00:00:00', '2012-04-07 00:00:00', '2012-04-08 00:00:00', '2012-04-09 00:00:00', '2012-04-10 00:00:00', '2012-04-11 00:00:00', '2012-04-12 00:00:00', '2012-05-01 00:00:00', '2012-05-02 00:00:00', '2012-05-03 00:00:00', '2012-05-04 00:00:00', '2012-05-05 00:00:00', '2012-05-06 00:00:00', '2012-05-07 00:00:00', '2012-05-08 00:00:00', '2012-05-09 00:00:00', '2012-05-10 00:00:00', '2012-05-11 00:00:00', '2012-05-12 00:00:00', '2012-06-01 00:00:00', '2012-06-02 00:00:00', '2012-06-03 00:00:00', '2012-06-04 00:00:00', '2012-06-05 00:00:00', '2012-06-06 00:00:00', '2012-06-07 00:00:00', '2012-06-08 00:00:00', '2012-06-09 00:00:00', '2012-06-10 00:00:00', '2012-06-11 00:00:00', '2012-06-12 00:00:00', '2012-07-01 00:00:00', '2012-07-02 00:00:00', '2012-07-03 00:00:00', '2012-07-04 00:00:00', '2012-07-05 00:00:00', '2012-07-06 00:00:00', '2012-07-07 00:00:00', '2012-07-08 00:00:00', '2012-07-09 00:00:00', '2012-07-10 00:00:00', '2012-07-11 00:00:00', '2012-07-12 00:00:00', '2012-08-01 00:00:00', '2012-08-02 00:00:00', '2012-08-03 00:00:00', '2012-08-04 00:00:00', '2012-08-05 00:00:00', '2012-08-06 00:00:00', '2012-08-07 00:00:00', '2012-08-08 00:00:00', '2012-08-09 00:00:00', '2012-08-10 00:00:00', '2012-08-11 00:00:00', '2012-08-12 00:00:00', '2012-09-01 00:00:00', '2012-09-02 00:00:00', '2012-09-03 00:00:00', '2012-09-04 00:00:00', '2012-09-05 00:00:00', '2012-09-06 00:00:00', '2012-09-07 00:00:00', '2012-09-08 00:00:00', '2012-09-09 00:00:00', '2012-09-10 00:00:00', '2012-09-11 00:00:00', '2012-09-12 00:00:00', '2012-10-01 00:00:00', '2012-10-02 00:00:00', '2012-10-03 00:00:00', '2012-10-04 00:00:00', '2012-10-05 00:00:00', '2012-10-06 00:00:00', '2012-10-07 00:00:00', '2012-10-08 00:00:00', '2012-10-09 00:00:00', '2012-10-10 00:00:00', '2012-10-11 00:00:00', '2012-10-12 00:00:00', '2012-11-01 00:00:00', '2012-11-02 00:00:00', '2012-11-03 00:00:00', '2012-11-04 00:00:00', '2012-11-05 00:00:00', '2012-11-06 00:00:00', '2012-11-07 00:00:00', '2012-11-08 00:00:00', '2012-11-09 00:00:00', '2012-11-10 00:00:00', '2012-11-11 00:00:00', '2012-11-12 00:00:00', '2012-12-01 00:00:00', '2012-12-02 00:00:00', '2012-12-03 00:00:00', '2012-12-04 00:00:00', '2012-12-05 00:00:00', '2012-12-06 00:00:00', '2012-12-07 00:00:00', '2012-12-08 00:00:00', '2012-12-09 00:00:00', '2012-12-10 00:00:00', '2012-12-11 00:00:00', '2012-12-12 00:00:00', '2013-01-01 00:00:00', '2013-01-02 00:00:00', '2013-01-03 00:00:00', '2013-01-04 00:00:00', '2013-01-05 00:00:00', '2013-01-06 00:00:00', '2013-01-07 00:00:00', '2013-01-08 00:00:00', '2013-01-09 00:00:00', '2013-01-10 00:00:00', '2013-01-11 00:00:00', '2013-01-12 00:00:00', '2013-02-01 00:00:00', '2013-02-02 00:00:00', '2013-02-03 00:00:00', '2013-02-04 00:00:00', '2013-02-05 00:00:00', '2013-02-06 00:00:00', '2013-02-07 00:00:00', '2013-02-08 00:00:00', '2013-02-09 00:00:00', '2013-02-10 00:00:00', '2013-02-11 00:00:00', '2013-02-12 00:00:00', '2013-03-01 00:00:00', '2013-03-02 00:00:00', '2013-03-03 00:00:00', '2013-03-04 00:00:00', '2013-03-05 00:00:00', '2013-03-06 00:00:00', '2013-03-07 00:00:00', '2013-03-08 00:00:00', '2013-03-09 00:00:00', '2013-03-10 00:00:00', '2013-03-11 00:00:00', '2013-03-12 00:00:00', '2013-04-01 00:00:00', '2013-04-02 00:00:00', '2013-04-03 00:00:00', '2013-04-04 00:00:00', '2013-04-05 00:00:00', '2013-04-06 00:00:00', '2013-04-07 00:00:00', '2013-04-08 00:00:00', '2013-04-09 00:00:00', '2013-04-10 00:00:00', '2013-04-11 00:00:00', '2013-04-12 00:00:00', '2013-05-01 00:00:00', '2013-05-02 00:00:00', '2013-05-03 00:00:00', '2013-05-04 00:00:00', '2013-05-05 00:00:00', '2013-05-06 00:00:00', '2013-05-07 00:00:00', '2013-05-08 00:00:00', '2013-05-09 00:00:00', '2013-05-10 00:00:00', '2013-05-11 00:00:00', '2013-05-12 00:00:00', '2013-06-01 00:00:00', '2013-06-02 00:00:00', '2013-06-03 00:00:00', '2013-06-04 00:00:00', '2013-06-05 00:00:00', '2013-06-06 00:00:00', '2013-06-07 00:00:00', '2013-06-08 00:00:00', '2013-06-09 00:00:00', '2013-06-10 00:00:00', '2013-06-11 00:00:00', '2013-06-12 00:00:00', '2013-07-01 00:00:00', '2013-07-02 00:00:00', '2013-07-03 00:00:00', '2013-07-04 00:00:00', '2013-07-05 00:00:00', '2013-07-06 00:00:00', '2013-07-07 00:00:00', '2013-07-08 00:00:00', '2013-07-09 00:00:00', '2013-07-10 00:00:00', '2013-07-11 00:00:00', '2013-07-12 00:00:00', '2013-08-01 00:00:00', '2013-08-02 00:00:00', '2013-08-03 00:00:00', '2013-08-04 00:00:00', '2013-08-05 00:00:00', '2013-08-06 00:00:00', '2013-08-07 00:00:00', '2013-08-08 00:00:00', '2013-08-09 00:00:00', '2013-08-10 00:00:00', '2013-08-11 00:00:00', '2013-08-12 00:00:00', '2013-09-01 00:00:00', '2013-09-02 00:00:00', '2013-09-03 00:00:00', '2013-09-04 00:00:00', '2013-09-05 00:00:00', '2013-09-06 00:00:00', '2013-09-07 00:00:00', '2013-09-08 00:00:00', '2013-09-09 00:00:00', '2013-09-10 00:00:00', '2013-09-11 00:00:00', '2013-09-12 00:00:00', '2013-10-01 00:00:00', '2013-10-02 00:00:00', '2013-10-03 00:00:00', '2013-10-04 00:00:00', '2013-10-05 00:00:00', '2013-10-06 00:00:00', '2013-10-07 00:00:00', '2013-10-08 00:00:00', '2013-10-09 00:00:00', '2013-10-10 00:00:00', '2013-10-11 00:00:00', '2013-10-12 00:00:00', '2013-11-01 00:00:00', '2013-11-02 00:00:00', '2013-11-03 00:00:00', '2013-11-04 00:00:00', '2013-11-05 00:00:00', '2013-11-06 00:00:00', '2013-11-07 00:00:00', '2013-11-08 00:00:00', '2013-11-09 00:00:00', '2013-11-10 00:00:00', '2013-11-11 00:00:00', '2013-11-12 00:00:00', '2013-12-01 00:00:00', '2013-12-02 00:00:00', '2013-12-03 00:00:00', '2013-12-04 00:00:00', '2013-12-05 00:00:00', '2013-12-06 00:00:00', '2013-12-07 00:00:00', '2013-12-08 00:00:00', '2013-12-09 00:00:00', '2013-12-10 00:00:00', '2013-12-11 00:00:00', '2013-12-12 00:00:00', '2014-01-01 00:00:00', '2014-01-02 00:00:00', '2014-01-03 00:00:00', '2014-01-04 00:00:00', '2014-01-05 00:00:00', '2014-01-06 00:00:00', '2014-01-07 00:00:00', '2014-01-08 00:00:00', '2014-01-09 00:00:00', '2014-01-10 00:00:00', '2014-01-11 00:00:00', '2014-01-12 00:00:00', '2014-02-01 00:00:00', '2014-02-02 00:00:00', '2014-02-03 00:00:00', '2014-02-04 00:00:00', '2014-02-05 00:00:00', '2014-02-06 00:00:00', '2014-02-07 00:00:00', '2014-02-08 00:00:00', '2014-02-09 00:00:00', '2014-02-10 00:00:00', '2014-02-11 00:00:00', '2014-02-12 00:00:00', '2014-03-01 00:00:00', '2014-03-02 00:00:00', '2014-03-03 00:00:00', '2014-03-04 00:00:00', '2014-03-05 00:00:00', '2014-03-06 00:00:00', '2014-03-07 00:00:00', '2014-03-08 00:00:00', '2014-03-09 00:00:00', '2014-03-10 00:00:00', '2014-03-11 00:00:00', '2014-03-12 00:00:00', '2014-04-01 00:00:00', '2014-04-02 00:00:00', '2014-04-03 00:00:00', '2014-04-04 00:00:00', '2014-04-05 00:00:00', '2014-04-06 00:00:00', '2014-04-07 00:00:00', '2014-04-08 00:00:00', '2014-04-09 00:00:00', '2014-04-10 00:00:00', '2014-04-11 00:00:00', '2014-04-12 00:00:00', '2014-05-01 00:00:00', '2014-05-02 00:00:00', '2014-05-03 00:00:00', '2014-05-04 00:00:00', '2014-05-05 00:00:00', '2014-05-06 00:00:00', '2014-05-07 00:00:00', '2014-05-08 00:00:00', '2014-05-09 00:00:00', '2014-05-10 00:00:00', '2014-05-11 00:00:00', '2014-05-12 00:00:00', '2014-06-01 00:00:00', '2014-06-02 00:00:00', '2014-06-03 00:00:00', '2014-06-04 00:00:00', '2014-06-05 00:00:00', '2014-06-06 00:00:00', '2014-06-07 00:00:00', '2014-06-08 00:00:00', '2014-06-09 00:00:00', '2014-06-10 00:00:00', '2014-06-11 00:00:00', '2014-06-12 00:00:00', '2014-07-01 00:00:00', '2014-07-02 00:00:00', '2014-07-03 00:00:00', '2014-07-04 00:00:00', '2014-07-05 00:00:00', '2014-07-06 00:00:00', '2014-07-07 00:00:00', '2014-07-08 00:00:00', '2014-07-09 00:00:00', '2014-07-10 00:00:00', '2014-07-11 00:00:00', '2014-07-12 00:00:00', '2014-08-01 00:00:00', '2014-08-02 00:00:00', '2014-08-03 00:00:00', '2014-08-04 00:00:00', '2014-08-05 00:00:00', '2014-08-06 00:00:00', '2014-08-07 00:00:00', '2014-08-08 00:00:00', '2014-08-09 00:00:00', '2014-08-10 00:00:00', '2014-08-11 00:00:00', '2014-08-12 00:00:00', '2014-09-01 00:00:00', '2014-09-02 00:00:00', '2014-09-03 00:00:00', '2014-09-04 00:00:00', '2014-09-05 00:00:00', '2014-09-06 00:00:00', '2014-09-07 00:00:00', '2014-09-08 00:00:00', '2014-09-09 00:00:00', '2014-09-10 00:00:00', '2014-09-11 00:00:00', '2014-09-12 00:00:00', '2014-10-01 00:00:00', '2014-10-02 00:00:00', '2014-10-03 00:00:00', '2014-10-04 00:00:00', '2014-10-05 00:00:00', '2014-10-06 00:00:00', '2014-10-07 00:00:00', '2014-10-08 00:00:00', '2014-10-09 00:00:00', '2014-10-10 00:00:00', '2014-10-11 00:00:00', '2014-10-12 00:00:00', '2014-11-01 00:00:00', '2014-11-02 00:00:00', '2014-11-03 00:00:00', '2014-11-04 00:00:00', '2014-11-05 00:00:00', '2014-11-06 00:00:00', '2014-11-07 00:00:00', '2014-11-08 00:00:00', '2014-11-09 00:00:00', '2014-11-10 00:00:00', '2014-11-11 00:00:00', '2014-11-12 00:00:00', '2014-12-01 00:00:00', '2014-12-02 00:00:00', '2014-12-03 00:00:00', '2014-12-04 00:00:00', '2014-12-05 00:00:00', '2014-12-06 00:00:00', '2014-12-07 00:00:00', '2014-12-08 00:00:00', '2014-12-09 00:00:00', '2014-12-10 00:00:00', '2014-12-11 00:00:00', '2014-12-12 00:00:00', '2015-01-01 00:00:00', '2015-01-02 00:00:00', '2015-01-03 00:00:00', '2015-01-04 00:00:00', '2015-01-05 00:00:00', '2015-01-06 00:00:00', '2015-01-07 00:00:00', '2015-01-08 00:00:00', '2015-01-09 00:00:00', '2015-01-10 00:00:00', '2015-01-11 00:00:00', '2015-01-12 00:00:00', '2015-02-01 00:00:00', '2015-02-02 00:00:00', '2015-02-03 00:00:00', '2015-02-04 00:00:00', '2015-02-05 00:00:00', '2015-02-06 00:00:00', '2015-02-07 00:00:00', '2015-02-08 00:00:00', '2015-02-09 00:00:00', '2015-02-10 00:00:00', '2015-02-11 00:00:00', '2015-02-12 00:00:00', '2015-03-01 00:00:00', '2015-03-02 00:00:00', '2015-03-03 00:00:00', '2015-03-04 00:00:00', '2015-03-05 00:00:00', '2015-03-06 00:00:00', '2015-03-07 00:00:00', '2015-03-08 00:00:00', '2015-03-09 00:00:00', '2015-03-10 00:00:00', '2015-03-11 00:00:00', '2015-03-12 00:00:00', '2015-04-01 00:00:00', '2015-04-02 00:00:00', '2015-04-03 00:00:00', '2015-04-04 00:00:00', '2015-04-05 00:00:00', '2015-04-06 00:00:00', '2015-04-07 00:00:00', '2015-04-08 00:00:00', '2015-04-09 00:00:00', '2015-04-10 00:00:00', '2015-04-11 00:00:00', '2015-04-12 00:00:00', '2015-05-01 00:00:00', '2015-05-02 00:00:00', '2015-05-03 00:00:00', '2015-05-04 00:00:00', '2015-05-05 00:00:00', '2015-05-06 00:00:00', '2015-05-07 00:00:00', '2015-05-08 00:00:00', '2015-05-09 00:00:00', '2015-05-10 00:00:00', '2015-05-11 00:00:00', '2015-05-12 00:00:00', '2015-06-01 00:00:00', '2015-06-02 00:00:00', '2015-06-03 00:00:00', '2015-06-04 00:00:00', '2015-06-05 00:00:00', '2015-06-06 00:00:00', '2015-06-07 00:00:00', '2015-06-08 00:00:00', '2015-06-09 00:00:00', '2015-06-10 00:00:00', '2015-06-11 00:00:00', '2015-06-12 00:00:00', '2015-07-01 00:00:00', '2015-07-02 00:00:00', '2015-07-03 00:00:00', '2015-07-04 00:00:00', '2015-07-05 00:00:00', '2015-07-06 00:00:00', '2015-07-07 00:00:00', '2015-07-08 00:00:00', '2015-07-09 00:00:00', '2015-07-10 00:00:00', '2015-07-11 00:00:00', '2015-07-12 00:00:00', '2015-08-01 00:00:00', '2015-08-02 00:00:00', '2015-08-03 00:00:00', '2015-08-04 00:00:00', '2015-08-05 00:00:00', '2015-08-06 00:00:00', '2015-08-07 00:00:00', '2015-08-08 00:00:00', '2015-08-09 00:00:00', '2015-08-10 00:00:00', '2015-08-11 00:00:00', '2015-08-12 00:00:00', '2015-09-01 00:00:00', '2015-09-02 00:00:00', '2015-09-03 00:00:00', '2015-09-04 00:00:00', '2015-09-05 00:00:00', '2015-09-06 00:00:00', '2015-09-07 00:00:00', '2015-09-08 00:00:00', '2015-09-09 00:00:00', '2015-09-10 00:00:00', '2015-09-11 00:00:00', '2015-09-12 00:00:00', '2015-10-01 00:00:00', '2015-10-02 00:00:00', '2015-10-03 00:00:00', '2015-10-04 00:00:00', '2015-10-05 00:00:00', '2015-10-06 00:00:00', '2015-10-07 00:00:00', '2015-10-08 00:00:00', '2015-10-09 00:00:00', '2015-10-10 00:00:00', '2015-10-11 00:00:00', '2015-10-12 00:00:00', '2015-11-01 00:00:00', '2015-11-02 00:00:00', '2015-11-03 00:00:00', '2015-11-04 00:00:00', '2015-11-05 00:00:00', '2015-11-06 00:00:00', '2015-11-07 00:00:00', '2015-11-08 00:00:00', '2015-11-09 00:00:00', '2015-11-10 00:00:00', '2015-11-11 00:00:00', '2015-11-12 00:00:00', '2015-12-01 00:00:00', '2015-12-02 00:00:00', '2015-12-03 00:00:00', '2015-12-04 00:00:00', '2015-12-05 00:00:00', '2015-12-06 00:00:00', '2015-12-07 00:00:00', '2015-12-08 00:00:00', '2015-12-09 00:00:00', '2015-12-10 00:00:00', '2015-12-11 00:00:00', '2015-12-12 00:00:00', '2016-01-01 00:00:00', '2016-01-02 00:00:00', '2016-02-01 00:00:00', '2016-02-02 00:00:00', '2016-03-01 00:00:00', '2016-03-02 00:00:00', '2016-04-01 00:00:00', '2016-04-02 00:00:00', '2016-05-01 00:00:00', '2016-05-02 00:00:00', '2016-06-01 00:00:00', '2016-06-02 00:00:00', '2016-07-01 00:00:00', '2016-07-02 00:00:00', '2016-08-01 00:00:00', '2016-09-01 00:00:00', '2016-10-01 00:00:00', '2016-11-01 00:00:00', '2016-12-01 00:00:00']</t>
         </is>
       </c>
     </row>
@@ -660,7 +686,7 @@
         <v>267773</v>
       </c>
       <c r="E4" t="n">
-        <v>267773</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -675,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K4" t="n">
         <v>-1</v>
       </c>
       <c r="L4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="N4" t="n">
-        <v>19</v>
+        <v>3796</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -705,24 +731,32 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
+          <t>1900-01-08 18:00:00</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>1</v>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
           <t>1200</t>
         </is>
       </c>
-      <c r="T4" t="n">
+      <c r="V4" t="n">
         <v>4729</v>
       </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>984565</v>
-      </c>
       <c r="W4" t="n">
-        <v>1450</v>
-      </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>['0', '082-', '090O', '1', '10', '100', '1000', '1001', '1002', '1003', '1004', '1005', '1006', '1007', '1008', '1009', '101', '1010', '1011', '1012', '1013', '1014', '1015', '1016', '1017', '1018', '1019', '102', '1020', '1021', '1022', '1023', '1024', '1025', '1026', '1027', '1028', '1029', '103', '1030', '1031', '1032', '1033', '1034', '1035', '1036', '1037', '1038', '1039', '103O', '104', '1040', '1041', '1042', '1043', '1044', '1045', '1046', '1047', '1048', '1049', '105', '1050', '1051', '1052', '1053', '1054', '1055', '1056', '1057', '1058', '1059', '106', '107', '108', '109', '11', '110', '1100', '1101', '1102', '1103', '1104', '1105', '1106', '1107', '1108', '1109', '111', '1110', '1111', '1112', '1113', '1114', '1115', '1116', '1117', '1118', '1119', '112', '1120', '1121', '1122', '1123', '1124', '1125', '1126', '1127', '1128', '1129', '113', '1130', '1131', '1132', '1133', '1134', '1135', '1136', '1137', '1138', '1139', '114', '1140', '1141', '1142', '1143', '1144', '1145', '1146', '1147', '1148', '1149', '115', '1150', '1151', '1152', '1153', '1154', '1155', '1156', '1157', '1158', '1159', '116', '117', '118', '119', '12', '120', '1200', '1201', '1202', '1203', '1204', '1205', '1206', '1207', '1208', '1209', '121', '1210', '1211', '1212', '1213', '1214', '1215', '1216', '1217', '1218', '1219', '122', '1220', '1221', '1222', '1223', '1224', '1225', '1226', '1227', '1228', '1229', '123', '1230', '1231', '1232', '1233', '1234', '1235', '1236', '1237', '1238', '1239', '124', '1240', '1241', '1242', '1243', '1244', '1245', '1246', '1247', '1248', '1249', '125', '1250', '1251', '1252', '1253', '1254', '1255', '1256', '1257', '1258', '1259', '126', '127', '128', '129', '13', '130', '1300', '1301', '1302', '1303', '1304', '1305', '1306', '1307', '1308', '1309', '131', '1310', '1311', '1312', '1313', '1314', '1315', '1316', '1317', '1318', '1319', '132', '1320', '1321', '1322', '1323', '1324', '1325', '1326', '1327', '1328', '1329', '133', '1330', '1331', '1332', '1333', '1334', '1335', '1336', '1337', '1338', '1339', '134', '1340', '1341', '1342', '1343', '1344', '1345', '1346', '1347', '1348', '1349', '135', '1350', '1351', '1352', '1353', '1354', '1355', '1356', '1357', '1358', '1359', '136', '137', '138', '139', '14', '140', '1400', '1401', '1402', '1403', '1404', '1405', '1406', '1407', '1408', '1409', '141', '1410', '1411', '1412', '1413', '1414', '1415', '1416', '1417', '1418', '1419', '142', '1420', '1421', '1422', '1423', '1424', '1425', '1426', '1427', '1428', '1429', '143', '1430', '1431', '1432', '1433', '1434', '1435', '1436', '1437', '1438', '1439', '144', '1440', '1441', '1442', '1443', '1444', '1445', '1446', '1447', '1448', '1449', '145', '1450', '1451', '1452', '1453', '1454', '1455', '1456', '1457', '1458', '1459', '146', '147', '148', '149', '15', '150', '1500', '1501', '1502', '1503', '1504', '1505', '1506', '1507', '1508', '1509', '151', '1510', '1511', '1512', '1513', '1514', '1515', '1516', '1517', '1518', '1519', '152', '1520', '1521', '1522', '1523', '1524', '1525', '1526', '1527', '1528', '1529', '153', '1530', '1531', '1532', '1533', '1534', '1535', '1536', '1537', '1538', '1539', '154', '1540', '1541', '1542', '1543', '1544', '1545', '1546', '1547', '1548', '1549', '155', '1550', '1551', '1552', '1553', '1554', '1555', '1556', '1557', '1558', '1559', '156', '157', '158', '159', '16', '1600', '1601', '1602', '1603', '1604', '1605', '1606', '1607', '1608', '1609', '1610', '1611', '1612', '1613', '1614', '1615', '1616', '1617', '1618', '1619', '1620', '1621', '1622', '1623', '1624', '1625', '1626', '1627', '1628', '1629', '1630', '1631', '1632', '1633', '1634', '1635', '1636', '1637', '1638', '1639', '1640', '1641', '1642', '1643', '1644', '1645', '1646', '1647', '1648', '1649', '1650', '1651', '1652', '1653', '1654', '1655', '1656', '1657', '1658', '1659', '17', '1700', '1701', '1702', '1703', '1704', '1705', '1706', '1707', '1708', '1709', '1710', '1711', '1712', '1713', '1714', '1715', '1716', '1717', '1718', '1719', '1720', '1721', '1722', '1723', '1724', '1725', '1726', '1727', '1728', '1729', '1730', '1731', '1732', '1733', '1734', '1735', '1736', '1737', '1738', '1739', '1740', '1741', '1742', '1743', '1744', '1745', '1746', '1747', '1748', '1749', '1750', '1751', '1752', '1753', '1754', '1755', '1756', '1757', '1758', '1759', '18', '1800', '1801', '1802', '1803', '1804', '1805', '1806', '1807', '1808', '1809', '1810', '1811', '1812', '1813', '1814', '1815', '1816', '1817', '1818', '1819', '1820', '1821', '1822', '1823', '1824', '1825', '1826', '1827', '1828', '1829', '1830', '1831', '1832', '1833', '1834', '1835', '1836', '1837', '1838', '1839', '1840', '1841', '1842', '1843', '1844', '1845', '1846', '1847', '1848', '1849', '1850', '1851', '1852', '1853', '1854', '1855', '1856', '1857', '1858', '1859', '19', '1900', '1900-01-07 06:00:00', '1900-01-08 18:00:00', '1901', '1902', '1903', '1904', '1905', '1906', '1907', '1908', '1909', '1910', '1911', '1912', '1913', '1914', '1915', '1916', '1917', '1918', '1919', '1920', '1921', '1922', '1923', '1924', '1925', '1926', '1927', '1928', '1929', '193-', '1930', '1931', '1932', '1933', '1934', '1935', '1935-01-01 00:00:00', '1936', '1937', '1938', '1939', '1940', '1941', '1942', '1943', '1944', '1945', '1946', '1947', '1948', '1949', '1950', '1951', '1952', '1953', '1954', '1955', '1956', '1957', '1958', '1959', '2', '20', '200', '2000', '2001', '2002', '2003', '2004', '2005', '2006', '2007', '2008', '2009', '201', '2010', '2011', '2012', '2013', '2014', '2015', '2016', '2017', '2018', '2019', '202', '2020', '2021', '2022', '2023', '2024', '2025', '2026', '2027', '2028', '2029', '202O', '203', '2030', '2031', '2032', '2033', '2034', '2035', '2036', '2037', '2038', '2039', '204', '2040', '2041', '2042', '2043', '2044', '2045', '2046', '2047', '2048', '2049', '205', '2050', '2051', '2052', '2053', '2054', '2055', '2056', '2057', '2058', '2059', '206', '207', '208', '209', '21', '210', '2100', '2101', '2102', '2103', '2104', '2105', '2106', '2107', '2108', '2109', '211', '2110', '2111', '2112', '2113', '2114', '2115', '2116', '2117', '2118', '2119', '212', '2120', '2121', '2122', '2123', '2124', '2125', '2126', '2127', '2128', '2129', '213', '2130', '2131', '2132', '2133', '2134', '2135', '2136', '2137', '2138', '2139', '214', '2140', '2141', '2142', '2143', '2144', '2145', '2146', '2147', '2148', '2149', '215', '2150', '2151', '2152', '2153', '2154', '2155', '2156', '2157', '2158', '2159', '216', '217', '218', '219', '22', '220', '2200', '2201', '2202', '2203', '2204', '2205', '2206', '2207', '2208', '2209', '221', '2210', '2211', '2212', '2213', '2214', '2215', '2216', '2217', '2218', '2219', '222', '2220', '2221', '2222', '2223', '2224', '2225', '2226', '2227', '2228', '2229', '223', '2230', '2231', '2232', '2233', '2234', '2235', '2236', '2237', '2238', '2239', '224', '2240', '2241', '2242', '2243', '2244', '2245', '2246', '2247', '2248', '2249', '225', '2250', '2251', '2252', '2253', '2254', '2255', '2256', '2257', '2258', '2259', '226', '227', '228', '229', '23', '230', '2300', '2301', '2302', '2303', '2304', '2305', '2306', '2307', '2308', '2309', '231', '2310', '2311', '2312', '2313', '2314', '2315', '2316', '2317', '2318', '2319', '232', '2320', '2321', '2322', '2323', '2324', '2325', '2326', '2327', '2328', '2329', '233', '2330', '2331', '2332', '2333', '2334', '2335', '2336', '2337', '2338', '2339', '234', '2340', '2341', '2342', '2343', '2344', '2345', '2346', '2347', '2348', '2349', '235', '2350', '2351', '2352', '2353', '2354', '2355', '2356', '2357', '2358', '2359', '236', '237', '238', '239', '24', '240', '241', '242', '243', '244', '245', '246', '247', '248', '249', '25', '250', '251', '252', '253', '254', '255', '256', '257', '258', '259', '26', '27', '28', '29', '3', '30', '300', '301', '302', '303', '304', '305', '306', '307', '308', '309', '31', '310', '311', '312', '313', '314', '315', '316', '317', '318', '319', '32', '320', '321', '322', '323', '324', '325', '326', '327', '328', '329', '33', '330', '331', '332', '333', '334', '335', '336', '337', '338', '339', '34', '340', '341', '342', '343', '344', '345', '346', '347', '348', '349', '35', '350', '351', '352', '353', '354', '355', '356', '357', '358', '359', '36', '37', '38', '39', '4', '40', '400', '401', '402', '403', '404', '405', '406', '407', '408', '409', '41', '410', '411', '412', '413', '414', '415', '416', '417', '418', '419', '42', '420', '421', '422', '423', '424', '425', '426', '427', '428', '429', '43', '430', '431', '432', '433', '434', '435', '436', '437', '438', '439', '44', '440', '441', '442', '443', '444', '445', '446', '447', '448', '449', '45', '450', '451', '452', '453', '454', '455', '456', '457', '458', '459', '46', '47', '48', '49', '5', '50', '500', '501', '502', '503', '504', '505', '506', '507', '508', '509', '51', '510', '511', '512', '513', '514', '515', '516', '517', '518', '519', '52', '520', '521', '522', '523', '524', '525', '526', '527', '528', '529', '53', '530', '531', '532', '533', '534', '535', '536', '537', '538', '539', '54', '540', '541', '542', '543', '544', '545', '546', '547', '548', '549', '55', '550', '551', '552', '553', '554', '555', '556', '557', '558', '559', '56', '57', '58', '59', '6', '600', '601', '602', '603', '604', '605', '606', '607', '608', '609', '610', '611', '612', '613', '614', '615', '616', '617', '618', '619', '620', '621', '622', '623', '624', '625', '626', '627', '628', '629', '630', '631', '632', '633', '634', '635', '636', '637', '638', '639', '640', '641', '642', '643', '644', '645', '646', '647', '648', '649', '650', '651', '652', '653', '654', '655', '656', '657', '658', '659', '7', '700', '701', '702', '703', '704', '705', '706', '707', '708', '709', '710', '711', '712', '713', '714', '715', '716', '717', '718', '719', '720', '721', '722', '723', '724', '725', '726', '727', '728', '729', '730', '731', '732', '733', '734', '735', '736', '737', '738', '739', '740', '741', '742', '743', '744', '745', '746', '747', '748', '749', '750', '751', '752', '753', '754', '755', '756', '757', '758', '759', '8', '800', '801', '802', '803', '804', '805', '806', '807', '808', '809', '810', '811', '812', '813', '814', '815', '816', '817', '818', '819', '820', '821', '822', '823', '824', '825', '826', '827', '828', '829', '830', '831', '832', '833', '834', '835', '836', '837', '838', '839', '840', '841', '842', '843', '844', '845', '846', '847', '848', '849', '850', '851', '852', '853', '854', '855', '856', '857', '858', '859', '9', '900', '901', '902', '903', '904', '905', '906', '907', '908', '909', '910', '911', '912', '913', '914', '915', '916', '917', '918', '919', '920', '921', '922', '923', '924', '925', '926', '927', '928', '929', '930', '931', '932', '933', '934', '935', '936', '937', '938', '939', '940', '941', '942', '943', '944', '945', '946', '947', '948', '949', '950', '951', '952', '953', '954', '955', '956', '957', '958', '959', 'ATTEMPTED', 'COMMITTED']</t>
+        <v>0</v>
+      </c>
+      <c r="X4" t="n">
+        <v>973177</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1449</v>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>['(Null)', '0', '082-', '090O', '1', '10', '100', '1000', '1001', '1002', '1003', '1004', '1005', '1006', '1007', '1008', '1009', '101', '1010', '1011', '1012', '1013', '1014', '1015', '1016', '1017', '1018', '1019', '102', '1020', '1021', '1022', '1023', '1024', '1025', '1026', '1027', '1028', '1029', '103', '1030', '1031', '1032', '1033', '1034', '1035', '1036', '1037', '1038', '1039', '103O', '104', '1040', '1041', '1042', '1043', '1044', '1045', '1046', '1047', '1048', '1049', '105', '1050', '1051', '1052', '1053', '1054', '1055', '1056', '1057', '1058', '1059', '106', '107', '108', '109', '11', '110', '1100', '1101', '1102', '1103', '1104', '1105', '1106', '1107', '1108', '1109', '111', '1110', '1111', '1112', '1113', '1114', '1115', '1116', '1117', '1118', '1119', '112', '1120', '1121', '1122', '1123', '1124', '1125', '1126', '1127', '1128', '1129', '113', '1130', '1131', '1132', '1133', '1134', '1135', '1136', '1137', '1138', '1139', '114', '1140', '1141', '1142', '1143', '1144', '1145', '1146', '1147', '1148', '1149', '115', '1150', '1151', '1152', '1153', '1154', '1155', '1156', '1157', '1158', '1159', '116', '117', '118', '119', '12', '120', '1200', '1201', '1202', '1203', '1204', '1205', '1206', '1207', '1208', '1209', '121', '1210', '1211', '1212', '1213', '1214', '1215', '1216', '1217', '1218', '1219', '122', '1220', '1221', '1222', '1223', '1224', '1225', '1226', '1227', '1228', '1229', '123', '1230', '1231', '1232', '1233', '1234', '1235', '1236', '1237', '1238', '1239', '124', '1240', '1241', '1242', '1243', '1244', '1245', '1246', '1247', '1248', '1249', '125', '1250', '1251', '1252', '1253', '1254', '1255', '1256', '1257', '1258', '1259', '126', '127', '128', '129', '13', '130', '1300', '1301', '1302', '1303', '1304', '1305', '1306', '1307', '1308', '1309', '131', '1310', '1311', '1312', '1313', '1314', '1315', '1316', '1317', '1318', '1319', '132', '1320', '1321', '1322', '1323', '1324', '1325', '1326', '1327', '1328', '1329', '133', '1330', '1331', '1332', '1333', '1334', '1335', '1336', '1337', '1338', '1339', '134', '1340', '1341', '1342', '1343', '1344', '1345', '1346', '1347', '1348', '1349', '135', '1350', '1351', '1352', '1353', '1354', '1355', '1356', '1357', '1358', '1359', '136', '137', '138', '139', '14', '140', '1400', '1401', '1402', '1403', '1404', '1405', '1406', '1407', '1408', '1409', '141', '1410', '1411', '1412', '1413', '1414', '1415', '1416', '1417', '1418', '1419', '142', '1420', '1421', '1422', '1423', '1424', '1425', '1426', '1427', '1428', '1429', '143', '1430', '1431', '1432', '1433', '1434', '1435', '1436', '1437', '1438', '1439', '144', '1440', '1441', '1442', '1443', '1444', '1445', '1446', '1447', '1448', '1449', '145', '1450', '1451', '1452', '1453', '1454', '1455', '1456', '1457', '1458', '1459', '146', '147', '148', '149', '15', '150', '1500', '1501', '1502', '1503', '1504', '1505', '1506', '1507', '1508', '1509', '151', '1510', '1511', '1512', '1513', '1514', '1515', '1516', '1517', '1518', '1519', '152', '1520', '1521', '1522', '1523', '1524', '1525', '1526', '1527', '1528', '1529', '153', '1530', '1531', '1532', '1533', '1534', '1535', '1536', '1537', '1538', '1539', '154', '1540', '1541', '1542', '1543', '1544', '1545', '1546', '1547', '1548', '1549', '155', '1550', '1551', '1552', '1553', '1554', '1555', '1556', '1557', '1558', '1559', '156', '157', '158', '159', '16', '1600', '1601', '1602', '1603', '1604', '1605', '1606', '1607', '1608', '1609', '1610', '1611', '1612', '1613', '1614', '1615', '1616', '1617', '1618', '1619', '1620', '1621', '1622', '1623', '1624', '1625', '1626', '1627', '1628', '1629', '1630', '1631', '1632', '1633', '1634', '1635', '1636', '1637', '1638', '1639', '1640', '1641', '1642', '1643', '1644', '1645', '1646', '1647', '1648', '1649', '1650', '1651', '1652', '1653', '1654', '1655', '1656', '1657', '1658', '1659', '17', '1700', '1701', '1702', '1703', '1704', '1705', '1706', '1707', '1708', '1709', '1710', '1711', '1712', '1713', '1714', '1715', '1716', '1717', '1718', '1719', '1720', '1721', '1722', '1723', '1724', '1725', '1726', '1727', '1728', '1729', '1730', '1731', '1732', '1733', '1734', '1735', '1736', '1737', '1738', '1739', '1740', '1741', '1742', '1743', '1744', '1745', '1746', '1747', '1748', '1749', '1750', '1751', '1752', '1753', '1754', '1755', '1756', '1757', '1758', '1759', '18', '1800', '1801', '1802', '1803', '1804', '1805', '1806', '1807', '1808', '1809', '1810', '1811', '1812', '1813', '1814', '1815', '1816', '1817', '1818', '1819', '1820', '1821', '1822', '1823', '1824', '1825', '1826', '1827', '1828', '1829', '1830', '1831', '1832', '1833', '1834', '1835', '1836', '1837', '1838', '1839', '1840', '1841', '1842', '1843', '1844', '1845', '1846', '1847', '1848', '1849', '1850', '1851', '1852', '1853', '1854', '1855', '1856', '1857', '1858', '1859', '19', '1900', '1900-01-07 06:00:00', '1900-01-08 18:00:00', '1901', '1902', '1903', '1904', '1905', '1906', '1907', '1908', '1909', '1910', '1911', '1912', '1913', '1914', '1915', '1916', '1917', '1918', '1919', '1920', '1921', '1922', '1923', '1924', '1925', '1926', '1927', '1928', '1929', '193-', '1930', '1931', '1932', '1933', '1934', '1935', '1935-01-01 00:00:00', '1936', '1937', '1938', '1939', '1940', '1941', '1942', '1943', '1944', '1945', '1946', '1947', '1948', '1949', '1950', '1951', '1952', '1953', '1954', '1955', '1956', '1957', '1958', '1959', '2', '20', '200', '2000', '2001', '2002', '2003', '2004', '2005', '2006', '2007', '2008', '2009', '201', '2010', '2011', '2012', '2013', '2014', '2015', '2016', '2017', '2018', '2019', '202', '2020', '2021', '2022', '2023', '2024', '2025', '2026', '2027', '2028', '2029', '202O', '203', '2030', '2031', '2032', '2033', '2034', '2035', '2036', '2037', '2038', '2039', '204', '2040', '2041', '2042', '2043', '2044', '2045', '2046', '2047', '2048', '2049', '205', '2050', '2051', '2052', '2053', '2054', '2055', '2056', '2057', '2058', '2059', '206', '207', '208', '209', '21', '210', '2100', '2101', '2102', '2103', '2104', '2105', '2106', '2107', '2108', '2109', '211', '2110', '2111', '2112', '2113', '2114', '2115', '2116', '2117', '2118', '2119', '212', '2120', '2121', '2122', '2123', '2124', '2125', '2126', '2127', '2128', '2129', '213', '2130', '2131', '2132', '2133', '2134', '2135', '2136', '2137', '2138', '2139', '214', '2140', '2141', '2142', '2143', '2144', '2145', '2146', '2147', '2148', '2149', '215', '2150', '2151', '2152', '2153', '2154', '2155', '2156', '2157', '2158', '2159', '216', '217', '218', '219', '22', '220', '2200', '2201', '2202', '2203', '2204', '2205', '2206', '2207', '2208', '2209', '221', '2210', '2211', '2212', '2213', '2214', '2215', '2216', '2217', '2218', '2219', '222', '2220', '2221', '2222', '2223', '2224', '2225', '2226', '2227', '2228', '2229', '223', '2230', '2231', '2232', '2233', '2234', '2235', '2236', '2237', '2238', '2239', '224', '2240', '2241', '2242', '2243', '2244', '2245', '2246', '2247', '2248', '2249', '225', '2250', '2251', '2252', '2253', '2254', '2255', '2256', '2257', '2258', '2259', '226', '227', '228', '229', '23', '230', '2300', '2301', '2302', '2303', '2304', '2305', '2306', '2307', '2308', '2309', '231', '2310', '2311', '2312', '2313', '2314', '2315', '2316', '2317', '2318', '2319', '232', '2320', '2321', '2322', '2323', '2324', '2325', '2326', '2327', '2328', '2329', '233', '2330', '2331', '2332', '2333', '2334', '2335', '2336', '2337', '2338', '2339', '234', '2340', '2341', '2342', '2343', '2344', '2345', '2346', '2347', '2348', '2349', '235', '2350', '2351', '2352', '2353', '2354', '2355', '2356', '2357', '2358', '2359', '236', '237', '238', '239', '24', '240', '241', '242', '243', '244', '245', '246', '247', '248', '249', '25', '250', '251', '252', '253', '254', '255', '256', '257', '258', '259', '26', '27', '28', '29', '3', '30', '300', '301', '302', '303', '304', '305', '306', '307', '308', '309', '31', '310', '311', '312', '313', '314', '315', '316', '317', '318', '319', '32', '320', '321', '322', '323', '324', '325', '326', '327', '328', '329', '33', '330', '331', '332', '333', '334', '335', '336', '337', '338', '339', '34', '340', '341', '342', '343', '344', '345', '346', '347', '348', '349', '35', '350', '351', '352', '353', '354', '355', '356', '357', '358', '359', '36', '37', '38', '39', '4', '40', '400', '401', '402', '403', '404', '405', '406', '407', '408', '409', '41', '410', '411', '412', '413', '414', '415', '416', '417', '418', '419', '42', '420', '421', '422', '423', '424', '425', '426', '427', '428', '429', '43', '430', '431', '432', '433', '434', '435', '436', '437', '438', '439', '44', '440', '441', '442', '443', '444', '445', '446', '447', '448', '449', '45', '450', '451', '452', '453', '454', '455', '456', '457', '458', '459', '46', '47', '48', '49', '5', '50', '500', '501', '502', '503', '504', '505', '506', '507', '508', '509', '51', '510', '511', '512', '513', '514', '515', '516', '517', '518', '519', '52', '520', '521', '522', '523', '524', '525', '526', '527', '528', '529', '53', '530', '531', '532', '533', '534', '535', '536', '537', '538', '539', '54', '540', '541', '542', '543', '544', '545', '546', '547', '548', '549', '55', '550', '551', '552', '553', '554', '555', '556', '557', '558', '559', '56', '57', '58', '59', '6', '600', '601', '602', '603', '604', '605', '606', '607', '608', '609', '610', '611', '612', '613', '614', '615', '616', '617', '618', '619', '620', '621', '622', '623', '624', '625', '626', '627', '628', '629', '630', '631', '632', '633', '634', '635', '636', '637', '638', '639', '640', '641', '642', '643', '644', '645', '646', '647', '648', '649', '650', '651', '652', '653', '654', '655', '656', '657', '658', '659', '7', '700', '701', '702', '703', '704', '705', '706', '707', '708', '709', '710', '711', '712', '713', '714', '715', '716', '717', '718', '719', '720', '721', '722', '723', '724', '725', '726', '727', '728', '729', '730', '731', '732', '733', '734', '735', '736', '737', '738', '739', '740', '741', '742', '743', '744', '745', '746', '747', '748', '749', '750', '751', '752', '753', '754', '755', '756', '757', '758', '759', '8', '800', '801', '802', '803', '804', '805', '806', '807', '808', '809', '810', '811', '812', '813', '814', '815', '816', '817', '818', '819', '820', '821', '822', '823', '824', '825', '826', '827', '828', '829', '830', '831', '832', '833', '834', '835', '836', '837', '838', '839', '840', '841', '842', '843', '844', '845', '846', '847', '848', '849', '850', '851', '852', '853', '854', '855', '856', '857', '858', '859', '9', '900', '901', '902', '903', '904', '905', '906', '907', '908', '909', '910', '911', '912', '913', '914', '915', '916', '917', '918', '919', '920', '921', '922', '923', '924', '925', '926', '927', '928', '929', '930', '931', '932', '933', '934', '935', '936', '937', '938', '939', '940', '941', '942', '943', '944', '945', '946', '947', '948', '949', '950', '951', '952', '953', '954', '955', '956', '957', '958', '959']</t>
         </is>
       </c>
     </row>
@@ -744,7 +778,7 @@
         <v>267773</v>
       </c>
       <c r="E5" t="n">
-        <v>267773</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -759,19 +793,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K5" t="n">
         <v>-1</v>
       </c>
       <c r="L5" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="N5" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -789,24 +823,32 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
+          <t>BUSINESS ROBBERY</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>618</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>OTHER</t>
         </is>
       </c>
-      <c r="T5" t="n">
+      <c r="V5" t="n">
         <v>80094</v>
       </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>2532755</v>
-      </c>
       <c r="W5" t="n">
-        <v>69</v>
-      </c>
-      <c r="X5" t="inlineStr">
-        <is>
-          <t>['0.55625', '0.6375', '0.638888889', '0.639583333', '0.643055556', '0.645138889', '0.647222222', '0.647916667', '00:14:40.700000', '00:14:43.100000', '00:14:43.200000', '00:14:43.300000', '00:14:43.500000', '00:14:46.300000', '00:15:18.100000', '00:15:20.100000', '00:15:21.100000', '00:15:21.200000', '00:15:21.300000', '00:15:22.100000', '00:15:32.100000', '00:15:32.200000', '00:15:33.100000', '00:15:33.200000', '00:15:33.300000', '00:15:33.400000', '00:15:33.500000', '00:15:35.800000', '00:15:38.100000', '00:15:46.100000', '00:30:36.400000', '13:1056.2.A', '13:1056.2.B', '13:1058.A', '14:35/J', '14:38/J', '14:42.1/A', '14:42.1/B', '14:42.1/O', '14:42.1/V', '14:42/A', '14:42/O', '14:42/V', '14:43.1/N', '14:43.3/N', '14:43.4/N', '14:43/A', '14:43/O', '14:43/V', '14:43:00', '14:90.5(B)', '14:93.2.1', '14:93.2.3', '14:93/NF', 'ASSAULT', 'BATTERY', 'BUSINESS ROBBERY', 'CRIMINAL DAMAGE TO PROPERTY', 'FIREARM', 'HOMICIDE', 'INDIVIDUAL ROBBERY', 'NARCOTICS', 'NON-RESIDENTIAL BURGLARY', 'NUISANCE', 'OTHER', 'RESIDENTIAL BURGLARY', 'THEFT', 'VEHICLE BURGLARY', 'VICE']</t>
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>2526035</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>['ASSAULT', 'BATTERY', 'BUSINESS ROBBERY', 'CRIMINAL DAMAGE TO PROPERTY', 'FIREARM', 'HOMICIDE', 'INDIVIDUAL ROBBERY', 'JUVENILE', 'NARCOTICS', 'NON-RESIDENTIAL BURGLARY', 'NUISANCE', 'OTHER', 'RESIDENTIAL BURGLARY', 'SEXUAL ASSAULT', 'THEFT', 'VEHICLE BURGLARY', 'VICE']</t>
         </is>
       </c>
     </row>
@@ -828,7 +870,7 @@
         <v>267773</v>
       </c>
       <c r="E6" t="n">
-        <v>267773</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -843,19 +885,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K6" t="n">
         <v>-1</v>
       </c>
       <c r="L6" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="M6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N6" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -873,24 +915,32 @@
       </c>
       <c r="S6" t="inlineStr">
         <is>
+          <t>ATTEMPTED</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>5719</v>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
           <t>COMMITTED</t>
         </is>
       </c>
-      <c r="T6" t="n">
-        <v>258330</v>
-      </c>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
       <c r="V6" t="n">
-        <v>2456370</v>
+        <v>262054</v>
       </c>
       <c r="W6" t="n">
-        <v>59</v>
-      </c>
-      <c r="X6" t="inlineStr">
-        <is>
-          <t>['AGG ORAL SEX BATT (AGE OF VIC)', 'ALCOHOL/SALE TO A MINOR', 'ASSAULT/SIMPLE ON A JUVENILE', 'ATTEMPTED', 'BATT/ORAL SEXUAL', 'BATT/SEXUAL', 'BATT/SEXUAL AGG', 'BATT/SIMPLE/OF JUVENILE', 'CARNAL KNOW OF JUV', 'CARNAL KNOWLEDGE OF JUV(MISD)', 'CHILD DESERTION', 'COMMITTED', 'COMPUTER AIDED SOLITICITATION OF MINOR', 'CONT DEL OF A JUV', 'CRIME AGAINST NATURE', 'CRUELTY TO INFIRM', 'CRUELTY TO JUV (NOT FAMILY)', 'CRUELTY TO JUVENILES', 'CRUELTY TO JUVENILES/2ND DEG', 'CURFEW VIOL/JUVENILE/CC', 'CYBERBULLYING', 'D W I - UNDERAGE DRIVING UNDER INFLUENCE', 'D W I - UNDERAGE DRIVING UNDER INFLUENCE (CC)', 'ENCOURAGE/CONT/DEL JUV', 'EXPLOITATION OF THE INFIRMED', 'GLUE/USE/SALE PROH', 'ILL/POSS OF HANDGUN BY JUV', 'IMPROPER SUPERVISION/JUV', 'INCEST', 'INCEST/AGGRAVATED', 'IND BEHAVIOR W/JUV', 'INT EXPOSURE TO AIDS VIRUS', 'JUVENILE CURFEW VIOL/CUSTODIAN', 'JUVENILE CURFEW VIOLATION/CC', 'MOLESTATION OF JUV', 'PORNO INVOLVING JUV', 'PROMOTION/SALE OBSCEN MATERIAL', 'PROSTITUTION UNDER 17', 'PROSTITUTION/ENTICING/JUVENILE', 'PURCHASE/POSS ALCOHOL PUBLIC', 'RAPE/AGG (ANAL)', 'RAPE/AGG (ORAL)', 'RAPE/AGG (VAGINAL)', 'RAPE/ATT FORCIBLE', 'RAPE/FORCABLE (ANAL)', 'RAPE/FORCIBLE (ORAL)', 'RAPE/FORCIBLE (VAGINAL)', 'RAPE/FORCIBLE SIMPLE', 'RAPE/SIMPLE (ANAL)', 'RAPE/SIMPLE (ORAL)', 'RAPE/SIMPLE (VAGINAL)', 'SEX BATT BASED  (AGE OF VICTIM)', 'SEX BATT BASED (AGE OF VICTIM)', 'SEXUAL BATTERY OF THE INFIRMED', 'TATTOOING MINORS', 'TRAFFICKING CHILDREN FOR SEXUAL PURPOSES', 'TRUANCY BY SCHOOL AGE CHILD', 'UNLAWFUL ENTRY OF CASINO PERSONS UNDER 21', 'UNLAWFUL PURCHASE ALCO BEV']</t>
+        <v>1</v>
+      </c>
+      <c r="X6" t="n">
+        <v>2409957</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z6" t="inlineStr">
+        <is>
+          <t>['ATTEMPTED', 'COMMITTED']</t>
         </is>
       </c>
     </row>
@@ -909,10 +959,10 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>267722</v>
+        <v>267773</v>
       </c>
       <c r="E7" t="n">
-        <v>267722</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -927,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K7" t="n">
         <v>-1</v>
       </c>
       <c r="L7" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="N7" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -957,24 +1007,32 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
+          <t>00:34:23.100000</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>1</v>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
           <t>0.588194444</t>
         </is>
       </c>
-      <c r="T7" t="n">
+      <c r="V7" t="n">
         <v>12400</v>
       </c>
-      <c r="U7" t="n">
-        <v>0</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2762496</v>
-      </c>
       <c r="W7" t="n">
-        <v>738</v>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>['0.275', '0.501388889', '0.502083333', '0.504166667', '0.504861111', '0.505555556', '0.50625', '0.506944444', '0.507638889', '0.508333333', '0.509027778', '0.513888889', '0.514583333', '0.515277778', '0.515972222', '0.516666667', '0.517361111', '0.520833333', '0.522222222', '0.525', '0.527777778', '0.529861111', '0.531944444', '0.532638889', '0.533333333', '0.534722222', '0.536805556', '0.5375', '0.538194444', '0.542361111', '0.547222222', '0.548611111', '0.55', '0.553472222', '0.555555556', '0.556944444', '0.557638889', '0.558333333', '0.559027778', '0.561111111', '0.569444444', '0.588194444', '0.588888889', '0.589583333', '0.590972222', '0.598611111', '0.599305556', '0.600694444', '0.604166667', '0.604861111', '0.605555556', '0.60625', '0.606944444', '0.607638889', '0.611805556', '0.6125', '0.613194444', '0.613888889', '0.614583333', '0.615972222', '0.616666667', '0.61875', '0.619444444', '0.625694444', '0.626388889', '0.627083333', '0.628472222', '0.629166667', '0.630555556', '0.63125', '0.631944444', '0.632638889', '0.633333333', '0.634027778', '0.634722222', '0.635416667', '0.638194444', '0.638888889', '0.639583333', '0.640277778', '0.640972222', '0.641666667', '0.644444444', '0.645138889', '0.645833333', '0.648611111', '0.649305556', '0.65', '0.650694444', '0.651388889', '0.652083333', '0.652777778', '0.653472222', '0.654166667', '0.654861111', '0.655555556', '0.65625', '0.656944444', '0.657638889', '0.658333333', '0.660416667', '0.661111111', '0.663888889', '0.664583333', '0.665277778', '0.666666667', '0.668055556', '0.673611111', '0.674305556', '0.675', '0.675694444', '0.676388889', '0.679166667', '0.6875', '0.722916667', '0.723611111', '0.726388889', '0.727083333', '0.733333333', '0.736111111', '0.736805556', '0.738888889', '0.739583333', '0.742361111', '0.743055556', '0.755555556', '0.764583333', '0.779861111', '0.780555556', '0.78125', '0.800694444', '0.810416667', '0.811111111', '0.811805556', '0.813888889', '0.814583333', '0.815277778', '0.847222222', '0.8625', '0.863194444', '0.863888889', '0.890277778', '0.916666667', '0.923611111', '00:00:38.100000', '00:00:38.300000', '00:11:45.300000', '00:12:11.100000', '00:12:26.100000', '00:13:12.100000', '00:13:35.100000', '00:13:35.300000', '00:13:39.100000', '00:13:40.100000', '00:13:40.200000', '00:13:41.300000', '00:13:56.100000', '00:14:03.300000', '00:14:03.500000', '00:14:03.600000', '00:14:03.700000', '00:14:07.100000', '00:14:07.200000', '00:14:07.600000', '00:14:08.100000', '00:14:08.300000', '00:14:23.300000', '00:14:28.100000', '00:14:30.200000', '00:14:31.100000', '00:14:31.200000', '00:14:31.300000', '00:14:31.400000', '00:14:31.500000', '00:14:31.600000', '00:14:31.700000', '00:14:31.800000', '00:14:31.900000', '00:14:32.100000', '00:14:32.600000', '00:14:32.700000', '00:14:32.800000', '00:14:34.100000', '00:14:34.200000', '00:14:34.300000', '00:14:34.400000', '00:14:34.600000', '00:14:34.700000', '00:14:34.800000', '00:14:35.100000', '00:14:35.200000', '00:14:35.300000', '00:14:37.100000', '00:14:37.200000', '00:14:37.300000', '00:14:37.600000', '00:14:37.700000', '00:14:38.100000', '00:14:38.200000', '00:14:38.300000', '00:14:39.100000', '00:14:39.200000', '00:14:40.100000', '00:14:40.200000', '00:14:40.300000', '00:14:44.100000', '00:14:44.200000', '00:14:45.100000', '00:14:46.100000', '00:14:46.200000', '00:14:48.200000', '00:14:50.100000', '00:14:50.200000', '00:14:54.100000', '00:14:54.200000', '00:14:54.300000', '00:14:54.500000', '00:14:56.100000', '00:14:56.200000', '00:14:56.400000', '00:15:02.100000', '00:15:02.200000', '00:15:02.300000', '00:15:02.400000', '00:15:02.500000', '00:15:02.600000', '00:15:02.700000', '00:15:02.800000', '00:15:03.300000', '00:15:03.400000', '00:15:04.100000', '00:15:04.200000', '00:15:04.300000', '00:15:04.400000', '00:15:05.100000', '00:15:05.200000', '00:15:07.100000', '00:15:07.200000', '00:15:07.300000', '00:15:07.600000', '00:15:07.700000', '00:15:07.900000', '00:15:08.100000', '00:15:08.200000', '00:15:08.300000', '00:15:08.400000', '00:15:08.600000', '00:15:08.700000', '00:15:09.100000', '00:15:10.100000', '00:15:10.200000', '00:15:10.400000', '00:15:10.700000', '00:15:11.100000', '00:15:12.100000', '00:15:12.200000', '00:15:12.600000', '00:15:13.100000', '00:15:13.200000', '00:15:13.300000', '00:15:13.500000', '00:15:13.600000', '00:15:13.700000', '00:15:19.100000', '00:15:23.100000', '00:15:23.200000', '00:15:23.300000', '00:15:29.100000', '00:15:30.200000', '00:15:31.100000', '00:15:31.400000', '00:15:31.700000', '00:15:31.800000', '00:15:35.100000', '00:15:35.200000', '00:15:35.300000', '00:15:35.500000', '00:15:35.600000', '00:15:35.700000', '00:15:37.100000', '00:15:38.200000', '00:15:38.300000', '00:15:40.100000', '00:15:41.100000', '00:15:42.100000', '00:15:42.200000', '00:15:42.500000', '00:15:42.800000', '00:15:43.100000', '00:15:43.200000', '00:15:46.200000', '00:15:47.100000', '00:15:47.200000', '00:15:47.300000', '00:15:47.700000', '00:15:48.100000', '00:15:48.200000', '00:15:52.100000', '00:16:02.200000', '00:16:06.100000', '00:16:09.100000', '00:16:10.100000', '00:16:13.100000', '00:16:13.200000', '00:16:13.400000', '00:16:14.100000', '00:16:14.200000', '00:16:35.100000', '00:17:22.100000', '00:17:40.100000', '00:17:42.100000', '00:17:43.700000', '00:17:55.100000', '00:19:29.100000', '00:19:29.200000', '00:19:29.300000', '00:19:29.400000', '00:19:29.600000', '00:20:43.200000', '00:24:02.100000', '00:27:30.100000', '00:29:58.100000', '00:30:18.200000', '00:34:23.100000', '00:35:10.100000', '00:36:55.100000', '00:36:59.300000', '00:37:00.500000', '00:38:01.100000', '00:38:54.100000', '00:56:11.100000', '00:56:11.200000', '00:56:21.100000', '00:56:21.200000', '00:56:21.300000', '00:56:21.400000', '05:35:00', '08:43:00', '1', '1.001388889', '1.042361111', '1.105555556', '1.108333333', '1.111805556', '1.113194444', '1.113888889', '1.2125', '1.236805556', '1.239583333', '1.241666667', '1.243055556', '1.24375', '1.244444444', '1.245138889', '1.245833333', '1.246527778', '1.247916667', '1.248611111', '1.249305556', '1.274305556', '1.279861111', '1.563194444', '1.779861111', '10771/13.7(A)', '11:131A', '11:131C', '11:140-G', '11:22:00', '11:245A', '11:245B', '11:27:00', '11:281A', '11:30:00', '11:33:00', '11:34:00', '11:415-14', '11:42:00', '11:45:00', '11:53B', '11:60B', '11:60C', '11:91A', '13:1018 D', '13:1018.1B', '13:103(1)', '13:103(2)', '13:103(3)', '13:103(4)', '13:103(5)', '13:103(6)', '13:1058.B', '13:1062A', '13:27:00', '13:35:00', '13:37:00', '13:38:00', '13:39:00', '13:46:00', '13:56:00', '13:59:00', '13:92.A', '14:103A(1)', '14:103A(2)', '14:103A(3)', '14:103A(4)', '14:103A.1', '14:110A', '14:110C', '14:20:00', '14:220.1A(2)', '14:24:00', '14:25:00', '14:26:00', '14:27:00', '14:28:00', '14:30.1/G', '14:30.1/K', '14:30.1/O', '14:30.1/R', '14:30.2/G', '14:30.2/K', '14:30/AR', '14:30/BF', '14:30/G', '14:30/K', '14:30/O', '14:30/R', '14:31:00', '14:32:00', '14:34/G', '14:34/HFF', '14:34/K', '14:34/ODW', '14:35:00', '14:37.4/A', '14:37.4A', '14:37/B', '14:37/C', '14:37/D', '14:37:00', '14:37B', '14:37C', '14:37D', '14:38:00', '14:39:00', '14:44:00', '14:45:00', '14:46:00', '14:47:00', '14:51:00', '14:52:00', '14:53:00', '14:54.3.1', '14:54:00', '14:55:00', '14:56/V', '14:56:00', '14:57/A', '14:57:00', '14:59:00', '14:60/NRDF', '14:60/NRDNF', '14:60/NRNF', '14:60/NRNNF', '14:60/NRUF', '14:60/NRUNF', '14:60/RDF', '14:60/RDNF', '14:60/RNF', '14:60/RNNF', '14:60/RUF', '14:60/RUNF', '14:62.2/RDF', '14:62.2/RDNF', '14:62.2/RNF', '14:62.2/RNNF', '14:62.2/RUF', '14:62.2/RUNF', '14:62/AD', '14:62/BD', '14:62/CD', '14:62/NRDF', '14:62/NRDNF', '14:62/NRNF', '14:62/NRNNF', '14:62/NRUF', '14:62/NRUNF', '14:62/RDF', '14:62/RDNF', '14:62/RNF', '14:62/RNNF', '14:62/RUF', '14:62/RUNF', '14:64/AA', '14:64/AB', '14:64/AC', '14:64/AD', '14:64/AE', '14:64/AF', '14:64/AG', '14:64/BA', '14:64/BB', '14:64/BC', '14:64/BD', '14:64/BE', '14:64/BF', '14:64/BG', '14:64/CA', '14:64/CB', '14:64/CC', '14:64/CD', '14:64/CE', '14:64/CG', '14:64/DA', '14:64/DB', '14:64/DC', '14:64/DD', '14:64/DE', '14:64/DF', '14:64/DG', '14:67.3/A', '14:67.3/B', '14:67.3/C', '14:67/AA', '14:67/AB', '14:67/AC', '14:67/AD', '14:67/AE', '14:67/AF', '14:67/AG', '14:67/AH', '14:67/AI', '14:67/AJ', '14:67/AR', '14:67/BA', '14:67/BB', '14:67/BC', '14:67/BD', '14:67/BE', '14:67/BF', '14:67/BG', '14:67/BH', '14:67/BI', '14:67/BJ', '14:67/C', '14:67/CA', '14:67/CB', '14:67/CC', '14:67/CD', '14:67/CE', '14:67/CF', '14:67/CG', '14:67/CH', '14:67/CI', '14:67/DD', '14:67/E', '14:67/O', '14:67/T', '14:72.1.1', '14:81.1.1', '14:91.9 A (2)', '14:95.1.1', '14:95.A(3)', '14:95E', '14:98J', '15:04:00', '1900-01-01 08:51:00', '1900-01-01 08:52:00', '1900-01-01 08:53:00', '1900-01-01 08:58:00', '2', '2.252777778', '21:21:00', '22:1925/F', '3', '30:2531', '32:101', '32:101.C', '32:104', '32:122', '32:123', '32:123.D', '32:124', '32:125', '32:1304', '32:1308.A', '32:1308B', '32:141', '32:143', '32:143:14', '32:145', '32:190', '32:194', '32:197', '32:213B', '32:216', '32:218', '32:231', '32:232', '32:237', '32:263C', '32:281', '32:282', '32:289', '32:292', '32:295', '32:299', '32:300', '32:303', '32:304', '32:304.C', '32:319A', '32:320', '32:322', '32:329A', '32:341', '32:354', '32:398', '32:402', '32:406', '32:408C', '32:411', '32:412', '32:415', '32:421', '32:423', '32:53D', '32:56A', '32:61', '32:64', '32:64/A', '32:64B', '32:65', '32:707', '32:71', '32:726', '32:78', '32:79', '32:81', '32:82', '32:861', '32:863', '37:1862', '37:1864', '37:1866', '37:1870', '4', '40:1023', '40:1031', '40:1041', '40:1049', '40:1379.3 I (1)', '40:1379.3 I (2)', '40:1390', '40:1742', '40:1783', '40:1785', '40:1788', '40:1792', '40:966', '40:966A', '40:966C', '40:966E', '40:967', '40:967(2)', '40:967A', '40:967C', '40:968', '40:968A', '40:968C', '40:969', '40:969A', '40:969C', '40:970', '40:970A', '40:970C', '40:971', '40:971B', '40:971B.1.B', '40:971B.1.I', '40:979', '40:981', '40:982', '40:983', '40:989', '47:501', '47:506A', '47:507', '47:508', '47:509A', '47:536', '47:9071', '70737', '708', '7080', '708002', '70801', '70802', '70803', '70804', '70805', '70806', '70807', '70808', '70809', '70810', '70811', '708117', '70812', '70813', '70814', '70815', '70816', '70817', '70819', '70820', '70836', '708802', '70891', '71203', '9:422A', 'C.CR.P. ART 202', 'C.CR.P. ART 21', 'C.CR.P. ART 575', 'C.CR.P. ART 900', 'CC14:200', 'CC14:201', 'CC14:202', 'CC14:204', 'CC14:208', 'CC14:217', 'CC14:222', 'CC14:501', 'CC14:501.3', 'L70815', 'O', 'OTHER', '`70816']</t>
+        <v>0</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2793301</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>754</v>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>['0.275', '0.501388889', '0.502083333', '0.504166667', '0.504861111', '0.505555556', '0.50625', '0.506944444', '0.507638889', '0.508333333', '0.509027778', '0.513888889', '0.514583333', '0.515277778', '0.515972222', '0.516666667', '0.517361111', '0.520833333', '0.522222222', '0.525', '0.527777778', '0.529861111', '0.531944444', '0.532638889', '0.533333333', '0.534722222', '0.536805556', '0.5375', '0.538194444', '0.542361111', '0.547222222', '0.548611111', '0.55', '0.553472222', '0.555555556', '0.55625', '0.556944444', '0.557638889', '0.558333333', '0.559027778', '0.561111111', '0.569444444', '0.588194444', '0.588888889', '0.589583333', '0.590972222', '0.598611111', '0.599305556', '0.600694444', '0.604166667', '0.604861111', '0.605555556', '0.60625', '0.606944444', '0.607638889', '0.611805556', '0.6125', '0.613194444', '0.613888889', '0.614583333', '0.615972222', '0.616666667', '0.61875', '0.619444444', '0.625694444', '0.626388889', '0.627083333', '0.628472222', '0.629166667', '0.630555556', '0.63125', '0.631944444', '0.632638889', '0.633333333', '0.634027778', '0.634722222', '0.635416667', '0.6375', '0.638194444', '0.638888889', '0.639583333', '0.640277778', '0.640972222', '0.641666667', '0.643055556', '0.644444444', '0.645138889', '0.645833333', '0.647222222', '0.647916667', '0.648611111', '0.649305556', '0.65', '0.650694444', '0.651388889', '0.652083333', '0.652777778', '0.653472222', '0.654166667', '0.654861111', '0.655555556', '0.65625', '0.656944444', '0.657638889', '0.658333333', '0.660416667', '0.661111111', '0.663888889', '0.664583333', '0.665277778', '0.666666667', '0.668055556', '0.673611111', '0.674305556', '0.675', '0.675694444', '0.676388889', '0.679166667', '0.6875', '0.722916667', '0.723611111', '0.726388889', '0.727083333', '0.733333333', '0.736111111', '0.736805556', '0.738888889', '0.739583333', '0.742361111', '0.743055556', '0.755555556', '0.764583333', '0.779861111', '0.780555556', '0.78125', '0.800694444', '0.810416667', '0.811111111', '0.811805556', '0.813888889', '0.814583333', '0.815277778', '0.847222222', '0.8625', '0.863194444', '0.863888889', '0.890277778', '0.916666667', '0.923611111', '00:00:38.100000', '00:00:38.300000', '00:11:45.300000', '00:12:11.100000', '00:12:26.100000', '00:13:12.100000', '00:13:35.100000', '00:13:35.300000', '00:13:39.100000', '00:13:40.100000', '00:13:40.200000', '00:13:41.300000', '00:13:56.100000', '00:14:03.300000', '00:14:03.500000', '00:14:03.600000', '00:14:03.700000', '00:14:07.100000', '00:14:07.200000', '00:14:07.600000', '00:14:08.100000', '00:14:08.300000', '00:14:23.300000', '00:14:28.100000', '00:14:30.200000', '00:14:31.100000', '00:14:31.200000', '00:14:31.300000', '00:14:31.400000', '00:14:31.500000', '00:14:31.600000', '00:14:31.700000', '00:14:31.800000', '00:14:31.900000', '00:14:32.100000', '00:14:32.600000', '00:14:32.700000', '00:14:32.800000', '00:14:34.100000', '00:14:34.200000', '00:14:34.300000', '00:14:34.400000', '00:14:34.600000', '00:14:34.700000', '00:14:34.800000', '00:14:35.100000', '00:14:35.200000', '00:14:35.300000', '00:14:37.100000', '00:14:37.200000', '00:14:37.300000', '00:14:37.600000', '00:14:37.700000', '00:14:38.100000', '00:14:38.200000', '00:14:38.300000', '00:14:39.100000', '00:14:39.200000', '00:14:40.100000', '00:14:40.200000', '00:14:40.300000', '00:14:40.700000', '00:14:43.100000', '00:14:43.200000', '00:14:43.300000', '00:14:43.500000', '00:14:44.100000', '00:14:44.200000', '00:14:45.100000', '00:14:46.100000', '00:14:46.200000', '00:14:46.300000', '00:14:48.200000', '00:14:50.100000', '00:14:50.200000', '00:14:54.100000', '00:14:54.200000', '00:14:54.300000', '00:14:54.500000', '00:14:56.100000', '00:14:56.200000', '00:14:56.400000', '00:15:02.100000', '00:15:02.200000', '00:15:02.300000', '00:15:02.400000', '00:15:02.500000', '00:15:02.600000', '00:15:02.700000', '00:15:02.800000', '00:15:03.300000', '00:15:03.400000', '00:15:04.100000', '00:15:04.200000', '00:15:04.300000', '00:15:04.400000', '00:15:05.100000', '00:15:05.200000', '00:15:07.100000', '00:15:07.200000', '00:15:07.300000', '00:15:07.600000', '00:15:07.700000', '00:15:07.900000', '00:15:08.100000', '00:15:08.200000', '00:15:08.300000', '00:15:08.400000', '00:15:08.600000', '00:15:08.700000', '00:15:09.100000', '00:15:10.100000', '00:15:10.200000', '00:15:10.400000', '00:15:10.700000', '00:15:11.100000', '00:15:12.100000', '00:15:12.200000', '00:15:12.600000', '00:15:13.100000', '00:15:13.200000', '00:15:13.300000', '00:15:13.500000', '00:15:13.600000', '00:15:13.700000', '00:15:18.100000', '00:15:19.100000', '00:15:20.100000', '00:15:21.100000', '00:15:21.200000', '00:15:21.300000', '00:15:22.100000', '00:15:23.100000', '00:15:23.200000', '00:15:23.300000', '00:15:29.100000', '00:15:30.200000', '00:15:31.100000', '00:15:31.400000', '00:15:31.700000', '00:15:31.800000', '00:15:32.100000', '00:15:32.200000', '00:15:33.100000', '00:15:33.200000', '00:15:33.300000', '00:15:33.400000', '00:15:33.500000', '00:15:35.100000', '00:15:35.200000', '00:15:35.300000', '00:15:35.500000', '00:15:35.600000', '00:15:35.700000', '00:15:35.800000', '00:15:37.100000', '00:15:38.100000', '00:15:38.200000', '00:15:38.300000', '00:15:40.100000', '00:15:41.100000', '00:15:42.100000', '00:15:42.200000', '00:15:42.500000', '00:15:42.800000', '00:15:43.100000', '00:15:43.200000', '00:15:46.100000', '00:15:46.200000', '00:15:47.100000', '00:15:47.200000', '00:15:47.300000', '00:15:47.700000', '00:15:48.100000', '00:15:48.200000', '00:15:52.100000', '00:16:02.200000', '00:16:06.100000', '00:16:09.100000', '00:16:10.100000', '00:16:13.100000', '00:16:13.200000', '00:16:13.400000', '00:16:14.100000', '00:16:14.200000', '00:16:35.100000', '00:17:22.100000', '00:17:40.100000', '00:17:42.100000', '00:17:43.700000', '00:17:55.100000', '00:19:29.100000', '00:19:29.200000', '00:19:29.300000', '00:19:29.400000', '00:19:29.600000', '00:20:43.200000', '00:24:02.100000', '00:27:30.100000', '00:29:58.100000', '00:30:18.200000', '00:30:36.400000', '00:34:23.100000', '00:35:10.100000', '00:36:55.100000', '00:36:59.300000', '00:37:00.500000', '00:38:01.100000', '00:38:54.100000', '00:56:11.100000', '00:56:11.200000', '00:56:21.100000', '00:56:21.200000', '00:56:21.300000', '00:56:21.400000', '05:35:00', '08:43:00', '1.001388889', '1.042361111', '1.105555556', '1.108333333', '1.111805556', '1.113194444', '1.113888889', '1.2125', '1.236805556', '1.239583333', '1.241666667', '1.243055556', '1.24375', '1.244444444', '1.245138889', '1.245833333', '1.246527778', '1.247916667', '1.248611111', '1.249305556', '1.274305556', '1.279861111', '1.563194444', '1.779861111', '10771/13.7(A)', '11:131A', '11:131C', '11:140-G', '11:22:00', '11:245A', '11:245B', '11:27:00', '11:281A', '11:30:00', '11:33:00', '11:34:00', '11:415-14', '11:42:00', '11:45:00', '11:53B', '11:60B', '11:60C', '11:91A', '13:1018 D', '13:1018.1B', '13:103(1)', '13:103(2)', '13:103(3)', '13:103(4)', '13:103(5)', '13:103(6)', '13:1056.2.A', '13:1056.2.B', '13:1058.A', '13:1058.B', '13:1062A', '13:27:00', '13:35:00', '13:37:00', '13:38:00', '13:39:00', '13:46:00', '13:56:00', '13:59:00', '13:92.A', '14:103A(1)', '14:103A(2)', '14:103A(3)', '14:103A(4)', '14:103A.1', '14:110A', '14:110C', '14:20:00', '14:220.1A(2)', '14:24:00', '14:25:00', '14:26:00', '14:27:00', '14:28:00', '14:30.1/G', '14:30.1/K', '14:30.1/O', '14:30.1/R', '14:30.2/G', '14:30.2/K', '14:30/AR', '14:30/BF', '14:30/G', '14:30/K', '14:30/O', '14:30/R', '14:31:00', '14:32:00', '14:34/G', '14:34/HFF', '14:34/K', '14:34/ODW', '14:35/J', '14:35:00', '14:37.4/A', '14:37.4A', '14:37/B', '14:37/C', '14:37/D', '14:37:00', '14:37B', '14:37C', '14:37D', '14:38/J', '14:38:00', '14:39:00', '14:42.1/A', '14:42.1/B', '14:42.1/O', '14:42.1/V', '14:42/A', '14:42/O', '14:42/V', '14:43.1/N', '14:43.3/N', '14:43.4/N', '14:43/A', '14:43/O', '14:43/V', '14:43:00', '14:44:00', '14:45:00', '14:46:00', '14:47:00', '14:51:00', '14:52:00', '14:53:00', '14:54.3.1', '14:54:00', '14:55:00', '14:56/V', '14:56:00', '14:57/A', '14:57:00', '14:59:00', '14:60/NRDF', '14:60/NRDNF', '14:60/NRNF', '14:60/NRNNF', '14:60/NRUF', '14:60/NRUNF', '14:60/RDF', '14:60/RDNF', '14:60/RNF', '14:60/RNNF', '14:60/RUF', '14:60/RUNF', '14:62.2/RDF', '14:62.2/RDNF', '14:62.2/RNF', '14:62.2/RNNF', '14:62.2/RUF', '14:62.2/RUNF', '14:62/AD', '14:62/BD', '14:62/CD', '14:62/NRDF', '14:62/NRDNF', '14:62/NRNF', '14:62/NRNNF', '14:62/NRUF', '14:62/NRUNF', '14:62/RDF', '14:62/RDNF', '14:62/RNF', '14:62/RNNF', '14:62/RUF', '14:62/RUNF', '14:64/AA', '14:64/AB', '14:64/AC', '14:64/AD', '14:64/AE', '14:64/AF', '14:64/AG', '14:64/BA', '14:64/BB', '14:64/BC', '14:64/BD', '14:64/BE', '14:64/BF', '14:64/BG', '14:64/CA', '14:64/CB', '14:64/CC', '14:64/CD', '14:64/CE', '14:64/CG', '14:64/DA', '14:64/DB', '14:64/DC', '14:64/DD', '14:64/DE', '14:64/DF', '14:64/DG', '14:67.3/A', '14:67.3/B', '14:67.3/C', '14:67/AA', '14:67/AB', '14:67/AC', '14:67/AD', '14:67/AE', '14:67/AF', '14:67/AG', '14:67/AH', '14:67/AI', '14:67/AJ', '14:67/AR', '14:67/BA', '14:67/BB', '14:67/BC', '14:67/BD', '14:67/BE', '14:67/BF', '14:67/BG', '14:67/BH', '14:67/BI', '14:67/BJ', '14:67/C', '14:67/CA', '14:67/CB', '14:67/CC', '14:67/CD', '14:67/CE', '14:67/CF', '14:67/CG', '14:67/CH', '14:67/CI', '14:67/DD', '14:67/E', '14:67/O', '14:67/T', '14:72.1.1', '14:81.1.1', '14:90.5(B)', '14:91.9 A (2)', '14:93.2.1', '14:93.2.3', '14:93/NF', '14:95.1.1', '14:95.A(3)', '14:95E', '14:98J', '15:04:00', '1900-01-01 08:51:00', '1900-01-01 08:52:00', '1900-01-01 08:53:00', '1900-01-01 08:58:00', '2.252777778', '21:21:00', '22:1925/F', '30:2531', '32:101', '32:101.C', '32:104', '32:122', '32:123', '32:123.D', '32:124', '32:125', '32:1304', '32:1308.A', '32:1308B', '32:141', '32:143', '32:143:14', '32:145', '32:190', '32:194', '32:197', '32:213B', '32:216', '32:218', '32:231', '32:232', '32:237', '32:263C', '32:281', '32:282', '32:289', '32:292', '32:295', '32:299', '32:300', '32:303', '32:304', '32:304.C', '32:319A', '32:320', '32:322', '32:329A', '32:341', '32:354', '32:398', '32:402', '32:406', '32:408C', '32:411', '32:412', '32:415', '32:421', '32:423', '32:53D', '32:56A', '32:61', '32:64', '32:64/A', '32:64B', '32:65', '32:707', '32:71', '32:726', '32:78', '32:79', '32:81', '32:82', '32:861', '32:863', '37:1862', '37:1864', '37:1866', '37:1870', '40:1023', '40:1031', '40:1041', '40:1049', '40:1379.3 I (1)', '40:1379.3 I (2)', '40:1390', '40:1742', '40:1783', '40:1785', '40:1788', '40:1792', '40:966', '40:966A', '40:966C', '40:966E', '40:967', '40:967(2)', '40:967A', '40:967C', '40:968', '40:968A', '40:968C', '40:969', '40:969A', '40:969C', '40:970', '40:970A', '40:970C', '40:971', '40:971B', '40:971B.1.B', '40:971B.1.I', '40:979', '40:981', '40:982', '40:983', '40:989', '47:501', '47:506A', '47:507', '47:508', '47:509A', '47:536', '47:9071', '9:422A', 'C.CR.P. ART 202', 'C.CR.P. ART 21', 'C.CR.P. ART 575', 'C.CR.P. ART 900', 'CC14:200', 'CC14:201', 'CC14:202', 'CC14:204', 'CC14:208', 'CC14:217', 'CC14:222', 'CC14:501', 'CC14:501.3', 'OTHER']</t>
         </is>
       </c>
     </row>
@@ -993,10 +1051,10 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>267722</v>
+        <v>267773</v>
       </c>
       <c r="E8" t="n">
-        <v>267722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1011,19 +1069,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K8" t="n">
         <v>-1</v>
       </c>
       <c r="L8" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>52</v>
       </c>
       <c r="N8" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -1041,24 +1099,32 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
+          <t>BLOCKING PRIVATE DRIVEWAY</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>1</v>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
           <t>THEFT/MISD/CC</t>
         </is>
       </c>
-      <c r="T8" t="n">
+      <c r="V8" t="n">
         <v>12400</v>
       </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>5497387</v>
-      </c>
       <c r="W8" t="n">
-        <v>778</v>
-      </c>
-      <c r="X8" t="inlineStr">
-        <is>
-          <t>['1', '2', '3', '4', '7080\n(50.39029, 3.88787)', '708002', '70802\n(30.447401, -91.172136)', '70805\n(30.487865, -91.151287)', '70806\n(30.447924, -91.129328)', '70807\n(30.537624, -91.179026)', '70809\n(30.399273, -91.075915)', '70810\n(30.356216, -91.086784)', '70811\n(30.531186, -91.126174)', '70812\n(30.504013, -91.116363)', '70814\n(30.485682, -91.068661)', '70815\n(30.45523, -91.066066)', '70816\n(30.427529, -91.033574)', '70819\n(30.466781, -91.015121)', '70820\n(30.374, -91.173008)', 'A', 'ABAND/INOPERATIVE VEHICLE/CC', 'ABET ENT/REM ON PREM', 'ABUSE/NEG OF ADULTS', 'ACC AFTER FACT(Code Modifier)', 'ACCESS DEVICE FRAUD', 'ADD LIGHTING EQUIP', 'ADDRESS NUMBERS REQUIRED', 'AGG ASSAULT UPON A PEACE OFFICER', 'AGG ASSAULT W/MOTOR VEHICLE UPON A PEACE OFFICER', 'AGG ESCAPE', 'AIDING TO REMAIN ON PREMISES/CC', 'ALARM PERMIT REQUIRED', 'ALTER/REMOVE VEH VIN #', 'AMPLIFIED DEVICES IN PUBLIC', 'ANIMALS PROHIBITED AT FESTIVALS', 'ANIMALS RUNNING AT LARGE', 'ARSON W/INTENT TO DEFRAUD', 'ARSON/AGG', 'ARSON/COMMUNICATE FALSE INFO', 'ARSON/PLACE COMB MAT', 'ARSON/SIMPLE', 'ASSAULT/ AGG FIREARM', 'ASSAULT/ AGG INJURY', 'ASSAULT/ AGG KNIFE CUTTING INST', 'ASSAULT/ AGG ODW', 'ASSAULT/AGG', 'ASSAULT/AGG DOMESTIC ABUSE', 'ASSAULT/AGG FIREARM', 'ASSAULT/AGG INJURY', 'ASSAULT/AGG KNIFE CUTTING INST', 'ASSAULT/AGG ODW', 'ASSAULT/AGG/CC', 'ASSAULT/CHILD WELFARE WORKER', 'ASSAULT/DRIVE-BY SHOOTING', 'ASSAULT/SCHOOL TEACHER', 'ASSAULT/SIMPLE', 'ASSAULT/SIMPLE/CC', 'ATT OR CONSPIRACY:DRUGS', 'ATTEMPT', 'ATTEMPTED (Code Modifier)', 'B', 'BACKING UNSAFELY', 'BANK FRAUD', 'BARRICADES', 'BARRICADES/CC', 'BATHING NUDE', 'BATT/2ND DEGREE', 'BATT/AGG 2ND DEGREE', 'BATT/AGG GUN', 'BATT/AGG HANDS', 'BATT/AGG KNIFE', 'BATT/AGG OTHER DANGER WEAPON', 'BATT/POLICE OFF', 'BATT/POLICE OFF/CC', 'BATT/SCHOOL ATHLETEC OFFICIAL', 'BATT/SCHOOL TEACHER', 'BATT/SIM CHILD WELFARE AGT', 'BATT/SIM OF THE INFIRM', 'BATT/SIMPLE', 'BATT/SIMPLE/CC', 'BATTERY OF EMERGENCY ROOM PERSONNEL, EMERGENCY SER', 'BICYCLE/FRONT LAMP/SIDE/REAR REFLECTORS REQ', 'BICYCLIST CARRYING ARTICLES', 'BICYCLIST MUST OBEY TRAFFIC CONTROLS', 'BIKE REGISTRATION REQUIRED/CC', 'BLOCK INTERSECTION', 'BLOCK INTERSECTION/CC', 'BLOCKING PRIVATE DRIVEWAY', 'BRAKE LIGHTS REQ', 'BRAKES REQUIRED', 'BURG/AG NON RES NIGHT NO FORCE', 'BURG/AGG NON RES DAY FORCE', 'BURG/AGG NON RES DAY NO FORCE', 'BURG/AGG NON RES NIGHT FORCE', 'BURG/AGG NON RES UNK FORCE', 'BURG/AGG NON RES UNK NO FORCE', 'BURG/AGG RES DAY FORCE', 'BURG/AGG RES DAY NO FORCE', 'BURG/AGG RES NIGHT FORCE', 'BURG/AGG RES NIGHT NO FORCE', 'BURG/AGG RES UNK FORCE', 'BURG/AGG RES UNK NO FORCE', 'BURG/AUTO $50 - $200', 'BURG/AUTO OVER $200', 'BURG/AUTO UNDER $50', 'BURG/S NON RES DAY FORCE', 'BURG/S NON RES DAY NO FORCE', 'BURG/S NON RES NIGHT FORCE', 'BURG/S NON RES NIGHT NO FORCE', 'BURG/S NON RES UNK FORCE', 'BURG/S NON RES UNK NO FORCE', 'BURG/S RES DAY FORCE', 'BURG/S RES DAY NO FORCE', 'BURG/S RES NIGHT FORCE', 'BURG/S RES NIGHT NO FORCE', 'BURG/S RES UNK FORCE', 'BURG/S RES UNK NO FORCE', 'BURG/S/IN DWE RES UNK NO FORCE', 'BURG/S/IN/DWEL/RES DAY NOFORCE', 'BURG/S/IN/DWEL/RES NIGHT FORCE', 'BURG/S/INH DWEL RES DAY FORCE', 'BURG/S/INH DWEL RES UNK FORCE', 'BURG/SID/ RES NIGHT NO FORCE', 'BURGLARY OF A RELIGIOUS BUILDING', 'BURGLARY OF PHARMACY/S', 'BURGLARY/S INHAB DWELLING', 'BURGLARY/SIMPLE', 'BURNING TRASH', 'C', 'CARELESS DRIVING', 'CARJACKING', 'CARRYING FIREARM/DANGEROUS WEAPON ON SCHOOL PROP', 'CELL/RADIO USE BY BUS PROHIB', 'CHEATING AND SWINDLING', 'CHILD ABUSE', 'CHILD RESTRAINT REQ', 'CHILD RESTRAINTS', 'CITY CHAUFFEUR LICENSE REQUIRE/CC', 'CLEAN INDOOR AIR ACT', 'CLOSING HOURS FOR ENTERTAINMENT ESTAB', 'COLLATERAL SECURITY UU WITHDRA', 'COMM FALSE INFO BOMB AT SCHOOL', 'COMPOUNDING A FELONY', 'COMPUTER FRAUD', 'COMPUTER TAMPERING', 'CONCEALED CARRY WHILE UNDER INFLUENCE', 'CONCEALED CARRY/FAILURE TO NOTIFY LEO', 'CONDUCT W/IN COURTROOM AREAS', 'CONSPIRACY (Code Modifier)', 'CONTEMPT OF COURT', 'CONTRACTORS MISAPLIC PAY', 'CORRUPT INFLUENCING', 'CREATE/DIST/POSS/COUNTERFIEIT CDS', 'CREATION/OPERATION OF DRUG LAB', 'CREDIT CARD FRAUD', 'CRIM ABANDONMENT', 'CRIM DAM COIN-OP DEV', 'CRIM DAM OF A PIPELINE', 'CRIM DAM TO PROP/AGG', 'CRIM DAM TO PROP/SIMPLE', 'CRIM DAM TO PROP/SIMPLE/CC', 'CRIM MISCHIEF/CC', 'CRIM NEGLECT OF FAMILY', 'CRIM TRESPASS', 'CRIME AGAINST ELDERLY', 'CRIME AGAINST NATURE/AGG', 'CRIMINAL BLIGHTING OF PROPERTY', 'CRIMINAL DAMAGE TO PROPERTY (GRAFFITI)', 'CRIMINAL MISCHIEF', 'CROSSING AT OTHER THAN SIDEWALK', 'CROSSING FIRE HOSE/CC', 'CRUELTY TO ANIMALS', 'CRUELTY TO ANIMALS/CC', 'CRUELTY TO ANIMALS/PROPER CARE', 'CUT ACROSS PRIV PROP', 'CYBERSTALKING', 'Contraband Penal Institution', 'D', 'D W I', 'D W I /CC', 'D/L 2 VALID LICENSES', 'D/L CLASS RESTRICTION', 'D/L EXPIRED', 'D/L FAIL CHG ADDRESS', 'D/L FAIL CHG ADDRESS /CC', 'D/L ILLEGAL USE', 'D/L M/C ENDORSEMENT REQD', 'D/L NOT IN POSS/CC', 'D/L NOT ON PERSON', 'D/L REQUIRED (STATE)', 'D/L RESTRICTION VIOL', 'D/L SUSP/REV', 'DAM PROP TO DEFRAUD', 'DAM TO PROP BY VANDALISM', 'DAM TO PROP/PUBLIC OR PRIVATE', 'DEFACING BUILDINGS/CC', 'DEFAMATION', 'DEFINITIONS CURELTY TO ANIMALS', 'DESECRATION OF FLAG', 'DESECRATION OF GRAVE', 'DESECRATION OF GRAVES', 'DESTROY OR ALTER VIN', 'DISARMING OF A POLICE OFFICER', 'DISCHARGE FIREARMS/CC', 'DISOBEY CONTROL DEV/CC', 'DISOBEY POLICE OFF', 'DISOBEY POLICE OFF/CC', 'DIST THE PEACE/CC', 'DIST/MANF SCH 2 DRUG', 'DIST/MANF SCH 3 DRUG', 'DIST/MANF SCH 4 DRUG', 'DIST/MANF SCH 5 DRUG', 'DIST/MANF SCH1 DRUG', 'DIST/PEACE', 'DIST/PEACE/FISTIC ENCOUNTER', 'DIST/PEACE/FISTIC ENCOUNTER/CC', 'DIST/PEACE/INTER LAWFUL ASSEM/CC', 'DIST/PEACE/INTOXICATED', 'DIST/PEACE/INTOXICATION/CC', 'DIST/PEACE/OFFENSIVE NOISES/CC', 'DIST/PEACE/OFFENSIVE WORDS', 'DIST/PEACE/TUMULTUOUS MANNER', 'DIST/PEACE/TUMULTUOUS MANNR/CC', 'DIST/PEACE/UNLAWFUL ASSEMBL/CC', 'DOGFIGHTING', 'DOMESTIC ABUSE BATT', 'DOMESTIC ABUSE BATTERY/CC', 'DRAG RACING/PUB ROAD', 'DRAG RACING/PUB ROAD/CC', 'DRINKING IN A MOTOR VEHICLE/CC', 'DRINKING IN PUBLIC/CC', 'DRINKING/ MOTOR VEHICLE (OPEN CONTAINER) /CC', 'DRIV IN PARKING LANE/CC', 'DRIV LEFT OF CENTER', 'DRIV LEFT OF CENTER/CC', 'DRIV ON SIDEWALK/CC', 'DRIV OVER MEDIAN', 'DRIV OVER MEDIAN/CC', 'DRIV TOO SLOW', 'DRIVING OVER PRIVATE PROPERTY', 'DRIVING TOO FAST FOR ROAD CONDITIONS', 'DRIVING TOO SLOW', 'DRUG MONEY TRANSACTION', 'DRUG RACKETEERING', 'DRUG TRAFFIC LOITERING', 'DRUG-TRAFFIC LOITERING/CC', 'DUMPING', 'DWI (CC) CHILD ENDANGERMENT LAW', 'DWI-CHILD ENDANGEMENT LAW', 'E', 'EMANATION OF EXCESSIVE SOUND OR NOISE', 'ENT/REM AFTER FORB', 'ENT/REM AFTER FORB/CC', 'EQUIPMENT VIOL', 'EQUIPMENT VIOL/CC', 'ESCAPE', 'EXTORTION', 'EYE PROTECT REQ', 'EYE PROTECT REQ/CC', 'F', 'FAIL MAIN CONTROL (CARELESS OPERATION)', 'FAIL MAIN CONTROL/CC', 'FAIL REPORT ACCIDENT', 'FAIL REPORT ACCIDENT/CC', 'FAIL TO DIM HEADLIGHTS', 'FAIL TO LEAVE PREM', 'FAIL TO REG VEH', 'FAIL TO REGISTER AS A SEX OFFENDER', 'FAIL TO SIGNAL', 'FAIL TO TRANSFER TITLE', 'FAIL TRANS REG', 'FAIL/SIGNAL', 'FAIL/STOP EMERGING FROM ALLEY/CC', 'FAIL/YIELD EMERGENCY VEH/CC', 'FAIL/YIELD INTERSECTION/CC', 'FAIL/YIELD LEFT TURN/CC', 'FAIL/YIELD PED IN CROSSWALK/CC', 'FAIL/YIELD PRIVATE DRIVE/CC', 'FAIL/YIELD THROUGH STREET/CC', 'FAIL/YIELD TO TRAIN/CC', 'FAILURE TO COMPLY AS A SECOND-HAND DEALER', 'FAILURE TO REG DANGEROUS DOG/CC', 'FAILURE TO REGISTER DANGEROUS DOGS', 'FAILURE TO YIELD AFTER STOP', 'FAKE EXPLOSIVE DEVICE', 'FALSE ACCOUNTING', 'FALSE CERTIFICATES', 'FALSE IMP W/DANG WEA', 'FALSE IMPRISONMENT', 'FALSE IMPRISONMENT/CC', 'FALSE OR ALTERED LOTTERY TICKETS', 'FALSE PERSONATION', 'FALSE REPORTS/CC', 'FALSE SWEARING FOR VIOL/ PUBLIC/HEALTH OR SAFETY', 'FELON IN POSS F/ARM', 'FETICIDE,1ST DEGREE', 'FETICIDE,2ND DEGREE', 'FETICIDE,3RD DEGREE', 'FILING FASLE PUBLIC RECORDS', 'FIRE PREVENTION INTERFERENCE', 'FIREARM W/ALCOHOL SOLD/CONSUM', 'FIREARM/ALT SERIAL NUMBER', 'FIREARM/REGISTRATION', 'FIRST DEGREE VEHICULAR NEGLIGENT INJURING', 'FLEE TO ELUDE POLICE/CC', 'FLIGHT FROM OFFICER', 'FOLLOWING TOO CLOSE', 'FOLLOWING TOO CLOSE/CC', 'FORGERY', 'FORGERY CERTIFICATE OF INSURANCE OR INS ID CARD', 'FORGERY MOTOR VEHICLE INSPECTION CERTIFICATE', 'FRAUD', 'FRAUD IN OBT ACCOM', 'FRAUD, HOME IMPROVEMENT', 'FRAUDULENT ACQUISITION OF  A CREDIT CARD', 'FUGITIVE', 'G', 'GAMBLING', 'GAMBLING IN PUBLIC', 'GAMBLING IN PUBLIC/CC', 'GAMBLING/CC', 'GROSS LITTERING PROHIBITED', 'HANDBILLS/PLACING ON VEHICLES', 'HANDICAPPED PARKING', 'HATE CRIMES', 'HEADLIGHTS REQUIRED', 'HEADLIGHTS REQUIRED/CC', 'HELMET REQUIRED', 'HELMET REQUIRED/CC', 'HIT &amp; RUN', 'HIT &amp; RUN/CC', 'HOME INVASION', 'HOMICIDE/NEGLIGENT', 'HOMICIDE/VEHICULAR', 'HOTEL/MOTEL REGISTER REQUIRED', 'HOUSE/HOUSE PEDDLING', 'HUMAN TRAFFICKING', 'HUNT/DISCHARGE FIREARMS ROADWY', 'IGNITION INTERLOCK/DEVICE OFF', 'ILL CARRYING WEAPON', 'ILL CARRYING WEAPON/CC', 'ILL POSS OF STOLEN FIREARMS', 'ILL POSS STLN THINGS', 'ILL POSS STLN THINGS/CC', 'ILL SUPPLYING A FELON WITH A FIREARM', 'ILL USE COUNTERFEIT TRADEMARK', 'ILL USE OF 911/CC', 'ILL USE OF A WEAPON', 'ILL USE OF A WEAPON/CC', 'IMPERSONATING POL OFF/CC', 'IMPERSONATING POLICE OFF', 'IMPROPER BACKING', 'IMPROPER L/R TURNS/CC', 'IMPROPER LANE USAGE', 'IMPROPER LANE USAGE /CC', 'IMPROPER LANE USAGE/CC', 'IMPROPER TELEPHONE COMM', 'IMPROPER TELEPHONE COMMUNICATIONS', 'IMPROPER WINDOW TINT/CC', 'INCITING A FELONY', 'INCITING TO RIOT', 'INJ/KILL POLICE DOG', 'INJURING PUBLIC RECORDS', 'INSPECTION STICKER', 'INSPECTION STICKER SWITCHED', 'INSURANCE FRAUD', 'INSURANCE FRAUD - AUTOMOBILE/FELONY', 'INSURANCE FRAUD - HEALTH CARE', 'INSURANCE REQUIRED', 'INSURANCE REQUIRED/CC', 'INT W/CHILD CUSTODY', 'INTER WITH OFFICER', 'INTERFER W/LAW ENFORCEMENT INVESTIGATION', 'INTERFER W/MEDICAL TREATMENT', 'INTERFERE W/OFFICER/CC', 'INTERFERENCE W/ AC ENFORCEMENT', 'INTIM WITNESS', 'INTIM/PUBLIC', 'ISS WORTHLESS CHECKS', 'ISS WORTHLESS CHECKS/CC', 'JUSTIFIABLE HOMICIDE', 'KEEPING DISORD PLACE', 'KEEPING DISORD PLACE/CC', 'KIDNAPPING/2ND DEGREE', 'KIDNAPPING/AGG', 'KIDNAPPING/AGG/CHILD', 'KIDNAPPING/SIMPLE', 'LAMPS AND OTHER EQUIP ON BICYCLES', 'LARGE MATERIAL TO BE REMOVED BY CONTRACTOR', 'LEASED MOVEABLE/FAILURE TO RETURN', 'LEASED MOVEABLES FALSE REPRES', 'LEASED VEH,FAILURE TO RETURN', 'LET PREM FOR PROST/CC', 'LETTING DISORD PLACE', 'LETTING DISORD PLACE/CC', 'LIC PLATE REQUIRED', 'LIC PLATE REQUIRED/CC', 'LIC PLATE REQUIRED/STATE', 'LIC PLATE SWITCHED', 'LITTER FROM VEHICLE/CC', 'LITTER ON VACANT LOT', 'LITTER/OCCUPIED PROVATE PROPERTY', 'LITTER/THROWN FROM VEHICLE', 'LITTERING (CC)', 'LITTERING IN PUBLIC PLACES', 'LITTERING PROHIBITED', 'LIVESTOCK AT LARGE PROHIBITED', 'LOITTERING', 'LOOTING', 'LOUD MUSIC FROM VEHICLE', 'MALFEASANCE IN OFFICE', 'MALFEASANCE/EVIDENCE TAMPERING', 'MALFEASANCE/SEX W/INMATES', 'MANSLAUGHTER', 'MANUF/POSS INCED DEV', 'MANUFACTURE/CREATE FALSE ID', 'MAXIMUM SPEED LIMIT - SPEEDING', 'MEDICAID FRAUD', 'MINGLING HARMFUL SUBSTANCES', 'MINORS/USE CDS IN PRESENCE', 'MIRRORS REQ ON VEH', 'MISREP DUR BOOKING', 'MISREP DUR BOOKING/CC', 'MISREP OF AGE TO OBTAIN ALCOHOLIC BEV', 'MISREP TO PURCHASE/ENTER ALCOH', 'MISREP/AGE TO ACCESS CASINO/CC', 'MISREP/ISSUANCE/SUMMONS/CUSTOD', 'MISREPRESENTATION DURING BOOKING', 'MONETARY INSTRUMENT ABUSE', 'MONEY LAUNDERING', 'MURDER/1ST DEGREE POLICE OFF', 'MURDER/ARSON 1ST DEGREE', 'MURDER/BODILY FORCE 1ST DEGREE', 'MURDER/GUN 1ST DEGREE', 'MURDER/GUN 2ND DEGREE', 'MURDER/GUN POLICE OFFICER', 'MURDER/KNIFE 1ST DEGREE', 'MURDER/KNIFE 2ND DEGREE', 'MURDER/KNIFE POLICE OFFICER', 'MURDER/OTHER 1ST DEGREE', 'MURDER/OTHER 2ND DEGREE', 'MURDER/RAZOR 1ST DEGREE', 'MURDER/RAZOR 2ND DEGREE', 'MVI CERTIFICATES/FALSE', 'MVI REQUIRED/CC', 'MVI REQUIRED/EXPIRED', 'NARC/2ND/SUBSEQUENT OFFENSE', 'NARC/DIST OVER 25 TO UNDER 18', 'NARC/DIST TO SCHOOL STUDENT', 'NARC/USE/POS/DIST RUSH', 'NEGLIGENT INJURING', 'NEGLIGENT INJURING/CC', 'NEGLIGENT/VEH INJURING', 'NO PASSING ZONE/CC', 'NOISE ORDINANCE/CC', 'O', 'OBEDIENCE TO/REQUIRED TRAFFIC-CONTROL DEVICES', 'OBSCENITY', 'OBSOLETE - STALKING/CC', 'OBSOLETE - THEFT OF UTILITIES/CC', 'OBST DRIVERS VIEW', 'OBST FIREMAN', 'OBST JUSTICE', 'OBST OF COURT ORDERS', 'OBST OF PUB PASSAGE', 'OBST OF PUBLIC HWY/SIMPLE', 'OBST PUBLIC HWY/AGG', 'OBST/INTER EDUCA FACILI', 'OBSTRUCTION HWY/SIMPLE/CC', 'OBSTRUCTION OF DRIVERS VISION', 'OBTAINING CDS BY FRAUD/FORGERY', 'OBTAINING CDS FROM DR. WHILE IN POSS. OF RX', 'OBTAINING LEGEND DRUG BY FRAUD', 'OBTAINING LEGEND DRUGS BY MISREP OR FRAUD', 'OFF AGAINST E-MAIL SERVICE PROVIDER', 'OFF AGAINST INTELL PROPERTY', 'OFF-ROAD VEHICLES - USE ON INTERSTATE', 'OFF-ROAD VEHICLES - USE ON SHOULDER OF ROADWAY', 'ONE WAY ROADWAYS/CC', 'ONE WAY STREET', 'ONE WAY STREET/CC', 'ONLINE IMPERSONATION', 'OPEN BURNING PROHIBITED', 'OPEN CONTAINER VIOL/CC', 'OPER VEH W/O LAW PRESENCE', 'OPERATING VEHICLE WHILE D/L SUSPENDED, PRIOR OFF.', 'OTHER LAWS OF THE ROAD/CC', 'OTHER/UNLISTED STATUTE', 'OWNERS RESPONSIBILITY', 'PANDERING', 'PARK ON LEVEE PROH/CC', 'PARKING OF SEMI TRAILER PROHIBITED', 'PARKING PROHIBITED - FACING WRONG DIRECTION', 'PARKING WHERE PROHIBITED', 'PARKING WHERE PROHIBITED/CC', 'PASS ON THE LEFT/CC', 'PASS ON THE RIGHT/CC', 'PASS SCHOOL BUS/CC', 'PAWN RECORD SH-GOODS PURCH REQ/CC', 'PAWNSHOP DAILY REPORT REQ/CC', 'PED. CROSSING AT OTHER THAN CROSS WALKS', 'PEDESTRIANS ON HIGHWAYS OR INTERSTATE', 'PEDESTRIANS SOLICITING RIDES OR BUSINESS', 'PEDESTRIANS/NON-MOTORIZED VEH PROHIBITED', 'PEEPING TOM', 'PEEPING TOM/CC', 'PERP CERTAIN CRIMES AGAINST VICTIM 65 OR OLDER', 'PICTURE ID REQUIRED ENTRANCE TO LIC ALCOHOLIC OUTLET', 'POSS  MARIJUANA', 'POSS ALC/BREC PARKS/CC', 'POSS BURGLAR TOOLS', 'POSS F/ARM/BREC PARK/CC', 'POSS HYPO SYRINGE/CC', 'POSS MARIJUANA/CC', 'POSS OF DRUG PARAPHERNALIA', 'POSS OF DRUG PARAPHERNALIA (old)', 'POSS OF FIREARM W/ DRUGS', 'POSS OF SCHEDULE 2 DRUGS', 'POSS SCH 1 DRUGS', 'POSS SCH 3 DRUGS', 'POSS SCH 4 DRUGS', 'POSS SCH 5 DRUGS', 'POSS WPN WHERE ALCOHOL SOLD/CC', 'POSS/DEAL FIREARM OBLITERATED#', 'POSS/DIST MANF COUNTERFEIT DRG', 'POSS/DIST MANF CULT SCHED I', 'POSS/DIST MANF SCH III', 'POSS/DIST MANF SCH IV', 'POSS/DIST MANF SCH V', 'POSS/DIST MANUF SCHED II', 'POSS/MANF/DIST COUNTERFEIT DRG', 'POSS/MANUFAC OF BOMB', 'POSS/SALE FIREWORKS/CC', 'POSSESSION ALCOHOL IN VEHICLE', 'POSSESSION DRUG PARAPHERNELIA', 'POSSESSION OF UNIDENTIABLE FIREARM', 'PRINCIPAL(Code Modifier)', 'PRISONER/SELF MUTILATION', 'PRIVATE COLLECTION /COMMERCIAL GARBAGE AND TRASH', 'PRODUCE/POSS COUNTERFEIT LABEL', 'PROFANITY PROHIBITED/CC', 'PROOF OF INSURANCE REQ', 'PROSTITUTION', 'PROSTITUTION BY MASSAGE/CC', 'PROSTITUTION/CC', 'PROSTITUTION/INCITING', 'PROSTITUTION/MASSAGE', 'PROSTITUTION/PROMOTION', 'PUBLIC BRIBERY', 'PUBLIC DRINKING PROHIBITED (OPEN CONTAINER) /CC', 'PUBLIC MASKING', 'PUBLIC PAYROLL FRAUD', 'PURCH/POSS ALC PERS UNDER 21/CC', 'PURCH/POSS ALCOHOL FOR MINOR/CC', 'PURSE SNATCHING', 'RECEIPTS AND UPC LABELS; UNLAWFUL ACTS', 'RECK OPER OF VEHICLE', 'RECK OPER OF VEHICLE/CC', 'RED LIGHT/DISOBEY', 'RED LIGHT/DISOBEY/CC', 'REFUND FRAUD', 'REG REQ IN VEHICLE', 'REGISTRATION REQUIRED', 'REGISTRATION TAGS REQUIRED', 'REGISTRATION; COMMERCIAL VEHICLES; EXEMPTION', 'REPEALED - RESPONSIBILITIES/RETAIL DEALER', 'REQ TAIL LAMPS', 'REQUIRED METHOD OF TURNING AT INTERSECTIONS', 'REQUIREMENTS FOR POSSESSION', 'RESISTING A OFFICER  FORCE OR VIOLENCE', 'RESISTING AN OFFICER', 'RESISTING AN OFFICER/CC', 'RESTRICTED ACCESS', 'RIDING BICYCLE ON ROADWAY', 'RIGHT OF WAY/FAIL TO YIELD', 'RIGHT TURN ON RED PROH', 'RIOT', 'RIOT/FAIL TO DISPERSE', 'ROBB/1ST DEGREE', 'ROBB/AGGRAVATED', 'ROBB/BLADE BANK', 'ROBB/BLADE COMMON HOUSE', 'ROBB/BLADE CONVENIENCE STORE', 'ROBB/BLADE GAS SERVICE STATION', 'ROBB/BLADE HWY STREETS ALLEYS', 'ROBB/BLADE MISCELLANEOUS', 'ROBB/BLADE RESIDENCE', 'ROBB/FIREARM BANK', 'ROBB/FIREARM COMMON HOUSE', 'ROBB/FIREARM CONVENIENCE STORE', 'ROBB/FIREARM GAS SERV STATION', 'ROBB/FIREARM MISCELLANEOUS', 'ROBB/FIREARM RESIDENCE', 'ROBB/FIREARM/HWY STREET ALLEYS', 'ROBB/O.D.W. COMMON HOUSE', 'ROBB/O.D.W. CONVENIENCE STORE', 'ROBB/O.D.W. GAS SERV STATION', 'ROBB/O.D.W. HWY STREETS ALLEYS', 'ROBB/O.D.W. MISCELLANEOUS', 'ROBB/O.D.W. RESIDENCE', 'ROBB/SIMPLE', 'ROBB/STRONG ARM BANK', 'ROBB/STRONG ARM COMMON HOUSE', 'ROBB/STRONG ARM CONVEN STORE', 'ROBB/STRONG ARM GAS SE STATION', 'ROBB/STRONG ARM HWY STR ALLEYS', 'ROBB/STRONG ARM MISCELLANEOUS', 'ROBB/STRONG ARM RESIDENCE', 'ROBBERY/2ND DEGREE', 'ROBBERY/FIREARM - ADDITIONAL PENALTIES', 'ROLLING VENDORS - LICENSE REQUIRED', 'SALE EXHIB DIST SEX MATL TO MI', 'SALE/POSSESSION OF LEGEND DRUG', 'SEAT BELT VIOL', 'SEAT BELT VIOL/CC', 'SEC HAND DAILY REPORTS REQ', 'SEC HAND DEALER LIC REQUIRED', 'SEC HAND PURCHASE RECORDS REQ', 'SECONDHAND DEALER/BUS LIC REQ/CC', 'SECONDHAND DEALER/DISP PROH 30DA/CC', 'SECONDHAND DEALER/LIC REQ', 'SELLING GOODS FROM PRIVATE PROP W/O OWNER CONSENT', 'SERVE/ALC TO PERSON UNDER 21/CC', 'SEX OFFENDER REGISTRATION REQ', 'SEX OFFENDER, KNOWLINGLY W/IN 300 FT OF VICTIM', 'SEXTING', 'SEXUAL ACTS PROHIBITED IN PUBLIC', 'SIMPLE ESCAPE', 'SLOW VEH IN LEFT LANE/CC', 'SMOKING PROHIBITED', 'SOLIC MINORS DISTR CONTR SUBS', 'SOLICIT FOR MURDER', 'SOLICITATION FROM ROADWAY', 'SOLICITATION ON AN INTERSTATE HIGHWAY', 'SOLICITING FOR PROSTITUTES', 'SOLICITING FOR PROSTITUTION/CC', 'SPEED UNREASONABLE/CC', 'SPEEDING/CC', 'SPEEDING/SCHOOL ZONE/CC', 'SPITTING IN PUBLIC/CC', 'STALKING', 'STATE OF EMER PROCLAIM/VIOL', 'STATE OF EMER PROCLAM/VIOL', 'STOP SIGN/YIELD SIGN', 'STOP SIGN/YIELD SIGN/CC', 'STOPPING VEH IN ROADWAY', 'STOPPING, STANDING OR PARKING PROHIBITED', 'T', 'TAIL LAMP/LICENSE PLATE', 'TEEN CLUB LICENSE REQUIRED', 'TELECOMMUNICATIONS/AVOID PAY', 'TERRORIZING', 'TERRORIZING/CC', 'TEXT MESSAGING PROHIBITED', 'THEFT $50-$200 ALL OTHER', 'THEFT $50-$200 AUTO PARTS ACC', 'THEFT $50-$200 COIN-OP MACHINE', 'THEFT $50-$200 FROM AUTO', 'THEFT $50-$200 FROM BLDG', 'THEFT $50-$200 POCKET PICKING', 'THEFT $50-$200 PURSE SNATCHING', 'THEFT $50-$200 SHOPLIFTING', 'THEFT $50-200 BICYCLES', 'THEFT AUTO/RECOVERY ONLY', 'THEFT BY EMBEZZLEMENT', 'THEFT COUNTERFEITING', 'THEFT FRAUD ACQU RENTAL AUTO', 'THEFT OF A BUSINESS RECORD', 'THEFT OF A FIREARM', 'THEFT OF ANIMALS', 'THEFT OF ASSETS FROM AGED / DISABLED PERSON', 'THEFT OF CABLE TV SERVICES/CC', 'THEFT OF COPPER OR OTHER METALS', 'THEFT OF DOGS', 'THEFT OF GOODS', 'THEFT OF LIVESTOCK', 'THEFT OF MOTOR VEHICLE', 'THEFT OF PETROLEUM PRODUCTS', 'THEFT OF TRAILER', 'THEFT OF USED BUILDING COMPONENT', 'THEFT OF UTILITIES', 'THEFT OF UTILITY PROPERTY', 'THEFT OF UTILITY SERVICE/CC', 'THEFT OF VEHICLE FUEL', 'THEFT OIL &amp; GAS EQUIPMENT', 'THEFT OTHER MOTOR VEHICLE', 'THEFT OVER $200 ALL OTHER', 'THEFT OVER $200 AUTO PARTS ACC', 'THEFT OVER $200 BICYCLES', 'THEFT OVER $200 COIN-OP MACHIN', 'THEFT OVER $200 FROM AUTO', 'THEFT OVER $200 FROM BLDG', 'THEFT OVER $200 POCKET PICKING', 'THEFT OVER $200 PURSE SNATCH', 'THEFT OVER $200 SHOPLIFTING', 'THEFT PIGEON DROP $50-$200', 'THEFT PIGEON DROP OVER $200', 'THEFT UNDER $50 ALL OTHERS', 'THEFT UNDER $50 AUTO PARTS ACC', 'THEFT UNDER $50 BICYCLES', 'THEFT UNDER $50 COINOP MACHINE', 'THEFT UNDER $50 FROM AUTO', 'THEFT UNDER $50 FROM BLDG', 'THEFT UNDER $50 FROM MOTOR VEH', 'THEFT UNDER $50 POCKET PICKING', 'THEFT UNDER $50 PURSE SNATCHIN', 'THEFT UNDER $50 SHOPLIFTING', 'THEFT UU ACCESS CARD', 'THEFT UU ACCESS CARD $50-$200', 'THEFT UU ACCESS CARD OVER $200', 'THEFT UU ACCESS CARD UNDER $50', 'THEFT/IDENTITY', 'THEFT/MISD/CC', 'THEFT/MISD/SHOPLIFTING/CC', 'THREATENING PUBLIC OFFICIAL', 'TOBACCO/SALE OF TO A MINOR/CC', 'TRAFFIC LAWS APPLY TO PERSONS ON BICYCLES', 'TRANSACTIONS INVOLVING PROCEEDS FROM DRUG OFFENSES', 'TRESPASS/SCHOOL GRND', 'TRESPASSING', 'TRESPASSING ON BREC PARKS', 'TRUANCY/GUARDIAN DUTY/PROHIBIT', 'TRUENTS/CC', 'TURN R/L REQUIRED/CC', 'TURNS NOT ALLOWED/CC', 'U TURN LIMITATIONS/CC', 'UNATTENDED MOTOR VEHICLES', 'UNATTENDED VEHICLE/CC', 'UNAU ENTRY BUSINESS', 'UNAU ENTRY CRIT INFRASTRUCTURE', 'UNAU ENTRY INHAB DWELLING', 'UNAU INTERCEP CABLE TV', 'UNAU ORDERING OF GOODS/SERVICE', 'UNAU POSS/ALCOHOL PUB SCHOOL', 'UNAU REMOVAL OF A MV', 'UNAU REMOVAL OF SHOPPING CARTS', 'UNAU REMOVAL SHOP CART', 'UNAU USE OF FOOD STAMPS', 'UNAU USE OF MOTOR VEHICLE', 'UNAU USE/MOVEABLE/CC', 'UNAUTH ENTRY OF DWELLING DURING EMERGENCY', 'UNAUTH ENTRY UPON RAILROAD PROPERTY', 'UNAUTH USE/MOVABLE', 'UNLAW USE PICT ID TO ENTER ALC/CC', 'UNLAWFUL CONSUMPTION OF ALC BY PERSON UNDER 21', 'UNLAWFUL ENTRY INTO BAR/LOUNGE/CC', 'UNLAWFUL ENTRY/PREM/CC', 'UNLAWFUL OWNERSHIP OF DOGS', 'UNLAWFUL PRESENCE OF SEXUALLY VIOLENT PREDATOR', 'UNLAWFUL PROD,MAN,DIST,POSS, OF FRAUD DOCS, IDENT', 'UNLAWFUL REFUSAL TO SUBMIT TO CHEMICAL TEST', 'UNLAWFUL SALE/TOBACCO UNDER 18', 'UNLAWFUL USE OF BODY ARMOR', 'UNLAWFUL USE STATE ISSUED ID TO GAMBLE', 'UNLAWFUL/USE/LASER/ON POLICE', 'UNLAWFULLY PRESCRIBING/DISPENSING CDS', 'UNNECESSARY NOISE/VEHICLE/CC', 'UNREGISTERED FIREARM DEALING', 'UNSECURED LOAD/CC', 'URINATING IN PUBLIC/CC', 'USE OF FORGED ACADEMIC RECORDS', 'USE OF LASER POINTER', 'VAGRANCY', 'VAGRANCY/CC', 'VANDALISM/INSTITUTION', 'VEH NEG INJURING/CC', 'VEH TRESPASS', 'VEHICLE ENTERING HIGHWAY FROM PRIVATE ROAD', 'VIDEO VOYEURISM', 'VIOL CDS LAW NEAR SCHOOL', 'VIOL FIREARM FREE ZONE', 'VIOL OF PROTECTIVE ORDERS', 'VIOL WINE, BEER, LIQUOR ORDINANCE', 'VIOLATION OF PROB &amp; PAROLE', 'WARRANT/BENCH WARRANT', 'WINDOW TINT / OBSCURING VIEW PROHIBITED', 'WRONGFUL USE OF PUB PROPERTY', 'YIELD/PASSING EMERGENCY VEHICLE']</t>
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
+        <v>5570084</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>807</v>
+      </c>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>['ABAND/INOPERATIVE VEHICLE/CC', 'ABET ENT/REM ON PREM', 'ABUSE/NEG OF ADULTS', 'ACC AFTER FACT(Code Modifier)', 'ACCESS DEVICE FRAUD', 'ADD LIGHTING EQUIP', 'ADDRESS NUMBERS REQUIRED', 'AGG ASSAULT UPON A PEACE OFFICER', 'AGG ASSAULT W/MOTOR VEHICLE UPON A PEACE OFFICER', 'AGG ESCAPE', 'AGG ORAL SEX BATT (AGE OF VIC)', 'AIDING TO REMAIN ON PREMISES/CC', 'ALARM PERMIT REQUIRED', 'ALCOHOL/SALE TO A MINOR', 'ALTER/REMOVE VEH VIN #', 'AMPLIFIED DEVICES IN PUBLIC', 'ANIMALS PROHIBITED AT FESTIVALS', 'ANIMALS RUNNING AT LARGE', 'ARSON W/INTENT TO DEFRAUD', 'ARSON/AGG', 'ARSON/COMMUNICATE FALSE INFO', 'ARSON/PLACE COMB MAT', 'ARSON/SIMPLE', 'ASSAULT/ AGG FIREARM', 'ASSAULT/ AGG INJURY', 'ASSAULT/ AGG KNIFE CUTTING INST', 'ASSAULT/ AGG ODW', 'ASSAULT/AGG', 'ASSAULT/AGG DOMESTIC ABUSE', 'ASSAULT/AGG FIREARM', 'ASSAULT/AGG INJURY', 'ASSAULT/AGG KNIFE CUTTING INST', 'ASSAULT/AGG ODW', 'ASSAULT/AGG/CC', 'ASSAULT/CHILD WELFARE WORKER', 'ASSAULT/DRIVE-BY SHOOTING', 'ASSAULT/SCHOOL TEACHER', 'ASSAULT/SIMPLE', 'ASSAULT/SIMPLE ON A JUVENILE', 'ASSAULT/SIMPLE/CC', 'ATT OR CONSPIRACY:DRUGS', 'ATTEMPT', 'ATTEMPTED (Code Modifier)', 'BACKING UNSAFELY', 'BANK FRAUD', 'BARRICADES', 'BARRICADES/CC', 'BATHING NUDE', 'BATT/2ND DEGREE', 'BATT/AGG 2ND DEGREE', 'BATT/AGG GUN', 'BATT/AGG HANDS', 'BATT/AGG KNIFE', 'BATT/AGG OTHER DANGER WEAPON', 'BATT/ORAL SEXUAL', 'BATT/POLICE OFF', 'BATT/POLICE OFF/CC', 'BATT/SCHOOL ATHLETEC OFFICIAL', 'BATT/SCHOOL TEACHER', 'BATT/SEXUAL', 'BATT/SEXUAL AGG', 'BATT/SIM CHILD WELFARE AGT', 'BATT/SIM OF THE INFIRM', 'BATT/SIMPLE', 'BATT/SIMPLE/CC', 'BATT/SIMPLE/OF JUVENILE', 'BATTERY OF EMERGENCY ROOM PERSONNEL, EMERGENCY SER', 'BICYCLE/FRONT LAMP/SIDE/REAR REFLECTORS REQ', 'BICYCLIST CARRYING ARTICLES', 'BICYCLIST MUST OBEY TRAFFIC CONTROLS', 'BIKE REGISTRATION REQUIRED/CC', 'BLOCK INTERSECTION', 'BLOCK INTERSECTION/CC', 'BLOCKING PRIVATE DRIVEWAY', 'BRAKE LIGHTS REQ', 'BRAKES REQUIRED', 'BURG/AG NON RES NIGHT NO FORCE', 'BURG/AGG NON RES DAY FORCE', 'BURG/AGG NON RES DAY NO FORCE', 'BURG/AGG NON RES NIGHT FORCE', 'BURG/AGG NON RES UNK FORCE', 'BURG/AGG NON RES UNK NO FORCE', 'BURG/AGG RES DAY FORCE', 'BURG/AGG RES DAY NO FORCE', 'BURG/AGG RES NIGHT FORCE', 'BURG/AGG RES NIGHT NO FORCE', 'BURG/AGG RES UNK FORCE', 'BURG/AGG RES UNK NO FORCE', 'BURG/AUTO $50 - $200', 'BURG/AUTO OVER $200', 'BURG/AUTO UNDER $50', 'BURG/S NON RES DAY FORCE', 'BURG/S NON RES DAY NO FORCE', 'BURG/S NON RES NIGHT FORCE', 'BURG/S NON RES NIGHT NO FORCE', 'BURG/S NON RES UNK FORCE', 'BURG/S NON RES UNK NO FORCE', 'BURG/S RES DAY FORCE', 'BURG/S RES DAY NO FORCE', 'BURG/S RES NIGHT FORCE', 'BURG/S RES NIGHT NO FORCE', 'BURG/S RES UNK FORCE', 'BURG/S RES UNK NO FORCE', 'BURG/S/IN DWE RES UNK NO FORCE', 'BURG/S/IN/DWEL/RES DAY NOFORCE', 'BURG/S/IN/DWEL/RES NIGHT FORCE', 'BURG/S/INH DWEL RES DAY FORCE', 'BURG/S/INH DWEL RES UNK FORCE', 'BURG/SID/ RES NIGHT NO FORCE', 'BURGLARY OF A RELIGIOUS BUILDING', 'BURGLARY OF PHARMACY/S', 'BURGLARY/S INHAB DWELLING', 'BURGLARY/SIMPLE', 'BURNING TRASH', 'CARELESS DRIVING', 'CARJACKING', 'CARNAL KNOW OF JUV', 'CARNAL KNOWLEDGE OF JUV(MISD)', 'CARRYING FIREARM/DANGEROUS WEAPON ON SCHOOL PROP', 'CELL/RADIO USE BY BUS PROHIB', 'CHEATING AND SWINDLING', 'CHILD ABUSE', 'CHILD DESERTION', 'CHILD RESTRAINT REQ', 'CHILD RESTRAINTS', 'CITY CHAUFFEUR LICENSE REQUIRE/CC', 'CLEAN INDOOR AIR ACT', 'CLOSING HOURS FOR ENTERTAINMENT ESTAB', 'COLLATERAL SECURITY UU WITHDRA', 'COMM FALSE INFO BOMB AT SCHOOL', 'COMPOUNDING A FELONY', 'COMPUTER AIDED SOLITICITATION OF MINOR', 'COMPUTER FRAUD', 'COMPUTER TAMPERING', 'CONCEALED CARRY WHILE UNDER INFLUENCE', 'CONCEALED CARRY/FAILURE TO NOTIFY LEO', 'CONDUCT W/IN COURTROOM AREAS', 'CONSPIRACY (Code Modifier)', 'CONT DEL OF A JUV', 'CONTEMPT OF COURT', 'CONTRACTORS MISAPLIC PAY', 'CORRUPT INFLUENCING', 'CREATE/DIST/POSS/COUNTERFIEIT CDS', 'CREATION/OPERATION OF DRUG LAB', 'CREDIT CARD FRAUD', 'CRIM ABANDONMENT', 'CRIM DAM COIN-OP DEV', 'CRIM DAM OF A PIPELINE', 'CRIM DAM TO PROP/AGG', 'CRIM DAM TO PROP/SIMPLE', 'CRIM DAM TO PROP/SIMPLE/CC', 'CRIM MISCHIEF/CC', 'CRIM NEGLECT OF FAMILY', 'CRIM TRESPASS', 'CRIME AGAINST ELDERLY', 'CRIME AGAINST NATURE', 'CRIME AGAINST NATURE/AGG', 'CRIMINAL BLIGHTING OF PROPERTY', 'CRIMINAL DAMAGE TO PROPERTY (GRAFFITI)', 'CRIMINAL MISCHIEF', 'CROSSING AT OTHER THAN SIDEWALK', 'CROSSING FIRE HOSE/CC', 'CRUELTY TO ANIMALS', 'CRUELTY TO ANIMALS/CC', 'CRUELTY TO ANIMALS/PROPER CARE', 'CRUELTY TO INFIRM', 'CRUELTY TO JUV (NOT FAMILY)', 'CRUELTY TO JUVENILES', 'CRUELTY TO JUVENILES/2ND DEG', 'CURFEW VIOL/JUVENILE/CC', 'CUT ACROSS PRIV PROP', 'CYBERBULLYING', 'CYBERSTALKING', 'Contraband Penal Institution', 'D W I', 'D W I - UNDERAGE DRIVING UNDER INFLUENCE', 'D W I - UNDERAGE DRIVING UNDER INFLUENCE (CC)', 'D W I /CC', 'D/L 2 VALID LICENSES', 'D/L CLASS RESTRICTION', 'D/L EXPIRED', 'D/L FAIL CHG ADDRESS', 'D/L FAIL CHG ADDRESS /CC', 'D/L ILLEGAL USE', 'D/L M/C ENDORSEMENT REQD', 'D/L NOT IN POSS/CC', 'D/L NOT ON PERSON', 'D/L REQUIRED (STATE)', 'D/L RESTRICTION VIOL', 'D/L SUSP/REV', 'DAM PROP TO DEFRAUD', 'DAM TO PROP BY VANDALISM', 'DAM TO PROP/PUBLIC OR PRIVATE', 'DEFACING BUILDINGS/CC', 'DEFAMATION', 'DEFINITIONS CURELTY TO ANIMALS', 'DESECRATION OF FLAG', 'DESECRATION OF GRAVE', 'DESECRATION OF GRAVES', 'DESTROY OR ALTER VIN', 'DISARMING OF A POLICE OFFICER', 'DISCHARGE FIREARMS/CC', 'DISOBEY CONTROL DEV/CC', 'DISOBEY POLICE OFF', 'DISOBEY POLICE OFF/CC', 'DIST THE PEACE/CC', 'DIST/MANF SCH 2 DRUG', 'DIST/MANF SCH 3 DRUG', 'DIST/MANF SCH 4 DRUG', 'DIST/MANF SCH 5 DRUG', 'DIST/MANF SCH1 DRUG', 'DIST/PEACE', 'DIST/PEACE/FISTIC ENCOUNTER', 'DIST/PEACE/FISTIC ENCOUNTER/CC', 'DIST/PEACE/INTER LAWFUL ASSEM/CC', 'DIST/PEACE/INTOXICATED', 'DIST/PEACE/INTOXICATION/CC', 'DIST/PEACE/OFFENSIVE NOISES/CC', 'DIST/PEACE/OFFENSIVE WORDS', 'DIST/PEACE/TUMULTUOUS MANNER', 'DIST/PEACE/TUMULTUOUS MANNR/CC', 'DIST/PEACE/UNLAWFUL ASSEMBL/CC', 'DOGFIGHTING', 'DOMESTIC ABUSE BATT', 'DOMESTIC ABUSE BATTERY/CC', 'DRAG RACING/PUB ROAD', 'DRAG RACING/PUB ROAD/CC', 'DRINKING IN A MOTOR VEHICLE/CC', 'DRINKING IN PUBLIC/CC', 'DRINKING/ MOTOR VEHICLE (OPEN CONTAINER) /CC', 'DRIV IN PARKING LANE/CC', 'DRIV LEFT OF CENTER', 'DRIV LEFT OF CENTER/CC', 'DRIV ON SIDEWALK/CC', 'DRIV OVER MEDIAN', 'DRIV OVER MEDIAN/CC', 'DRIV TOO SLOW', 'DRIVING OVER PRIVATE PROPERTY', 'DRIVING TOO FAST FOR ROAD CONDITIONS', 'DRIVING TOO SLOW', 'DRUG MONEY TRANSACTION', 'DRUG RACKETEERING', 'DRUG TRAFFIC LOITERING', 'DRUG-TRAFFIC LOITERING/CC', 'DUMPING', 'DWI (CC) CHILD ENDANGERMENT LAW', 'DWI-CHILD ENDANGEMENT LAW', 'EMANATION OF EXCESSIVE SOUND OR NOISE', 'ENCOURAGE/CONT/DEL JUV', 'ENT/REM AFTER FORB', 'ENT/REM AFTER FORB/CC', 'EQUIPMENT VIOL', 'EQUIPMENT VIOL/CC', 'ESCAPE', 'EXPLOITATION OF THE INFIRMED', 'EXTORTION', 'EYE PROTECT REQ', 'EYE PROTECT REQ/CC', 'FAIL MAIN CONTROL (CARELESS OPERATION)', 'FAIL MAIN CONTROL/CC', 'FAIL REPORT ACCIDENT', 'FAIL REPORT ACCIDENT/CC', 'FAIL TO DIM HEADLIGHTS', 'FAIL TO LEAVE PREM', 'FAIL TO REG VEH', 'FAIL TO REGISTER AS A SEX OFFENDER', 'FAIL TO SIGNAL', 'FAIL TO TRANSFER TITLE', 'FAIL TRANS REG', 'FAIL/SIGNAL', 'FAIL/STOP EMERGING FROM ALLEY/CC', 'FAIL/YIELD EMERGENCY VEH/CC', 'FAIL/YIELD INTERSECTION/CC', 'FAIL/YIELD LEFT TURN/CC', 'FAIL/YIELD PED IN CROSSWALK/CC', 'FAIL/YIELD PRIVATE DRIVE/CC', 'FAIL/YIELD THROUGH STREET/CC', 'FAIL/YIELD TO TRAIN/CC', 'FAILURE TO COMPLY AS A SECOND-HAND DEALER', 'FAILURE TO REG DANGEROUS DOG/CC', 'FAILURE TO REGISTER DANGEROUS DOGS', 'FAILURE TO YIELD AFTER STOP', 'FAKE EXPLOSIVE DEVICE', 'FALSE ACCOUNTING', 'FALSE CERTIFICATES', 'FALSE IMP W/DANG WEA', 'FALSE IMPRISONMENT', 'FALSE IMPRISONMENT/CC', 'FALSE OR ALTERED LOTTERY TICKETS', 'FALSE PERSONATION', 'FALSE REPORTS/CC', 'FALSE SWEARING FOR VIOL/ PUBLIC/HEALTH OR SAFETY', 'FELON IN POSS F/ARM', 'FETICIDE,1ST DEGREE', 'FETICIDE,2ND DEGREE', 'FETICIDE,3RD DEGREE', 'FILING FASLE PUBLIC RECORDS', 'FIRE PREVENTION INTERFERENCE', 'FIREARM W/ALCOHOL SOLD/CONSUM', 'FIREARM/ALT SERIAL NUMBER', 'FIREARM/REGISTRATION', 'FIRST DEGREE VEHICULAR NEGLIGENT INJURING', 'FLEE TO ELUDE POLICE/CC', 'FLIGHT FROM OFFICER', 'FOLLOWING TOO CLOSE', 'FOLLOWING TOO CLOSE/CC', 'FORGERY', 'FORGERY CERTIFICATE OF INSURANCE OR INS ID CARD', 'FORGERY MOTOR VEHICLE INSPECTION CERTIFICATE', 'FRAUD', 'FRAUD IN OBT ACCOM', 'FRAUD, HOME IMPROVEMENT', 'FRAUDULENT ACQUISITION OF  A CREDIT CARD', 'FUGITIVE', 'GAMBLING', 'GAMBLING IN PUBLIC', 'GAMBLING IN PUBLIC/CC', 'GAMBLING/CC', 'GLUE/USE/SALE PROH', 'GROSS LITTERING PROHIBITED', 'HANDBILLS/PLACING ON VEHICLES', 'HANDICAPPED PARKING', 'HATE CRIMES', 'HEADLIGHTS REQUIRED', 'HEADLIGHTS REQUIRED/CC', 'HELMET REQUIRED', 'HELMET REQUIRED/CC', 'HIT &amp; RUN', 'HIT &amp; RUN/CC', 'HOME INVASION', 'HOMICIDE/NEGLIGENT', 'HOMICIDE/VEHICULAR', 'HOTEL/MOTEL REGISTER REQUIRED', 'HOUSE/HOUSE PEDDLING', 'HUMAN TRAFFICKING', 'HUNT/DISCHARGE FIREARMS ROADWY', 'IGNITION INTERLOCK/DEVICE OFF', 'ILL CARRYING WEAPON', 'ILL CARRYING WEAPON/CC', 'ILL POSS OF STOLEN FIREARMS', 'ILL POSS STLN THINGS', 'ILL POSS STLN THINGS/CC', 'ILL SUPPLYING A FELON WITH A FIREARM', 'ILL USE COUNTERFEIT TRADEMARK', 'ILL USE OF 911/CC', 'ILL USE OF A WEAPON', 'ILL USE OF A WEAPON/CC', 'ILL/POSS OF HANDGUN BY JUV', 'IMPERSONATING POL OFF/CC', 'IMPERSONATING POLICE OFF', 'IMPROPER BACKING', 'IMPROPER L/R TURNS/CC', 'IMPROPER LANE USAGE', 'IMPROPER LANE USAGE /CC', 'IMPROPER LANE USAGE/CC', 'IMPROPER SUPERVISION/JUV', 'IMPROPER TELEPHONE COMM', 'IMPROPER TELEPHONE COMMUNICATIONS', 'IMPROPER WINDOW TINT/CC', 'INCEST', 'INCEST/AGGRAVATED', 'INCITING A FELONY', 'INCITING TO RIOT', 'IND BEHAVIOR W/JUV', 'INJ/KILL POLICE DOG', 'INJURING PUBLIC RECORDS', 'INSPECTION STICKER', 'INSPECTION STICKER SWITCHED', 'INSURANCE FRAUD', 'INSURANCE FRAUD - AUTOMOBILE/FELONY', 'INSURANCE FRAUD - HEALTH CARE', 'INSURANCE REQUIRED', 'INSURANCE REQUIRED/CC', 'INT EXPOSURE TO AIDS VIRUS', 'INT W/CHILD CUSTODY', 'INTER WITH OFFICER', 'INTERFER W/LAW ENFORCEMENT INVESTIGATION', 'INTERFER W/MEDICAL TREATMENT', 'INTERFERE W/OFFICER/CC', 'INTERFERENCE W/ AC ENFORCEMENT', 'INTIM WITNESS', 'INTIM/PUBLIC', 'ISS WORTHLESS CHECKS', 'ISS WORTHLESS CHECKS/CC', 'JUSTIFIABLE HOMICIDE', 'JUVENILE CURFEW VIOL/CUSTODIAN', 'JUVENILE CURFEW VIOLATION/CC', 'KEEPING DISORD PLACE', 'KEEPING DISORD PLACE/CC', 'KIDNAPPING/2ND DEGREE', 'KIDNAPPING/AGG', 'KIDNAPPING/AGG/CHILD', 'KIDNAPPING/SIMPLE', 'LAMPS AND OTHER EQUIP ON BICYCLES', 'LARGE MATERIAL TO BE REMOVED BY CONTRACTOR', 'LEASED MOVEABLE/FAILURE TO RETURN', 'LEASED MOVEABLES FALSE REPRES', 'LEASED VEH,FAILURE TO RETURN', 'LET PREM FOR PROST/CC', 'LETTING DISORD PLACE', 'LETTING DISORD PLACE/CC', 'LIC PLATE REQUIRED', 'LIC PLATE REQUIRED/CC', 'LIC PLATE REQUIRED/STATE', 'LIC PLATE SWITCHED', 'LITTER FROM VEHICLE/CC', 'LITTER ON VACANT LOT', 'LITTER/OCCUPIED PROVATE PROPERTY', 'LITTER/THROWN FROM VEHICLE', 'LITTERING (CC)', 'LITTERING IN PUBLIC PLACES', 'LITTERING PROHIBITED', 'LIVESTOCK AT LARGE PROHIBITED', 'LOITTERING', 'LOOTING', 'LOUD MUSIC FROM VEHICLE', 'MALFEASANCE IN OFFICE', 'MALFEASANCE/EVIDENCE TAMPERING', 'MALFEASANCE/SEX W/INMATES', 'MANSLAUGHTER', 'MANUF/POSS INCED DEV', 'MANUFACTURE/CREATE FALSE ID', 'MAXIMUM SPEED LIMIT - SPEEDING', 'MEDICAID FRAUD', 'MINGLING HARMFUL SUBSTANCES', 'MINORS/USE CDS IN PRESENCE', 'MIRRORS REQ ON VEH', 'MISREP DUR BOOKING', 'MISREP DUR BOOKING/CC', 'MISREP OF AGE TO OBTAIN ALCOHOLIC BEV', 'MISREP TO PURCHASE/ENTER ALCOH', 'MISREP/AGE TO ACCESS CASINO/CC', 'MISREP/ISSUANCE/SUMMONS/CUSTOD', 'MISREPRESENTATION DURING BOOKING', 'MOLESTATION OF JUV', 'MONETARY INSTRUMENT ABUSE', 'MONEY LAUNDERING', 'MURDER/1ST DEGREE POLICE OFF', 'MURDER/ARSON 1ST DEGREE', 'MURDER/BODILY FORCE 1ST DEGREE', 'MURDER/GUN 1ST DEGREE', 'MURDER/GUN 2ND DEGREE', 'MURDER/GUN POLICE OFFICER', 'MURDER/KNIFE 1ST DEGREE', 'MURDER/KNIFE 2ND DEGREE', 'MURDER/KNIFE POLICE OFFICER', 'MURDER/OTHER 1ST DEGREE', 'MURDER/OTHER 2ND DEGREE', 'MURDER/RAZOR 1ST DEGREE', 'MURDER/RAZOR 2ND DEGREE', 'MVI CERTIFICATES/FALSE', 'MVI REQUIRED/CC', 'MVI REQUIRED/EXPIRED', 'NARC/2ND/SUBSEQUENT OFFENSE', 'NARC/DIST OVER 25 TO UNDER 18', 'NARC/DIST TO SCHOOL STUDENT', 'NARC/USE/POS/DIST RUSH', 'NEGLIGENT INJURING', 'NEGLIGENT INJURING/CC', 'NEGLIGENT/VEH INJURING', 'NO PASSING ZONE/CC', 'NOISE ORDINANCE/CC', 'OBEDIENCE TO/REQUIRED TRAFFIC-CONTROL DEVICES', 'OBSCENITY', 'OBSOLETE - STALKING/CC', 'OBSOLETE - THEFT OF UTILITIES/CC', 'OBST DRIVERS VIEW', 'OBST FIREMAN', 'OBST JUSTICE', 'OBST OF COURT ORDERS', 'OBST OF PUB PASSAGE', 'OBST OF PUBLIC HWY/SIMPLE', 'OBST PUBLIC HWY/AGG', 'OBST/INTER EDUCA FACILI', 'OBSTRUCTION HWY/SIMPLE/CC', 'OBSTRUCTION OF DRIVERS VISION', 'OBTAINING CDS BY FRAUD/FORGERY', 'OBTAINING CDS FROM DR. WHILE IN POSS. OF RX', 'OBTAINING LEGEND DRUG BY FRAUD', 'OBTAINING LEGEND DRUGS BY MISREP OR FRAUD', 'OFF AGAINST E-MAIL SERVICE PROVIDER', 'OFF AGAINST INTELL PROPERTY', 'OFF-ROAD VEHICLES - USE ON INTERSTATE', 'OFF-ROAD VEHICLES - USE ON SHOULDER OF ROADWAY', 'ONE WAY ROADWAYS/CC', 'ONE WAY STREET', 'ONE WAY STREET/CC', 'ONLINE IMPERSONATION', 'OPEN BURNING PROHIBITED', 'OPEN CONTAINER VIOL/CC', 'OPER VEH W/O LAW PRESENCE', 'OPERATING VEHICLE WHILE D/L SUSPENDED, PRIOR OFF.', 'OTHER LAWS OF THE ROAD/CC', 'OTHER/UNLISTED STATUTE', 'OWNERS RESPONSIBILITY', 'PANDERING', 'PARK ON LEVEE PROH/CC', 'PARKING OF SEMI TRAILER PROHIBITED', 'PARKING PROHIBITED - FACING WRONG DIRECTION', 'PARKING WHERE PROHIBITED', 'PARKING WHERE PROHIBITED/CC', 'PASS ON THE LEFT/CC', 'PASS ON THE RIGHT/CC', 'PASS SCHOOL BUS/CC', 'PAWN RECORD SH-GOODS PURCH REQ/CC', 'PAWNSHOP DAILY REPORT REQ/CC', 'PED. CROSSING AT OTHER THAN CROSS WALKS', 'PEDESTRIANS ON HIGHWAYS OR INTERSTATE', 'PEDESTRIANS SOLICITING RIDES OR BUSINESS', 'PEDESTRIANS/NON-MOTORIZED VEH PROHIBITED', 'PEEPING TOM', 'PEEPING TOM/CC', 'PERP CERTAIN CRIMES AGAINST VICTIM 65 OR OLDER', 'PICTURE ID REQUIRED ENTRANCE TO LIC ALCOHOLIC OUTLET', 'PORNO INVOLVING JUV', 'POSS  MARIJUANA', 'POSS ALC/BREC PARKS/CC', 'POSS BURGLAR TOOLS', 'POSS F/ARM/BREC PARK/CC', 'POSS HYPO SYRINGE/CC', 'POSS MARIJUANA/CC', 'POSS OF DRUG PARAPHERNALIA', 'POSS OF DRUG PARAPHERNALIA (old)', 'POSS OF FIREARM W/ DRUGS', 'POSS OF SCHEDULE 2 DRUGS', 'POSS SCH 1 DRUGS', 'POSS SCH 3 DRUGS', 'POSS SCH 4 DRUGS', 'POSS SCH 5 DRUGS', 'POSS WPN WHERE ALCOHOL SOLD/CC', 'POSS/DEAL FIREARM OBLITERATED#', 'POSS/DIST MANF COUNTERFEIT DRG', 'POSS/DIST MANF CULT SCHED I', 'POSS/DIST MANF SCH III', 'POSS/DIST MANF SCH IV', 'POSS/DIST MANF SCH V', 'POSS/DIST MANUF SCHED II', 'POSS/MANF/DIST COUNTERFEIT DRG', 'POSS/MANUFAC OF BOMB', 'POSS/SALE FIREWORKS/CC', 'POSSESSION ALCOHOL IN VEHICLE', 'POSSESSION DRUG PARAPHERNELIA', 'POSSESSION OF UNIDENTIABLE FIREARM', 'PRINCIPAL(Code Modifier)', 'PRISONER/SELF MUTILATION', 'PRIVATE COLLECTION /COMMERCIAL GARBAGE AND TRASH', 'PRODUCE/POSS COUNTERFEIT LABEL', 'PROFANITY PROHIBITED/CC', 'PROMOTION/SALE OBSCEN MATERIAL', 'PROOF OF INSURANCE REQ', 'PROSTITUTION', 'PROSTITUTION BY MASSAGE/CC', 'PROSTITUTION UNDER 17', 'PROSTITUTION/CC', 'PROSTITUTION/ENTICING/JUVENILE', 'PROSTITUTION/INCITING', 'PROSTITUTION/MASSAGE', 'PROSTITUTION/PROMOTION', 'PUBLIC BRIBERY', 'PUBLIC DRINKING PROHIBITED (OPEN CONTAINER) /CC', 'PUBLIC MASKING', 'PUBLIC PAYROLL FRAUD', 'PURCH/POSS ALC PERS UNDER 21/CC', 'PURCH/POSS ALCOHOL FOR MINOR/CC', 'PURCHASE/POSS ALCOHOL PUBLIC', 'PURSE SNATCHING', 'RAPE/AGG (ANAL)', 'RAPE/AGG (ORAL)', 'RAPE/AGG (VAGINAL)', 'RAPE/ATT FORCIBLE', 'RAPE/FORCABLE (ANAL)', 'RAPE/FORCIBLE (ORAL)', 'RAPE/FORCIBLE (VAGINAL)', 'RAPE/FORCIBLE SIMPLE', 'RAPE/SIMPLE (ANAL)', 'RAPE/SIMPLE (ORAL)', 'RAPE/SIMPLE (VAGINAL)', 'RECEIPTS AND UPC LABELS; UNLAWFUL ACTS', 'RECK OPER OF VEHICLE', 'RECK OPER OF VEHICLE/CC', 'RED LIGHT/DISOBEY', 'RED LIGHT/DISOBEY/CC', 'REFUND FRAUD', 'REG REQ IN VEHICLE', 'REGISTRATION REQUIRED', 'REGISTRATION TAGS REQUIRED', 'REGISTRATION; COMMERCIAL VEHICLES; EXEMPTION', 'REPEALED - RESPONSIBILITIES/RETAIL DEALER', 'REQ TAIL LAMPS', 'REQUIRED METHOD OF TURNING AT INTERSECTIONS', 'REQUIREMENTS FOR POSSESSION', 'RESISTING A OFFICER  FORCE OR VIOLENCE', 'RESISTING AN OFFICER', 'RESISTING AN OFFICER/CC', 'RESTRICTED ACCESS', 'RIDING BICYCLE ON ROADWAY', 'RIGHT OF WAY/FAIL TO YIELD', 'RIGHT TURN ON RED PROH', 'RIOT', 'RIOT/FAIL TO DISPERSE', 'ROBB/1ST DEGREE', 'ROBB/AGGRAVATED', 'ROBB/BLADE BANK', 'ROBB/BLADE COMMON HOUSE', 'ROBB/BLADE CONVENIENCE STORE', 'ROBB/BLADE GAS SERVICE STATION', 'ROBB/BLADE HWY STREETS ALLEYS', 'ROBB/BLADE MISCELLANEOUS', 'ROBB/BLADE RESIDENCE', 'ROBB/FIREARM BANK', 'ROBB/FIREARM COMMON HOUSE', 'ROBB/FIREARM CONVENIENCE STORE', 'ROBB/FIREARM GAS SERV STATION', 'ROBB/FIREARM MISCELLANEOUS', 'ROBB/FIREARM RESIDENCE', 'ROBB/FIREARM/HWY STREET ALLEYS', 'ROBB/O.D.W. COMMON HOUSE', 'ROBB/O.D.W. CONVENIENCE STORE', 'ROBB/O.D.W. GAS SERV STATION', 'ROBB/O.D.W. HWY STREETS ALLEYS', 'ROBB/O.D.W. MISCELLANEOUS', 'ROBB/O.D.W. RESIDENCE', 'ROBB/SIMPLE', 'ROBB/STRONG ARM BANK', 'ROBB/STRONG ARM COMMON HOUSE', 'ROBB/STRONG ARM CONVEN STORE', 'ROBB/STRONG ARM GAS SE STATION', 'ROBB/STRONG ARM HWY STR ALLEYS', 'ROBB/STRONG ARM MISCELLANEOUS', 'ROBB/STRONG ARM RESIDENCE', 'ROBBERY/2ND DEGREE', 'ROBBERY/FIREARM - ADDITIONAL PENALTIES', 'ROLLING VENDORS - LICENSE REQUIRED', 'SALE EXHIB DIST SEX MATL TO MI', 'SALE/POSSESSION OF LEGEND DRUG', 'SEAT BELT VIOL', 'SEAT BELT VIOL/CC', 'SEC HAND DAILY REPORTS REQ', 'SEC HAND DEALER LIC REQUIRED', 'SEC HAND PURCHASE RECORDS REQ', 'SECONDHAND DEALER/BUS LIC REQ/CC', 'SECONDHAND DEALER/DISP PROH 30DA/CC', 'SECONDHAND DEALER/LIC REQ', 'SELLING GOODS FROM PRIVATE PROP W/O OWNER CONSENT', 'SERVE/ALC TO PERSON UNDER 21/CC', 'SEX BATT BASED  (AGE OF VICTIM)', 'SEX BATT BASED (AGE OF VICTIM)', 'SEX OFFENDER REGISTRATION REQ', 'SEX OFFENDER, KNOWLINGLY W/IN 300 FT OF VICTIM', 'SEXTING', 'SEXUAL ACTS PROHIBITED IN PUBLIC', 'SEXUAL BATTERY OF THE INFIRMED', 'SIMPLE ESCAPE', 'SLOW VEH IN LEFT LANE/CC', 'SMOKING PROHIBITED', 'SOLIC MINORS DISTR CONTR SUBS', 'SOLICIT FOR MURDER', 'SOLICITATION FROM ROADWAY', 'SOLICITATION ON AN INTERSTATE HIGHWAY', 'SOLICITING FOR PROSTITUTES', 'SOLICITING FOR PROSTITUTION/CC', 'SPEED UNREASONABLE/CC', 'SPEEDING/CC', 'SPEEDING/SCHOOL ZONE/CC', 'SPITTING IN PUBLIC/CC', 'STALKING', 'STATE OF EMER PROCLAIM/VIOL', 'STATE OF EMER PROCLAM/VIOL', 'STOP SIGN/YIELD SIGN', 'STOP SIGN/YIELD SIGN/CC', 'STOPPING VEH IN ROADWAY', 'STOPPING, STANDING OR PARKING PROHIBITED', 'TAIL LAMP/LICENSE PLATE', 'TATTOOING MINORS', 'TEEN CLUB LICENSE REQUIRED', 'TELECOMMUNICATIONS/AVOID PAY', 'TERRORIZING', 'TERRORIZING/CC', 'TEXT MESSAGING PROHIBITED', 'THEFT $50-$200 ALL OTHER', 'THEFT $50-$200 AUTO PARTS ACC', 'THEFT $50-$200 COIN-OP MACHINE', 'THEFT $50-$200 FROM AUTO', 'THEFT $50-$200 FROM BLDG', 'THEFT $50-$200 POCKET PICKING', 'THEFT $50-$200 PURSE SNATCHING', 'THEFT $50-$200 SHOPLIFTING', 'THEFT $50-200 BICYCLES', 'THEFT AUTO/RECOVERY ONLY', 'THEFT BY EMBEZZLEMENT', 'THEFT COUNTERFEITING', 'THEFT FRAUD ACQU RENTAL AUTO', 'THEFT OF A BUSINESS RECORD', 'THEFT OF A FIREARM', 'THEFT OF ANIMALS', 'THEFT OF ASSETS FROM AGED / DISABLED PERSON', 'THEFT OF CABLE TV SERVICES/CC', 'THEFT OF COPPER OR OTHER METALS', 'THEFT OF DOGS', 'THEFT OF GOODS', 'THEFT OF LIVESTOCK', 'THEFT OF MOTOR VEHICLE', 'THEFT OF PETROLEUM PRODUCTS', 'THEFT OF TRAILER', 'THEFT OF USED BUILDING COMPONENT', 'THEFT OF UTILITIES', 'THEFT OF UTILITY PROPERTY', 'THEFT OF UTILITY SERVICE/CC', 'THEFT OF VEHICLE FUEL', 'THEFT OIL &amp; GAS EQUIPMENT', 'THEFT OTHER MOTOR VEHICLE', 'THEFT OVER $200 ALL OTHER', 'THEFT OVER $200 AUTO PARTS ACC', 'THEFT OVER $200 BICYCLES', 'THEFT OVER $200 COIN-OP MACHIN', 'THEFT OVER $200 FROM AUTO', 'THEFT OVER $200 FROM BLDG', 'THEFT OVER $200 POCKET PICKING', 'THEFT OVER $200 PURSE SNATCH', 'THEFT OVER $200 SHOPLIFTING', 'THEFT PIGEON DROP $50-$200', 'THEFT PIGEON DROP OVER $200', 'THEFT UNDER $50 ALL OTHERS', 'THEFT UNDER $50 AUTO PARTS ACC', 'THEFT UNDER $50 BICYCLES', 'THEFT UNDER $50 COINOP MACHINE', 'THEFT UNDER $50 FROM AUTO', 'THEFT UNDER $50 FROM BLDG', 'THEFT UNDER $50 FROM MOTOR VEH', 'THEFT UNDER $50 POCKET PICKING', 'THEFT UNDER $50 PURSE SNATCHIN', 'THEFT UNDER $50 SHOPLIFTING', 'THEFT UU ACCESS CARD', 'THEFT UU ACCESS CARD $50-$200', 'THEFT UU ACCESS CARD OVER $200', 'THEFT UU ACCESS CARD UNDER $50', 'THEFT/IDENTITY', 'THEFT/MISD/CC', 'THEFT/MISD/SHOPLIFTING/CC', 'THREATENING PUBLIC OFFICIAL', 'TOBACCO/SALE OF TO A MINOR/CC', 'TRAFFIC LAWS APPLY TO PERSONS ON BICYCLES', 'TRAFFICKING CHILDREN FOR SEXUAL PURPOSES', 'TRANSACTIONS INVOLVING PROCEEDS FROM DRUG OFFENSES', 'TRESPASS/SCHOOL GRND', 'TRESPASSING', 'TRESPASSING ON BREC PARKS', 'TRUANCY BY SCHOOL AGE CHILD', 'TRUANCY/GUARDIAN DUTY/PROHIBIT', 'TRUENTS/CC', 'TURN R/L REQUIRED/CC', 'TURNS NOT ALLOWED/CC', 'U TURN LIMITATIONS/CC', 'UNATTENDED MOTOR VEHICLES', 'UNATTENDED VEHICLE/CC', 'UNAU ENTRY BUSINESS', 'UNAU ENTRY CRIT INFRASTRUCTURE', 'UNAU ENTRY INHAB DWELLING', 'UNAU INTERCEP CABLE TV', 'UNAU ORDERING OF GOODS/SERVICE', 'UNAU POSS/ALCOHOL PUB SCHOOL', 'UNAU REMOVAL OF A MV', 'UNAU REMOVAL OF SHOPPING CARTS', 'UNAU REMOVAL SHOP CART', 'UNAU USE OF FOOD STAMPS', 'UNAU USE OF MOTOR VEHICLE', 'UNAU USE/MOVEABLE/CC', 'UNAUTH ENTRY OF DWELLING DURING EMERGENCY', 'UNAUTH ENTRY UPON RAILROAD PROPERTY', 'UNAUTH USE/MOVABLE', 'UNLAW USE PICT ID TO ENTER ALC/CC', 'UNLAWFUL CONSUMPTION OF ALC BY PERSON UNDER 21', 'UNLAWFUL ENTRY INTO BAR/LOUNGE/CC', 'UNLAWFUL ENTRY OF CASINO PERSONS UNDER 21', 'UNLAWFUL ENTRY/PREM/CC', 'UNLAWFUL OWNERSHIP OF DOGS', 'UNLAWFUL PRESENCE OF SEXUALLY VIOLENT PREDATOR', 'UNLAWFUL PROD,MAN,DIST,POSS, OF FRAUD DOCS, IDENT', 'UNLAWFUL PURCHASE ALCO BEV', 'UNLAWFUL REFUSAL TO SUBMIT TO CHEMICAL TEST', 'UNLAWFUL SALE/TOBACCO UNDER 18', 'UNLAWFUL USE OF BODY ARMOR', 'UNLAWFUL USE STATE ISSUED ID TO GAMBLE', 'UNLAWFUL/USE/LASER/ON POLICE', 'UNLAWFULLY PRESCRIBING/DISPENSING CDS', 'UNNECESSARY NOISE/VEHICLE/CC', 'UNREGISTERED FIREARM DEALING', 'UNSECURED LOAD/CC', 'URINATING IN PUBLIC/CC', 'USE OF FORGED ACADEMIC RECORDS', 'USE OF LASER POINTER', 'VAGRANCY', 'VAGRANCY/CC', 'VANDALISM/INSTITUTION', 'VEH NEG INJURING/CC', 'VEH TRESPASS', 'VEHICLE ENTERING HIGHWAY FROM PRIVATE ROAD', 'VIDEO VOYEURISM', 'VIOL CDS LAW NEAR SCHOOL', 'VIOL FIREARM FREE ZONE', 'VIOL OF PROTECTIVE ORDERS', 'VIOL WINE, BEER, LIQUOR ORDINANCE', 'VIOLATION OF PROB &amp; PAROLE', 'WARRANT/BENCH WARRANT', 'WINDOW TINT / OBSCURING VIEW PROHIBITED', 'WRONGFUL USE OF PUB PROPERTY', 'YIELD/PASSING EMERGENCY VEHICLE']</t>
         </is>
       </c>
     </row>
@@ -1077,10 +1143,10 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>267572</v>
+        <v>267773</v>
       </c>
       <c r="E9" t="n">
-        <v>267572</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1095,19 +1161,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K9" t="n">
         <v>-1</v>
       </c>
       <c r="L9" t="n">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="N9" t="n">
-        <v>37</v>
+        <v>3796</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -1125,24 +1191,32 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>4445  PLANK RD</t>
+          <t>2507  JACKSON AV</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>1196</v>
-      </c>
-      <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>(Null)</t>
+        </is>
+      </c>
+      <c r="V9" t="n">
+        <v>3796</v>
+      </c>
+      <c r="W9" t="n">
         <v>0.333</v>
       </c>
-      <c r="V9" t="n">
-        <v>4396116</v>
-      </c>
-      <c r="W9" t="n">
-        <v>54070</v>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>['1', '1   DALRYMPLE', '1  DAIRYMPLE DR', '1  DAIRYMPLE ST', '1  DALRYMPLE', '1  DALRYMPLE DR', '1  DARLYMPLE DR', '1  DARYMPLE', '1  RUE SORBONNE', '1  RUE SORBONNE ST', '1 S AMITE DR', '1 W FRATERNITY DR', '1 W LAKESHORE DR', '10   DALRYMPLE DR', '10  DALRYMPLE DR', '10  GOVERNMENT ST', '10  RUE TOULOUSE ST', '100   LEE', '100   RIVER RD', '100   SHARP RD', '100   SKIP BERTMAN DR', '100   STANFORD AV', '100   TAFT', '100   TOWER', '100   TOWER DR', '100  12TH ST', '100  22ND AV', '100  3RD ST', '100  AMHERST AV', '100  APARTMENT COURT DR', '100  ASTER ST', '100  BEDFORD ST', '100  BELLEWOOD DR', '100  BOB PETIT BL', '100  BRICE ST', '100  BROADMOOR AV', '100  CAMPUS LAKE RD', '100  CHATSWORTH ST', '100  CHOCTAW DR', '100  CLOUD DR', '100  COMMUNITY COLLEGE DR', '100  CONVENTION', '100  CONVENTION ST', '100  COURSEY BL', '100  CYPRESS DR', '100  DALRYMPLE', '100  DALRYMPLE DR', '100  DARYMPLE', '100  DELPHINE ST', '100  DOROTHY DIX DR', '100  E BOYD ST', '100  EAST BL', '100  EAST BOYD ST', '100  EAST DR', '100  EAST I-10 HW', '100  EAST I-12', '100  EAST I-12 HW', '100  EDDIE ROBINSON', '100  EDDIE ROBINSON DR', '100  EDDIE ROBINSON SR DR', '100  ELLWOOD ST', '100  ELMER AV', '100  ELTON C HARRISON DR', '100  EVERGREEN DR', '100  EVERGREEN ST', '100  FIELD HOUSE DR', '100  FLORIDA', '100  FLORIDA BL', '100  FLORIDA ST', '100  FRANCE ST', '100  G LEON NETTERVILLE DR', '100  GARDERE LN', '100  GOTTLIEB ST', '100  GOVERNMENT ST', '100  GRETA ST', '100  HAZEL ST', '100  HEARTHSTONE AV', '100  HEATHERWOOD DR', '100  HELEN BARRON ST', '100  HENRY E COBB ST', '100  HOLMES DR', '100  I-10', '100  I-110 HW', '100  JASMINE BL', '100  JENNIFER JEAN AV', '100  JULIA ST', '100  KENILWORTH DR', '100  KENILWORTH PK', '100  LAFAYETTE ST', '100  LAFEYETTE ST', '100  LAUREL', '100  LAUREL ST', '100  LEE', '100  LEE DR', '100  LITTLE JOHN DR', '100  LOBDELL AV', '100  LONGBOW DR', '100  LOUISE ST', '100  LSU AV', '100  MAIN ST', '100  MAXIMILIAN ST', '100  MAXIMILLIAN ST', '100  MAYFLOWER', '100  MAYFLOWER ST', '100  MCDONALD DR', '100  MCGEHEE DR', '100  N 4TH ST', '100  N. 21ST ST', '100  N3RD', '100  NAPOLEON ST', '100  NORTH BL', '100  NORTH BT', '100  NORTH ST', '100  NORTH STADIUM DR', '100  OGDEN DR', '100  OKLAHOMA ST', '100  RIVER RD', '100  S. STADIUM DR', '100  SECURITY LN', '100  SHADOWS BEND DR', '100  SHARP BL', '100  SHARP LN', '100  SHARP RD', '100  SHERWOOD FOREST BL', '100  SKIP BERTMAN', '100  SKIP BERTMAN DR', '100  SOUTH BL', '100  SOUTH I-110 HW', '100  SPANISH TOWN RD', '100  ST FERDINAND ST', '100  ST LOUIS ST', '100  ST VINCENT DE PAUL PL', '100  ST. CHARLES ST', '100  STANFORD AV', '100  STARING LN', '100  STEELE RD', '100  SUNSET BL', '100  TAFT ST', '100  TAYLOR ST', '100  THIRD ST', '100  THOMAS RD', '100  TOWER', '100  TOWER DR', '100  VAN BUREN ST', '100  VETA ST', '100  W POLK ST', '100  WEST I-10 HW', '100  WEST I-12 HW', '100  WESTMORELAND DR', '100  WOODDALE BL', '100 E AIRPORT DR', '100 E BOYD', '100 E BOYD AV', '100 E BOYD DR', '100 E BOYD HW', '100 E BOYD ST', '100 E BUCHANAN ST', '100 E CHIMES', '100 E CHIMES ST', '100 E FRATERNITY LN', '100 E GARFIELD ST', '100 E GRANT DR', '100 E GRANT ST', '100 E HARDING ST', '100 E HARRISON ST', '100 E I-10', '100 E I-10 HW', '100 E I-12', '100 E I-12 HW', '100 E I10', '100 E I10 HW', '100 E I10 ST', '100 E I12', '100 E JOHNSON ST', '100 E MCKINLEY ST', '100 E PARKER BL', '100 E POLK AV', '100 E POLK ST', '100 E RIVER OAKS DR', '100 E ROOSEVELT RD', '100 E ROOSEVELT ST', '100 E STATE ST', '100 E WASHINGTON ST', '100 N 10TH ST', '100 N 11TH ST', '100 N 12TH ST', '100 N 13TH ST', '100 N 14 ST', '100 N 14TH ST', '100 N 15TH ST', '100 N 17TH ST', '100 N 18TH ST', '100 N 19TH ST', '100 N 20TH ST', '100 N 21ST CT', '100 N 21ST ST', '100 N 22ND ST', '100 N 23 RD ST', '100 N 23RD ST', '100 N 25 ST', '100 N 25TH ST', '100 N 26TH ST', '100 N 27TH ST', '100 N 3RD ST', '100 N 4TH ST', '100 N 5TH ST', '100 N 6TH ST', '100 N 8 ST', '100 N 8TH ST', '100 N 9TH ST', '100 N ACADIAN ST', '100 N ACADIAN TH', '100 N ARDENWOD DR', '100 N ARDENWOOD DR', '100 N BAXTER ST', '100 N DONMOOR AV', '100 N DONMOOR DR', '100 N EUGENE ST', '100 N FOSTER DR', '100 N I-110', '100 N I110', '100 N LAFAYETTE ST', '100 N LOBDELL AV', '100 N LOBDELL BL', '100 N RIVER RD', '100 N RIVER ROAD', '100 N STADIUM', '100 N STADIUM DR', '100 N STADIUM RD', '100 N STEVENDALE AV', '100 N THIRD ST', '100 S 10TH ST', '100 S 11TH ST', '100 S 12TH ST', '100 S 13TH', '100 S 13TH ST RD', '100 S 14TH ST', '100 S 15TH ST', '100 S 16TH ST', '100 S 17TH', '100 S 18TH ST', '100 S 20TH ST', '100 S 21ST ST', '100 S 22ND ST', '100 S ACADIAN TH', '100 S ARDENWOOD DR', '100 S DONMOORE AV', '100 S EUGENE ST', '100 S FAIRFAX DR', '100 S FLANNERY DR', '100 S FLANNERY RD', '100 S FOSTER DR', '100 S I-110', '100 S I-110 HW', '100 S I110', '100 S I110 HW', '100 S RIVER  RD', '100 S RIVER RD', '100 S SHERWOOD FOREST BL', '100 S STADIUM', '100 S STADIUM DR', '100 S STADIUM RD', '100 S TOWER', '100 S TOWER DR', '100 S WOODDALE AV', '100 S WOODDALE BL', '100 W BUCHANAN ST', '100 W CHIMES', '100 W CHIMES ST', '100 W FRAT LN', '100 W GARFIELD ST', '100 W GRANT ST', '100 W HARDING BL', '100 W HARDING ST', '100 W HARRISON ST', '100 W I-10 AV', '100 W I-12', '100 W I10', '100 W I12', '100 W I12 HW', '100 W INTERSTATE 12 HW', '100 W JOHNSON', '100 W JOHNSON ST', '100 W LAKESHORE DR', '100 W LEE DR', '100 W LEE ST', '100 W MCKINLEY ST', '100 W PARKER', '100 W PARKER BL', '100 W PARKER RD', '100 W POLK ST', '100 W ROOSEVELT ST', '100 W STATE ST', '100 W WASHINGTON ST', '1000   BOB PETTIT BL', '1000   BOB PETTIT DR', '1000   PROGRESS ST', '1000  37TH ST', '1000  38TH ST', '1000  48TH ST', '1000  AIRLINE HW', '1000  ASTER ST', '1000  AVE B ST', '1000  BAIRD AV', '1000  BARANCO DR', '1000  BARANCO ST', '1000  BOB PETIT', '1000  BOB PETIT DR', '1000  BOB PETIT ST', '1000  BOB PETTIT AV', '1000  BOB PETTIT BL', '1000  BOB PETTIT DR', '1000  BOB PETTIT ST', '1000  BOB PETTITE AV', '1000  BOB PETTITE DR', '1000  BOB PRTTIT BL', '1000  BOB PTTTIT BL', '1000  BRIGHTSIDE', '1000  BRIGHTSIDE DR', '1000  BRIGHTSIDE LN', '1000  CAMELIA ST', '1000  CAPITOL ACCESS RD', '1000  CARDINAL ST', '1000  CENTRAL RD', '1000  CHARLES T SMITH DR', '1000  CHEVELLE DR', '1000  CHIPPEWA ST', '1000  CHOCTAW DR', '1000  COLUMBUS DUNN DR', '1000  COLUMBUS DUNN ST', '1000  CONVENTION ST', '1000  COURSEY BL', '1000  EAST BL', '1000  EAST I-10 HW', '1000  EUROPE ST', '1000  FIG ST', '1000  FLORIDA', '1000  FLORIDA BL', '1000  FLORIDA ST', '1000  FOREST OAK DR', '1000  GOVERNMENT', '1000  GOVERNMENT ST', '1000  HARDING BL', '1000  HASTINGS ST', '1000  HIGHLAND RD', '1000  I-10 EAST BL', '1000  I-110', '1000  IRIS ST', '1000  JENNIFER JEAN AV', '1000  JENNIFER JEAN DR', '1000  JENNIFER JEAN ST', '1000  JULIA ST', '1000  LAUREL AV', '1000  LAUREL ST', '1000  LEE DR', '1000  LEE DRIVE ST', '1000  LETTSWORTH ST', '1000  LOUISE ST', '1000  LOUISIANA AV', '1000  MAIN', '1000  MAIN ST', '1000  MARILYN BL', '1000  MARSH ST', '1000  MAXIMILLIAN ST', '1000  MCCLUNG ST', '1000  MONET DR', '1000  MONET ST', '1000  MYRTLE', '1000  MYRTLE ST', '1000  N 23 ST', '1000  N DONMOOR DR', '1000  N/B I-110 @ WELLER AVE', '1000  NICHOLSON', '1000  NICHOLSON DR', '1000  NICHOLSON ST', '1000  NORTH BL', '1000  NORTH I-110 HW', '1000  NORTH ST', '1000  OSPREY AV', '1000  OWL AV', '1000  OWL ST', '1000  PARK BL', '1000  PITTSBURG', '1000  PITTSBURG AV', '1000  PROGRESS RD', '1000  PROGRESS ST', '1000  RIVER RD', '1000  RODIN DR', '1000  ROSENWALD RD', '1000  SCENIC HW', '1000  SEYBURN DR', '1000  SHARP LN', '1000  SHARP RD', '1000  SHERWOOD FOREST BL', '1000  SIMMS ST', '1000  SOUTH BL', '1000  SOUTH I-110 HW', '1000  SPANISH TOWN RD', '1000  SPARROW ST', '1000  ST CHARLES ST', '1000  ST ROSE AV', '1000  STANFORD AV', '1000  STARING LN', '1000  SWAN AV', '1000  TERRACE', '1000  TERRACE ST', '1000  THOMAS H DELPIT DR', '1000  TOWNSLEY ST', '1000  VALCOUR DR', '1000  WAVERLY DR', '1000  WEST I-10 HW', '1000 E BOYD DR', '1000 E BUCHANAN ST', '1000 E HARRISON ST', '1000 E I-10', '1000 E I10', '1000 E I10 HW', '1000 E JOHNSON ST', '1000 E POLK ST', '1000 E WASHINGTON ST', '1000 N 19TH ST', '1000 N 20TH ST', '1000 N 222ND ST', '1000 N 22ND ST', '1000 N 23 ST', '1000 N 23RD ST', '1000 N 25TH ST', '1000 N 28 ST', '1000 N 28TH ST', '1000 N 29TH ST', '1000 N 30TH ST', '1000 N 32ND ST', '1000 N 35TH ST', '1000 N 36TH ST', '1000 N 37TH ST', '1000 N 38TH', '1000 N 38TH ST', '1000 N 39TH', '1000 N 39TH ST', '1000 N 40TH ST', '1000 N 44TH ST', '1000 N 46TH ST', '1000 N 47TH ST', '1000 N 48TH ST', '1000 N DONMOOR AV', '1000 N DONMOOR BL', '1000 N DONMOOR DR', '1000 N FOSTER DR', '1000 N I-110 HW', '1000 N I-110 OT', '1000 N I110 OT', '1000 N LITTLE JOHN DR', '1000 N SABINE DR', '1000 S 15TH', '1000 S 15TH ST', '1000 S 16TH ST', '1000 S ACADIAN TH', '1000 S FOSTER', '1000 S FOSTER DR', '1000 S FOSTER ST', '1000 S I 110', '1000 S I-110', '1000 S I-110 OT', '1000 S I110', '1000 S RIVER RD', '1000 S SHERWOOD FOREST BL', '1000 S TAMARI', '1000 W GARFIELD ST', '1000 W I - 10', '1000 W I 10', '1000 W I-10', '1000 W I-10 HW', '1000 W I-10 OT', '1000 W I10', '1000 W LEE DR', '1000 W MOUNT PLEASANT RD', '1000 W ROOSEVELT ST', '10000  AIRLINE', '10000  AIRLINE BL', '10000  AIRLINE HIGHWAY', '10000  AIRLINE HW', '10000  AVE A ST', '10000  AVE B AV', '10000  AVE F AV', '10000  AVE H', '10000  AVE. J ST', '10000  AVENUE B ST', '10000  AVENUE C ST', '10000  AVENUE D AV', '10000  AVENUE D ST', '10000  AVENUE E ST', '10000  AVENUE F ST', '10000  AVENUE G ST', '10000  AVENUE H ST', '10000  AVENUE I', '10000  AVENUE I ST', '10000  AVENUE J ST', '10000  AVENUE K ST', '10000  AVENUE L', '10000  AVENUE L ST', '10000  AVENUE M ST', '10000  BETA DR', '10000  CASHEL AV', '10000  CELTIC DR', '10000  CHOCTAW DR', '10000  COURSEY BL', '10000  DAVID DR', '10000  DAWNADALE AV', '10000  DAWNADELE AV', '10000  ELM GROVE GARDEN DR', '10000  FLORIDA BL', '10000  FLORIDA BOULEVARD', '10000  GOODWOOD BL', '10000  GWENADELE AV', '10000  HWY 19', '10000  HYACINTH', '10000  MERGANZER AV', '10000  MERGANZER ST', '10000  MOLLYLEA DR', '10000  OLD HAMMOND HW', '10000  RED OAK', '10000  RED OAK DR', '10000  SCENIC HW', '10000  SCOTLAND AV', '10000  TAMS', '10000  TAMS DR', '10000 E POMONA DR', '10000 N MAGNA CARTA AV', '10000 S CHOCTAW DR', '10000 S PERDUE DR', '10001  AIRLINE HW', '10001  AVENUE F ST', '10001  FLORIDA BL', '10002  AVE I ST', '10002  AVENUE I ST', '10002  BOOKERLINE AV', '10002  FLORIDA BL', '10002  GOODWOOD BL', '10003  AVENUE H ST', '10004  CHANADIA DR', '10004  MAGNA CARTA PL', '10005  AVENUE E ST', '10005  AVENUE H ST', '10006  AVENUE I ST', '10008  AVE K', '10008  AVE L', '10008  AVE L AV', '10008  AVE L ST', '10008  AVENUE I ST', '10008  AVENUE L', '10008  AVENUE L AV', '10008  AVENUE L ST', '10008  AVENUE M ST', '10008  L AV', '10009  AVE H ST', '10009  AVENUE H ST', '1001  31ST ST', '1001  ASTER ST', '1001  CAMELIA AV', '1001  CAMELLIA AV', '1001  CAMELLIA ST', '1001  COLUMBUS DUNN AV', '1001  CONVENTION ST', '1001  DREHR AV', '1001  FUQUA ST', '1001  N.23RD ST', '1001  NORTH BL', '1001  PARK BL', '1001  PROGRESS ST', '1001  SCENIC HW', '1001 N 22ND ST', '1001 N 23 ST', '1001 N 23RD', '1001 N 23RD ST', '1001 N 29TH ST', '1001 N 31ST', '1001 N 31ST ST', '10010  AVENUE F ST', '10010  COURSEY BL', '10010  DAVID DR', '10010  KAREN DR', '10010  SOMBRERO AV', '10010 N MAGNA CARTA PL', '10012  AVE H AV', '10012  EL CAMINO AV', '10012 N MAGNA CARTA BL', '10013  EL CAMINO AV', '10013  MAMMOTH AV', '10019 S PERDUE AV', '1002  BROMLEY DR', '1002  JULIA ST', '1002  PARKER ST', '1002  TIMBERSIDE DR', '1002 N 31ST ST', '1002 S 16TH ST', '10020  A AV', '10020  AVE E ST', '10020  AVE H ST', '10020  AVENUE H ST', '10020  FLORIDA BL', '10020  GAMMA DR', '10020  MAMMOTH AV', '10021  ALPHA DR', '10021  CUYHANGA ST', '10021 W TAMS DR', '10022  CUYHANGA PK', '10022  FLORIDA', '10022 E TAMPA DR', '10022 N MAGNA CARTA PL', '10023  FLORIDA BL', '10023  MAMMOTH AV', '10024  AVENUE B ST', '10024 N PARKVIEW DR', '10025  AVE H', '10025  AVE H AV', '10025  AVENUE H ST', '10025  AVENUE I ST', '10025  EL CAMINO AV', '10027  BOOKERLINE DR', '10027  CAROLINA ST', '10027 E POMONA DR', '10027 W DARRYL PK', '1003  AVE L ST', '1003  BOB PETIT', '1003  BOB PETIT BL', '1003  BOB PETIT DR', '1003  BOB PETITE ST', '1003  BOB PETTIE', '1003  BOB PETTIT', '1003  BOB PETTIT AV', '1003  BOB PETTIT BL', '1003  BOB PETTIT DR', '1003  RITTNER DR', '1003 N 30TH ST', '1003 N 32ND ST', '10030  DAVID DR', '10030  KAREN DR', '10030 E POMONA DR', '10031  RHINE AV', '10032  AVE I', '10032  AVE I AV', '10032  AVE I ST', '10032  AVENUE H ST', '10032  AVENUE I', '10032  AVENUE I ST', '10032  KENLEE DR', '10033  AVE J ST', '10033  AVENUE J ST', '10033 E POMONA DR', '10034  AVE B AV', '10034  AVENUE E ST', '10034  CUYHANGA PK', '10035  GREAT SMOKEY AV', '10036  AVENUE H ST', '10037  AVE H', '10037  AVE H AV', '10037  AVENUE D ST', '10037  AVENUE H', '10037  AVENUE H AV', '10037  AVENUE H ST', '10038  AVE K AV', '10038  AVE K ST', '10038  AVENUE K AV', '10038  AVENUE K ST', '10038  BOOKERLINE AV', '10038  FLORIDA BL', '10038  KINGLET DR', '10038 S CHOCTAW', '10039  BOOKERLINE AV', '10039  FLORIDA BL', '1004  CHANADIA DR', '1004  COTTON ST', '1004  DEAN LEE DR', '1004  JULIA ST', '1004  PATRICIA ST', '1004  RITTINER DR', '1004 N 30TH ST', '1004 N 32ND ST', '1004 N 35TH ST', '1004 N 47TH ST', '10040 S CHOCTAW DR', '10041  AVE J AV', '10041  AVENUE J ST', '10041  FLORIDA BL', '10041  RHINE AV', '10042  BETA DR', '10043  MAMMOTH AV', '10043  MAMMOTH DR', '10043  SUNNY CLINE DR', '10043 E CORONADO DR', '10044  ALPHA DR', '10044  AVENUE A ST', '10044  AVENUE I ST', '10044 W TAMS DR', '10045  AVENUE G AV', '10045  AVENUE G ST', '10045  FLORIDA', '10045  FLORIDA BL', '10045  GWENADALE', '10045  GWENADALE AV', '10045  GWENADALE DR', '10045  GWENADELE', '10045  GWENADELE AV', '10045  GWENADELE DR', '10045  GWENADELLE', '10045  GWENADELLE DR', '10045  GWENEDALE AV', '10045  GWENEDALE DR', '10046 E POMONA DR', '10047  CHANADIA DR', '10047  FLORIDA BL', '10049  AVE H ST', '10049  EL CAMINO AV', '10049  FLORIDA BL', '10049 S PERDUE AV', '1005  ARCADIA DR', '1005  CHOCTAW DR', '1005  OSPREY AV', '1005  PROGRESS RD', '1005  PROGRESS ST', '1005  RITTNER DR', '1005 E POLK ST', '1005 N 30TH ST', '1005 N 32ND ST', '1005 N 39TH ST', '10050  ELM GROVE GARDEN DR', '10050  GREAT SMOKEY AV', '10050  HYACINTH AV', '10051  FLORIDA BL', '10053  BETA DR', '10055  AVENUE F', '10055  AVENUE F ST', '10055  DAVID DR', '10058  AVE K', '10058  AVE K ST', '10058  AVENUE K AV', '10058  AVENUE K ST', '10058 S CHOCTAW', '10058 S CHOCTAW DR', '10059  AVENUE M ST', '1006  CAMELIA AV', '1006  WAVERLY DR', '1006 N 46TH ST', '1006 S 16TH ST', '10060  DAVID DR', '10060  FLORIDA BL', '10064  ELM GROVE GARDEN', '10064  ELM GROVE GARDEN DR', '10064  ELM GROVE GARDEN ST', '10064  ELMGROVE ST', '10064  RED OAK  DR', '10064  RED OAK DR', '10065  AVENUE G ST', '10065  OLD HAMMOND HW', '10065 W TAMS BL', '10066 E CORONADO DR', '10066 S CHOCTAW DR', '10066 W TAMS', '10066 W TAMS DR', '10067  AVENUE E ST', '10067  EL CAMINO AV', '10067  ELM GROVE GARDEN DR', '10067 W TAMS DR', '10068  GREAT SMOKEY AV', '10068  GREENWELL SPRINGS RD', '10069  AVENUE A ST', '1007  KENILWORTH PK', '1007  PARK BL', '1007  PROGRESS ST', '1007 E JOHNSON ST', '1007 N 32ND ST', '1007 N 47TH ST', '10070  AVE K ST', '10070  AVENUE D AV', '10070  FLORIDA BL', '10073  AVENUE A ST', '10073  MAMMOTH AV', '10074 S CHOCTAW HW', '10075  AVE J', '10075  AVE J AV', '10075  AVENUE J AV', '10075  AVENUE J ST', '10076  BOWMAN AV', '10076  BOWMAN ST', '10077  AVE D AV', '10077  AVENUE D ST', '10078 S CHOCTAW DR', '1008  AVE L ST', '1008  CAMELIA AV', '1008  CAMELLIA AV', '1008  WINDINGWAY DR', '10080  AVENUE F DR', '10080  KAREN DR', '10081  AVENUE F ST', '10081  RUNNYMEDE AV', '10082  FLORIDA BL', '10082 E POMONA DR', '10083  OLD HAMMOND HW', '10083 W DARRYL PK', '10084  AVENUE K ST', '10084  GREAT SMOKEY AV', '10085  AVENUE E ST', '10085  GREAT SMOKEY AV', '10085  GREAT SMOKEY DR', '10086  CUYHANGA PK', '10086  FLORIDA BL', '10087  ALPHA DR', '10087  AVENUE B ST', '10087  BETA DR', '10088  AVE G ST', '10088  AVENUE G', '10088  AVENUE G ST', '10088  GAMMA DR', '1009 N 32ND ST', '10090  BIG BEND AV', '10090  FLORIDA', '10090  FLORIDA BL', '10091  AVE B AV', '10091  AVENUE B ST', '10092  AVENUE M ST', '10094  AVENUE B ST', '10095  AVE A ST', '10095  AVE.  A', '10095  AVENUE A ST', '10097  AVE L', '10097  AVE L AV', '10097  AVENUE L AV', '10097  AVENUE L ST', '101  BEVERLY DR', '101  FLORIDA ST', '101  FRANCE ST', '101  GOVERNMENT ST', '101  NORTH BL', '101  NORTH ST', '101  ST FERDINAND ST', '101 S FOSTER DR', '101 W STATE ST', '1010  BAYBERRY ST', '1010  BOB PETTIT BL', '1010  FLORIDA ST', '1010  JULIA ST', '1010  SPANISH TOWN RD', '1010 S ACADIAN TH', '10100  AVE C AV', '10100  AVE E AV', '10100  AVENUE H ST', '10100  AVENUE I', '10100  AVENUE I AV', '10100  AVENUE I ST', '10100  AVENUE J', '10100  AVENUE K ST', '10100  AVENUE M ST', '10100  BLACK OAK DR', '10100  COURSEY BL', '10100  DARADELL AV', '10100  DARRYL DR', '10100  DAVID DR', '10100  FLETCHER WILLIAMS DR', '10100  FLETCHER WILLIAMS RD', '10100  FLORIDA BL', '10100  GOODWOOD', '10100  GOODWOOD AV', '10100  GOODWOOD BL', '10100  GREENWELL SPRINGS RD', '10100  HYACINTH AV', '10100  JANICE ST', '10100  MERGANZER AV', '10100  MOLLYLEA DR', '10100  OLD HAMMOND HW', '10100  SUNNY CLINE DR', '10100 N HARVEY DR', '10100 S CHOCTAW DR', '10101  COURSEY BL', '10101  RUNNYMEDE AV', '10101  SEIGAN LN', '10106  AMBROSE CT', '10106  AVE. I', '10106  AVENUE I ST', '10107  AVE F AV', '10107  AVENUE F ST', '10108  AVENUE G ST', '10108  AVENUE K ST', '10108  G AV', '10109  AVENUE B AV', '10109  AVENUE B ST', '10109  AVENUE J ST', '10109  AVENUE M ST', '1011  ELIZABETH DR', '1011  MARWEDE AV', '1011 N 32ND ST', '1011 N 46TH ST', '1011 N BON MARCHE', '1011 N BON MARCHE DR', '1011 W ROOSEVELT ST', '10110  AVENUE F ST', '10110  COURSEY BL', '10111  AVENUE J AV', '10111  AVENUE J ST', '10111  FLORIDA BL', '10111  GWENADALE AV', '10111  GWENADELE', '10111  GWENADELE AV', '10111  GWENADELLE DR', "10111  KNIGHT'S BRIDGE CT", '10113  AVENUE I ST', '10113  MOLLYLEA DR', '10114  MOLLYLEA DR', '10114 S RIVER OAKS DR', '10115  AVEJ ST', '10115  AVENUE J ST', '10115  BALLINA AV', '10115  MERGANZER AV', '10116  MERGANZER AV', '10116 N MAGNA CARTA PL', '1012  PROGRESS ST', '1012  TIMBERSIDE DR', '1012  WESTMORELAND DR', '1012 N 48TH ST', '1012 S ACADIAN TH', '10120  AVE I', '10120  AVENUE I ST', '10120  AVENUE J ST', '10120  AVENUE L ST', '10120  BOWMAN AV', '10120  DARADELE AV', '10120  FLORIDA BL', '10120  RED OAK DR', '10120  WHITE OAK', '10120  WHITE OAK DR', '10121  CHANADIA DR', '10122  AVE C ST', '10122  AVENUE C ST', '10122  AVENUE F', '10122  AVENUE F AV', '10122  AVENUE F ST', '10122  KNIGHTS BRIDGE CT', '10122  MAMMOTH AV', '10122 N MAGNA CARTA PL', '10123  AVE F', '10123  AVE F AV', '10123  AVEENUE F ST', '10123  AVENUE E ST', '10123  AVENUE F', '10123  AVENUE F ST', '10123  BLACK OAK DR', '10123  GRANDEAUR DR', '10123  GRANDEUR DR', '10124  CLETUS DR', '10124  RHAPSODY', '10125  AVE C ST', '10125  BALLINA AV', '10125  BOWMAN AV', '10125  DARRYL DR', '10125  GOODWOOD BL', '10125  MAMMOTH AV', '10125  MOLLYLEA DR', '10125  RUNNYMEDE AV', '10126  AVENUE I ST', '10126  GERANDEUR DR', '10127  CASHEL AV', '10127  FLORIDA BL', '10127  RUNNYMEDE AV', '10128  FLORIDA BL', '10129  AVENUE H ST', '1013  BECKENHAM DR', '1013  BOB PETIT BL', '1013  GRANDEUR DR', '1013 N 44TH ST', '10130  AVE J AV', '10130  AVE J ST', '10130  AVENUE J AV', '10130  AVENUE J ST', '10130  BOWMAN AV', '10130  COURSEY', '10130  COURSEY BL', '10130  GREENWELL SPRINGS RD', '10130  RUNNYMEDE AV', '10131  GRANDEUR DR', '10131  GRANDUER DR', '10131  KNIGHTS BRIDGE CT', '10132  AVENUE H AV', '10132  AVENUE H ST', '10133  BOWMAN AV', '10134  AVE I ST', '10134  AVENUE I ST', '10134  DARRYL DR', '10134  FLORIDA BL', '10134 W DARRYL PK', '10135  AVENUE G ST', '10135  BALLINA AV', '10135  MOLLYLEA DR', '10135 S RIVER OAKS DR', '10136  FLORIDA BL', '10136  MOLLYLEA DR', '10139  AIRLINE HW', '1014  FOX LANE DR', '1014  FOXLANE DR', '1014  PROGRESS', '1014  PROGRESS ST', '1014  SENETTE ST', '1014  SPARROW ST', '1014  TARA BL', '1014  WINDINGWAY DR', '1014 S 18TH ST', '10140  JANICE ST', '10140  WHITE OAK DR', '10142  MOLLYLEA DR', '10143  GRANDEUR DR', '10144  AVE M AV', '10144  AVENUE M ST', '10144  GERALD DR', '10145  AVENUE E ST', '10145  BALLINA', '10145  BALLINA AV', '10145  DARRYL DR', '10145  FLORIDA BL', '10145  MAMMOTH AV', '10145  RED OAK DR', '10148  AVE J AV', '10148  AVENUE J ST', '10148  AVENUE K ST', '10148  GREENWELL SPRINGS RD', '10148 N HARVEY DR', '10149  AVE G', '10149  AVENUE G ST', '1015  BAYBERRY AV', '1015  COLUMBUS DUNN DR', '1015  OSPREY AV', '1015  RICHLAND AV', '1015  SEYBURN DR', '1015 E POLK ST', '1015 W LEE DR', '10150  AIRLINE DR', '10150  AIRLINE HW', '10152  PLAZA AMERICANA DR', '10154  BOWMAN AV', '10154  BOWMAN ST', '10154 S CHOCTAW DR', '10155  AMBROSE CT', '10155  AVE E ST', '10155  BLACK OAK DR', '10155  GOODWOOD BL', '10155  MAMMOTH AV', '10155  TAMS DR', '10155  TAMS ST', '10157  CASHEL AV', '1016  COLUMBUS DUNN DR', '1016 W GARFIELD ST', '10160  AIRLINE HW', '10160  BAYNARD ST', '10160  BIG BEND AV', '10160  DARRYL DR', '10164  DEVONSHIRE DR', '10164  RHAPSODY DR', '10165  BLACK OAK DR', '10165  DARRYL DR', '10165  GERALD DR', '10168  AVENUE K AV', '10168  AVENUE M ST', '1017  SILVERWOOD DR', '1017 E POLK ST', '10172  AVE M ST', '10172  MAMMOTH AV', '10172  PATRIOT DR', '10174  AIRLINE HW', '10174  AVENUE F ST', '10175  AVENUE D ST', '10175  MAMMOTH AV', '10178  AVENUE H ST', '10179  AVE H ST', '1018  BOB PETIT BL', '1018  GREBE ST', '1018  TRAMMEL DR', '10180  PARKVIEW DR', '10185  FLORIDA BL', '10186 S CHOCTAW DR', '10188  AVE E', '10188  AVENUE E ST', '10188  FLORIDA BL', '10188  HYACINTH AV', '1019  CRESCENT DR', '1019  OSPREY AV', '1019  OSPREY ST', '1019 W GARFIELD ST', '10196  TWIN CEDARS', '10196  TWIN CEDARS ST', '10197  AVENUE H ST', '10198  AVENUE D ST', '10198  AVENUE F ST', '102   FRANCE ST', '102  FRANCE', '102  FRANCE ST', '102  MAYFLOWER ST', '102 S ACADIAN', '102 S ACADIAN TH', '1020  ABERDEEN AV', '1020  ARCADIA DR', '1020  MAIN ST', '1020  MALBROOK DR', '1020  MARLBROOK DR', '1020  MARSH ST', '1020 N 46TH ST', '1020 N 48TH ST', '1020 N ARDENWOOD DR', '1020 S FOSTER DR', '1020 S TINLEY DR', '10200  AIRLINE', '10200  AIRLINE HW', '10200  ALMOND ST', '10200  AVE D', '10200  AVE E ST', '10200  AVE J ST', '10200  AVENUE C ST', '10200  AVENUE D ST', '10200  AVENUE E', '10200  AVENUE E ST', '10200  AVENUE F AV', '10200  AVENUE H ST', '10200  AVENUE J ST', '10200  AVENUE L ST', '10200  BARBARA ST', '10200  CLETUS DR', '10200  COURSEY BL', '10200  DARRYL DR', '10200  ELAIN DR', '10200  FLETCHER WILLIAMS DR', '10200  FLETCHER WILLIAMS RD', '10200  GREENWELL SPRINGS RD', '10200  HWY 19 HW', '10200  JANICE ST', '10200  MERGANZER AV', '10200  MOLLYLEA DR', '10200  OLD HAMMOND HW', '10200  SCENIC HW', '10200  SCOTLAND AV', '10200  VETERANS MEMORIAL', '10200 N HARVEY DR', '10200 S CHOCTAW', '10201  AVE C', '10201  AVE K ST', '10201  AVENUE B ST', '10201  AVENUE C ST', '10201  AVENUE L ST', '10201  CASHEL DR', '10201  FLORIDA BL', '10201 E POMONA DR', '10203  BALLINA AV', '10204  AVENUE J ST', '10207  AVE J ST', '10207  AVENUE J ST', '10207  MAMMOTH AV', '10209  AVE M', '10209  AVE M AV', '10209  AVE M ST', '10209  AVENUE M', '10209  AVENUE M ST', '1021  BRAEBURN DR', '1021  OAKLEY DR', '1021  SHERWOOD FOREST BL', '1021  WOODHILL DR', '1021 N 36TH ST', '1021 N 37TH ST', '1021 N 44TH ST', '1021 S 15TH ST', '1021 W ROOSEVELT ST', '10210  AVE K', '10210  AVE K ST', '10210  AVE L', '10210  AVE L AV', '10210  AVE L ST', '10210  AVE. L ST', '10210  AVENUE K ST', '10210  AVENUE L', '10210  AVENUE L AV', '10210  AVENUE L ST', '10210  CANADA ST', '10210  L AV', '10212  AVENUE H ST', '10212  RHAPSODY DR', '10213  AVENUE G ST', '10213  BALLINA AV', '10213  BALLINA CT', '10215  RUNNYMEDE AV', '10216  AVENUE I ST', '10217  AVENUE I ST', '10217 N HARVEY DR', '10218  AVENUE I ST', '10219  CASHEL AV', '1022  BAIRD DR', '1022  PROGRESS ST', '1022  RODNEY DR', '1022  STEELE BL', '1022  SWAN AV', '1022  TIMBER SIDE', '1022  WODDALE BL', '1022  WOODDALE BL', '1022 S FOSTER DR', '10220  AV A AV', '10220  AVE J ST', '10220  AVENUE J ST', '10220  CANADA ST', '10220  FLORIDA BL', '10220  JANICE ST', '10221  ALMOND ST', '10221  PATRIOT DR', '10222 S PERDUE AV', '10223  BALLINA', '10223  CASHEL AV', '10224  AVE G AV', '10224  BARBARA ST', '10224  BLACK OAK DR', '10224  DARRYL DR', '10224  FLORIDA', '10224  FLORIDA BL', '10224  FLORIDA RD', '10224  GERALD DR', '10225  AVENUE H ST', '10225  DARRYL DR', '10225  FLORIDA BL', '10225  GERALD DR', '10225 W DARRYL DR', '10226  FLORIDA BL', '10227  CASHEL AV', '10228  FLORIDA BL', '10229  AVENUE L ST', '1023  ELM GROVE GARDEN DR', '1023  LAUREL ST', '1023  PARK BL', '1023  TIMBERSIDE', '1023  WOODSTONE DR', '1023  WOODVINE DR', '1023 N LOBDELL', '1023 N LOBDELL BL', '10230  MOLLYLEA DR', '10231  CASHEL AV', '10233  BALLINA AV', '10233  MOLLYLEA DR', '10234  FLORIDA BL', '10235  AVENUE J ST', '10235  BARBARA ST', '10235  BROWNING DR', '10236  AVE H AV', '10236  AVE H ST', '10236  AVE K AV', '10236  AVENUE H ST', '10236  AVENUE K ST', '10238  CANADA ST', '10238  TWIN CEDARS ST', '10239  CASHEL AV', '1024  EXECUTIVE PARK AV', '1024  FOXLANE DR', '1024  MAGNOLIA WOOD AV', '1024  MONET DR', '1024  PROGRESS RD', '1024  PROGRESS ST', '1024 N 28TH ST', '1024 N FOSTER DR', '1024 W GARFIELD ST', '1024 W ROOSEVELT ST', '10240  AVE E ST', '10240  AVE J ST', '10240  BARBARA ST', '10240  JANICE ST', '10241  AVENUE M ST', '10241  CASHEL AV', '10241  COURSEY BL', '10241 N HARVEY DR', '10243  BALLINA AV', '10244  FLORIDA BL', '10245  AIRLIINE HW', '10245  AIRLINE HW', '10245  AVE E ST', '10245  AVENUE B ST', '10245  AVENUE L ST', '10245  BLACK OAK DR', '10245  DARADELLE', '10245  GERALD DR', '10245  SUNNY CLINE DR', '10247  AVENUE D ST', '10247  MAMMOTH AV', '10247  MAMMOTH DR', '10248  BIG BEND AV', '10248  FLORIDA BL', '10249  CASHEL AV', '1025  AUDUBON DR', '1025  AUDUBON ST', '1025  CORA DR', '1025  EXECUTIVE PARK AV', '1025  GLENMORE AV', '1025  HIGHLAND PARK DR', '1025  LAUREL ST', '1025  LOUISIANA AV', '1025  LOUISIANA ST', '1025  MAGNOLIA WOOD AV', '1025  MAGNOLIA WOODS DR', '1025  MARILYN DR', '1025  PROGRESS RD', '1025  PROGRESS ST', '1025  RICHLAND AV', '1025  SEYBURN DR', '1025  TARA BL', '1025  WYLIE DR', '1025 N 30TH ST', '1025 N 31 ST', '1025 N 31ST ST', '1025 S ALAMEDA DR', '1025 W GARFIELD ST', '10250  AIRLINE HW', '10250  AVENUE G ST', '10250  GOODWOOD BL', '10250  PLAZA AMERICANA', '10250  PLAZA AMERICANA DR', '10250  PLAZA AMERICANO DR', '10251  AVE E AV', '10251  AVENUE E AV', '10251  AVENUE E ST', '10252  AVE H ST', '10252  FLORIDA BL', '10254  GERALD DR', '10254  TWIN CEDARS ST', '10255  AVENUE G ST', '10255  MOLLYLEA DR', '10256  AVENUE F ST', '10256 S CHOCTAW DR', '10259  AIRLINE HW', '10259  RED OAK DR', '1026 E RIVER OAKS', '1026 E WASHINGTON AV', '1026 E WASHINGTON ST', '1026 N CARROLLTON AV', '10261  TWIN CEDARS ST', '10264  CLETUS DR', '10265  AV', '10265  AVE E', '10265  AVE E AV', '10265  AVE E HW', '10265  AVENUE E', '10265  AVENUE E ST', '10266 S CHOCTAW DR', '10268  AVENUE M ST', '10269  AIRLINE HW', '1027  ROUNDHILL DR', '1027 N 36TH ST', '1027 N 46TH ST', '1027 S TAMARI', '1027 W LEE DR', '10270  AIRLINE HW', '10271 N HARVEY DR', '10274  NEWCASTLE AV', '10275  AVE I AV', '10275  TAMS DR', '10276  AVENUE I ST', '10276  FLEMING ST', '10276  TAMS DR', '10276 S HAMPTON ST', '10278  GOODWOOD BL', '10278  TWIN CEDARS ST', '1028  CAMELIA AV', '1028  CAMELLIA AV', '1028 N 46TH ST', '1028 N SABINE DR', '10280  AVE I AV', '10280  AVENUE F ST', '10280  AVENUE I AV', '10280  AVENUE I ST', '10280  BROWNING DR', '10280  JANICE ST', '10288  JANICE ST', '10288  WHITE OAK DR', '10289  AIRLINE HW', '10289  PARKVIEW DR', '1029  BROMLEY DR', '1029 N 47TH ST', '1029 N SABINE DR', '10294  AVE D', '10294  AVENUE D', '10294  AVENUE D ST', '10296 S CHOCTAW DR', '103   FRANCE ST', '103  3RD ST', '103  BOB PETTIT AV', '103  FM 1571 OLD MILL ST', '103  FRANCE', '103  FRANCE ST', '103  MAYFLOWER DR', '1030  BALSAM AV', '1030  CENTRAL RD', '1030  OAKLEY DR', '1030  PARK BL', '1030 S EUGENE ST', '10300  AIRLINE HW', '10300  AVE G', '10300  AVE J ST', '10300  AVENUE E ST', '10300  AVENUE J ST', '10300  COURSEY BL', '10300  ELM GROVE GARDEN DR', '10300  GOODWOOD BL', '10300  LA HWY 61 (SCENIC)', '10300  MOLLYLEA DR', '10300  OLD HAMMOND HW', '10300  PARKVIEW DR', '10300  SCOTLAND AV', '10300 S CHOCTAW DR', '10300 S GIBBENS DR', '10301  COURSEY BL', '10305  AIRLINE HW', '10307 N MALL DR', '10309  MAMMOTH AV', '1031  COLUMBUS DUNN', '1031  COLUMBUS DUNN DR', '1031  KEED AV', '1031  SEYBURN DR', '1031  WOODHILL DR', '1031 N 47TH ST', '1031 S 16TH ST', '1031 W LEE DR', '10310  ELM GROVE GARDEN DR', '10311  PLAZA AMERICANA', '10311  PLAZA AMERICANA BL', '10311  PLAZA AMERICANA DR', '10311 S RIVER OAKS DR', '10313  AIRLINE HW', '10315  WHITE OAK DR', '10315 S PERDUE AV', '10315 S PURDUE DR', '10319  MAMMOTH AV', '10319  OLD HAMMOND HW', '10319  ZERLEE ST', '10319 N HARVEY DR', '1032  CENTRAL RD', '1032  COLUMBUS DUNN', '1032  TIMBERSIDE DR', '1032  TIMBERSIDE ST', '1032 N 30TH ST', '1032 N 46TH ST', '1032 S ACADIAN TH', '10320  BIRCHWOOD DR', '10320  MOLLYLEA DR', '10321  AIRLINE HW', '10322  CEDAR LN', '10322  CEDARLANE DR', '10322  CLETUS DR', '10322  LEBANON ST', '10322  TAMS DR', '10323 S RIVER OAKS DR', '10324  WHITE OAK DR', '10325  DARRYL DR', '10327  GREENWELLSPRINGS RD', '10328  AVENUE G ST', '10328  CINQUEFOIL AV', '10328  GOODWOOD BL', '10329  CINQUEFOIL AV', '1033  FLORA LN', '1033  LEYCESTER DR', '1033  OSPREY AV', '1033  SWAN AV', '1033  SWAN ST', '1033 N LEIGHTON DR', '10330  AIRLINE', '10330  AIRLINE HW', '10330  COURSEY BL', '10330  FLORIDA', '10330  FLORIDA BL', '10331  AIRLINE HW', '10331 W ALMOND DR', '10331 W ALMOND ST', '10332  AIRLINE HW', '10332  PLAZA AMERICANA', '10332  PLAZA AMERICANA DR', '10333  AIRLINE HW', '10333  AVE K AV', '10333  PATRICIA DR', '10333 N HARVEY DR', '10334  CANADA ST', '10334  CANDA ST', '10334  CEDARLANE DR', '10334  LEBANON ST', '10334 S CHOCTAW DR', '10335  AIRLINE HW', '10335  AVE C AV', '10335  BROWNING DR', '10335  LEBANON', '10335 W DARRYL DR', '10336  BIG BEND AV', '10337  ELM GROVE GARDEN DR', '10338  MAMMOTH AV', '10338  NELWYN DR', '10339  MAMMOTH AV', '10339  MAMMOTH DR', '1034  COLUMBUS DUNN DR', '1034  FOXLANE DR', '1034  LEYCESTER DR', '1034  MAGNOLIA WOOD AV', '1034 N DONMOOR AV', '10340  BIRCHWOOD ST', '10340  CELTIC DR', '10340  WHITE OAK DR', '10341 W ALMOND DR', '10341 W ALMOND ST', '10342  GERALD DR', '10344  BLACK OAK DR', '10344  CINQUEFOIL AV', '10344  OLD HAMMOND HW', '10344  RED OAK DR', '10344  REDOAK DR', '10345  BARBARA ST', '10345  CYPRUS CEDAR DR', '10345  DARRYL DR', '10345  PATRICIA DR', '10345  RED OAK DR', '10345 S RIVEROAKS DR', '10346  PATRICIA DR', '10346  RHAPSODY DR', '10348  CYPRUS CEDAR ST', '1035  ARCADIA DR', '1035  BAYBERRY AV', '1035  CARDINAL ST', '1035  EXECUTIVE PARK AV', '1035  RITTNER DR', '1035  ROSEDALE ST', '1035  SAVANNA VIEW DR', '1035  WYLIE DR', '1035 N 35TH ST', '1035 N 48TH ST', '10350  FLORIDA BL', '10350  HWY 19', '10350  REIGER RD', '10350  SCOTLAND AV', '10351  PLAZA AMERICANA DR', '10352  GERALD DR', '10354  BRONZEBUSH AV', '10354  CYPRUS CEDAR ST', '10354  DARRYL DR', '10354  OLD HAMMOND HW', '10354 N HARVEY DR', '10355  AVE C ST', '10355  CEDARLANE DR', '10355  CYPRUS CEDAR ST', '10355  PARKVIEW DR', '10355  TAMS', '10355  TAMS DR', '10357  LEBANON ST', '10357  OLD HAMMOND HW', '10358  CEDARLANE DR', '1036  BARANCO ST', '1036  CHIPPENHAM DR', '1036  LANDWOOD DR', '1036 N 31ST ST', '1036 N 36TH ST', '1036 N CARROLLTON AV', '1036 W GARFIELD ST', '10360  AVE C DR', '10360  AVENUE H ST', '10360  AVENUE I ST', '10361  CINQUEFOIL AV', '10362  AVENUE D ST', '10362  BRONZEBUSH AV', '10362  GREENWELL SPRINGS RD', '10363  GERALD DR', '10364  DARRYL DR', '10364  OLD HAMMOND HW', '10364 S PERDUE AV', '10365  AVENUE C ST', '10365  CATHERINE ST', '10365  CLETUS DR', '10365  DARRYL', '10365 S PERDUE AV', '10365 S PERDUE DR', '10366  BROWNING DR', '10366  CLETUS DR', '10366  FIRELIGHT AV', '10367  RED OAK DR', '10368  AVENUE F ST', '10369  PATRICIA DR', '1037  CASTLE KIRK DR', '1037  LAUREL ST', '1037  MAIN ST', '1037  RITTINER DR', '1037  RITTNER DR', '1037 N 36TH ST', '10372  BLACK OAK DR', '10374 N HARVEY DR', '10375  AVENUE C ST', '10379  MAMMOTH AV', '1038  RICHLAND AV', '1038 N 44TH ST', '10383  GREENWELL SPRINGS RD', '10384  ELM GROVE GARDEN DR', '10384 S CHOCTAW', '10384 S CHOCTAW DR', '10386  CINQUEFOIL AV', '10386  ELM GROVE GARDEN', '10386  ELM GROVE GARDEN DR', '1</t>
+      <c r="X9" t="n">
+        <v>4415297</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>54057</v>
+      </c>
+      <c r="Z9" t="inlineStr">
+        <is>
+          <t>['(Null)', '1   DALRYMPLE', '1  DAIRYMPLE DR', '1  DAIRYMPLE ST', '1  DALRYMPLE', '1  DALRYMPLE DR', '1  DARLYMPLE DR', '1  DARYMPLE', '1  RUE SORBONNE', '1  RUE SORBONNE ST', '1 S AMITE DR', '1 W FRATERNITY DR', '1 W LAKESHORE DR', '10   DALRYMPLE DR', '10  DALRYMPLE DR', '10  GOVERNMENT ST', '10  RUE TOULOUSE ST', '100   LEE', '100   RIVER RD', '100   SHARP RD', '100   SKIP BERTMAN DR', '100   STANFORD AV', '100   TAFT', '100   TOWER', '100   TOWER DR', '100  12TH ST', '100  22ND AV', '100  3RD ST', '100  AMHERST AV', '100  APARTMENT COURT DR', '100  ASTER ST', '100  BEDFORD ST', '100  BELLEWOOD DR', '100  BOB PETIT BL', '100  BRICE ST', '100  BROADMOOR AV', '100  CAMPUS LAKE RD', '100  CHATSWORTH ST', '100  CHOCTAW DR', '100  CLOUD DR', '100  COMMUNITY COLLEGE DR', '100  CONVENTION', '100  CONVENTION ST', '100  COURSEY BL', '100  CYPRESS DR', '100  DALRYMPLE', '100  DALRYMPLE DR', '100  DARYMPLE', '100  DELPHINE ST', '100  DOROTHY DIX DR', '100  E BOYD ST', '100  EAST BL', '100  EAST BOYD ST', '100  EAST DR', '100  EAST I-10 HW', '100  EAST I-12', '100  EAST I-12 HW', '100  EDDIE ROBINSON', '100  EDDIE ROBINSON DR', '100  EDDIE ROBINSON SR DR', '100  ELLWOOD ST', '100  ELMER AV', '100  ELTON C HARRISON DR', '100  EVERGREEN DR', '100  EVERGREEN ST', '100  FIELD HOUSE DR', '100  FLORIDA', '100  FLORIDA BL', '100  FLORIDA ST', '100  FRANCE ST', '100  G LEON NETTERVILLE DR', '100  GARDERE LN', '100  GOTTLIEB ST', '100  GOVERNMENT ST', '100  GRETA ST', '100  HAZEL ST', '100  HEARTHSTONE AV', '100  HEATHERWOOD DR', '100  HELEN BARRON ST', '100  HENRY E COBB ST', '100  HOLMES DR', '100  I-10', '100  I-110 HW', '100  JASMINE BL', '100  JENNIFER JEAN AV', '100  JULIA ST', '100  KENILWORTH DR', '100  KENILWORTH PK', '100  LAFAYETTE ST', '100  LAFEYETTE ST', '100  LAUREL', '100  LAUREL ST', '100  LEE', '100  LEE DR', '100  LITTLE JOHN DR', '100  LOBDELL AV', '100  LONGBOW DR', '100  LOUISE ST', '100  LSU AV', '100  MAIN ST', '100  MAXIMILIAN ST', '100  MAXIMILLIAN ST', '100  MAYFLOWER', '100  MAYFLOWER ST', '100  MCDONALD DR', '100  MCGEHEE DR', '100  N 4TH ST', '100  N. 21ST ST', '100  N3RD', '100  NAPOLEON ST', '100  NORTH BL', '100  NORTH BT', '100  NORTH ST', '100  NORTH STADIUM DR', '100  OGDEN DR', '100  OKLAHOMA ST', '100  RIVER RD', '100  S. STADIUM DR', '100  SECURITY LN', '100  SHADOWS BEND DR', '100  SHARP BL', '100  SHARP LN', '100  SHARP RD', '100  SHERWOOD FOREST BL', '100  SKIP BERTMAN', '100  SKIP BERTMAN DR', '100  SOUTH BL', '100  SOUTH I-110 HW', '100  SPANISH TOWN RD', '100  ST FERDINAND ST', '100  ST LOUIS ST', '100  ST VINCENT DE PAUL PL', '100  ST. CHARLES ST', '100  STANFORD AV', '100  STARING LN', '100  STEELE RD', '100  SUNSET BL', '100  TAFT ST', '100  TAYLOR ST', '100  THIRD ST', '100  THOMAS RD', '100  TOWER', '100  TOWER DR', '100  VAN BUREN ST', '100  VETA ST', '100  W POLK ST', '100  WEST I-10 HW', '100  WEST I-12 HW', '100  WESTMORELAND DR', '100  WOODDALE BL', '100 E AIRPORT DR', '100 E BOYD', '100 E BOYD AV', '100 E BOYD DR', '100 E BOYD HW', '100 E BOYD ST', '100 E BUCHANAN ST', '100 E CHIMES', '100 E CHIMES ST', '100 E FRATERNITY LN', '100 E GARFIELD ST', '100 E GRANT DR', '100 E GRANT ST', '100 E HARDING ST', '100 E HARRISON ST', '100 E I-10', '100 E I-10 HW', '100 E I-12', '100 E I-12 HW', '100 E I10', '100 E I10 HW', '100 E I10 ST', '100 E I12', '100 E JOHNSON ST', '100 E MCKINLEY ST', '100 E PARKER BL', '100 E POLK AV', '100 E POLK ST', '100 E RIVER OAKS DR', '100 E ROOSEVELT RD', '100 E ROOSEVELT ST', '100 E STATE ST', '100 E WASHINGTON ST', '100 N 10TH ST', '100 N 11TH ST', '100 N 12TH ST', '100 N 13TH ST', '100 N 14 ST', '100 N 14TH ST', '100 N 15TH ST', '100 N 17TH ST', '100 N 18TH ST', '100 N 19TH ST', '100 N 20TH ST', '100 N 21ST CT', '100 N 21ST ST', '100 N 22ND ST', '100 N 23 RD ST', '100 N 23RD ST', '100 N 25 ST', '100 N 25TH ST', '100 N 26TH ST', '100 N 27TH ST', '100 N 3RD ST', '100 N 4TH ST', '100 N 5TH ST', '100 N 6TH ST', '100 N 8 ST', '100 N 8TH ST', '100 N 9TH ST', '100 N ACADIAN ST', '100 N ACADIAN TH', '100 N ARDENWOD DR', '100 N ARDENWOOD DR', '100 N BAXTER ST', '100 N DONMOOR AV', '100 N DONMOOR DR', '100 N EUGENE ST', '100 N FOSTER DR', '100 N I-110', '100 N I110', '100 N LAFAYETTE ST', '100 N LOBDELL AV', '100 N LOBDELL BL', '100 N RIVER RD', '100 N RIVER ROAD', '100 N STADIUM', '100 N STADIUM DR', '100 N STADIUM RD', '100 N STEVENDALE AV', '100 N THIRD ST', '100 S 10TH ST', '100 S 11TH ST', '100 S 12TH ST', '100 S 13TH', '100 S 13TH ST RD', '100 S 14TH ST', '100 S 15TH ST', '100 S 16TH ST', '100 S 17TH', '100 S 18TH ST', '100 S 20TH ST', '100 S 21ST ST', '100 S 22ND ST', '100 S ACADIAN TH', '100 S ARDENWOOD DR', '100 S DONMOORE AV', '100 S EUGENE ST', '100 S FAIRFAX DR', '100 S FLANNERY DR', '100 S FLANNERY RD', '100 S FOSTER DR', '100 S I-110', '100 S I-110 HW', '100 S I110', '100 S I110 HW', '100 S RIVER  RD', '100 S RIVER RD', '100 S SHERWOOD FOREST BL', '100 S STADIUM', '100 S STADIUM DR', '100 S STADIUM RD', '100 S TOWER', '100 S TOWER DR', '100 S WOODDALE AV', '100 S WOODDALE BL', '100 W BUCHANAN ST', '100 W CHIMES', '100 W CHIMES ST', '100 W FRAT LN', '100 W GARFIELD ST', '100 W GRANT ST', '100 W HARDING BL', '100 W HARDING ST', '100 W HARRISON ST', '100 W I-10 AV', '100 W I-12', '100 W I10', '100 W I12', '100 W I12 HW', '100 W INTERSTATE 12 HW', '100 W JOHNSON', '100 W JOHNSON ST', '100 W LAKESHORE DR', '100 W LEE DR', '100 W LEE ST', '100 W MCKINLEY ST', '100 W PARKER', '100 W PARKER BL', '100 W PARKER RD', '100 W POLK ST', '100 W ROOSEVELT ST', '100 W STATE ST', '100 W WASHINGTON ST', '1000   BOB PETTIT BL', '1000   BOB PETTIT DR', '1000   PROGRESS ST', '1000  37TH ST', '1000  38TH ST', '1000  48TH ST', '1000  AIRLINE HW', '1000  ASTER ST', '1000  AVE B ST', '1000  BAIRD AV', '1000  BARANCO DR', '1000  BARANCO ST', '1000  BOB PETIT', '1000  BOB PETIT DR', '1000  BOB PETIT ST', '1000  BOB PETTIT AV', '1000  BOB PETTIT BL', '1000  BOB PETTIT DR', '1000  BOB PETTIT ST', '1000  BOB PETTITE AV', '1000  BOB PETTITE DR', '1000  BOB PRTTIT BL', '1000  BOB PTTTIT BL', '1000  BRIGHTSIDE', '1000  BRIGHTSIDE DR', '1000  BRIGHTSIDE LN', '1000  CAMELIA ST', '1000  CAPITOL ACCESS RD', '1000  CARDINAL ST', '1000  CENTRAL RD', '1000  CHARLES T SMITH DR', '1000  CHEVELLE DR', '1000  CHIPPEWA ST', '1000  CHOCTAW DR', '1000  COLUMBUS DUNN DR', '1000  COLUMBUS DUNN ST', '1000  CONVENTION ST', '1000  COURSEY BL', '1000  EAST BL', '1000  EAST I-10 HW', '1000  EUROPE ST', '1000  FIG ST', '1000  FLORIDA', '1000  FLORIDA BL', '1000  FLORIDA ST', '1000  FOREST OAK DR', '1000  GOVERNMENT', '1000  GOVERNMENT ST', '1000  HARDING BL', '1000  HASTINGS ST', '1000  HIGHLAND RD', '1000  I-10 EAST BL', '1000  I-110', '1000  IRIS ST', '1000  JENNIFER JEAN AV', '1000  JENNIFER JEAN DR', '1000  JENNIFER JEAN ST', '1000  JULIA ST', '1000  LAUREL AV', '1000  LAUREL ST', '1000  LEE DR', '1000  LEE DRIVE ST', '1000  LETTSWORTH ST', '1000  LOUISE ST', '1000  LOUISIANA AV', '1000  MAIN', '1000  MAIN ST', '1000  MARILYN BL', '1000  MARSH ST', '1000  MAXIMILLIAN ST', '1000  MCCLUNG ST', '1000  MONET DR', '1000  MONET ST', '1000  MYRTLE', '1000  MYRTLE ST', '1000  N 23 ST', '1000  N DONMOOR DR', '1000  N/B I-110 @ WELLER AVE', '1000  NICHOLSON', '1000  NICHOLSON DR', '1000  NICHOLSON ST', '1000  NORTH BL', '1000  NORTH I-110 HW', '1000  NORTH ST', '1000  OSPREY AV', '1000  OWL AV', '1000  OWL ST', '1000  PARK BL', '1000  PITTSBURG', '1000  PITTSBURG AV', '1000  PROGRESS RD', '1000  PROGRESS ST', '1000  RIVER RD', '1000  RODIN DR', '1000  ROSENWALD RD', '1000  SCENIC HW', '1000  SEYBURN DR', '1000  SHARP LN', '1000  SHARP RD', '1000  SHERWOOD FOREST BL', '1000  SIMMS ST', '1000  SOUTH BL', '1000  SOUTH I-110 HW', '1000  SPANISH TOWN RD', '1000  SPARROW ST', '1000  ST CHARLES ST', '1000  ST ROSE AV', '1000  STANFORD AV', '1000  STARING LN', '1000  SWAN AV', '1000  TERRACE', '1000  TERRACE ST', '1000  THOMAS H DELPIT DR', '1000  TOWNSLEY ST', '1000  VALCOUR DR', '1000  WAVERLY DR', '1000  WEST I-10 HW', '1000 E BOYD DR', '1000 E BUCHANAN ST', '1000 E HARRISON ST', '1000 E I-10', '1000 E I10', '1000 E I10 HW', '1000 E JOHNSON ST', '1000 E POLK ST', '1000 E WASHINGTON ST', '1000 N 19TH ST', '1000 N 20TH ST', '1000 N 222ND ST', '1000 N 22ND ST', '1000 N 23 ST', '1000 N 23RD ST', '1000 N 25TH ST', '1000 N 28 ST', '1000 N 28TH ST', '1000 N 29TH ST', '1000 N 30TH ST', '1000 N 32ND ST', '1000 N 35TH ST', '1000 N 36TH ST', '1000 N 37TH ST', '1000 N 38TH', '1000 N 38TH ST', '1000 N 39TH', '1000 N 39TH ST', '1000 N 40TH ST', '1000 N 44TH ST', '1000 N 46TH ST', '1000 N 47TH ST', '1000 N 48TH ST', '1000 N DONMOOR AV', '1000 N DONMOOR BL', '1000 N DONMOOR DR', '1000 N FOSTER DR', '1000 N I-110 HW', '1000 N I-110 OT', '1000 N I110 OT', '1000 N LITTLE JOHN DR', '1000 N SABINE DR', '1000 S 15TH', '1000 S 15TH ST', '1000 S 16TH ST', '1000 S ACADIAN TH', '1000 S FOSTER', '1000 S FOSTER DR', '1000 S FOSTER ST', '1000 S I 110', '1000 S I-110', '1000 S I-110 OT', '1000 S I110', '1000 S RIVER RD', '1000 S SHERWOOD FOREST BL', '1000 S TAMARI', '1000 W GARFIELD ST', '1000 W I - 10', '1000 W I 10', '1000 W I-10', '1000 W I-10 HW', '1000 W I-10 OT', '1000 W I10', '1000 W LEE DR', '1000 W MOUNT PLEASANT RD', '1000 W ROOSEVELT ST', '10000  AIRLINE', '10000  AIRLINE BL', '10000  AIRLINE HIGHWAY', '10000  AIRLINE HW', '10000  AVE A ST', '10000  AVE B AV', '10000  AVE F AV', '10000  AVE H', '10000  AVE. J ST', '10000  AVENUE B ST', '10000  AVENUE C ST', '10000  AVENUE D AV', '10000  AVENUE D ST', '10000  AVENUE E ST', '10000  AVENUE F ST', '10000  AVENUE G ST', '10000  AVENUE H ST', '10000  AVENUE I', '10000  AVENUE I ST', '10000  AVENUE J ST', '10000  AVENUE K ST', '10000  AVENUE L', '10000  AVENUE L ST', '10000  AVENUE M ST', '10000  BETA DR', '10000  CASHEL AV', '10000  CELTIC DR', '10000  CHOCTAW DR', '10000  COURSEY BL', '10000  DAVID DR', '10000  DAWNADALE AV', '10000  DAWNADELE AV', '10000  ELM GROVE GARDEN DR', '10000  FLORIDA BL', '10000  FLORIDA BOULEVARD', '10000  GOODWOOD BL', '10000  GWENADELE AV', '10000  HWY 19', '10000  HYACINTH', '10000  MERGANZER AV', '10000  MERGANZER ST', '10000  MOLLYLEA DR', '10000  OLD HAMMOND HW', '10000  RED OAK', '10000  RED OAK DR', '10000  SCENIC HW', '10000  SCOTLAND AV', '10000  TAMS', '10000  TAMS DR', '10000 E POMONA DR', '10000 N MAGNA CARTA AV', '10000 S CHOCTAW DR', '10000 S PERDUE DR', '10001  AIRLINE HW', '10001  AVENUE F ST', '10001  FLORIDA BL', '10002  AVE I ST', '10002  AVENUE I ST', '10002  BOOKERLINE AV', '10002  FLORIDA BL', '10002  GOODWOOD BL', '10003  AVENUE H ST', '10004  CHANADIA DR', '10004  MAGNA CARTA PL', '10005  AVENUE E ST', '10005  AVENUE H ST', '10006  AVENUE I ST', '10008  AVE K', '10008  AVE L', '10008  AVE L AV', '10008  AVE L ST', '10008  AVENUE I ST', '10008  AVENUE L', '10008  AVENUE L AV', '10008  AVENUE L ST', '10008  AVENUE M ST', '10008  L AV', '10009  AVE H ST', '10009  AVENUE H ST', '1001  31ST ST', '1001  ASTER ST', '1001  CAMELIA AV', '1001  CAMELLIA AV', '1001  CAMELLIA ST', '1001  COLUMBUS DUNN AV', '1001  CONVENTION ST', '1001  DREHR AV', '1001  FUQUA ST', '1001  N.23RD ST', '1001  NORTH BL', '1001  PARK BL', '1001  PROGRESS ST', '1001  SCENIC HW', '1001 N 22ND ST', '1001 N 23 ST', '1001 N 23RD', '1001 N 23RD ST', '1001 N 29TH ST', '1001 N 31ST', '1001 N 31ST ST', '10010  AVENUE F ST', '10010  COURSEY BL', '10010  DAVID DR', '10010  KAREN DR', '10010  SOMBRERO AV', '10010 N MAGNA CARTA PL', '10012  AVE H AV', '10012  EL CAMINO AV', '10012 N MAGNA CARTA BL', '10013  EL CAMINO AV', '10013  MAMMOTH AV', '10019 S PERDUE AV', '1002  BROMLEY DR', '1002  JULIA ST', '1002  PARKER ST', '1002  TIMBERSIDE DR', '1002 N 31ST ST', '1002 S 16TH ST', '10020  A AV', '10020  AVE E ST', '10020  AVE H ST', '10020  AVENUE H ST', '10020  FLORIDA BL', '10020  GAMMA DR', '10020  MAMMOTH AV', '10021  ALPHA DR', '10021  CUYHANGA ST', '10021 W TAMS DR', '10022  CUYHANGA PK', '10022  FLORIDA', '10022 E TAMPA DR', '10022 N MAGNA CARTA PL', '10023  FLORIDA BL', '10023  MAMMOTH AV', '10024  AVENUE B ST', '10024 N PARKVIEW DR', '10025  AVE H', '10025  AVE H AV', '10025  AVENUE H ST', '10025  AVENUE I ST', '10025  EL CAMINO AV', '10027  BOOKERLINE DR', '10027  CAROLINA ST', '10027 E POMONA DR', '10027 W DARRYL PK', '1003  AVE L ST', '1003  BOB PETIT', '1003  BOB PETIT BL', '1003  BOB PETIT DR', '1003  BOB PETITE ST', '1003  BOB PETTIE', '1003  BOB PETTIT', '1003  BOB PETTIT AV', '1003  BOB PETTIT BL', '1003  BOB PETTIT DR', '1003  RITTNER DR', '1003 N 30TH ST', '1003 N 32ND ST', '10030  DAVID DR', '10030  KAREN DR', '10030 E POMONA DR', '10031  RHINE AV', '10032  AVE I', '10032  AVE I AV', '10032  AVE I ST', '10032  AVENUE H ST', '10032  AVENUE I', '10032  AVENUE I ST', '10032  KENLEE DR', '10033  AVE J ST', '10033  AVENUE J ST', '10033 E POMONA DR', '10034  AVE B AV', '10034  AVENUE E ST', '10034  CUYHANGA PK', '10035  GREAT SMOKEY AV', '10036  AVENUE H ST', '10037  AVE H', '10037  AVE H AV', '10037  AVENUE D ST', '10037  AVENUE H', '10037  AVENUE H AV', '10037  AVENUE H ST', '10038  AVE K AV', '10038  AVE K ST', '10038  AVENUE K AV', '10038  AVENUE K ST', '10038  BOOKERLINE AV', '10038  FLORIDA BL', '10038  KINGLET DR', '10038 S CHOCTAW', '10039  BOOKERLINE AV', '10039  FLORIDA BL', '1004  CHANADIA DR', '1004  COTTON ST', '1004  DEAN LEE DR', '1004  JULIA ST', '1004  PATRICIA ST', '1004  RITTINER DR', '1004 N 30TH ST', '1004 N 32ND ST', '1004 N 35TH ST', '1004 N 47TH ST', '10040 S CHOCTAW DR', '10041  AVE J AV', '10041  AVENUE J ST', '10041  FLORIDA BL', '10041  RHINE AV', '10042  BETA DR', '10043  MAMMOTH AV', '10043  MAMMOTH DR', '10043  SUNNY CLINE DR', '10043 E CORONADO DR', '10044  ALPHA DR', '10044  AVENUE A ST', '10044  AVENUE I ST', '10044 W TAMS DR', '10045  AVENUE G AV', '10045  AVENUE G ST', '10045  FLORIDA', '10045  FLORIDA BL', '10045  GWENADALE', '10045  GWENADALE AV', '10045  GWENADALE DR', '10045  GWENADELE', '10045  GWENADELE AV', '10045  GWENADELE DR', '10045  GWENADELLE', '10045  GWENADELLE DR', '10045  GWENEDALE AV', '10045  GWENEDALE DR', '10046 E POMONA DR', '10047  CHANADIA DR', '10047  FLORIDA BL', '10049  AVE H ST', '10049  EL CAMINO AV', '10049  FLORIDA BL', '10049 S PERDUE AV', '1005  ARCADIA DR', '1005  CHOCTAW DR', '1005  OSPREY AV', '1005  PROGRESS RD', '1005  PROGRESS ST', '1005  RITTNER DR', '1005 E POLK ST', '1005 N 30TH ST', '1005 N 32ND ST', '1005 N 39TH ST', '10050  ELM GROVE GARDEN DR', '10050  GREAT SMOKEY AV', '10050  HYACINTH AV', '10051  FLORIDA BL', '10053  BETA DR', '10055  AVENUE F', '10055  AVENUE F ST', '10055  DAVID DR', '10058  AVE K', '10058  AVE K ST', '10058  AVENUE K AV', '10058  AVENUE K ST', '10058 S CHOCTAW', '10058 S CHOCTAW DR', '10059  AVENUE M ST', '1006  CAMELIA AV', '1006  WAVERLY DR', '1006 N 46TH ST', '1006 S 16TH ST', '10060  DAVID DR', '10060  FLORIDA BL', '10064  ELM GROVE GARDEN', '10064  ELM GROVE GARDEN DR', '10064  ELM GROVE GARDEN ST', '10064  ELMGROVE ST', '10064  RED OAK  DR', '10064  RED OAK DR', '10065  AVENUE G ST', '10065  OLD HAMMOND HW', '10065 W TAMS BL', '10066 E CORONADO DR', '10066 S CHOCTAW DR', '10066 W TAMS', '10066 W TAMS DR', '10067  AVENUE E ST', '10067  EL CAMINO AV', '10067  ELM GROVE GARDEN DR', '10067 W TAMS DR', '10068  GREAT SMOKEY AV', '10068  GREENWELL SPRINGS RD', '10069  AVENUE A ST', '1007  KENILWORTH PK', '1007  PARK BL', '1007  PROGRESS ST', '1007 E JOHNSON ST', '1007 N 32ND ST', '1007 N 47TH ST', '10070  AVE K ST', '10070  AVENUE D AV', '10070  FLORIDA BL', '10073  AVENUE A ST', '10073  MAMMOTH AV', '10074 S CHOCTAW HW', '10075  AVE J', '10075  AVE J AV', '10075  AVENUE J AV', '10075  AVENUE J ST', '10076  BOWMAN AV', '10076  BOWMAN ST', '10077  AVE D AV', '10077  AVENUE D ST', '10078 S CHOCTAW DR', '1008  AVE L ST', '1008  CAMELIA AV', '1008  CAMELLIA AV', '1008  WINDINGWAY DR', '10080  AVENUE F DR', '10080  KAREN DR', '10081  AVENUE F ST', '10081  RUNNYMEDE AV', '10082  FLORIDA BL', '10082 E POMONA DR', '10083  OLD HAMMOND HW', '10083 W DARRYL PK', '10084  AVENUE K ST', '10084  GREAT SMOKEY AV', '10085  AVENUE E ST', '10085  GREAT SMOKEY AV', '10085  GREAT SMOKEY DR', '10086  CUYHANGA PK', '10086  FLORIDA BL', '10087  ALPHA DR', '10087  AVENUE B ST', '10087  BETA DR', '10088  AVE G ST', '10088  AVENUE G', '10088  AVENUE G ST', '10088  GAMMA DR', '1009 N 32ND ST', '10090  BIG BEND AV', '10090  FLORIDA', '10090  FLORIDA BL', '10091  AVE B AV', '10091  AVENUE B ST', '10092  AVENUE M ST', '10094  AVENUE B ST', '10095  AVE A ST', '10095  AVE.  A', '10095  AVENUE A ST', '10097  AVE L', '10097  AVE L AV', '10097  AVENUE L AV', '10097  AVENUE L ST', '101  BEVERLY DR', '101  FLORIDA ST', '101  FRANCE ST', '101  GOVERNMENT ST', '101  NORTH BL', '101  NORTH ST', '101  ST FERDINAND ST', '101 S FOSTER DR', '101 W STATE ST', '1010  BAYBERRY ST', '1010  BOB PETTIT BL', '1010  FLORIDA ST', '1010  JULIA ST', '1010  SPANISH TOWN RD', '1010 S ACADIAN TH', '10100  AVE C AV', '10100  AVE E AV', '10100  AVENUE H ST', '10100  AVENUE I', '10100  AVENUE I AV', '10100  AVENUE I ST', '10100  AVENUE J', '10100  AVENUE K ST', '10100  AVENUE M ST', '10100  BLACK OAK DR', '10100  COURSEY BL', '10100  DARADELL AV', '10100  DARRYL DR', '10100  DAVID DR', '10100  FLETCHER WILLIAMS DR', '10100  FLETCHER WILLIAMS RD', '10100  FLORIDA BL', '10100  GOODWOOD', '10100  GOODWOOD AV', '10100  GOODWOOD BL', '10100  GREENWELL SPRINGS RD', '10100  HYACINTH AV', '10100  JANICE ST', '10100  MERGANZER AV', '10100  MOLLYLEA DR', '10100  OLD HAMMOND HW', '10100  SUNNY CLINE DR', '10100 N HARVEY DR', '10100 S CHOCTAW DR', '10101  COURSEY BL', '10101  RUNNYMEDE AV', '10101  SEIGAN LN', '10106  AMBROSE CT', '10106  AVE. I', '10106  AVENUE I ST', '10107  AVE F AV', '10107  AVENUE F ST', '10108  AVENUE G ST', '10108  AVENUE K ST', '10108  G AV', '10109  AVENUE B AV', '10109  AVENUE B ST', '10109  AVENUE J ST', '10109  AVENUE M ST', '1011  ELIZABETH DR', '1011  MARWEDE AV', '1011 N 32ND ST', '1011 N 46TH ST', '1011 N BON MARCHE', '1011 N BON MARCHE DR', '1011 W ROOSEVELT ST', '10110  AVENUE F ST', '10110  COURSEY BL', '10111  AVENUE J AV', '10111  AVENUE J ST', '10111  FLORIDA BL', '10111  GWENADALE AV', '10111  GWENADELE', '10111  GWENADELE AV', '10111  GWENADELLE DR', "10111  KNIGHT'S BRIDGE CT", '10113  AVENUE I ST', '10113  MOLLYLEA DR', '10114  MOLLYLEA DR', '10114 S RIVER OAKS DR', '10115  AVEJ ST', '10115  AVENUE J ST', '10115  BALLINA AV', '10115  MERGANZER AV', '10116  MERGANZER AV', '10116 N MAGNA CARTA PL', '1012  PROGRESS ST', '1012  TIMBERSIDE DR', '1012  WESTMORELAND DR', '1012 N 48TH ST', '1012 S ACADIAN TH', '10120  AVE I', '10120  AVENUE I ST', '10120  AVENUE J ST', '10120  AVENUE L ST', '10120  BOWMAN AV', '10120  DARADELE AV', '10120  FLORIDA BL', '10120  RED OAK DR', '10120  WHITE OAK', '10120  WHITE OAK DR', '10121  CHANADIA DR', '10122  AVE C ST', '10122  AVENUE C ST', '10122  AVENUE F', '10122  AVENUE F AV', '10122  AVENUE F ST', '10122  KNIGHTS BRIDGE CT', '10122  MAMMOTH AV', '10122 N MAGNA CARTA PL', '10123  AVE F', '10123  AVE F AV', '10123  AVEENUE F ST', '10123  AVENUE E ST', '10123  AVENUE F', '10123  AVENUE F ST', '10123  BLACK OAK DR', '10123  GRANDEAUR DR', '10123  GRANDEUR DR', '10124  CLETUS DR', '10124  RHAPSODY', '10125  AVE C ST', '10125  BALLINA AV', '10125  BOWMAN AV', '10125  DARRYL DR', '10125  GOODWOOD BL', '10125  MAMMOTH AV', '10125  MOLLYLEA DR', '10125  RUNNYMEDE AV', '10126  AVENUE I ST', '10126  GERANDEUR DR', '10127  CASHEL AV', '10127  FLORIDA BL', '10127  RUNNYMEDE AV', '10128  FLORIDA BL', '10129  AVENUE H ST', '1013  BECKENHAM DR', '1013  BOB PETIT BL', '1013  GRANDEUR DR', '1013 N 44TH ST', '10130  AVE J AV', '10130  AVE J ST', '10130  AVENUE J AV', '10130  AVENUE J ST', '10130  BOWMAN AV', '10130  COURSEY', '10130  COURSEY BL', '10130  GREENWELL SPRINGS RD', '10130  RUNNYMEDE AV', '10131  GRANDEUR DR', '10131  GRANDUER DR', '10131  KNIGHTS BRIDGE CT', '10132  AVENUE H AV', '10132  AVENUE H ST', '10133  BOWMAN AV', '10134  AVE I ST', '10134  AVENUE I ST', '10134  DARRYL DR', '10134  FLORIDA BL', '10134 W DARRYL PK', '10135  AVENUE G ST', '10135  BALLINA AV', '10135  MOLLYLEA DR', '10135 S RIVER OAKS DR', '10136  FLORIDA BL', '10136  MOLLYLEA DR', '10139  AIRLINE HW', '1014  FOX LANE DR', '1014  FOXLANE DR', '1014  PROGRESS', '1014  PROGRESS ST', '1014  SENETTE ST', '1014  SPARROW ST', '1014  TARA BL', '1014  WINDINGWAY DR', '1014 S 18TH ST', '10140  JANICE ST', '10140  WHITE OAK DR', '10142  MOLLYLEA DR', '10143  GRANDEUR DR', '10144  AVE M AV', '10144  AVENUE M ST', '10144  GERALD DR', '10145  AVENUE E ST', '10145  BALLINA', '10145  BALLINA AV', '10145  DARRYL DR', '10145  FLORIDA BL', '10145  MAMMOTH AV', '10145  RED OAK DR', '10148  AVE J AV', '10148  AVENUE J ST', '10148  AVENUE K ST', '10148  GREENWELL SPRINGS RD', '10148 N HARVEY DR', '10149  AVE G', '10149  AVENUE G ST', '1015  BAYBERRY AV', '1015  COLUMBUS DUNN DR', '1015  OSPREY AV', '1015  RICHLAND AV', '1015  SEYBURN DR', '1015 E POLK ST', '1015 W LEE DR', '10150  AIRLINE DR', '10150  AIRLINE HW', '10152  PLAZA AMERICANA DR', '10154  BOWMAN AV', '10154  BOWMAN ST', '10154 S CHOCTAW DR', '10155  AMBROSE CT', '10155  AVE E ST', '10155  BLACK OAK DR', '10155  GOODWOOD BL', '10155  MAMMOTH AV', '10155  TAMS DR', '10155  TAMS ST', '10157  CASHEL AV', '1016  COLUMBUS DUNN DR', '1016 W GARFIELD ST', '10160  AIRLINE HW', '10160  BAYNARD ST', '10160  BIG BEND AV', '10160  DARRYL DR', '10164  DEVONSHIRE DR', '10164  RHAPSODY DR', '10165  BLACK OAK DR', '10165  DARRYL DR', '10165  GERALD DR', '10168  AVENUE K AV', '10168  AVENUE M ST', '1017  SILVERWOOD DR', '1017 E POLK ST', '10172  AVE M ST', '10172  MAMMOTH AV', '10172  PATRIOT DR', '10174  AIRLINE HW', '10174  AVENUE F ST', '10175  AVENUE D ST', '10175  MAMMOTH AV', '10178  AVENUE H ST', '10179  AVE H ST', '1018  BOB PETIT BL', '1018  GREBE ST', '1018  TRAMMEL DR', '10180  PARKVIEW DR', '10185  FLORIDA BL', '10186 S CHOCTAW DR', '10188  AVE E', '10188  AVENUE E ST', '10188  FLORIDA BL', '10188  HYACINTH AV', '1019  CRESCENT DR', '1019  OSPREY AV', '1019  OSPREY ST', '1019 W GARFIELD ST', '10196  TWIN CEDARS', '10196  TWIN CEDARS ST', '10197  AVENUE H ST', '10198  AVENUE D ST', '10198  AVENUE F ST', '102   FRANCE ST', '102  FRANCE', '102  FRANCE ST', '102  MAYFLOWER ST', '102 S ACADIAN', '102 S ACADIAN TH', '1020  ABERDEEN AV', '1020  ARCADIA DR', '1020  MAIN ST', '1020  MALBROOK DR', '1020  MARLBROOK DR', '1020  MARSH ST', '1020 N 46TH ST', '1020 N 48TH ST', '1020 N ARDENWOOD DR', '1020 S FOSTER DR', '1020 S TINLEY DR', '10200  AIRLINE', '10200  AIRLINE HW', '10200  ALMOND ST', '10200  AVE D', '10200  AVE E ST', '10200  AVE J ST', '10200  AVENUE C ST', '10200  AVENUE D ST', '10200  AVENUE E', '10200  AVENUE E ST', '10200  AVENUE F AV', '10200  AVENUE H ST', '10200  AVENUE J ST', '10200  AVENUE L ST', '10200  BARBARA ST', '10200  CLETUS DR', '10200  COURSEY BL', '10200  DARRYL DR', '10200  ELAIN DR', '10200  FLETCHER WILLIAMS DR', '10200  FLETCHER WILLIAMS RD', '10200  GREENWELL SPRINGS RD', '10200  HWY 19 HW', '10200  JANICE ST', '10200  MERGANZER AV', '10200  MOLLYLEA DR', '10200  OLD HAMMOND HW', '10200  SCENIC HW', '10200  SCOTLAND AV', '10200  VETERANS MEMORIAL', '10200 N HARVEY DR', '10200 S CHOCTAW', '10201  AVE C', '10201  AVE K ST', '10201  AVENUE B ST', '10201  AVENUE C ST', '10201  AVENUE L ST', '10201  CASHEL DR', '10201  FLORIDA BL', '10201 E POMONA DR', '10203  BALLINA AV', '10204  AVENUE J ST', '10207  AVE J ST', '10207  AVENUE J ST', '10207  MAMMOTH AV', '10209  AVE M', '10209  AVE M AV', '10209  AVE M ST', '10209  AVENUE M', '10209  AVENUE M ST', '1021  BRAEBURN DR', '1021  OAKLEY DR', '1021  SHERWOOD FOREST BL', '1021  WOODHILL DR', '1021 N 36TH ST', '1021 N 37TH ST', '1021 N 44TH ST', '1021 S 15TH ST', '1021 W ROOSEVELT ST', '10210  AVE K', '10210  AVE K ST', '10210  AVE L', '10210  AVE L AV', '10210  AVE L ST', '10210  AVE. L ST', '10210  AVENUE K ST', '10210  AVENUE L', '10210  AVENUE L AV', '10210  AVENUE L ST', '10210  CANADA ST', '10210  L AV', '10212  AVENUE H ST', '10212  RHAPSODY DR', '10213  AVENUE G ST', '10213  BALLINA AV', '10213  BALLINA CT', '10215  RUNNYMEDE AV', '10216  AVENUE I ST', '10217  AVENUE I ST', '10217 N HARVEY DR', '10218  AVENUE I ST', '10219  CASHEL AV', '1022  BAIRD DR', '1022  PROGRESS ST', '1022  RODNEY DR', '1022  STEELE BL', '1022  SWAN AV', '1022  TIMBER SIDE', '1022  WODDALE BL', '1022  WOODDALE BL', '1022 S FOSTER DR', '10220  AV A AV', '10220  AVE J ST', '10220  AVENUE J ST', '10220  CANADA ST', '10220  FLORIDA BL', '10220  JANICE ST', '10221  ALMOND ST', '10221  PATRIOT DR', '10222 S PERDUE AV', '10223  BALLINA', '10223  CASHEL AV', '10224  AVE G AV', '10224  BARBARA ST', '10224  BLACK OAK DR', '10224  DARRYL DR', '10224  FLORIDA', '10224  FLORIDA BL', '10224  FLORIDA RD', '10224  GERALD DR', '10225  AVENUE H ST', '10225  DARRYL DR', '10225  FLORIDA BL', '10225  GERALD DR', '10225 W DARRYL DR', '10226  FLORIDA BL', '10227  CASHEL AV', '10228  FLORIDA BL', '10229  AVENUE L ST', '1023  ELM GROVE GARDEN DR', '1023  LAUREL ST', '1023  PARK BL', '1023  TIMBERSIDE', '1023  WOODSTONE DR', '1023  WOODVINE DR', '1023 N LOBDELL', '1023 N LOBDELL BL', '10230  MOLLYLEA DR', '10231  CASHEL AV', '10233  BALLINA AV', '10233  MOLLYLEA DR', '10234  FLORIDA BL', '10235  AVENUE J ST', '10235  BARBARA ST', '10235  BROWNING DR', '10236  AVE H AV', '10236  AVE H ST', '10236  AVE K AV', '10236  AVENUE H ST', '10236  AVENUE K ST', '10238  CANADA ST', '10238  TWIN CEDARS ST', '10239  CASHEL AV', '1024  EXECUTIVE PARK AV', '1024  FOXLANE DR', '1024  MAGNOLIA WOOD AV', '1024  MONET DR', '1024  PROGRESS RD', '1024  PROGRESS ST', '1024 N 28TH ST', '1024 N FOSTER DR', '1024 W GARFIELD ST', '1024 W ROOSEVELT ST', '10240  AVE E ST', '10240  AVE J ST', '10240  BARBARA ST', '10240  JANICE ST', '10241  AVENUE M ST', '10241  CASHEL AV', '10241  COURSEY BL', '10241 N HARVEY DR', '10243  BALLINA AV', '10244  FLORIDA BL', '10245  AIRLIINE HW', '10245  AIRLINE HW', '10245  AVE E ST', '10245  AVENUE B ST', '10245  AVENUE L ST', '10245  BLACK OAK DR', '10245  DARADELLE', '10245  GERALD DR', '10245  SUNNY CLINE DR', '10247  AVENUE D ST', '10247  MAMMOTH AV', '10247  MAMMOTH DR', '10248  BIG BEND AV', '10248  FLORIDA BL', '10249  CASHEL AV', '1025  AUDUBON DR', '1025  AUDUBON ST', '1025  CORA DR', '1025  EXECUTIVE PARK AV', '1025  GLENMORE AV', '1025  HIGHLAND PARK DR', '1025  LAUREL ST', '1025  LOUISIANA AV', '1025  LOUISIANA ST', '1025  MAGNOLIA WOOD AV', '1025  MAGNOLIA WOODS DR', '1025  MARILYN DR', '1025  PROGRESS RD', '1025  PROGRESS ST', '1025  RICHLAND AV', '1025  SEYBURN DR', '1025  TARA BL', '1025  WYLIE DR', '1025 N 30TH ST', '1025 N 31 ST', '1025 N 31ST ST', '1025 S ALAMEDA DR', '1025 W GARFIELD ST', '10250  AIRLINE HW', '10250  AVENUE G ST', '10250  GOODWOOD BL', '10250  PLAZA AMERICANA', '10250  PLAZA AMERICANA DR', '10250  PLAZA AMERICANO DR', '10251  AVE E AV', '10251  AVENUE E AV', '10251  AVENUE E ST', '10252  AVE H ST', '10252  FLORIDA BL', '10254  GERALD DR', '10254  TWIN CEDARS ST', '10255  AVENUE G ST', '10255  MOLLYLEA DR', '10256  AVENUE F ST', '10256 S CHOCTAW DR', '10259  AIRLINE HW', '10259  RED OAK DR', '1026 E RIVER OAKS', '1026 E WASHINGTON AV', '1026 E WASHINGTON ST', '1026 N CARROLLTON AV', '10261  TWIN CEDARS ST', '10264  CLETUS DR', '10265  AV', '10265  AVE E', '10265  AVE E AV', '10265  AVE E HW', '10265  AVENUE E', '10265  AVENUE E ST', '10266 S CHOCTAW DR', '10268  AVENUE M ST', '10269  AIRLINE HW', '1027  ROUNDHILL DR', '1027 N 36TH ST', '1027 N 46TH ST', '1027 S TAMARI', '1027 W LEE DR', '10270  AIRLINE HW', '10271 N HARVEY DR', '10274  NEWCASTLE AV', '10275  AVE I AV', '10275  TAMS DR', '10276  AVENUE I ST', '10276  FLEMING ST', '10276  TAMS DR', '10276 S HAMPTON ST', '10278  GOODWOOD BL', '10278  TWIN CEDARS ST', '1028  CAMELIA AV', '1028  CAMELLIA AV', '1028 N 46TH ST', '1028 N SABINE DR', '10280  AVE I AV', '10280  AVENUE F ST', '10280  AVENUE I AV', '10280  AVENUE I ST', '10280  BROWNING DR', '10280  JANICE ST', '10288  JANICE ST', '10288  WHITE OAK DR', '10289  AIRLINE HW', '10289  PARKVIEW DR', '1029  BROMLEY DR', '1029 N 47TH ST', '1029 N SABINE DR', '10294  AVE D', '10294  AVENUE D', '10294  AVENUE D ST', '10296 S CHOCTAW DR', '103   FRANCE ST', '103  3RD ST', '103  BOB PETTIT AV', '103  FM 1571 OLD MILL ST', '103  FRANCE', '103  FRANCE ST', '103  MAYFLOWER DR', '1030  BALSAM AV', '1030  CENTRAL RD', '1030  OAKLEY DR', '1030  PARK BL', '1030 S EUGENE ST', '10300  AIRLINE HW', '10300  AVE G', '10300  AVE J ST', '10300  AVENUE E ST', '10300  AVENUE J ST', '10300  COURSEY BL', '10300  ELM GROVE GARDEN DR', '10300  GOODWOOD BL', '10300  LA HWY 61 (SCENIC)', '10300  MOLLYLEA DR', '10300  OLD HAMMOND HW', '10300  PARKVIEW DR', '10300  SCOTLAND AV', '10300 S CHOCTAW DR', '10300 S GIBBENS DR', '10301  COURSEY BL', '10305  AIRLINE HW', '10307 N MALL DR', '10309  MAMMOTH AV', '1031  COLUMBUS DUNN', '1031  COLUMBUS DUNN DR', '1031  KEED AV', '1031  SEYBURN DR', '1031  WOODHILL DR', '1031 N 47TH ST', '1031 S 16TH ST', '1031 W LEE DR', '10310  ELM GROVE GARDEN DR', '10311  PLAZA AMERICANA', '10311  PLAZA AMERICANA BL', '10311  PLAZA AMERICANA DR', '10311 S RIVER OAKS DR', '10313  AIRLINE HW', '10315  WHITE OAK DR', '10315 S PERDUE AV', '10315 S PURDUE DR', '10319  MAMMOTH AV', '10319  OLD HAMMOND HW', '10319  ZERLEE ST', '10319 N HARVEY DR', '1032  CENTRAL RD', '1032  COLUMBUS DUNN', '1032  TIMBERSIDE DR', '1032  TIMBERSIDE ST', '1032 N 30TH ST', '1032 N 46TH ST', '1032 S ACADIAN TH', '10320  BIRCHWOOD DR', '10320  MOLLYLEA DR', '10321  AIRLINE HW', '10322  CEDAR LN', '10322  CEDARLANE DR', '10322  CLETUS DR', '10322  LEBANON ST', '10322  TAMS DR', '10323 S RIVER OAKS DR', '10324  WHITE OAK DR', '10325  DARRYL DR', '10327  GREENWELLSPRINGS RD', '10328  AVENUE G ST', '10328  CINQUEFOIL AV', '10328  GOODWOOD BL', '10329  CINQUEFOIL AV', '1033  FLORA LN', '1033  LEYCESTER DR', '1033  OSPREY AV', '1033  SWAN AV', '1033  SWAN ST', '1033 N LEIGHTON DR', '10330  AIRLINE', '10330  AIRLINE HW', '10330  COURSEY BL', '10330  FLORIDA', '10330  FLORIDA BL', '10331  AIRLINE HW', '10331 W ALMOND DR', '10331 W ALMOND ST', '10332  AIRLINE HW', '10332  PLAZA AMERICANA', '10332  PLAZA AMERICANA DR', '10333  AIRLINE HW', '10333  AVE K AV', '10333  PATRICIA DR', '10333 N HARVEY DR', '10334  CANADA ST', '10334  CANDA ST', '10334  CEDARLANE DR', '10334  LEBANON ST', '10334 S CHOCTAW DR', '10335  AIRLINE HW', '10335  AVE C AV', '10335  BROWNING DR', '10335  LEBANON', '10335 W DARRYL DR', '10336  BIG BEND AV', '10337  ELM GROVE GARDEN DR', '10338  MAMMOTH AV', '10338  NELWYN DR', '10339  MAMMOTH AV', '10339  MAMMOTH DR', '1034  COLUMBUS DUNN DR', '1034  FOXLANE DR', '1034  LEYCESTER DR', '1034  MAGNOLIA WOOD AV', '1034 N DONMOOR AV', '10340  BIRCHWOOD ST', '10340  CELTIC DR', '10340  WHITE OAK DR', '10341 W ALMOND DR', '10341 W ALMOND ST', '10342  GERALD DR', '10344  BLACK OAK DR', '10344  CINQUEFOIL AV', '10344  OLD HAMMOND HW', '10344  RED OAK DR', '10344  REDOAK DR', '10345  BARBARA ST', '10345  CYPRUS CEDAR DR', '10345  DARRYL DR', '10345  PATRICIA DR', '10345  RED OAK DR', '10345 S RIVEROAKS DR', '10346  PATRICIA DR', '10346  RHAPSODY DR', '10348  CYPRUS CEDAR ST', '1035  ARCADIA DR', '1035  BAYBERRY AV', '1035  CARDINAL ST', '1035  EXECUTIVE PARK AV', '1035  RITTNER DR', '1035  ROSEDALE ST', '1035  SAVANNA VIEW DR', '1035  WYLIE DR', '1035 N 35TH ST', '1035 N 48TH ST', '10350  FLORIDA BL', '10350  HWY 19', '10350  REIGER RD', '10350  SCOTLAND AV', '10351  PLAZA AMERICANA DR', '10352  GERALD DR', '10354  BRONZEBUSH AV', '10354  CYPRUS CEDAR ST', '10354  DARRYL DR', '10354  OLD HAMMOND HW', '10354 N HARVEY DR', '10355  AVE C ST', '10355  CEDARLANE DR', '10355  CYPRUS CEDAR ST', '10355  PARKVIEW DR', '10355  TAMS', '10355  TAMS DR', '10357  LEBANON ST', '10357  OLD HAMMOND HW', '10358  CEDARLANE DR', '1036  BARANCO ST', '1036  CHIPPENHAM DR', '1036  LANDWOOD DR', '1036 N 31ST ST', '1036 N 36TH ST', '1036 N CARROLLTON AV', '1036 W GARFIELD ST', '10360  AVE C DR', '10360  AVENUE H ST', '10360  AVENUE I ST', '10361  CINQUEFOIL AV', '10362  AVENUE D ST', '10362  BRONZEBUSH AV', '10362  GREENWELL SPRINGS RD', '10363  GERALD DR', '10364  DARRYL DR', '10364  OLD HAMMOND HW', '10364 S PERDUE AV', '10365  AVENUE C ST', '10365  CATHERINE ST', '10365  CLETUS DR', '10365  DARRYL', '10365 S PERDUE AV', '10365 S PERDUE DR', '10366  BROWNING DR', '10366  CLETUS DR', '10366  FIRELIGHT AV', '10367  RED OAK DR', '10368  AVENUE F ST', '10369  PATRICIA DR', '1037  CASTLE KIRK DR', '1037  LAUREL ST', '1037  MAIN ST', '1037  RITTINER DR', '1037  RITTNER DR', '1037 N 36TH ST', '10372  BLACK OAK DR', '10374 N HARVEY DR', '10375  AVENUE C ST', '10379  MAMMOTH AV', '1038  RICHLAND AV', '1038 N 44TH ST', '10383  GREENWELL SPRINGS RD', '10384  ELM GROVE GARDEN DR', '10384 S CHOCTAW', '10384 S CHOCTAW DR', '10386  CINQUEFOIL AV', '10386  ELM GROVE GARDEN', '10386  ELM GROVE GARDEN DR</t>
         </is>
       </c>
     </row>
@@ -1157,41 +1231,41 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>integer</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>267572</v>
+        <v>267773</v>
       </c>
       <c r="E10" t="n">
-        <v>267572</v>
+        <v>1123639808</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>4263.834613399715</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3400</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>3396.113572217633</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>11533587.39540081</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>-1</v>
+        <v>94000</v>
       </c>
       <c r="L10" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N10" t="n">
-        <v>25</v>
+        <v>4245</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1209,24 +1283,32 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>1100</t>
+          <t>4534</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>3274</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>(Null)</t>
+        </is>
       </c>
       <c r="V10" t="n">
-        <v>1048135</v>
+        <v>4245</v>
       </c>
       <c r="W10" t="n">
-        <v>10622</v>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>['1', '10', '100', '1000', '10000', '10001', '10002', '10003', '10004', '10005', '10006', '10008', '10009', '1001', '10010', '10012', '10013', '10019', '1002', '10020', '10021', '10022', '10023', '10024', '10025', '10027', '1003', '10030', '10031', '10032', '10033', '10034', '10035', '10036', '10037', '10038', '10039', '1004', '10040', '10041', '10042', '10043', '10044', '10045', '10046', '10047', '10049', '1005', '10050', '10051', '10053', '10055', '10058', '10059', '1006', '10060', '10064', '10065', '10066', '10067', '10068', '10069', '1007', '10070', '10073', '10074', '10075', '10076', '10077', '10078', '1008', '10080', '10081', '10082', '10083', '10084', '10085', '10086', '10087', '10088', '1009', '10090', '10091', '10092', '10094', '10095', '10097', '101', '1010', '10100', '10101', '10106', '10107', '10108', '10109', '1011', '10110', '10111', '10113', '10114', '10115', '10116', '1012', '10120', '10121', '10122', '10123', '10124', '10125', '10126', '10127', '10128', '10129', '1013', '10130', '10131', '10132', '10133', '10134', '10135', '10136', '10139', '1014', '10140', '10142', '10143', '10144', '10145', '10148', '10149', '1015', '10150', '10152', '10154', '10155', '10157', '1016', '10160', '10164', '10165', '10168', '1017', '10172', '10174', '10175', '10178', '10179', '1018', '10180', '10185', '10186', '10188', '1019', '10196', '10197', '10198', '102', '1020', '10200', '10201', '10203', '10204', '10207', '10209', '1021', '10210', '10212', '10213', '10215', '10216', '10217', '10218', '10219', '1022', '10220', '10221', '10222', '10223', '10224', '10225', '10226', '10227', '10228', '10229', '1023', '10230', '10231', '10233', '10234', '10235', '10236', '10238', '10239', '1024', '10240', '10241', '10243', '10244', '10245', '10247', '10248', '10249', '1025', '10250', '10251', '10252', '10254', '10255', '10256', '10259', '1026', '10261', '10264', '10265', '10266', '10268', '10269', '1027', '10270', '10271', '10274', '10275', '10276', '10278', '1028', '10280', '10288', '10289', '1029', '10294', '10296', '103', '1030', '10300', '10301', '10305', '10307', '10309', '1031', '10310', '10311', '10313', '10315', '10319', '1032', '10320', '10321', '10322', '10323', '10324', '10325', '10327', '10328', '10329', '1033', '10330', '10331', '10332', '10333', '10334', '10335', '10336', '10337', '10338', '10339', '1034', '10340', '10341', '10342', '10344', '10345', '10346', '10348', '1035', '10350', '10351', '10352', '10354', '10355', '10357', '10358', '1036', '10360', '10361', '10362', '10363', '10364', '10365', '10366', '10367', '10368', '10369', '1037', '10372', '10374', '10375', '10379', '1038', '10383', '10384', '10386', '10388', '10389', '1039', '10391', '10392', '10399', '104', '1040', '10400', '10401', '10402', '10407', '10408', '1041', '10410', '10411', '10412', '10414', '10415', '10416', '10417', '10418', '1042', '10420', '10421', '10422', '10423', '10424', '10425', '10426', '1043', '10430', '10431', '10432', '10433', '10434', '10435', '10436', '10437', '10438', '1044', '10440', '10442', '10443', '10444', '10445', '10449', '1045', '10450', '10451', '10452', '10453', '10454', '10455', '10456', '10457', '1046', '10460', '10461', '10462', '10463', '10464', '10465', '10466', '10467', '10468', '1047', '10470', '10471', '10472', '10473', '10474', '10475', '10476', '10477', '10478', '1048', '10480', '10481', '10484', '10485', '10488', '1049', '10490', '10492', '10496', '10499', '105', '1050', '10500', '10501', '10502', '10505', '10509', '1051', '10510', '10511', '10514', '10515', '1052', '10520', '10521', '10522', '10523', '10524', '10525', '10526', '10529', '1053', '10530', '10531', '10532', '10534', '10535', '10536', '10538', '1054', '10540', '10542', '10543', '10544', '10545', '10546', '10547', '10548', '1055', '10550', '10551', '10552', '10553', '10554', '10555', '10557', '10558', '1056', '10562', '10563', '10565', '10566', '10567', '10569', '1057', '10570', '10571', '10575', '10577', '10578', '1058', '10580', '10584', '10587', '10588', '10589', '10595', '10596', '10599', '106', '1060', '10600', '10600 CHOCTAW', '10604', '10605', '10606', '10609', '1061', '10610', '10611', '10615', '10619', '1062', '10620', '10621', '10622', '10624', '10625', '10626', '10627', '10628', '1063', '10631', '10632', '10634', '10635', '10637', '1064', '10641', '10642', '10644', '10645', '10646', '10647', '10648', '1065', '10650', '10651', '10652', '10654', '10655', '10658', '10659', '1066', '10660', '10661', '10662', '10663', '10665', '10666', '1067', '10674', '10675', '10678', '10679', '1068', '10680', '10683', '10686', '10687', '10689', '1069', '10695', '10697', '107', '1070', '10700', '10701', '10702', '10705', '10706', '10710', '10711', '10713', '10715', '10717', '10719', '1072', '10720', '10721', '10722', '10723', '10724', '10725', '10726', '10727', '1073', '10730', '10731', '10732', '10734', '10736', '10737', '10738', '10739', '1074', '10740', '10743', '10745', '10746', '10747', '1075', '10750', '10752', '10755', '10756', '1076', '10760', '10763', '10764', '10765', '10766', '10767', '10768', '1077', '10770', '10772', '10775', '10776', '10777', '10779', '1078', '10780', '10781', '10782', '10785', '10786', '10787', '1079', '10790', '10795', '10798', '108', '1080', '10800', '10801', '10802', '10805', '10808', '10809', '1081', '10810', '10811', '10812', '10813', '10817', '10818', '1082', '10820', '10821', '10822', '10823', '10825', '10827', '10828', '1083', '10832', '10833', '10835', '10836', '10838', '1084', '10841', '10842', '10843', '10844', '10845', '10847', '10848', '1085', '10850', '10855', '1086', '10860', '10862', '10863', '10865', '10869', '1087', '10870', '10877', '1088', '10881', '10884', '10887', '10888', '10889', '1089', '10891', '109', '1090', '10900', '10901', '10904', '10905', '10906', '10908', '10909', '1091', '10910', '10911', '10912', '10913', '10914', '10915', '10916', '10920', '10921', '10922', '10923', '10924', '10925', '10926', '10927', '10928', '10929', '1093', '10930', '10932', '10934', '10935', '10936', '10938', '1094', '10940', '10942', '10943', '10944', '10945', '10946', '10948', '10950', '10951', '10953', '10954', '10955', '10956', '10959', '1096', '10960', '10962', '10963', '10966', '10967', '10968', '1097', '10970', '10974', '10975', '10976', '10977', '10978', '10979', '10982', '10988', '10989', '10993', '10996', '11', '110', '1100', '11000', '11001', '11005', '11007', '11008', '1101', '11010', '11011', '11014', '11015', '11016', '11017', '1102', '11021', '11022', '11023', '11024', '11025', '11026', '11028', '1103', '11030', '11031', '11032', '11034', '11035', '11036', '1104', '11040', '11041', '11043', '11044', '11045', '11046', '11047', '1105', '11050', '11051', '11052', '11054', '11055', '11056', '1106', '11060', '11061', '11062', '11063', '11064', '11066', '11069', '1107', '11070', '11071', '11072', '11074', '1108', '11080', '11085', '11087', '1109', '11091', '11094', '11095', '11096', '111', '1110', '11100', '11101', '11105', '11108', '11109', '1111', '11110', '11111', '11112', '11116', '11117', '11119', '1112', '11120', '11122', '11123', '11124', '11125', '11126', '1113', '11130', '11132', '11134', '11135', '11136', '11137', '11139', '1114', '11140', '11141', '11142', '11143', '11144', '11145', '11146', '11147', '1115', '11150', '11151', '11152', '11153', '11154', '11157', '11158', '1116', '11160', '11162', '11165', '11166', '11167', '11169', '1117', '11171', '11172', '11173', '11174', '11175', '11178', '11179', '1118', '11180', '11182', '11186', '11187', '11188', '1119', '11191', '11196', '11198', '112', '1120', '11200', '11201', '11203', '11205', '11209', '1121', '11210', '11211', '11214', '11215', '11219', '1122', '11220', '11222', '11224', '11225', '11227', '11229', '1123', '11230', '11231', '11232', '11234', '11235', '11236', '11239', '1124', '11244', '11245', '11246', '11247', '11248', '1125', '11250', '11251', '11252', '11254', '11255', '11256', '1126', '11262', '11263', '11268', '1127', '11271', '11275', '11277', '1128', '11281', '11283', '11284', '11288', '1129', '11290', '11294', '11297', '113', '1130', '11300', '11301', '11302', '11304', '11307', '1131', '11310', '11311', '11312', '11313', '11314', '11315', '11317', '1132', '11320', '11321', '11322', '11324', '1133', '11330', '11331', '11333', '11334', '11335', '11336', '1134', '11340', '11341', '11342', '11343', '1135', '11350', '11352', '11354', '11355', '11356', '11359', '1136', '11360', '11363', '11364', '11368', '11369', '1137', '11371', '11372', '11373', '11375', '11376', '11378', '1138', '11383', '11384', '11385', '11386', '1139', '11390', '11394', '11395', '11396', '11398', '1140', '11400', '11401', '11402', '11404', '1141', '11410', '11411', '11413', '11414', '11415', '11416', '11417', '11419', '1142', '11420', '11421', '11422', '11423', '11424', '11425', '11427', '11428', '1143', '11430', '11433', '11434', '11435', '11436', '11437', '11438', '11439', '1144', '11440', '11441', '11442', '11443', '11444', '11445', '11446', '11447', '11448', '1145', '11450', '11452', '11453', '11455', '11456', '11457', '1146', '11460', '11461', '11463', '11464', '11465', '11467', '11468', '1147', '11470', '11472', '11473', '11475', '11476', '11478', '11479', '1148', '11480', '11481', '11486', '1149', '11496', '115', '1150', '11500', '11501', '1151', '11510', '11512', '11515', '11516', '11519', '1152', '11520', '11521', '11522', '11524', '11525', '11528', '1153', '11530', '11531', '11534', '11535', '11536', '11537', '11541', '11542', '11543', '11544', '11545', '11546', '11547', '11548', '11549', '1155', '11550', '11551', '11552', '11555', '11556', '11558', '1156', '11561', '11562', '11567', '11569', '1157', '11570', '11571', '11572', '11574', '11575', '11576', '11577', '11579', '1158', '11580', '11581', '11582', '11583', '11584', '11585', '11586', '1159', '11590', '11591', '11595', '116', '1160', '11600', '11602', '11603', '11605', '11606', '1161', '11610', '11612', '11613', '11614', '11615', '11617', '11618', '1162', '11620', '11621', '11623', '11624', '11625', '11627', '11628', '1163', '11630', '11631', '11632', '11633', '11634', '11635', '11636', '11638', '11639', '1164', '11640', '11641', '11643', '11644', '11645', '11646', '11647', '11648', '11649', '1165', '11650', '11651', '11652', '11654', '11655', '11656', '11658', '11659', '1166', '11660', '11661', '11662', '11663', '11665', '11666', '11668', '11669', '1167', '11671', '11672', '11673', '11674', '11675', '11677', '11678', '1168', '11680', '11683', '11685', '11686', '11687', '11688', '1169', '11690', '11692', '11693', '11698', '117', '1170', '11700', '11701', '11702', '11703', '11705', '1171', '11712', '11713', '11715', '11716', '11718', '1172', '11721', '11722', '11724', '11725', '11726', '1173', '11730', '11731', '11732', '11733', '11735', '11736', '11737', '1174', '11740', '11741', '11742', '11743', '11744', '11745', '11746', '11747', '11748', '1175', '11750', '11752', '11753', '11754', '11755', '11756', '11757', '11759', '1176', '11760', '11761', '11762', '11764', '11765', '11766', '11767', '11768', '1177', '11774', '11775', '11776', '11777', '11778', '1178', '11781', '11784', '11786', '11795', '118', '1180', '11800', '11801', '11802', '11804', '11805', '11806', '11809', '1181', '11810', '11811', '11813', '11814', '11816', '11817', '11818', '11819', '1182', '11820', '11821', '11822', '11823', '11824', '11825', '11826', '11827', '11828', '11829', '1183', '11830', '11831', '11832', '11833', '11834', '11835', '11836', '11838', '11839', '1184', '11840', '11841', '11842', '11843', '11844', '11845', '11846', '11848', '1185', '11850', '11851', '11852', '11853', '11854', '11855', '11857', '11859', '1186', '11861', '11862', '11863', '11864', '11865', '11866', '11867', '1187', '11870', '11872', '11873', '11875', '11876', '1188', '11881', '11882', '11884', '11888', '11892', '119', '1190', '11900', '11901', '11903', '11904', '11906', '11908', '1191', '11910', '11911', '11913', '11914', '11916', '11917', '11918', '11919', '1192', '11920', '11921', '11922', '11923', '11924', '11925', '11926', '11927', '11928', '11929', '1193', '11930', '11931', '11934', '11936', '11937', '11938', '11939', '1194', '11941', '11942', '11944', '11945', '11947', '11948', '1195', '11950', '11954', '11955', '11958', '11959', '11960', '11962', '11963', '11965', '11967', '11969', '1197', '11970', '11975', '11976', '1198', '11983', '11984', '11986', '11988', '11990', '11994', '11996', '11999', '12', '120', '1200', '12000', '12000 SOUTH CHOCTAW', '12001', '12002', '12003', '12006', '12009', '1201', '12010', '12011', '12012', '12013', '12018', '12019', '1202', '12020', '12021', '12022', '12023', '12024', '12026', '12028', '12029', '1203', '12030', '12031', '12032', '12033', '12034', '12035', '12036', '12038', '1204', '12041', '12042', '12045', '12047', '12048', '1205', '12051', '12052', '12053', '12054', '12055', '12056', '12057', '1206', '12061', '12065', '12068', '1207', '12071', '12072', '12074', '12076', '12077', '1208', '12080', '12081', '12086', '12087', '1209', '12095', '12097', '121', '1210', '12100', '12101', '12102', '12103', '12104', '12106', '12107', '12108', '12109', '1211', '12110', '12111', '12112', '12113', '12114', '12115', '12117', '12118', '12119', '1212', '12120', '12121', '12122', '12123', '12124', '12125', '12128', '1213', '12130', '12131', '12132', '12133', '12134', '12135', '12137', '1214', '12141', '12142', '12143', '12144', '12145', '12148', '1215', '12150', '12151', '12152', '12153', '12155', '12158', '12159', '1216', '12162', '1217', '12173', '12174', '12175', '12177', '1218', '12186', '12187', '12188', '1219', '12191', '12199', '122', '1220', '12200', '12201', '12202', '12203', '12204', '12205', '12206', '12207', '12209', '1221', '12210', '12211', '12212', '12213', '12214', '12215', '12216', '12217', '12218', '12219', '1222', '12220', '12221', '12222', '12224', '12225', '12226', '12227', '12228', '12229', '1223', '12230', '12232', '12233', '12235', '12236', '12237', '12238', '12239', '1224', '12240', '12241', '12242', '12243', '12244', '12245', '12246', '12247', '12248', '1225', '12250', '12251', '12252', '12253', '12254', '12255', '12256', '12257', '1226', '12260', '12263', '12264', '12265', '12266', '12267', '12268', '12269', '1227', '12271', '12272', '12273', '12274', '12276', '1228', '12281', '12282', '12283', '12284', '12285', '12288', '12289', '1229', '12291', '12294', '12299', '123', '1230', '12300', '12301', '12302', '12304', '12305', '12307', '1231', '12310', '12311', '12313', '12314', '12315', '12316', '12317', '12318', '12319', '1232', '12320', '12321', '12322', '12323', '12324', '12325', '12326', '12327', '12328', '12329', '1233', '12330', '12331', '12333', '12334', '12335', '12336', '12337', '12338', '12339', '1234', '12340', '12341', '12342', '12343', '12344', '12345', '12346', '12347', '12348', '12349', '1235', '12350', '12351', '12352', '12353', '12354', '12355', '12356', '12357', '12358', '1236', '12360', '12361', '12362', '12363', '12365', '12366', '12367', '12368', '12369', '1237', '12371', '12373', '12374', '12375', '12376', '12379', '1238', '12381', '12382', '12383', '12384', '12385', '12386', '12387', '12388', '12389', '1239', '12390', '12397', '124', '1240', '12400', '12401', '12402', '12407', '12408', '12409', '1241', '12410', '12411', '12412', '12413', '12414', '12415', '12416', '12417', '12418', '12419', '1242', '12420', '12421', '12422', '12423', '12424', '12425', '12426', '12427', '12428', '12429', '1243', '12430', '12431', '12432', '12433', '12434', '12436', '12437', '12438', '12439', '1244', '12440', '12441', '12442', '12443', '12444', '12445', '12446', '12447', '12448', '12449', '1245', '12450', '12451', '12452', '12453', '12454', '12455', '12456', '12457', '12459', '1246', '12460', '12461', '12462', '12463', '12464', '12465', '12466', '12467', '12468', '12469', '1247', '12471', '12473', '12474', '12475', '12477', '12478', '12479', '1248', '12480', '12481', '12482', '12484', '12485', '12486', '12487', '12488', '12489', '1249', '12491', '12493', '12494', '12495', '12497', '125', '1250', '12500', '12501', '12503', '12504', '12505', '12506', '12507', '12508', '12509', '1251', '12510', '12511', '12512', '12513', '12514', '12515', '12516', '12517', '12518', '12519', '1252', '12520', '12521', '12522', '12523', '12524', '12525', '12526', '12527', '12528', '12529', '1253', '12530', '12531', '12532', '12533', '12534', '12535', '12536', '12537', '12538', '12539', '1254', '12540', '12541', '12542', '12543', '12544', '12545', '12547', '12548', '12549', '1255', '12551', '12552', '12553', '12554', '12555', '12556', '12557', '12559', '1256', '12561', '12562', '12564', '12565', '12566', '12567', '1257', '12570', '12573', '12575', '12576', '1258', '12584', '12585', '12586', '12587', '12588', '12589', '1259', '12590', '126', '1260', '12600', '12605', '12606', '12607', '1261', '12611', '12612', '12613', '12614', '12615', '12616', '12617', '12619', '1262', '12620', '12621', '12622', '12623', '12624', '12625', '12626', '12627', '12628', '12629', '1263', '12633', '12634', '12635', '12636', '12637', '12638', '12639', '1264', '12640', '12641', '12642', '12643', '12645', '12646', '12647', '12648', '1265', '12651', '12652', '12654', '12655', '12657', '12658', '12659', '1266', '12660', '12661', '12662', '12665', '12666', '12667', '12668', '12669', '1267', '12670', '12672', '12674', '12679', '1268', '12684', '12685', '12686', '12689', '1269', '12691', '12694', '127', '1270', '12700', '12701', '12702', '12703', '12704', '12706', '12709', '12710', '12711', '12712', '12713', '12714', '12716', '12717', '12719', '1272', '12720', '12722', '12723', '12724', '12727', '12730', '12731', '12732', '12734', '12736', '12737', '12738', '1274', '12740', '12741', '12745', '12747', '12748', '12749', '1275', '12750', '12751', '12752', '12755', '12756', '12757', '12758', '1276', '12762', '12763', '12764', '12765', '12767', '1277', '12770', '12772', '12773', '12776', '12777', '1278', '12784', '12789', '1279', '12792', '128', '1280', '12800', '12808', '1281', '12812', '12815', '12816', '12819', '1282', '12823', '12824', '12825', '12826', '12827', '1283', '12831', '12834', '12835', '12836', '12837', '12838', '1284', '12840', '12842', '12844', '12845', '12848', '1285', '12850', '12853', '12854', '12855', '1286', '12860', '12867', '1287', '12878', '1288', '12888', '12891', '12895', '12897', '129', '1290', '12900', '12901', '12909', '1291', '12910', '12911', '12912', '12913', '12914', '1292', '12923', '12924', '12925', '1293', '12932', '12936', '12942', '12944', '12945', '1295', '12952', '12954', '12955', '1296', '12962', '12964', '12974', '1299', '13', '130', '1300', '13000', '13001', '13002', '1301', '13011', '13012', '13014', '1302', '13024', '13028', '1303', '13030', '13033', '13036', '1304', '13040', '13045', '13047', '1305', '13059', '1306', '1307', '13071', '13074', '1308', '13089', '1309', '131', '1310', '13100', '13101', '1311', '13112', '13115', '1312', '13121', '13122', '13123', '13125', '13126', '1313', '13136', '1314', '13146', '13147', '1315', '13151', '13156', '13157', '13159', '1316', '13169', '1317', '1318', '13185', '1319', '13194', '132', '1320', '13200', '13201', '13202', '13203', '13205', '13206', '1321', '13211', '13212', '13213', '13215', '13217', '13218', '1322', '13222', '13224', '13225', '13227', '13228', '1323', '13231', '13232', '13234', '13235', '1324', '13242', '13243', '13244', '13246', '1325', '13250', '1326', '1327', '13279', '1328', '13289', '1329', '13291', '133', '1330', '13300', '13301', '13303', '1331', '13314', '13315', '13316', '13317', '13319', '1332', '13320', '13321', '13324', '13325', '13326', '1333', '13332', '13334', '1334', '13341', '1335', '13350', '13351', '13354', '1336', '13367', '1337', '1338', '13381', '1339', '13398', '13399', '134', '1340', '13400', '13405', '13407', '13408', '1341', '13411', '13416', '13417', '13418', '13419', '1342', '13420', '13424', '13425', '13426', '1343', '13431', '13435', '1344', '13447', '1345', '13451', '13455', '1346', '13465', '1347', '13475', '1348', '1349', '13499', '135', '1350', '13500', '13501', '13503', '1351', '13511', '1352', '13521', '13522', '13526', '1353', '13534', '1354', '13542', '13544', '1355', '13555', '1356', '13566', '13567', '13568', '13569', '1357', '1358', '13585', '1359', '136', '1360', '13600', '13601', '13602', '13603', '13604', '13605', '1361', '13611', '13614', '13615', '1362', '13620', '13621', '13624', '13625', '13626', '13629', '1363', '13631', '13632', '13633', '13634', '1364', '13641', '13645', '13646', '13647', '13648', '1365', '13650', '13651', '13654', '13657', '1366', '13664', '13667', '13668', '13669', '1367', '13672', '13674', '13675', '1368', '1369', '137', '1370', '13700', '13706', '13707', '13708', '1371', '13712', '13714', '1372', '13722', '13723', '13726', '13728', '1373', '13733', '13734', '13736', '13737', '13738', '1374', '13742', '13743', '13744', '13748', '13749', '1375', '13758', '1376', '1377', '13774', '1378', '1379', '138', '1380', '13801', '13802', '13804', '13805', '13807', '1381', '13811', '13814', '13815', '13816', '13819', '1382', '13820', '13822', '13824', '13825', '13828', '1383', '13834', '13835', '13836', '13838', '13839', '1384', '13842', '13844', '13847', '13849', '1385', '13850', '1386', '13860', '13863', '13865', '13869', '1387', '1388', '13880', '1389', '1390', '13900', '13902', '13903', '13904', '13906', '13907', '1391', '13912', '13914', '13916', '13923', '13926', '1393', '13931', '13934', '13936', '13939', '1394', '13941', '13944', '13946', '1395', '13950', '13959', '1396', '13969', '1397', '13970', '13982', '1399', '13999', '140', '1400', '14000', '14001', '14004', '14009', '1401', '14011', '14012', '14013', '14014', '14015', '1402', '14029', '1403', '14031', '14032', '14039', '1404', '14041', '1405', '14059', '1406', '14062', '1407', '14071', '1408', '1409', '141', '1410', '14100', '14104', '1411', '14115', '1412', '14123', '1413', '14135', '1414', '14140', '1415', '1416', '14163', '1417', '14174', '1418', '14188', '1419', '142', '1420', '14200', '14201', '14208', '1421', '14211', '14212', '14213', '14215', '14217', '14218', '1422', '14220', '14221', '14222', '14224', '1423', '14230', '14232', '14233', '14238', '1424', '1425', '14250', '14252', '14253', '14257', '14258', '1426', '14267', '1427', '1428', '1429', '143', '1430', '14300', '1431', '14310', '14312', '14313', '14315', '14316', '14317', '1432', '14322', '14324', '14325', '14327', '14328', '1433', '14333', '14334', '14339', '1434', '14340', '14344', '14345', '14347', '14349', '1435', '14352', '14355', '14357', '14358', '14359', '1436', '14360', '14369', '1437', '14370', '1438', '1439', '14395', '144', '1440', '14400', '1441', '14413', '14416', '1442', '14422', '14424', '14425', '14426', '14428', '1443', '14433', '14434', '14435', '14436', '14437', '14438', '1444', '14443', '14444', '14445', '14446', '1445', '14453', '14455', '14456', '1446', '1447', '1448', '14482', '14485', '1449', '145', '1450', '14500', '14507', '1451', '14517', '14518', '1452', '14521', '14522', '14527', '14528', '14529', '1453', '14531', '14532', '1454', '14541', '14542', '14545', '14546', '1455', '14555', '14557', '1456', '1457', '1458', '1459', '146', '1460', '14600', '1461', '14613', '1462', '14624', '1463', '14635', '1464', '14643', '1465', '1466', '1467', '14675', '1468', '1469', '147', '1470', '1471', '1472', '14721', '14722', '14728', '1473', '14733', '14734', '14736', '1474', '1475', '14755', '1476', '14763', '1477', '1478', '1479', '148', '1480', '14800', '14808', '1481', '14815', '14817', '1482', '14822', '14825', '14828', '1483', '14836', '14845', '14848', '1485', '14857', '1486', '1487', '1488', '14882', '1489', '149', '1490', '14900', '14901', '14909', '1491', '14914', '14917', '14918', '1492', '14924', '14927', '14928', '14934', '14937', '14938', '1494', '14948', '1495', '1496', '1498', '15', '150', '1500', '15000', '15001', '15006', '1501', '15015', '15016', '1502', '1503', '15036', '1504', '15049', '1505', '15059', '1506', '1507', '1508', '1509', '151', '1510', '1511', '1512', '1513', '1514', '1515', '15151', '1516', '15165', '1517', '15171', '1518', '1519', '152', '1520', '15200', '15201', '15202', '1521', '15212', '1522', '1523', '1524', '1525', '1526', '1527', '1528', '1529', '153', '1530', '15300', '1531', '1532', '1533', '15336', '1534', '15344', '15346', '1535', '15351', '1536', '15363', '1537', '1538', '1539', '154', '1540', '15407', '1541', '15411', '15417', '1542', '15420', '15421', '15422', '1543', '15431', '1544', '15444', '1545', '15453', '1546', '1547', '1548', '1549', '155', '1550', '15500', '15501', '15502', '1551', '1552', '15522', '1553', '15530', '15532', '1554', '15543', '1555', '15555', '15559', '1556', '1557', '1558', '1559', '156', '1560', '15600', '15604', '1561', '15612', '15615', '1562', '15621', '15622', '1563', '15631', '1564', '15641', '1565', '1566', '1567', '1568', '15687', '1569', '157', '1570', '15700', '15706', '15707', '1571', '1572', '15721', '15723', '1573', '15731', '15735', '1574', '15745', '1575', '1576', '1577', '1578', '1579', '158', '1580', '15800', '15801', '15805', '1582', '15823', '15825', '1583', '15835', '1584', '15842', '15843', '15845', '1585', '15852', '1586', '1587', '1588', '1589', '159', '1590', '15900', '1591', '15910', '15915', '1592', '15920', '15925', '15927', '15929', '1594', '15941', '1595', '15959', '1596', '1597', '15999', '16', '160', '1600', '16000', '16001', '1601', '16010', '16011', '16012', '1602', '16021', '1603', '16030', '16031', '1604', '16040', '16041', '1605', '16050', '16051', '1606', '16060', '16061', '1607', '16071', '1608', '1609', '161', '1610', '16100', '1611', '1612', '16125', '16127', '1613', '1614', '1615', '1616', '1617', '16175', '1618', '1619', '162', '1620', '1621', '1622', '1623', '1624', '1625', '1626', '1627', '16273', '1628', '1629', '163', '1630', '16300', '1631', '1632', '1633', '16339', '1634', '16347', '1635', '16352', '1636', '16364', '16366', '1637', '16373', '1638', '16386', '1639', '164', '1640', '16400', '1641', '16410', '16412', '16415', '1642', '16420', '16422', '16424', '16426', '16429', '1643', '16431', '16434', '1644', '16441', '16442', '16445', '16446', '16447', '16448', '1645', '16456', '16458', '16459', '1646', '16465', '1647', '16470', '16479', '1648', '1649', '16490', '165', '1650', '16506', '1651', '16510', '16511', '16516', '16517', '1652', '16524', '16525', '16526', '1653', '16536', '16537', '1654', '16541', '16545', '16547', '16548', '1655', '16550', '16551', '16553', '1656', '16565', '16566', '16567', '1657', '16570', '16579', '1658', '1659', '16591', '16595', '166', '1660', '16600', '16601', '16606', '1661', '16611', '16613', '16618', '1662', '16621', '16622', '16624', '16625', '16626', '1663', '16632', '16633', '16634', '16636', '16637', '1664', '16641', '16646', '1665', '16651', '1666', '16666', '1667', '16678', '1668', '1669', '167', '1670', '16700', '16705', '16707', '16708', '16710', '16711', '16712', '1672', '16726', '16727', '1673', '16731', '16735', '1674', '16741', '16745', '16746', '16747', '1675', '16753', '1676', '1677', '16778', '1678', '16788', '1679', '168', '1680', '16800', '16801', '16804', '16805', '1681', '16813', '16815', '1682', '16822', '1683', '1684', '16844', '1685', '16855', '1686', '16866', '1688', '16888', '1689', '169', '1690', '16900', '16901', '1692', '1693', '16947', '1695', '1698', '170', '1700', '1701', '1702', '1703', '1704', '1705', '1706', '1707', '1708', '1709', '171', '1710', '1711', '1712', '1713', '1714', '1715', '1716', '1717', '1718', '1719', '172', '1720', '1721', '1722', '1723', '17232', '1724', '1725', '17253', '1726', '1727', '1728', '1729', '173', '1730', '1731', '1732', '1733', '1734', '1735', '1736', '1737', '1738', '1739', '174', '1740', '17400', '1741', '1742', '1743', '1744', '1745', '1746', '1747', '1748', '1749', '175', '1750', '1751', '1752', '1753', '1754', '1755', '1756', '1757', '1758', '1759', '1760', '17601', '17605', '1761', '1762', '1763', '1764', '1765', '1766', '1767', '1768', '1769', '177', '1770', '1771', '1772', '1773', '1774', '1775', '1776', '1777', '1778', '1779', '1780', '17801', '1781', '1782', '1783', '1784', '1785', '1786', '1787', '1788', '1789', '1790', '17900', '1791', '1792', '1793', '1794', '1795', '1796', '1797', '1798', '1799', '180', '1800', '18000', '1801', '1802', '1803', '1804', '1805', '1806', '1807', '1808', '1809', '181', '1810', '1811', '1812', '1813', '18130', '1814', '18149', '1815', '18155', '1816', '1817', '1818', '1819', '182', '1820', '18200', '1821', '1822', '1823', '1824', '1825', '1826', '1827', '1828', '1829', '183', '1830', '1831', '1832', '1833', '1834', '1835', '1836', '1837', '1838', '1839', '184', '1840', '1841', '1842', '1843', '1844', '1845', '1846', '1847', '1848', '1849', '185', '1850', '1851', '1852', '1853', '1854', '1855', '1856', '1857', '1858', '1859', '1860', '1861', '1862', '1863', '1864', '1865', '1866', '1867', '1868', '1869', '187', '1870', '1871', '1873', '1874', '1875', '1876', '1878', '1879', '188', '1880', '1881', '1882', '1883', '1884', '1885', '1886', '1887', '1888', '1889', '189', '1890', '1891', '1892', '1893', '1894', '1895', '1896', '1897', '1898', '1899', '190', '1900', '1901', '1902', '1903', '1905', '1906', '1907', '1908', '1909', '191', '1910', '1911', '1912', '1913', '1914', '1915', '1916', '1917', '1918', '1919', '192', '1920', '1921', '1922', '1923', '1924', '1925', '1926', '1927', '1928', '1929', '193', '1930', '1931', '1932', '1933', '1934', '1935', '1936', '19364', '1937', '1938', '1939', '1940', '1941', '1942', '1943', '1944', '1945', '1946', '1947', '1948', '1949', '195', '1950', '1951', '1952', '1953', '1954', '1955', '19555', '1956', '1957', '1958', '1959', '196', '1960', '1961', '1962', '1963', '1964', '1965', '1966', '1967', '1968', '1969', '1970', '1971', '1972', '1973', '1974', '1975', '1976', '1977', '1978', '1979', '1980', '19801', '1981', '1982', '1984', '1985', '1986', '1987', '1988', '1989', '1990', '1991', '1992', '1993', '1994', '1995', '19950', '1A1', '1A2', '1B1', '1B2', '1C1', '1C2', '1C3', '1D1', '1D2', '1D3', '1F1', '1F2', '2', '20', '200', '2000', '20000', '200000', '2001', '2002', '2003', '2004', '2005', '2006', '2007', '2008', '2009', '201', '2010', '2011', '2012', '2013', '2014', '2015', '2016', '2017', '2018', '2019', '202', '2020', '2021', '2022', '2023', '2024', '2025', '2026', '2027', '2028', '2029', '203', '2030', '2031', '2032', '2033', '2034', '2035', '2036', '2037', '2038', '2039', '204', '2040', '2041', '2042', '2043', '2044', '2045', '2046', '2047', '2048', '2049', '205', '2050', '2051', '2052', '2053', '2054', '2055', '2056', '2057', '2058', '2059', '206', '2060', '2061', '2062', '2063', '2064', '2065', '2066', '2067', '2068', '2069', '207', '2070', '2071', '2072', '2073', '2074', '2075', '2076', '2078', '2079', '208', '2080', '2081', '2082', '2083', '2084', '2085', '2088', '2089', '209', '2090', '2097', '2098', '21', '210', '2100', '2101', '2102', '2103', '2104', '2105', '2106', '2107', '2108', '2109', '211', '2110', '2111', '2112', '2113', '2114', '2115', '2116', '2117', '2118', '2119', '212', '2120', '2121', '2122', '2123', '2124', '2125', '2126', '2127', '2128', '2129', '213', '2130', '2131', '2132', '2133', '2134', '2135', '2136', '2137', '2138', '2139', '214', '2140', '2141', '2142', '2143', '2144', '2145', '2146', '2147', '2148', '2149', '215', '2150', '2151', '2152', '2153', '2154', '2155', '2156', '2157', '2158', '2159', '216', '2160', '2161', '2162', '2163', '2164', '2165', '2166', '2167', '2168', '2169', '217', '2170', '2171', '2172', '2173', '2174', '2175', '2176', '2177', '2178', '2179', '218', '2180', '2181', '2182', '2183', '2185', '2186', '2187', '2188', '219', '2191', '2192', '2195', '2196', '2199', '22', '220', '2200', '2200 KENTUCKY STREET', '2201', '2202', '2203', '2204', '2205', '2206', '2207', '2208', '2209', '221', '2210', '2211', '2212', '2213', '2214', '2215', '2216', '2217', '2218', '2219', '222', '2220', '2221', '2222', '2223', '2224', '2225', '2226', '2227', '2228', '2229', '223', '2230', '2231', '2232', '2233', '2234', '2235', '2236', '2237', '2238', '2239', '224', '2240', '2241', '2242', '2243', '2244', '2245', '2246', '2247', '2248', '2249', '225', '2250', '2251', '2252', '2253', '2254', '2255', '2256', '2257', '2258', '2259', '226', '2260', '2261', '2262', '2263', '2264', '2265', '2266', '2267', '2268', '2269', '227', '2270', '2271', '2272', '2273', '2274', '2275', '2276', '2277', '2278', '2279', '228', '2280', '2281', '22813', '2282', '2283', '2284', '2285', '2286', '2287', '2288', '2289', '229', '2290', '2291', '2292', '2293', '2295', '2296', '230', '2300', '2300 COLLEGE', '2301', '2302', '2303', '2304', '23041/2 GRACIE', '2305', '2306', '2307', '2308', '2309', '231', '2310', '2311', '2312', '2313', '2315', '2316', '2317', '2318', '2319',</t>
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1063027</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>10389</v>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>['(Null)', '1', '10', '100', '1000', '10000', '10001', '10002', '10003', '10004', '10005', '10006', '10008', '10009', '1001', '10010', '10012', '10013', '10019', '1002', '10020', '10021', '10022', '10023', '10024', '10025', '10027', '1003', '10030', '10031', '10032', '10033', '10034', '10035', '10036', '10037', '10038', '10039', '1004', '10040', '10041', '10042', '10043', '10044', '10045', '10046', '10047', '10049', '1005', '10050', '10051', '10053', '10055', '10058', '10059', '1006', '10060', '10064', '10065', '10066', '10067', '10068', '10069', '1007', '10070', '10073', '10074', '10075', '10076', '10077', '10078', '1008', '10080', '10081', '10082', '10083', '10084', '10085', '10086', '10087', '10088', '1009', '10090', '10091', '10092', '10094', '10095', '10097', '101', '1010', '10100', '10101', '10106', '10107', '10108', '10109', '1011', '10110', '10111', '10113', '10114', '10115', '10116', '1012', '10120', '10121', '10122', '10123', '10124', '10125', '10126', '10127', '10128', '10129', '1013', '10130', '10131', '10132', '10133', '10134', '10135', '10136', '10139', '1014', '10140', '10142', '10143', '10144', '10145', '10148', '10149', '1015', '10150', '10152', '10154', '10155', '10157', '1016', '10160', '10164', '10165', '10168', '1017', '10172', '10174', '10175', '10178', '10179', '1018', '10180', '10185', '10186', '10188', '1019', '10196', '10197', '10198', '102', '1020', '10200', '10201', '10203', '10204', '10207', '10209', '1021', '10210', '10212', '10213', '10215', '10216', '10217', '10218', '10219', '1022', '10220', '10221', '10222', '10223', '10224', '10225', '10226', '10227', '10228', '10229', '1023', '10230', '10231', '10233', '10234', '10235', '10236', '10238', '10239', '1024', '10240', '10241', '10243', '10244', '10245', '10247', '10248', '10249', '1025', '10250', '10251', '10252', '10254', '10255', '10256', '10259', '1026', '10261', '10264', '10265', '10266', '10268', '10269', '1027', '10270', '10271', '10274', '10275', '10276', '10278', '1028', '10280', '10288', '10289', '1029', '10294', '10296', '103', '1030', '10300', '10301', '10305', '10307', '10309', '1031', '10310', '10311', '10313', '10315', '10319', '1032', '10320', '10321', '10322', '10323', '10324', '10325', '10327', '10328', '10329', '1033', '10330', '10331', '10332', '10333', '10334', '10335', '10336', '10337', '10338', '10339', '1034', '10340', '10341', '10342', '10344', '10345', '10346', '10348', '1035', '10350', '10351', '10352', '10354', '10355', '10357', '10358', '1036', '10360', '10361', '10362', '10363', '10364', '10365', '10366', '10367', '10368', '10369', '1037', '10372', '10374', '10375', '10379', '1038', '10383', '10384', '10386', '10388', '10389', '1039', '10391', '10392', '10399', '104', '1040', '10400', '10401', '10402', '10407', '10408', '1041', '10410', '10411', '10412', '10414', '10415', '10416', '10417', '10418', '1042', '10420', '10421', '10422', '10423', '10424', '10425', '10426', '1043', '10430', '10431', '10432', '10433', '10434', '10435', '10436', '10437', '10438', '1044', '10440', '10442', '10443', '10444', '10445', '10449', '1045', '10450', '10451', '10452', '10453', '10454', '10455', '10456', '10457', '1046', '10460', '10461', '10462', '10463', '10464', '10465', '10466', '10467', '10468', '1047', '10470', '10471', '10472', '10473', '10474', '10475', '10476', '10477', '10478', '1048', '10480', '10481', '10484', '10485', '10488', '1049', '10490', '10492', '10496', '10499', '105', '1050', '10500', '10501', '10502', '10505', '10509', '1051', '10510', '10511', '10514', '10515', '1052', '10520', '10521', '10522', '10523', '10524', '10525', '10526', '10529', '1053', '10530', '10531', '10532', '10534', '10535', '10536', '10538', '1054', '10540', '10542', '10543', '10544', '10545', '10546', '10547', '10548', '1055', '10550', '10551', '10552', '10553', '10554', '10555', '10557', '10558', '1056', '10562', '10563', '10565', '10566', '10567', '10569', '1057', '10570', '10571', '10575', '10577', '10578', '1058', '10580', '10584', '10587', '10588', '10589', '10595', '10596', '10599', '106', '1060', '10600', '10604', '10605', '10606', '10609', '1061', '10610', '10611', '10615', '10619', '1062', '10620', '10621', '10622', '10624', '10625', '10626', '10627', '10628', '1063', '10631', '10632', '10634', '10635', '10637', '1064', '10641', '10642', '10644', '10645', '10646', '10647', '10648', '1065', '10650', '10651', '10652', '10654', '10655', '10658', '10659', '1066', '10660', '10661', '10662', '10663', '10665', '10666', '1067', '10674', '10675', '10678', '10679', '1068', '10680', '10683', '10686', '10687', '10689', '1069', '10695', '10697', '107', '1070', '10700', '10701', '10702', '10705', '10706', '10710', '10711', '10713', '10715', '10717', '10719', '1072', '10720', '10721', '10722', '10723', '10724', '10725', '10726', '10727', '1073', '10730', '10731', '10732', '10734', '10736', '10737', '10738', '10739', '1074', '10740', '10743', '10745', '10746', '10747', '1075', '10750', '10752', '10755', '10756', '1076', '10760', '10763', '10764', '10765', '10766', '10767', '10768', '1077', '10770', '10772', '10775', '10776', '10777', '10779', '1078', '10780', '10781', '10782', '10785', '10786', '10787', '1079', '10790', '10795', '10798', '108', '1080', '10800', '10801', '10802', '10805', '10808', '10809', '1081', '10810', '10811', '10812', '10813', '10817', '10818', '1082', '10820', '10821', '10822', '10823', '10825', '10827', '10828', '1083', '10832', '10833', '10835', '10836', '10838', '1084', '10841', '10842', '10843', '10844', '10845', '10847', '10848', '1085', '10850', '10855', '1086', '10860', '10862', '10863', '10865', '10869', '1087', '10870', '10877', '1088', '10881', '10884', '10887', '10888', '10889', '1089', '10891', '109', '1090', '10900', '10901', '10904', '10905', '10906', '10908', '10909', '1091', '10910', '10911', '10912', '10913', '10914', '10915', '10916', '10920', '10921', '10922', '10923', '10924', '10925', '10926', '10927', '10928', '10929', '1093', '10930', '10932', '10934', '10935', '10936', '10938', '1094', '10940', '10942', '10943', '10944', '10945', '10946', '10948', '10950', '10951', '10953', '10954', '10955', '10956', '10959', '1096', '10960', '10962', '10963', '10966', '10967', '10968', '1097', '10970', '10974', '10975', '10976', '10977', '10978', '10979', '10982', '10988', '10989', '10993', '10996', '11', '110', '1100', '11000', '11001', '11005', '11007', '11008', '1101', '11010', '11011', '11014', '11015', '11016', '11017', '1102', '11021', '11022', '11023', '11024', '11025', '11026', '11028', '1103', '11030', '11031', '11032', '11034', '11035', '11036', '1104', '11040', '11041', '11043', '11044', '11045', '11046', '11047', '1105', '11050', '11051', '11052', '11054', '11055', '11056', '1106', '11060', '11061', '11062', '11063', '11064', '11066', '11069', '1107', '11070', '11071', '11072', '11074', '1108', '11080', '11085', '11087', '1109', '11091', '11094', '11095', '11096', '111', '1110', '11100', '11101', '11105', '11108', '11109', '1111', '11110', '11111', '11112', '11116', '11117', '11119', '1112', '11120', '11122', '11123', '11124', '11125', '11126', '1113', '11130', '11132', '11134', '11135', '11136', '11137', '11139', '1114', '11140', '11141', '11142', '11143', '11144', '11145', '11146', '11147', '1115', '11150', '11151', '11152', '11153', '11154', '11157', '11158', '1116', '11160', '11162', '11165', '11166', '11167', '11169', '1117', '11171', '11172', '11173', '11174', '11175', '11178', '11179', '1118', '11180', '11182', '11186', '11187', '11188', '1119', '11191', '11196', '11198', '112', '1120', '11200', '11201', '11203', '11205', '11209', '1121', '11210', '11211', '11214', '11215', '11219', '1122', '11220', '11222', '11224', '11225', '11227', '11229', '1123', '11230', '11231', '11232', '11234', '11235', '11236', '11239', '1124', '11244', '11245', '11246', '11247', '11248', '1125', '11250', '11251', '11252', '11254', '11255', '11256', '1126', '11262', '11263', '11268', '1127', '11271', '11275', '11277', '1128', '11281', '11283', '11284', '11288', '1129', '11290', '11294', '11297', '113', '1130', '11300', '11301', '11302', '11304', '11307', '1131', '11310', '11311', '11312', '11313', '11314', '11315', '11317', '1132', '11320', '11321', '11322', '11324', '1133', '11330', '11331', '11333', '11334', '11335', '11336', '1134', '11340', '11341', '11342', '11343', '1135', '11350', '11352', '11354', '11355', '11356', '11359', '1136', '11360', '11363', '11364', '11368', '11369', '1137', '11371', '11372', '11373', '11375', '11376', '11378', '1138', '11383', '11384', '11385', '11386', '1139', '11390', '11394', '11395', '11396', '11398', '1140', '11400', '11401', '11402', '11404', '1141', '11410', '11411', '11413', '11414', '11415', '11416', '11417', '11419', '1142', '11420', '11421', '11422', '11423', '11424', '11425', '11427', '11428', '1143', '11430', '11433', '11434', '11435', '11436', '11437', '11438', '11439', '1144', '11440', '11441', '11442', '11443', '11444', '11445', '11446', '11447', '11448', '1145', '11450', '11452', '11453', '11455', '11456', '11457', '1146', '11460', '11461', '11463', '11464', '11465', '11467', '11468', '1147', '11470', '11472', '11473', '11475', '11476', '11478', '11479', '1148', '11480', '11481', '11486', '1149', '11496', '115', '1150', '11500', '11501', '1151', '11510', '11512', '11515', '11516', '11519', '1152', '11520', '11521', '11522', '11524', '11525', '11528', '1153', '11530', '11531', '11534', '11535', '11536', '11537', '11541', '11542', '11543', '11544', '11545', '11546', '11547', '11548', '11549', '1155', '11550', '11551', '11552', '11555', '11556', '11558', '1156', '11561', '11562', '11567', '11569', '1157', '11570', '11571', '11572', '11574', '11575', '11576', '11577', '11579', '1158', '11580', '11581', '11582', '11583', '11584', '11585', '11586', '1159', '11590', '11591', '11595', '116', '1160', '11600', '11602', '11603', '11605', '11606', '1161', '11610', '11612', '11613', '11614', '11615', '11617', '11618', '1162', '11620', '11621', '11623', '11624', '11625', '11627', '11628', '1163', '11630', '11631', '11632', '11633', '11634', '11635', '11636', '11638', '11639', '1164', '11640', '11641', '11643', '11644', '11645', '11646', '11647', '11648', '11649', '1165', '11650', '11651', '11652', '11654', '11655', '11656', '11658', '11659', '1166', '11660', '11661', '11662', '11663', '11665', '11666', '11668', '11669', '1167', '11671', '11672', '11673', '11674', '11675', '11677', '11678', '1168', '11680', '11683', '11685', '11686', '11687', '11688', '1169', '11690', '11692', '11693', '11698', '117', '1170', '11700', '11701', '11702', '11703', '11705', '1171', '11712', '11713', '11715', '11716', '11718', '1172', '11721', '11722', '11724', '11725', '11726', '1173', '11730', '11731', '11732', '11733', '11735', '11736', '11737', '1174', '11740', '11741', '11742', '11743', '11744', '11745', '11746', '11747', '11748', '1175', '11750', '11752', '11753', '11754', '11755', '11756', '11757', '11759', '1176', '11760', '11761', '11762', '11764', '11765', '11766', '11767', '11768', '1177', '11774', '11775', '11776', '11777', '11778', '1178', '11781', '11784', '11786', '11795', '118', '1180', '11800', '11801', '11802', '11804', '11805', '11806', '11809', '1181', '11810', '11811', '11813', '11814', '11816', '11817', '11818', '11819', '1182', '11820', '11821', '11822', '11823', '11824', '11825', '11826', '11827', '11828', '11829', '1183', '11830', '11831', '11832', '11833', '11834', '11835', '11836', '11838', '11839', '1184', '11840', '11841', '11842', '11843', '11844', '11845', '11846', '11848', '1185', '11850', '11851', '11852', '11853', '11854', '11855', '11857', '11859', '1186', '11861', '11862', '11863', '11864', '11865', '11866', '11867', '1187', '11870', '11872', '11873', '11875', '11876', '1188', '11881', '11882', '11884', '11888', '11892', '119', '1190', '11900', '11901', '11903', '11904', '11906', '11908', '1191', '11910', '11911', '11913', '11914', '11916', '11917', '11918', '11919', '1192', '11920', '11921', '11922', '11923', '11924', '11925', '11926', '11927', '11928', '11929', '1193', '11930', '11931', '11934', '11936', '11937', '11938', '11939', '1194', '11941', '11942', '11944', '11945', '11947', '11948', '1195', '11950', '11954', '11955', '11958', '11959', '11960', '11962', '11963', '11965', '11967', '11969', '1197', '11970', '11975', '11976', '1198', '11983', '11984', '11986', '11988', '11990', '11994', '11996', '11999', '12', '120', '1200', '12000', '12001', '12002', '12003', '12006', '12009', '1201', '12010', '12011', '12012', '12013', '12018', '12019', '1202', '12020', '12021', '12022', '12023', '12024', '12026', '12028', '12029', '1203', '12030', '12031', '12032', '12033', '12034', '12035', '12036', '12038', '1204', '12041', '12042', '12045', '12047', '12048', '1205', '12051', '12052', '12053', '12054', '12055', '12056', '12057', '1206', '12061', '12065', '12068', '1207', '12071', '12072', '12074', '12076', '12077', '1208', '12080', '12081', '12086', '12087', '1209', '12095', '12097', '121', '1210', '12100', '12101', '12102', '12103', '12104', '12106', '12107', '12108', '12109', '1211', '12110', '12111', '12112', '12113', '12114', '12115', '12117', '12118', '12119', '1212', '12120', '12121', '12122', '12123', '12124', '12125', '12128', '1213', '12130', '12131', '12132', '12133', '12134', '12135', '12137', '1214', '12141', '12142', '12143', '12144', '12145', '12148', '1215', '12150', '12151', '12152', '12153', '12155', '12158', '12159', '1216', '12162', '1217', '12173', '12174', '12175', '12177', '1218', '12186', '12187', '12188', '1219', '12191', '12199', '122', '1220', '12200', '12201', '12202', '12203', '12204', '12205', '12206', '12207', '12209', '1221', '12210', '12211', '12212', '12213', '12214', '12215', '12216', '12217', '12218', '12219', '1222', '12220', '12221', '12222', '12224', '12225', '12226', '12227', '12228', '12229', '1223', '12230', '12232', '12233', '12235', '12236', '12237', '12238', '12239', '1224', '12240', '12241', '12242', '12243', '12244', '12245', '12246', '12247', '12248', '1225', '12250', '12251', '12252', '12253', '12254', '12255', '12256', '12257', '1226', '12260', '12263', '12264', '12265', '12266', '12267', '12268', '12269', '1227', '12271', '12272', '12273', '12274', '12276', '1228', '12281', '12282', '12283', '12284', '12285', '12288', '12289', '1229', '12291', '12294', '12299', '123', '1230', '12300', '12301', '12302', '12304', '12305', '12307', '1231', '12310', '12311', '12313', '12314', '12315', '12316', '12317', '12318', '12319', '1232', '12320', '12321', '12322', '12323', '12324', '12325', '12326', '12327', '12328', '12329', '1233', '12330', '12331', '12333', '12334', '12335', '12336', '12337', '12338', '12339', '1234', '12340', '12341', '12342', '12343', '12344', '12345', '12346', '12347', '12348', '12349', '1235', '12350', '12351', '12352', '12353', '12354', '12355', '12356', '12357', '12358', '1236', '12360', '12361', '12362', '12363', '12365', '12366', '12367', '12368', '12369', '1237', '12371', '12373', '12374', '12375', '12376', '12379', '1238', '12381', '12382', '12383', '12384', '12385', '12386', '12387', '12388', '12389', '1239', '12390', '12397', '124', '1240', '12400', '12401', '12402', '12407', '12408', '12409', '1241', '12410', '12411', '12412', '12413', '12414', '12415', '12416', '12417', '12418', '12419', '1242', '12420', '12421', '12422', '12423', '12424', '12425', '12426', '12427', '12428', '12429', '1243', '12430', '12431', '12432', '12433', '12434', '12436', '12437', '12438', '12439', '1244', '12440', '12441', '12442', '12443', '12444', '12445', '12446', '12447', '12448', '12449', '1245', '12450', '12451', '12452', '12453', '12454', '12455', '12456', '12457', '12459', '1246', '12460', '12461', '12462', '12463', '12464', '12465', '12466', '12467', '12468', '12469', '1247', '12471', '12473', '12474', '12475', '12477', '12478', '12479', '1248', '12480', '12481', '12482', '12484', '12485', '12486', '12487', '12488', '12489', '1249', '12491', '12493', '12494', '12495', '12497', '125', '1250', '12500', '12501', '12503', '12504', '12505', '12506', '12507', '12508', '12509', '1251', '12510', '12511', '12512', '12513', '12514', '12515', '12516', '12517', '12518', '12519', '1252', '12520', '12521', '12522', '12523', '12524', '12525', '12526', '12527', '12528', '12529', '1253', '12530', '12531', '12532', '12533', '12534', '12535', '12536', '12537', '12538', '12539', '1254', '12540', '12541', '12542', '12543', '12544', '12545', '12547', '12548', '12549', '1255', '12551', '12552', '12553', '12554', '12555', '12556', '12557', '12559', '1256', '12561', '12562', '12564', '12565', '12566', '12567', '1257', '12570', '12573', '12575', '12576', '1258', '12584', '12585', '12586', '12587', '12588', '12589', '1259', '12590', '126', '1260', '12600', '12605', '12606', '12607', '1261', '12611', '12612', '12613', '12614', '12615', '12616', '12617', '12619', '1262', '12620', '12621', '12622', '12623', '12624', '12625', '12626', '12627', '12628', '12629', '1263', '12633', '12634', '12635', '12636', '12637', '12638', '12639', '1264', '12640', '12641', '12642', '12643', '12645', '12646', '12647', '12648', '1265', '12651', '12652', '12654', '12655', '12657', '12658', '12659', '1266', '12660', '12661', '12662', '12665', '12666', '12667', '12668', '12669', '1267', '12670', '12672', '12674', '12679', '1268', '12684', '12685', '12686', '12689', '1269', '12691', '12694', '127', '1270', '12700', '12701', '12702', '12703', '12704', '12706', '12709', '12710', '12711', '12712', '12713', '12714', '12716', '12717', '12719', '1272', '12720', '12722', '12723', '12724', '12727', '12730', '12731', '12732', '12734', '12736', '12737', '12738', '1274', '12740', '12741', '12745', '12747', '12748', '12749', '1275', '12750', '12751', '12752', '12755', '12756', '12757', '12758', '1276', '12762', '12763', '12764', '12765', '12767', '1277', '12770', '12772', '12773', '12776', '12777', '1278', '12784', '12789', '1279', '12792', '128', '1280', '12800', '12808', '1281', '12812', '12815', '12816', '12819', '1282', '12823', '12824', '12825', '12826', '12827', '1283', '12831', '12834', '12835', '12836', '12837', '12838', '1284', '12840', '12842', '12844', '12845', '12848', '1285', '12850', '12853', '12854', '12855', '1286', '12860', '12867', '1287', '12878', '1288', '12888', '12891', '12895', '12897', '129', '1290', '12900', '12901', '12909', '1291', '12910', '12911', '12912', '12913', '12914', '1292', '12923', '12924', '12925', '1293', '12932', '12936', '12942', '12944', '12945', '1295', '12952', '12954', '12955', '1296', '12962', '12964', '12974', '1299', '13', '130', '1300', '13000', '13001', '13002', '1301', '13011', '13012', '13014', '1302', '13024', '13028', '1303', '13030', '13033', '13036', '1304', '13040', '13045', '13047', '1305', '13059', '1306', '1307', '13071', '13074', '1308', '13089', '1309', '131', '1310', '13100', '13101', '1311', '13112', '13115', '1312', '13121', '13122', '13123', '13125', '13126', '1313', '13136', '1314', '13146', '13147', '1315', '13151', '13156', '13157', '13159', '1316', '13169', '1317', '1318', '13185', '1319', '13194', '132', '1320', '13200', '13201', '13202', '13203', '13205', '13206', '1321', '13211', '13212', '13213', '13215', '13217', '13218', '1322', '13222', '13224', '13225', '13227', '13228', '1323', '13231', '13232', '13234', '13235', '1324', '13242', '13243', '13244', '13246', '1325', '13250', '1326', '1327', '13279', '1328', '13289', '1329', '13291', '133', '1330', '13300', '13301', '13303', '1331', '13314', '13315', '13316', '13317', '13319', '1332', '13320', '13321', '13324', '13325', '13326', '1333', '13332', '13334', '1334', '13341', '1335', '13350', '13351', '13354', '1336', '13367', '1337', '1338', '13381', '1339', '13398', '13399', '134', '1340', '13400', '13405', '13407', '13408', '1341', '13411', '13416', '13417', '13418', '13419', '1342', '13420', '13424', '13425', '13426', '1343', '13431', '13435', '1344', '13447', '1345', '13451', '13455', '1346', '13465', '1347', '13475', '1348', '1349', '13499', '135', '1350', '13500', '13501', '13503', '1351', '13511', '1352', '13521', '13522', '13526', '1353', '13534', '1354', '13542', '13544', '1355', '13555', '1356', '13566', '13567', '13568', '13569', '1357', '1358', '13585', '1359', '136', '1360', '13600', '13601', '13602', '13603', '13604', '13605', '1361', '13611', '13614', '13615', '1362', '13620', '13621', '13624', '13625', '13626', '13629', '1363', '13631', '13632', '13633', '13634', '1364', '13641', '13645', '13646', '13647', '13648', '1365', '13650', '13651', '13654', '13657', '1366', '13664', '13667', '13668', '13669', '1367', '13672', '13674', '13675', '1368', '1369', '137', '1370', '13700', '13706', '13707', '13708', '1371', '13712', '13714', '1372', '13722', '13723', '13726', '13728', '1373', '13733', '13734', '13736', '13737', '13738', '1374', '13742', '13743', '13744', '13748', '13749', '1375', '13758', '1376', '1377', '13774', '1378', '1379', '138', '1380', '13801', '13802', '13804', '13805', '13807', '1381', '13811', '13814', '13815', '13816', '13819', '1382', '13820', '13822', '13824', '13825', '13828', '1383', '13834', '13835', '13836', '13838', '13839', '1384', '13842', '13844', '13847', '13849', '1385', '13850', '1386', '13860', '13863', '13865', '13869', '1387', '1388', '13880', '1389', '1390', '13900', '13902', '13903', '13904', '13906', '13907', '1391', '13912', '13914', '13916', '13923', '13926', '1393', '13931', '13934', '13936', '13939', '1394', '13941', '13944', '13946', '1395', '13950', '13959', '1396', '13969', '1397', '13970', '13982', '1399', '13999', '140', '1400', '14000', '14001', '14004', '14009', '1401', '14011', '14012', '14013', '14014', '14015', '1402', '14029', '1403', '14031', '14032', '14039', '1404', '14041', '1405', '14059', '1406', '14062', '1407', '14071', '1408', '1409', '141', '1410', '14100', '14104', '1411', '14115', '1412', '14123', '1413', '14135', '1414', '14140', '1415', '1416', '14163', '1417', '14174', '1418', '14188', '1419', '142', '1420', '14200', '14201', '14208', '1421', '14211', '14212', '14213', '14215', '14217', '14218', '1422', '14220', '14221', '14222', '14224', '1423', '14230', '14232', '14233', '14238', '1424', '1425', '14250', '14252', '14253', '14257', '14258', '1426', '14267', '1427', '1428', '1429', '143', '1430', '14300', '1431', '14310', '14312', '14313', '14315', '14316', '14317', '1432', '14322', '14324', '14325', '14327', '14328', '1433', '14333', '14334', '14339', '1434', '14340', '14344', '14345', '14347', '14349', '1435', '14352', '14355', '14357', '14358', '14359', '1436', '14360', '14369', '1437', '14370', '1438', '1439', '14395', '144', '1440', '14400', '1441', '14413', '14416', '1442', '14422', '14424', '14425', '14426', '14428', '1443', '14433', '14434', '14435', '14436', '14437', '14438', '1444', '14443', '14444', '14445', '14446', '1445', '14453', '14455', '14456', '1446', '1447', '1448', '14482', '14485', '1449', '145', '1450', '14500', '14507', '1451', '14517', '14518', '1452', '14521', '14522', '14527', '14528', '14529', '1453', '14531', '14532', '1454', '14541', '14542', '14545', '14546', '1455', '14555', '14557', '1456', '1457', '1458', '1459', '146', '1460', '14600', '1461', '14613', '1462', '14624', '1463', '14635', '1464', '14643', '1465', '1466', '1467', '14675', '1468', '1469', '147', '1470', '1471', '1472', '14721', '14722', '14728', '1473', '14733', '14734', '14736', '1474', '1475', '14755', '1476', '14763', '1477', '1478', '1479', '148', '1480', '14800', '14808', '1481', '14815', '14817', '1482', '14822', '14825', '14828', '1483', '14836', '14845', '14848', '1485', '14857', '1486', '1487', '1488', '14882', '1489', '149', '1490', '14900', '14901', '14909', '1491', '14914', '14917', '14918', '1492', '14924', '14927', '14928', '14934', '14937', '14938', '1494', '14948', '1495', '1496', '1498', '15', '150', '1500', '15000', '15001', '15006', '1501', '15015', '15016', '1502', '1503', '15036', '1504', '15049', '1505', '15059', '1506', '1507', '1508', '1509', '151', '1510', '1511', '1512', '1513', '1514', '1515', '15151', '1516', '15165', '1517', '15171', '1518', '1519', '152', '1520', '15200', '15201', '15202', '1521', '15212', '1522', '1523', '1524', '1525', '1526', '1527', '1528', '1529', '153', '1530', '15300', '1531', '1532', '1533', '15336', '1534', '15344', '15346', '1535', '15351', '1536', '15363', '1537', '1538', '1539', '154', '1540', '15407', '1541', '15411', '15417', '1542', '15420', '15421', '15422', '1543', '15431', '1544', '15444', '1545', '15453', '1546', '1547', '1548', '1549', '155', '1550', '15500', '15501', '15502', '1551', '1552', '15522', '1553', '15530', '15532', '1554', '15543', '1555', '15555', '15559', '1556', '1557', '1558', '1559', '156', '1560', '15600', '15604', '1561', '15612', '15615', '1562', '15621', '15622', '1563', '15631', '1564', '15641', '1565', '1566', '1567', '1568', '15687', '1569', '157', '1570', '15700', '15706', '15707', '1571', '1572', '15721', '15723', '1573', '15731', '15735', '1574', '15745', '1575', '1576', '1577', '1578', '1579', '158', '1580', '15800', '15801', '15805', '1582', '15823', '15825', '1583', '15835', '1584', '15842', '15843', '15845', '1585', '15852', '1586', '1587', '1588', '1589', '159', '1590', '15900', '1591', '15910', '15915', '1592', '15920', '15925', '15927', '15929', '1594', '15941', '1595', '15959', '1596', '1597', '15999', '16', '160', '1600', '16000', '16001', '1601', '16010', '16011', '16012', '1602', '16021', '1603', '16030', '16031', '1604', '16040', '16041', '1605', '16050', '16051', '1606', '16060', '16061', '1607', '16071', '1608', '1609', '161', '1610', '16100', '1611', '1612', '16125', '16127', '1613', '1614', '1615', '1616', '1617', '16175', '1618', '1619', '162', '1620', '1621', '1622', '1623', '1624', '1625', '1626', '1627', '16273', '1628', '1629', '163', '1630', '16300', '1631', '1632', '1633', '16339', '1634', '16347', '1635', '16352', '1636', '16364', '16366', '1637', '16373', '1638', '16386', '1639', '164', '1640', '16400', '1641', '16410', '16412', '16415', '1642', '16420', '16422', '16424', '16426', '16429', '1643', '16431', '16434', '1644', '16441', '16442', '16445', '16446', '16447', '16448', '1645', '16456', '16458', '16459', '1646', '16465', '1647', '16470', '16479', '1648', '1649', '16490', '165', '1650', '16506', '1651', '16510', '16511', '16516', '16517', '1652', '16524', '16525', '16526', '1653', '16536', '16537', '1654', '16541', '16545', '16547', '16548', '1655', '16550', '16551', '16553', '1656', '16565', '16566', '16567', '1657', '16570', '16579', '1658', '1659', '16591', '16595', '166', '1660', '16600', '16601', '16606', '1661', '16611', '16613', '16618', '1662', '16621', '16622', '16624', '16625', '16626', '1663', '16632', '16633', '16634', '16636', '16637', '1664', '16641', '16646', '1665', '16651', '1666', '16666', '1667', '16678', '1668', '1669', '167', '1670', '16700', '16705', '16707', '16708', '16710', '16711', '16712', '1672', '16726', '16727', '1673', '16731', '16735', '1674', '16741', '16745', '16746', '16747', '1675', '16753', '1676', '1677', '16778', '1678', '16788', '1679', '168', '1680', '16800', '16801', '16804', '16805', '1681', '16813', '16815', '1682', '16822', '1683', '1684', '16844', '1685', '16855', '1686', '16866', '1688', '16888', '1689', '169', '1690', '16900', '16901', '1692', '1693', '16947', '1695', '1698', '170', '1700', '1701', '1702', '1703', '1704', '1705', '1706', '1707', '1708', '1709', '171', '1710', '1711', '1712', '1713', '1714', '1715', '1716', '1717', '1718', '1719', '172', '1720', '1721', '1722', '1723', '17232', '1724', '1725', '17253', '1726', '1727', '1728', '1729', '173', '1730', '1731', '1732', '1733', '1734', '1735', '1736', '1737', '1738', '1739', '174', '1740', '17400', '1741', '1742', '1743', '1744', '1745', '1746', '1747', '1748', '1749', '175', '1750', '1751', '1752', '1753', '1754', '1755', '1756', '1757', '1758', '1759', '1760', '17601', '17605', '1761', '1762', '1763', '1764', '1765', '1766', '1767', '1768', '1769', '177', '1770', '1771', '1772', '1773', '1774', '1775', '1776', '1777', '1778', '1779', '1780', '17801', '1781', '1782', '1783', '1784', '1785', '1786', '1787', '1788', '1789', '1790', '17900', '1791', '1792', '1793', '1794', '1795', '1796', '1797', '1798', '1799', '180', '1800', '18000', '1801', '1802', '1803', '1804', '1805', '1806', '1807', '1808', '1809', '181', '1810', '1811', '1812', '1813', '18130', '1814', '18149', '1815', '18155', '1816', '1817', '1818', '1819', '182', '1820', '18200', '1821', '1822', '1823', '1824', '1825', '1826', '1827', '1828', '1829', '183', '1830', '1831', '1832', '1833', '1834', '1835', '1836', '1837', '1838', '1839', '184', '1840', '1841', '1842', '1843', '1844', '1845', '1846', '1847', '1848', '1849', '185', '1850', '1851', '1852', '1853', '1854', '1855', '1856', '1857', '1858', '1859', '1860', '1861', '1862', '1863', '1864', '1865', '1866', '1867', '1868', '1869', '187', '1870', '1871', '1873', '1874', '1875', '1876', '1878', '1879', '188', '1880', '1881', '1882', '1883', '1884', '1885', '1886', '1887', '1888', '1889', '189', '1890', '1891', '1892', '1893', '1894', '1895', '1896', '1897', '1898', '1899', '190', '1900', '1901', '1902', '1903', '1905', '1906', '1907', '1908', '1909', '191', '1910', '1911', '1912', '1913', '1914', '1915', '1916', '1917', '1918', '1919', '192', '1920', '1921', '1922', '1923', '1924', '1925', '1926', '1927', '1928', '1929', '193', '1930', '1931', '1932', '1933', '1934', '1935', '1936', '19364', '1937', '1938', '1939', '1940', '1941', '1942', '1943', '1944', '1945', '1946', '1947', '1948', '1949', '195', '1950', '1951', '1952', '1953', '1954', '1955', '19555', '1956', '1957', '1958', '1959', '196', '1960', '1961', '1962', '1963', '1964', '1965', '1966', '1967', '1968', '1969', '1970', '1971', '1972', '1973', '1974', '1975', '1976', '1977', '1978', '1979', '1980', '19801', '1981', '1982', '1984', '1985', '1986', '1987', '1988', '1989', '1990', '1991', '1992', '1993', '1994', '1995', '19950', '2', '200', '2000', '20000', '2001', '2002', '2003', '2004', '2005', '2006', '2007', '2008', '2009', '201', '2010', '2011', '2012', '2013', '2014', '2015', '2016', '2017', '2018', '2019', '202', '2020', '2021', '2022', '2023', '2024', '2025', '2026', '2027', '2028', '2029', '203', '2030', '2031', '2032', '2033', '2034', '2035', '2036', '2037', '2038', '2039', '204', '2040', '2041', '2042', '2043', '2044', '2045', '2046', '2047', '2048', '2049', '205', '2050', '2051', '2052', '2053', '2054', '2055', '2056', '2057', '2058', '2059', '206', '2060', '2061', '2062', '2063', '2064', '2065', '2066', '2067', '2068', '2069', '207', '2070', '2071', '2072', '2073', '2074', '2075', '2076', '2078', '2079', '208', '2080', '2081', '2082', '2083', '2084', '2085', '2088', '2089', '209', '2090', '2097', '2098', '21', '210', '2100', '2101', '2102', '2103', '2104', '2105', '2106', '2107', '2108', '2109', '211', '2110', '2111', '2112', '2113', '2114', '2115', '2116', '2117', '2118', '2119', '212', '2120', '2121', '2122', '2123', '2124', '2125', '2126', '2127', '2128', '2129', '213', '2130', '2131', '2132', '2133', '2134', '2135', '2136', '2137', '2138', '2139', '214', '2140', '2141', '2142', '2143', '2144', '2145', '2146', '2147', '2148', '2149', '215', '2150', '2151', '2152', '2153', '2154', '2155', '2156', '2157', '2158', '2159', '216', '2160', '2161', '2162', '2163', '2164', '2165', '2166', '2167', '2168', '2169', '217', '2170', '2171', '2172', '2173', '2174', '2175', '2176', '2177', '2178', '2179', '218', '2180', '2181', '2182', '2183', '2185', '2186', '2187', '2188', '219', '2191', '2192', '2195', '2196', '2199', '22', '220', '2200', '2201', '2202', '2203', '2204', '2205', '2206', '2207', '2208', '2209', '221', '2210', '2211', '2212', '2213', '2214', '2215', '2216', '2217', '2218', '2219', '222', '2220', '2221', '2222', '2223', '2224', '2225', '2226', '2227', '2228', '2229', '223', '2230', '2231', '2232', '2233', '2234', '2235', '2236', '2237', '2238', '2239', '224', '2240', '2241', '2242', '2243', '2244', '2245', '2246', '2247', '2248', '2249', '225', '2250', '2251', '2252', '2253', '2254', '2255', '2256', '2257', '2258', '2259', '226', '2260', '2261', '2262', '2263', '2264', '2265', '2266', '2267', '2268', '2269', '227', '2270', '2271', '2272', '2273', '2274', '2275', '2276', '2277', '2278', '2279', '228', '2280', '2281', '22813', '2282', '2283', '2284', '2285', '2286', '2287', '2288', '2289', '229', '2290', '2291', '2292', '2293', '2295', '2296', '230', '2300', '2301', '2302', '2303', '2304', '2305', '2306', '2307', '2308', '2309', '231', '2310', '2311', '2312', '2313', '2315', '2316', '2317', '2318', '2319', '232', '2320', '2321', '2322', '2323', '2324', '2325', '2326', '2327', '2328', '2329', '233', '2330', '2331', '2332', '2333', '2334', '23340', '2335', '2336', '2337', '2338', '2339', '234</t>
         </is>
       </c>
     </row>
@@ -1245,10 +1327,10 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>265961</v>
+        <v>267773</v>
       </c>
       <c r="E11" t="n">
-        <v>265961</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1263,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K11" t="n">
         <v>-1</v>
       </c>
       <c r="L11" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N11" t="n">
-        <v>28</v>
+        <v>223270</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -1293,24 +1375,32 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>W</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>24968</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
+        <v>3934</v>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>(Null)</t>
+        </is>
       </c>
       <c r="V11" t="n">
-        <v>1748841</v>
+        <v>223270</v>
       </c>
       <c r="W11" t="n">
-        <v>3704</v>
-      </c>
-      <c r="X11" t="inlineStr">
-        <is>
-          <t>['0NEAL', '0SAGE', '10', '100', '12TH', '15TH', '19', '1A1', '1A2', '1B1', '1B2', '1C1', '1C2', '1C3', '1D1', '1D2', '1D3', '1F1', '1F2', '20', '200', '2000', '20000', '20TH', '21ST', '22ND', '24TH', '2A1', '2A2', '2A3', '2B1', '2B2', '2B3', '2B4', '2B5', '2C1', '2C2', '2C3', '2D1', '2D2', '2D3', '2F1', '30', '300', '3000', '30000', '300000', '31ST', '32ND', '37TH', '3800 ELM', '38TH', '39TH', '3A1', '3A2', '3A3', '3B1', '3B2', '3C1', '3C2', '3C3', '3D1', '3D2', '3D3', '3F1', '3F2', '3F3', '3G1', '3G2', '3G3', '3RD', '3RD STREET', '40', '400', '44TH', '46TH', '47TH', '48TH', '49TH', '4A1', '4A2', '4B1', '4B2', '4B3', '4C1', '4C2', '4D1', '4D2', '4F1', '4F2', '4TH', '5TH', '68TH', '69 TH', '69TH', '69TH. AVE', '69TH. AVE.', '70TH', '70TH. AVE.', '71', '71 ST', '71ST', '71ST AVENUE', '72', '72 ND', '72ND', '72ND. AVE.', '73RD', '73RD AVE', '74', '74TH', '74TH AVE', '75', '75TH', '75TH AVE', '75TH. AVE.', '76TH', '77T', '77TH', '78TH', '78TH AVE', '78TH AVENUE', '79TH', '7OTH', 'A', 'ABEL', 'ABELIA', 'ABERDEEN', 'ACADIA', 'ACADIAN', 'ACADIAN E', 'ACADIAN THWY E', 'ACCARDO', 'ACORN', 'ADAMS', 'ADDINGTON', 'ADDISON', 'ADELLA', 'ADRICHS', 'AIRINE', 'AIRLIEN', 'AIRLIINE', 'AIRLINE', 'AIRLINE HIGHWAY', 'AIRLINE HW', 'AIRLINE HWY', 'AIRLINE HWY.', 'AIRLINEGURLIE', 'AIRLLINE', 'AIRTLINE', 'AIRWAY', 'ALABAMA', 'ALAMONSTER', 'ALASKA', 'ALBATROS', 'ALBATROSS', 'ALBERT', 'ALBERT HART', 'ALBERTA', 'ALCO', 'ALDEN', 'ALDRICH', 'ALELLO', 'ALETHA', 'ALEXANDER', 'ALICE', 'ALICE`', 'ALIQUIPPA', 'ALIRLINE', 'ALIVIN DARK', 'ALLAN', 'ALLELO', 'ALLEN', 'ALLIPPA', 'ALLIPUIPPA', 'ALLIQUIPA', 'ALLIQUIPPA', 'ALLIQUPPA', 'ALLYSON', 'ALMA', 'ALMOND', 'ALPHA', 'ALRICH', 'ALVIN 0DARK', 'ALVIN DARK', 'AMARILLO', 'AMARILLO CT', 'AMARILLO ST', 'AMARILLO ST.', 'AMBERALYNN', 'AMBERLYNN', 'AMBROSE', 'AMERCICA', 'AMERICA', 'AMERICAN', 'AMERICAN PLAZA', 'AMERILLO', 'AMESBURY', 'AMHERST', 'AMIR', 'AMITE', 'AMOS', 'AMRILLO', 'ANDOVER', 'ANGLO', 'ANI', 'ANITA', 'ANN', 'ANNA', 'ANNABELLE', 'ANNETTE', 'ANNETTE ST', 'ANNETTE ST.', 'ANNETTTE', 'ANSELMO', 'ANTIOCH', 'ANTRIM', 'APARTMENT', 'APARTMENT COURT', 'APARTMENT CT', 'APPERSON', 'APPLE', 'APPLETON', 'APPLEWOOD', 'APPLKE', 'APRIL', 'APT COURT', 'ARBOR  VITAE', 'ARBOR VITA', 'ARBOR VITAE', 'ARBOR VITEA', 'ARBUTUS', 'ARCADIA', 'ARCHERY', 'ARDEN', 'ARDENWOOD', 'ARGOSY', 'ARIALO', 'ARILINE', 'ARIZONA', 'ARKANSAS', 'ARLINGFORD', 'ARLINGTON', 'ARMSTRONG', 'ARROWHEAD', 'ASH', 'ASHBOURNE', 'ASHLAND', 'ASHODEL', 'ASPENWOOD', 'ASPHODEL', 'ASTER', 'ASTOLAT', 'ATHENS', 'ATKINSON', 'AUBIN', 'AUBINWOOD', 'AUBURN', 'AUDREY', 'AUDUBON', 'AUGUSTUS', 'AURORA', 'AUTOMN BLOSSOM', 'AUTUMN  BLOSSOM', 'AUTUMN BLOSSOM', 'AUVENUE B', 'AV', 'AV A', 'AVANTIS', 'AVANTS', 'AVE', 'AVE  A', 'AVE A', 'AVE B', 'AVE C', 'AVE D', 'AVE E', 'AVE F', 'AVE G', 'AVE H', 'AVE I', 'AVE J', 'AVE K', 'AVE L', 'AVE M', 'AVE.  A', 'AVE. E', 'AVE. I', 'AVE. J', 'AVE. L', 'AVE. M', 'AVEENUE F', 'AVEENUE K', 'AVEJ', 'AVENUE A', 'AVENUE B', 'AVENUE C', 'AVENUE D', 'AVENUE E', 'AVENUE F', 'AVENUE G', 'AVENUE H', 'AVENUE I', 'AVENUE J', 'AVENUE K', 'AVENUE L', 'AVENUE M', 'AVEUNE F', 'AVIS', 'AVOCET', 'AVONDALE', 'AZALEA', 'AZELA PARK', 'AZTEC', 'B', 'B A LITTLE', 'B NEHRU', 'B-HOLLYWOOD', 'BADLEY', 'BADLEY RD.', 'BAHM', 'BAIRD', 'BALBOA', 'BALIS', 'BALLINA', 'BALSAM', 'BALSAWOOD', 'BANCROFT', 'BANCROFT WAY', 'BANK', 'BANKERS', 'BANKS', 'BANYAN', 'BANYAN TRACE', 'BANYANWOOD', 'BANYON TRACE', 'BARANCO', 'BARBAR', 'BARBARA', 'BARBER', 'BARBER STREET', 'BARD', 'BARDWELL', 'BARKLEY', 'BARKSDALE', 'BARLETT', 'BARON', 'BARROSA', 'BARROW', 'BARTLETT', 'BATEMAN', 'BATON ROUGE', 'BAWEL', 'BAWELL', 'BAXTER', 'BAY', 'BAYBERRY', 'BAYLOR', 'BAYNARD', 'BAYOU FOUNTAIN', 'BAYSIDE', 'BAYWELL', 'BAYWOOD', 'BBRIERWOOD', 'BEACH', 'BEACHGROVE', 'BEACHWOOD', 'BEAU PRE', 'BEAUMONT', 'BEAUREGARD', 'BEAUVERDE', 'BECHWOOD', 'BECKENHAM', 'BEDFORD', 'BEECH', 'BEECH ST', 'BEECHGROVE', 'BEECHST', 'BEECHWOOD', 'BEECHWOOD DR', 'BELARBOR', 'BELCARO', 'BELHAVEN', 'BELHAVEN CI', 'BELHAVEN TRACE', 'BELL HELENE', 'BELLARBOR', 'BELLE CHERIE', 'BELLE FOUNTAINE', 'BELLE GROVE', 'BELLE HELENE', 'BELLE PIONTE', 'BELLE POINTE', 'BELLEMEADE', 'BELLEROSE', 'BELLEVIEW', 'BELLEWOOD', 'BELLFORT', 'BELLGLADE', 'BELLGLEN', 'BELLHAVEN', 'BELLHAVEN  TRACE', 'BELLHAVEN TRACE', 'BELLMEADE', 'BELLONIA', 'BELLRIDGE', 'BELLROSE', 'BELLVALE', 'BELLVIEW', 'BELMEADE', 'BELMONT', 'BELVEDERE', 'BEN', 'BEN HUR', 'BEN HURR', 'BENHUR', 'BENINGTON', 'BENNETT', 'BENNINGTON', 'BENSON', 'BENTLEY', 'BENTON', 'BERKELEY', 'BERKLEY', 'BERKLEY HILL', 'BERKSHIRE', 'BERLIN', 'BERMUDA', 'BERMUDA AV', 'BERN', 'BERNARDO', 'BERNWOOD', 'BERRYBROOK', 'BERTHA', 'BERWICK', 'BETA', 'BETH ANN', 'BETTY SMOTHERS', 'BEVERELY', 'BEVERLY', 'BICENTENNIAL', 'BIENVILLE', 'BIG BEND', 'BIIG. GEN. ISAAC SMITH', 'BILLIOPS', 'BILLOPS', 'BILLUPS', 'BIRCH', 'BIRCHWOOD', 'BIRGHTSIDE', 'BIRHGTSIDE', 'BISHOP  OTT', 'BISHOP OTT', 'BL', 'BLACHE', 'BLACK OAK', 'BLACKBERRY', 'BLACKWELL', 'BLAIRSTOWN', 'BLAKEMORE', 'BLAKERIDGE', 'BLANCHARD', 'BLANCHE', 'BLANCHU', 'BLENDON', 'BLES', 'BLOUIN', 'BLOUNT', 'BLOUNT RD.', 'BLUBONNET', 'BLUE BONNET', 'BLUE GLASS', 'BLUE GRASS', 'BLUEBELL', 'BLUEBERRY', 'BLUEBONET', 'BLUEBONNER', 'BLUEBONNET', 'BLUEBONNETT', 'BLUEGRASS', 'BLUERIDGE', 'BLUNT', 'BLVD  DE PROVINCE', 'BLVD DE PROVANCE', 'BLVD DE PROVENCE', 'BLVD DE PROVIDENCE', 'BLVD DE PROVINCE', 'BLVD DE. PROVINCE', 'BLVD DEPROVINCE', 'BLVD. DE PROVINCE', 'BLVD. DE. PROVINCE', 'BLVDDEPROVINCE', 'BO0B PETIT', 'BOARD WALK', 'BOARDWALK', 'BOB  PETTIT', 'BOB PETIT', 'BOB PETITE', 'BOB PETITIE', 'BOB PETITT', 'BOB PETITTE', 'BOB PETTET', 'BOB PETTIE', 'BOB PETTIIT', 'BOB PETTIT', 'BOB PETTITE', 'BOB PETTITT', 'BOB PRTTIT', 'BOB PTTTIT', 'BOBB PETTIT', 'BOBPETTIT', 'BOCAGE', 'BOCAGE LAKE', 'BOCAGE LAKES', 'BOGAN', 'BOGAN BOGAN', 'BOGAN WALK', 'BOGANWALK', 'BOMER', 'BON CREST', 'BON DURANT', 'BON SEJOUR', 'BONABRIDGE', 'BONARBRIDGE', 'BONCREST', 'BOND', 'BONN', 'BONTURA', 'BOOKER', 'BOOKERLINE', 'BOONE', 'BOOSIE', 'BOOTSIE', 'BOREAS', 'BOSTON', 'BOULEVARD DE PROVINCE', 'BOULEVARDE DE PROVINCE', 'BOUNT', 'BOURBON', 'BOURGEOIS', 'BOURGOIS', 'BOWMAN', 'BOXELDER', 'BOYCE', 'BOYD', 'BRACEWELL', 'BRADDOCK', 'BRADDROCK', 'BRADFIELD', 'BRADLEY', 'BRADY', 'BRADY ST', 'BRAEBURN', 'BRAEWOOD', 'BRAKLEY', 'BRAME', 'BRANDON', 'BRANDON LYNN', 'BRANDYWINE', 'BRASHEARS', 'BREC-SCOTLANDVILLE PARK', 'BRECKENRIDGE', 'BRECKENRIDGE AVE.', 'BRECKINRIDGE', 'BREEDEN', 'BRENT', 'BRENTWOOD', 'BRIARCLIFF', 'BRIARWOOD', 'BRICE', 'BRICKSOME', 'BRICKYARD', 'BRID. GEN. ISSAC SMITH', 'BRIERWOOD', 'BRIG GEN ISAAC SMITH', 'BRIG GEN ISSAC SMITH', 'BRIG GENERAL ISAAC SIMTH', 'BRIG GENERAL ISAAC SMITH', 'BRIG GENERAL ISSAC SMITH', 'BRIG. GEN. ISAAC SMITH', 'BRIG. GEN. ISACC SMITH', 'BRIG. GEN. ISSAC SMITH', 'BRIG. GENERAL ISAAC SMITH', 'BRIGADERE GENERAL ISSAC SMIT', 'BRIGHSIDE', 'BRIGHTSDIE', 'BRIGHTSIDE', 'BRIGHTSIDE VEIW', 'BRIGHTSIDE VIEW', 'BRIGHTSITE', 'BRIGTHSIDE', 'BRINWOOD', 'BRISTOL', 'BRITTANY', 'BROAD', 'BROADMOOR', 'BROADWALK', 'BROADWAY', 'BROCADE', 'BROCATO', 'BROGDEN', 'BROGDON', 'BROMLEY', 'BRONZEBUSH', 'BROODMOOR', 'BROOKHAVEN', 'BROOKLINE', 'BROOKSHIRE', 'BROOKSTOWN', 'BROOKVIEW', 'BROOKWOOD', 'BRORDWALK', 'BROUSSARD', 'BROWNING', 'BROWNLEE', 'BROWNSFIELD', 'BRUCE', 'BRUCE AL', 'BRUCE ALL', 'BRUCE ALLEY', 'BRUCE ALLY', 'BRUGHTSIDE', 'BRYON', 'BTECKENRIDGE', 'BUCHANAN', 'BUCKEY', 'BUCKEYE', 'BUCKINGHAM', 'BUCKLEY', 'BUENA VISTA', 'BULL RUN', 'BUNGALOW', 'BUNKER HILL', 'BUNKERHILL', 'BURBANK', 'BURBNANK', 'BURDEN', 'BURGESS', 'BURGIN', 'BURGUNDY', 'BURNS', 'BURTON', 'BUTTONWOOD', 'BYNUM', 'BYRD', 'BYRON', 'BYRON ST', 'BYRON ST.', 'BYWOOD', 'C', 'CABLE', 'CADALLIC', 'CADDO', 'CADILLAC', 'CADILLAC ST', 'CADILLC', 'CADILLIAC', 'CADILLLAC', 'CAEDEZA', 'CAIN', 'CALANNE', 'CALDWELL', 'CALIFORNIA', 'CALLAHAN', 'CALUMET', 'CAMBRIDGE', 'CAMEILLA', 'CAMELIA', 'CAMELLIA', 'CAMELLIA TRACE', 'CAMELLIA WAY', 'CAMELOT', 'CAMERON', 'CAMMY', 'CAMPUS LAKE', 'CANADA', 'CANADA ST.', 'CANAL', 'CANDA', 'CANDACE', 'CANDLEWOOD', 'CANNIN', 'CANNON', 'CANNON ST', 'CANNON ST.', 'CANON', 'CANONICUS', 'CANONIUS', 'CANONUCUS', 'CANTERBURY SQUARE APARTMENTS', 'CANTREE', 'CANYONLAND', 'CANYONLANDS', 'CAPE HATTERAS', 'CAPITAL', 'CAPITAL ACCESS', 'CAPITAL HEIGHTS', 'CAPITOL', 'CAPITOL ACCESS', 'CAPITOL HEIGHTS', 'CAPITOL LAKE', 'CAPRI', 'CARALINA', 'CARDEZA', 'CARDINAL', 'CARDINAL ST', 'CARL', 'CARLETON', 'CARLOTA', 'CARLOTTA', 'CARLSBAD', 'CARLTON', 'CARMEN', 'CAROL', 'CAROL MARIE', 'CAROLINA', 'CAROLYN SUE', 'CARR', 'CARR ALLEY', 'CARRIAGE', 'CARRIAGE WAY', 'CARROL', 'CARROLLTON', 'CARTER', 'CARVER', 'CAS LOMA', 'CASA GRANDE', 'CASA LOMA', 'CASHEL', 'CASPER', 'CASPIANA', 'CASTILE', 'CASTLE KIRK', 'CASTLEBURY', 'CASTLEKIRK', 'CASTLEWOOD', 'CATALPA', 'CATE', 'CATHEDRAL', 'CATHERINE', 'CECARCREST', 'CEDAR', 'CEDAR BEND', 'CEDAR CREST', 'CEDAR LAKE', 'CEDAR LODGE', 'CEDAR WAY', 'CEDARCREAT', 'CEDARCREST', 'CEDARDALE', 'CEDARLAKE', 'CEDARLANE', 'CEFALU', 'CELTIC', 'CENTENARY', 'CENTERPOINTE', 'CENTRAL', 'CENTRAL THWY', 'CENTURY', 'CEZANNE', 'CHALET', 'CHALICE', 'CHALMA', 'CHANADIA', 'CHANDADIA', 'CHANDLER', 'CHANEY', 'CHAPELVIEW', 'CHAPELWOOD', 'CHARINGTON', 'CHARLES', 'CHARLES STREET', 'CHARLES T SMITH', 'CHARLES T. SMITH', 'CHARLESTOWNE', 'CHARLEY WATTS', 'CHARLOTTE', 'CHARMAINE', 'CHAROLETTE', 'CHATAWA', 'CHATEAU', 'CHATFIELD', 'CHATSWORTH', 'CHENAGO', 'CHENANGO', 'CHEROKEE', 'CHERRY', 'CHERRYDALE', 'CHESNUT', 'CHESTERFIELD', 'CHESTNUT', 'CHETERFIELD', 'CHEVELLE', 'CHIMES', 'CHIMNEYWOOD', 'CHINN', 'CHIPENHAM', 'CHIPPEEWA', 'CHIPPENHAM', 'CHIPPEWA', 'CHIPPEWA ST.', 'CHIPPPEWA', 'CHIPPWA', 'CHOCTAW', 'CHOCYAW', 'CHOPIN', 'CHRISTIAN', 'CHRISTINA', 'CHRISTY', 'CHUCK YEAGER', 'CHURCHILL', 'CINQUEFOIL', 'CIRCLE', 'CITADEL', 'CITI PLACE', 'CITIPLACE', 'CITY PARK', 'CITYPLACE', 'CLAIREWOOD', 'CLAIRMONT', 'CLARA', 'CLARET', 'CLARK', 'CLASSIQUE', 'CLAUMET', 'CLAYCUT', 'CLAYCUTT', 'CLAYTO0N', 'CLAYTON', 'CLEAR LAKE', 'CLEARLAKE', 'CLEMATIS', 'CLEMENTE', 'CLEO', 'CLETUS', 'CLIFTON', 'CLINTON', 'CLOUD', 'CLOVER', 'CLOVERDALE', 'CLOVERLAND', 'CLYTON', 'COBBLESTONE', 'COLDWATER CREEK', 'COLE', 'COLEGE', 'COLLAGE', 'COLLEEN', 'COLLEGE', 'COLLEGE HILL', 'COLLINS', 'COLLLEGE', 'COLONEL ALLEN', 'COLONEL GIBSON', 'COLONIAL', 'COLORADO', 'COLORODO', 'COLUMBINE', 'COLUMBUS DUNN', 'COMAL', 'COMISH', 'COMISH DR.', 'COMMERCE', 'COMMON', 'COMMUNITY COLLEGE', 'COMORANT', 'COMPTON', 'CONARD', 'CONCORD', 'CONCORDE', 'CONCORDIA', 'CONFIDENCE', 'CONGERSS', 'CONGRESS', 'CONLEY', 'CONNELL', 'CONNELL PARK', 'CONNELLS PARK', 'CONONICOUS', 'CONRAD', 'CONSITUTION', 'CONSTANCE', 'CONSTITUTION', 'CONTINENTAL', 'CONTOUR', 'CONVENTION', 'CONVENTIONS', 'CONWAY', 'COOT', 'COPORATE', 'COPPERFIELD', 'CORA', 'CORINTH', 'CORK', 'CORMORANT', 'CORNELL', 'CORPOATE', 'CORPORATE', 'CORPORATE BLVD', 'CORPORATE BOULEVARD', 'CORPORATE0808', 'CORPORTE', 'CORSICA', 'CORT', 'CORTAN', 'CORTANA', 'CORTANA MALL', 'CORTANA P', 'CORTANA PLACE', 'CORTNA', 'COSTELLO', 'COSTITUTION', 'COTANA', 'COTTAGE', 'COTTON', 'COTTONDALE', 'COTTONWOOD', 'COUNTRY CLUB', 'COUNTRY MEADOW', 'COUNTRY RIDGE', 'COURSEY', 'COURSEY BLVD', 'COURTLAND', 'COURTNEY CLUB', 'COUSEY', 'COVENTION', 'COVINGTON', 'CPNGRESS', 'CRANE', 'CRATER LAKE', 'CREATVIEW', 'CREEKSIDE', 'CREEKWOOD', 'CRESCENT', 'CRESTAIRE', 'CRESTVIEW', 'CRESTWAY', 'CRESTWOOD', 'CRISTY', 'CROWN', 'CROWN OAKS', 'CROWN WAY', 'CROWNE', 'CROYDON', 'CRYODON', 'CUMBERLAND', 'CUNARD', 'CUNARD AVE.', 'CURLEW', 'CURTIS', 'CURTSI', 'CUYHANGA', 'CYNDAL', 'CYPRESS', 'CYPRESS  LAKE', 'CYPRESS DALE', 'CYPRESS GLEN', 'CYPRESS GLENN', 'CYPRESS HALL', 'CYPRESS HALL ALLEY', 'CYPRESS LAKE', 'CYPRESS MANOR', 'CYPRUS CEDAR', 'CYRIL', 'CYRUS', 'D', 'DABNEY', 'DABRY', 'DAGGET', 'DAGGETT', 'DAHLIA', 'DAIRYMPLE', 'DAKIN', 'DALARK', 'DALLAS', 'DALRYMPLE', 'DALRYMPLY', 'DALTON', 'DAMON', 'DAMUTH', 'DAN', 'DANIEL', 'DANIEL WEBSTER', 'DARADELE', 'DARADELL', 'DARADELLE', 'DARBY', 'DARCI LYNN', 'DARE', 'DARILYN', 'DARIUS', 'DARLYMPLE', 'DARRL', 'DARRYL', 'DARRYLE', 'DARTMOOR', 'DARWIN', 'DARYLMBLE', 'DARYLPLE', 'DARYLRPLE', 'DARYMPLE', 'DARYRPLE', 'DAUGHTERY', 'DAVENPORT', 'DAVENTRY', 'DAVID', 'DAWN', 'DAWNADALE', 'DAWNADELE', 'DAWSON', 'DAWSON DR', 'DAWSON DR.', "DAWSON'S CREEK", 'DAYTON', 'DE', 'DE SOTO', 'DEAN LEE', 'DEER', 'DEERFIELD', 'DEERPATH', 'DEERPATH WAY', 'DEERPATH WY', 'DEERWOOD', 'DEHNAM', 'DEL PLAZA', 'DELAWARE', 'DELCOURT', 'DELEWARE', 'DELGADO', 'DELL', 'DELMAR', 'DELPHINE', 'DELPLAZA', 'DELTA', 'DEMBO', 'DENA LYNN', 'DENAHM', 'DENBO', 'DENHAM', 'DENHAM ST', 'DENHAM ST.', 'DENHAMS', 'DENHAN', 'DENTATION', 'DEPLAZA', 'DERBY', 'DESOTO', 'DESTRAHAN', 'DESTREHAN', 'DEVALL', 'DEVONSHIRE', 'DIANE', 'DIDESSE', 'DIJON', 'DIUGHERTY', 'DIVINCENTI', 'DIXON', 'DODGE', 'DODSON', 'DOGWOOD', 'DON REDDEN', 'DONALD', 'DONALDSON', 'DONCASTER', 'DONNA', 'DONOVAN', 'DONRAY', 'DOOLEY', 'DOOLITTLE', 'DORAL', 'DORCHESTER', 'DORIE MILLER', 'DOROTHY DIX', 'DOT', 'DOUGHERTY', 'DOUGHRETY', 'DOUGHTERY', 'DOUGLAS', 'DOUGLAS  AVE', 'DOUGLAS AVE', 'DOUGLAS AVE.', 'DOVE', 'DOVE HAVEN', 'DOVE HOLLOW', 'DOVERWOOD', 'DR', 'DREHR', 'DREW', 'DRUCILLA', 'DRUID CIRCLE', 'DRUSILLA', 'DUANE', 'DUBLIN', 'DUBOIS', 'DUCHESS', 'DUCHESS ST.', 'DUCK', 'DUCROS', 'DUKE', 'DULCITO', 'DUMONT', 'DUNBAR', 'DUNCAN', 'DUNCAN KENNER', 'DUNSTAN', 'DUPLANTIER', 'DURANDE', 'DURHAM', 'DUTCH HIGHLAND', 'DUTCHESS', 'DUTON', 'DUTTON', 'DUTTON AVE', 'DWAINE', 'E', 'E BOYD', 'E FAIROAKS', 'E GRAND', 'E MASON', 'E-I12', 'E.  BROCKSTOWN', 'E. 110', 'E. BOYD', 'E. BROOKSTOWN', 'E. BROOKSTOWN DR.', 'E. MASON', 'E. WASHINGTON', 'EAGLE', 'EARL GROS', 'EARL GROSS', 'EARLGROS', 'EAST', 'EAST BOYD', 'EAST BROOKSTOWN', 'EAST DAYTON', 'EAST END', 'EAST GATE', 'EAST I 10 ON RAMP', 'EAST I 12', 'EAST I-10', 'EAST I-12', 'EAST VAN', 'EASTBANK', 'EASTBAY', 'EASTGATE', 'EASTLAND', 'EASTWOOD', 'EATON', 'EATON ST', 'EBONY', 'EDDIE ROBINGSON', 'EDDIE ROBINSON', 'EDDIE ROBINSON SR', 'EDDIE ROBINSON SR.', 'EDDISON', 'EDEGEMONT', 'EDEN', 'EDGEMONT', 'EDGEWOOD', 'EDGMONT', 'EDGWOOD', 'EDINBURG', 'EDINBURGH', 'EDISON', 'EDUCATION', 'EDWARD', 'EDWARDS', 'EDWIN', 'EDWIN ST.', 'EFFRINGHAM', 'EGRET', 'EILEEN', 'EL CAJON', 'EL CAMINO', 'EL MARRO', 'EL MONTE', 'EL MORRO', 'ELAIN', 'ELAINE', 'ELANOR', 'ELDERWOOD', 'ELEANDOR', 'ELEANOR', 'ELEARNOR', 'ELERSLIE', 'ELGIN', 'ELISE', 'ELISSALDE', 'ELIZABETH', 'ELIZEBETH', 'ELJIN', 'ELKWOOD', 'ELLERSLIE', 'ELLWOOD', 'ELM', 'ELM  GROVE GARDEN', 'ELM GARDEN GROVE', 'ELM GROOVE GARDEN', 'ELM GROVE', 'ELM GROVE GARBEN', 'ELM GROVE GARDEN', 'ELM GROVE GARDEN DRIVE', 'ELM GROVE GARDENS', 'ELM GROVE GARRDEN', 'ELM GROVEN GARDEN', 'ELM PARK', 'ELMBRIDGE', 'ELMCREST', 'ELMER', 'ELMER AV', 'ELMGROVE', 'ELMGROVE GARDEN', 'ELTON C HARRISON', 'ELVA', 'ELWICK', 'ELYSIAM', 'ELYSIAN', 'EMERALD', 'EMILE', 'EMMALINE', 'EMMETT BOURGEOIS', 'EMORY', 'ENERGY', 'ENTERGY', 'ENTERPISE', 'ENTERPRISE', 'ENTERPRISEST', 'ENTERPRIST', 'EOLA', 'ERIE', 'ERLANGER', 'ESPLANADE', 'ESPLANDE', 'ESSEN', 'ESSEN COVE', 'ESSEN PARK', 'ESTATES', 'ETTA', 'EUROPE', 'EVAGELINE', 'EVAN BROOK', 'EVAN BROOKS', 'EVANGELINE', 'EVANGELINE ST', 'EVANGELINE ST.', 'EVANGLINE', 'EVANS', 'EVEANGELINE', 'EVEN BROOKS', 'EVERGLADE', 'EVERGLADES', 'EVERGREEN', 'EXCALIBUR', 'EXCHANGE', 'EXCHANGE PLACE', 'EXECUTIVE  PARK', 'EXECUTIVE PAARK', 'EXECUTIVE PARK', 'EXHANGE', 'F', 'FAICHILD', 'FAIIRCHILD', 'FAIR FILEDS', 'FAIR OAK', 'FAIR OAKS', 'FAIRCHILD', 'FAIRCHILD ST', 'FAIRCREST', 'FAIRFEILDS', 'FAIRFIELD', 'FAIRFIELDS', 'FAIRGATE', 'FAIRGREEN', 'FAIRHAM', 'FAIRHAVEN', 'FAIRHOPE', 'FAIRMONT', 'FAIRMOUNT', 'FAIROAK', 'FAIRWAY', 'FAIRWOOD', 'FAIRWOODS', 'FAITH COURT', 'FALL RIVER', 'FANNIE', 'FARIFIELDS', 'FARIWOOD', 'FARRAR', 'FARRINGTON', 'FELICITY', 'FELLSWAY', 'FELONY THEFT', 'FENWAY', 'FERDINAND', 'FERNCLIFF', 'FERNDALE', 'FERNWOOD', 'FERRET', 'FERRETT', 'FIARFIELDS', 'FIELD HOUSE', 'FIELDHOUSE', 'FIERO', 'FIESTA', 'FIG', 'FINCH', 'FINCH ST.', 'FINCHLEY', 'FIRELIGHT', 'FIREWOOD', 'FLA', 'FLAG', 'FLANDERS', 'FLANERY', 'FLANNERY', 'FLATSWAY', 'FLEET', 'FLEMING', 'FLETCHER WILLIAMS', 'FLICKER', 'FLOIDA', 'FLOIRDA', 'FLOORLINE', 'FLOR', 'FLORA', 'FLORDA', 'FLORDIA', 'FLORENCE', 'FLORID', 'FLORIDA', 'FLORIDA BLVD', 'FLORIDA BLVD S. SERVICE', 'FLORIDA BLVD.', 'FLORIDA BOLEVARD', 'FLORIDA BOULEVARD', 'FLORIDA ST', 'FLORIDA.', 'FLORIDIA', 'FLORIIDA', 'FLORLINE', 'FLOYD', 'FLROIDA', 'FM 1571 OLD MILL', 'FORD', 'FORD ST', 'FOREST OAK', 'FOREST OAKS', 'FOREST PARK', 'FORGE', 'FORIDA', 'FORSYTHIA', 'FOSS', 'FOSTER', 'FOUNTAIN', 'FOURTH', 'FOX CROFT', 'FOX LANE', 'FOX RUN', 'FOXCROFT', 'FOXLANE', 'FOXRUN', 'FOXSHIRE', 'FOXTON', 'FOXWOOD', 'FRAIRTUCK', 'FRANCE', 'FRANCES HARRIET', 'FRANCIS HARRIET', 'FRANKFURT', 'FRANKLIN', 'FRANWOOD', 'FRATERNITY', 'FREY', 'FRIAR TUCK', 'FRISCO', 'FRITCHIE', 'FRY', 'FULTON', 'FUQUA', 'G', 'G LEON NETTERVILLE', 'GABRIEL OAKS', 'GALAHAD', 'GALERIA', 'GALLERIA', 'GALVEZ', 'GAMMA', 'GARDERE', 'GARIG', 'GARNER', 'GARNET', 'GARY', 'GASSIE', 'GASSIE ST', 'GATES', 'GATES CIRCLE', 'GAWAIN', 'GAY', 'GAYASA', 'GAYOSA', 'GAYSOA', 'GEBELIN', 'GEBHART', 'GEN CHENNAULT', 'GEN ISAAC SMITH', 'GEN ISSAC SMITH', 'GENERAL CHENAULT', 'GENERAL CHENNAULT', 'GENERAL ISAAC SMITH', 'GENERAL ISAC SMITH', 'GENERAL ISSAC SMITH', 'GENERAL LEE', 'GENERAL PRENTISS', 'GEOGIA', 'GEORGE', 'GEORGE ONEAL', 'GEORGETOWN', 'GEORGIA', 'GERALD', 'GERANDEUR', 'GERANIUM', 'GERLANDO', 'GERMANTOWN', 'GERONIMO', 'GIBBENS', 'GIBBINS', 'GIBBONS', 'GIBSON', 'GILBERT', 'GLADDEN', 'GLADEWOOD', 'GLADIOLA', 'GLASGOW', 'GLEN OAKS', 'GLEN OAKS DR', 'GLENBURIE', 'GLENBURNIE', 'GLENDA', 'GLENDALE', 'GLENDWILD', 'GLENHAVEN', 'GLENMORE', 'GLENN OAKS', 'GLENNOAKS', 'GLENNSADE', 'GLENOAKS', 'GLENWAY', 'GLENWILD', 'GLENWOOD', 'GODFREY', 'GODWOOD', 'GOLD CUP', 'GOLDENROD', 'GONERNMENT', 'GOODE', 'GOODWOOD', 'GOOSE', 'GOOVERNMENT', 'GORDON', 'GORE', 'GOTILEB', 'GOTLIEB', 'GOTTLEIB', 'GOTTLIEB', 'GOUDCHAUX', 'GOUDCHAUX ST.', 'GOUDCHEAUX', 'GOURRIER', 'GOURRIER AVE', 'GOVENRMENT', 'GOVERMENT', 'GOVERMNENT', 'GOVERMNET', 'GOVERNEMENT', 'GOVERNENT', 'GOVERNMEMT', 'GOVERNMENT', 'GOVERNMENT ST', 'GOVERNMENT STREET', 'GOVERNMNET', 'GOVERNOR BLANCHARD', 'GOVERNTMENT', 'GOYA', 'GR', 'GRACIE', 'GRAHAM', 'GRANADA', 'GRAND', 'GRAND TETON', 'GRANDEAUR', 'GRANDEUR', 'GRANDPRE', 'GRANDUER', 'GREAT  SMOKEY', 'GREAT SMOKEY', 'GREAT SMOKY', 'GREBE', 'GREEN OAK', 'GREEN OAKS', 'GREENBRIAR', 'GREENCASTLE', 'GREENMOSS', 'GREENOAK', 'GREENSIDE', 'GREENTREE', 'GREENWAY', 'GREENWEEL SPRINGS', 'GREENWELL', 'GREENWELL PRRINGS', 'GREENWELL SPINGS', 'GREENWELL SPRIINGS', 'GREENWELL SPRING', 'GREENWELL SPRINGS', 'GREENWELL SPRINGS RD', 'GREENWELL SPRINGS RD.', 'GREENWELL SPRINGS ROAD', 'GREENWELL ST', 'GREENWELL ST.', 'GREENWELLS SPRINGS', 'GREENWELLSPRINGS', 'GREENWICH', 'GREENWOOD', 'GREENWWLL', 'GREGWORTH', 'GRETA', 'GRONER', 'GROOM', 'GSRI', 'GUAVA', 'GUM', 'GURLIE', 'GURNEY', 'GURNEY ST.', 'GUS  YOUNG', 'GUS YOUND', 'GUS YOUNG', 'GUS YOUNG AVE.', 'GWEB', 'GWEN', 'GWENADADELE', 'GWENADALE', 'GWENADALLE', 'GWENADELE', 'GWENADELLE', 'GWENADLE', 'GWENDALE', 'GWENDELE', 'GWENEDALE', 'GWENEDELE', 'HADRING', 'HAIG', 'HALEY', 'HALFWAY TREE', 'HALLMARK', 'HAMILTON', 'HAMMOD', 'HAMMOND', 'HAMMOND ST', 'HAMPTON', 'HAMPTON WAY', 'HANKS', 'HARCO', 'HARDING', 'HARDING BLVD', 'HARDING BLVD.', 'HARDWICK', 'HARELSON', 'HARLESON', 'HARRELLS FERRY', 'HARRIET', 'HARRIS', 'HARRY', 'HARRY DR', 'HARRY DRIVE', 'HARVARD', 'HARVEY', 'HARWICH', 'HARWICK', 'HASTINGS', 'HATCHER', 'HATERAS', 'HATERASS', 'HATTERAS', 'HATTERS', 'HAVENWOOD', 'HAYMARKET', 'HAZEL', 'HAZELWOOD', 'HAZEWOOD', 'HEARTHSTONE', 'HEARTSTONE', 'HEATH', 'HEATHER', 'HEATHERSTONE', 'HEATHERVIEW', 'HEATHERWOOD', 'HEBERT', 'HEDGEWOOD', 'HEIDEL', 'HELEN BARRON', 'HELENE', 'HELVETIA', 'HEMLOCK', 'HENAGEN', 'HENAGGEN', 'HENAGON', 'HENDERSON', 'HENDRICKS', 'HENDRSON', 'HENESSEY', 'HENESSY', 'HENNAGEN', 'HENNESEE', 'HENNESEY', 'HENNESSBOARDWALKEY', 'HENNESSEY', 'HENNESSY', 'HENNESSY BL', 'HENNSSEY', 'HENRY E COBB', 'HERITAGE', 'HERMADEL', 'HERMITAGE', 'HERMOSA', 'HERON', 'HEWWOOD', 'HGHLAND', 'HIAWATHA', 'HIBISCUS', 'HICKORY', 'HIDDEN GARDEN', 'HIDDEN GARDENS', 'HIDDEN RIDGE', 'HIDDENRIDGE', 'HIDEAWAY', 'HIDEWAY', 'HIGGINS', 'HIGH POINT', 'HIGHALND', 'HIGHLABND', 'HIGHLAD', 'HIGHLAND', 'HIGHLAND CREEK', 'HIGHLAND PARK', 'HIGHLAND RD', 'HIGHLANDIA', 'HIGHLND', 'HIGHWAY 19', 'HIGLAND', 'HIHGLAND', 'HIIGHLAND', 'HILL TRACE', 'HILLCREAST', 'HILLCREST', 'HILLCRESTA', 'HILLMONT', 'HILLSDALE', 'HILLTOP', 'HILLTRACE', 'HILTON', 'HITCHCOCK', 'HOLLEYWOOD', 'HOLLOWAY', 'HOLLOYWOOD', 'HOLLY', 'HOLLYDALE', 'HOLLYSTONE', 'HOLLYWOOD', 'HOLLYWOOD CROSSOVER', 'HOLLYWOOD ST', 'HOLLYWOOD ST.', 'HOLMES', 'HOLT', 'HOMER', 'HOMEWOOD', 'HONEYSUCKLE', 'HOO SHOO TOO', 'HOOD', 'HOOLYWOOD', 'HOOPER', 'HOOPER RD', 'HOOTSELL', 'HOPE ESTATE', 'HOPPER', 'HORACE', 'HOWARD', 'HOWELL', 'HOWELL  RANGE', 'HOWELL BLVD', 'HOWELL PA', 'HOWELL PARK', 'HOWELL PLACE', 'HOWELL RANGE', "HUDSON'S", 'HUGHLAND', 'HUMPHREYS', 'HUNDRED OAK', 'HUNDRED OAKS', 'HUNDRED OAKS AVENUE', 'HUNT', 'HURON', 'HURST', 'HW', 'HWY  19', 'HWY 19', 'HWY 19 (SCOTLAND AVE)', 'HWY 19TH', 'HWY 61', 'HWY, 19', 'HWY.19', 'HWY19', 'HYACINTH', 'HYANCINTH', 'I 10', 'I 110', 'I-10', 'I-10 EAST', 'I-10 EAST ON RAMP', 'I-10 EAST ON RAMP LAFFY.', 'I-10 FRONTAGE', 'I-10 S. BOUND @ N. NINETH EX', 'I-10 WEST @ DALRYMPLE', 'I-110', 'I-110 N. B. @ CAPITAL ACCESS', 'I-110 SOUTH @ WELLER', 'I-12  WESTBOUND', 'I-12 EAST', 'I10', 'I110', 'I12', 'IBERIA', 'IBERIA ST', 'IBERIA ST.', 'IBERIEA', 'IBERVILLE', 'IBEVILLE', 'IDLE OAKS', 'ILLINOIS', 'INCHBROOK', 'INDEPENCE', 'INDEPENDANCE', 'INDEPENDECE', 'INDEPENDENCE', 'INDIANA', 'INGE', 'INGLESIDE', 'INNISWOLD', 'INTERLINE', 'INTERSTATE 110 (N/B)', 'INTERSTATE 12', 'INVERRARY', 'IOWA', 'IRA', 'IRIQUIOS', 'IRIQUOIS', 'IRIS', 'IROQOUIS', 'IROQUIOS', 'IROQUOIS', 'IRVINE', 'IVANHOE', 'J H COONEY', 'J. H. COONEY', 'J.H. COONEY', 'J.H.COONEY', 'JACKIE COCHRAN', 'JACKSON', 'JADE', 'JAMESTOWN', 'JANET', 'JANICE', 'JAPONICA', 'JASMINE', 'JASPER', 'JASSAMINE', 'JAY', 'JAY HEBERT', 'JEAN', 'JEFF DAVIS', 'JEFFERSON', 'JEFFERSON DAVIS', 'JEFFERSON HIGHWAY', 'JEFFERSON HWY', 'JEFFERSON WOODS DR', 'JEFFESON', 'JEFFRSON', 'JENNIFER JEAN', 'JENNIFER LYNN', 'JENNIFER LYNNE', 'JESSAMINE', 'JEWEL', 'JH COOHNEY', 'JH COONEY', 'JIM TAYLOR', 'JO ANNE', 'JO ANNNE', 'JOCKEY CLUB', 'JOE LOUIS', 'JOILET', 'JOLIET', 'JOLLY', 'JOLSEN', 'JOLSON', 'JONAH', 'JONES', 'JONES CREEK', 'JOOR', 'JOPLIN', 'JORDAN', 'JOSEPH', 'JOSPEH', 'JOYCE', 'JPLANK', 'JRFFERSON', 'JUBAN', 'JUDI', 'JULIA', 'JULIA ST', 'JULY', 'JUNE', 'JUNIPER PARK', 'JURA', 'JUSTICE', 'KALURAH', 'KANAS', 'KANSAS', 'KAREN', 'KATHERINE', 'KAUFMAN', 'KAUFMAN ST.', 'KAY', 'KEANLAND', 'KEATY', 'KEED', 'KEEL', 'KEKOUK', 'KELVIN', 'KELWOOD', 'KENDALWOOD', 'KENILWORTH', 'KENILWORTH PARKWAY', 'KENIWORTH', 'KENLEE', 'KENMORE', 'KENNY', 'KENSINGTON', 'KENTUCKY', 'KENWOOD', 'KEOKUK', 'KERNAN', 'KERR', 'KEUKUK', 'KEVEL', 'KEY', 'KILDEER', 'KILKENNY', 'KILT', 'KILT PLACE', 'KIMBERLY', 'KIMBERLY WAY', 'KIMBRO', 'KIMMERIDGE', 'KINCAID', 'KING', 'KING ARTHUR', 'KING CREST', 'KING JOHN', 'KING RICHARD', "KING'S CANYON", "KING'S HILL", 'KINGCREST', 'KINGCREST PARKWAY', 'KINGFISHER', 'KINGLET', 'KINGS CANYON', 'KINGS CAYON', 'KINGS HILL', 'KINGSCREST', 'KINGSTON', 'KIOWA', 'KIRKLEY', 'KISSEL', 'KISSELL', 'KISSELL ST', 'KITTY', 'KLEINART', 'KLEINERT', 'KLEINPETER', "KNIGHT'S BRIDGE", 'KNIGHTS BRIDGE', 'KNOLLWOOD', 'KODIAK', 'KOLIN', 'KORNMEYER PLAZA', 'KRISTA', 'L', "L'AUBERGE", 'LA 19', 'LA 19TH', 'LA AINNIE', 'LA ANNIE', 'LA BELLE', 'LA HWY 19', 'LA HWY 61 (SCENIC)', 'LA MARGIE', 'LA. HWY. 19', 'LAANNIE', 'LAC CACE', 'LAC CACHE', 'LACA', 'LACEY', 'LAFASO', 'LAFAYEETE', 'LAFAYETTA', 'LAFAYETTE', 'LAFETTE', 'LAFEYETTE', 'LAFOURCHE', 'LAKE', 'LAKE  CALAIS', 'LAKE BEAU PRE', "LAKE BEAU PRE'", 'LAKE CALAIS', 'LAKE CALIS', 'LAKE FOREST PARK', 'LAKE HILLS', 'LAKE LA BELLE', 'LAKE LA DARE', 'LAKE LABELLE', 'LAKE LABERGE', 'LAKE LADARE', 'LAKE LAMOND', 'LAKE LAROUGE', 'LAKE LATANIA', 'LAKE LAWFORD', 'LAKE LAWRENCE', 'LAKE LEBERGE', 'LAKE LERY', 'LAKE LILY', 'LAKE LIMESTONE', 'LAKE LINGHAM', 'LAKE LIVINGSTON', 'LAKE LORA', 'LAKE SHERWOOD', 'LAKE SHERWOOD EAST', 'LAKE WORTH', 'LAKECREST', 'LAKELAND', 'LAKERIDGE', 'LAKES', 'LAKESHORE', 'LAKEWOOD', 'LAMARGIE', 'LAMBERT', 'LANCASTER', 'LANCELOT', 'LANDING', 'LANDWOOD', 'LANIER', 'LANINGSTON', 'LANSWOOD', 'LARCHWOOD', 'LARK', 'LARKSPUR', 'LARKST', 'LAS COLINAS', 'LASALLE', 'LASSEN', 'LAUBERGE', 'LAUREL', 'LAUREL LAKES', 'LAUREL PLANTATION', 'LAURELLAKES', 'LAURELWOOD', 'LAURYNWOOD', 'LAVA BEDS', 'LAVINA', 'LAVINIA', 'LAYTON', 'LE ANNIE', 'LEA ANN', 'LEBANON', 'LEE', 'LEE DRIVE', 'LEEANNE', 'LEESVILLE', 'LEEWARD', 'LEGACY', 'LEHMAN', 'LEHMANN', 'LEIGHWOOD', 'LEMOMWOOD', 'LEMONWOOD', 'LENOARD', 'LEONARD', 'LEONIDAS', 'LESSMAN', 'LETITIA', 'LETTSWORTH', 'LEVERA', 'LEWIS', 'LEXINGTON', 'LEYCASTER', 'LEYCESTER', 'LEYLAND', 'LI ROCCHI', 'LIDEN', 'LIL JOHN', 'LILA', 'LILS', 'LIMEWOOD', 'LINDA', 'LINDALE', 'LINDEN', 'LINWOOD', 'LIROCCHI', 'LITTLE  JOHN', 'LITTLE JOHN', 'LITTLEWOOD', 'LITTLEWOODS', 'LIVE OAK', 'LIVE OAKS', 'LIVESTOCK', 'LLAKE LADERE', 'LN', 'LOAN OAK', 'LOBDELL', 'LOBELIA', 'LOBELLIA', 'LOBWOOD', 'LOCHNESS', 'LOCKEFIELD', 'LOCKHAVEN', 'LOCKSLEY', 'LOCKWOOD', 'LODELL', 'LOFASO', 'LONE OAK', 'LONE OAKS', 'LONEOAK', 'LONG OAK', 'LONGBOW', 'LONGFELLLOW', 'LONGFELLOW', 'LONGFELLOW DR', 'LONGFELOW', 'LONGRIDGE', 'LONGVIEW', 'LONGWOOD', 'LONITA', 'LORNA', 'LORRAINE', 'LORRAINE ST', 'LORRAINE ST.', 'LORRANNE', 'LORRRAINE', 'LOTUS', 'LOUISE', 'LOUISIANA', 'LOURAY', 'LOUSIANA', 'LOVERS', 'LOWER JOHNSON', 'LOYOLA', 'LSU', 'LSU PLACE', 'LT GEN BENJAMIN DAVIS JR', 'LT GENERAL BENJAMIN DAVIS', 'LUCILLA', 'LULA', 'LUPINE', 'LYDIA', 'LYNBROOK', 'LYNELL', 'LYNN', 'MACEDONIA', 'MACRELLIOUS', 'MADEIRA', 'MADELINE', 'MADISIN', 'MADISON', 'MADRAS', 'MADRID', 'MAESTRI', 'MAGEE', 'MAGNA CARTA', 'MAGNOLIA', 'MAGNOLIA LEAF', 'MAGNOLIA WOOD', 'MAGNOLIA WOODS', 'MAIN', 'MAIN STREET', 'MAIN2', 'MAISON DEVILLE', 'MAJOR OAK', 'MAJOR OAKS', 'MALBROOK', 'MALL LOUISIANA', 'MALL OF LOUISIANA', 'MALLARD', 'MALLORY', 'MALMAISON', 'MAMMOTH', 'MAMOTH', 'MANCUSO', 'MANHANTTAN', 'MANORWOOD', 'MANSON', 'MAPLE', 'MAPLE DR', 'MAPLEWOOD', 'MAR', 'MARCEL', 'MARCELLIOUS', 'MARCELLLIOUS', 'MARCH', 'MARCI', 'MARCIA', 'MARGARET', 'MARGARET ANN', 'MARGEBROOK', 'MARIBEL', 'MARICA', 'MARIE', 'MARIGOLD', 'MARILYN', 'MARILYNN', 'MARION', 'MARKET', 'MARKET PLACE', 'MARKETPLACE', 'MARLBROOK', 'MARQUE ANN', 'MARQUE ANNE', 'MARQUEANN', 'MARQUETTE', 'MARSH', 'MARSHALL', 'MARTIN', 'MARWEDE', 'MARWOOD', 'MARY', 'MARY ANN', 'MARY ELLEN', 'MARY EVERS', 'MARY LOU', 'MARY RUTH', 'MARY SUE', 'MARYDON', 'MARYLAN', 'MARYLAND', 'MARYLNN', 'MARYLOU', 'MASON', 'MASON AVE', 'MASON AVE.', 'MATILDA', 'MATTHEWS', 'MAXAMILLION', 'MAXIMILIAN', 'MAXIMILLAIN', 'MAXIMILLIAN', 'MAXIMILLION', 'MAXINE', 'MAXMILIAN', 'MAY', 'MAY BELLE', 'MAYAN', 'MAYFAIR HILL', 'MAYFLOWER', 'MAYHAW', 'MAYWOOD', 'MC BAN', 'MC CLELLAND', 'MC CLUNG', 'MC CONNELL', 'MC DONALD', 'MCCALOP', 'MCCALUP', 'MCCARROLL', 'MCCELLAND', 'MCCLEALLAND', 'MCCLELAND', 'MCCLELANND', 'MCCLELLAND', 'MCCLELLAND DR', 'MCCLELLAND DR.', 'MCCLELLEND', 'MCCLLEAND DR.', 'MCCLLELAND', 'MCCLUNG', 'MCCONNELL', 'MCCULAND', 'MCDONALD', 'MCGEHEE', 'MCGRATH', 'MCILHENNY', 'MCKINLEY', 'MCLELLAND', 'MCMICHAEL', 'MEAD', 'MEADE', 'MEADOW LEA', 'MEADOW PARK', 'MEADOW WOOD', 'MEADOWOOD', 'MEEKER', 'MEGEL', 'MELANIE', 'MELON', 'MELROSE', 'MENGEL', 'MENLO', 'MENSIA', 'MEREDITH', 'MERGANZER', 'MERLE GUSTAFSON', 'MERLIN', 'MERRYDALE', 'MESA VERDE', 'MESAVERDE', 'MIAN', 'MICHELLI', 'MIDDLESEX', 'MIDWAY', 'MILL LANE', 'MILLBURN', 'MILLDALE', 'MILLERVILLE', 'MILLGATE', 'MILLS', 'MILLS AVE', 'MILLS AVE.', 'MILLSTLONE', 'MILLSTONE', 'MILLWOOD', 'MILNOR', 'MILS', 'MIMOSA', 'MINDEN', 'MINMESOTA', 'MINNESOTA', 'MIRAFLORES', 'MISSION', 'MISSISSIPPI', 'MISSISSIPPO', 'MISSON', 'MISSOURI', 'MISTY CREEK', 'MISTYBROOK', 'MITCHELL', 'MOCHICAN', 'MOCKINGBIRD', 'MOHICAN', 'MOHICAN / N. FOSTER', 'MOHICAN PRESCOTT', 'MOHICAN PRESCOTT CROSS', 'MOHICAN PRESCOTT CROSS OVER', 'MOHICAN PRESCOTT CROSSOVER', 'MOHICAN-PRESCOTT', 'MOHICAN-PRESCOTT CROSSOVER', 'MOHICAN/PRECCOTT CROSSOVER', 'MOHICAN/PRESCOTT', 'MOHICAN/PRESCOTT CROSSOVER', 'MOHICAN/PRESOCTT', 'MOHICANPRESCOTT CROSSOVER', 'MOHICHAN PRESCOTT XOVER', 'MOHINCAN', 'MOHNICAN PRESCOTT', 'MOLLY LEA', 'MOLLYLEA', 'MONACO', 'MONARCH', 'MONARCH AVE', 'MONARCH AVE.', 'MONET', 'MONEY', 'MONITEAU', 'MONMOUTH', 'MONROE', 'MONTA SANO', 'MONTE SANO', 'MONTE SANO AVE', 'MONTECELLO', 'MONTEREY', 'MONTERRAY', 'MONTERREY', 'MONTERRY', 'MONTESANO', 'MONTGOMERY', 'MONTROSE', 'MOON', 'MOORE', 'MOORSTONE', 'MORELAND', 'MORGAN BEND', 'MORGANBEND', 'MORLAIX', 'MORMING GLORY', 'MORNING GLORY', 'MORNINGBROOK', 'MORNINGSIDE', 'MORVANT', 'MOSS SIDE', 'MOTERREY', 'MOUNT CARMEL', 'MOUNT HOPE', 'MOUNT HOPE ALLEY', 'MOUTON', 'MRYTLE WALK', 'MT HOPE', 'MULBERRY', 'MULBERRY HILL', 'MUMFORD', 'MURIAL', 'MURIEL', 'MURPHY', 'MUSE', 'MYRTLE', 'MYRTLE WALK', 'MYRTLEDALE', 'MYRTLELAWN', 'MYRTLEWALK', 'N', 'N 23', 'N 23RD', 'N 26', 'N 29TH', 'N 35TH', 'N 38TH', 'N 3RD', 'N 46TH', 'N 48TH', 'N 4TH', 'N ACADIAN', 'N ACADIAN WEST', 'N FOSTER', 'N LOBDELL', 'N ROTHMER', 'N SHERWOOD FOREST', 'N. 13TH', 'N. 14TH ST', 'N. 18TH', 'N. 21ST', 'N. 29TH', 'N. 35TH', 'N. 36TH', 'N. 37TH', 'N. 38TH', 'N. 39TH', 'N. 3RD', 'N. 40TH', 'N. 43RD', 'N. 44', 'N. 44TH', 'N. 46TH', 'N. 47TH', 'N. 48TH', 'N. ACADIAN', 'N. ARDENWOOD', 'N. BAXTER', 'N. BLVD', 'N. BOURGEOIS', 'N. BOURGIOS', 'N. EUGENE', 'N. FLANNERY', 'N. FOSTER', 'N. HOWELL', 'N. I-110', 'N. LOBDELL', 'N.15TH', 'N.16TH', 'N.17', 'N.17TH', 'N.19TH', 'N.20TH', 'N.22ND', 'N.23RD', 'N.24TH', 'N.25TH', 'N.26TH', 'N.28TH', 'N.29TH', 'N.30TH', 'N.31ST', 'N.32ND', 'N.35TH', 'N.37TH', 'N.38TH', 'N.39TH', 'N.3RD', 'N.44TH', 'N.46TH', 'N.47TH', 'N.48TH', 'N.4TH', 'N.5TH', 'N.7TH', 'N.8TH', 'N.FOSTER', 'N/B I-110 @ WELLER AVE', 'N13TH', 'N17TH', 'N37TH', 'N3RD', 'NAIRN', 'NAIRON', 'NAPOLEAN', 'NAPOLEON', 'NASSAU', 'NAVAJO', 'NEBRASKA', 'NED', 'NEEDHAM', 'NEHRU', 'NELLIE', 'NELSON', 'NELWYN', 'NEOSHO', 'NEPOLEON', 'NEW CASTLE', 'NEWCASTLE', 'NEWCOMB', 'NEWMAN', 'NEWPORT', 'NEWTON', 'NICCHOLSON', 'NICHOLAS MELANCON', 'NICHOLASON', 'NICHOLOSON', 'NICHOLSON', 'NICHOLSON DR', 'NICHOLSON DRIVE', 'NICHOLSON EXT', 'NICHOLSON LAKE', 'NICOHLSON', 'NICOLSON', 'NIICHOLSON', 'NILE', 'NO', 'NOAH', 'NOKOMIS', 'NOLEN', 'NORH', 'NORMA', 'NORMANDY', 'NORTH', 'NORTH 17TH', 'NORTH 33RD', 'NORTH 35TH', 'NORTH 38', 'NORTH 38TH', 'NORTH 39TH', 'NORTH 44TH', 'NORTH 46', 'NORTH 46TH', 'NORTH 47', 'NORTH 47TH', 'NORTH 48', 'NORTH 48TH', 'NORTH 49TH', 'NORTH 4TH', 'NORTH 9TH', 'NORTH ACADIAN E', 'NORTH ACADIAN THWY E', 'NORTH ACADIAN THWY W', 'NORTH ACADIAN THWY WEST', 'NORTH ACADIAN THWY. W', 'NORTH ACAIDANA THWY W', 'NORTH AIRWAY', 'NORTH ARDENWOOD', 'NORTH BARROW', 'NORTH BLVD', 'NORTH BOULEVARD', 'NORTH EUGENE', 'NORTH FOSTER', 'NORTH I 110', 'NORTH I-110', 'NORTH I110', 'NORTH LAKE SHERWOOD', 'NORTH LOBDELL', 'NORTH SHERWOOD FOREST', 'NORTH ST', 'NORTH STADIUM', 'NORTHDALE', 'NORTHSHORE', 'NORTHSTAR', 'NORTTH', 'NOTH', 'NOTHSHORE', 'NOTTINGHAM', 'NOTTINGHAM ST.', 'NROTH 17TH', 'NROTH 3RD', "O'DELL", "O'DONAVAN", "O'DONOVAN", "O'HARA", "O'NEAL", 'OAK', 'OAK ALLEY', 'OAK CREST', 'OAK FOREST', 'OAK GROVE', 'OAK KNOLL', 'OAK VIEW', 'OAK VILLA', 'OAK WOOD', 'OAKCREST', 'OAKFORD', 'OAKK VILLA', 'OAKKNOLL', 'OAKLAN', 'OAKLAND', 'OAKLEY', 'OAKLON', 'OAKVIEW', 'OAKVILLA', 'OAKWOOD', 'OCEAN', 'OCTAVIA', 'ODELL', 'OFFICE PARK', 'OGDEN', 'OHARA', 'OKLAHOMA', 'OLD CARRIAGE', 'OLD FORGE', 'OLD HAMMON', 'OLD HAMMOND', 'OLD HAMMOND HWY', 'OLD HERMITAGE', 'OLD HOOPER', 'OLD PLANTATION', 'OLD PLANTATION WAY', 'OLD STURBRIDGE', 'OLDHAMMOND', 'OLEANDER', 'OLESON', 'OLIVE', 'OLIVER', 'OLYMPIC', 'OLYPIC', 'ONE PERKINS', 'ONE PERKINS PLACE', 'ONEAL', 'ONEAL LANE', 'ONEAL LN', 'ONTARIO', 'ONTATRIO', 'ORANGE', 'ORANGEWOOD', 'ORCHID', 'OREGON', 'ORIOLE', 'ORIOLE ST', 'ORLANDA', 'ORLANDO', 'ORMAND', 'ORMANDY', 'ORMOND', 'ORPINE', 'OSAGE', 'OSBORNE', 'OSBOURNE', 'OSCEOLA', 'OSECOLA', 'OSEOLA', 'OSEWGO', 'OSPREY', 'OSWEEGO', 'OSWEGO', 'OTH', 'OVERLAND', 'OVERTON', 'OVID', 'OWL', 'OWSEGO', 'OXFORD', 'OXFORD PLACE', 'OXLEY', 'OZARK', 'PACKARD', 'PADDOCK', 'PAIGE', 'PAIGE ST.', 'PALACE', 'PALERMO', 'PALISADES', 'PALM', 'PALM HILLS', 'PALMETTA', 'PALMETTO', 'PALMWOOD', 'PALMYRA', 'PALNK', 'PAMELA', 'PAMPAS', 'PARIS', 'PARK', 'PARK FOREST', 'PARK HAVEN', 'PARK HILL', 'PARK HILLS', 'PARK HOLLOW', 'PARK KNOLL', 'PARK OAKS', 'PARK PLAZA', 'PARKBRIAR', 'PARKBROOK', 'PARKCIEL', 'PARKCREST', 'PARKER', 'PARKFOREST', 'PARKHAVEN', 'PARKHILL', 'PARKHILLS', 'PARKHOLLOW', 'PARKHURST', 'PARKKNOL', 'PARKKNOLL', 'PARKKNOLL PLACE', 'PARKLAKE', 'PARKLAWN', 'PARKMEADOW', 'PARKMOUNT', 'PARKNOLL', 'PARKOAK', 'PARKOAKS', 'PARKRANGE', 'PARKRIDGE', 'PARKRILL', 'PARKSIDE', 'PARKTRAIL', 'PARKVALE', 'PARKVIEW', 'PARKVIEW CHURCG', 'PARKVIEW CHURCH', 'PARKVIEWCHURCH', 'PARKVILLA', 'PARKWOOD', 'PARLAGNE', 'PARLANGE', 'PARNELL',</t>
+        <v>1</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1384123</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>['(Null)', 'E', 'N', 'S', 'W']</t>
         </is>
       </c>
     </row>
@@ -1329,10 +1419,10 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>265961</v>
+        <v>267773</v>
       </c>
       <c r="E12" t="n">
-        <v>265961</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -1347,19 +1437,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K12" t="n">
         <v>-1</v>
       </c>
       <c r="L12" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="N12" t="n">
-        <v>29</v>
+        <v>3796</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -1377,24 +1467,32 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>J.H. COONEY</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>59358</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>FLORIDA</t>
+        </is>
       </c>
       <c r="V12" t="n">
-        <v>887291</v>
+        <v>11901</v>
       </c>
       <c r="W12" t="n">
-        <v>562</v>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>['10', '10TH', '11TH', '11TH STREET', '12', '12TH', '13', '13TH', '13TH ST', '14', '14TH', '15', '157TH', '15TH', '16', '16TH', '17', '17TH', '17THST', '18TH', '19', '19TH', '20', '2016-10-01 00:00:00', '20TH', '21', '21 ST', '21ST', '22', '222ND', '22ND', '22NDST', '23', '23 RD', '23RD', '23TH', '24', '24TH', '25', '25TH', '26', '26H', '26TH', '27 TH', '27TH', '28', '28TH', '29', '29TH', '30', '30TH', '31', '31ST', '32ND', '33RD', '35', '35 TH', '35TH', '36', '36TH', '37', '37TH', '38', '38TH', '39', '39TH', '3ND', '3OTH', '3RD', '3TH', '40', '40TH', '41', '41ST', '42ND', '43RD', '44TH', '45TH', '46', '46TH', '47', '47 TH', '47TH', '48', '48TH', '49', '49TH', '4OTH', '4TH', '5TH', '69TH', '6TH', '70737\n(30.239824, -90.919992)', '708\n(22.993404, 120.164704)', '70801\n(30.449303, -91.187753)', '70802\n(30.447401, -91.172136)', '70803\n(30.412082, -91.181348)', '70804\n(30.443319, -91.187488)', '70805\n(30.487865, -91.151287)', '70806\n(30.447924, -91.129328)', '70807\n(30.537624, -91.179026)', '70808\n(30.407779, -91.143347)', '70809\n(30.399273, -91.075915)', '70810\n(30.356216, -91.086784)', '70811\n(30.531186, -91.126174)', '708117', '70812\n(30.504013, -91.116363)', '70813\n(30.526079, -91.194843)', '70814\n(30.485682, -91.068661)', '70815\n(30.45523, -91.066066)', '70816\n(30.427529, -91.033574)', '70817\n(30.38342, -90.997548)', '70819\n(30.466781, -91.015121)', '70820\n(30.374, -91.173008)', '70836\n(30.391219, -91.090523)', '708802', '70891\n(30.443319, -91.187488)', '70TH', '71203\n(32.566031, -92.030977)', '71ST', '74TH', '75TH', '7TH', '8', '8TH', '9', '9TH', 'ACADAIN', 'ACADIA W.', 'ACADIAN', 'ACADIAN  EAST', 'ACADIAN  W', 'ACADIAN  W.', 'ACADIAN E', 'ACADIAN E.', 'ACADIAN EAST', 'ACADIAN THRUWAY', 'ACADIAN THRUWAY E', 'ACADIAN THRUWAY WEST', 'ACADIAN THWY', 'ACADIAN THWY  W.', 'ACADIAN THWY E', 'ACADIAN THWY W', 'ACADIAN THWY W.', 'ACADIAN THWY WEST', 'ACADIAN THWY. W', 'ACADIAN TWY W', 'ACADIAN W', 'ACADIAN W.', 'ACADIAN WEST', 'ACADIANA', 'ACHORD', 'AFTON', 'AFTON PARKWAY', 'AIRLINE', 'AIRPORT', 'AIRWAY', 'ALAMDEA', 'ALAMEDA', 'ALLYSON', 'ALMOND', 'AMERICA', 'AMITE', 'ARD', 'ARDENWOD', 'ARDENWOOD', 'AREDENWOOD', 'ASHBOURNE', 'AV', 'AZALEA PARK', 'BAHIN', 'BALBOA', 'BARROW', 'BATON ROUGE', 'BAXTER', 'BAXTON', 'BAY', 'BEAVER', 'BECK', 'BEECHWOOD', 'BELFAIR', 'BELLRIDGE', 'BELLROSE', 'BERKLEY HILL', 'BERNARDO', 'BL', 'BLACK', 'BLACK OAK', 'BLUEBELL', 'BLUEBONNET', 'BLVD', 'BOARDWALK', 'BOCAGE', 'BON MARCHE', 'BOURGEOIS', 'BOYD', 'BOYED', 'BRICKSOME', 'BRIGHTSIDE', 'BRIGHTSIDE VIEW', 'BRIGHTSIDE VIEW DR', 'BROADMOOR', 'BROADMOORE', 'BROCK', 'BROOKESTOWN', 'BROOKISTOWN', 'BROOKSTON', 'BROOKSTOWN', 'BROOKSTWON', 'BROOKTOWN', 'BRROKSTOWN', 'BT', 'BUCHANAN', 'BUCHANNAN', 'BUCHANNON', 'BUCHANON', 'BURGESS', 'BURGUOIS', 'CAMPUS', 'CAPITAL PARK', 'CAPITOL PARK', 'CAPTIAL PARK', 'CARIBOU', 'CARRIAGE HOUSE', 'CARROLLTON', 'CARROLTON', 'CATALPA', 'CHALET', 'CHANADIA', 'CHARLES', 'CHIMES', 'CHOCKTAW', 'CHOCTAW', 'CHOCTAW EXT', 'CIRSTY', 'CLOVERDALE', 'COLLEGE HILL', 'COLUMBINE', 'COMMERCE', 'CONTOUR', 'CONVENTION', 'CORONADO', 'COVENTRY', 'CR', 'CRISTY', 'CROWN', 'CT', 'DAHLIA', 'DAMUTH', 'DARRYL', 'DARRYL DR', 'DAYTON', 'DAYTON CT', 'DONMOOR', 'DONMOORE', 'DONMOR', 'DONMORE', 'DOUGHERTY', 'DR', 'DUAL', 'DUMONT', 'EAST I-10', 'EATON', 'EDGEWOOD', 'EL CAJON', 'ELAINE', 'ELM GROVE', 'ELM GROVE GARDEN', 'ESSEN HEIGHTS', 'EUGENE', 'EVANGELINE', 'FAIR OAK', 'FAIRFAX', 'FAIROAK', 'FAIRWAY', 'FARRINGTON', 'FARRINTON', 'FIELDGATE', 'FIFTH', 'FIREWOOD', 'FLANNERY', 'FLORIDA', 'FOREST', 'FORSTER', 'FOSTER', 'FOSTER/GOVERNMENT', 'FOURTH', 'FRAT', 'FRATERNITY', 'FRATERNITY DR', 'GARCO', 'GARFIELD', 'GIBBENS', 'GLEN', 'GLENHAVEN', 'GLENNSADE', 'GRAHAM', 'GRAND', 'GRANDEUR', 'GRANDUER', 'GRANT', 'GREENWELL SPRINGS', 'GUS YOUNG', 'HAMPTON', 'HARCO', 'HARDING', 'HARELLS FERRY', "HARRELL'S FERREY", "HARRELL'S FERRY", 'HARRELLS FERRY', 'HARRELLS FERRY Q', 'HARRELLS FERY', "HARRELLS'S FERRY", 'HARRELLSFERRY', 'HARRELS FERRY', 'HARRIS', 'HARRISON', "HARRLL'S FERRY", "HART'S MILL", 'HARVEY', 'HAVANA', 'HAVENPARK', 'HEARTSMILL', 'HERWOOD FOREST', 'HIDDEN GATE', 'HIDDEN GATES', 'HIGH MEADOW', 'HIGHMEADOW', 'HIGHWAY', 'HOWELL', 'HW', 'I - 10', 'I - 10   /    ACADIAN THWY', 'I - 10   /   ACADIAN THWY', 'I - 10 / ACADIAN THWY', 'I - 10 / COLLEGE DR', 'I - 10 / COLLEGE DR.', 'I - 10 / WASHINGTON ST.', 'I - 110', 'I - 12', "I - 12   /   O'NEAL LANE", "I - 12  /  O'NEAL LANE", 'I - 12  /  SHERWOOD FOREST', 'I - 12 / AIRLINE HWY', 'I - 12 / DRUSILLA', 'I - 12 / ESSEN LN', 'I - 12 / MILLERVILLE', 'I - 12 / OVER JEFFERSON HWY', 'I - 12 / SHERWOOD FOREST', 'I -10 / ACADIAN THWY ON RAMP', 'I -110', 'I -12', 'I 10', 'I 110', 'I 12', 'I--10', 'I-10', 'I-10 / ACADIAN THWY', 'I-10 / COLLEGE DR', 'I-110', 'I-110 / HARDING', 'I-12', 'I-12  /  ESSEN LANE', 'I-12 / AIRLINE HWY', 'I-12 / MILLERVILLE', 'I-12 / SHERWOOD FOREST', 'I10', 'I110', 'I110 ENTRANCE', 'I12', 'INDIUSTRIAL', 'INDUSTRIAL', 'INTERSTATE', 'INTERSTATE 10', 'INTERSTATE 110', 'INTERSTATE 12', 'INTERSTATE110', 'INTERTSATE 10', 'INTERTSTATE 12', 'IROQUOIS', 'JAMAICA', 'JAMIACA', 'JAMICA', 'JEFFERSON', 'JOHNSNO', 'JOHNSON', 'JOHSON', 'KINGS CANYON', 'KIRKLEY', 'KIRLKLEY', 'L70815', 'LA', 'LA BELLE', 'LAFAYETTE', 'LAJESHORE', 'LAKE SHERWOOD', 'LAKE SHERWOOD FOREST', 'LAKE SHERWWOD', 'LAKE SHORE', 'LAKESHORE', 'LAKESHORRE', 'LARK', 'LAWN', 'LEE', 'LEIGHTON', 'LEO', 'LI ROCCHI', 'LI ROCCI', 'LITTLE JOHN', 'LN', 'LOBDELL', 'LOBDELLL', 'LOCKSLEY', 'LODBDELL', 'LODDELL', 'LULA', 'MAGNA CARTA', 'MAIN', 'MALL', 'MARGUE ANN', 'MARILYN', 'MARQUE  ANN', 'MARQUE ANN', 'MARQUE ANNE', 'MARQUEANN', 'MASON', 'MCKINLEY', 'MCKINOEY', 'MEADOWBROOKS', 'MIKE', 'MILBURN', 'MILLBURN', 'MISTYBROOK', 'MOHAWK', 'MOHICAN PRESCOTT CROSSOVER', 'MONARCH', 'MONET', 'MOUNT PLEASANT', 'MURIEL', 'NORTH', 'NORTH STREET', 'OAK VILLA', 'OAKS', 'ODELL', 'OSCEOLA', 'OT', 'PAMELA', 'PARKER', 'PARKLAND', 'PARKVIEW', 'PARKVIEW CHURCH', 'PARNELL', 'PASS', 'PERDUE', 'PERIMETER', 'PERKINS', 'PK', 'PL', 'PLANK', 'POINTER', 'POLK', 'POLLARD', 'POMONA', 'PURDUE', 'RAFE MEYER', 'RAMSEY', 'RD', 'REDONDO', 'RIDEGEWOOD', 'RIDGE', 'RIEVR', 'RIIVER', 'RIVER', 'RIVER OAKS', 'RIVER RD', 'RIVER ROAD', 'RIVERCREST', 'RIVEROAKS', 'RIVERROAD', 'ROBIN HOOD', 'ROBINHOOD', 'ROOSELVELT', 'ROOSERVELT', 'ROOSEVELT', 'ROSEDALE', 'ROSEVELT', 'ROTHMER', 'S. 16TH', 'SABINE', 'SHELLEY', 'SHERATON', 'SHERWOD FOREST', 'SHERWOOD', 'SHERWOOD F OREST', 'SHERWOOD FOEST', 'SHERWOOD FOOREST', 'SHERWOOD FOREST', 'SHERWOOD FORREST', 'SHERWOOD FORSET', 'SHERWOOD FORST', 'SHERWOOD HOLLOW', 'SHERWOOD MEADOW', 'SHERWOOD MEADOWS', 'SHERWOODFOREST', 'SHERWOODFORREST', 'SHEWROOD FOREST', 'SMILEY', 'SOUTH LAKESHORE', 'ST', 'ST  GERARD', 'ST GERARD', 'ST GERARD CIRCLE', 'ST. GERARD', 'ST.GERARD', 'STADIUM', 'STANOCOLA', 'STARING', 'STATE', 'STATE STREET', 'STATW', 'STELL', 'STEVENDALE', 'STREET', 'SUNSET HILL', 'SUNSET HILLS', 'SUNSETHILL', 'SWINGALONG', 'TALLOW', 'TAMARI', 'TAMARIA', 'TAMARIX', 'TAMPA', 'TAMS', 'TENTH', 'TH', 'THIRD', 'THOMAS', 'THRID', 'TINLEY', 'TOPEKA', 'TOWER', 'UPLAND', 'VAN', 'VARSITY', 'VEGA', 'VENTURA', 'VIEUX', 'WALKER', 'WASHINGTON', 'WAVERLAND', 'WAVERLY', 'WEST I-10', 'WINDSOR', 'WOODCHASE', 'WOODDALE', 'WOODGATE', 'WOODHAVEN', 'WOODRUFF', 'WOODSTONE', 'WY', 'YOSEMITE', '`70816']</t>
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>2043049</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>3958</v>
+      </c>
+      <c r="Z12" t="inlineStr">
+        <is>
+          <t>['(Null)', '0NEAL', '0SAGE', '10', '10600 CHOCTAW', '10TH', '11TH', '11TH STREET', '12', '12000 SOUTH CHOCTAW', '12TH', '13', '13TH', '13TH ST', '14', '14TH', '15', '157TH', '15TH', '16', '16TH', '17', '17TH', '17THST', '18TH', '19', '19TH', '20', '2016-10-01 00:00:00', '20TH', '21', '21 ST', '21ST', '22', '2200 KENTUCKY STREET', '222ND', '22ND', '22NDST', '23', '23 RD', '2300 COLLEGE', '23041/2 GRACIE', '233 ST. LOUIS', '23RD', '23TH', '24', '24TH', '25', '25TH', '26', '26H', '26TH', '27 TH', '27TH', '28', '28TH', '29', '29TH', '30', '300 N. 22ND ST.', '30TH', '31', '31ST', '3210 BARTLETT', '32ND', '33RD', '35', '35 TH', '35TH', '36', '36TH', '37', '37TH', '38', '3800 ELM', '38TH', '39', '39TH', '3ND', '3OTH', '3RD', '3RD STREET', '3TH', '40', '40TH', '41', '41ST', '42ND', '4343 DENHAM', '43RD', '44TH', '45TH', '46', '46TH', '47', '47 TH', '47TH', '48', '48TH', '49', '49TH', '4OTH', '4TH', '5746 LINDEN ST', '5TH', '68TH', '69 TH', '69TH', '69TH. AVE', '69TH. AVE.', '6TH', '70TH', '70TH. AVE.', '71', '71 ST', '71ST', '71ST AVENUE', '72', '72 ND', '72ND', '72ND. AVE.', '73RD', '73RD AVE', '74', '74TH', '74TH AVE', '75', '75TH', '75TH AVE', '75TH. AVE.', '76TH', '77T', '77TH', '78TH', '78TH AVE', '78TH AVENUE', '79TH', '7OTH', '7TH', '8', '8TH', '9', '9000 GREENWELL SPRINGS', '9TH', 'A', 'ABEL', 'ABELIA', 'ABERDEEN', 'ACADAIN', 'ACADIA', 'ACADIA W.', 'ACADIAN', 'ACADIAN  EAST', 'ACADIAN  W', 'ACADIAN  W.', 'ACADIAN E', 'ACADIAN E.', 'ACADIAN EAST', 'ACADIAN THRUWAY', 'ACADIAN THRUWAY E', 'ACADIAN THRUWAY WEST', 'ACADIAN THWY', 'ACADIAN THWY  W.', 'ACADIAN THWY E', 'ACADIAN THWY W', 'ACADIAN THWY W.', 'ACADIAN THWY WEST', 'ACADIAN THWY. W', 'ACADIAN TWY W', 'ACADIAN W', 'ACADIAN W.', 'ACADIAN WEST', 'ACADIANA', 'ACCARDO', 'ACHORD', 'ACORN', 'ADAMS', 'ADDINGTON', 'ADDISON', 'ADELLA', 'ADRICHS', 'AFTON', 'AFTON PARKWAY', 'AIRINE', 'AIRLIEN', 'AIRLIINE', 'AIRLINE', 'AIRLINE HIGHWAY', 'AIRLINE HW', 'AIRLINE HWY', 'AIRLINE HWY.', 'AIRLINEGURLIE', 'AIRLLINE', 'AIRPORT', 'AIRTLINE', 'AIRWAY', 'ALABAMA', 'ALAMDEA', 'ALAMEDA', 'ALAMEDIA', 'ALAMONSTER', 'ALASKA', 'ALBATROS', 'ALBATROSS', 'ALBERT', 'ALBERT HART', 'ALBERTA', 'ALCO', 'ALDEN', 'ALDRICH', 'ALELLO', 'ALETHA', 'ALEXANDER', 'ALICE', 'ALICE`', 'ALIQUIPPA', 'ALIRLINE', 'ALIVIN DARK', 'ALLAN', 'ALLELO', 'ALLEN', 'ALLIPPA', 'ALLIPUIPPA', 'ALLIQUIPA', 'ALLIQUIPPA', 'ALLIQUPPA', 'ALLYSON', 'ALMA', 'ALMOND', 'ALPHA', 'ALRICH', 'ALVIN 0DARK', 'ALVIN DARK', 'AMARILLO', 'AMARILLO CT', 'AMARILLO ST', 'AMARILLO ST.', 'AMBERALYNN', 'AMBERLYNN', 'AMBROSE', 'AMERCICA', 'AMERICA', 'AMERICAN', 'AMERICAN PLAZA', 'AMERILLO', 'AMESBURY', 'AMHERST', 'AMIR', 'AMITE', 'AMOS', 'AMRILLO', 'ANDOVER', 'ANGLO', 'ANI', 'ANITA', 'ANN', 'ANNA', 'ANNABELLE', 'ANNETTE', 'ANNETTE ST', 'ANNETTE ST.', 'ANNETTTE', 'ANSELMO', 'ANTIOCH', 'ANTRIM', 'APARTMENT', 'APARTMENT COURT', 'APARTMENT CT', 'APPERSON', 'APPLE', 'APPLETON', 'APPLEWOOD', 'APPLKE', 'APRIL', 'APT COURT', 'ARBOR  VITAE', 'ARBOR VITA', 'ARBOR VITAE', 'ARBOR VITEA', 'ARBUTUS', 'ARCADIA', 'ARCHERY', 'ARD', 'ARDEN', 'ARDENWOD', 'ARDENWOOD', 'AREDENWOOD', 'ARGOSY', 'ARIALO', 'ARILINE', 'ARIZONA', 'ARKANSAS', 'ARLINGFORD', 'ARLINGTON', 'ARMSTRONG', 'ARROWHEAD', 'ASBOURNE', 'ASCENSION PARISH PRISON', 'ASH', 'ASHBOURNE', 'ASHLAND', 'ASHODEL', 'ASPENWOOD', 'ASPHODEL', 'ASTER', 'ASTOLAT', 'ATHENS', 'ATKINSON', 'AUBIN', 'AUBINWOOD', 'AUBURN', 'AUDREY', 'AUDUBON', 'AUGUSTUS', 'AURORA', 'AUTOMN BLOSSOM', 'AUTUMN  BLOSSOM', 'AUTUMN BLOSSOM', 'AUVENUE B', 'AV', 'AV A', 'AVANTIS', 'AVANTS', 'AVE', 'AVE  A', 'AVE A', 'AVE B', 'AVE C', 'AVE D', 'AVE E', 'AVE F', 'AVE G', 'AVE H', 'AVE I', 'AVE J', 'AVE K', 'AVE L', 'AVE M', 'AVE.  A', 'AVE. E', 'AVE. I', 'AVE. J', 'AVE. L', 'AVE. M', 'AVEENUE F', 'AVEENUE K', 'AVEJ', 'AVENUE A', 'AVENUE B', 'AVENUE C', 'AVENUE D', 'AVENUE E', 'AVENUE F', 'AVENUE G', 'AVENUE H', 'AVENUE I', 'AVENUE J', 'AVENUE K', 'AVENUE L', 'AVENUE M', 'AVEUNE F', 'AVIS', 'AVOCET', 'AVONDALE', 'AZALEA', 'AZALEA PARK', 'AZELA PARK', 'AZTEC', 'B', 'B A LITTLE', 'B NEHRU', 'B-HOLLYWOOD', 'BADLEY', 'BADLEY RD.', 'BAHIN', 'BAHM', 'BAIRD', 'BALBOA', 'BALIS', 'BALLINA', 'BALSAM', 'BALSAWOOD', 'BANCROFT', 'BANCROFT WAY', 'BANK', 'BANKERS', 'BANKS', 'BANYAN', 'BANYAN TRACE', 'BANYANWOOD', 'BANYON TRACE', 'BARANCO', 'BARBAR', 'BARBARA', 'BARBER', 'BARBER STREET', 'BARD', 'BARDWELL', 'BARKLEY', 'BARKSDALE', 'BARLETT', 'BARON', 'BARROSA', 'BARROW', 'BARTLETT', 'BATEMAN', 'BATON ROUGE', 'BAWEL', 'BAWELL', 'BAXTER', 'BAXTON', 'BAY', 'BAYBERRY', 'BAYLOR', 'BAYNARD', 'BAYOU FOUNTAIN', 'BAYSIDE', 'BAYWELL', 'BAYWOOD', 'BBRIERWOOD', 'BEACH', 'BEACHGROVE', 'BEACHWOOD', 'BEAU PRE', 'BEAUMONT', 'BEAUREGARD', 'BEAUVERDE', 'BEAVER', 'BECHWOOD', 'BECK', 'BECKENHAM', 'BEDFORD', 'BEECH', 'BEECH ST', 'BEECHGROVE', 'BEECHST', 'BEECHWOOD', 'BEECHWOOD DR', 'BELARBOR', 'BELCARO', 'BELFAIR', 'BELHAVEN', 'BELHAVEN CI', 'BELHAVEN TRACE', 'BELL HELENE', 'BELLARBOR', 'BELLE CHERIE', 'BELLE FOUNTAINE', 'BELLE GROVE', 'BELLE HELENE', 'BELLE PIONTE', 'BELLE POINTE', 'BELLEMEADE', 'BELLEROSE', 'BELLEVIEW', 'BELLEWOOD', 'BELLFORT', 'BELLGLADE', 'BELLGLEN', 'BELLHAVEN', 'BELLHAVEN  TRACE', 'BELLHAVEN TRACE', 'BELLMEADE', 'BELLONIA', 'BELLRIDGE', 'BELLROSE', 'BELLVALE', 'BELLVIEW', 'BELMEADE', 'BELMONT', 'BELVEDERE', 'BEN', 'BEN HUR', 'BEN HURR', 'BENHUR', 'BENINGTON', 'BENNETT', 'BENNINGTON', 'BENSON', 'BENTLEY', 'BENTON', 'BERKELEY', 'BERKLEY', 'BERKLEY HILL', 'BERKSHIRE', 'BERLIN', 'BERMUDA', 'BERMUDA AV', 'BERN', 'BERNARDO', 'BERNWOOD', 'BERRYBROOK', 'BERTHA', 'BERWICK', 'BETA', 'BETH ANN', 'BETTY SMOTHERS', 'BEVERELY', 'BEVERLY', 'BICENTENNIAL', 'BIENVILLE', 'BIG BEND', 'BIIG. GEN. ISAAC SMITH', 'BILLIOPS', 'BILLOPS', 'BILLUPS', 'BIRCH', 'BIRCHWOOD', 'BIRGHTSIDE', 'BIRHGTSIDE', 'BISHOP  OTT', 'BISHOP OTT', 'BLACHE', 'BLACK', 'BLACK OAK', 'BLACKBERRY', 'BLACKWELL', 'BLAIRSTOWN', 'BLAKEMORE', 'BLAKERIDGE', 'BLANCHARD', 'BLANCHE', 'BLANCHU', 'BLENDON', 'BLES', 'BLOUIN', 'BLOUNT', 'BLOUNT RD.', 'BLUBONNET', 'BLUE BONNET', 'BLUE GLASS', 'BLUE GRASS', 'BLUEBELL', 'BLUEBERRY', 'BLUEBONET', 'BLUEBONNER', 'BLUEBONNET', 'BLUEBONNETT', 'BLUEGRASS', 'BLUERIDGE', 'BLUNT', 'BLVD', 'BLVD  DE PROVINCE', 'BLVD DE PROVANCE', 'BLVD DE PROVENCE', 'BLVD DE PROVIDENCE', 'BLVD DE PROVINCE', 'BLVD DE. PROVINCE', 'BLVD DEPROVINCE', 'BLVD. DE PROVINCE', 'BLVD. DE. PROVINCE', 'BLVDDEPROVINCE', 'BO0B PETIT', 'BOARD WALK', 'BOARDWALK', 'BOB  PETTIT', 'BOB PETIT', 'BOB PETITE', 'BOB PETITIE', 'BOB PETITT', 'BOB PETITTE', 'BOB PETTET', 'BOB PETTIE', 'BOB PETTIIT', 'BOB PETTIT', 'BOB PETTITE', 'BOB PETTITT', 'BOB PRTTIT', 'BOB PTTTIT', 'BOBB PETTIT', 'BOBPETTIT', 'BOCAGE', 'BOCAGE LAKE', 'BOCAGE LAKES', 'BOGAN', 'BOGAN BOGAN', 'BOGAN WALK', 'BOGANWALK', 'BOMER', 'BON CREST', 'BON DURANT', 'BON MARCHE', 'BON SEJOUR', 'BONABRIDGE', 'BONARBRIDGE', 'BONCREST', 'BOND', 'BONN', 'BONTURA', 'BOOKER', 'BOOKERLINE', 'BOONE', 'BOOSIE', 'BOOTSIE', 'BOREAS', 'BOSTON', 'BOULEVARD DE PROVINCE', 'BOULEVARDE DE PROVINCE', 'BOUNT', 'BOURBON', 'BOURGEOIS', 'BOURGOIS', 'BOWMAN', 'BOXELDER', 'BOYCE', 'BOYD', 'BOYED', 'BRACEWELL', 'BRADDOCK', 'BRADDROCK', 'BRADFIELD', 'BRADLEY', 'BRADY', 'BRADY ST', 'BRAEBURN', 'BRAEWOOD', 'BRAKLEY', 'BRAME', 'BRANDON', 'BRANDON LYNN', 'BRANDYWINE', 'BRASHEARS', 'BREC-SCOTLANDVILLE PARK', 'BRECKENRIDGE', 'BRECKENRIDGE AVE.', 'BRECKINRIDGE', 'BREEDEN', 'BRENT', 'BRENTWOOD', 'BRIARCLIFF', 'BRIARWOOD', 'BRICE', 'BRICKSOME', 'BRICKYARD', 'BRID. GEN. ISSAC SMITH', 'BRIERWOOD', 'BRIG GEN ISAAC SMITH', 'BRIG GEN ISSAC SMITH', 'BRIG GENERAL ISAAC SIMTH', 'BRIG GENERAL ISAAC SMITH', 'BRIG GENERAL ISSAC SMITH', 'BRIG. GEN. ISAAC SMITH', 'BRIG. GEN. ISACC SMITH', 'BRIG. GEN. ISSAC SMITH', 'BRIG. GENERAL ISAAC SMITH', 'BRIGADERE GENERAL ISSAC SMIT', 'BRIGHSIDE', 'BRIGHTSDIE', 'BRIGHTSIDE', 'BRIGHTSIDE VEIW', 'BRIGHTSIDE VIEW', 'BRIGHTSIDE VIEW DR', 'BRIGHTSITE', 'BRIGTHSIDE', 'BRINWOOD', 'BRISTOL', 'BRITTANY', 'BROAD', 'BROADMOOR', 'BROADMOORE', 'BROADWALK', 'BROADWAY', 'BROARDMOOR', 'BROCADE', 'BROCATO', 'BROCK', 'BROGDEN', 'BROGDON', 'BROMLEY', 'BRONZEBUSH', 'BROODMOOR', 'BROOKESTOWN', 'BROOKHAVEN', 'BROOKISTOWN', 'BROOKLINE', 'BROOKSHIRE', 'BROOKSTON', 'BROOKSTOWN', 'BROOKSTWON', 'BROOKTOWN', 'BROOKVIEW', 'BROOKWOOD', 'BRORDWALK', 'BROUSSARD', 'BROWNING', 'BROWNLEE', 'BROWNSFIELD', 'BRROKSTOWN', 'BRUCE', 'BRUCE AL', 'BRUCE ALL', 'BRUCE ALLEY', 'BRUCE ALLY', 'BRUGHTSIDE', 'BRYON', 'BTECKENRIDGE', 'BUCHANAN', 'BUCHANNAN', 'BUCHANNON', 'BUCHANON', 'BUCKEY', 'BUCKEYE', 'BUCKINGHAM', 'BUCKLEY', 'BUENA VISTA', 'BULL RUN', 'BUNGALOW', 'BUNKER HILL', 'BUNKERHILL', 'BURBANK', 'BURBNANK', 'BURDEN', 'BURGESS', 'BURGIN', 'BURGUNDY', 'BURGUOIS', 'BURNS', 'BURTON', 'BUTTONWOOD', 'BYNUM', 'BYRD', 'BYRON', 'BYRON ST', 'BYRON ST.', 'BYWOOD', 'C', 'CABLE', 'CADALLIC', 'CADDO', 'CADILLAC', 'CADILLAC ST', 'CADILLC', 'CADILLIAC', 'CADILLLAC', 'CAEDEZA', 'CAIN', 'CALANNE', 'CALDWELL', 'CALIFORNIA', 'CALLAHAN', 'CALUMET', 'CAMBRIDGE', 'CAMEILLA', 'CAMELIA', 'CAMELLIA', 'CAMELLIA TRACE', 'CAMELLIA WAY', 'CAMELOT', 'CAMERON', 'CAMMY', 'CAMPUS', 'CAMPUS LAKE', 'CANADA', 'CANADA ST.', 'CANAL', 'CANDA', 'CANDACE', 'CANDLEWOOD', 'CANNIN', 'CANNON', 'CANNON ST', 'CANNON ST.', 'CANON', 'CANONICUS', 'CANONIUS', 'CANONUCUS', 'CANTERBURY SQUARE APARTMENTS', 'CANTREE', 'CANYONLAND', 'CANYONLANDS', 'CAPE HATTERAS', 'CAPITAL', 'CAPITAL ACCESS', 'CAPITAL HEIGHTS', 'CAPITAL PARK', 'CAPITOL', 'CAPITOL ACCESS', 'CAPITOL HEIGHTS', 'CAPITOL LAKE', 'CAPITOL PARK', 'CAPRI', 'CAPTIAL PARK', 'CARALINA', 'CARDEZA', 'CARDINAL', 'CARDINAL ST', 'CARIBOU', 'CARL', 'CARLETON', 'CARLOTA', 'CARLOTTA', 'CARLSBAD', 'CARLTON', 'CARMEN', 'CAROL', 'CAROL MARIE', 'CAROLINA', 'CAROLYN SUE', 'CARR', 'CARR ALLEY', 'CARRIAGE', 'CARRIAGE HOUSE', 'CARRIAGE WAY', 'CARROL', 'CARROLLTON', 'CARROLTON', 'CARTER', 'CARVER', 'CAS LOMA', 'CASA GRANDE', 'CASA LOMA', 'CASHEL', 'CASPER', 'CASPIANA', 'CASTILE', 'CASTLE KIRK', 'CASTLEBURY', 'CASTLEKIRK', 'CASTLEWOOD', 'CATALPA', 'CATE', 'CATHEDRAL', 'CATHERINE', 'CECARCREST', 'CEDAR', 'CEDAR BEND', 'CEDAR CREST', 'CEDAR LAKE', 'CEDAR LODGE', 'CEDAR WAY', 'CEDARCREAT', 'CEDARCREST', 'CEDARDALE', 'CEDARLAKE', 'CEDARLANE', 'CEFALU', 'CELTIC', 'CENTENARY', 'CENTERPOINTE', 'CENTRAL', 'CENTRAL THWY', 'CENTURY', 'CEZANNE', 'CHALET', 'CHALICE', 'CHALMA', 'CHANADIA', 'CHANDADIA', 'CHANDLER', 'CHANEY', 'CHAPELVIEW', 'CHAPELWOOD', 'CHARINGTON', 'CHARLES', 'CHARLES STREET', 'CHARLES T SMITH', 'CHARLES T. SMITH', 'CHARLESTOWNE', 'CHARLEY WATTS', 'CHARLOTTE', 'CHARMAINE', 'CHAROLETTE', 'CHATAWA', 'CHATEAU', 'CHATFIELD', 'CHATSWORTH', 'CHENAGO', 'CHENANGO', 'CHEROKEE', 'CHERRY', 'CHERRYDALE', 'CHESNUT', 'CHESTERFIELD', 'CHESTNUT', 'CHETERFIELD', 'CHEVELLE', 'CHIMES', 'CHIMNEYWOOD', 'CHINN', 'CHIPENHAM', 'CHIPPEEWA', 'CHIPPENHAM', 'CHIPPEWA', 'CHIPPEWA ST.', 'CHIPPPEWA', 'CHIPPWA', 'CHOCKTAW', 'CHOCTAW', 'CHOCTAW EXT', 'CHOCYAW', 'CHOPIN', 'CHRISTIAN', 'CHRISTINA', 'CHRISTY', 'CHUCK YEAGER', 'CHURCHILL', 'CINQUEFOIL', 'CIRCLE', 'CIRSTY', 'CITADEL', 'CITI PLACE', 'CITIPLACE', 'CITY PARK', 'CITYPLACE', 'CLAIREWOOD', 'CLAIRMONT', 'CLARA', 'CLARET', 'CLARK', 'CLASSIQUE', 'CLAUMET', 'CLAYCUT', 'CLAYCUTT', 'CLAYTO0N', 'CLAYTON', 'CLEAR LAKE', 'CLEARLAKE', 'CLEMATIS', 'CLEMENTE', 'CLEO', 'CLETUS', 'CLIFTON', 'CLINTON', 'CLOUD', 'CLOVER', 'CLOVERDALE', 'CLOVERLAND', 'CLYTON', 'COBBLESTONE', 'COLDWATER CREEK', 'COLE', 'COLEGE', 'COLLAGE', 'COLLEEN', 'COLLEGE', 'COLLEGE HILL', 'COLLINS', 'COLLLEGE', 'COLONEL ALLEN', 'COLONEL GIBSON', 'COLONIAL', 'COLORADO', 'COLORODO', 'COLUMBINE', 'COLUMBUS DUNN', 'COMAL', 'COMISH', 'COMISH DR.', 'COMMERCE', 'COMMON', 'COMMUNITY COLLEGE', 'COMORANT', 'COMPTON', 'CONARD', 'CONCORD', 'CONCORDE', 'CONCORDIA', 'CONFIDENCE', 'CONGERSS', 'CONGRESS', 'CONLEY', 'CONNELL', 'CONNELL PARK', 'CONNELLS PARK', 'CONONICOUS', 'CONRAD', 'CONSITUTION', 'CONSTANCE', 'CONSTITUTION', 'CONTINENTAL', 'CONTOUR', 'CONVENTION', 'CONVENTIONS', 'CONWAY', 'COOT', 'COPORATE', 'COPPERFIELD', 'CORA', 'CORINTH', 'CORK', 'CORMORANT', 'CORNELL', 'CORONADO', 'CORPOATE', 'CORPORATE', 'CORPORATE BLVD', 'CORPORATE BOULEVARD', 'CORPORATE0808', 'CORPORTE', 'CORSICA', 'CORT', 'CORTAN', 'CORTANA', 'CORTANA MALL', 'CORTANA P', 'CORTANA PLACE', 'CORTNA', 'COSTELLO', 'COSTITUTION', 'COTANA', 'COTTAGE', 'COTTON', 'COTTONDALE', 'COTTONWOOD', 'COUNTRY CLUB', 'COUNTRY MEADOW', 'COUNTRY RIDGE', 'COURSEY', 'COURSEY BLVD', 'COURTLAND', 'COURTNEY CLUB', 'COUSEY', 'COVENTION', 'COVENTRY', 'COVINGTON', 'CPNGRESS', 'CRANE', 'CRATER LAKE', 'CREATVIEW', 'CREEKSIDE', 'CREEKWOOD', 'CRESCENT', 'CRESTAIRE', 'CRESTVIEW', 'CRESTWAY', 'CRESTWOOD', 'CRISTY', 'CROWN', 'CROWN OAKS', 'CROWN WAY', 'CROWNE', 'CROYDON', 'CRYODON', 'CUMBERLAND', 'CUNARD', 'CUNARD AVE.', 'CURLEW', 'CURTIS', 'CURTSI', 'CUYHANGA', 'CYNDAL', 'CYPRESS', 'CYPRESS  LAKE', 'CYPRESS DALE', 'CYPRESS GLEN', 'CYPRESS GLENN', 'CYPRESS HALL', 'CYPRESS HALL ALLEY', 'CYPRESS LAKE', 'CYPRESS MANOR', 'CYPRUS CEDAR', 'CYRIL', 'CYRUS', 'D', 'DABNEY', 'DABRY', 'DAGGET', 'DAGGETT', 'DAHLIA', 'DAIRYMPLE', 'DAKIN', 'DALARK', 'DALLAS', 'DALRYMPLE', 'DALRYMPLY', 'DALTON', 'DAMON', 'DAMUTH', 'DAN', 'DANIEL', 'DANIEL WEBSTER', 'DARADELE', 'DARADELL', 'DARADELLE', 'DARBY', 'DARCI LYNN', 'DARE', 'DARILYN', 'DARIUS', 'DARLYMPLE', 'DARRL', 'DARRYL', 'DARRYL DR', 'DARRYLE', 'DARTMOOR', 'DARWIN', 'DARYLMBLE', 'DARYLPLE', 'DARYLRPLE', 'DARYMPLE', 'DARYRPLE', 'DAUGHTERY', 'DAVENPORT', 'DAVENTRY', 'DAVID', 'DAWN', 'DAWNADALE', 'DAWNADELE', 'DAWSON', 'DAWSON DR', 'DAWSON DR.', "DAWSON'S CREEK", 'DAYTON', 'DAYTON CT', 'DE', 'DE SOTO', 'DEAN LEE', 'DEER', 'DEERFIELD', 'DEERPATH', 'DEERPATH WAY', 'DEERPATH WY', 'DEERWOOD', 'DEHNAM', 'DEL PLAZA', 'DELAWARE', 'DELCOURT', 'DELEWARE', 'DELGADO', 'DELL', 'DELMAR', 'DELPHINE', 'DELPLAZA', 'DELTA', 'DEMBO', 'DENA LYNN', 'DENAHM', 'DENBO', 'DENHAM', 'DENHAM ST', 'DENHAM ST.', 'DENHAMS', 'DENHAN', 'DENTATION', 'DEPLAZA', 'DERBY', 'DESOTO', 'DESTRAHAN', 'DESTREHAN', 'DEVALL', 'DEVONSHIRE', 'DIANE', 'DIDESSE', 'DIJON', 'DIUGHERTY', 'DIVINCENTI', 'DIXON', 'DODGE', 'DODSON', 'DOGWOOD', 'DOLLAR GENERAL-GOVERNMENT', 'DON REDDEN', 'DONALD', 'DONALDSON', 'DONCASTER', 'DONMOOR', 'DONMOORE', 'DONMOR', 'DONMORE', 'DONNA', 'DONOVAN', 'DONRAY', 'DOOLEY', 'DOOLITTLE', 'DORAL', 'DORCHESTER', 'DORIE MILLER', 'DOROTHY DIX', 'DOT', 'DOUGHERTY', 'DOUGHRETY', 'DOUGHTERY', 'DOUGLAS', 'DOUGLAS  AVE', 'DOUGLAS AVE', 'DOUGLAS AVE.', 'DOVE', 'DOVE HAVEN', 'DOVE HOLLOW', 'DOVERWOOD', 'DREHR', 'DREW', 'DRUCILLA', 'DRUID CIRCLE', 'DRUSILLA', 'DUAL', 'DUANE', 'DUBLIN', 'DUBOIS', 'DUCHESS', 'DUCHESS ST.', 'DUCK', 'DUCROS', 'DUKE', 'DULCITO', 'DUMONT', 'DUNBAR', 'DUNCAN', 'DUNCAN KENNER', 'DUNSTAN', 'DUPLANTIER', 'DURANDE', 'DURHAM', 'DUTCH HIGHLAND', 'DUTCHESS', 'DUTON', 'DUTTON', 'DUTTON AVE', 'DWAINE', 'E BOYD', 'E FAIROAKS', 'E GRAND', 'E MASON', 'E-I12', 'E.  BROCKSTOWN', 'E. 110', 'E. BOYD', 'E. BROOKSTOWN', 'E. BROOKSTOWN DR.', 'E. MASON', 'E. WASHINGTON', 'EAGLE', 'EARL GROS', 'EARL GROSS', 'EARLGROS', 'EAST', 'EAST BOYD', 'EAST BROOKSTOWN', 'EAST DAYTON', 'EAST END', 'EAST GATE', 'EAST I 10 ON RAMP', 'EAST I 12', 'EAST I-10', 'EAST I-12', 'EAST VAN', 'EASTBANK', 'EASTBAY', 'EASTGATE', 'EASTLAND', 'EASTWOOD', 'EATON', 'EATON ST', 'EBONY', 'EDDIE ROBINGSON', 'EDDIE ROBINSON', 'EDDIE ROBINSON SR', 'EDDIE ROBINSON SR.', 'EDDISON', 'EDEGEMONT', 'EDEN', 'EDGEMONT', 'EDGEWOOD', 'EDGMONT', 'EDGWOOD', 'EDINBURG', 'EDINBURGH', 'EDISON', 'EDUCATION', 'EDWARD', 'EDWARDS', 'EDWIN', 'EDWIN ST.', 'EFFRINGHAM', 'EGRET', 'EILEEN', 'EL CAJON', 'EL CAMINO', 'EL MARRO', 'EL MONTE', 'EL MORRO', 'ELAIN', 'ELAINE', 'ELANOR', 'ELDERWOOD', 'ELEANDOR', 'ELEANOR', 'ELEARNOR', 'ELERSLIE', 'ELGIN', 'ELISE', 'ELISSALDE', 'ELIZABETH', 'ELIZEBETH', 'ELJIN', 'ELKWOOD', 'ELLERSLIE', 'ELLWOOD', 'ELM', 'ELM  GROVE GARDEN', 'ELM GARDEN GROVE', 'ELM GROOVE GARDEN', 'ELM GROVE', 'ELM GROVE GARBEN', 'ELM GROVE GARDEN', 'ELM GROVE GARDEN DRIVE', 'ELM GROVE GARDENS', 'ELM GROVE GARRDEN', 'ELM GROVEN GARDEN', 'ELM PARK', 'ELMBRIDGE', 'ELMCREST', 'ELMER', 'ELMER AV', 'ELMGROVE', 'ELMGROVE GARDEN', 'ELTON C HARRISON', 'ELVA', 'ELWICK', 'ELYSIAM', 'ELYSIAN', 'EMERALD', 'EMILE', 'EMMALINE', 'EMMETT BOURGEOIS', 'EMORY', 'ENERGY', 'ENTERGY', 'ENTERPISE', 'ENTERPRISE', 'ENTERPRISEST', 'ENTERPRIST', 'EOLA', 'ERIE', 'ERLANGER', 'ESPLANADE', 'ESPLANDE', 'ESSEN', 'ESSEN COVE', 'ESSEN HEIGHTS', 'ESSEN PARK', 'ESTATES', 'ETTA', 'EUGENE', 'EUROPE', 'EVAGELINE', 'EVAN BROOK', 'EVAN BROOKS', 'EVANGELINE', 'EVANGELINE ST', 'EVANGELINE ST.', 'EVANGLINE', 'EVANS', 'EVEANGELINE', 'EVEN BROOKS', 'EVERGLADE', 'EVERGLADES', 'EVERGREEN', 'EXCALIBUR', 'EXCHANGE', 'EXCHANGE PLACE', 'EXECUTIVE  PARK', 'EXECUTIVE PAARK', 'EXECUTIVE PARK', 'EXHANGE', 'F', 'FAICHILD', 'FAIIRCHILD', 'FAIR FILEDS', 'FAIR OAK', 'FAIR OAKS', 'FAIRCHILD', 'FAIRCHILD ST', 'FAIRCREST', 'FAIRFAX', 'FAIRFEILDS', 'FAIRFIELD', 'FAIRFIELDS', 'FAIRGATE', 'FAIRGREEN', 'FAIRHAM', 'FAIRHAVEN', 'FAIRHOPE', 'FAIRMONT', 'FAIRMOUNT', 'FAIROAK', 'FAIRWAY', 'FAIRWOOD', 'FAIRWOODS', 'FAITH COURT', 'FALL RIVER', 'FANNIE', 'FARIFIELDS', 'FARIWOOD', 'FARRAR', 'FARRINGTON', 'FARRINTON', 'FELICITY', 'FELLSWAY', 'FELONY THEFT', 'FENWAY', 'FERDINAND', 'FERNCLIFF', 'FERNDALE', 'FERNWOOD', 'FERRET', 'FERRETT', 'FIARFIELDS', 'FIELD HOUSE', 'FIELDGATE', 'FIELDHOUSE', 'FIERO', 'FIESTA', 'FIFTH', 'FIG', 'FINCH', 'FINCH ST.', 'FINCHLEY', 'FIRELIGHT', 'FIREWOOD', 'FLA', 'FLAG', 'FLANDERS', 'FLANERY', 'FLANNERY', 'FLATSWAY', 'FLEET', 'FLEMING', 'FLETCHER WILLIAMS', 'FLICKER', 'FLOIDA', 'FLOIRDA', 'FLOORLINE', 'FLOR', 'FLORA', 'FLORDA', 'FLORDIA', 'FLORENCE', 'FLORID', 'FLORIDA', 'FLORIDA BLVD', 'FLORIDA BLVD S. SERVICE', 'FLORIDA BLVD.', 'FLORIDA BOLEVARD', 'FLORIDA BOULEVARD', 'FLORIDA ST', 'FLORIDA.', 'FLORIDIA', 'FLORIIDA', 'FLORLINE', 'FLOYD', 'FLROIDA', 'FM 1571 OLD MILL', 'FORD', 'FORD ST', 'FOREST', 'FOREST OAK', 'FOREST OAKS', 'FOREST PARK', 'FORGE', 'FORIDA', 'FORSTER', 'FORSYTHIA', 'FOSS', 'FOSTER', 'FOSTER/GOVERNMENT', 'FOUNTAIN', 'FOURTH', 'FOX CROFT', 'FOX LANE', 'FOX RUN', 'FOXCROFT', 'FOXLANE', 'FOXRUN', 'FOXSHIRE', 'FOXTON', 'FOXWOOD', 'FRAIRTUCK', 'FRANCE', 'FRANCES HARRIET', 'FRANCIS HARRIET', 'FRANKFURT', 'FRANKLIN', 'FRANWOOD', 'FRAT', 'FRATERNITY', 'FRATERNITY DR', 'FREY', 'FRIAR TUCK', 'FRISCO', 'FRITCHIE', 'FRY', 'FULTON', 'FUQUA', 'G', 'G LEON NETTERVILLE', 'GABRIEL OAKS', 'GALAHAD', 'GALERIA', 'GALLERIA', 'GALVEZ', 'GAMMA', 'GARCO', 'GARDERE', 'GARFIELD', 'GARIG', 'GARNER', 'GARNET', 'GARY', 'GASSIE', 'GASSIE ST', 'GATES', 'GATES CIRCLE', 'GAWAIN', 'GAY', 'GAYASA', 'GAYOSA', 'GAYSOA', 'GEBELIN', 'GEBHART', 'GEN CHENNAULT', 'GEN ISAAC SMITH', 'GEN ISSAC SMITH', 'GENERAL CHENAULT', 'GENERAL CHENNAULT', 'GENERAL ISAAC SMITH', 'GENERAL ISAC SMITH', 'GENERAL ISSAC SMITH', 'GENERAL LEE', 'GENERAL PRENTISS', 'GEOGIA', 'GEORGE', 'GEORGE ONEAL', 'GEORGETOWN', 'GEORGIA', 'GERALD', 'GERANDEUR', 'GERANIUM', 'GERLANDO', 'GERMANTOWN', 'GERONIMO', 'GIBBENS', 'GIBBINS', 'GIBBONS', 'GIBSON', 'GILBERT', 'GLADDEN', 'GLADEWOOD', 'GLADIOLA', 'GLASGOW', 'GLEN', 'GLEN OAKS', 'GLEN OAKS DR', 'GLENBURIE', 'GLENBURNIE', 'GLENDA', 'GLENDALE', 'GLENDWILD', 'GLENHAVEN', 'GLENMORE', 'GLENN OAKS', 'GLENNOAKS', 'GLENNSADE', 'GLENOAKS', 'GLENWAY', 'GLENWILD', 'GLENWOOD', 'GODFREY', 'GODWOOD', 'GOLD CUP', 'GOLDENROD', 'GONERNMENT', 'GOODE', 'GOODWOOD', 'GOOSE', 'GOOVERNMENT', 'GORDON', 'GORE', 'GOTILEB', 'GOTLIEB', 'GOTTLEIB', 'GOTTLIEB', 'GOUDCHAUX', 'GOUDCHAUX ST.', 'GOUDCHEAUX', 'GOURRIER', 'GOURRIER AVE', 'GOV', 'GOVENRMENT', 'GOVERMENT', 'GOVERMNENT', 'GOVERMNET', 'GOVERNEMENT', 'GOVERNENT', 'GOVERNMEMT', 'GOVERNMENT', 'GOVERNMENT ST', 'GOVERNMENT STREET', 'GOVERNMNET', 'GOVERNOR BLANCHARD', 'GOVERNTMENT', 'GOYA', 'GR', 'GRACIE', 'GRAHAM', 'GRANADA', 'GRAND', 'GRAND TETON', 'GRANDEAUR', 'GRANDEUR', 'GRANDPRE', 'GRANDUER', 'GRANT', 'GREAT  SMOKEY', 'GREAT SMOKEY', 'GREAT SMOKY', 'GREBE', 'GREEN OAK', 'GREEN OAKS', 'GREENBRIAR', 'GREENCASTLE', 'GREENMOSS', 'GREENOAK', 'GREENSIDE', 'GREENTREE', 'GREENWAY', 'GREENWEEL SPRINGS', 'GREENWELL', 'GREENWELL PRRINGS', 'GREENWELL SPINGS', 'GREENWELL SPRIINGS', 'GREENWELL SPRING', 'GREENWELL SPRINGS', 'GREENWELL SPRINGS RD', 'GREENWELL SPRINGS RD.', 'GREENWELL SPRINGS ROAD', 'GREENWELL ST', 'GREENWELL ST.', 'GREENWELLS SPRINGS', 'GREENWELLSPRINGS', 'GREENWICH', 'GREENWOOD', 'GREENWWLL', 'GREGWORTH', 'GRETA', 'GRONER', 'GROOM', 'GSRI', 'GUAVA', 'GUM', 'GURLIE', 'GURNEY', 'GURNEY ST.', 'GUS  YOUNG', 'GUS YOUND', 'GUS YOUNG', 'GUS YOUNG AVE.', 'GWEB', 'GWEN', 'GWENADADELE', 'GWENADALE', 'GWENADALLE', 'GWENADELE', 'GWENADELLE', 'GWENADLE', 'GWENDALE', 'GWENDELE', 'GWENEDALE', 'GWENEDELE', 'HADRING', 'HAIG', 'HALEY', 'HALFWAY TREE', 'HALLMARK', 'HAMILTON', 'HAMMOD', 'HAMMOND', 'HAMMOND ST', 'HAMPTON', 'HAMPTON WAY', 'HANKS', 'HARCO', 'HARDING', 'HARDING BLVD', 'HARDING BLVD.', 'HARDWICK', 'HARELLS FERRY', 'HARELSON', 'HARLESON', "HARRELL'S FERREY", "HARRELL'S FERRY", 'HARRELLS FERRY', 'HARRELLS FERRY Q', 'HARRELLS FERY', "HARRELLS'S FERRY", 'HARRELLSFERRY', 'HARRELS FERRY', 'HARRIET', 'HARRIS', 'HARRISON', "HARRLL'S FERRY", 'HARRY', 'HARRY DR', 'HARRY DRIVE', "HART'S MILL", 'HARVARD', 'HARVEY', 'HARWICH', 'HARWICK', 'HASTINGS', 'HATCHER', 'HATERAS', 'HATERASS', 'HATTERAS', 'HATTERS', 'HAVANA', 'HAVENPARK', 'HAVENWOOD', 'HAYMARKET', 'HAZEL', 'HAZELWOOD', 'HAZEWOOD', 'HEARTHSTONE', 'HEARTSMILL', 'HEARTSTONE', 'HEATH', 'HEATHER', 'HEATHERSTONE', 'HEATHERVIEW', 'HEATHERWOOD', 'HEBERT', 'HEDGEWOOD', 'HEIDEL', 'HELEN BARRON', 'HELENE', 'HELVETIA', 'HEMLOCK', 'HENAGEN', 'HENAGGEN', 'HENAGON', 'HENDERSON', 'HENDRICKS', 'HENDRSON', 'HENESSEY', 'HENESSY', 'HENNAGEN', 'HENNESEE', 'HENNESEY', 'HENNESSBOARDWALKEY', 'HENNESSEY', 'HENNESSY', 'HENNESSY BL', 'HENNSSEY', 'HENRY E COBB', 'HERITAGE', 'HERMADEL', 'HERMITAGE', 'HERMOSA', 'HERON', 'HERWOOD FOREST', 'HEWWOOD', 'HGHLAND', 'HIAWATHA', 'HIBISCUS', 'HICKORY', 'HIDDEN GARDEN', 'HIDDEN GARDENS', 'HIDDEN GATE', 'HIDDEN GATES', 'HIDDEN RIDGE', 'HIDDENRIDGE', 'HIDEAWAY', 'HIDEWAY', 'HIGGINS', 'HIGH MEADOW', 'HIGH POINT', 'HIGHALND', 'HIGHLABND', 'HIGHLAD', 'HIGHLAND', 'HIGHLAND CREEK', 'HIGHLAND PARK', 'HIGHLAND RD', 'HIGHLANDIA', 'HIGHLND', 'HIGHMEADOW', 'HIGHWAY', 'HIGHWAY 19', 'HIGLAND', 'HIHGLAND', 'HIIGHLAND', 'HILL TRACE', 'HILLCREAST', 'HILLCREST', 'HILLCRESTA', 'HILLMONT', 'HILLSDALE', 'HILLTOP', 'HILLTRACE', 'HILTON', 'HILTON GARDEN INN', 'HITCHCOCK', 'HOLLEYWOOD', 'HOLLOWAY', 'HOLLOYWOOD', 'HOLLY', 'HOLLYDALE', 'HOLLYSTONE', 'HOLLYWOOD', 'HOLLYWOOD CROSSOVER', 'HOLLYWOOD ST', 'HOLLYWOOD ST.', 'HOLMES', 'HOLT', 'HOMER', 'HOMEWOOD', 'HONEYSUCKLE', 'HOO SHOO TOO', 'HOOD', 'HOOLYWOOD', 'HOOPER', 'HOOPER RD', 'HOOTSELL', 'HOPE ESTATE', 'HOPPER', 'HORACE', 'HOWARD', 'HOWELL', 'HOWELL  RANGE', 'HOWELL BLVD', 'HOWELL PA', 'HOWELL PARK', 'HOWELL PLACE', 'HOWELL RANGE', "HUDSON'S", 'HUGHLAND', 'HUMPHREYS', 'HUNDRED OAK', 'HUNDRED OAKS', 'HUNDRED OAKS AVENUE', 'HUNT', 'HURON', 'HURST', 'HWY  19', 'HWY 19', 'HWY 19 (SCOTLAND AVE)', 'HWY 19TH', 'HWY 61', 'HWY, 19', 'HWY.19', 'HWY19', 'HYACINTH', 'HYANCINTH', 'I - 10', 'I - 10   /    ACADIAN THWY', 'I - 10   /   ACADIAN THWY', 'I - 10 / ACADIAN THWY', 'I - 10 / COLLEGE DR', 'I - 10 / COLLEGE DR.', 'I - 10 / WASHINGTON ST.', 'I - 110', 'I - 12', "I - 12   /   O'NEAL LANE", "I - 12  /  O'NEAL LANE", 'I - 12  /  SHERWOOD FOREST', 'I - 12 / AIRLINE HWY', 'I - 12 / DRUSILLA', 'I - 12 / ESSEN LN', 'I - 12 / MILLERVILLE', 'I - 12 / OVER JEFFERSON HWY', 'I - 12 / SHERWOOD FOREST', 'I -10 / ACADIAN THWY ON RAMP', 'I -110', 'I -12', 'I 10', 'I 110', 'I 12', 'I--10', 'I-10', 'I-10 / ACADIAN THWY', 'I-10 / COLLEGE DR', 'I-10 @ HWY 73', 'I-10 EAST', 'I-10 EAST ON RAMP', 'I-10 EAST ON RAMP LAFFY.', 'I-10 FRONTAGE', 'I-10 S. BOUND @ N. NINETH EX', 'I-10 SERVICE', 'I-10 WEST @ DALRYMPLE', 'I-110', 'I-110 / HARDING', 'I-110 N. B. @ CAPITAL ACCESS', 'I-110 S/B @ AIRLINE', 'I-110 SOUTH @ WELLER', 'I-12', 'I-12  /  ESSEN LANE', 'I-12  WESTBOUND', 'I-12 / AIRLINE HWY', 'I-12 / MILLERVILLE', 'I-12 / SHERWOOD FOREST', 'I-12 EAST', 'I10', 'I110', 'I110 ENTRANCE', 'I12', 'IBERIA', 'IBERIA ST', 'IBERIA ST.', 'IBERIEA', 'IBERVILLE', 'IBEVILLE', 'IDLE OAKS', 'ILLINOIS', 'INCHBROOK', 'INDEPENCE', 'INDEPENDANCE', 'INDEPENDECE', 'INDEPENDENCE', 'INDIANA', 'INDIUSTRIAL', 'INDUSTRIAL', 'INGE', 'INGLESIDE', 'INNISWOLD', 'INTERLINE', 'INTERSTATE', 'INTERSTATE 10', 'INTERSTATE 110', 'INTERSTATE 110 (N/B)', 'INTERSTATE 12', 'INTERSTATE110', 'INTERTSATE 10', 'INTERTSTATE 12', 'INVERRARY', 'IOWA', 'IRA', 'IRIQUIOS', 'IRIQUOIS', 'IRIS', 'IROQOUIS', 'IROQUIOS', 'IROQUOIS', 'IRVINE', 'IVANHOE', 'J H COONEY', 'J. H. COONEY', 'J.H. COONEY', 'J.H.COONEY', 'JACKIE COCHRAN', 'JACKSON', 'JADE', 'JAMAICA', 'JAMESTOWN', 'JAMIACA', 'JAMICA', 'JANET', 'JANICE', 'JAPONICA', 'JASMINE', 'JASPER', 'JASSAMINE', 'JAY', 'JAY HEBERT', 'JEAN', 'JEFF DAVIS', 'JEFFERSON', 'JEFFERSON DAVIS', 'JEFFERSON HIGHWAY', 'JEFFERSON HWY', 'JEFFERSON WOODS DR', 'JEFFESON', 'JEFFRSON', 'JENNIFER JEAN', 'JENNIFER LYNN', 'JENNIFER LYNNE', 'JESSAMINE', 'JEWEL', 'JH COOHNEY', 'JH COONEY', 'JIM TAYLOR', 'JO ANNE', 'JO ANNNE', 'JOCKEY CLUB', 'JOE LOUIS', 'JOHNSNO', 'JOHNSON', 'JOHNSTON', 'JOHSON', 'JOILET', 'JOLIET', 'JOLLY', 'JOLSEN', 'JOLSON', 'JONAH', 'JONES', 'JONES CREEK', 'JOOR', 'JOPLIN', 'JORDAN', 'JOSEPH', 'JOSPEH', 'JOYCE', 'JPLANK', 'JRFFERSON', 'JUBAN', 'JUDI', 'JULIA', 'JULIA ST', 'JULY', 'JUNE', 'JUNIPER PARK', 'JURA', 'JUSTICE', 'KALURAH', 'KANAS', 'KANSAS', 'KAREN', 'KATHERINE', 'KAUFMAN', 'KAUFMAN ST.', 'KAY', 'KEANLAND', 'KEATY', 'KEED', 'KEEL', 'KEKOUK', 'KELVIN', 'KELWOOD', 'KENDALWOOD', 'KENILWORTH', 'KENILWORTH PARKWAY', 'KENIWORTH', 'KENLEE', 'KENMORE', 'KENNY', 'KENSINGTON', 'KENTUCKY', 'KENWOOD', 'KEOKUK', 'KERNAN', 'KERR', 'KEUKUK', 'KEVEL', 'KEY', 'KILDEER', 'KILKENNY', 'KILT', 'KILT PLACE', 'KIMBERLY', 'KIMBERLY WAY', 'KIMBRO', 'KIMMERIDGE', 'KINCAID', 'KING', 'KING ARTHUR', 'KING CREST', 'KING JOHN', 'KING RICHARD', "KING'S CANYON", "KING'S HILL", 'KINGCREST', 'KINGCREST PARKWAY', 'KINGFISHER', 'KINGLET', 'KINGS CANYON', 'KINGS CAYON', 'KINGS HILL', 'KINGSCREST', 'KINGSTON', 'KIOWA', 'KIRKLEY', 'KIRLKLEY', 'KISSEL', 'KISSELL', 'KISSELL ST', 'KITTY', 'KLEINART', 'KLEINERT', 'KLEINPETER', "KNIGHT'S BRIDGE", 'KNIGHTS BRIDGE', 'KNOLLWOOD', 'KODIAK', 'KOLIN', 'KORNMEYER PLAZA', 'KRISTA', 'L', "L'AUBERGE", 'LA 19', 'LA 19TH', 'LA AINNIE', 'LA ANNIE', 'LA BELLE', 'LA HWY 19', 'LA HWY 61 (SCENIC)', 'LA MARGIE', 'LA. HWY. 19', 'LAANNIE', 'LAC CACE', 'LAC CACHE', 'LACA', 'LACEY', 'LAFASO', 'LAFAYEETE', 'LAFAYETTA', 'LAFAYETTE', 'LAFETTE', 'LAFEYETTE', 'LAFOURCHE', 'LAJESHORE', 'LAKE', 'LAKE  CALAIS', 'LAKE BEAU PRE', "LAKE BEAU PRE'", 'LAKE CALAIS', 'LAKE CALIS', 'LAKE FOREST PARK', 'LAKE HILLS', 'LAKE LA BELLE', 'LAKE LA DARE', 'LAKE LABELLE', 'LAKE LABERGE', 'LAKE LADARE', 'LAKE LAMOND', 'LAKE LAROUGE', 'LAKE LATANIA', 'LAKE LAWFORD', 'LAKE LAWRENCE', 'LAKE LEBERGE', 'LAKE LERY', 'LAKE LILY', 'LAKE LIMESTONE', 'LAKE LINGHAM', 'LAKE LIVINGSTON', 'LAKE LORA', 'LAKE SHERWOOD', 'LAKE SHERWOOD EAST', 'LAKE SHERWOOD FOREST', 'LAKE SHERWWOD', 'LAKE SHORE', 'LAKE WORTH', 'LAKECREST', 'LAKELAND', 'LAKERIDGE', 'LAKES', 'LAKESHORE', 'LAKESHORRE', 'LAKEWOOD', 'LAMARGIE', 'LAMBERT', 'LANCASTER', 'LANCELOT', 'LANDING', 'LANDWOOD', 'LANIER', 'LANINGSTON', 'LANSWOOD', 'LARCHWOOD', 'LARK', 'LARKSPUR', 'LARKST', 'LAS COLINAS', 'LASALLE', 'LASSEN', 'LAUBERGE', 'LAUREL', 'LAUREL LAKES', 'LAUREL PLANTATION', 'LAURELLAKES', 'LAURELWOOD', 'LAURYNWOOD', 'LAVA BEDS', 'LAVINA', 'LAVINIA', 'LAWN', 'LAYTON', 'LE ANNIE', 'LEA ANN', 'LEBANON', 'LEE', 'LEE ANNE', 'LEE DRIVE', 'LEEANNE', 'LEESVILLE', 'LEEWARD', 'LEGACY', 'LEHMAN', 'LEHMANN', 'LEIGHTON', 'LEIGHWOOD', 'LEMOMWOOD', 'LEMONWOOD', 'LENOARD', 'LEO', 'LEONARD', 'LEONIDAS', 'LESSMAN', 'LETITIA', 'LETTSWORTH', 'LEVERA', 'LEWIS', 'LEXINGTON', 'LEYCASTER', 'LEYCESTER', 'LEYLAND', 'LI ROCCHI', 'LI ROCCI', 'LIDEN', 'LIL JOHN', 'LILA', 'LILS', 'LIMEWOOD', 'LINDA', 'LINDALE', 'LINDEN', 'LINWOOD', 'LIROCCHI', 'LITTLE  JOHN', 'LITTLE JOHN', 'LITTLEWOOD', 'LITTLEWOODS', 'LIVE OAK', 'LIVE OAKS', 'LIVESTOCK', 'LLAKE LADERE', 'LOAN OAK', 'LOBDELL', 'LOBDELLL', 'LOBELIA', 'LOBELLIA', 'LOBWOOD', 'LOCATION UNKNOWN', 'LOCATIONS UNKNOWN', 'LOCHNESS', 'LOCKEFIELD', 'LOCKHAVEN', 'LOCKSLEY', 'LOCKWOOD', 'LODBDELL', 'LODDELL', 'LODELL', 'LOFASO', 'LONE OAK', 'LONE OAKS', 'LONEOAK', 'LONG OAK', 'LONGBOW', 'LONGFELLLOW', 'LONGFELLOW', 'LONGFELLOW DR', 'LONGFELOW', 'LONGRIDGE', 'LONGVIEW', 'LONGWOOD', 'LONITA', 'LORNA', 'LORRAINE', 'LORRAINE ST', 'LORRAINE ST.', 'LORRANNE', 'LORRRAINE', 'LOTUS', 'LOUISE', 'LOUISIANA', 'LOURAY', 'LOUSIANA', 'LOVERS', 'LOWER JOHNSON', 'LOYOLA', 'LSU', 'LSU PLACE', 'LT GEN BENJAMIN DAVIS JR', 'LT GENERAL BENJAMIN DAVIS', 'LUCILLA', 'LULA', 'LUPINE', 'LYDIA', 'LYNBROOK', 'LYNELL', 'LYNN', 'MACEDONIA', 'MACRELLIOUS', 'MADEIRA', 'MADELINE', 'MADISIN', 'MADISON', 'MADRAS', 'MADRID', 'MAESTRI', 'MAGEE', 'MAGNA CARTA', 'MAGNOLIA', 'MAGNOLIA LEAF', 'MAGNOLIA WOOD', 'MAGNOLIA WOODS', 'MAIN', 'MAIN STREET', 'MAIN2', 'MAISON DEVILLE', 'MAJOR OAK', 'MAJOR OAKS', 'MALBROOK', 'MALL', 'MALL LOUISIANA', 'MALL OF LOUISIANA', 'MALLARD', 'MALLORY', 'MALMAISON', 'MAMMOTH', 'MAMOTH', 'MANCUSO', 'MANHANTTAN', 'MANORWOOD', 'MANSON', 'MAPLE', 'MAPLE DR', 'MAPLEWOOD', 'MAR', 'MARCEL', 'MARCELLIOUS', 'MARCELLLIOUS', 'MARCH', 'MARCI', 'MARCIA', 'MARGARET', 'MARGARET ANN', 'MARGEBROOK', 'MARGUE ANN', 'MARIBEL', 'MARICA', 'MARIE', 'MARIGOLD', 'MARILYN', 'MARILYNN', 'MARION', 'MARKET', 'MARKET PLACE', 'MARKETPLACE', 'MARLBROOK', 'MARQUE  ANN', 'MARQUE ANN', 'MARQUE ANNE', 'MARQUEANN', 'MARQUETTE', 'MARSH', 'MARSHALL', 'MARTIN', 'MARWEDE', 'MARWOOD', 'MARY', 'MARY ANN', 'MARY ELLEN', 'MARY EVERS', 'MARY LOU', 'MARY RUTH', 'MARY SUE', 'MARYDON', 'MARYLAN', 'MARYLAND', 'MARYLIN', 'MARYLNN', 'MARYLOU', 'MASON', 'MASON AVE', 'MASON AVE.', 'MATILDA', 'MATTHEWS', 'MAXAMILLION', 'MAXIMILIAN', 'MAXIMILLAIN', 'MAXIMILLIAN', 'MAXIMILLION', 'MAXINE', 'MAXMILIAN', 'MAY', 'MAY BELLE', 'MAYAN', 'MAYFAIR HILL', 'MAYFLOWER', 'MAYHAW', 'MAYWOOD', 'MC BAN', 'MC CLELLAND', 'MC CLUNG', 'MC CONNELL', 'MC DONALD', 'MCCALOP', 'MCCALUP', 'MCCARROLL', 'MCCELLAND', 'MCCLEALLAND', 'MCCLELAND', 'MCCLELANND', 'MCCLELLAND', 'MCCLELLAND DR', 'MCCLELLAND DR.', 'MCCLELLEND', 'MCCLLEAND DR.', 'MCCLLELAND', 'MCCLUNG', 'MCCONNELL', 'MCCULAND', 'MCDONALD', 'MCGEHEE', 'MCGRATH', 'MCILHENNY', 'MCKINLEY', 'MCKINOEY', 'MCLELLAND', 'MCMICHAEL', 'MEAD', 'MEADE', 'MEADOW LEA', 'MEADOW PARK', 'MEADOW WOOD', 'MEADOWBROOKS', 'MEADOWOOD', 'MEEKER', 'MEGEL', 'MELANIE', 'MELON', 'MELROSE', 'MENGEL', 'MENLO', 'MENSIA', 'MEREDITH', 'MERGANZER', 'MERLE GUSTAFSON', 'MERLIN', 'MERRYDALE', 'MESA VERDE', 'MESAVERDE', 'MIAN', 'MICHELLI', 'MIDDLESEX', 'MIDWAY', 'MIKE', 'MILBURN', 'MILL LANE', 'MILLBURN', 'MILLDALE', 'MILLER DORMITORY - LSU', 'MILLERVILLE', 'MILLGATE', 'MILLS', 'MILLS AVE', 'MILLS AVE.', 'MILLSTLONE', 'MILLSTONE', 'MILLWOOD', 'MILNOR', 'MILS', 'MIMOSA', 'MINDEN', 'MINMESOTA', 'MINNESOTA', 'MIRAFLORES', 'MISSION', 'MISSISSIPPI', 'MISSISSIPPO', 'MISSON', 'MISSOURI', 'MISTY CREEK', 'MISTYBROOK', 'MITCHELL', 'MOCHICAN', 'MOCKINGBIRD', 'MOHAWK', 'MOHICAN', 'MOHICAN / N. FOSTER', 'MOHICAN PRESCOTT', 'MOHICAN PRESCOTT CROSS', 'MOHICAN PRESCOTT CROSS OVER', 'MOHICAN PRESCOTT CROSSOVER', 'MOHICAN-PRESCOTT', 'MOHICAN-PRESCOTT CROSSOVER', 'MOHICAN/PRECCOTT CROSSOVER', 'MOHICAN/PRESCOTT', 'MOHICAN/PRESCOTT CROSSOVER', 'MOHICAN/PRESOCTT', 'MOHICANPRESCOTT CROSSOVER', 'MOHICHAN PRESCOTT XOVER', 'MOHINCAN', 'MOHNICAN PRESCOTT', 'MOLLY LEA', 'MOLLYLEA', 'MONACO', 'MONARCH', 'MONARCH AVE', 'MONARCH AVE.', 'MONET', 'MONEY', 'MONITEAU', 'MONMOUTH', 'MONROE', 'MONTA SANO', 'MONTE SANO', 'MONTE SANO AVE', 'MONTECELLO', 'MONTEREY', 'MONTERRAY', 'MONTERREY', 'MONTERRY', 'MONTESANO', 'MONTGOMERY', 'MONTROSE', 'MOON', 'MOORE', 'MOORSTONE', 'MORELAND', 'MORGAN BEND', 'MORGANBEND', 'MORLAIX', 'MORMING GLORY', 'MORNING GLORY', 'MORNINGBROOK', 'MORNINGSIDE', 'MORVANT', 'MOSS SIDE', 'MOTERREY', 'MOUNT CARMEL', 'MOUNT HOPE', 'MOUNT HOPE ALLEY', 'MOUNT PLEASANT', 'MOUTON', 'MRYTLE WALK', 'MT HOPE', 'MULBERRY', 'MULBERRY HILL', 'MUMFORD', 'MURIAL', 'MURIEL', 'MURPHY', 'MUSE', 'MYRTLE', 'MYRTLE WALK', 'MYRTLEDALE', 'MYRTLELAWN', 'MYRTLEWALK', 'N 23', 'N 23RD', 'N 26', 'N 29TH', 'N 35TH', 'N 38TH', 'N 3RD', 'N 46TH', 'N 48TH', 'N 4TH', 'N ACADIAN', 'N ACADIAN WEST', 'N FOSTER', 'N LOBDELL', 'N ROTHMER', 'N SHERWOOD FOREST', 'N. 13TH', 'N. 14TH ST', 'N. 18TH', 'N. 21ST', 'N. 29TH', 'N. 35TH', 'N. 36TH', 'N. 37TH', 'N. 38TH', 'N. 39TH', 'N. 3RD', 'N. 40TH', 'N. 43RD', 'N. 44', 'N. 44TH', 'N. 46TH', 'N. 47TH', 'N. 48TH', 'N. ACADIAN', 'N. ACADIAN AT MADISON', 'N. ARDENWOOD', 'N. BAXTER', 'N. BLVD', 'N. BOURGEOIS', 'N. BOURGIOS', 'N. EUGENE', 'N. FLANNERY', 'N. FOSTER', 'N. HOWELL', 'N. I-110', 'N. LOBDELL', 'N.15TH', 'N.16TH', 'N.17', 'N.17TH', 'N.19TH', 'N.20TH', 'N.22ND', 'N.23RD', 'N.24TH', 'N.25TH', 'N.26TH', 'N.28TH', 'N.29TH', 'N.30TH', 'N.31ST', 'N.32ND', 'N.35TH', 'N.37TH', 'N.38TH', 'N.39TH', 'N.</t>
         </is>
       </c>
     </row>
@@ -1413,10 +1511,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>263977</v>
+        <v>267773</v>
       </c>
       <c r="E13" t="n">
-        <v>263977</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1431,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K13" t="n">
         <v>-1</v>
       </c>
       <c r="L13" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N13" t="n">
-        <v>66</v>
+        <v>14081</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -1461,24 +1559,32 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>BATON ROUGE</t>
+          <t>WY</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>213890</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1</v>
+        <v>12</v>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>ST</t>
+        </is>
       </c>
       <c r="V13" t="n">
-        <v>2458723</v>
+        <v>74702</v>
       </c>
       <c r="W13" t="n">
-        <v>116</v>
-      </c>
-      <c r="X13" t="inlineStr">
-        <is>
-          <t>['1', '10600 CHOCTAW\nBATON ROUGE, LA\n(30.472246, -91.065664)', '2', '3', '4', '70802', '70803', '70805', '70813', '70815', '75TH\nBATON ROUGE, LA', 'AIRLINE\nBATON ROUGE, LA', 'ALAMEDIA\nBATON ROUGE, LA', 'ALETHA\nBATON ROUGE, LA', 'ASBOURNE\nBATON ROUGE, LA', 'ASHLAND\nBATON ROUGE, LA', 'AURORA\nBATON ROUGE, LA', 'AV', 'BATON ROUGE', 'BAYLOR\nBATON ROUGE, LA', 'BAYSIDE\nBATON ROUGE, LA', 'BL', 'BLACK OAK\nBATON ROUGE, LA', 'BLVD DE PROVINCE\nBATON ROUGE, LA', 'BOARDWALK\nBATON ROUGE, LA', 'BROARDMOOR\nBATON ROUGE, LA', 'BT', 'CADDO\nBATON ROUGE, LA', 'CARTER\nBATON ROUGE, LA', 'CASTLEBURY\nBATON ROUGE, LA', 'CEDARCREST\nBATON ROUGE, LA', 'CELTIC\nBATON ROUGE, LA', 'CHARLOTTE\nBATON ROUGE, LA', 'CHEVELLE\nBATON ROUGE, LA', 'CHOCTAW\nBATON ROUGE, LA', 'CITIPLACE\nBATON ROUGE, LA', 'CORTANA\nBATON ROUGE, LA', 'COURSEY\nBATON ROUGE, LA', 'CR', 'CT', 'DAWNADELE\nBATON ROUGE, LA', 'DENBO\nBATON ROUGE, LA', 'DOVE HOLLOW\nBATON ROUGE, LA', 'DR', 'DRUSILLA\nBATON ROUGE, LA', 'ELIZABETH\nBATON ROUGE, LA', 'ENTERPISE\nBATON ROUGE, LA', 'FLORIDA\nBATON ROUGE, LA', 'FRANCES HARRIET\nBATON ROUGE, LA', 'GLENDA\nBATON ROUGE, LA', 'GOODWOOD\nBATON ROUGE, LA', 'GOV\nBATON ROUGE, LA', 'GOVERNMENT\nBATON ROUGE, LA', 'GREAT SMOKEY\nBATON ROUGE, LA', 'GREENWELL SPRINGS\nBATON ROUGE, LA', 'GWEN\nBATON ROUGE, LA\n(30.46266961300006, -91.059442952999973)', 'GWENADELE\nBATON ROUGE, LA', "HARRELL'S FERRY\nBATON ROUGE, LA", 'HW', 'INDEPENDENCE\nBATON ROUGE, LA', 'INTERLINE\nBATON ROUGE, LA', 'JEFFERSON\nBATON ROUGE, LA', 'JEFFERSON HIGHWAY\nBATON ROUGE, LA', 'LA', 'LA ANNIE\nBATON ROUGE, LA', 'LAMARGIE\nBATON ROUGE, LA', 'LASALLE\nBATON ROUGE, LA', 'LEBANON\nBATON ROUGE, LA', 'LEE\nBATON ROUGE, LA', 'LITTLE JOHN\nBATON ROUGE, LA', 'LN', 'LOBDELL\nBATON ROUGE, LA', 'LONE OAK\nBATON ROUGE, LA', 'LONGRIDGE\nBATON ROUGE, LA', 'MARILYN\nBATON ROUGE, LA', 'MARION\nBATON ROUGE, LA', 'MARYLAND\nBATON ROUGE, LA\n(30.427563029000055, -91.173759799999971)', 'MARYLIN\nBATON ROUGE, LA\n(30.544932293000045, -91.037025523999944)', 'NICHOLSON\nBATON ROUGE, LA', 'OAK GROVE\nBATON ROUGE, LA', 'OAKVILLA\nBATON ROUGE, LA', 'OLD CARRIAGE\nBATON ROUGE, LA', 'OLD HAMMOND\nBATON ROUGE, LA', 'ONEAL\nBATON ROUGE, LA', 'OT', 'OXFORD PLACE\nBATON ROUGE, LA', 'PERKINS\nBATON ROUGE, LA', 'PK', 'PL', 'PLAZA AMERICANA\nBATON ROUGE, LA', 'PROVINCE\nBATON ROUGE, LA', 'QUEENSBURY\nBATON ROUGE, LA', 'RD', 'RICHWOOD\nBATON ROUGE, LA', 'SCENIC\nBATON ROUGE, LA', 'SHADES\nBATON ROUGE, LA', 'SHARP\nBATON ROUGE, LA', 'SHERWOOD FOREST\nBATON ROUGE, LA', 'SHERWOOD MEADOW\nBATON ROUGE, LA', 'ST', 'STUMBERG\nBATON ROUGE, LA', 'TAMS\nBATON ROUGE, LA', 'TARA\nBATON ROUGE, LA', 'TH', 'THIRD\nBATON ROUGE, LA\n(30.451447861000077, -91.188329274999944)', 'THURMAN\nBATON ROUGE, LA', 'TIGERLAND AREA\nBATON ROUGE, LA', 'TOM\nBATON ROUGE, LA', 'UNK\nBATON ROUGE, LA', 'UNKNOWN\nBATON ROUGE, LA', 'WALKER\nBATON ROUGE, LA', 'WARREN\nBATON ROUGE, LA', 'WHITE OAK\nBATON ROUGE, LA', 'WOODHAVEN\nBATON ROUGE, LA', 'WYNDY\nBATON ROUGE, LA', 'YELLOWWOOD\nBATON ROUGE, LA']</t>
+        <v>1</v>
+      </c>
+      <c r="X13" t="n">
+        <v>591870</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z13" t="inlineStr">
+        <is>
+          <t>['(Null)', 'AV', 'BL', 'BT', 'CR', 'CT', 'DR', 'HW', 'LN', 'OT', 'PK', 'PL', 'RD', 'ST', 'TH', 'WY']</t>
         </is>
       </c>
     </row>
@@ -1497,10 +1603,10 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>263729</v>
+        <v>267773</v>
       </c>
       <c r="E14" t="n">
-        <v>263729</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1515,19 +1621,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K14" t="n">
         <v>-1</v>
       </c>
       <c r="L14" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M14" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="N14" t="n">
-        <v>73</v>
+        <v>3796</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -1545,24 +1651,32 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>LA</t>
+          <t>(Null)</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>213891</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1</v>
+        <v>3796</v>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>BATON ROUGE</t>
+        </is>
       </c>
       <c r="V14" t="n">
-        <v>932842</v>
+        <v>263977</v>
       </c>
       <c r="W14" t="n">
-        <v>300</v>
-      </c>
-      <c r="X14" t="inlineStr">
-        <is>
-          <t>['1', '10064 ELM GROVE GARDEN\nBATON ROUGE, LA', '10250 PLAZA AMERICANA\nBATON ROUGE, LA\n(30.426616, -91.073298)', '10294 AVENUE D\nBATON ROUGE, LA\n(30.537611, -91.19331)', '10435 CEDARLANE\nBATON ROUGE, LA\n(30.430092, -91.06958)', '10525 PLAZA AMERICANA\nBATON ROUGE, LA\n(30.426952, -91.06992)', '10595 AIRLINE\nBATON ROUGE, LA', '10600 CHOCTAW\nBATON ROUGE, LA\n(30.472246, -91.065664)', '10645 REIGER\nBATON ROUGE, LA\n(30.379438, -91.060674)', '10662 GERALD\nBATON ROUGE, LA\n(30.469821, -91.066097)', '10738 OLD HAMMOND\nBATON ROUGE, LA\n(30.434642, -91.065738)', '10940 BLACK OAK\nBATON ROUGE, LA\n(30.464292, -91.062902)', '1100 BOB PETIT\nBATON ROUGE, LA', '1100 BOB PETTIT\nBATON ROUGE, LA\n(30.396322, -91.178968)', '11110 BOARDWALK\nBATON ROUGE, LA\n(30.431639, -91.060323)', '11140 BOARDWALK\nBATON ROUGE, LA\n(30.431634, -91.060037)', '1120 N. 46TH\nBATON ROUGE, LA\n(30.458661, -91.143454)', '1124 MARQUE ANN\nBATON ROUGE, LA\n(30.46226, -91.043161)', '11314 BOARDWALK\nBATON ROUGE, LA\n(30.431633, -91.058379)', '11324 BOARDWALK\nBATON ROUGE, LA\n(30.431631, -91.058284)', '11444 REULET\nBATON ROUGE, LA\n(30.431806, -91.056617)', '11576 BARD\nBATON ROUGE, LA\n(30.467758, -91.054548)', '11600 HWY 19\nBATON ROUGE, LA', '11600 TAMS\nBATON ROUGE, LA\n(30.466668, -91.054206)', '1170 PROGRESS\nBATON ROUGE, LA\n(30.537536, -91.182373)', '11705 COURSEY\nBATON ROUGE, LA\n(30.411195, -91.051387)', '1188 ROSENWALD\nBATON ROUGE, LA\n(30.531399, -91.181516)', '11888 LONGRIDGE\nBATON ROUGE, LA\n(30.422358, -91.048352)', '11888 OLD HAMMOND\nBATON ROUGE, LA\n(30.438363, -91.051976)', '11900 HWY 19\nBATON ROUGE, LA', '1200 N. 14TH ST\nBATON ROUGE, LA', '12000 SOUTH CHOCTAW\nBATON ROUGE, LA 70815\n(30.472459, -91.048876)', '12254 LA MARGIE\nBATON ROUGE, LA\n(30.469979, -91.045844)', '12300 LA MARGIE\nBATON ROUGE, LA\n(30.469935538000072, -91.045801901999937)', '12341 FAIRHOPE\nBATON ROUGE, LA\n(30.437429, -91.036762)', '12352 STACY\nBATON ROUGE, LA', '1253 FLORIDA\nBATON ROUGE, LA\n(30.449656, -91.176461)', '12567 FLORIDA\nBATON ROUGE, LA\n(30.461373, -91.043629)', '12605 LA ANNIE\nBATON ROUGE, LA', '12615 COURSEY\nBATON ROUGE, LA\n(30.410336, -91.03671)', '12625 LA MARGIE\nBATON ROUGE, LA\n(30.46997, -91.042394)', '12666 LEEANNE\nBATON ROUGE, LA', '12757 COURSEY\nBATON ROUGE, LA\n(30.410284, -91.036336)', '1295 SHERWOOD FOREST\nBATON ROUGE, LA', '1300 FLORIDA\nBATON ROUGE, LA\n(30.449664, -91.176159)', '1300 LEE\nBATON ROUGE, LA\n(30.406831, -91.149402)', '1300 MAIN\nBATON ROUGE, LA\n(30.451764, -91.176121)', '132 LSU PLACE\nBATON ROUGE, LA\n(30.402408, -91.170234)', '1324 VILLAGE PARK\nBATON ROUGE, LA', '1375 ROSENWALD\nBATON ROUGE, LA\n(30.531446, -91.179723)', '1394 PROGRESS\nBATON ROUGE, LA\n(30.537613, -91.179382)', '1400 JIM TAYLOR\nBATON ROUGE, LA\n(30.391983, -91.18308)', '1406 ST ROSE\nBATON ROUGE, LA\n(30.435815, -91.161697)', '14140 AZELA PARK\nBATON ROUGE, LA', '1436 DELPLAZA\nBATON ROUGE, LA\n(30.438923, -91.084107)', '1451 RUE DESIREE\nBATON ROUGE, LA\n(30.369174, -91.090302)', '1500 BRIGHTSIDE\nBATON ROUGE, LA\n(30.387402, -91.174401)', '155 MARILYN\nBATON ROUGE, LA\n(30.45521, -91.076886)', '1600 N. 18TH\nBATON ROUGE, LA\n(30.462574, -91.171272)', '1644 CLEARLAKE\nBATON ROUGE, LA\n(30.389281, -91.11438)', '1645 BRIGHTSIDE\nBATON ROUGE, LA\n(30.387795, -91.177783)', '16545 FLORIDA\nBATON ROUGE, LA\n(30.4675, -91.005013)', '1700 N. 46TH\nBATON ROUGE, LA\n(30.464071, -91.14372)', '1701 GOVERNMENT\nBATON ROUGE, LA\n(30.443747, -91.171471)', '1704 BRIGHTSIDE\nBATON ROUGE, LA\n(30.387734, -91.177274)', '1736 CHEVELLE\nBATON ROUGE, LA\n(30.434482, -91.098526)', '1737 LA ANNIE\nBATON ROUGE, LA\n(30.468615, -91.043887)', '1739 BLVD DE PROVINCE\nBATON ROUGE, LA\n(30.438958, -91.045269)', '1743 BLVD DE PROVINCE\nBATON ROUGE, LA\n(30.438867, -91.045284)', '1819 MARQUE ANN\nBATON ROUGE, LA\n(30.469383, -91.042887)', '1838 WASHINGTON\nBATON ROUGE, LA', '1855 BLVD DE PROVINCE\nBATON ROUGE, LA\n(30.436895, -91.045659)', '1860 BLVD DE PROVINCE\nBATON ROUGE, LA\n(30.436009, -91.045711)', '1899 ERLANGER\nBATON ROUGE, LA\n(30.437692, -91.047474)', '1919 BLVD DE PROVINCE\nBATON ROUGE, LA\n(30.434012, -91.045716)', '1928 AVONDALE\nBATON ROUGE, LA\n(30.431412, -91.139944)', '196 APARTMENT COURT\nBATON ROUGE, LA', '2', '2000 HARDING\nBATON ROUGE, LA\n(30.520632, -91.171441)', '2015 HIGHLAND\nBATON ROUGE, LA\n(30.428698, -91.181383)', '2026 RICE\nBATON ROUGE, LA\n(30.466697, -91.147981)', '2105 OAK VILLA\nBATON ROUGE, LA\n(30.470072, -91.088961)', '2200 SCENIC\nBATON ROUGE, LA', '2217 DOVE HOLLOW\nBATON ROUGE, LA', '2250 FLORDIA\nBATON ROUGE, LA', '2250 FLORIDA\nBATON ROUGE, LA\n(30.450012, -91.164854)', '2300 SCENIC\nBATON ROUGE, LA', '2300 WINNEBAGO\nBATON ROUGE, LA\n(30.482984, -91.168528)', '2400 FAIRCHILD\nBATON ROUGE, LA\n(30.52264, -91.168484)', '2400 MONTE SANO\nBATON ROUGE, LA\n(30.509247, -91.167294)', '2473 EASTGATE\nBATON ROUGE, LA\n(30.428819, -91.049122)', '2500 73RD\nBATON ROUGE, LA\n(30.515283, -91.166355)', '2528 MAIN\nBATON ROUGE, LA\n(30.452192, -91.162574)', '260 SHARP\nBATON ROUGE, LA\n(30.455285, -91.072107)', '2600 DUKE\nBATON ROUGE, LA\n(30.4707, -91.162116)', '2600 OSCEOLA\nBATON ROUGE, LA\n(30.471214, -91.16465)', '2601 FLORIDA\nBATON ROUGE, LA\n(30.450104, -91.161846)', '2608 JESSAMINE\nBATON ROUGE, LA\n(30.471003, -91.171072)', '2615 OAK VILLA\nBATON ROUGE, LA', '2627 CEDAR\nBATON ROUGE, LA\n(30.470805, -91.170124)', '2712 FLORIDA\nBATON ROUGE, LA\n(30.450135, -91.160808)', '2737 JUBAN\nBATON ROUGE, LA\n(30.47462, -91.121591)', '2800 CONVENTION\nBATON ROUGE, LA\n(30.449097, -91.159971)', '2800 EVANGELINE\nBATON ROUGE, LA\n(30.492292, -91.16225)', '2800 WYANDOTTE\nBATON ROUGE, LA\n(30.481922, -91.161684)', '2851 IBERIA\nBATON ROUGE, LA\n(30.495825, -91.162066)', '2855 MCCARROLL\nBATON ROUGE, LA\n(30.425715, -91.108119)', '2900 FAIRFIELDS\nBATON ROUGE, LA\n(30.466907, -91.159711)', '3', '3000 AMARILLO\nBATON ROUGE, LA\n(30.50047, -91.160767)', '3000 TECUMSEH\nBATON ROUGE, LA\n(30.475143, -91.165758)', '3026 LULA\nBATON ROUGE, LA\n(30.462893, -91.158395)', '3060 ONTARIO\nBATON ROUGE, LA\n(30.475448, -91.158831)', '3099 JOYCE\nBATON ROUGE, LA\n(30.478293, -91.095819)', '3100 CANONICUS\nBATON ROUGE, LA\n(30.476563, -91.16317)', '3100 PAMPAS\nBATON ROUGE, LA\n(30.482661, -91.158579)', '3135 NICHOLSON\nBATON ROUGE, LA\n(30.420016, -91.187446)', '3200 BOGAN WALK\nBATON ROUGE, LA\n(30.461392, -91.156607)', '3200 CARLOTTA\nBATON ROUGE, LA\n(30.419402, -91.172824)', '3200 PERKINS\nBATON ROUGE, LA\n(30.423297, -91.156496)', '3200 WINBOURNE\nBATON ROUGE, LA\n(30.478328, -91.157826)', '325 RUSHMORE\nBATON ROUGE, LA\n(30.465152, -91.030997)', '3270 IVANHOE\nBATON ROUGE, LA\n(30.418142, -91.17329)', '3289 HIGHLAND\nBATON ROUGE, LA\n(30.418328, -91.176621)', '3300 CANONICUS\nBATON ROUGE, LA\n(30.478018, -91.163234)', '3300 VICTORIA\nBATON ROUGE, LA\n(30.47986, -91.117587)', '3303 LONE OAK\nBATON ROUGE, LA\n(30.480206, -91.105769)', '3400 YAUN\nBATON ROUGE, LA\n(30.479586, -91.147048)', '3445 SYCAMORE\nBATON ROUGE, LA\n(30.49465, -91.155495)', '3484 CEDARCREST\nBATON ROUGE, LA\n(30.419384, -91.067518)', '3500 MOHICAN\nBATON ROUGE, LA\n(30.484605, -91.154534)', '3579 VICTORIA\nBATON ROUGE, LA\n(30.482295, -91.11768)', '3800 NICHOLSON\nBATON ROUGE, LA\n(30.411187, -91.186495)', '3815 EATON\nBATON ROUGE, LA\n(30.483856, -91.14641)', '3851 UNCAS\nBATON ROUGE, LA\n(30.483878, -91.164198)', '3900 BEECHWOOD\nBATON ROUGE, LA\n(30.484653, -91.143156)', '3900 GUS YOUNG\nBATON ROUGE, LA\n(30.461928, -91.150722)', '3900 N. ACADIAN\nBATON ROUGE, LA\n(30.484546, -91.15667)', '3900 PLANK RD\nBATON ROUGE, LA\n(30.484863, -91.1583)', '4', '400 LEE\nBATON ROUGE, LA\n(30.391797, -91.161873)', '4000 GERONIMO\nBATON ROUGE, LA\n(30.485583, -91.161926)', "4000 O'DELL\nBATON ROUGE, LA", '4005 SHELLEY\nBATON ROUGE, LA\n(30.491947, -91.149737)', '4092 BURBANK\nBATON ROUGE, LA\n(30.402638, -91.177717)', '4100 EDEGEMONT\nBATON ROUGE, LA', '4100 FLORIDA\nBATON ROUGE, LA\n(30.450565, -91.147416)', '4100 MOHICAN PRESCOTT CROSSOVER\nBATON ROUGE, LA\n(30.485579, -91.148554)', '4125 BEECH\nBATON ROUGE, LA\n(30.495572, -91.148335)', '4145 BURBANK\nBATON ROUGE, LA\n(30.40228, -91.177128)', '4300 FAIRFIELDS\nBATON ROUGE, LA\n(30.467326, -91.147461)', '4400 GUS YOUNG\nBATON ROUGE, LA\n(30.462084, -91.145198)', '4409 LAKE LIMESTONE\nBATON ROUGE, LA\n(30.413214, -91.049441)', '4412 WINBOURNE\nBATON ROUGE, LA\n(30.478647, -91.145928)', '4445 PLANK\nBATON ROUGE, LA\n(30.490459, -91.156323)', '4445 PLANK RD\nBATON ROUGE, LA\n(30.490626, -91.156266)', '4500 BROADWAY\nBATON ROUGE, LA', '4500 LEMONWOOD\nBATON ROUGE, LA\n(30.490991, -91.146704)', '4510 BAWELL\nBATON ROUGE, LA\n(30.427518, -91.143309)', '4581 PEERLESS\nBATON ROUGE, LA\n(30.516384, -91.145648)', '4600 CLAYTON\nBATON ROUGE, LA\n(30.491226, -91.143651)', '4606 W.A. TITLE\nBATON ROUGE, LA', '4615 PERKINS\nBATON ROUGE, LA\n(30.415992, -91.142154)', '4708 TIGERLAND AVE\nBATON ROUGE, LA\n(30.392864, -91.183006)', '4747 BROADWAY\nBATON ROUGE, LA\n(30.493737, -91.132497)', '4770 HOOPER\nBATON ROUGE, LA\n(30.524, -91.143432)', '4800 SHELLY\nBATON ROUGE, LA', '4926 CONVENTION\nBATON ROUGE, LA\n(30.449762, -91.139365)', '50 DALRYMPLE\nBATON ROUGE, LA\n(30.415693, -91.172326)', '500 HARDING\nBATON ROUGE, LA\n(30.426031, -91.177441)', '500 LANDWOOD\nBATON ROUGE, LA\n(30.455642, -91.101385)', '500 WOODCOCK\nBATON ROUGE, LA\n(30.536294, -91.193101)', '5001 EVANGELINE\nBATON ROUGE, LA\n(30.493208, -91.140592)', '5055 NICHOLSON\nBATON ROUGE, LA\n(30.391244, -91.173981)', '5150 CAPITOL HEIGHTS\nBATON ROUGE, LA', '5200 NICHOLSON\nBATON ROUGE, LA\n(30.390122, -91.173147)', '5300 LONGFELLOW\nBATON ROUGE, LA\n(30.498374, -91.157218)', '5331 UNDERWOOD\nBATON ROUGE, LA\n(30.474, -91.13724)', '5355 PAIGE\nBATON ROUGE, LA\n(30.517249, -91.137303)', '5400 BURBANK\nBATON ROUGE, LA\n(30.393396, -91.16451)', '5415 CHOCTAW\nBATON ROUGE, LA\n(30.470774, -91.136044)', '5500 SYCAMORE\nBATON ROUGE, LA', '5505 PLANK\nBATON ROUGE, LA\n(30.500034, -91.152975)', '5509 WINBOURNE\nBATON ROUGE, LA\n(30.479218, -91.132277)', '5515 PRESCOTT\nBATON ROUGE, LA\n(30.487741, -91.135096)', '5635 GREENWELL SPRINGS\nBATON ROUGE, LA\n(30.50229, -91.133844)', '5677 FLORIDA\nBATON ROUGE, LA\n(30.451387, -91.131566)', '5731 ST GERARD\nBATON ROUGE, LA\n(30.497454, -91.133259)', '5738 ST GERARD\nBATON ROUGE, LA\n(30.497304, -91.133145)', '5752 COMISH\nBATON ROUGE, LA\n(30.501593, -91.165605)', '5766 PEERLESS\nBATON ROUGE, LA\n(30.51683, -91.13372)', '5844 ST GERARD\nBATON ROUGE, LA\n(30.4961, -91.132007)', '5900 GLENOAKS\nBATON ROUGE, LA\n(30.511829, -91.131445)', '5953 PLANK\nBATON ROUGE, LA\n(30.504034, -91.151551)', '6103 FLORIDA\nBATON ROUGE, LA\n(30.451298, -91.126616)', '6224 PLANK\nBATON ROUGE, LA\n(30.506812, -91.150585)', '6229 GURNEY\nBATON ROUGE, LA\n(30.507199, -91.148896)', '6400 HANKS\nBATON ROUGE, LA\n(30.495734, -91.125847)', '650 W. MCKINLEY\nBATON ROUGE, LA\n(30.423671, -91.18432)', '680 SHARP\nBATON ROUGE, LA\n(30.447724, -91.069559)', '6800 WINBOURNE\nBATON ROUGE, LA\n(30.479522, -91.121775)', '700 MAIN\nBATON ROUGE, LA\n(30.45157, -91.183531)', '700 N ACADIAN\nBATON ROUGE, LA', '7000 SCENIC\nBATON ROUGE, LA', '700807', '70380', '70503', '70708', '70737', '70748', '70769', '70785', '70801', '708011', '70802', '70803', '70805', '70806', '70807', '70808', '708080', '708085', '70809', '70810', '70811', '70812', '70813', '70814', '70815', '70816', '70816C', '70817', '70819', '70820', '70821', '7085', '70916', '7100 BLUEGRASS\nBATON ROUGE, LA\n(30.515507, -91.130576)', '7144 GREENWELL SPRINGS\nBATON ROUGE, LA\n(30.501409, -91.118957)', '7174 AIRLINE\nBATON ROUGE, LA', '75039', '759 N.31ST\nBATON ROUGE, LA', '777 BEN HUR\nBATON ROUGE, LA\n(30.386542, -91.166067)', '78020', '79802', '800 JEFFERSON HIGHWAY\nBATON ROUGE, LA', '8000 JONES\nBATON ROUGE, LA\n(30.520766, -91.17175)', '8054 ESSEN COVE\nBATON ROUGE, LA', '8056 GREENWELL SPRINGS\nBATON ROUGE, LA\n(30.501896, -91.106369)', '8170 QUAD SQUARE\nBATON ROUGE, LA', '820 SINCLAIR\nBATON ROUGE, LA\n(30.450165, -91.065946)', '8227 SCENIC\nBATON ROUGE, LA', '8287 AIRLINE\nBATON ROUGE, LA', '8420 VETERANS MEMORIAL\nBATON ROUGE, LA\n(30.52562, -91.160978)', '8500 AIRLINE\nBATON ROUGE, LA', '855 BELLHAVEN TRACE\nBATON ROUGE, LA', '8700 FLORIDA\nBATON ROUGE, LA\n(30.451683, -91.093955)', '8900 SCOTLAND\nBATON ROUGE, LA\n(30.527581, -91.179871)', '900 MARQUE ANN\nBATON ROUGE, LA', '9228 FLORIDA\nBATON ROUGE, LA\n(30.45405, -91.08685)', '9233 CUYHANGA\nBATON ROUGE, LA\n(30.464193, -91.083969)', '9244 KIMBERLY\nBATON ROUGE, LA\n(30.476966, -91.086893)', '9500 HWY 19\nBATON ROUGE, LA', '9630 AIRLINE\nBATON ROUGE, LA', '9650 AIRLINE\nBATON ROUGE, LA', '9765 CUYHANGA\nBATON ROUGE, LA\n(30.464397, -91.076369)', '9789 FLORIDA\nBATON ROUGE, LA\n(30.456043, -91.077131)', '9901 GWENADALE\nBATON ROUGE, LA', '9919 GWENADELE\nBATON ROUGE, LA\n(30.427709, -91.077528)', '9929 CUYHANGA\nBATON ROUGE, LA\n(30.464455, -91.074622)', '9990 AVE J\nBATON ROUGE, LA\n(30.536, -91.19887)', '9990 AVENUE J\nBATON ROUGE, LA\n(30.536, -91.19887)', '9999 GWENADELE\nBATON ROUGE, LA\n(30.426722, -91.076782)', 'A', 'AIRLINE HW\nBATON ROUGE, LA', 'AVE J AV\nBATON ROUGE, LA', 'B', 'BATON ROUGE', 'C', 'D', 'E', 'E CONTOUR\nBATON ROUGE, LA', 'E RIVER OAKS\nBATON ROUGE, LA', 'F', 'G', 'GOODWOOD BL\nBATON ROUGE, LA', 'I-10 HW\nBATON ROUGE, LA', 'JOHNSTON ST\nBATON ROUGE, LA\n(30.443342445000042, -91.186989430999972)', 'LA', 'LAURELWOOD DR\nBATON ROUGE, LA', 'NOT KNOWN AT THIS TIME ST\nBATON ROUGE, LA', 'O', 'PINHOOK RD\nBATON ROUGE, LA\n(30.443342445000042, -91.186989430999972)', 'PO BOX 10497\nBATON ROUGE, LA 70813', 'ROYAL OAK DR\nBATON ROUGE, LA', 'S RIVER OAKS\nBATON ROUGE, LA', 'UNIVERSITY AV\nBATON ROUGE, LA\n(30.454001350000055, -91.184471362999943)', 'W ROBIN HOOD\nBATON ROUGE, LA', 'W TAMPA\nBATON ROUGE, LA', '`70808']</t>
+        <v>1</v>
+      </c>
+      <c r="X14" t="n">
+        <v>2926523</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>['(Null)', 'BATON ROUGE']</t>
         </is>
       </c>
     </row>
@@ -1581,10 +1695,10 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>263286</v>
+        <v>267773</v>
       </c>
       <c r="E15" t="n">
-        <v>263286</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1599,19 +1713,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K15" t="n">
         <v>-1</v>
       </c>
       <c r="L15" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N15" t="n">
-        <v>77</v>
+        <v>3796</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -1629,24 +1743,32 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
+          <t>(Null)</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>3796</v>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
           <t>LA</t>
         </is>
       </c>
-      <c r="T15" t="n">
-        <v>42083</v>
-      </c>
-      <c r="U15" t="n">
-        <v>0</v>
-      </c>
       <c r="V15" t="n">
-        <v>942087</v>
+        <v>263977</v>
       </c>
       <c r="W15" t="n">
-        <v>2035</v>
-      </c>
-      <c r="X15" t="inlineStr">
-        <is>
-          <t>['1', '1 DALRYMPLE\nBATON ROUGE, LA 70820\n(30.415783, -91.176362)', '1 DALRYMPLE DR\nBATON ROUGE, LA\n(30.415783, -91.176362)', '1 DARYMPLE\nBATON ROUGE, LA 70820', '100 3RD ST\nBATON ROUGE, LA\n(30.447266, -91.188164)', '100 DARYMPLE\nBATON ROUGE, LA 70820', '100 LAFAYETTE ST\nBATON ROUGE, LA\n(30.447098, -91.189332)', '100 LEE DR\nBATON ROUGE, LA\n(30.394183, -91.159427)', '100 LSU AV\nBATON ROUGE, LA\n(30.402155, -91.170463)', '100 SECURITY LN\nBATON ROUGE, LA', '100 SHERWOOD FOREST BL\nBATON ROUGE, LA', '100 TOWER DR\nBATON ROUGE, LA', '100 WEST I-12 HW\nBATON ROUGE, LA', '1000 38TH ST\nBATON ROUGE, LA\n(30.457367, -91.151964)', '1000 GOVERNMENT ST\nBATON ROUGE, LA\n(30.443471, -91.179801)', '1000 HIGHLAND RD\nBATON ROUGE, LA\n(30.439568, -91.186377)', '1000 JENNIFER JEAN DR\nBATON ROUGE, LA', '1000 LAUREL ST\nBATON ROUGE, LA\n(30.450612, -91.180119)', '1000 NICHOLSON DR\nBATON ROUGE, LA\n(30.437994, -91.187325)', '1000 S TAMARI\nBATON ROUGE, LA\n(30.460616, -91.0483)', '1001 31ST ST\nBATON ROUGE, LA\n(30.457962, -91.157379)', '1001 ASTER ST\nBATON ROUGE, LA\n(30.419537, -91.188824)', '1002 TIMBERSIDE DR\nBATON ROUGE, LA\n(30.45908, -91.12975)', '1003 BOB PETTIT BL\nBATON ROUGE, LA\n(30.396451, -91.178491)', '10044 ALPHA DR\nBATON ROUGE, LA\n(30.488999, -91.072939)', '10045 GWENADELE AV\nBATON ROUGE, LA\n(30.426459, -91.076436)', '10045 GWENADELE DR\nBATON ROUGE, LA\n(30.42633, -91.076191)', '10047 CHANADIA DR\nBATON ROUGE, LA\n(30.377753, -91.10339)', '10068 GREAT SMOKEY AV\nBATON ROUGE, LA\n(30.478367, -91.072784)', '1008 CAMELIA AV\nBATON ROUGE, LA\n(30.439196, -91.166653)', '10100 GOODWOOD BL\nBATON ROUGE, LA\n(30.443623, -91.075708)', '10111 FLORIDA BL\nBATON ROUGE, LA', '10126 GERANDEUR DR\nBATON ROUGE, LA\n(30.437841, -91.074919)', '10145 RED OAK DR\nBATON ROUGE, LA\n(30.462719, -91.071434)', '10148 GREENWELL SPRINGS RD\nBATON ROUGE, LA\n(30.490865, -91.071786)', '10196 TWIN CEDARS\nBATON ROUGE, LA 70816\n(30.424607, -91.068229)', '102 FRANCE ST\nBATON ROUGE, LA\n(30.442766, -91.189154)', '10210 AVE K\nBATON ROUGE, LA 70807\n(30.537403, -91.199855)', '10224 BARBARA ST\nBATON ROUGE, LA\n(30.442949, -91.073571)', '10245 AIRLINE HW\nBATON ROUGE, LA\n(30.418948, -91.07153)', '10265 AVE E\nBATON ROUGE, LA 70807', '10311 PLAZA AMERICANA DR\nBATON ROUGE, LA\n(30.426606, -91.07368)', '10330 FLORIDA\nBATON ROUGE, LA 70815\n(30.456817, -91.069442)', '10332 PLAZA AMERICANA DR\nBATON ROUGE, LA\n(30.426612, -91.072695)', '10372 BLACK OAK DR\nBATON ROUGE, LA\n(30.464305, -91.069364)', '10389 AIRLINE\nBATON ROUGE, LA 70816\n(30.414488, -91.068218)', '10389 AIRLINE HW\nBATON ROUGE, LA\n(30.414488, -91.068218)', '10400 CLASSIQUE AV\nBATON ROUGE, LA\n(30.436906, -91.071931)', '10400 GREENWELL SPRINGS RD\nBATON ROUGE, LA\n(30.49221, -91.068293)', '10414 PLAZA AMERICANA DR\nBATON ROUGE, LA\n(30.426971, -91.071419)', '10421 TAMS DR\nBATON ROUGE, LA\n(30.467357, -91.06905)', '10425 AIRLINE HW\nBATON ROUGE, LA\n(30.414088, -91.067878)', '1047 LAUREL\nBATON ROUGE, LA 70805\n(30.450641, -91.179154)', '10499 OLD HAMMOND HW\nBATON ROUGE, LA\n(30.433847, -91.068843)', '10525 PLAZA AMERICANA\nBATON ROUGE, LA 70815\n(30.426952, -91.06992)', '1053 RITTNER DR\nBATON ROUGE, LA\n(30.439055, -91.16131)', '10530 FLORIDA\nBATON ROUGE, LA 70815\n(30.457071, -91.067849)', '10530 FLORIDA BL\nBATON ROUGE, LA', '10544 CLETUS DR\nBATON ROUGE, LA\n(30.468623, -91.067579)', '1055 CORA DR\nBATON ROUGE, LA\n(30.44438, -91.081578)', '10550 FLORIDA BL\nBATON ROUGE, LA', '10580 TOLEDO BEND AV\nBATON ROUGE, LA\n(30.484714, -91.066698)', '10610 FLORIDA BL\nBATON ROUGE, LA', '10624 DARRYL DR\nBATON ROUGE, LA\n(30.470889, -91.066463)', '10625 FLORIDA\nBATON ROUGE, LA 70815\n(30.457547, -91.067614)', '10625 FLORIDA BL\nBATON ROUGE, LA', '10635 BLACK OAK DR\nBATON ROUGE, LA\n(30.464301, -91.066619)', '10650 AVE F\nBATON ROUGE, LA 70807\n(30.541294, -91.195658)', '10666 SCOTLAND AV\nBATON ROUGE, LA\n(30.54204, -91.177056)', '10710 GREENWELL SPRINGS RD\nBATON ROUGE, LA\n(30.493429, -91.064888)', '10724 WHITE OAK DR\nBATON ROUGE, LA\n(30.465844, -91.065495)', '10725 WHITE OAK DR\nBATON ROUGE, LA\n(30.465844, -91.065503)', '10734 TAMS DR\nBATON ROUGE, LA\n(30.467381, -91.065171)', '10738 OLD HAMMOND\nBATON ROUGE, LA 70815\n(30.434642, -91.065738)', '10738 OLD HAMMOND HW\nBATON ROUGE, LA\n(30.434642, -91.065738)', '10760 FLORIDA BL\nBATON ROUGE, LA', '10766 RONDO AV\nBATON ROUGE, LA\n(30.440024, -91.066027)', '10770 FLORIDA\nBATON ROUGE, LA 70815\n(30.457474, -91.065288)', '10770 FLORIDA BL\nBATON ROUGE, LA', '10800 TOLEDO BEND\nBATON ROUGE, LA 70814', '10808 GREENWELL SPRINGS RD\nBATON ROUGE, LA\n(30.493677, -91.063379)', '1084 MONET DR\nBATON ROUGE, LA\n(30.45981, -91.117443)', '10842 EFFRINGHAM\nBATON ROUGE, LA 70815\n(30.448828, -91.063226)', '10900 FLORIDA BL\nBATON ROUGE, LA', '10913 RAINIER AV\nBATON ROUGE, LA\n(30.489805, -91.063092)', '10921 ELAIN DR\nBATON ROUGE, LA\n(30.483246439000027, -91.062710572999947)', '10932 FLORIDA BL\nBATON ROUGE, LA', '10938 OLD HAMMOND HW\nBATON ROUGE, LA\n(30.435321, -91.063038)', '10950 DARRYL\nBATON ROUGE, LA 70814\n(30.47103, -91.062163)', '10950 DARRYL DR\nBATON ROUGE, LA\n(30.471027, -91.061794)', '10950 W DARRYL\nBATON ROUGE, LA', '10970 FLORIDA BL\nBATON ROUGE, LA', '11', '1100 BOB PETIT BL\nBATON ROUGE, LA', '1100 BOB PETIT BT\nBATON ROUGE, LA', '1100 BOB PETTIT\nBATON ROUGE, LA 70748\n(30.396322, -91.178968)', '1100 BOB PETTIT\nBATON ROUGE, LA 70802\n(30.396322, -91.178968)', '1100 BOB PETTIT\nBATON ROUGE, LA 70820\n(30.396322, -91.178968)', '1100 BOB PETTIT\nBATON ROUGE, LA 78020\n(30.396322, -91.178968)', '1100 BOB PETTIT BL\nBATON ROUGE, LA\n(30.396322, -91.178968)', '1100 BOB PETTIT DR\nBATON ROUGE, LA\n(30.396322, -91.178968)', '1100 LAUREL ST\nBATON ROUGE, LA\n(30.450658, -91.178445)', '1100 ST CHARLES ST\nBATON ROUGE, LA\n(30.437444, -91.185651)', '1100 STANFORD AV\nBATON ROUGE, LA\n(30.409713, -91.162195)', '11000 GREENWELL SPRINGS RD\nBATON ROUGE, LA\n(30.493659, -91.060052)', '11005 CEDAR BEND AV\nBATON ROUGE, LA\n(30.484345, -91.062223)', '1101 ANN DR\nBATON ROUGE, LA', '11010 COURSEY BL\nBATON ROUGE, LA\n(30.414827, -91.058222)', '11030 COURSEY BL\nBATON ROUGE, LA\n(30.414677, -91.0577)', '11032 RED OAK DR\nBATON ROUGE, LA\n(30.463072, -91.062046)', '11043 SCENIC HW\nBATON ROUGE, LA\n(30.544448, -91.193563)', '11046 CATALPA\nBATON ROUGE, LA 70815\n(30.465648, -91.0615)', '11070 MEAD RD\nBATON ROUGE, LA\n(30.429006, -91.057742)', '1108 JULIA ST\nBATON ROUGE, LA\n(30.43734, -91.177497)', '1109 HIGHLAND RD\nBATON ROUGE, LA\n(30.437733, -91.186189)', '11110 BOARDWALK\nBATON ROUGE, LA 70816\n(30.431639, -91.060323)', '11111 N HARRELLS FERRY\nBATON ROUGE, LA', '11140 BOARDWALK AV\nBATON ROUGE, LA\n(30.431634, -91.060037)', '1115 BOB PETIT BT\nBATON ROUGE, LA', '1115 BOB PETTIT\nBATON ROUGE, LA 70802\n(30.396109, -91.179287)', '1115 BOB PETTIT BL\nBATON ROUGE, LA\n(30.396109, -91.179287)', '11186 SUSAN AV\nBATON ROUGE, LA\n(30.461614, -91.059548)', '11188 FLORIDA BL\nBATON ROUGE, LA', '11188 SUSAN AV\nBATON ROUGE, LA\n(30.461591, -91.059598)', '1120 SPANISH TOWN RD\nBATON ROUGE, LA\n(30.454902, -91.178445)', '11200 CHOCTAW DR\nBATON ROUGE, LA\n(30.472423, -91.05897)', '11200 DARRYL DR\nBATON ROUGE, LA\n(30.471018, -91.059267)', '11200 GLENDA\nBATON ROUGE, LA 70816\n(30.462246, -91.058567)', '11200 RED OAK DR\nBATON ROUGE, LA\n(30.463616, -91.05979)', '1121 BOB PETIT BL\nBATON ROUGE, LA', '1122 LANDWOOD DR\nBATON ROUGE, LA\n(30.461513, -91.104877)', '1124 MARQUE ANN DR\nBATON ROUGE, LA\n(30.462044, -91.04316)', '11244 FLORIDA\nBATON ROUGE, LA 70815\n(30.458433, -91.059279)', '1125 BOB PETTIT BL\nBATON ROUGE, LA\n(30.396092, -91.179366)', '1125 CORA DR\nBATON ROUGE, LA\n(30.443118, -91.081574)', '11256 RED OAK\nBATON ROUGE, LA 70815\n(30.463822, -91.058929)', '1126 FRANCIS HARRIET DR\nBATON ROUGE, LA\n(30.4432, -91.085711)', '11290 FLORIDA\nBATON ROUGE, LA 70815\n(30.458563, -91.058494)', '1130 COLUMBUS DUNN DR\nBATON ROUGE, LA\n(30.458797, -91.144287)', '11300 BOARDWALK AV\nBATON ROUGE, LA\n(30.431636, -91.058513)', '11300 FLORIDA BL\nBATON ROUGE, LA', '11314 BOARDWALK DR\nBATON ROUGE, LA\n(30.431634, -91.058411)', '1133 FOREST OAK DR\nBATON ROUGE, LA\n(30.46048, -91.05474)', '11333 COURSEY BL\nBATON ROUGE, LA\n(30.413089, -91.056008)', '1134 WAVERLY\nBATON ROUGE, LA 70806\n(30.458881, -91.134287)', '11372 CATALPA DR\nBATON ROUGE, LA\n(30.465623, -91.056938)', '1138 COLUMBUS DUNN DR\nBATON ROUGE, LA\n(30.458908, -91.144292)', '1140 N DONMOOR\nBATON ROUGE, LA\n(30.460643, -91.118714)', '11401 FLORIDA BL\nBATON ROUGE, LA\n(30.459382815000026, -91.056299120999938)', '11404 BARD AV\nBATON ROUGE, LA\n(30.467996, -91.056281)', '11410 BARD AV\nBATON ROUGE, LA\n(30.467984, -91.05622)', '11430 FLOIRDA\nBATON ROUGE, LA 70916', '11437 FLORIDA BL\nBATON ROUGE, LA', '1144 CASTLE KIRK DR\nBATON ROUGE, LA\n(30.386027, -91.116106)', '11440 BARD\nBATON ROUGE, LA 70815\n(30.467925, -91.055919)', '11440 BARD AV\nBATON ROUGE, LA\n(30.467874, -91.055688)', '11440 BOARDWALK DR\nBATON ROUGE, LA', '11441 GOODWOOD BL\nBATON ROUGE, LA\n(30.44884, -91.055912)', '11444 REULET AV\nBATON ROUGE, LA\n(30.431813, -91.056087)', '11445 BARD\nBATON ROUGE, LA 70815\n(30.467936, -91.055974)', '11445 BARD AV\nBATON ROUGE, LA\n(30.467938, -91.055983)', '11445 COURSEY BL\nBATON ROUGE, LA\n(30.412742, -91.055858)', '11528 OLD HAMMOND HW\nBATON ROUGE, LA\n(30.437262, -91.055448)', '11546 FLORIDA BL\nBATON ROUGE, LA', '11570 WILLOW OAK AV\nBATON ROUGE, LA\n(30.463128, -91.054719)', '1159 MAGNOLIA WOOD AV\nBATON ROUGE, LA\n(30.387858, -91.116946)', '11600 CATALPA DR\nBATON ROUGE, LA\n(30.465614, -91.054242)', '11600 HWY 19\nBATON ROUGE, LA 70807', '11610 SHERWOOD HOLLOW CT\nBATON ROUGE, LA\n(30.43414, -91.052753)', '11614 SHERWOOD VALLEY CT\nBATON ROUGE, LA\n(30.433242, -91.052778)', '11615 SHERWOOD VALLEY\nBATON ROUGE, LA 70816', '11618 GOODWOOD BL\nBATON ROUGE, LA\n(30.449063, -91.05372)', '11620 KING RICHARD DR\nBATON ROUGE, LA\n(30.439134, -91.054457)', '11705 COURSEY\nBATON ROUGE, LA 70816\n(30.411195, -91.051387)', '1175 BOB PETTIT BL\nBATON ROUGE, LA\n(30.395984, -91.179858)', '11800 COURSEY BL\nBATON ROUGE, LA\n(30.411044, -91.049934)', '1181 AUBURN LN\nBATON ROUGE, LA', '11819 FLORIDA\nBATON ROUGE, LA 70815\n(30.459981, -91.052399)', '11819 FLORIDA BL\nBATON ROUGE, LA', '11830 DARRYL DR\nBATON ROUGE, LA\n(30.471221, -91.05196)', '11834 COURSEY BLVD BL\nBATON ROUGE, LA\n(30.411041, -91.049394)', '1184 BOB PETIT\nBATON ROUGE, LA 70808', '1184 BOB PETTIT BL\nBATON ROUGE, LA\n(30.396246, -91.179301)', '11864 DARRYL DR\nBATON ROUGE, LA\n(30.471239, -91.05133)', '11867 CATALPA DR\nBATON ROUGE, LA\n(30.465599, -91.051255)', '1188 ROSENWALD RD\nBATON ROUGE, LA\n(30.531399, -91.181539)', '11888 LONGRIDGE AV\nBATON ROUGE, LA\n(30.422357, -91.048434)', '11888 OLD HAMMOND HW\nBATON ROUGE, LA\n(30.438363, -91.051976)', '1190 BOB PETTIT BL\nBATON ROUGE, LA\n(30.396242, -91.179317)', '11911 RICHCROFT AV\nBATON ROUGE, LA\n(30.473517451000077, -91.049359197999991)', '11914 COURSEY BL\nBATON ROUGE, LA\n(30.411061, -91.048124)', '11931 JUSTICE AV\nBATON ROUGE, LA\n(30.424158, -91.048597)', '1194 BOB PETIT BL\nBATON ROUGE, LA', '1194 BOB PETTIT BL\nBATON ROUGE, LA\n(30.395958, -91.180226)', '1200 FLORIDA ST\nBATON ROUGE, LA\n(30.449627, -91.177483)', '1200 MAXIMILLION ST\nBATON ROUGE, LA\n(30.437242, -91.181148)', '1200 MYRTLE ST\nBATON ROUGE, LA\n(30.438352, -91.176588)', '12013 WARFIELD AV\nBATON ROUGE, LA\n(30.465725, -91.048681)', '1202 N. 43RD ST\nBATON ROUGE, LA\n(30.459658, -91.146606)', '12020 FLORIDA BL\nBATON ROUGE, LA', '12038 OLD HAMMOND HW\nBATON ROUGE, LA\n(30.439975, -91.046841)', '12055 ARCHERY DR\nBATON ROUGE, LA\n(30.458004, -91.049229)', '12068 OLD HAMMOND HW\nBATON ROUGE, LA\n(30.440171, -91.046183)', '12086 OLD HAMMOND HW\nBATON ROUGE, LA\n(30.440288, -91.045788)', '12102 FLORIDA\nBATON ROUGE, LA 70815\n(30.460308, -91.047464)', '12111 LAKE LADARE AV\nBATON ROUGE, LA\n(30.418388, -91.046803)', '12121 TAMS DR\nBATON ROUGE, LA\n(30.466651, -91.048261)', '12124 DOVERWOOD DR\nBATON ROUGE, LA\n(30.556635, -91.172852)', '12137 COURSEY BL\nBATON ROUGE, LA\n(30.411682, -91.044599)', '12152 GEBHART DR\nBATON ROUGE, LA\n(30.437868, -91.039895)', '12200 COURSEY BL\nBATON ROUGE, LA\n(30.411335, -91.043603)', '12200 ROBBIE AV\nBATON ROUGE, LA\n(30.464976, -91.045862)', '1222 JIM TAYLOR DR\nBATON ROUGE, LA\n(30.391795, -91.181521)', '1223 JIM TAYLOR DR\nBATON ROUGE, LA\n(30.391785, -91.181434)', '12232 PARKWOOD DR\nBATON ROUGE, LA\n(30.4517, -91.047586)', '1225 NORTH BL\nBATON ROUGE, LA\n(30.447514, -91.176922)', '12250 ELVA DR\nBATON ROUGE, LA\n(30.440003, -91.040721)', '12254 LA MARGIE\nBATON ROUGE, LA 70815\n(30.469979, -91.045844)', '12254 LA MARGIE AV\nBATON ROUGE, LA\n(30.469979, -91.045871)', '1228 VALCOUR DR\nBATON ROUGE, LA\n(30.459842, -91.135501)', '123 LIVE OAK BL\nBATON ROUGE, LA\n(30.448568, -91.148867)', '12300 WARFIELD\nBATON ROUGE, LA 70815\n(30.465775, -91.045758)', '1231 LAUREL ST\nBATON ROUGE, LA\n(30.450689, -91.177174)', '12315 PERCIVAL AV\nBATON ROUGE, LA\n(30.426341, -91.046173)', '12333 FLORIDA BL\nBATON ROUGE, LA', '12343 CATE AV\nBATON ROUGE, LA\n(30.463386, -91.045472)', '12346 SHAY\nBATON ROUGE, LA 70815\n(30.4626, -91.045452)', '1235 AURORA PL\nBATON ROUGE, LA\n(30.437825, -91.095808)', '1235 CENTERPOINTE DR\nBATON ROUGE, LA\n(30.472407, -91.018018)', '12368 WARFIELD AV\nBATON ROUGE, LA\n(30.465778, -91.045141)', '1237 JIM TAYLOR DR\nBATON ROUGE, LA\n(30.39182, -91.181746)', '12400 HIGHWAY 19\nBATON ROUGE, LA 70807', '12400 HWY 19\nBATON ROUGE, LA 70807', '12411 PARKLAKE AV\nBATON ROUGE, LA\n(30.399977, -91.043963)', '12434 LAKE LA BELLE CR\nBATON ROUGE, LA', '12440 COURSEY BL\nBATON ROUGE, LA\n(30.410749, -91.040673)', '12444 FLORIDA\nBATON ROUGE, LA 70815\n(30.4608, -91.044358)', '12446 LORNA AV\nBATON ROUGE, LA\n(30.46418, -91.044492)', '12457 LOCKHAVEN AV\nBATON ROUGE, LA\n(30.456237, -91.044916)', '12487 COURSEY BL\nBATON ROUGE, LA\n(30.410861, -91.040367)', '12500 TAMS DR\nBATON ROUGE, LA\n(30.466643, -91.043888)', '12513 KINGSTON DR\nBATON ROUGE, LA\n(30.557813, -91.161739)', '12525 COURSEY BL\nBATON ROUGE, LA\n(30.410421, -91.03731)', '12527 CATE\nBATON ROUGE, LA 70815\n(30.463374, -91.043754)', '12527 COURSEY BL\nBATON ROUGE, LA\n(30.410368, -91.036937)', '1253 FLORIDA ST\nBATON ROUGE, LA\n(30.449654, -91.176526)', '12533 COURSEY BL\nBATON ROUGE, LA\n(30.410367, -91.036926)', '12543 ROBBIE AV\nBATON ROUGE, LA\n(30.464983, -91.043459)', '12554 LA MARGIE\nBATON ROUGE, LA 70815\n(30.46998, -91.042855)', '12554 SHAY AV\nBATON ROUGE, LA\n(30.462602, -91.043694)', '12567 FLORIDA\nBATON ROUGE, LA 70815\n(30.461373, -91.043629)', '12567 FLORIDA BL\nBATON ROUGE, LA', '12617 FLORIDA\nBATON ROUGE, LA 70815\n(30.461474, -91.042949)', '12623 LA MARGIE AV\nBATON ROUGE, LA\n(30.469971, -91.042465)', '12625 COURSEY\nBATON ROUGE, LA 70816\n(30.410332, -91.036684)', '12627 WARFIELD\nBATON ROUGE, LA 70815\n(30.466051, -91.043004)', '12642 NEWCASTLE\nBATON ROUGE, LA 70816\n(30.421988, -91.041397)', '12647 WARFIELD AV\nBATON ROUGE, LA\n(30.466128, -91.04286)', '1266 SHARLO AV\nBATON ROUGE, LA\n(30.389656, -91.182643)', '12672 FLORIDA BL\nBATON ROUGE, LA', '12727 COURSEY\nBATON ROUGE, LA 70816\n(30.410295, -91.036415)', '12757 COURSEY\nBATON ROUGE, LA 70816\n(30.410284, -91.036336)', '12816 BROGDON\nBATON ROUGE, LA 70816\n(30.404325, -91.038082)', '12850 FLORIDA BL\nBATON ROUGE, LA', '12891 COURSEY\nBATON ROUGE, LA 70816\n(30.410234, -91.035982)', '129 CLARA\nBATON ROUGE, LA 70808\n(30.400057, -91.167266)', '12909 OLD HAMMOND HW\nBATON ROUGE, LA\n(30.444259, -91.036086)', '13 LSU PL\nBATON ROUGE, LA', '130 LEE DR\nBATON ROUGE, LA\n(30.394709, -91.158949)', '1300 CAPITAL\nBATON ROUGE, LA 70802', '1300 GOVERNMENT ST\nBATON ROUGE, LA\n(30.443637, -91.175649)', '1300 LEE DR\nBATON ROUGE, LA\n(30.406831, -91.149402)', '1300 N SHERWOOD FOREST\nBATON ROUGE, LA', '1300 NORTH BL\nBATON ROUGE, LA\n(30.452818, -91.176495)', '1300 S 16TH\nBATON ROUGE, LA', '1300 SHARLO\nBATON ROUGE, LA 70820\n(30.389834, -91.183012)', '1300 THOMAS H. DELPIT ST\nBATON ROUGE, LA\n(30.436311, -91.180115)', '13047 FLORIDA\nBATON ROUGE, LA 70815\n(30.462053, -91.039262)', '1306 THOMAS H DELPIT\nBATON ROUGE, LA 70802\n(30.435888, -91.179875)', '1306 THOMAS H DELPIT DR\nBATON ROUGE, LA\n(30.435786, -91.179808)', '13089 OLD HAMMOND HW\nBATON ROUGE, LA\n(30.444833, -91.035215)', '1313 N SHERWOOD FOREST\nBATON ROUGE, LA', '13146 FLORIDA BL\nBATON ROUGE, LA', '13151 FLORIDA BL\nBATON ROUGE, LA', '1319 LEYCESTER DR\nBATON ROUGE, LA\n(30.390326, -91.129578)', '132 LINDA AV\nBATON ROUGE, LA\n(30.450122, -91.113233)', '1320 CAS LOMA DR\nBATON ROUGE, LA\n(30.461556, -91.075941)', '1320 WALL\nBATON ROUGE, LA 70802\n(30.529921, -91.180401)', '13200 FLORIDA BL\nBATON ROUGE, LA', '13200 OLD HAMMOND HW\nBATON ROUGE, LA\n(30.44519, -91.034687)', '1322 ORLANDO DR\nBATON ROUGE, LA\n(30.461571, -91.07698)', '1323 CASA LOMA DR\nBATON ROUGE, LA\n(30.461605, -91.075943)', '1323 JIM TAYLOR\nBATON ROUGE, LA 70808\n(30.391916, -91.182541)', '1324 PROGRESS ST\nBATON ROUGE, LA\n(30.460693, -91.158272)', '1330 PLANK RD\nBATON ROUGE, LA\n(30.460526, -91.166871)', '1331 N SHERWOOD FOREST\nBATON ROUGE, LA', '1331 N SHERWOOD FORREST\nBATON ROUGE, LA', '1331 SHERWOOD FOREST BL\nBATON ROUGE, LA', '1334 FLORIDA ST\nBATON ROUGE, LA\n(30.44967, -91.17593)', '1334 N 29TH\nBATON ROUGE, LA\n(30.46059, -91.159725)', '1335 WOODDALE BL\nBATON ROUGE, LA\n(30.460821, -91.11028)', '1338 MAXMILIAN ST\nBATON ROUGE, LA\n(30.435964, -91.180908)', '1341 ORANGE ST\nBATON ROUGE, LA\n(30.435436, -91.174573)', '1344 PEAR ST\nBATON ROUGE, LA\n(30.432103, -91.173082)', '1345 DUCHESS\nBATON ROUGE, LA 70815\n(30.464908, -91.04065)', '1345 DUCHESS DR\nBATON ROUGE, LA\n(30.464863, -91.040651)', '1345 MAYHAW DR\nBATON ROUGE, LA\n(30.539358, -91.179649)', '1354 ARCADIA DR\nBATON ROUGE, LA\n(30.382003, -91.107586)', '13624 GOODWOOD DR\nBATON ROUGE, LA\n(30.449233, -91.03329)', '1364 SNIPE ST\nBATON ROUGE, LA\n(30.522899, -91.179695)', '13641 KATHERINE\nBATON ROUGE, LA 70815\n(30.456906, -91.031549)', '13700 GOODWOOD DR\nBATON ROUGE, LA\n(30.449744, -91.032593)', '1372 NORTH ST\nBATON ROUGE, LA\n(30.452827, -91.176124)', '13728 GOODWOOD DR\nBATON ROUGE, LA\n(30.450126, -91.032084)', '1375 ROSENWALD RD\nBATON ROUGE, LA\n(30.531449, -91.17964)', '1381 STUART AV\nBATON ROUGE, LA\n(30.409466, -91.152182)', '13842 GOODWOOD\nBATON ROUGE, LA 70815\n(30.450772, -91.031206)', '1386 CASA LOMA DR\nBATON ROUGE, LA\n(30.462194, -91.075963)', '1400 79TH AV\nBATON ROUGE, LA\n(30.519408, -91.17839)', '1400 CONVENTION ST\nBATON ROUGE, LA\n(30.448633, -91.175076)', '1400 GOUDCHAUX ST\nBATON ROUGE, LA\n(30.510299, -91.177616)', '1400 NICHOLSON DR\nBATON ROUGE, LA\n(30.434919, -91.187399)', '14001 FLORIDA BL\nBATON ROUGE, LA', '14015 FLORIDA\nBATON ROUGE, LA 70819\n(30.463574, -91.029637)', '1409 STOKLEY\nBATON ROUGE, LA 70815\n(30.446952, -91.036851)', '1412 CLOVERDALE DR\nBATON ROUGE, LA\n(30.411995, -91.156853)', '1413 JIM TAYLOR DR\nBATON ROUGE, LA\n(30.392006, -91.183249)', '1414 JULIA ST\nBATON ROUGE, LA\n(30.437421, -91.174184)', '142 GOTLIEB ST\nBATON ROUGE, LA\n(30.448536, -91.159015)', '14218 STONE GATE\nBATON ROUGE, LA 70815', '1428 HERMOSA DR\nBATON ROUGE, LA\n(30.462587, -91.079814)', '1428 THOMAS H DELPIT DR\nBATON ROUGE, LA\n(30.435144, -91.179393)', '14312 SILVERTHORN AV\nBATON ROUGE, LA\n(30.470228, -91.027983)', '1443 BIRGHTSIDE\nBATON ROUGE, LA 70820', '1443 BRIGHTSIDE\nBATON ROUGE, LA 70820\n(30.387561, -91.173396)', '1443 BRIGHTSIDE LN\nBATON ROUGE, LA\n(30.387561, -91.173396)', '1443 CASA LOMA DR\nBATON ROUGE, LA\n(30.462744, -91.075976)', '1443 JIM TAYLOR DR\nBATON ROUGE, LA\n(30.392074, -91.183728)', '14545 BYWOOD AV\nBATON ROUGE, LA\n(30.471151, -91.025417)', '1455 N ACADIAN THWY W\nBATON ROUGE, LA', '1458 SMITH ST\nBATON ROUGE, LA\n(30.436077, -91.173208)', '1462 GWEN DR\nBATON ROUGE, LA\n(30.462176, -91.059455)', '1462 PARKER ST\nBATON ROUGE, LA\n(30.434988, -91.155278)', '14643 CHIMNEYWOOD DR\nBATON ROUGE, LA\n(30.436519, -91.022429)', '14900 FLORIDA BL\nBATON ROUGE, LA', '150 MAYFLOWER ST\nBATON ROUGE, LA\n(30.440731, -91.188368)', '1500 ROSENWALD DR\nBATON ROUGE, LA\n(30.531477, -91.178518)', '15015 FLORIDA BL\nBATON ROUGE, LA', '1516 ASTER ST\nBATON ROUGE, LA\n(30.419561, -91.193392)', '1520 N 24\nBATON ROUGE, LA\n(30.462519, -91.164222)', '1520 SHARLO AV\nBATON ROUGE, LA\n(30.389436, -91.184768)', '1534 BYNUM ST\nBATON ROUGE, LA\n(30.440809, -91.172789)', '1543 FIESTA DR\nBATON ROUGE, LA\n(30.463982, -91.073889)', '1544 HARDING BL\nBATON ROUGE, LA\n(30.520446, -91.177282)', '1544 STACY DR\nBATON ROUGE, LA\n(30.467264, -91.044888)', '15444 BANYANWOOD AV\nBATON ROUGE, LA\n(30.437445, -91.013872)', '1546 CYRIL AV\nBATON ROUGE, LA\n(30.435821, -91.107417)', '155 MARYLAND ST\nBATON ROUGE, LA', '1551 CASA LOMA DR\nBATON ROUGE, LA\n(30.463842, -91.075998)', '15543 WAYWOOD AV\nBATON ROUGE, LA\n(30.439435, -91.012932)', '1555 MADISON AV\nBATON ROUGE, LA\n(30.467284, -91.173759)', '15555 TREASURER DR\nBATON ROUGE, LA\n(30.38166, -91.011261)', '1565 DUCHESS DR\nBATON ROUGE, LA\n(30.46718, -91.040657)', '1566 GWEN DR\nBATON ROUGE, LA\n(30.462737, -91.05945)', '1580 79TH ST\nBATON ROUGE, LA\n(30.519472, -91.176868)', '1582 ORLANDO DR\nBATON ROUGE, LA\n(30.464125, -91.07708)', '1583 KING ST\nBATON ROUGE, LA\n(30.530317, -91.177218)', '160 BURGIN ST\nBATON ROUGE, LA\n(30.393604, -91.158463)', '1600 CONVENTION ST\nBATON ROUGE, LA\n(30.448697, -91.172723)', '1600 EOLA\nBATON ROUGE, LA 70802', '1600 NORTH BL\nBATON ROUGE, LA\n(30.452927, -91.172929)', '161 MAGNOLIA WOOD AV\nBATON ROUGE, LA\n(30.37272, -91.12618)', '1611 LEHMANN ST\nBATON ROUGE, LA\n(30.437933, -91.171809)', '1615 N HARCO\nBATON ROUGE, LA\n(30.467857, -91.041913)', '1617 BLACHE CT\nBATON ROUGE, LA', '1621 DUCHESS DR\nBATON ROUGE, LA\n(30.467558, -91.040657)', '1625 KAUFMAN ST\nBATON ROUGE, LA\n(30.509662, -91.175264)', '1628 AVONDALE\nBATON ROUGE, LA 70807\n(30.434002, -91.139453)', '163 CHATSWORTH ST\nBATON ROUGE, LA\n(30.433511, -91.184494)', '1633 CEDAR LAKE DR\nBATON ROUGE, LA\n(30.388856, -91.113305)', '1634 N SHERWOOD FOREST\nBATON ROUGE, LA', '1639 GURLIE DR\nBATON ROUGE, LA\n(30.385237, -91.106473)', '1640 BLOUIN AV\nBATON ROUGE, LA\n(30.433006, -91.16424)', '1642 CEDAR LAKE DR\nBATON ROUGE, LA\n(30.388954, -91.113309)', '1644 N SHERWOOD FORREST\nBATON ROUGE, LA', '1644 NICHOLSON DR\nBATON ROUGE, LA\n(30.432658, -91.187585)', '1652 GWEN DR\nBATON ROUGE, LA\n(30.463536, -91.059461)', '1653 GWEN DR\nBATON ROUGE, LA\n(30.463363, -91.059442)', '1654 BLANCHE CT\nBATON ROUGE, LA\n(30.442394, -91.171047)', '16545 FLORIDA\nBATON ROUGE, LA 70819\n(30.4675, -91.005013)', '1658 N MARQUE ANN\nBATON ROUGE, LA\n(30.468188, -91.042899)', '1670 NORTH ST\nBATON ROUGE, LA\n(30.452962, -91.172069)', '16745 FLORIDA BL\nBATON ROUGE, LA', '1675 CURTIS ST\nBATON ROUGE, LA\n(30.521437, -91.175439)', '1681 BLANCHE CT\nBATON ROUGE, LA\n(30.442408, -91.170757)', '16855 STEPHANIE AV\nBATON ROUGE, LA\n(30.477621, -91.001535)', '1700 N HARCO\nBATON ROUGE, LA\n(30.468474, -91.041906)', '1701 DUANE ST\nBATON ROUGE, LA\n(30.430716, -91.185302)', '1701 LODELL BL\nBATON ROUGE, LA', '1702 AMERICA ST\nBATON ROUGE, LA\n(30.446674, -91.171385)', '1702 FOSS ST\nBATON ROUGE, LA\n(30.459777, -91.172884)', '1706 MARY LOU DR\nBATON ROUGE, LA\n(30.384321, -91.104881)', '1707 CURTIS ST\nBATON ROUGE, LA\n(30.521444, -91.175249)', '1714 BLVD DE PROVINCE BL\nBATON ROUGE, LA\n(30.439591, -91.04518)', '1714 GURLIE DR\nBATON ROUGE, LA\n(30.385523, -91.106289)', '1717 RIVER RD\nBATON ROUGE, LA\n(30.460513, -91.189396)', '1718 BLVD DE PROVINCE\nBATON ROUGE, LA 70816\n(30.438817, -91.045292)', '1718 BLVDDEPROVINCE BL\nBATON ROUGE, LA', '1718 BYNUM ST\nBATON ROUGE, LA\n(30.440766, -91.170217)', '1719 SPAIN ST\nBATON ROUGE, LA\n(30.444749, -91.171205)', '17253 DEER LN\nBATON ROUGE, LA', '1726 COLUMBUS DUNN DR\nBATON ROUGE, LA\n(30.464073, -91.144531)', '1730 CONVENTION ST\nBATON ROUGE, LA\n(30.44876, -91.170971)', '1734 CEDAR LAKE\nBATON ROUGE, LA 70808', '1737 LA ANNIE\nBATON ROUGE, LA 70815\n(30.468615, -91.043887)', '1737 LA ANNIE DR\nBATON ROUGE, LA\n(30.468336, -91.043887)', '1740 N 23\nBATON ROUGE, LA\n(30.46377, -91.16516)', '1741 BRIGHTSIDE LN\nBATON ROUGE, LA\n(30.387802, -91.177853)', '1748 WISTERIA\nBATON ROUGE, LA 70802\n(30.443007, -91.170749)', '1754 THOMAS H DELPIT DR\nBATON ROUGE, LA\n(30.431645, -91.177088)', '1755 BLVD DE PROVINCE\nBATON ROUGE, LA 70816\n(30.438641, -91.045321)', '1755 COLLEGE DR\nBATON ROUGE, LA\n(30.433384, -91.134807)', '1755 OAK ST\nBATON ROUGE, LA\n(30.464948, -91.06106)', '1760 BLVD DE PROVINCE\nBATON ROUGE, LA 70816\n(30.43821, -91.045399)', '1760 PLANK RD\nBATON ROUGE, LA\n(30.464143, -91.16559)', '1760 PLANK RD RD\nBATON ROUGE, LA', '1762 COLUMBUS DUNN DR\nBATON ROUGE, LA\n(30.464399, -91.144553)', '1789 BLVD DE PROVINCE\nBATON ROUGE, LA 70816\n(30.437931, -91.045462)', '1793 BLVD DE PROVINCE\nBATON ROUGE, LA 70816\n(30.437848, -91.045481)', '1794 BLVD DE PROVINCE\nBATON ROUGE, LA 70816\n(30.437278, -91.045594)', '1800 75TH AV\nBATON ROUGE, LA\n(30.516285, -91.174077)', '1800 BLVD DE PROVINCE\nBATON ROUGE, LA 70816\n(30.436455, -91.0457)', '1800 GOVERNMENT ST\nBATON ROUGE, LA\n(30.443778, -91.170284)', '1800 LENOARD\nBATON ROUGE, LA 70802', '1800 NORTH BL\nBATON ROUGE, LA\n(30.447868, -91.170289)', '1800 NORTH ST\nBATON ROUGE, LA\n(30.453006, -91.170692)', '1805 COLLEGE DR\nBATON ROUGE, LA\n(30.431958, -91.135066)', '1808 BRIGHTSIDE LN\nBATON ROUGE, LA\n(30.387906, -91.17883)', '1808 MAY ST\nBATON ROUGE, LA\n(30.422946, -91.169857)', '1814 BELMONT AV\nBATON ROUGE, LA\n(30.43379, -91.162408)', '1818 N MARQUE ANN\nBATON ROUGE, LA\n(30.469383, -91.042887)', '1822 BELLRIDGE DR\nBATON ROUGE, LA\n(30.438888, -91.061094)', '1828 TULIP ST\nBATON ROUGE, LA\n(30.44024, -91.169851)', '1835 POCAHONTAS ST\nBATON ROUGE, LA\n(30.464956, -91.166954)', '1838 PLANK RD\nBATON ROUGE, LA\n(30.464816, -91.165352)', '1841 NORTH ST\nBATON ROUGE, LA\n(30.453029, -91.170016)', '1855 BIRCH ST\nBATON ROUGE, LA\n(30.463239, -91.170126)', '1855 BLVD DE PROVINCE\nBATON ROUGE, LA 70816\n(30.436895, -91.045659)', '1859 SOUTHPOINTE DR\nBATON ROUGE, LA\n(30.393506, -91.114119)', '1860 BLVD DE PROVINCE\nBATON ROUGE, LA 70816\n(30.436009, -91.045711)', '1860 BLVD DE PROVINCE BL\nBATON ROUGE, LA\n(30.436009, -91.045711)', '1864 EDINBURGH AV\nBATON ROUGE, LA\n(30.411021, -91.144106)', '1871 STARING LN\nBATON ROUGE, LA\n(30.391976, -91.111179)', '1875 SWAN AV\nBATON ROUGE, LA\n(30.52429, -91.17278)', '1882 N PAMELA\nBATON ROUGE, LA\n(30.46545, -91.050745)', '1898 ERLANGER DR\nBATON ROUGE, LA\n(30.437182, -91.047568)', '1900 BALIS ST\nBATON ROUGE, LA', '1900 BAY ST\nBATON ROUGE, LA\n(30.462441, -91.169844)', '1900 BLOUNT RD\nBATON ROUGE, LA\n(30.544636, -91.17146)', '1900 COLLEGE DR\nBATON ROUGE, LA\n(30.430944, -91.135239)', '1900 HEMLOCK ST\nBATON ROUGE, LA\n(30.466519, -91.17011)', '1900 N CIRSTY\nBATON ROUGE, LA', '1900 PICKETT AV\nBATON ROUGE, LA\n(30.413003, -91.14746)', '1900 SPANISH TOWN\nBATON ROUGE, LA 70802\n(30.45519, -91.169392)', '1900 STARING LN\nBATON ROUGE, LA\n(30.390313, -91.1118)', '1903 POCAHONTAS ST\nBATON ROUGE, LA\n(30.46463, -91.16694)', '191 BELLEWOOD DR\nBATON ROUGE, LA\n(30.450094, -91.122136)', '191 LITTLE JOHN DR\nBATON ROUGE, LA\n(30.459033, -91.051272)', '1910 BRIGHTSIDE DR\nBATON ROUGE, LA\n(30.387981, -91.179534)', '1911 BRADFIELD AV\nBATON ROUGE, LA\n(30.556881, -91.173832)', '1912 COLLEGE DR\nBATON ROUGE, LA\n(30.430703, -91.135281)', '1917 KANSAS ST\nBATON ROUGE, LA\n(30.429796, -91.178417)', '1919 BLVD DE PROVINCE\nBATON ROUGE, LA 70816\n(30.434012, -91.045716)', '1919 BLVD DE PROVINCE BL\nBATON ROUGE, LA\n(30.434012, -91.045716)', '1920 STANFORD AV\nBATON ROUGE, LA\n(30.41717, -91.155267)', '1925 N.3RD\nBATON ROUGE, LA 70802', '1929 WOODLAND DR\nBATON ROUGE, LA\n(30.431219, -91.140897)', '1931 PLANK RD\nBATON ROUGE, LA\n(30.464966, -91.1653)', '1935 CHESTNUT ST\nBATON ROUGE, LA\n(30.464904, -91.169886)', '1940 PARK\nBATON ROUGE, LA 70808\n(30.468022, -91.004352)', '1949 GLENMORE AV\nBATON ROUGE, LA\n(30.430494, -91.146138)', '1950 OLEANDER ST\nBATON ROUGE, LA\n(30.442085, -91.168)', '1955 WALNUT ST\nBATON ROUGE, LA\n(30.464116, -91.168907)', '1962 ONEAL LN LN\nBATON ROUGE, LA', '1974 MISSION DR\nBATON ROUGE, LA\n(30.466442, -91.144764)', '1986 DALLAS DR\nBATON ROUGE, LA\n(30.468108, -91.111759)', "1988 O'NEAL LN\nBATON ROUGE, LA\n(30.439764, -91.007748)", '2', '200 5TH ST\nBATON ROUGE, LA\n(30.448312, -91.185785)', '200 CONVENTION ST\nBATON ROUGE, LA\n(30.448213, -91.189178)', '200 E I12\nBATON ROUGE, LA', '200 FLORIDA ST\nBATON ROUGE, LA\n(30.449289, -91.189605)', '200 GOVERNMENT ST\nBATON ROUGE, LA\n(30.443256, -91.189177)', '200 MAYFLOWER ST\nBATON ROUGE, LA\n(30.440741, -91.188017)', '200 OCEAN DR\nBATON ROUGE, LA\n(30.449411, -91.114873)', '200 TOWER\nBATON ROUGE, LA 70820', '200 TOWER DR\nBATON ROUGE, LA', '2000 BRIGHTSIDE\nBATON ROUGE, LA 70820\n(30.388136, -91.18086)', '2000 BRIGHTSIDE DR\nBATON ROUGE, LA\n(30.388113, -91.180678)', '2000 ELLERSLIE ST\nBATON ROUGE, LA\n(30.461785, -91.168701)', '2000 MAY ST\nBATON ROUGE, LA', '2004 PLANK RD\nBATON ROUGE, LA\n(30.466069, -91.164909)', '2005-08-07 00:00:00', '2006-08-07 00:00:00', '201 COMMUNITY COLLEGE DR\nBATON ROUGE, LA\n(30.449549, -91.135986)', '2011 VICKERS\nBATON ROUGE, LA 70815\n(30.466772, -91.050553)', '2012', '2015 BAY ST\nBATON ROUGE, LA\n(30.462486, -91.168682)', '2020 ONEAL LN\nBATON ROUGE, LA\n(30.439522, -91.007571)', '2021 SCENIC GARDENS AV\nBATON ROUGE, LA\n(30.509516, -91.170902)', '2027 N 15TH\nBATON ROUGE, LA\n(30.465833, -91.174349)', '2045 SHERWOOD MEADOW DR\nBATON ROUGE, LA\n(30.434491, -91.051911)', '2052 DALLAS DR\nBATON ROUGE, LA\n(30.468796, -91.112269)', '2060 ONEAL\nBATON ROUGE, LA 70816\n(30.438533, -91.007511)', '20802', '2083 DALLAS DR\nBATON ROUGE, LA\n(30.469287, -91.112632)', '2092', '2100 71ST\nBATON ROUGE, LA 70807\n(30.513626, -91.170954)', '2100 COLLEGE DR\nBATON ROUGE, LA\n(30.429622, -91.135541)', '2100 CONVENTION ST\nBATON ROUGE, LA\n(30.448898, -91.166449)', '2100 GOVERNMENT ST\nBATON ROUGE, LA\n(30.443868, -91.166829)', '2100 IROQUOIS ST\nBATON ROUGE, LA\n(30.47206, -91.1683)', '2100 LEE DR\nBATON ROUGE, LA\n(30.413969, -91.144893)', '2100 PLANK RD\nBATON ROUGE, LA\n(30.466744, -91.164668)', '2105 PERICLES DR\nBATON ROUGE, LA\n(30.43024, -91.162141)', '2106 68TH AV\nBATON ROUGE, LA\n(30.511585, -91.170713)', '211 LAKECREST AV\nBATON ROUGE, LA\n(30.542274, -91.199697)', '2116 DAVENPORT DR\nBATON ROUGE, LA\n(30.557829, -91.171211)', '2121 HIGHLAND RD\nBATON ROUGE, LA\n(30.427908, -91.181013)', '2124 KLEINERT AV\nBATON ROUGE, LA\n(30.4376, -91.166121)', '2135 ALABAMA ST\nBATON ROUGE, LA\n(30.427731, -91.177584)', '2136 BATEMAN CR\nBATON ROUGE, LA', '2136 MISSOURI ST\nBATON ROUGE, LA\n(30.42799, -91.172253)', '2137 ELKWOOD AV\nBATON ROUGE, LA\n(30.437803, -91.009571)', '2139 GAYOSA DR\nBATON ROUGE, LA\n(30.454206, -91.166558)', '2139 GAYOSA ST\nBATON ROUGE, LA\n(30.454206, -91.166558)', '214 3RD ST\nBATON ROUGE, LA\n(30.448604, -91.188218)', '2141 SHADY OAKS DR\nBATON ROUGE, LA\n(30.468721, -91.051518)', '2153 GOUDCHAUX\nBATON ROUGE, LA 70805\n(30.510873, -91.170239)', '2159 WISTERIA ST\nBATON ROUGE, LA\n(30.443008, -91.165577)', '2175 OLEANDER ST\nBATON ROUGE, LA\n(30.442153, -91.165436)', '2177 PALISADES DR\nBATON ROUGE, LA\n(30.469434, -91.073637)', '220 ST VINCENT DE PAUL PL\nBATON ROUGE, LA\n(30.449137, -91.172735)', '2200 COLLEGE DR\nBATON ROUGE, LA\n(30.428241, -91.136322)', '2200 EDGEWOOD DR\nBATON ROUGE, LA\n(30.454911, -91.166064)', '2200 HIGHLAND RD\nBATON ROUGE, LA\n(30.426906, -91.180554)', '2200 KAUFMAN ST\nBATON ROUGE, LA\n(30.510247, -91.168913)', '2200 NORTH BL\nBATON ROUGE, LA\n(30.453151, -91.166066)', '2200 STARING LN\nBATON ROUGE, LA', '2205 S SHERWOOD FORREST\nBATON ROUGE, LA', '2205 WISTERIA ST\nBATON ROUGE, LA\n(30.443021, -91.16498)', '2217 DOVE HOLLOW\nBATON ROUGE, LA 70809', '2225 COLLEGE DR\nBATON ROUGE, LA\n(30.428823, -91.135986)', '2226 WOODALE BL\nBATON ROUGE, LA', '2228 SAN CLEMENTE DR\nBATON ROUGE, LA\n(30.470047, -91.072616)', '223 FERNWOOD DR\nBATON ROUGE, LA\n(30.45325, -91.102543)', '2233 CEDARCREST\nBATON ROUGE, LA 70816\n(30.431187, -91.066519)', '2237 S ACADIAN THRUWAY\nBATON ROUGE, LA\n(30.426353, -91.15068)', '224 EDISON ST\nBATON ROUGE, LA\n(30.447167, -91.147168)', '2240 ONEAL\nBATON ROUGE, LA 70816\n(30.43629, -91.007549)', '2245 COLLEGE DR\nBATON ROUGE, LA\n(30.428088, -91.136415)', '2250 CHIPPEWA ST\nBATON ROUGE, LA\n(30.473078, -91.167396)', '2251 MAIN STREET\nBATON ROUGE, LA 70802\n(30.452112, -91.164767)', '2253 GEORGIA ST\nBATON ROUGE, LA\n(30.4262, -91.1</t>
+        <v>1</v>
+      </c>
+      <c r="X15" t="n">
+        <v>550730</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>['(Null)', 'LA']</t>
         </is>
       </c>
     </row>
@@ -1665,10 +1787,10 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>260190</v>
+        <v>267773</v>
       </c>
       <c r="E16" t="n">
-        <v>260190</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1683,19 +1805,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K16" t="n">
         <v>-1</v>
       </c>
       <c r="L16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="N16" t="n">
-        <v>89</v>
+        <v>121010</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -1713,24 +1835,32 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>701</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>40337</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>(Null)</t>
+        </is>
       </c>
       <c r="V16" t="n">
-        <v>825647</v>
+        <v>121010</v>
       </c>
       <c r="W16" t="n">
-        <v>4741</v>
-      </c>
-      <c r="X16" t="inlineStr">
-        <is>
-          <t>['0.613194444', '1', '1 DALRYMPLE DR\nBATON ROUGE, LA 70802\n(30.415783, -91.176362)', '1 DALRYMPLE DR\nBATON ROUGE, LA 70820\n(30.415783, -91.176362)', '10', '100', '100 CHOCTAW DR\nBATON ROUGE, LA 70805', '100 DALRYMPLE DR\nBATON ROUGE, LA 70820', '100 E BOYD\nBATON ROUGE, LA 70820\n(30.403577, -91.172286)', '100 E BOYD DR\nBATON ROUGE, LA\n(30.403577, -91.172286)', '100 E CHIMES\nBATON ROUGE, LA 70802\n(30.417243, -91.176423)', '100 E I10\nBATON ROUGE, LA 70802', '100 E I10 HW\nBATON ROUGE, LA', '100 E STATE ST\nBATON ROUGE, LA\n(30.418207, -91.176576)', '100 FIELD HOUSE DR\nBATON ROUGE, LA 70820', '100 FLORIDA ST\nBATON ROUGE, LA 70802\n(30.449273, -91.190404)', '100 LAFAYETTE ST\nBATON ROUGE, LA 70802\n(30.447098, -91.189332)', '100 N 25 ST\nBATON ROUGE, LA\n(30.447979, -91.162635)', '100 N ARDENWOOD DR\nBATON ROUGE, LA\n(30.451664, -91.127403)', '100 NORTH BL\nBATON ROUGE, LA 70808\n(30.447053, -91.190145)', '100 NORTH ST\nBATON ROUGE, LA 70802\n(30.45242687800004, -91.190291939999952)', '100 SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '100 TOWER DR\nBATON ROUGE, LA 70820', '100 W PARKER\nBATON ROUGE, LA 70820\n(30.40454, -91.17369)', '1000 BOB PETTITE DR\nBATON ROUGE, LA 70805', '1000 CHEVELLE DR\nBATON ROUGE, LA 70806\n(30.440747, -91.098509)', '1000 EAST I-10 HW\nBATON ROUGE, LA 70816', '1000 GOVERNMENT ST\nBATON ROUGE, LA 70802\n(30.443471, -91.179801)', '1000 MAIN ST\nBATON ROUGE, LA 70806\n(30.451681, -91.179349)', '1000 N 23RD ST\nBATON ROUGE, LA\n(30.459306, -91.164953)', '1000 SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '1000 SIMMS ST\nBATON ROUGE, LA 70807\n(30.522308, -91.182682)', '10000 AIRLINE HW\nBATON ROUGE, LA 70816\n(30.420375, -91.072703)', '10000 AVENUE I ST\nBATON ROUGE, LA 70807\n(30.534986, -91.197924)', '10000 DAWNADELE AV\nBATON ROUGE, LA 70816\n(30.420062, -91.072749)', '10000 E POMONA DR\nBATON ROUGE, LA\n(30.461372, -91.073709)', '10000 FLORIDA BL\nBATON ROUGE, LA 70815', '10000 GOODWOOD BL\nBATON ROUGE, LA 70815\n(30.443634, -91.07693)', '10000 RED OAK DR\nBATON ROUGE, LA 70815\n(30.462702845000024, -91.064967333999959)', '10002 AVE I ST\nBATON ROUGE, LA 70807\n(30.53501, -91.197926)', '10008 AVE L ST\nBATON ROUGE, LA 70807\n(30.535301, -91.200682)', '10008 AVENUE M ST\nBATON ROUGE, LA 70807\n(30.535185, -91.201608)', '1001 COLUMBUS DUNN AV\nBATON ROUGE, LA 70805\n(30.457275, -91.144217)', '10010 KAREN DR\nBATON ROUGE, LA 70815\n(30.459464, -91.073252)', '10023 MAMMOTH AV\nBATON ROUGE, LA 70814\n(30.475453, -91.075696)', '10025 AVENUE H ST\nBATON ROUGE, LA 70807\n(30.535802, -91.197015)', '1003 AVE L ST\nBATON ROUGE, LA 70807', '1003 BOB PETIT DR\nBATON ROUGE, LA 70808', '1003 BOB PETTIT DR\nBATON ROUGE, LA 70820\n(30.396451, -91.178491)', '10037 AVE H AV\nBATON ROUGE, LA 70807\n(30.535875, -91.197017)', '10037 AVENUE H AV\nBATON ROUGE, LA 70807\n(30.535875, -91.197017)', '10037 AVENUE H ST\nBATON ROUGE, LA 70807\n(30.535875, -91.197017)', '10038 S CHOCTAW\nBATON ROUGE, LA 70815\n(30.472022, -91.073539)', '1004 PATRICIA ST\nBATON ROUGE, LA 70714\n(30.585015, -91.15598)', '10040 S CHOCTAW DR\nBATON ROUGE, LA\n(30.472022, -91.073515)', '10041 FLORIDA BL\nBATON ROUGE, LA 70802', '10041 FLORIDA BL\nBATON ROUGE, LA 70815', '10043 SUNNY CLINE DR\nBATON ROUGE, LA 70814\n(30.485756, -91.072721)', '10045 GWENADALE AV\nBATON ROUGE, LA 70816', '10045 GWENADELE AV\nBATON ROUGE, LA 70816\n(30.426459, -91.076436)', '10053 BETA DR\nBATON ROUGE, LA 70815\n(30.487957, -91.072769)', '10053 BETA DR\nBATON ROUGE, LA 70816\n(30.487957, -91.072769)', '10058 AVENUE K AV\nBATON ROUGE, LA 70815\n(30.535458, -91.199777)', '10058 S CHOCTAW DR\nBATON ROUGE, LA\n(30.47203, -91.073203)', '10064 RED OAK DR\nBATON ROUGE, LA 70815', '10065 OLD HAMMOND HW\nBATON ROUGE, LA 70815\n(30.432151, -91.075526)', '1007 PROGRESS ST\nBATON ROUGE, LA 70805\n(30.457537, -91.158135)', '10085 GREAT SMOKEY AV\nBATON ROUGE, LA 70814\n(30.478692, -91.072213)', '10088 AVE G ST\nBATON ROUGE, LA 70807\n(30.536104, -91.196072)', '10095 AVE A ST\nBATON ROUGE, LA 70807\n(30.536344, -91.190512)', '10100 GOODWOOD AV\nBATON ROUGE, LA 70802', '10100 GOODWOOD BL\nBATON ROUGE, LA 70815\n(30.443623, -91.075708)', '10101 COURSEY BL\nBATON ROUGE, LA 70816\n(30.416591, -91.069566)', '10108 G AV\nBATON ROUGE, LA 70805', '1011 N BON MARCHE\nBATON ROUGE, LA 70805\n(30.459199, -91.115886)', '1011 N BON MARCHE DR\nBATON ROUGE, LA\n(30.459819, -91.115529)', '10111 GWENADELLE DR\nBATON ROUGE, LA 70815', '10113 MOLLYLEA DR\nBATON ROUGE, LA 70815\n(30.452521, -91.074169)', '10120 WHITE OAK DR\nBATON ROUGE, LA 70815\n(30.465858, -91.071516)', '10123 BLACK OAK DR\nBATON ROUGE, LA 70816\n(30.464305, -91.071423)', '10124 CLETUS DR\nBATON ROUGE, LA 70815\n(30.468629, -91.071282)', '10125 GOODWOOD BL\nBATON ROUGE, LA 70815\n(30.443728, -91.075371)', '10130 COURSEY BL\nBATON ROUGE, LA 70816\n(30.416624, -91.069507)', '10130 GREENWELL SPRINGS RD\nBATON ROUGE, LA 70814\n(30.490815, -91.071919)', '10131 GRANDEUR DR\nBATON ROUGE, LA 70815\n(30.437836, -91.075113)', '10131 GRANDUER DR\nBATON ROUGE, LA 70815\n(30.437844, -91.074814)', '10136 FLORIDA BL\nBATON ROUGE, LA 70815', '1014 PROGRESS ST\nBATON ROUGE, LA 70802\n(30.457866, -91.158151)', '10140 WHITE OAK DR\nBATON ROUGE, LA 70815\n(30.465858, -91.071449)', '10145 FLORIDA BL\nBATON ROUGE, LA 70815', '10145 RED OAK DR\nBATON ROUGE, LA 70815\n(30.462719, -91.071434)', '10154 BOWMAN AV\nBATON ROUGE, LA 70807\n(30.537043, -91.184298)', '10155 TAMS DR\nBATON ROUGE, LA 70815\n(30.46735, -91.070822)', '10165 BLACK OAK DR\nBATON ROUGE, LA 70815\n(30.464306, -91.071127)', '10165 DARRYL DR\nBATON ROUGE, LA 70815\n(30.470868, -91.071265)', '10174 AIRLINE HW\nBATON ROUGE, LA 70816\n(30.418617, -91.071451)', '102 FRANCE ST\nBATON ROUGE, LA 70802\n(30.442766, -91.189154)', '102 FRANCE ST\nBATON ROUGE, LA 70805\n(30.442757, -91.189446)', '102 FRANCE ST\nBATON ROUGE, LA 70806\n(30.442757, -91.189446)', '102 FRANCE ST\nBATON ROUGE, LA 70807\n(30.442757, -91.189446)', '102 S ACADIAN\nBATON ROUGE, LA 70802\n(30.448505, -91.154601)', '1020 MARLBROOK DR\nBATON ROUGE, LA 70815\n(30.446047, -91.062457)', '1020 MARLBROOK DR\nBATON ROUGE, LA 70816\n(30.447778, -91.062476)', '1020 N ARDENWOOD DR\nBATON ROUGE, LA\n(30.458859, -91.127659)', '10200 AVE J ST\nBATON ROUGE, LA 70805\n(30.53708, -91.19891)', '10200 JANICE ST\nBATON ROUGE, LA 70816\n(30.421015, -91.070701)', '10207 AVE J ST\nBATON ROUGE, LA 70807\n(30.53689, -91.198903)', '10209 AVE M ST\nBATON ROUGE, LA 70807\n(30.537066, -91.201695)', '10209 AVENUE M ST\nBATON ROUGE, LA 70807\n(30.537066, -91.201695)', '10210 AVE L ST\nBATON ROUGE, LA 70807\n(30.537057, -91.200751)', '10210 L AV\nBATON ROUGE, LA 70805', '10213 BALLINA AV\nBATON ROUGE, LA 70816\n(30.454405, -91.073572)', '10215 RUNNYMEDE AV\nBATON ROUGE, LA 70815\n(30.432911, -91.073318)', '1022 SWAN AV\nBATON ROUGE, LA 70807\n(30.523658, -91.183081)', '10223 CASHEL AV\nBATON ROUGE, LA 70815\n(30.453286, -91.073021)', '10224 BLACK OAK DR\nBATON ROUGE, LA 70815\n(30.464307, -91.070811)', '10224 FLORIDA BL\nBATON ROUGE, LA 70815', '10230 MOLLYLEA DR\nBATON ROUGE, LA 70815\n(30.452557, -91.071627)', '10235 BROWNING DR\nBATON ROUGE, LA 70816\n(30.441, -91.07348)', '10236 AVE H AV\nBATON ROUGE, LA 70807\n(30.537413, -91.19708)', '10240 JANICE ST\nBATON ROUGE, LA 70816\n(30.420866, -91.07108)', '10245 AIRLINE HW\nBATON ROUGE, LA 70815', '10245 AIRLINE HW\nBATON ROUGE, LA 70816\n(30.418948, -91.07153)', '10245 AVE E ST\nBATON ROUGE, LA 70807', '10248 BIG BEND AV\nBATON ROUGE, LA 70814\n(30.480226, -91.070344)', '1025 AUDUBON DR\nBATON ROUGE, LA 70807\n(30.439942, -91.1201)', '1025 LOUISIANA ST\nBATON ROUGE, LA 70802\n(30.445095, -91.178546)', '1025 PROGRESS RD\nBATON ROUGE, LA 70807\n(30.537482, -91.183595)', '10250 PLAZA AMERICANA DR\nBATON ROUGE, LA 70815\n(30.426616, -91.073298)', '10250 PLAZA AMERICANA DR\nBATON ROUGE, LA 70816\n(30.426483, -91.073962)', '10261 TWIN CEDARS ST\nBATON ROUGE, LA 70815\n(30.424602, -91.067376)', '10264 CLETUS DR\nBATON ROUGE, LA 70816\n(30.468629, -91.070451)', '10275 TAMS DR\nBATON ROUGE, LA 70815\n(30.467346, -91.070507)', '10278 GOODWOOD BL\nBATON ROUGE, LA 70815\n(30.444041, -91.073524)', '1031 COLUMBUS DUNN DR\nBATON ROUGE, LA 70805\n(30.457624, -91.144233)', '10311 PLAZA AMERICANA DR\nBATON ROUGE, LA 70816\n(30.426606, -91.07368)', '10315 S PERDUE AV\nBATON ROUGE, LA\n(30.473365, -91.069797)', '10319 MAMMOTH AV\nBATON ROUGE, LA 70814\n(30.477317, -91.072344)', '10319 OLD HAMMOND HW\nBATON ROUGE, LA 70815\n(30.43275, -91.073138)', '1033 SWAN AV\nBATON ROUGE, LA 70805\n(30.523659, -91.182988)', '10330 AIRLINE HW\nBATON ROUGE, LA 70816\n(30.416793, -91.070176)', '10332 PLAZA AMERICANA DR\nBATON ROUGE, LA 70816\n(30.426612, -91.072695)', '10333 AVE K AV\nBATON ROUGE, LA 70807\n(30.538249, -91.199891)', '10333 PATRICIA DR\nBATON ROUGE, LA 70815\n(30.423639, -91.066101)', '10337 ELM GROVE GARDEN DR\nBATON ROUGE, LA 70807\n(30.539504, -91.169533)', '10338 NELWYN DR\nBATON ROUGE, LA 70814\n(30.489978, -91.069176)', '10345 CYPRUS CEDAR DR\nBATON ROUGE, LA 70816\n(30.43208, -91.071642)', '1035 BAYBERRY AV\nBATON ROUGE, LA 70807\n(30.540058, -91.184032)', '10352 GERALD DR\nBATON ROUGE, LA 70815\n(30.469843, -91.069267)', '10354 OLD HAMMOND HW\nBATON ROUGE, LA 70815\n(30.433176, -91.071488)', '10362 GREENWELL SPRINGS RD\nBATON ROUGE, LA 70814\n(30.49193437100007, -91.068969882999966)', '10365 CLETUS DR\nBATON ROUGE, LA 70815\n(30.468629, -91.069389)', '10366 CLETUS DR\nBATON ROUGE, LA 70816\n(30.468629, -91.069529)', '10372 BLACK OAK DR\nBATON ROUGE, LA 70815\n(30.464305, -91.069364)', '10386 CINQUEFOIL AV\nBATON ROUGE, LA 70815\n(30.429108, -91.070637)', '10389 AIRLINE HW\nBATON ROUGE, LA 70815', '10389 AIRLINE HW\nBATON ROUGE, LA 70816\n(30.414488, -91.068218)', '10391 AIRLINE HW\nBATON ROUGE, LA 70815', '10391 AIRLINE HW\nBATON ROUGE, LA 70816\n(30.414466, -91.068199)', '1040 LOBDELL AV\nBATON ROUGE, LA 70806\n(30.439871, -91.110692)', '10401 AIRLINE HW\nBATON ROUGE, LA 70816\n(30.414355, -91.068105)', '10407 TOLEDO BEND AV\nBATON ROUGE, LA 70814\n(30.484658, -91.068229)', '10415 PLAZA AMERICANA DR\nBATON ROUGE, LA 70816\n(30.426971, -91.071412)', '10418 FLORIDA BL\nBATON ROUGE, LA 70815', '10418 FLORIDA BL\nBATON ROUGE, LA 70816', '1042 MONET DR\nBATON ROUGE, LA 70804\n(30.459511, -91.11743)', '10424 BLACK OAK DR\nBATON ROUGE, LA 70815\n(30.464304, -91.069038)', '10425 AIRLINE HW\nBATON ROUGE, LA 70816\n(30.414088, -91.067878)', '10425 PLAZA AMERICANA DR\nBATON ROUGE, LA 70816\n(30.426964, -91.070772)', '1043 N 37TH ST\nBATON ROUGE, LA\n(30.457658, -91.152745)', '10434 PLAZA AMERICANA DR\nBATON ROUGE, LA 70815\n(30.426963, -91.07072)', '1044 SHERWOOD FOREST BL\nBATON ROUGE, LA 70815', '10440 GERALD DR\nBATON ROUGE, LA 70815\n(30.469842, -91.068575)', '10442 S CHOCTAW\nBATON ROUGE, LA 70815\n(30.472177, -91.068256)', '10444 OLD HAMMOND HW\nBATON ROUGE, LA 70815\n(30.433507, -91.070193)', '10449 BROWNING DR\nBATON ROUGE, LA 70815\n(30.441022, -91.070388)', '10450 DARRYL DR\nBATON ROUGE, LA 70816\n(30.470871, -91.068352)', '10453 STARLIGHT AV\nBATON ROUGE, LA 70816\n(30.435962, -91.071056)', '10454 WHITE OAK DR\nBATON ROUGE, LA 70815\n(30.465857, -91.068735)', '10463 ZERLEE ST\nBATON ROUGE, LA 70807\n(30.539972, -91.178368)', '10466 RED OAK DR\nBATON ROUGE, LA 70815\n(30.462698, -91.068417)', '1047 LAUREL ST\nBATON ROUGE, LA 70802\n(30.450643, -91.179086)', '1047 N 47TH ST\nBATON ROUGE, LA\n(30.457965, -91.142651)', '10470 OLD HAMMOND HW\nBATON ROUGE, LA 70816\n(30.433638, -91.069674)', '10473 OLD HAMMOND HW\nBATON ROUGE, LA 70816\n(30.433755, -91.069208)', '10477 LEBANON ST\nBATON ROUGE, LA 70816\n(30.431164, -91.069083)', '10485 CLASSIQUE AV\nBATON ROUGE, LA 70815\n(30.436946, -91.069949)', '10485 GERALD DR\nBATON ROUGE, LA 70815\n(30.469844, -91.068076)', '10490 CLASSIQUE AV\nBATON ROUGE, LA 70815\n(30.43695, -91.069751)', '10500 CLETUS DR\nBATON ROUGE, LA 70815\n(30.468627, -91.067988)', '10500 COURSEY BL\nBATON ROUGE, LA 70816\n(30.417257, -91.064425)', '10520 WHITE OAK DR\nBATON ROUGE, LA 70815\n(30.465853, -91.067901)', '10523 RED OAK DR\nBATON ROUGE, LA 70815\n(30.462699, -91.067927)', '10525 PLAZA AMERICANA DR\nBATON ROUGE, LA 70816\n(30.42695, -91.069801)', '10530 FLORIDA BL\nBATON ROUGE, LA 70815', '10530 FLORIDA BL\nBATON ROUGE, LA 70816', '10530 FLORIDA BL\nBATON ROUGE, LA 70816\n(30.457108086000062, -91.067513749999989)', '10534 BROWNING DR\nBATON ROUGE, LA 70815\n(30.440982774000076, -91.069290216999946)', '10535 OLD HAMMOND HW\nBATON ROUGE, LA 70815\n(30.433872, -91.06875)', '1054 FOXLANE DR\nBATON ROUGE, LA 70819\n(30.470999, -91.025338)', '10540 WHITE OAK DR\nBATON ROUGE, LA 70815\n(30.465852, -91.06758)', '10548 AVE E ST\nBATON ROUGE, LA 70807', '1055 LAUREL ST\nBATON ROUGE, LA 70805\n(30.450645, -91.179028)', '10550 FLORIDA BL\nBATON ROUGE, LA 70815', '10550 FLORIDA BL\nBATON ROUGE, LA 70816', '10558 CLASSIQUE DR\nBATON ROUGE, LA 70815\n(30.436953, -91.068763)', '10565 FLORIDA BL\nBATON ROUGE, LA 70815', '10575 KENLEE ST\nBATON ROUGE, LA 70815\n(30.44281, -91.069915)', '10588 WHITE OAK DR\nBATON ROUGE, LA 70815\n(30.465849, -91.066945)', '10599 LEBANON ST\nBATON ROUGE, LA 70815\n(30.431524, -91.067826)', '1060 NICHOLSON DR\nBATON ROUGE, LA 70808\n(30.437653, -91.187324)', '10600 FLORIDA BL\nBATON ROUGE, LA 70816', '10604 BIG BEND AV\nBATON ROUGE, LA 70815\n(30.480348, -91.066232)', '10610 FLORIDA BL\nBATON ROUGE, LA 70815', '10611 PLAZA AMERICANA DR\nBATON ROUGE, LA 70816\n(30.427217, -91.068411)', '10624 DARRYL DR\nBATON ROUGE, LA 70815\n(30.470889, -91.066463)', '10625 FLORIDA BL\nBATON ROUGE, LA 70815', '10645 RHUS FRINGE DR\nBATON ROUGE, LA 70816\n(30.432627, -91.067301)', '1065 DEMBO DR\nBATON ROUGE, LA 70816', '1065 ORIOLE ST\nBATON ROUGE, LA 70807\n(30.528293, -91.182658)', '10650 AVE F ST\nBATON ROUGE, LA 70807\n(30.540713, -91.195358)', '10650 AVE ST\nBATON ROUGE, LA 70807', '10650 AVENUE F AV\nBATON ROUGE, LA 70807\n(30.540713, -91.195358)', '10650 AVENUE F ST\nBATON ROUGE, LA 70807\n(30.540713, -91.195358)', '10650 F AV\nBATON ROUGE, LA 70807', '10655 FLORIDA BL\nBATON ROUGE, LA 70815', '1066 SCOTLAND AV\nBATON ROUGE, LA 70807', '10662 GERALD DR\nBATON ROUGE, LA 70815\n(30.469829, -91.066372)', '10666 SCOTLAND AV\nBATON ROUGE, LA 70807\n(30.54204, -91.177056)', '10686 GERALD DR\nBATON ROUGE, LA 70815\n(30.469812, -91.065787)', '10687 ZERLEE ST\nBATON ROUGE, LA 70807\n(30.542092, -91.177912)', '10689 RHUS FRINGE DR\nBATON ROUGE, LA 70815\n(30.432625, -91.066615)', '10700 OLD HAMMOND HW\nBATON ROUGE, LA 70816\n(30.434517, -91.066212)', '10705 OLD HAMMOND HW\nBATON ROUGE, LA 70816\n(30.434434, -91.066549)', '10710 GREENWELL SPRINGS RD\nBATON ROUGE, LA 70815\n(30.493429, -91.064888)', '10723 DARRYL DR\nBATON ROUGE, LA 700815\n(30.470928, -91.065193)', '10724 WHITE OAK DR\nBATON ROUGE, LA 70815\n(30.465844, -91.065495)', '10726 LYNELL ST\nBATON ROUGE, LA 70815\n(30.442041, -91.068563)', '10732 FLORIDA BL\nBATON ROUGE, LA 70816', '10736 RONDO AV\nBATON ROUGE, LA 70815\n(30.440036, -91.066716)', '10738 OLD HAMMOND HW\nBATON ROUGE, LA 70814\n(30.434642, -91.065738)', '10738 OLD HAMMOND HW\nBATON ROUGE, LA 70815\n(30.434642, -91.065738)', '10738 OLD HAMMOND HW\nBATON ROUGE, LA 70816\n(30.434642, -91.065738)', '10743 SANDRINGHAM AV\nBATON ROUGE, LA 70815\n(30.450284, -91.064431)', '1076 N ARDENWOOD DR\nBATON ROUGE, LA\n(30.459875, -91.127709)', '10760 FLORIDA BL\nBATON ROUGE, LA 70816', '10770 FLORIDA BL\nBATON ROUGE, LA 70815', '10770 FLORIDA BL\nBATON ROUGE, LA 70816', '10786 CLETUS DR\nBATON ROUGE, LA 70815\n(30.468623, -91.063773)', '10787 RED OAK DR\nBATON ROUGE, LA 70815\n(30.462699, -91.064537)', '10822 EFFRINGHAM AV\nBATON ROUGE, LA 70816\n(30.44882, -91.063441)', '10823 SCENIC HW\nBATON ROUGE, LA 70807\n(30.542467, -91.192199)', '10828 FLORIDA BL\nBATON ROUGE, LA 70815', '10835 BLACK OAK DR\nBATON ROUGE, LA 70816\n(30.464305, -91.06408)', '10838 GREENWELL SPRINGS RD\nBATON ROUGE, LA 70814\n(30.493708, -91.062901)', '10842 MAY BELLE CT\nBATON ROUGE, LA 70816\n(30.453747, -91.064017)', '10843 GOODWOOD BL\nBATON ROUGE, LA 70815\n(30.4479, -91.063207)', '10850 LYNELL ST\nBATON ROUGE, LA 70815\n(30.44212, -91.066753)', '10863 BLACK OAK DR\nBATON ROUGE, LA 70816\n(30.464306, -91.063754)', '10888 SCOTLAND AV\nBATON ROUGE, LA 70805\n(30.545217, -91.176396)', '10900 MEAD RD\nBATON ROUGE, LA 70816\n(30.428867, -91.059715)', '10900 TAMS DR\nBATON ROUGE, LA 70815\n(30.466897, -91.063277)', '10900 VETERANS MEMORIAL BL\nBATON ROUGE, LA 70807', '10905 KINGFISHER AV\nBATON ROUGE, LA 70807\n(30.542821, -91.193428)', '10911 ROSEBUD CT\nBATON ROUGE, LA 70816\n(30.439109, -91.065678)', '10913 CEDAR BEND AV\nBATON ROUGE, LA 70816\n(30.483996, -91.063446)', '10920 MEAD RD\nBATON ROUGE, LA 70816\n(30.42894, -91.059182)', '10922 BELARBOR DR\nBATON ROUGE, LA 70815\n(30.439739, -91.062713)', '10923 CLASSIQUE AV\nBATON ROUGE, LA 70815\n(30.438196, -91.066173)', '10925 FLORIDA BL\nBATON ROUGE, LA 70815', '10926 OLD HAMMOND HW\nBATON ROUGE, LA 70816\n(30.43529, -91.063161)', '10927 MAJOR OAK DR\nBATON ROUGE, LA 70816', '10940 BLACK OAK DR\nBATON ROUGE, LA 70815\n(30.464296, -91.063015)', '10943 CLASSIQUE AV\nBATON ROUGE, LA 70815\n(30.43818858700007, -91.065799201999937)', '10950 DARRYL DR\nBATON ROUGE, LA 70815\n(30.471027, -91.061794)', '10950 DARRYL DR\nBATON ROUGE, LA 70816\n(30.47103, -91.062163)', '10959 BURTON AV\nBATON ROUGE, LA 70815\n(30.440589, -91.062053)', '10962 RED OAK DR\nBATON ROUGE, LA 70815\n(30.46299, -91.062349)', '10963 MAY BELLE CT\nBATON ROUGE, LA 70815\n(30.453831, -91.06222)', '10970 FLORIDA BL\nBATON ROUGE, LA 70815', '10982 GREENWELL SPRINGS RD\nBATON ROUGE, LA 70814\n(30.493691, -91.061229)', '10982 GREENWELL SPRINGS RD\nBATON ROUGE, LA 70815\n(30.493685, -91.060939)', '10982 GREENWELL SPRINGS RD\nBATON ROUGE, LA 70816\n(30.493685, -91.060939)', '110 S FOSTER DR\nBATON ROUGE, LA\n(30.448309, -91.138894)', '110 S FOSTER ST\nBATON ROUGE, LA\n(30.448572, -91.138907)', '1100 BOB PETITE BL\nBATON ROUGE, LA 70820\n(30.396322, -91.178968)', '1100 BOB PETTIT BL\nBATON ROUGE, LA 70802\n(30.396322, -91.178968)', '1100 BOB PETTIT BL\nBATON ROUGE, LA 70820\n(30.396322, -91.178968)', '1100 BOB PETTIT DR\nBATON ROUGE, LA 70820\n(30.396322, -91.178968)', '1100 OWL ST\nBATON ROUGE, LA 70807\n(30.522982, -91.182011)', '1100 S 15TH ST\nBATON ROUGE, LA\n(30.438419, -91.173206)', '1100 S FOSTER DR\nBATON ROUGE, LA\n(30.439048, -91.133877)', '11000 GREENWELL SPRINGS RD\nBATON ROUGE, LA 70814\n(30.493659, -91.060052)', '11005 CEDAR BEND AV\nBATON ROUGE, LA 70814\n(30.484345, -91.062223)', '11010 COURSEY BL\nBATON ROUGE, LA 70816\n(30.414827, -91.058222)', '11014 CHALICE DR\nBATON ROUGE, LA 70815\n(30.468106, -91.061918)', '11015 CHALICE DR\nBATON ROUGE, LA 70815\n(30.468195, -91.061873)', '11024 MAJOR OAK DR\nBATON ROUGE, LA 70816', '11024 RED OAK DR\nBATON ROUGE, LA 70815\n(30.463079, -91.062021)', '11025 CATALPA DR\nBATON ROUGE, LA 70815\n(30.465639, -91.061713)', '11026 BLACK OAK DR\nBATON ROUGE, LA 70815\n(30.46414, -91.062136)', '1103 PARK BL\nBATON ROUGE, LA 70816', '11036 BLACK OAK DR\nBATON ROUGE, LA 70815\n(30.464121, -91.061918)', '1105 DEVALL LN\nBATON ROUGE, LA 70807', '1105 N 44TH ST\nBATON ROUGE, LA\n(30.458663, -91.14508)', '1105 N 46TH ST\nBATON ROUGE, LA\n(30.458513, -91.143446)', '11055 DEVALL LN\nBATON ROUGE, LA 70807\n(30.545416, -91.15101)', '11064 RED OAK DR\nBATON ROUGE, LA 70815\n(30.463178, -91.061632)', '11070 MEAD RD\nBATON ROUGE, LA 70815\n(30.429006, -91.057742)', '11070 MEAD RD\nBATON ROUGE, LA 70816\n(30.429006, -91.057742)', '11072 TAMS DR\nBATON ROUGE, LA 70815\n(30.4669, -91.061269)', '1109 N 31ST ST\nBATON ROUGE, LA\n(30.459411, -91.157418)', '111 N FOSTER DR\nBATON ROUGE, LA\n(30.448772, -91.138916)', '1110 BALSAM AV\nBATON ROUGE, LA 70807\n(30.540918, -91.183208)', '1110 N ARDENWOOD DR\nBATON ROUGE, LA\n(30.460075, -91.127719)', '11100 BOARDWALK DR\nBATON ROUGE, LA 70816\n(30.431653, -91.060417)', '11100 SUSAN DR\nBATON ROUGE, LA 70815\n(30.461485, -91.06034)', '11101 MOLLYLEA DR\nBATON ROUGE, LA 70815\n(30.452584, -91.060546)', '1111 VALCOUR DR\nBATON ROUGE, LA 70805\n(30.458652, -91.135456)', "11111 N HARRELL'S FERRY RD\nBATON ROUGE, LA\n(30.432817, -91.060468)", '11119 TAMS DR\nBATON ROUGE, LA 70815\n(30.466903, -91.06064)', '1113 NAPOLEON ST\nBATON ROUGE, LA 70816\n(30.437487, -91.183444)', '11135 RED OAK DR\nBATON ROUGE, LA 70815\n(30.463406, -91.060699)', '11140 BOARDWALK DR\nBATON ROUGE, LA 70815\n(30.431634, -91.060037)', '11140 BOARDWALK DR\nBATON ROUGE, LA 70816\n(30.431636, -91.059926)', '11140 N HARRELLS FERRY RD\nBATON ROUGE, LA\n(30.432805, -91.05959)', '1115 BOB PETTIT BL\nBATON ROUGE, LA 70808\n(30.396109, -91.179287)', '1115 BOB PETTIT BL\nBATON ROUGE, LA 70816\n(30.396109, -91.179287)', '1115 GOVERNMENT ST\nBATON ROUGE, LA 70802\n(30.443595, -91.17691)', '1115 N 35TH ST\nBATON ROUGE, LA\n(30.458198, -91.15436)', '1117 ORIOLE ST\nBATON ROUGE, LA 70807\n(30.528304, -91.182195)', '11178 SUSAN AV\nBATON ROUGE, LA 70815\n(30.461571, -91.059691)', '11179 FLORIDA BL\nBATON ROUGE, LA 70815', '11188 FLORIDA BL\nBATON ROUGE, LA 70816', '1120 SPANISH TOWN RD\nBATON ROUGE, LA 70802\n(30.454902, -91.178445)', '11200 AVE F ST\nBATON ROUGE, LA 70807\n(30.54324, -91.196484)', '11200 AVENUE F ST\nBATON ROUGE, LA 70807\n(30.54324, -91.196484)', '11200 RED OAK DR\nBATON ROUGE, LA 70815\n(30.463616, -91.05979)', '11209 MURIAL DR\nBATON ROUGE, LA 70816\n(30.434627940000041, -91.059881835999988)', '11209 MURIEL AV\nBATON ROUGE, LA 70816\n(30.434703, -91.058405)', '1121 ASTER ST\nBATON ROUGE, LA 70802\n(30.419567, -91.189558)', '11219 CHALICE DR\nBATON ROUGE, LA 70816\n(30.468121, -91.059442)', '11219 MURIEL AV\nBATON ROUGE, LA 70816\n(30.434712, -91.058304)', '1122 LANDWOOD DR\nBATON ROUGE, LA 70805\n(30.461542, -91.104898)', '1122 MELANIE ST\nBATON ROUGE, LA 70815\n(30.443674, -91.068489)', '11222 FLORIDA BL\nBATON ROUGE, LA 70815', '11224 BOARDWALK DR\nBATON ROUGE, LA 70816\n(30.431642, -91.058765)', '11231 CYPRESS GLENN AV\nBATON ROUGE, LA 70807\n(30.547325, -91.152534)', '11232 N HARRELLS FERRY\nBATON ROUGE, LA 70816', '11234 DEVALL LN\nBATON ROUGE, LA 70807\n(30.547598, -91.151088)', '11234 GLENHAVEN DR\nBATON ROUGE, LA 70816\n(30.45378, -91.059042)', '11236 FLORIDA BL\nBATON ROUGE, LA 70816\n(30.458387990000062, -91.059516874999986)', '11239 CYPRESS GLEN AV\nBATON ROUGE, LA 70807\n(30.547665, -91.152546)', '11239 CYPRESS GLENN AV\nBATON ROUGE, LA 70807\n(30.547416, -91.152537)', '1124 MARQUE ANN DR\nBATON ROUGE, LA 70815\n(30.462044, -91.04316)', '1124 NAPOLEON ST\nBATON ROUGE, LA 70802\n(30.437418, -91.183441)', '1125 BRAEBURN DR\nBATON ROUGE, LA 70816\n(30.446818, -91.061313)', '11250 FLORIDA BL\nBATON ROUGE, LA 70815', '11271 FLORIDA BL\nBATON ROUGE, LA 70815', '11290 FLORIDA BL\nBATON ROUGE, LA 70815', '11297 FLORIDA BL\nBATON ROUGE, LA 70815', '11300 BOARDWALK DR\nBATON ROUGE, LA 70816\n(30.431636, -91.058513)', '11300 E BLACK OAK DR\nBATON ROUGE, LA\n(30.464748, -91.057982)', '11300 OLD HAMMOND HW\nBATON ROUGE, LA 70816\n(30.436805, -91.05733)', '11314 BOARDWALK DR\nBATON ROUGE, LA 70815\n(30.431633, -91.058379)', '11314 BOARDWALK DR\nBATON ROUGE, LA 70816\n(30.431634, -91.058411)', '1132 N ARDENWOOD DR\nBATON ROUGE, LA\n(30.460194, -91.127724)', '11324 BOARDWALK DR\nBATON ROUGE, LA 70816\n(30.431626, -91.058056)', '11324 MANORWOOD AV\nBATON ROUGE, LA 70815\n(30.455493, -91.056919)', '1134 MARQUE ANN DR\nBATON ROUGE, LA 70815\n(30.46245, -91.043161)', '1135 MONET DR\nBATON ROUGE, LA 70806\n(30.460286, -91.117465)', '11364 MOLLYLEA DR\nBATON ROUGE, LA 70816\n(30.452591, -91.057761)', '11368 PAMELA DR\nBATON ROUGE, LA 70814\n(30.461282, -91.05731)', '11376 DARRYL DR\nBATON ROUGE, LA 70815\n(30.471057, -91.057403)', '11386 DARRYL DR\nBATON ROUGE, LA 70815\n(30.471079, -91.056998)', '1139 AURORA DR\nBATON ROUGE, LA 70816\n(30.439052, -91.096787)', '11400 OLD HAMMOND HW\nBATON ROUGE, LA 70816\n(30.437153, -91.055879)', '1141 OWL ST\nBATON ROUGE, LA 70807\n(30.522986, -91.181687)', '11413 REULET AV\nBATON ROUGE, LA 70816\n(30.431806, -91.056625)', '11425 PARKWOOD DR\nBATON ROUGE, LA 70815\n(30.451688, -91.056835)', '11428 STAN AV\nBATON ROUGE, LA 70815\n(30.469901, -91.056209)', '1143 CHEVELLE DR\nBATON ROUGE, LA 70806\n(30.439235, -91.098516)', '11430 BARD AV\nBATON ROUGE, LA 70815\n(30.467945, -91.056019)', '11430 FLORIDA BL\nBATON ROUGE, LA 70815', '11430 FLORIDA BL\nBATON ROUGE, LA 70816', '11433 REULET AV\nBATON ROUGE, LA 70816\n(30.431805, -91.056209)', '11440 BARD AV\nBATON ROUGE, LA 70815\n(30.467874, -91.055688)', '11440 BARD AV\nBATON ROUGE, LA 70816\n(30.467925, -91.055919)', "11442 N HARRELL'S FERRY RD\nBATON ROUGE, LA\n(30.432735, -91.056292)", '11444 REULET AV\nBATON ROUGE, LA 70816\n(30.431813, -91.056087)', '11445 BARD AV\nBATON ROUGE, LA 70815\n(30.467938, -91.055983)', '11445 CATALPA DR\nBATON ROUGE, LA 70815\n(30.46562, -91.056087)', '1145 BRAEBURN DR\nBATON ROUGE, LA 70815\n(30.446552, -91.061252)', '11455 AIRLINE HW\nBATON ROUGE, LA 70816\n(30.397859, -91.052753)', '11455 FLORIDA BL\nBATON ROUGE, LA 70815', '11455 PARKWOOD DR\nBATON ROUGE, LA 70816\n(30.451819, -91.056195)', '11457 STAN AV\nBATON ROUGE, LA 70816\n(30.469979, -91.055835)', '11476 GOODWOOD DR\nBATON ROUGE, LA 707816', '1149 RODIN DR\nBATON ROUGE, LA 70806\n(30.460699, -91.122799)', '1150 SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '11500 BARD AV\nBATON ROUGE, LA 70815\n(30.467771, -91.055325)', '11515 PAMELA DR\nBATON ROUGE, LA 70815\n(30.461283, -91.055563)', '11522 FLORIDA BL\nBATON ROUGE, LA 70816', '11528 OLD HAMMOND HW\nBATON ROUGE, LA 70815\n(30.437262, -91.055448)', '11528 OLD HAMMOND HW\nBATON ROUGE, LA 70816\n(30.437262, -91.055448)', '11534 SHERATON DR\nBATON ROUGE, LA 70816\n(30.446944, -91.054545)', '11542 RICHCROFT AV\nBATON ROUGE, LA 70814\n(30.473764, -91.054144)', '11544 N HARRELLS FERRY RD\nBATON ROUGE, LA\n(30.432389, -91.053344)', '11546 FLORIDA BL\nBATON ROUGE, LA 70815', '11546 FLORIDA BL\nBATON ROUGE, LA 70816', '11549 CATALPA ST\nBATON ROUGE, LA 70815\n(30.465617, -91.055209)', '1155 ROSENWALD DR\nBATON ROUGE, LA 70807\n(30.531398, -91.181558)', '11550 BRICKSOME AV\nBATON ROUGE, LA 70816\n(30.425339, -91.053277)', '11550 SOUTHFORK AV\nBATON ROUGE, LA 70816\n(30.421438, -91.054751)', '11550 W BRICKSOME AV\nBATON ROUGE, LA\n(30.424517, -91.053191)', '11558 SEWANNEE DR\nBATON ROUGE, LA 70816\n(30.428339, -91.053964)', '1156 OWL ST\nBATON ROUGE, LA 70807\n(30.522988, -91.181429)', '11561 AUBURN DR\nBATON ROUGE, LA 70816\n(30.427481, -91.053806)', '11569 WILLOW OAK AV\nBATON ROUGE, LA 70815\n(30.463128, -91.054729)', '11574 SEWANEE DR\nBATON ROUGE, LA 70816\n(30.428333, -91.053863)', '11576 BARD AV\nBATON ROUGE, LA 70815\n(30.467753, -91.054782)', '11581 AUBURN DR\nBATON ROUGE, LA 70816\n(30.427478, -91.053609)', '11583 BAYLOR DR\nBATON ROUGE, LA 70816\n(30.429158058000041, -91.053498194999975)', '11583 SEWANEE DR\nBATON ROUGE, LA 70816\n(30.428318, -91.053626)', '11584 BARD AV\nBATON ROUGE, LA 70815\n(30.467757, -91.054577)', "11585 N HARRELL'S FERRY RD\nBATON ROUGE, LA\n(30.43241, -91.053645)", "11585 N HARRELL'S FERRY RD\nBATON ROUGE, LA\n(30.432447234000051, -91.054135838999969)", '11585 N HARRELLS FERRY\nBATON ROUGE, LA 70816', '11585 N HARRELLS FERRY RD\nBATON ROUGE, LA\n(30.43241, -91.053645)', "11585 N HARRELLS'S FERRY RD\nBATON ROUGE, LA\n(30.43242, -91.053781)", '11585 S HARRELLS FERRY RD\nBATON ROUGE, LA\n(30.430595, -91.053132)', '11586 AUBURN DR\nBATON ROUGE, LA 70816\n(30.427482, -91.0537)', '11600 HALLMARK DR\nBATON ROUGE, LA 70807\n(30.550208, -91.164624)', '11600 HWY 19 HW\nBATON ROUGE, LA 70805', '11603 STAN AV\nBATON ROUGE, LA 70815\n(30.470148, -91.053073)', '11610 SHERWOOD HOLLOW CT\nBATON ROUGE, LA 70816\n(30.43414, -91.052753)', '11613 FAIR OAK AV\nBATON ROUGE, LA 70815\n(30.463921, -91.054511)', '11625 MANORWOOD AV\nBATON ROUGE, LA 70816\n(30.45524, -91.053749)', '11631 SHERWOOD CT\nBATON ROUGE, LA 70808', '11634 SHERWOOD VALLEY CT\nBATON ROUGE, LA 70816\n(30.433199, -91.052477)', '11635 BAYLOR DR\nBATON ROUGE, LA 70816\n(30.429099, -91.052963)', '11635 SHERWOOD VALLEY CT\nBATON ROUGE, LA 70816\n(30.433197, -91.052463)', '11636 FAIROAK DR\nBATON ROUGE, LA 70815\n(30.46392, -91.054272)', '11639 AUBURN DR\nBATON ROUGE, LA 70816\n(30.427413, -91.05268)', '11643 AUBURN DR\nBATON ROUGE, LA 70816\n(30.427397, -91.052458)', '11645 SHERWOOD VALLEY CT\nBATON ROUGE, LA 70816\n(30.433169, -91.052272)', '11646 CATALPA ST\nBATON ROUGE, LA 70815\n(30.465613, -91.05409)', '11649 SEWANEE DR\nBATON ROUGE, LA 70816\n(30.428288, -91.053154)', '11654 WILLOW OAK AV\nBATON ROUGE, LA 70816\n(30.463126, -91.053789)', '11655 MOLLYLEA DR\nBATON ROUGE, LA 70815\n(30.453265, -91.053263)', '11661 BAYLOR DR\nBATON ROUGE, LA 70816\n(30.429065, -91.052485)', '11668 BAYLOR DR\nBATON ROUGE, LA 70816\n(30.429063, -91.052463)', '11672 SEWANEE DR\nBATON ROUGE, LA 70816\n(30.428236, -91.052353)', '11688 FAIR OAK AV\nBATON ROUGE, LA 70815\n(30.463916, -91.053508)', '11698 FLORIDA BL\nBATON ROUGE, LA 70815', '11700 COURSEY BL\nBATON ROUGE, LA 70816\n(30.411037, -91.051437)', '11700 HAYMARKET AV\nBATON ROUGE, LA 70816\n(30.403824, -91.050792)', '11700 LONGRIDGE AV\nBATON ROUGE, LA 70816\n(30.422282, -91.051477)', '11700 OLD HAMMOND HW\nBATON ROUGE, LA 70816\n(30.437829, -91.053699)', '11700 SCOTLAND HW\nBATON ROUGE, LA 70802', '11705 COURSEY BL\nBATON ROUGE, LA 70805\n(30.411195, -91.051387)', '11705 COURSEY BL\nBATON ROUGE, LA 70816\n(30.411195, -91.051387)', '11715 OLD HAMMOND HW\nBATON ROUGE, LA 70816\n(30.438024, -91.053075)', '11722 GLENDA DR\nBATON ROUGE, LA 70816\n(30.462227, -91.053269)', '1173 CRESCENT DR\nBATON ROUGE, LA 70815\n(30.439933, -91.089383)', '1173 W MCKINLEY ST\nBATON ROUGE, LA\n(30.42348, -91.19076)', '11733 MILLBURN DR\nBATON ROUGE, LA 70815\n(30.448146, -91.052766)', '11741 MARKET PLACE AV\nBATON ROUGE, LA 70816\n(30.40586, -91.049892)', '11741 WILLOW OAK AV\nBATON ROUGE, LA 70815\n(30.463127, -91.052912)', '11744 HAYMARKET AV\nBATON ROUGE, LA 70816\n(30.403832, -91.050849)', '11745 HAYMARKET AV\nBATON ROUGE, LA 70816\n(30.403829, -91.050412)', '1175 BOB PETTIT BL\nBATON ROUGE, LA 70820\n(30.395984, -91.179858)', '11750 TAMS DR\nBATON ROUGE, LA 70815\n(30.466671, -91.052944)', '1176 BOB PETTIT BL\nBATON ROUGE, LA 70808\n(30.396253, -91.179269)', '1176 BOB PETTIT BL\nBATON ROUGE, LA 70820\n(30.396253, -91.179269)', '11766 WILLOW OAK AV\nBATON ROUGE, LA 70815\n(30.463133, -91.052505)', '1177 TARA BL\nBATON ROUGE, LA 70806\n(30.439152, -91.095247)', '11775 GLENHAVEN DR\nBATON ROUGE, LA 70816\n(30.454285, -91.051984)', '11776 S CHOCTAW DR\nBATON ROUGE, LA\n(30.472585, -91.052078)', '11795 JEFFERSON HW\nBATON ROUGE, LA 70815\n(30.395858, -91.049908)', '11801 PARKMOUNT BL\nBATON ROUGE, LA 70816\n(30.409019, -91.049916)', '11802 PARKMOUNT BL\nBATON ROUGE, LA 70816\n(30.408862, -91.049872)', '1181 BALSAM AV\nBATON ROUGE, LA 70807\n(30.54094, -91.182524)', '11810 KING RICHARD DR\nBATON ROUGE, LA 70815\n(30.439741, -91.052466)', '11810 OLD HAMMOND HW\nBATON ROUGE, LA 70816\n(30.438144, -91.052692)', '11813 MARKET PLACE AV\nBATON ROUGE, LA 70816\n(30.405866, -91.049971)', '11813 OLD HAMMOND HW\nBATON ROUGE, LA 70815\n(30.438357, -91.051994)', '11814 JOLSON DR\nBATON ROUGE, LA 70807\n(30.552004, -91.162369)', '11823 MARKET PLACE AV\nBATON ROUGE, LA 70816\n(30.405841, -91.049649)', '11830 DARRYL DR\nBATON ROUGE, LA 70815\n(30.471221, -91.05196)', '11830 FAIRHAVEN DR\nBATON ROUGE, LA 70815\n(30.450215, -91.052163)', '11832 NEWCASTLE AV\nBATON ROUGE, LA 70816\n(30.420296, -91.049278)', '11833 MARKET PLACE AV\nBATON ROUGE, LA 70816\n(30.405822, -91.049439)', '1184 BOB PETIT DR\nBATON ROUGE, LA 70808', '1184 BOB PETTIT BL\nBATON ROUGE, LA 70808\n(30.396246, -91.179301)', '1184 BOB PETTIT BL\nBATON ROUGE, LA 70810\n(30.396246, -91.179301)', '1184 BOB PETTIT BL\nBATON ROUGE, LA 70820\n(30.396246, -91.179301)', '11850 WENTLING AV\nBATON ROUGE, LA 70816\n(30.402634, -91.049186)', '11862 CATALPA ST\nBATON ROUGE, LA 70815\n(30.465602, -91.051335)', '11864 PARKBROOK AV\nBATON ROUGE, LA 70816\n(30.407853, -91.04848)', '11865 BAYLOR DR\nBATON ROUGE, LA 70816\n(30.429512, -91.050848)', '11867 CATALPA ST\nBATON ROUGE, LA 70805\n(30.465599, -91.051255)', '1187 CHRISTY DR\nBATON ROUGE, LA 70816', '1188 ROSENWALD RD\nBATON ROUGE, LA 70807\n(30.531399, -91.181539)', '11888 LONGRIDGE AV\nBATON ROUGE, LA 2092\n(30.422358, -91.048352)', '11888 LONGRIDGE AV\nBATON ROUGE, LA 70805\n(30.422358, -91.048352)', '11888 LONGRIDGE AV\nBATON ROUGE, LA 70815\n(30.422358, -91.048352)', '11888 LONGRIDGE AV\nBATON ROUGE, LA 70816\n(30.422357, -91.048434)', '11888 OLD HAMMOND HW\nBATON ROUGE, LA 70815\n(30.438363, -91.051976)', '11888 OLD HAMMOND HW\nBATON ROUGE, LA 70816\n(30.438363, -91.051976)', '1190 BOB PETTIT</t>
+        <v>1</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1459750</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>305</v>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>['(Null)', '0.613194444', '1', '11', '2005-08-07 00:00:00', '2006-08-07 00:00:00', '2012', '20802', '2092', '2C3', '3063', '39402', '56082', '60473', '60715', '60816', '7', '7-0805', '7-802', '7-815', '70', '70/802', '70002', '70005', '7002', '7005', '70058', '7006', '70062', '7007', '70070', '7008', '700802', '700805', '700806', '700807', '700815', '700816', '700817', '70082', '70085', '701', '70114', '70123', '70125', '7014', '7015', '7016', '7018', '701815', '701816', '70184', '70185', '70186', '70302', '7036', '70380', '70420', '70422', '70433', '70447', '70460', '70502', '70503', '70505', '70508', '70515', '705815', '70602', '70615', '70616', '70669', '707', '70701', '70702', '70705', '70706', '7070616', '70707', '70708', '70709', '70710', '707114', '70712', '70714', '70715', '70716', '70718', '70720', '70726', '70730', '70737', '70739', '70748', '70752', '70756', '70764', '70767', '70769', '70770', '70777', '70780', '707807', '707808', '707816', '70785', '70786', '70791', '708', '708 02', '7080', '7080 5', '70800', '708001', '708002', '708005', '708006', '708007', '708008', '70801', '708010', '708011', '708012', '708013', '708014', '708015', '708016', '708017', '70802', '70802-', '708020', '7080201', '708022', '708025', '70802A', '70802C', '70802L', '70802NAT', '70802PN', '70803', '70804', '708045', '70805', '708051', '708054', '70805C', '70805CC', '70805IN', '70805LA', '70805NAT', '70805P', '70805PN', '70805QQ', '70805`', '70806', '7080601', '708061', '708065', '70806PN', '70807', '708070', '7080715', '708078', '70807C', '70807PN', '70807Q', '70808', '708080', '708082', '708085', '708086', '708088', '70808C', '70808NAT', '70808Q', '70809', '70809PN', '7080=10', '7080F', '7081', '70810', '70811', '708111', '7081113', '708112', '708115', '708117', '70812', '70813', '70814', '708144', '70814C', '70815', '708151', '70815P', '70815PN', '70815`', '70816', '708160000', '70816=5', '70816C', '70816N', '70817', '70818', '70819', '708196', '7082', '70820', '70820C', '70821', '70823', '70824', '70825', '70826', '7082=02', '70836', '70839', '7085', '70850', '7086', '7087', '708702', '708715', '70873', '7088', '708802', '708805', '708811', '708814', '708816', '708906', '70891', '70892', '70895', '708`5', '708`6', '70905', '70906', '70907', '70909', '70914', '70915', '70916', '709816', '71037', '71129', '71203', '71373', '71403', '75039', '750807', '75453', '760805', '760816', '770808', '77803', '78002', '78005', '7801', '78014', '78016', '7802', '78020', '7805', '7808', '780802', '7815', '7816', '79', '798', '79802', '79808', '79815', '79816', '79898', '7O819', '7P0805', '7U0806', '802', '805', '806', '80802', '80805', '80806', '80807', '80808', '80816', '80912', '811', '815', '870802', '902', 'AA', 'L70815', 'LA', 'P10402', 'PN', 'Q70802', 'SD70820', ']70805', '`', '`70805', '`70808', '`70815', '`70816']</t>
         </is>
       </c>
     </row>
@@ -1749,10 +1879,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>251960</v>
+        <v>267773</v>
       </c>
       <c r="E17" t="n">
-        <v>251960</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1767,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K17" t="n">
         <v>-1</v>
       </c>
       <c r="L17" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N17" t="n">
-        <v>89</v>
+        <v>13573</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -1797,24 +1927,32 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>424</v>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="T17" t="n">
-        <v>52996</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
       <c r="V17" t="n">
-        <v>339859</v>
+        <v>78012</v>
       </c>
       <c r="W17" t="n">
-        <v>858</v>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">['1', '10', '100', '100 E STATE ST\nBATON ROUGE, LA 70805\n(30.418207, -91.176576)', '100 N 17TH ST\nBATON ROUGE, LA 70802\n(30.448073, -91.171473)', '100 N DONMOOR AV\nBATON ROUGE, LA 70805\n(30.451573, -91.11841)', '100 S FOSTER DR\nBATON ROUGE, LA 70805\n(30.448699, -91.138913)', '100 S I110 HW\nBATON ROUGE, LA 70802', '100 W JOHNSON ST\nBATON ROUGE, LA 70816\n(30.424472, -91.179439)', '1000 E HARRISON ST\nBATON ROUGE, LA 70802\n(30.429173, -91.174574)', '1000 N 23RD ST\nBATON ROUGE, LA 70802\n(30.459306, -91.164953)', '1003 N 32ND ST\nBATON ROUGE, LA 70802\n(30.457656, -91.156724)', '1004 N 32ND ST\nBATON ROUGE, LA 70805\n(30.457731, -91.156727)', '10058 S CHOCTAW DR\nBATON ROUGE, LA 70815\n(30.47203, -91.073203)', '10058 S CHOCTAW DR\nBATON ROUGE, LA 70816\n(30.472028, -91.073303)', '10065 W TAMS BL\nBATON ROUGE, LA 70815\n(30.467347, -91.072561)', '10082 E POMONA DR\nBATON ROUGE, LA 70815\n(30.461357, -91.072323)', '10134 W DARRYL PK\nBATON ROUGE, LA 70816\n(30.470767, -91.072446)', '1020 S TINLEY DR\nBATON ROUGE, LA 70815\n(30.447584, -91.060358)', '10222 S PERDUE AV\nBATON ROUGE, LA 70815\n(30.473334, -91.071102)', '1032 N 30TH ST\nBATON ROUGE, LA 70805\n(30.458452, -91.158802)', '10335 W DARRYL DR\nBATON ROUGE, LA 70815', '10374 N HARVEY DR\nBATON ROUGE, LA 70815\n(30.460053, -91.069414)', '1043 N 49TH ST\nBATON ROUGE, LA 70802\n(30.457988, -91.141089)', '1047 N 35TH ST\nBATON ROUGE, LA 70805\n(30.457634, -91.154341)', '1050 N FOSTER DR\nBATON ROUGE, LA 70802\n(30.45813, -91.139353)', '10683 N HARVEY DR\nBATON ROUGE, LA 70815\n(30.460052, -91.06654)', '1076 N DONMOOR AV\nBATON ROUGE, LA 70805\n(30.460167, -91.118696)', '10770 N MALL DR\nBATON ROUGE, LA 70810\n(30.377531, -91.059608)', '10780 S CHOCTAW DR\nBATON ROUGE, LA 70815\n(30.472311, -91.06346)', '1079 N DONMOOR AV\nBATON ROUGE, LA 70805\n(30.460152, -91.118695)', '10800 W ROBIN HOOD DR\nBATON ROUGE, LA 70816\n(30.455635, -91.064721)', '1087 S FLANNERY RD\nBATON ROUGE, LA 70816\n(30.449082, -91.034869)', '1096 N 48TH ST\nBATON ROUGE, LA 70805\n(30.458515, -91.141917)', '110 S FOSTER DR\nBATON ROUGE, LA 70806\n(30.448309, -91.138894)', '1100 N 28TH ST\nBATON ROUGE, LA 70805\n(30.458405, -91.160596)', '1100 S 15TH ST\nBATON ROUGE, LA 70802\n(30.438419, -91.173206)', '1100 S FLANNERY RD\nBATON ROUGE, LA 70816\n(30.448817, -91.034901)', '1100 S FOSTER DR\nBATON ROUGE, LA 70802\n(30.439083, -91.133939)', '1100 S FOSTER DR\nBATON ROUGE, LA 70806\n(30.439048, -91.133877)', '11062 E VIEUX ST\nBATON ROUGE, LA 70816\n(30.451604, -91.061157)', '1109 N 29TH ST\nBATON ROUGE, LA 70802\n(30.458667, -91.159677)', "11111 N HARRELL'S FERRY DR\nBATON ROUGE, LA 70815\n(30.45571401400008, -91.064099432999967)", "11111 N HARRELL'S FERRY RD\nBATON ROUGE, LA 70816\n(30.432817, -91.060468)", '11111 N HARRELLS FERRY RD\nBATON ROUGE, LA 70816\n(30.432817, -91.060468)', "11140 N HARRELL'S FERRY RD\nBATON ROUGE, LA 70816\n(30.432805, -91.05959)", '11150 W ROBINHOOD DR\nBATON ROUGE, LA 70814\n(30.455616, -91.059865)', '1120 N 37TH ST\nBATON ROUGE, LA 70802\n(30.458339, -91.152776)', '11200 S CHOCTAW DR\nBATON ROUGE, LA 70815\n(30.472423, -91.05897)', '11234 W ROBINHOOD DR\nBATON ROUGE, LA 70816\n(30.455607, -91.05894)', '1126 W LEE DR\nBATON ROUGE, LA 70816\n(30.388746, -91.170666)', '11300 N HARRELLS FERRY RD\nBATON ROUGE, LA 70816\n(30.432775, -91.057)', '11369 E BLACK OAK DR\nBATON ROUGE, LA 70815\n(30.464747, -91.057213)', '11378 E ASHBOURNE DR\nBATON ROUGE, LA 70816\n(30.443079, -91.056741)', '1138 W CHIMES ST\nBATON ROUGE, LA 70802\n(30.41922, -91.189862)', '11457 E BLACK OAK DR\nBATON ROUGE, LA 70815\n(30.464746, -91.056061)', "11500 S HARRELL'S FERRY RD\nBATON ROUGE, LA 70816\n(30.430186, -91.054098)", '11500 S HARRELLS FERRY RD\nBATON ROUGE, LA 70816\n(30.430186, -91.054098)', "11544 N HARRELL'S FERRY RD\nBATON ROUGE, LA 70815\n(30.432497, -91.054531)", "11544 N HARRELL'S FERRY RD\nBATON ROUGE, LA 70816\n(30.432389, -91.053344)", '11544 N HARRELLS FERRY RD\nBATON ROUGE, LA 70816\n(30.432389, -91.053344)', '1158 N 39TH ST\nBATON ROUGE, LA 70805\n(30.458727, -91.151212)', "11585 N HARRELL'S FERRY RD\nBATON ROUGE, LA 70815\n(30.43242, -91.053781)", "11585 N HARRELL'S FERRY RD\nBATON ROUGE, LA 70816\n(30.43241, -91.053645)", '11585 N HARRELLS FERRY DR\nBATON ROUGE, LA 70815\n(30.43242, -91.053781)', '11585 N HARRELLS FERRY RD\nBATON ROUGE, LA 70815\n(30.43242, -91.053781)', '11585 N HARRELLS FERRY RD\nBATON ROUGE, LA 70816\n(30.43241, -91.053645)', "11600 S HARRELL'S FERRY RD\nBATON ROUGE, LA 70815\n(30.430647, -91.052975)", '11612 W SHERWOOD MEADOW AV\nBATON ROUGE, LA 70816\n(30.435064, -91.052941)', '11613 W SHERWOOD MEADOW DR\nBATON ROUGE, LA 70816\n(30.435047, -91.052813)', '11634 W SHERWOOD MEADOW AV\nBATON ROUGE, LA 70816\n(30.435018, -91.052602)', '11643 W SHERWOOD MEADOW DR\nBATON ROUGE, LA 70816\n(30.435003, -91.052491)', '11656 E BLACK OAK DR\nBATON ROUGE, LA 70815\n(30.464743, -91.053948)', "11671 N HARRELL'S FERRY RD\nBATON ROUGE, LA 70816\n(30.43228, -91.051818)", "11680 S HARRELL'S FERRY RD\nBATON ROUGE, LA 70816\n(30.430853, -91.052251)", '11683 W SHERWOOD MEADOW AV\nBATON ROUGE, LA 70816\n(30.434911, -91.05194)', '1177 N 46TH ST\nBATON ROUGE, LA 70802\n(30.459489, -91.143498)', '1183 S FLANNERY RD\nBATON ROUGE, LA 70815\n(30.44804, -91.034907)', '11836 E FAIR OAK AV\nBATON ROUGE, LA 70816\n(30.463943, -91.051338)', '1184 N 35TH ST\nBATON ROUGE, LA 70805\n(30.459191, -91.154401)', '11844 E FAIR OAK AV\nBATON ROUGE, LA 70815\n(30.46393, -91.05177)', "11855 N HARRELL'S FERRY RD\nBATON ROUGE, LA 70816\n(30.432385, -91.049551)", '11861 E FAIR OAK AV\nBATON ROUGE, LA 70816\n(30.463939, -91.051139)', '1192 N 39TH ST\nBATON ROUGE, LA 70802\n(30.459008, -91.151223)', '11926 N LAKE SHERWOOD AV\nBATON ROUGE, LA 70816\n(30.417324, -91.04823)', '1200 N ARDENWOOD DR\nBATON ROUGE, LA 70805\n(30.46092, -91.127757)', '1200 N LOBDELL DR\nBATON ROUGE, LA 70806\n(30.460707, -91.114889)', '1200 W LEE DR\nBATON ROUGE, LA 70802', '12000 S CHOCTAW DR\nBATON ROUGE, LA 70815\n(30.472459, -91.048876)', '1201 N FOSTER DR\nBATON ROUGE, LA 70805\n(30.460503, -91.139457)', '1201 N FOSTER DR\nBATON ROUGE, LA 70806\n(30.460503, -91.139457)', '12048 N LAKE SHERWOOD AV\nBATON ROUGE, LA 70816\n(30.416429, -91.046977)', '1205 N 35TH ST\nBATON ROUGE, LA 70802\n(30.459795, -91.154429)', "12061 N HARRELL'S FERRY RD\nBATON ROUGE, LA 70816\n(30.433055, -91.046494)", "12187 N HARRELL'S FERRY RD\nBATON ROUGE, LA 70816\n(30.433482, -91.044746)", '12242 E BROCK PL\nBATON ROUGE, LA 70807\n(30.557127, -91.168522)', '12265 W BROCK PL\nBATON ROUGE, LA 70807\n(30.557671, -91.171414)', '12304 E BROCK PL\nBATON ROUGE, LA 70807\n(30.557419, -91.168464)', '12324 S HARRELLS FERRY RD\nBATON ROUGE, LA 70816\n(30.432324, -91.045951)', "12334 S HARRELL'S FERRY RD\nBATON ROUGE, LA 70816\n(30.43232, -91.045855)", '1235 S ALAMEDA DR\nBATON ROUGE, LA 70815\n(30.461147, -91.086702)', '12375 E MILLBURN AV\nBATON ROUGE, LA 70816\n(30.447522, -91.045873)', '124 S 22ND ST\nBATON ROUGE, LA 70806\n(30.447669, -91.165886)', '12421 S CHOCTAW DR\nBATON ROUGE, LA 70815\n(30.472186, -91.045422)', '12426 E ROBIN HOOD DR\nBATON ROUGE, LA 70815\n(30.455354, -91.045395)', '12440 E ROBIN HOOD DR\nBATON ROUGE, LA 70815\n(30.455322, -91.045156)', '12460 E SHERATON AV\nBATON ROUGE, LA 70815\n(30.446491, -91.044992)', '125 W ARDENWOOD DR\nBATON ROUGE, LA 70806\n(30.449048, -91.130151)', '1250 N 43RD ST\nBATON ROUGE, LA 70805\n(30.459982, -91.146588)', '12504 S CHOCTAW DR\nBATON ROUGE, LA 70814\n(30.472278, -91.043892)', '1251 N ARDENWOOD DR\nBATON ROUGE, LA 70805\n(30.461284, -91.127769)', '1251 N ARDENWOOD DR\nBATON ROUGE, LA 70806\n(30.461284, -91.127769)', '12520 S LAKE SHERWOOD AV\nBATON ROUGE, LA 70816\n(30.412778, -91.042251)', '1254 S 14TH ST\nBATON ROUGE, LA 70802\n(30.436549, -91.174308)', '1255 N LEIGHTON DR\nBATON ROUGE, LA 70806\n(30.460374, -91.13671)', '12551 S HARRELLS FERRY RD\nBATON ROUGE, LA 70816\n(30.432004, -91.044176)', '12590 E SHERATON AV\nBATON ROUGE, LA 70816\n(30.446525, -91.04296)', '12606 S CHOCTAW DR\nBATON ROUGE, LA 70815\n(30.472455, -91.04244)', '12620 E SHERATON AV\nBATON ROUGE, LA 70815\n(30.446491, -91.042674)', '12626 W LA BELLE AV\nBATON ROUGE, LA 70815\n(30.467076, -91.042395)', "12655 S HARRELL'S FERRY RD\nBATON ROUGE, LA 70816\n(30.431556, -91.04211)", '1295 N SHERWOOD FOREST BL\nBATON ROUGE, LA 70815', '1295 N SHERWOOD FOREST DR\nBATON ROUGE, LA 70815\n(30.460234, -91.05812)', '1300 N 32ND ST\nBATON ROUGE, LA 70805\n(30.460284, -91.156814)', '1300 N 38TH ST\nBATON ROUGE, LA 70806\n(30.460453, -91.152087)', '13011 S CHOCTAW DR\nBATON ROUGE, LA 70815\n(30.47262, -91.040689)', '1307 N 35TH ST\nBATON ROUGE, LA 70805\n(30.460427, -91.154457)', '1308 N 44TH ST\nBATON ROUGE, LA 70802\n(30.460426, -91.145174)', '1308 N ACADIAN W TH\nBATON ROUGE, LA 70802', '1314 S MIKE DR\nBATON ROUGE, LA 70816\n(30.464021, -91.046822)', '13169 N KIRKLEY PL\nBATON ROUGE, LA 70816\n(30.426211427000055, -91.037577518999967)', '1322 N 29TH ST\nBATON ROUGE, LA 70802\n(30.460641, -91.159728)', '1323 N TAMARI DR\nBATON ROUGE, LA 70815\n(30.464075, -91.049174)', '1324 N 35TH ST\nBATON ROUGE, LA 70802\n(30.460665, -91.154465)', '1331 N 29TH ST\nBATON ROUGE, LA 70805\n(30.460546, -91.159723)', '1331 N SHERWOOD FOREST BL\nBATON ROUGE, LA 70815', '1331 N SHERWOOD FOREST DR\nBATON ROUGE, LA 70815\n(30.462489, -91.058305)', '1331 N SHERWOOD FOREST DR\nBATON ROUGE, LA 70816\n(30.461383, -91.058111)', '13317 S CHOCTAW DR\nBATON ROUGE, LA 70815\n(30.472607, -91.03821)', '13325 E PARNELL AV\nBATON ROUGE, LA 70815\n(30.453615, -91.035966)', '1333 N 31ST ST\nBATON ROUGE, LA 70805\n(30.461071, -91.157486)', '1337 S 17TH ST\nBATON ROUGE, LA 70802\n(30.435725, -91.17107)', '1344 S VEGA DR\nBATON ROUGE, LA 70815\n(30.462021, -91.085594)', '1355 N ACADIAN W TH\nBATON ROUGE, LA 70802', '1365 S MARILYN DR\nBATON ROUGE, LA 70816\n(30.44083, -91.076896)', '1365 S REDONDO DR\nBATON ROUGE, LA 70815\n(30.462008, -91.083263)', '1365 S VEGA DR\nBATON ROUGE, LA 70815\n(30.462367, -91.085607)', '1368 N 48TH ST\nBATON ROUGE, LA 70804\n(30.461111, -91.14205)', '1368 N 48TH ST\nBATON ROUGE, LA 70805\n(30.461111, -91.14205)', '1377 N 46TH ST\nBATON ROUGE, LA 70802\n(30.460917, -91.143574)', '1395 N FOSTER DR\nBATON ROUGE, LA 70802\n(30.461256, -91.139533)', "13950 S HARRELL'S FERRY RD\nBATON ROUGE, LA 70816\n(30.430343, -91.027625)", '13950 S HARRELLS FERRY RD\nBATON ROUGE, LA 70816\n(30.430343, -91.027625)', '1400 N 22ND ST\nBATON ROUGE, LA 70805', '1400 N 29TH ST\nBATON ROUGE, LA 70802\n(30.461412, -91.159493)', '1400 N 31ST ST\nBATON ROUGE, LA 70802\n(30.461932, -91.157704)', '1400 N 39TH ST\nBATON ROUGE, LA 70805\n(30.460727, -91.15157)', '1400 N AIRWAY DR\nBATON ROUGE, LA 70815\n(30.460694, -91.095151)', '1400 S I-110 HW\nBATON ROUGE, LA 70807', '1401 N LOBDELL BL\nBATON ROUGE, LA 70806\n(30.461747, -91.115861)', '1408 N 38TH ST\nBATON ROUGE, LA 70805\n(30.461225, -91.152113)', '1412 N 23RD ST\nBATON ROUGE, LA 70805\n(30.461636, -91.165056)', '14140 S HARRELLS FERRY RD\nBATON ROUGE, LA 70816\n(30.430137, -91.026807)', '1415 N AIRWAY DR\nBATON ROUGE, LA 70814\n(30.460969, -91.095609)', '1425 N 32ND ST\nBATON ROUGE, LA 70805\n(30.461596, -91.156886)', '1425 S ALAMEDA DR\nBATON ROUGE, LA 70815\n(30.462598, -91.086722)', '1426 S MIKE DR\nBATON ROUGE, LA 70815\n(30.465299757000025, -91.046788398999979)', '1433 N 23RD ST\nBATON ROUGE, LA 70805\n(30.461751, -91.165061)', '14340 S CHOCTAW DR\nBATON ROUGE, LA 70816', "14355 S HARRELL'S FERRY RD\nBATON ROUGE, LA 70816\n(30.430016, -91.025425)", '14355 S HARRELLS FERRY RD\nBATON ROUGE, LA 70816\n(30.430016, -91.025425)', '144 W CHIMES ST\nBATON ROUGE, LA 70802\n(30.417295, -91.177455)', '1443 N 46TH ST\nBATON ROUGE, LA 70802\n(30.464893, -91.14376)', '1446 N 46 ST\nBATON ROUGE, LA 70805\n(30.461836, -91.143615)', '1450 N AIRWAY DR\nBATON ROUGE, LA 70815\n(30.46192, -91.096664)', '14546 S HARRELLS FERRY RD\nBATON ROUGE, LA 70816\n(30.429633, -91.023656)', '1455 N ACADIAN TH\nBATON ROUGE, LA 70805', '1455 N ACADIAN W TH\nBATON ROUGE, LA 70805', '1456 N 44TH ST\nBATON ROUGE, LA 70805\n(30.461674, -91.145209)', '146 S 21ST ST\nBATON ROUGE, LA 70808\n(30.447351, -91.166963)', '1462 S ELAINE DR\nBATON ROUGE, LA 70815\n(30.4398, -91.068677)', "14848 S HARRELL'S FERRY RD\nBATON ROUGE, LA 70816\n(30.428943, -91.021616)", '14848 S HARRELLS FERRY RD\nBATON ROUGE, LA 70816\n(30.428943, -91.021616)', '1490 N 37TH ST\nBATON ROUGE, LA 70805\n(30.46183, -91.152913)', '150 E STATE ST\nBATON ROUGE, LA 70802\n(30.418394, -91.175843)', '1500 N 44TH ST\nBATON ROUGE, LA 70805\n(30.462084, -91.145198)', '1500 N 49TH ST\nBATON ROUGE, LA 70802\n(30.462292, -91.141333)', '1500 N FOSTER DR\nBATON ROUGE, LA 70802\n(30.462872, -91.139553)', '1501 N FOSTER DR\nBATON ROUGE, LA 70805\n(30.462477, -91.139553)', '1505 N 32ND ST\nBATON ROUGE, LA 70802\n(30.462043, -91.156905)', '1506 N 30TH ST\nBATON ROUGE, LA 70802\n(30.462432, -91.158629)', '1509 N 44TH ST\nBATON ROUGE, LA 70805\n(30.462157, -91.145196)', '1509 N MARQUE ANN DR\nBATON ROUGE, LA 70815\n(30.466766, -91.042926)', '1509 N MARQUE ANN DR\nBATON ROUGE, LA 70816\n(30.467083, -91.0429)', '1516 N HARCO DR\nBATON ROUGE, LA 70815\n(30.467092, -91.042029)', '15165 S HARRELLS FERRY DR\nBATON ROUGE, LA 70816\n(30.42785, -91.01768)', '1517 N HARCO DR\nBATON ROUGE, LA 70815\n(30.467147, -91.041958)', '1522 N 28TH ST\nBATON ROUGE, LA 70805\n(30.462463, -91.160458)', '1525 E WASHINGTON ST\nBATON ROUGE, LA 70802\n(30.43129, -91.171126)', '1526 N FOSTER DR\nBATON ROUGE, LA 70802\n(30.462988, -91.139561)', '1526 N TAMARI DR\nBATON ROUGE, LA 70815\n(30.46635, -91.04921)', '1527 N 36TH ST\nBATON ROUGE, LA 70805\n(30.46201, -91.15369)', '1527 N MARQUE ANN DR\nBATON ROUGE, LA 70815\n(30.467341, -91.042902)', '153 N 17TH ST\nBATON ROUGE, LA 70802\n(30.448392, -91.171483)', '1533 N ACADIAN ST\nBATON ROUGE, LA 70805', '1533 N ACADIAN W TH\nBATON ROUGE, LA 70805', '1536 N 23RD ST\nBATON ROUGE, LA 70805\n(30.46237, -91.165088)', '1536 N FOSTER DR\nBATON ROUGE, LA 70805\n(30.463087, -91.139566)', '154 S CARROLLTON AV\nBATON ROUGE, LA 70806\n(30.449843, -91.122762)', '1542 N FOSTER DR\nBATON ROUGE, LA 70802\n(30.46316, -91.13957)', '1542 N FOSTER DR\nBATON ROUGE, LA 70805\n(30.46316, -91.13957)', '1542 N FOSTER DR\nBATON ROUGE, LA 70806\n(30.463978, -91.139612)', '1542 N FOSTER ST\nBATON ROUGE, LA 70805', '1550 N 36TH ST\nBATON ROUGE, LA 70805\n(30.462168, -91.153701)', '1551 W CHIMES ST\nBATON ROUGE, LA 70802\n(30.418952, -91.1933)', '1578 N ACADIAN TH\nBATON ROUGE, LA 70802', '160 S ARDENWOOD DR\nBATON ROUGE, LA 70806\n(30.449647, -91.127382)', '1600 N 23RD ST\nBATON ROUGE, LA 70805\n(30.46278, -91.165109)', '1600 N 26TH ST\nBATON ROUGE, LA 70805\n(30.462818, -91.162313)', '1600 N THIRD ST\nBATON ROUGE, LA 70805\n(30.460768, -91.187712)', '1607 N 24TH ST\nBATON ROUGE, LA 70802\n(30.462949, -91.16424)', '16100 S HARRELLS FERRY RD\nBATON ROUGE, LA 70816\n(30.425187, -91.006568)', '1612 E WALKER CT\nBATON ROUGE, LA 70814\n(30.463382, -91.056745)', '1614 N 24TH ST\nBATON ROUGE, LA 70805\n(30.463135, -91.164248)', '1615 N 17TH ST\nBATON ROUGE, LA 70802\n(30.462625, -91.172309)', '1616 N HARCO DR\nBATON ROUGE, LA 70815\n(30.467768, -91.041914)', '1616 N HARCO DR\nBATON ROUGE, LA 70816\n(30.467872, -91.041913)', '1618 N 48TH ST\nBATON ROUGE, LA 70806\n(30.463484, -91.142164)', '1624 N 35TH ST\nBATON ROUGE, LA 70805\n(30.462856, -91.154559)', '1634 N SHERWOOD FOREST BL\nBATON ROUGE, LA 70805', '1634 N SHERWOOD FOREST DR\nBATON ROUGE, LA 70815\n(30.463384, -91.058103)', '1642 N 23RD ST\nBATON ROUGE, LA 70802\n(30.4633, -91.165139)', '1642 N FLANNERY RD\nBATON ROUGE, LA 70815\n(30.465656, -91.035313)', '1643 E WALKER CT\nBATON ROUGE, LA 70816\n(30.46368, -91.056812)', '1645 N ACADIAN TH\nBATON ROUGE, LA 70805', '1655 N 17TH ST\nBATON ROUGE, LA 70805\n(30.462883, -91.172321)', '1655 N 44TH ST\nBATON ROUGE, LA 70805\n(30.463482, -91.14525)', '16579 S AMITE DR\nBATON ROUGE, LA 70819\n(30.474656, -91.004763)', '1658 N MARQUE ANN DR\nBATON ROUGE, LA 70815\n(30.468341, -91.042897)', '1670 N 48TH ST\nBATON ROUGE, LA 70806\n(30.463988, -91.142198)', '1682 N LOBDELL BL\nBATON ROUGE, LA 70805', '1686 N 32ND ST\nBATON ROUGE, LA 70802\n(30.464096, -91.156991)', '16866 S AMITE DR\nBATON ROUGE, LA 70814\n(30.474736, -91.002211)', '1700 N HARCO DR\nBATON ROUGE, LA 70815\n(30.468474, -91.041906)', '1701 N HARCO DR\nBATON ROUGE, LA 70815\n(30.468674, -91.041906)', '1710 N MARQUE ANN DR\nBATON ROUGE, LA 70816\n(30.468577, -91.042895)', '1710 N SHERWOOD FOREST DR\nBATON ROUGE, LA 70815\n(30.464194, -91.0581)', '1716 N HARCO DR\nBATON ROUGE, LA 70815\n(30.469202, -91.041906)', '1717 N RIVER RD\nBATON ROUGE, LA 70802\n(30.458354575000044, -91.189771650999944)', '1717 N RIVER RD\nBATON ROUGE, LA 70805\n(30.460513, -91.189396)', '1717 S BRIGHTSIDE VIEW DR\nBATON ROUGE, LA 70820\n(30.38555, -91.178824)', '1721 N 26TH ST\nBATON ROUGE, LA 70805\n(30.463598, -91.162343)', '1728 N 24TH ST\nBATON ROUGE, LA 70802\n(30.463783, -91.164261)', '1734 N 27TH ST\nBATON ROUGE, LA 70805\n(30.46395, -91.161447)', '1735 N 29TH ST\nBATON ROUGE, LA 70802\n(30.46398, -91.159597)', '1735 N 44TH ST\nBATON ROUGE, LA 70805\n(30.464229, -91.145283)', '1735 N SHERWOOD FOREST BL\nBATON ROUGE, LA 70815', '1744 N 44TH ST\nBATON ROUGE, LA 7082\n(30.464331, -91.14529)', '1745 N 48TH ST\nBATON ROUGE, LA 70806\n(30.464714, -91.14225)', '1747 N HARCO DR\nBATON ROUGE, LA 70815\n(30.469232, -91.041906)', '1748 N 36TH ST\nBATON ROUGE, LA 70805\n(30.464025, -91.153783)', '1756 N 16TH ST\nBATON ROUGE, LA 70802\n(30.463969, -91.173328)', '1780 N 48TH ST\nBATON ROUGE, LA 70805\n(30.465054, -91.142274)', '1792 N FOSTER DR\nBATON ROUGE, LA 70806\n(30.464826, -91.139654)', '1793 N 47TH ST\nBATON ROUGE, LA 70802\n(30.464863, -91.142971)', '1798 N FOSTER DR\nBATON ROUGE, LA 70805\n(30.465232, -91.139672)', '1800 N 28 ST\nBATON ROUGE, LA 70805\n(30.464121, -91.160552)', '1800 N FOSTER DR\nBATON ROUGE, LA 70805\n(30.465241, -91.139673)', '1800 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '1809 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '1810 N MARQUE ANN DR\nBATON ROUGE, LA 70815\n(30.469324, -91.042888)', '1815 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '1817 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '1819 N MARQUE ANN DR\nBATON ROUGE, LA 70815\n(30.468539, -91.042895)', '1819 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70815', '1819 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '1821 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '1823 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '1826 N 17TH ST\nBATON ROUGE, LA 70802\n(30.464411, -91.172292)', '1826 S BRIGHTSIDE VIEW DR\nBATON ROUGE, LA 70820\n(30.385642, -91.179652)', '1832 W CARRIAGE HOUSE DR\nBATON ROUGE, LA 70815\n(30.435342, -91.069897)', '1850 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '1866 N FOSTER DR\nBATON ROUGE, LA 70805\n(30.465809, -91.139697)', '1900 N LOBDELL BL\nBATON ROUGE, LA 70805', '1900 N LOBDELL BL\nBATON ROUGE, LA 70806\n(30.463408, -91.116868)', '1900 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '1907 E MAGNA CARTA PL\nBATON ROUGE, LA 70815\n(30.433622, -91.07269)', '191 N LITTLE JOHN DR\nBATON ROUGE, LA 70815', '1925 N 3RD ST\nBATON ROUGE, LA 70801\n(30.464369, -91.18823)', '1925 N THIRD ST\nBATON ROUGE, LA 70805\n(30.464369, -91.18823)', '1936 N 18TH ST\nBATON ROUGE, LA 70802\n(30.46529, -91.171367)', '1936 N FLANNERY RD\nBATON ROUGE, LA 70819\n(30.468342, -91.035656)', '1943 N REDONDO DR\nBATON ROUGE, LA 70815\n(30.467623, -91.083397)', '1957 N ARDENWOOD DR\nBATON ROUGE, LA 70805\n(30.466564, -91.129498)', '1957 N ARDENWOOD DR\nBATON ROUGE, LA 70806\n(30.466672897000024, -91.129634062999969)', '1957 N ARDENWOOD ST\nBATON ROUGE, LA 70805', '1957 N ARDENWOOD ST\nBATON ROUGE, LA 70806\n(30.466564, -91.129498)', '1961 N REDONDO DR\nBATON ROUGE, LA 70815\n(30.467898, -91.083408)', '1975 W BELFAIR DR\nBATON ROUGE, LA 70805\n(30.466206, -91.146683)', '1985 N LITTLE JOHN DR\nBATON ROUGE, LA 70815\n(30.466408, -91.052432)', '1A1', '1A2', '1B1', '1B2', '1C1', '1C2', '1C3', '1D1', '1D2', '1D3', '1F1', '1F2', '2', '20', '200', '200 E BUCHANAN ST\nBATON ROUGE, LA 70802\n(30.424998, -91.179062)', '200 E PARKLAND DR\nBATON ROUGE, LA 70809\n(30.450144, -91.098569)', '200 N 6TH ST\nBATON ROUGE, LA 70802\n(30.448665, -91.18463)', '200 N CONVENTION ST\nBATON ROUGE, LA 70802', '200 N THIRD ST\nBATON ROUGE, LA 70802\n(30.448241, -91.188197)', '200 S 21ST ST\nBATON ROUGE, LA 70802\n(30.4468, -91.166943)', '200 W I12 HW\nBATON ROUGE, LA 70805', '2000', '20000', '2001 S SHERWOOD FOOREST BL\nBATON ROUGE, LA 70816\n(30.4346, -91.057313)', '2001 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70815', '2001 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '2005 N 39TH ST\nBATON ROUGE, LA 70805\n(30.466435, -91.151343)', '2015 N 16TH ST\nBATON ROUGE, LA 70805\n(30.465761, -91.1734)', '2020 N 3RD ST\nBATON ROUGE, LA 70801\n(30.464963, -91.188267)', '2022 N LOBDELL BL\nBATON ROUGE, LA 70805', '2022 N LOBDELL BL\nBATON ROUGE, LA 70806\n(30.465475, -91.118404)', '2023 N FOSTER DR\nBATON ROUGE, LA 70805\n(30.467189, -91.139758)', '2031 N HARRELLS FERRY RD\nBATON ROUGE, LA 70816', '2045 N 39TH ST\nBATON ROUGE, LA 70805\n(30.466744, -91.151356)', '2045 N THIRD ST\nBATON ROUGE, LA 70805\n(30.46528, -91.188287)', '2068 N SHERWOOD FOREST DR\nBATON ROUGE, LA 70816\n(30.467579, -91.058089)', '2080 N LOBDELL AV\nBATON ROUGE, LA 70805\n(30.465975, -91.118772)', '2080 N LOBDELL BL\nBATON ROUGE, LA 70805', '2080 N LOBDELL BL\nBATON ROUGE, LA 70806\n(30.465975, -91.118772)', '2080 N LOBDELL DR\nBATON ROUGE, LA 70804\n(30.465975, -91.118772)', '2083 N LOBDELL BL\nBATON ROUGE, LA 70805', '209 W STATE ST\nBATON ROUGE, LA 70802\n(30.41816, -91.17788)', '2100 N 15TH ST\nBATON ROUGE, LA 70805\n(30.466451, -91.174368)', '2100 N FOSTER DR\nBATON ROUGE, LA 70805\n(30.46784, -91.139788)', '2104 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '2106 N 16TH ST\nBATON ROUGE, LA 70805\n(30.466527, -91.173425)', '2110 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '2112 N FOSTER DR\nBATON ROUGE, LA 70802\n(30.467928, -91.139793)', '2121 N LOBDELL BL\nBATON ROUGE, LA 70804\n(30.469965, -91.121905)', '2121 N LOBDELL BL\nBATON ROUGE, LA 70805', '2121 N LOBDELL BL\nBATON ROUGE, LA 70806\n(30.469965, -91.121905)', '2121 N SHERWOOD FOREST BL\nBATON ROUGE, LA 70815', '2121 N SHERWOOD FOREST DR\nBATON ROUGE, LA 70815\n(30.469169, -91.058083)', '2136 N LOBDELL AV\nBATON ROUGE, LA 70806\n(30.46655, -91.119196)', '2136 N LOBDELL BL\nBATON ROUGE, LA 70805', '2136 N LOBDELL BL\nBATON ROUGE, LA 70806\n(30.466678, -91.11929)', '2136 N LOBDELL DR\nBATON ROUGE, LA 70804\n(30.466678, -91.11929)', '2139 N 15TH ST\nBATON ROUGE, LA 70805\n(30.466768, -91.174384)', '2145 N 38TH ST\nBATON ROUGE, LA 70805\n(30.467708, -91.152357)', '2146 N 15TH ST\nBATON ROUGE, LA 70805\n(30.466835, -91.174388)', '2150 N SHERWOOD FOREST BL\nBATON ROUGE, LA 70815', '2150 N SHERWOOD FOREST DR\nBATON ROUGE, LA 70815\n(30.46818008200006, -91.058058925999944)', '2152 S SHERWOOD FOEST BL\nBATON ROUGE, LA 70816', '2152 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '2180 N LOBDELL BL\nBATON ROUGE, LA 70806\n(30.468701, -91.120785)', '2181 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70815', '2181 W BELFAIR DR\nBATON ROUGE, LA 70805\n(30.467889, -91.148401)', '2200 KENTUCKY STREET\nBATON ROUGE, LA\n(30.426773, -91.174491)', '2200 N ARDENWOOD DR\nBATON ROUGE, LA 70805\n(30.468643, -91.130143)', '2200 N FOSTER DR\nBATON ROUGE, LA 70802\n(30.468556, -91.139824)', '2202 N SHERWOOD FOREST DR\nBATON ROUGE, LA 70816\n(30.468521, -91.058085)', '2205 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '2206 N FOSTER DR\nBATON ROUGE, LA 70805\n(30.468608, -91.139826)', '2212 N SHERWOOD FOREST BL\nBATON ROUGE, LA 70815', '2213 S SHERWOOD FORREST BL\nBATON ROUGE, LA 70816\n(30.431783, -91.057091)', '2214 N SHERWOOD FOREST DR\nBATON ROUGE, LA 70815\n(30.468607, -91.058085)', '2216 S BROCK PL\nBATON ROUGE, LA 70807\n(30.55658, -91.170194)', '2220 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '2226 E BELFAIR DR\nBATON ROUGE, LA 70805\n(30.468332, -91.148542)', '2227 N STEVENDALE RD\nBATON ROUGE, LA 70815\n(30.47096, -91.002467)', '2228 S BROCK PL\nBATON ROUGE, LA 70805\n(30.556583, -91.170237)', '2231 N LITTLE JOHN DR\nBATON ROUGE, LA 70815\n(30.469611, -91.052455)', '2237 S ACADIAN TH\nBATON ROUGE, LA 70808', '2239 N STEVENDALE RD\nBATON ROUGE, LA 70819\n(30.471406, -91.002396)', '2244 N CAPITOL PARK CT\nBATON ROUGE, LA 70805\n(30.456386, -91.165246)', '2244 N SHERWOOD FOREST DR\nBATON ROUGE, LA 70815\n(30.469719, -91.058082)', '2255 N FOSTER DR\nBATON ROUGE, LA 70805\n(30.469033, -91.139841)', '2256 N LITTLE JOHN DR\nBATON ROUGE, LA 70815\n(30.469999, -91.052454)', '2267 E SMILEY AV\nBATON ROUGE, LA 70806\n(30.468318, -91.124238)', '229 S ARDENWOOD DR\nBATON ROUGE, LA 70806\n(30.448429, -91.127323)', '229 W JOHNSON ST\nBATON ROUGE, LA 70802\n(30.424467, -91.180119)', '2300 N LOBDELL BL\nBATON ROUGE, LA 70805', '2300 S ACADIAN TH\nBATON ROUGE, LA 70808', '2311 N SHERWOOD FOREST DR\nBATON ROUGE, LA 70815\n(30.469773, -91.058082)', '2316 N 37TH ST\nBATON ROUGE, LA 70805\n(30.468919, -91.15341)', '2320 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70815', '2320 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '2324 S ACADIAN TH\nBATON ROUGE, LA 70808', '2324 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '2333 S ACADIAN TH\nBATON ROUGE, LA 70806', '2336 N SHERWOOD FOREST BL\nBATON ROUGE, LA 70815', '2336 N SHERWOOD FOREST DR\nBATON ROUGE, LA 70815\n(30.470088, -91.058081)', '234 S WAVERLY DR\nBATON ROUGE, LA 70806\n(30.44835, -91.130993)', '2340 N 20TH ST\nBATON ROUGE, LA 70802\n(30.468872, -91.169043)', '2340 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '2340 S SHERWOOD FORSET BL\nBATON ROUGE, LA 70816\n(30.431202, -91.057033)', '2346 E MASON AV\nBATON ROUGE, LA 70805\n(30.507141, -91.167182)', '2346 N SHERWOOD FOREST DR\nBATON ROUGE, LA 70815\n(30.470179, -91.058081)', '235 S 20TH ST\nBATON ROUGE, LA 70802\n(30.446327, -91.168041)', '235 S WAVERLY DR\nBATON ROUGE, LA 70806\n(30.448394, -91.130992)', '236 E KIRKLEY PL\nBATON ROUGE, LA 70816\n(30.459596, -91.037491)', '2382 N LOBDELL BL\nBATON ROUGE, LA 70805\n(30.471246, -91.12267)', '2398 N SHERWOOD FOREST DR\nBATON ROUGE, LA 70815\n(30.470721, -91.058078)', '2400 N LOBDELL BL\nBATON ROUGE, LA 70806', '2414 N ACADIAN TH\nBATON ROUGE, LA 70805', '2421 S ACADIAN TH\nBATON ROUGE, LA 70815', '2441 N SHERWOOD FOREST BL\nBATON ROUGE, LA 70815', '2445 S ACADIAN TH\nBATON ROUGE, LA 70808', '2450 S ACADIAN DR\nBATON ROUGE, LA 70802', '2477 N FLANNERY RD\nBATON ROUGE, LA 70816\n(30.472816, -91.033377)', '250 N 13TH ST\nBATON ROUGE, LA 70802\n(30.449435, -91.176298)', '2500 N ARDENWOOD DR\nBATON ROUGE, LA 70805\n(30.470805, -91.130179)', '2500 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '2525 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70815', '2534 N FOSTER DR\nBATON ROUGE, LA 70805\n(30.47094, -91.140184)', '2535 E CONTOUR DR\nBATON ROUGE, LA 70809\n(30.427061, -91.086848)', '2599 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '262 W STATE ST\nBATON ROUGE, LA 70806\n(30.418225, -91.178887)', '2628 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '2648 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '2695 N SHERWOOD FOREST DR\nBATON ROUGE, LA 70814\n(30.473221, -91.058012)', '2697 W AMITE DR\nBATON ROUGE, LA 70816\n(30.475422, -91.006763)', '2700 N 38TH ST\nBATON ROUGE, LA 70805\n(30.472473, -91.152567)', '2703 N THIRD ST\nBATON ROUGE, LA 70802', '2727 N ACADIAN W TH\nBATON ROUGE, LA 70805', '2742 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70815', '2747 N 31ST ST\nBATON ROUGE, LA 70802\n(30.472512, -91.157763)', '275 S RIVER RD\nBATON ROUGE, LA 70802\n(30.44524, -91.190102)', '2756 N ACADIAN W TH\nBATON ROUGE, LA 70805', '2757 E LAKE SHORE DR\nBATON ROUGE, LA 70808\n(30.419554, -91.164562)', '2757 E LAKESHORRE DR\nBATON ROUGE, LA 70808\n(30.420047, -91.166023)', '2770 W BOCAGE CT\nBATON ROUGE, LA 70816\n(30.427328, -91.11158)', '2774 N LARK ST\nBATON ROUGE, LA 70807\n(30.525051, -91.164432)', '280 N LEO ST\nBATON ROUGE, LA 70802\n(30.45037, -91.146361)', '2800 N 38TH ST\nBATON ROUGE, LA 70805\n(30.472818, -91.152583)', '2805 W AMITE DR\nBATON ROUGE, LA 70817\n(30.476308, -91.006795)', '2834 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '2851 E EVANGELINE ST\nBATON ROUGE, LA 70805\n(30.492374, -91.161714)', '288 W GRANT ST\nBATON ROUGE, LA 70802\n(30.423082, -91.180543)', '2900 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '2927 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '2A1', '2A2', '2A3', '2B1', '2B2', '2B3', '2B4', '2B5', '2C1', '2C2', '2C3', '2D1', '2D2', '2D3', '2F1', '3', '30', '300', '300 E HARDING ST\nBATON ROUGE, LA 70802\n(30.425999, -91.178772)', '300 N 12TH ST\nBATON ROUGE, LA 70802\n(30.450004, -91.177326)', '300 N 17TH ST\nBATON ROUGE, LA 70802\n(30.450475, -91.171142)', '300 N 18TH ST\nBATON ROUGE, LA 70802\n(30.450485, -91.169921)', '300 N 4TH ST\nBATON ROUGE, LA 70802\n(30.449339, -91.187047)', '300 N FOSTER DR\nBATON ROUGE, LA 70805\n(30.449603, -91.138954)', '300 N THIRD ST\nBATON ROUGE, LA 70802\n(30.44931, -91.188259)', '300 W JOHNSON ST\nBATON ROUGE, LA 70808\n(30.424441, -91.181172)', '3000', '3000 E MASON AV\nBATON ROUGE, LA 70805\n(30.507389, -91.160079)', '3000 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '30000', '300000', '3002 E MASON AV\nBATON ROUGE, LA 70805\n(30.507379, -91.160235)', '3003 S RIVER RD\nBATON ROUGE, LA 70802\n(30.420392, -91.193661)', '301 N THIRD ST\nBATON ROUGE, LA 70802\n(30.44931, -91.188259)', '303 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '3038 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '3120 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '3124 S EUGENE ST\nBATON ROUGE, LA 70808\n(30.425867, -91.156121)', '3140 N SHERWOOD FOREST BL\nBATON ROUGE, LA 70814', '3140 N SHERWOOD FOREST DR\nBATON ROUGE, LA 70806\n(30.477884, -91.058263)', '3140 N SHERWOOD FOREST DR\nBATON ROUGE, LA 70814\n(30.475687, -91.058187)', '3140 N SHERWOOD FOREST DR\nBATON ROUGE, LA 70815\n(30.478749176000065, -91.058263007999983)', '3203 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '3232 N SHERWOOD FOREST DR\nBATON ROUGE, LA 70814\n(30.480195, -91.058349)', '3232 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '3233 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '330 N 24TH ST\nBATON ROUGE, LA 70805\n(30.45074, -91.163646)', '3332 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70815\n(30.481495, -91.058393)', '3333 N FOSTER DR\nBATON ROUGE, LA 70805\n(30.479075, -91.140639)', '334 E KIRKLEY PL\nBATON ROUGE, LA 70816\n(30.458296, -91.037313)', '334 N THIRD ST\nBATON ROUGE, LA 70802\n(30.449831, -91.188284)', '3345 N FOSTER DR\nBATON ROUGE, LA 70805\n(30.479385, -91.140654)', '335 N 23RD ST\nBATON ROUGE, LA 70802\n(30.450722, -91.16441)', '3350 E BROOKSTOWN DR\nBATON ROUGE, LA 70805\n(30.479961, -91.127992)', '337 N 25TH ST\nBATON ROUGE, LA 70805\n(30.450708, -91.162792)', '341 N 23RD ST\nBATON ROUGE, LA 70805\n(30.450588, -91.164404)', '3410 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816\n(30.482095, -91.058411)', '3425 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816\n(30.482215, -91.058415)', '343 E KIRLKLEY PL\nBATON ROUGE, LA 70816', '3444 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816\n(30.482357, -91.05842)', '3449 N FOSTER DR\nBATON ROUGE, LA 70805\n(30.48011, -91.140689)', '3452 E FOREST DR\nBATON ROUGE, LA 70814\n(30.481431, -91.06009)', '3464 N FOSTER DR\nBATON ROUGE, LA 70805\n(30.48039, -91.140702)', '350 S FOSTER DR\nBATON ROUGE, LA 70805\n(30.445915, -91.13881)', '3500 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816\n(30.482787, -91.058436)', '355 E BUCHANAN ST\nBATON ROUGE, LA 70802\n(30.425012, -91.178182)', '355 W LEE DR\nBATON ROUGE, LA 70820\n(30.39202, -91.161635)', '3551 N 38TH ST\nBATON ROUGE, LA 70805\n(30.48139, -91.15294)', '3554 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816\n(30.483202, -91.058462)', '356 W GRANT ST\nBATON ROUGE, LA 70802\n(30.423069, -91.181197)', '3600 N SHERWOOD FOREST DR\nBATON ROUGE, LA 70814\n(30.483555, -91.058492)', '3609 N ACADIAN TH\nBATON ROUGE, LA 70805', '361 N PARKVIEW PL\nBATON ROUGE, LA 70815\n(30.447386, -91.078624)', '3636 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816\n(30.483826, -91.058545)', '3700 E BROOKSTOWN DR\nBATON ROUGE, LA 70805\n(30.484289, -91.128064)', '3700 E BROOKSTOWN RD\nBATON ROUGE, LA 70805\n(30.483862, -91.128052)', '3700 E MEADOWBROOKS AV\nBATON ROUGE, LA 70805', '371 N BECK ST\nBATON ROUGE, LA 70806\n(30.452184, -91.144542)', '3733 W CARIBOU CT\nBATON ROUGE, LA 70814\n(30.489181, -91.063191)', '3733 W CARIBOU CT\nBATON ROUGE, LA 70815\n(30.489599, -91.063194)', '3740 N 38TH ST\nBATON ROUGE, LA 70805\n(30.483053, -91.153013)', '3765 N ACADIAN TH\nBATON ROUGE, LA 70805', '3768 N ACADIAN ST\nBATON ROUGE, LA 70805\n(30.483073, -91.156628)', '3800 S SHERWOOD FOREST BL\nBATON ROUGE, LA </t>
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>335638</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>['(Null)', '1', '2', '3', '4', 'O']</t>
         </is>
       </c>
     </row>
@@ -1833,10 +1971,10 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>250565</v>
+        <v>267773</v>
       </c>
       <c r="E18" t="n">
-        <v>250565</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1851,19 +1989,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K18" t="n">
         <v>-1</v>
       </c>
       <c r="L18" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N18" t="n">
-        <v>71</v>
+        <v>13573</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -1881,24 +2019,32 @@
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>T</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>62546</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
+        <v>424</v>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
       </c>
       <c r="V18" t="n">
-        <v>635319</v>
+        <v>54338</v>
       </c>
       <c r="W18" t="n">
-        <v>2023</v>
-      </c>
-      <c r="X18" t="inlineStr">
-        <is>
-          <t>['1', '1 DALRYMPLE\nBATON ROUGE, LA\n(30.415783, -91.176362)', '10', '100', '100 CONVENTION\nBATON ROUGE, LA\n(30.448174, -91.190353)', '100 DALRYMPLE\nBATON ROUGE, LA', '100 EAST I-12\nBATON ROUGE, LA', '100 EDDIE ROBINSON\nBATON ROUGE, LA\n(30.447234, -91.175943)', '100 FLORIDA\nBATON ROUGE, LA\n(30.449273, -91.190404)', '100 I-10\nBATON ROUGE, LA', '100 LAUREL\nBATON ROUGE, LA\n(30.450299, -91.190465)', '100 LEE\nBATON ROUGE, LA\n(30.393883, -91.159789)', '100 MAYFLOWER\nBATON ROUGE, LA\n(30.440724, -91.18867)', '100 RIVER RD\nBATON ROUGE, LA\n(30.447053, -91.190145)', '100 SKIP BERTMAN\nBATON ROUGE, LA', '100 TOWER\nBATON ROUGE, LA', '1000 BOB PETIT\nBATON ROUGE, LA', '1000 BRIGHTSIDE\nBATON ROUGE, LA', '1000 FLORIDA\nBATON ROUGE, LA\n(30.449579, -91.17947)', '1000 GOVERNMENT\nBATON ROUGE, LA\n(30.443471, -91.179801)', '1000 MAIN\nBATON ROUGE, LA\n(30.451681, -91.179349)', '1000 MYRTLE\nBATON ROUGE, LA\n(30.43828, -91.179467)', '1000 N/B I-110 @ WELLER AVE\nBATON ROUGE, LA', '1000 NICHOLSON\nBATON ROUGE, LA\n(30.437994, -91.187325)', '1000 TERRACE\nBATON ROUGE, LA\n(30.436333, -91.178181)', '10000 AIRLINE HIGHWAY\nBATON ROUGE, LA\n(30.420375, -91.072703)', '10000 FLORIDA BOULEVARD\nBATON ROUGE, LA\n(30.456398, -91.072071)', '10000 HYACINTH\nBATON ROUGE, LA\n(30.38045, -91.101022)', '10000 RED OAK\nBATON ROUGE, LA', '10000 TAMS\nBATON ROUGE, LA\n(30.467281, -91.073334)', '10008 AVE L\nBATON ROUGE, LA\n(30.535918, -91.200706)', '10008 AVENUE L\nBATON ROUGE, LA\n(30.535918, -91.200706)', '10022 FLORIDA\nBATON ROUGE, LA\n(30.456426, -91.071896)', '10025 AVE H\nBATON ROUGE, LA\n(30.535802, -91.197015)', '1003 BOB PETTIE\nBATON ROUGE, LA', '1003 BOB PETTIT\nBATON ROUGE, LA\n(30.396451, -91.178491)', '10045 FLORIDA\nBATON ROUGE, LA\n(30.456881, -91.071815)', '10045 GWENADALE\nBATON ROUGE, LA', '10045 GWENADELE\nBATON ROUGE, LA\n(30.42633, -91.076191)', '10045 GWENADELLE\nBATON ROUGE, LA', '10075 AVE J\nBATON ROUGE, LA\n(30.535833, -91.198865)', '10095 AVE. A\nBATON ROUGE, LA\n(30.536215, -91.190504)', '10097 AVE L\nBATON ROUGE, LA\n(30.535924, -91.200707)', '10100 AVENUE J\nBATON ROUGE, LA\n(30.536436, -91.198885)', '10106 AVE. I\nBATON ROUGE, LA\n(30.536308, -91.197955)', '1014 PROGRESS\nBATON ROUGE, LA\n(30.537475, -91.184185)', '102 FRANCE\nBATON ROUGE, LA\n(30.442757, -91.189446)', '10200 AIRLINE\nBATON ROUGE, LA', '10200 AVE D\nBATON ROUGE, LA\n(30.537019, -91.193289)', '10200 AVENUE E\nBATON ROUGE, LA', '10200 VETERANS MEMORIAL\nBATON ROUGE, LA', '10201 AVE C\nBATON ROUGE, LA\n(30.537259, -91.192367)', '10209 AVENUE M\nBATON ROUGE, LA\n(30.536894, -91.201684)', '10210 AVE L\nBATON ROUGE, LA\n(30.536896, -91.200745)', '10210 AVENUE L\nBATON ROUGE, LA\n(30.536896, -91.200745)', '1022 TIMBER SIDE\nBATON ROUGE, LA\n(30.459394, -91.129468)', '10223 BALLINA\nBATON ROUGE, LA\n(30.454393, -91.073495)', '1023 TIMBERSIDE\nBATON ROUGE, LA\n(30.459243, -91.129631)', '10245 DARADELLE\nBATON ROUGE, LA\n(30.421057, -91.072766)', '10265 AV\nBATON ROUGE, LA', '10294 AVE D\nBATON ROUGE, LA\n(30.537611, -91.19331)', '10300 AVE G\nBATON ROUGE, LA\n(30.538017, -91.196144)', '10311 PLAZA AMERICANA\nBATON ROUGE, LA\n(30.426664, -91.072474)', '10332 PLAZA AMERICANA\nBATON ROUGE, LA\n(30.42676, -91.072185)', '10350 HWY 19\nBATON ROUGE, LA', '10400 GREENWELL SPRINGS\nBATON ROUGE, LA', '10400 HWY 19\nBATON ROUGE, LA', '10400 OLD HAMMOND\nBATON ROUGE, LA\n(30.433345, -91.070826)', '1050 CHIPPEWA\nBATON ROUGE, LA\n(30.472759, -91.179344)', '1050 CONVENTION\nBATON ROUGE, LA\n(30.44851, -91.179109)', '10500 CANADA ST.\nBATON ROUGE, LA\n(30.540114, -91.18937)', '1054 EXECUTIVE PARK\nBATON ROUGE, LA', '10545 DARRYL\nBATON ROUGE, LA\n(30.470875, -91.066985)', '106 DUNBAR\nBATON ROUGE, LA', '1060 CENTRAL\nBATON ROUGE, LA\n(30.53458, -91.182272)', '10600 CHOCTAW\nBATON ROUGE, LA\n(30.472246, -91.065664)', '10600 GOODWOOD\nBATON ROUGE, LA\n(30.444651, -91.070102)', '10600 PLAZA AMERICANA\nBATON ROUGE, LA\n(30.427213, -91.06842)', '10600 SCOTLAND\nBATON ROUGE, LA\n(30.540715, -91.17734)', '10625 FLORIDA\nBATON ROUGE, LA\n(30.457547, -91.067614)', '10625 FLORIDA BLVD.\nBATON ROUGE, LA\n(30.457643, -91.067)', '10650 AVE F\nBATON ROUGE, LA\n(30.541294, -91.195658)', '10652 AVE F\nBATON ROUGE, LA\n(30.540718, -91.19536)', '1068 WOODDALE\nBATON ROUGE, LA\n(30.459321, -91.108968)', '10700 HWY 19\nBATON ROUGE, LA', '10700 HWY, 19\nBATON ROUGE, LA', '10700 SCOTLAND\nBATON ROUGE, LA\n(30.542487, -91.176951)', '10738 OLD HAMMOND\nBATON ROUGE, LA\n(30.434642, -91.065738)', '10770 FLORIDA\nBATON ROUGE, LA\n(30.457474, -91.065288)', '10770 FLORIDA BLVD.\nBATON ROUGE, LA\n(30.457516, -91.065021)', '10825 FLORIDA\nBATON ROUGE, LA\n(30.458092, -91.064195)', '10838 GREENWELL SPRINGS RD\nBATON ROUGE, LA\n(30.493708, -91.062901)', '1084 MONET\nBATON ROUGE, LA\n(30.459947, -91.117449)', '10888 HWY 19\nBATON ROUGE, LA', '10950 DARRYL\nBATON ROUGE, LA\n(30.47103, -91.062163)', '110 BOB PETTIT\nBATON ROUGE, LA', '1100 AVENUE B\nBATON ROUGE, LA', '1100 BOB PETIT\nBATON ROUGE, LA', '1100 BOB PETTIT\nBATON ROUGE, LA\n(30.396322, -91.178968)', '1100 CRISTY\nBATON ROUGE, LA\n(30.462606, -91.045874)', '1100 EAST I-10\nBATON ROUGE, LA', '1100 FLORA\nBATON ROUGE, LA\n(30.379392, -91.106911)', '1100 I10\nBATON ROUGE, LA', '1100 PETTIT\nBATON ROUGE, LA', '1100 ST JOSEPH\nBATON ROUGE, LA\n(30.437959, -91.182361)', '11007 MAJOR OAK\nBATON ROUGE, LA', '1101 BRUCE ALLEY\nBATON ROUGE, LA\n(30.437883, -91.172324)', '1101 THOMAS H DELPIT\nBATON ROUGE, LA\n(30.438264, -91.180169)', '11010 COURSEY\nBATON ROUGE, LA\n(30.414827, -91.058222)', '1102 N. 37TH\nBATON ROUGE, LA\n(30.458084, -91.152764)', '11055 DEVALL\nBATON ROUGE, LA\n(30.545347, -91.151007)', '1110 THOMAS H DELPIT\nBATON ROUGE, LA\n(30.438163, -91.18017)', '11100 CYPRESS DALE\nBATON ROUGE, LA', '11140 BOARDWALK\nBATON ROUGE, LA\n(30.431634, -91.060037)', '1115 BOB PETITT\nBATON ROUGE, LA', '1115 BOB PETTIT\nBATON ROUGE, LA\n(30.396109, -91.179287)', '1117 ROUNDTREE\nBATON ROUGE, LA', '1120 SPANISHTOWN\nBATON ROUGE, LA\n(30.454902, -91.178445)', '11209 MURIEL\nBATON ROUGE, LA\n(30.434703, -91.058405)', '1121 BOB PETTIT\nBATON ROUGE, LA\n(30.3961, -91.179326)', '11244 FLORIDA\nBATON ROUGE, LA\n(30.458433, -91.059279)', '11247 CYPRESS GLEN\nBATON ROUGE, LA', '1125 BOB PETTIIT\nBATON ROUGE, LA', '1125 BOB PETTIT\nBATON ROUGE, LA\n(30.396092, -91.179366)', '11256 RED OAK\nBATON ROUGE, LA\n(30.463822, -91.058929)', '113 LSU\nBATON ROUGE, LA\n(30.402365, -91.170483)', '11300 BOARDWALK\nBATON ROUGE, LA\n(30.431636, -91.058513)', '11300 ROBBIN HOOD\nBATON ROUGE, LA', '11300 S HARRELLS FERRY\nBATON ROUGE, LA', '11314 BOARDWALK\nBATON ROUGE, LA\n(30.431633, -91.058379)', '11320 GREENWELL SPRINGS\nBATON ROUGE, LA', '11400 FLORIDA\nBATON ROUGE, LA\n(30.458835, -91.056779)', '11411 DARRYL\nBATON ROUGE, LA\n(30.471087, -91.056808)', '11414 BOARDWALK\nBATON ROUGE, LA', '11430 FLORIDA\nBATON ROUGE, LA\n(30.458889, -91.056445)', '11444 REULET\nBATON ROUGE, LA\n(30.431806, -91.056617)', '11468 GLENDA\nBATON ROUGE, LA\n(30.462249, -91.056131)', '1148 RODIN\nBATON ROUGE, LA\n(30.460052, -91.122774)', '11500 FLORIDA BLVD.\nBATON ROUGE, LA\n(30.459015, -91.055668)', '11528 OLD HAMMOND\nBATON ROUGE, LA\n(30.437262, -91.055448)', '11558 SEWANEE\nBATON ROUGE, LA\n(30.428339, -91.053964)', '1157 MONET\nBATON ROUGE, LA\n(30.460704, -91.117483)', '11581 AUBURN\nBATON ROUGE, LA\n(30.427439, -91.053048)', '11585 HARRELLS FERRY\nBATON ROUGE, LA', '11600 HIGHWAY 19\nBATON ROUGE, LA', '11600 HWY 19\nBATON ROUGE, LA', '11600 LA. HWY. 19\nBATON ROUGE, LA', '11644 GLENDA\nBATON ROUGE, LA\n(30.462235, -91.054147)', '11698 FLORIDA\nBATON ROUGE, LA\n(30.459371, -91.053469)', '11700 HWY 19\nBATON ROUGE, LA', '11705 COURSEY\nBATON ROUGE, LA\n(30.411195, -91.051387)', '11724 ROBIN HOOD\nBATON ROUGE, LA\n(30.456472, -91.052272)', '11744 DARRYL\nBATON ROUGE, LA\n(30.471197, -91.05282)', '1175 CHOCTAW\nBATON ROUGE, LA\n(30.469498, -91.178775)', '1175 MONET\nBATON ROUGE, LA\n(30.460886, -91.117491)', '1176 BOB PETIT\nBATON ROUGE, LA', '1176 BOB PETITE\nBATON ROUGE, LA', '1176 BOB PETTIT\nBATON ROUGE, LA\n(30.396253, -91.179269)', '1177 PARLAGNE\nBATON ROUGE, LA', '1184 BOB PETIT\nBATON ROUGE, LA', '1184 BOB PETTIT\nBATON ROUGE, LA\n(30.396246, -91.179301)', '1188 ROSENWALD\nBATON ROUGE, LA\n(30.531399, -91.181516)', '1188 ROSENWALD RD.\nBATON ROUGE, LA\n(30.531399, -91.181539)', '11888 LONGRIDGE\nBATON ROUGE, LA\n(30.422358, -91.048352)', '1190 BOB PETTIT\nBATON ROUGE, LA\n(30.396242, -91.179317)', '11999 LONGRIDGE\nBATON ROUGE, LA\n(30.42232, -91.047299)', '1200 BOB PETIT\nBATON ROUGE, LA', '1200 JAY HEBERT\nBATON ROUGE, LA', '1200 LAUREL\nBATON ROUGE, LA\n(30.45068, -91.177472)', '1200 MAXIMILLION\nBATON ROUGE, LA', '12000 HWY 19\nBATON ROUGE, LA', '12002 SHANNON\nBATON ROUGE, LA\n(30.464824, -91.049137)', '1201 CAPITOL ACCESS\nBATON ROUGE, LA\n(30.458206, -91.178519)', '1202 MAIN\nBATON ROUGE, LA\n(30.451739, -91.177365)', '12020 FLORIDA\nBATON ROUGE, LA\n(30.459993, -91.049505)', '12020 FLORIDA BLVD.\nBATON ROUGE, LA\n(30.459996, -91.049489)', '12029 NORTH LAKE SHERWOOD\nBATON ROUGE, LA', '12041 PROVINCE\nBATON ROUGE, LA\n(30.43783, -91.046282)', '12041 PROVINCE PLACE\nBATON ROUGE, LA\n(30.437828, -91.046271)', '12051 PROVINCE PLACE\nBATON ROUGE, LA\n(30.437805, -91.046106)', '12100 FLORIDA BLVD.\nBATON ROUGE, LA\n(30.460394, -91.046919)', '12100 OLD HAMMOND\nBATON ROUGE, LA\n(30.440401, -91.045417)', '12121 TAMS\nBATON ROUGE, LA\n(30.466655, -91.047694)', '12145 PLYMOUTH DRIVE\nBATON ROUGE, LA\n(30.556375, -91.165216)', '1215 PROGRESS RD.\nBATON ROUGE, LA\n(30.537544, -91.181946)', '12200 COURSEY\nBATON ROUGE, LA\n(30.411335, -91.043603)', '1221 BOB PETTIT\nBATON ROUGE, LA\n(30.395884, -91.180555)', '1222 JIM TAYLOR\nBATON ROUGE, LA\n(30.391785, -91.181434)', '12247 LEONIDAS\nBATON ROUGE, LA\n(30.556779, -91.166416)', '1225 SHARP ROAD\nBATON ROUGE, LA\n(30.443687, -91.067204)', '12254 LA MARGIE\nBATON ROUGE, LA\n(30.469979, -91.045844)', '12300 FLORIDA BLVD.\nBATON ROUGE, LA\n(30.460597, -91.045635)', '12300 LAMARGIE\nBATON ROUGE, LA\n(30.469977, -91.045537)', '12335 LAKE LADARE\nBATON ROUGE, LA\n(30.41843, -91.043756)', '12351 FLORIDA\nBATON ROUGE, LA\n(30.461077, -91.045471)', '12368 WARFIELD\nBATON ROUGE, LA\n(30.465777, -91.045189)', '1238 SHARLO\nBATON ROUGE, LA\n(30.389581, -91.182338)', '1239 JIM TAYLOR\nBATON ROUGE, LA\n(30.391826, -91.181791)', '12390 HWY 19\nBATON ROUGE, LA', '12397 HWY 19\nBATON ROUGE, LA', '12400 HWY 19\nBATON ROUGE, LA', '12400 LA 19TH\nBATON ROUGE, LA\n(30.549268263000044, -91.17558726599998)', '12437 CATE\nBATON ROUGE, LA\n(30.46338, -91.044593)', '12443 FAIRHOPE\nBATON ROUGE, LA\n(30.437231, -91.035363)', '12447 COURSEY\nBATON ROUGE, LA\n(30.410889, -91.040564)', '1246 LAUREL\nBATON ROUGE, LA\n(30.450697, -91.17691)', '1248 COLUMBUS DUNN\nBATON ROUGE, LA\n(30.460032, -91.144346)', '12495 LORNA\nBATON ROUGE, LA\n(30.464183, -91.044041)', '1251 N. ARDENWOOD\nBATON ROUGE, LA\n(30.461284, -91.127769)', '12527 COURSEY\nBATON ROUGE, LA\n(30.410368, -91.036937)', '1253 FLORIDA\nBATON ROUGE, LA\n(30.449656, -91.176461)', '12533 COURSEY\nBATON ROUGE, LA\n(30.410367, -91.036926)', '12562 WARFIELD\nBATON ROUGE, LA\n(30.465786, -91.043565)', '12567 FLORIDA\nBATON ROUGE, LA\n(30.461373, -91.043629)', '12567 FLORIDA BLVD\nBATON ROUGE, LA\n(30.461367, -91.043667)', '1257 JIM TAYLOR\nBATON ROUGE, LA\n(30.391859, -91.182086)', '12587 WARFIELD\nBATON ROUGE, LA\n(30.465879, -91.04328)', '1260 MAIN\nBATON ROUGE, LA\n(30.451753, -91.176683)', '12634 COUNTRY RIDGE\nBATON ROUGE, LA', '12642 NEWCASTLE\nBATON ROUGE, LA\n(30.421988, -91.041397)', '1265 HIGHLAND PARK\nBATON ROUGE, LA\n(30.43657, -91.185465)', '1272 LAUREL\nBATON ROUGE, LA\n(30.450708, -91.176481)', '1275 LAUREL\nBATON ROUGE, LA\n(30.450709, -91.176448)', '12756 STUTGART\nBATON ROUGE, LA\n(30.414591, -91.037087)', '12767 DEERPATH\nBATON ROUGE, LA\n(30.427814, -91.040519)', '12850 FLORIDA\nBATON ROUGE, LA\n(30.461437, -91.040325)', '12860 PERKINS\nBATON ROUGE, LA\n(30.368399, -91.074933)', '1300 39TH\nBATON ROUGE, LA\n(30.460221, -91.15156)', '1300 BOB PETTIT\nBATON ROUGE, LA\n(30.395568, -91.181509)', '1300 EDDIE ROBINSON\nBATON ROUGE, LA\n(30.436265, -91.175344)', '1300 SCENIC\nBATON ROUGE, LA', '1300 SORA ST\nBATON ROUGE, LA\n(30.5245, -91.180482)', '1300 SWAN\nBATON ROUGE, LA\n(30.523707, -91.18034)', '1300 THOMAS H DELPIT\nBATON ROUGE, LA\n(30.436311, -91.180115)', '1300 THOMAS H. DELPIT\nBATON ROUGE, LA\n(30.436311, -91.180115)', '1305 MYRTLE\nBATON ROUGE, LA\n(30.438406, -91.175433)', '13151 FLORIDA\nBATON ROUGE, LA\n(30.462182, -91.038458)', '1317 HARWICH\nBATON ROUGE, LA\n(30.39093, -91.18611)', '132 LSU PLACE\nBATON ROUGE, LA\n(30.402408, -91.170234)', '13250 ARLINGFORD\nBATON ROUGE, LA\n(30.457383, -91.036768)', '1330 PLANK\nBATON ROUGE, LA\n(30.460392, -91.166918)', '1332 HARWICH\nBATON ROUGE, LA\n(30.391361, -91.186836)', '1332 SHARLO\nBATON ROUGE, LA\n(30.39002, -91.183323)', '1334 FLORIDA\nBATON ROUGE, LA\n(30.449668, -91.176018)', '1335 FLORIDA\nBATON ROUGE, LA\n(30.449668, -91.176018)', '1340 SHARLO\nBATON ROUGE, LA\n(30.390073, -91.183403)', '1341 KENILWORTH\nBATON ROUGE, LA\n(30.389439, -91.125906)', '1344 N. 47TH\nBATON ROUGE, LA\n(30.460814, -91.142796)', '1346 MAIN\nBATON ROUGE, LA\n(30.451805, -91.175363)', '1350 BOB PETIT\nBATON ROUGE, LA', '1350 BOB PETTIT\nBATON ROUGE, LA\n(30.395358, -91.182074)', '1350 MAYFAIR HILL\nBATON ROUGE, LA', '1356 MAIN\nBATON ROUGE, LA\n(30.451814, -91.175198)', '1359 PLANK\nBATON ROUGE, LA\n(30.460938, -91.166741)', '136 N. BAXTER\nBATON ROUGE, LA\n(30.448279, -91.164924)', '1362 BRIGHTSIDE\nBATON ROUGE, LA\n(30.387646, -91.173207)', '1374 THOMAS H DELPIT\nBATON ROUGE, LA\n(30.435608, -91.17969)', '1375 ROSENWALD\nBATON ROUGE, LA\n(30.531446, -91.179723)', '1385 HARWICH\nBATON ROUGE, LA\n(30.390636, -91.186658)', '1394 PROGRESS\nBATON ROUGE, LA\n(30.537613, -91.179382)', '13999 HWY 19\nBATON ROUGE, LA', '1400 BRIGHTSIDE\nBATON ROUGE, LA\n(30.387515, -91.173515)', '1400 GOVERNMENT\nBATON ROUGE, LA\n(30.443661, -91.174727)', '1400 MARQUE ANN\nBATON ROUGE, LA\n(30.464968, -91.043066)', '1400 ROBIN ST.\nBATON ROUGE, LA\n(30.525288, -91.179268)', '1400 SORA ST.\nBATON ROUGE, LA\n(30.524529, -91.179266)', '1415 MAIN\nBATON ROUGE, LA\n(30.451812, -91.17524)', '1417 COLUMBUS DUNN\nBATON ROUGE, LA\n(30.461278, -91.144408)', '1434 SHARLO\nBATON ROUGE, LA\n(30.390234, -91.18444)', '1440 THOMAS DELPIT\nBATON ROUGE, LA\n(30.434937, -91.179256)', '1440 THOMAS H. DELPIT\nBATON ROUGE, LA\n(30.434937, -91.179256)', '1443 BRIGHTSIDE\nBATON ROUGE, LA\n(30.387561, -91.173396)', '1447 CHRISTY\nBATON ROUGE, LA', '1450 THOMAS H. DELPIT\nBATON ROUGE, LA\n(30.434732, -91.179127)', '1465 ASTER\nBATON ROUGE, LA\n(30.419569, -91.193056)', '1465 DUCHESS\nBATON ROUGE, LA\n(30.465942, -91.04065)', '1489 MARCIA\nBATON ROUGE, LA\n(30.461991, -91.060498)', '1500 CRISTY\nBATON ROUGE, LA\n(30.465774, -91.045858)', '1500 FAIRCHILD\nBATON ROUGE, LA\n(30.522171, -91.177775)', '1500 MARQUE ANN\nBATON ROUGE, LA\n(30.466433, -91.043102)', '1500 MYRTLE WALK\nBATON ROUGE, LA\n(30.438418, -91.172644)', '1500 N. I-110\nBATON ROUGE, LA', '1500 SHARLO\nBATON ROUGE, LA\n(30.389649, -91.18473)', '1500 SHARLOW\nBATON ROUGE, LA', '1500 STANFORD\nBATON ROUGE, LA\n(30.413676, -91.158475)', '1500 THOMAS H DELPIT\nBATON ROUGE, LA\n(30.434375, -91.178885)', '1501 FLORIDA ST\nBATON ROUGE, LA\n(30.44975, -91.173183)', '1501 N. FOSTER\nBATON ROUGE, LA\n(30.462477, -91.139553)', '1515 SERRIA\nBATON ROUGE, LA', '1524 GREEN OAK\nBATON ROUGE, LA\n(30.463446, -91.063328)', '1527 79TH\nBATON ROUGE, LA\n(30.519459, -91.177294)', '1536 GARY\nBATON ROUGE, LA\n(30.433706, -91.179775)', '1536 SHARLO\nBATON ROUGE, LA\n(30.389266, -91.184799)', '1550 CHOCTAW\nBATON ROUGE, LA\n(30.469706, -91.172887)', '1555 NORTH\nBATON ROUGE, LA\n(30.452906, -91.173536)', '158 W. CHIMES\nBATON ROUGE, LA\n(30.417279, -91.177154)', '1580 79TH\nBATON ROUGE, LA\n(30.519472, -91.176868)', '15800 HEWWOOD\nBATON ROUGE, LA\n(30.438374, -91.01033)', '1600 BLOUNT RD.\nBATON ROUGE, LA\n(30.543439, -91.176733)', '1600 CONVENTION\nBATON ROUGE, LA\n(30.448697, -91.172723)', '1600 FAIRCHILD\nBATON ROUGE, LA\n(30.522209, -91.176744)', '1600 KAUFMAN ST.\nBATON ROUGE, LA\n(30.509657, -91.175397)', '1600 MYRTLE\nBATON ROUGE, LA\n(30.43843, -91.172001)', '1600 PLANK\nBATON ROUGE, LA\n(30.462837, -91.166)', '1600 SHERWOOD FOREST\nBATON ROUGE, LA', '1600 STANFORD\nBATON ROUGE, LA\n(30.414507, -91.157684)', '1600 THOMAS DELPIT\nBATON ROUGE, LA\n(30.433258, -91.178153)', '1600 WOODDALE\nBATON ROUGE, LA\n(30.462856, -91.111418)', '16000 FLORIDA\nBATON ROUGE, LA\n(30.466374, -91.009215)', '16000 HATTERAS\nBATON ROUGE, LA\n(30.441236, -91.007924)', '1603 LA ANNIE\nBATON ROUGE, LA\n(30.467495, -91.043887)', '16030 NEHRU\nBATON ROUGE, LA\n(30.439288, -91.009067)', '16125 FLORIDA\nBATON ROUGE, LA\n(30.466845, -91.009057)', '1614 CLEAR LAKE\nBATON ROUGE, LA', '1623 BRIGHTSIDE\nBATON ROUGE, LA\n(30.387576, -91.175867)', '1623 MAIN\nBATON ROUGE, LA\n(30.451896, -91.172201)', '1625 NICHOLSON\nBATON ROUGE, LA\n(30.432129, -91.187512)', '1627 THOMAS H DELPIT\nBATON ROUGE, LA\n(30.433014, -91.177992)', '1628 AVONDALE\nBATON ROUGE, LA\n(30.434002, -91.139453)', '1636 GWEN\nBATON ROUGE, LA\n(30.463245, -91.059444)', '16525 COURSEY\nBATON ROUGE, LA', '1654 CLEAR LAKE\nBATON ROUGE, LA', '16745 FLORIDA BLVD.\nBATON ROUGE, LA\n(30.467716, -91.003189)', '1677 ROSENWALD\nBATON ROUGE, LA\n(30.531557, -91.176274)', '1680 COTTONDALE\nBATON ROUGE, LA\n(30.437144, -91.082495)', '1684 BRIGHTSIDE\nBATON ROUGE, LA\n(30.387648, -91.176479)', '1689 75TH. AVE.\nBATON ROUGE, LA\n(30.516242, -91.175127)', '16947 HAMILTON\nBATON ROUGE, LA\n(30.480893, -91.0006)', '1695 BEAUMONT\nBATON ROUGE, LA\n(30.465796, -91.108595)', '1698 WOODDALE\nBATON ROUGE, LA\n(30.464754, -91.111179)', '1700 72ND. AVE.\nBATON ROUGE, LA\n(30.514147, -91.175257)', '1700 BYNUM\nBATON ROUGE, LA\n(30.440752, -91.17053)', '1700 CHOCTAW\nBATON ROUGE, LA\n(30.469727, -91.172017)', '1700 EDDIE ROBINSON\nBATON ROUGE, LA\n(30.43269, -91.173014)', '1700 KAUFMAN\nBATON ROUGE, LA\n(30.509696, -91.174294)', '1700 SNIPE ST\nBATON ROUGE, LA\n(30.523061, -91.174707)', '1700 SNIPE ST.\nBATON ROUGE, LA\n(30.523061, -91.174707)', '1700 STILT ST.\nBATON ROUGE, LA\n(30.526936, -91.176245)', '1701 DUCHESS ST.\nBATON ROUGE, LA\n(30.468469, -91.040659)', '1701 GOVERNMENT\nBATON ROUGE, LA\n(30.443747, -91.171471)', '1701 LOBDELL\nBATON ROUGE, LA\n(30.433733, -91.11066)', '1702 LAUREL\nBATON ROUGE, LA\n(30.450889, -91.170963)', '1704 BRIGHTSIDE\nBATON ROUGE, LA\n(30.387734, -91.177274)', '1706 MAY\nBATON ROUGE, LA\n(30.423171, -91.171032)', '1707 SPANISHTOWN\nBATON ROUGE, LA\n(30.455108, -91.171914)', '1710 75TH. AVE.\nBATON ROUGE, LA\n(30.516251, -91.174924)', '1715 DUCHESS\nBATON ROUGE, LA\n(30.468527, -91.040658)', '1716 BOB PETTIT\nBATON ROUGE, LA', '1718 BLVD DE PROVINCE\nBATON ROUGE, LA\n(30.438817, -91.045292)', '1731 LAANNIE\nBATON ROUGE, LA\n(30.468564, -91.043887)', '1731 TERRACE\nBATON ROUGE, LA\n(30.436574, -91.17061)', '1733 AMOS\nBATON ROUGE, LA\n(30.46413, -91.147194)', '1735 MADISON\nBATON ROUGE, LA\n(30.467339, -91.171795)', '1737 LA ANNIE\nBATON ROUGE, LA\n(30.468615, -91.043887)', '1737 SOUTH POINT\nBATON ROUGE, LA\n(30.439723, -91.186933)', '1741 BLVD DE PROVINCE\nBATON ROUGE, LA\n(30.438912, -91.045276)', '1749 BLVD DE PROVINCE\nBATON ROUGE, LA\n(30.438731, -91.045306)', '1750 STILT\nBATON ROUGE, LA\n(30.527389, -91.175289)', '1754 THOMAS H DELPIT\nBATON ROUGE, LA\n(30.431645, -91.177088)', '1756 BLVD DE PROVIDENCE\nBATON ROUGE, LA\n(30.438377, -91.045367)', '1770 STANOCOLA\nBATON ROUGE, LA\n(30.540711, -91.17553)', '1774 BLVD DE PROVINCE\nBATON ROUGE, LA\n(30.4379, -91.04547)', '1780 78TH\nBATON ROUGE, LA\n(30.518551, -91.173676)', '1780 BLVD DE PROVINCE\nBATON ROUGE, LA\n(30.437596, -91.045534)', '1788 BOULEVARD DE PROVINCE\nBATON ROUGE, LA\n(30.437447, -91.045562)', '1800 69TH. AVE.\nBATON ROUGE, LA\n(30.512135, -91.174062)', '1800 74TH\nBATON ROUGE, LA\n(30.515588, -91.174072)', '1800 BIRCH\nBATON ROUGE, LA\n(30.463223, -91.170451)', '1800 CHESTNUT\nBATON ROUGE, LA\n(30.464858, -91.171571)', '1800 KENILWORTH PARKWAY\nBATON ROUGE, LA\n(30.395224, -91.121157)', '1800 LOBDELL\nBATON ROUGE, LA\n(30.462861, -91.116464)', '1800 STANFORD\nBATON ROUGE, LA\n(30.416186, -91.156146)', '1800 WALNUT\nBATON ROUGE, LA\n(30.464038, -91.170546)', '1800 WOODDALE\nBATON ROUGE, LA\n(30.46569, -91.111818)', '1801 STARING\nBATON ROUGE, LA\n(30.390313, -91.1118)', '1817 HARDING\nBATON ROUGE, LA\n(30.520699, -91.173589)', '1817 WISTERIA\nBATON ROUGE, LA\n(30.442907, -91.169801)', '1819 FLORIDA\nBATON ROUGE, LA\n(30.44988, -91.169499)', '1819 MARQUE ANN\nBATON ROUGE, LA\n(30.469383, -91.042887)', '1827 OREGON\nBATON ROUGE, LA\n(30.430242, -91.186462)', '1828 GRACIE\nBATON ROUGE, LA\n(30.456211, -91.170337)', '1835 SOUTHPOINTE\nBATON ROUGE, LA\n(30.393371, -91.11421)', '1836 OAK\nBATON ROUGE, LA\n(30.465415, -91.061057)', '1839 OREGON\nBATON ROUGE, LA\n(30.430024, -91.186456)', '1846 ELLERSLIE\nBATON ROUGE, LA\n(30.461733, -91.170269)', '1847 WOODCHASE\nBATON ROUGE, LA\n(30.406956, -91.136437)', '1848 GAYOSA\nBATON ROUGE, LA\n(30.454126, -91.169626)', '1855 BLVD DE PROVINCE\nBATON ROUGE, LA\n(30.436895, -91.045659)', '1855 BOULEVARD DE PROVINCE\nBATON ROUGE, LA\n(30.436895, -91.045659)', '1860 BLVD DE PROVINCE\nBATON ROUGE, LA\n(30.436009, -91.045711)', '1860 BLVD DEPROVINCE\nBATON ROUGE, LA\n(30.436009, -91.045711)', '1860 BOULEVARD DE PROVINCE\nBATON ROUGE, LA\n(30.436009, -91.045711)', '1866 N. FOSTER\nBATON ROUGE, LA\n(30.465809, -91.139697)', '1873 ROSENWALD\nBATON ROUGE, LA\n(30.531625, -91.173401)', '1873 ROSENWALD RD.\nBATON ROUGE, LA\n(30.531629, -91.173212)', '1881 WOODDALE\nBATON ROUGE, LA\n(30.466425, -91.112317)', '1900 BAHM\nBATON ROUGE, LA\n(30.46592, -91.136891)', '1900 DALRYMPLE\nBATON ROUGE, LA\n(30.431158, -91.169452)', '1900 GAYOSA\nBATON ROUGE, LA\n(30.454129, -91.169522)', '1900 SOUTHPOINTE\nBATON ROUGE, LA\n(30.393244, -91.114294)', '1902 HEMLOCK\nBATON ROUGE, LA\n(30.46652, -91.170088)', '191 LITTLE JOHN\nBATON ROUGE, LA\n(30.459067, -91.051272)', '1910 BRIGHTSIDE\nBATON ROUGE, LA\n(30.388011, -91.179812)', '1919 BLVD DE PROVINCE\nBATON ROUGE, LA\n(30.434012, -91.045716)', '1919 BLVD DE. PROVINCE\nBATON ROUGE, LA\n(30.434012, -91.045716)', '1919 BOULEVARD DE PROVINCE\nBATON ROUGE, LA\n(30.434012, -91.045716)', '1925 N.3RD\nBATON ROUGE, LA', '1937 GLENMORE\nBATON ROUGE, LA\n(30.430499, -91.146138)', '1945 LAKE HILLS\nBATON ROUGE, LA', '1946 WOODDLE\nBATON ROUGE, LA', '1949 GLENMORE\nBATON ROUGE, LA\n(30.430352, -91.146134)', '1950 MADISON\nBATON ROUGE, LA\n(30.467384, -91.169329)', '1953 GLENDALE\nBATON ROUGE, LA\n(30.418906, -91.157978)', '1957 N. ARDENWOOD\nBATON ROUGE, LA\n(30.466564, -91.129498)', '1965 WOODDALE CT\nBATON ROUGE, LA\n(30.466967, -91.112687)', '1966 MULBERRY\nBATON ROUGE, LA\n(30.465728, -91.169592)', '1976 GOVERNMENT\nBATON ROUGE, LA\n(30.443834, -91.168173)', '1988 PLANK\nBATON ROUGE, LA\n(30.465802, -91.165004)', '1991 WOODDALE\nBATON ROUGE, LA\n(30.466887, -91.114436)', '1A1', '1A2', '1A3', '1A4', '1B1', '1B2', '1B3', '1B4', '1C1', '1C2', '1C3', '1D1', '1D2', '1D3', '1F1', '1F2', '2', '20', '200', '200 3RD\nBATON ROUGE, LA\n(30.448241, -91.188197)', '200 AMHERST\nBATON ROUGE, LA\n(30.404493, -91.171506)', '200 DALRYMPLE\nBATON ROUGE, LA', '200 EAST I-12\nBATON ROUGE, LA', '200 LAFAYETTE\nBATON ROUGE, LA\n(30.448207, -91.189398)', '200 LIVE OAK\nBATON ROUGE, LA\n(30.449186, -91.148894)', '200 MAIN\nBATON ROUGE, LA\n(30.451404, -91.189122)', '200 MAYFLOWER\nBATON ROUGE, LA\n(30.440741, -91.188017)', '200 ST VINCENT DE PAUL\nBATON ROUGE, LA\n(30.448907, -91.172729)', '200 STADIUM\nBATON ROUGE, LA\n(30.41394, -91.182674)', '200 TOWER\nBATON ROUGE, LA', '200 VAN BUREN\nBATON ROUGE, LA\n(30.429619, -91.183545)', '2000', '2000 BRIGHTSIDE\nBATON ROUGE, LA\n(30.388136, -91.18086)', '2000 COLORADO\nBATON ROUGE, LA\n(30.428752, -91.179134)', '2000 FLORIDA\nBATON ROUGE, LA\n(30.449933, -91.167547)', '2000 MAY\nBATON ROUGE, LA', '2000 MULBERRY\nBATON ROUGE, LA\n(30.465746, -91.169162)', '2000 N. FOSTER\nBATON ROUGE, LA\n(30.466915, -91.139745)', '2000 THOMAS H. DELPIT\nBATON ROUGE, LA\n(30.429096, -91.176879)', '20000', '200000', '2003 HEMLOCK\nBATON ROUGE, LA\n(30.466554, -91.169008)', '2004 PLANK\nBATON ROUGE, LA\n(30.465922, -91.16496)', '201 FLORIDA\nBATON ROUGE, LA\n(30.449292, -91.189464)', '2021 CEDARDALE\nBATON ROUGE, LA\n(30.419964, -91.158593)', '2023 SHAWN\nBATON ROUGE, LA\n(30.431769, -91.099636)', '2035 BIRCH\nBATON ROUGE, LA\n(30.463307, -91.168592)', '2035 MADISON\nBATON ROUGE, LA\n(30.467402, -91.168689)', '2035 SHERWOOD MEADOW\nBATON ROUGE, LA', '2035 WOODDALE\nBATON ROUGE, LA\n(30.467679, -91.114963)', '2042 GOUDCHAUX ST.\nBATON ROUGE, LA\n(30.510832, -91.171335)', '2047 CEDAR CREST\nBATON ROUGE, LA', '2054 74TH AVE\nBATON ROUGE, LA\n(30.515693, -91.171254)', '2057 FAIRCHILD ST\nBATON ROUGE, LA\n(30.522424, -91.17077)', '2069 CEDARCREST\nBATON ROUGE, LA\n(30.433031, -91.066427)', '2071 WOODDALE\nBATON ROUGE, LA\n(30.467867, -91.115094)', '2080 LOBDELL\nBATON ROUGE, LA\n(30.465975, -91.118772)', '2083 DALLAS\nBATON ROUGE, LA\n(30.468682, -91.112184)', '2100 69TH\nBATON ROUGE, LA\n(30.512276, -91.170726)', '2100 69TH. AVE\nBATON ROUGE, LA\n(30.512276, -91.170726)', '2100 70TH. AVE.\nBATON ROUGE, LA\n(30.512958, -91.17091)', '2100 BLVD DE PROVINCE\nBATON ROUGE, LA', '2100 BRIGHTSIDE\nBATON ROUGE, LA\n(30.388267, -91.182051)', '2100 CHOCTAW\nBATON ROUGE, LA\n(30.469842, -91.168168)', '2100 COLLEGE\nBATON ROUGE, LA\n(30.429029, -91.135872)', '2100 FUQUA\nBATON ROUGE, LA\n(30.457346, -91.167667)', '2100 MILLERVILLE\nBATON ROUGE, LA\n(30.440706, -91.024385)', '2100 MONROE\nBATON ROUGE, LA\n(30.469124, -91.168441)', '2100 OAKKNOLL\nBATON ROUGE, LA\n(30.467761, -91.054405)', '2100 SHADA\nBATON ROUGE, LA\n(30.504932, -91.169934)', '2100 SHERWOOD FOREST\nBATON ROUGE, LA\n(30.488971, -91.169301)', '2100 WOODDALE\nBATON ROUGE, LA\n(30.468026, -91.114946)', '2102 GORE\nBATON ROUGE, LA\n(30.55175, -91.172377)', '2105 N. 39TH\nBATON ROUGE, LA\n(30.46722, -91.151373)', '2111 NORTH\nBATON ROUGE, LA\n(30.453136, -91.166485)', '2116 DAVENPORT\nBATON ROUGE, LA\n(30.557829, -91.171211)', '2117 SHERWOOD MEADOW\nBATON ROUGE, LA\n(30.488976, -91.169183)', '2121 HIGHLAND\nBATON ROUGE, LA\n(30.427716, -91.180924)', '2124 WOODDALE\nBATON ROUGE, LA\n(30.468223, -91.115077)', '2126 BELLVALE\nBATON ROUGE, LA\n(30.461981, -91.167511)', '2126 POLLARD\nBATON ROUGE, LA\n(30.4095, -91.132462)', '2127 GEORGIA\nBATON ROUGE, LA\n(30.427469, -91.175271)', '2130 WOODDALE\nBATON ROUGE, LA\n(30.468273, -91.11511)', '2135 LOUISIANA\nBATON ROUGE, LA\n(30.44585, -91.166306)', '2136 DALLAS\nBATON ROUGE, LA\n(30.469259, -91.112611)', '2136 N. LOBDELL\nBATON ROUGE, LA\n(30.466678, -91.11929)', '2138 WOODDALE\nBATON ROUGE, LA\n(30.468339, -91.115154)', '2150 SHERWOOD FORREST\nBATON ROUGE, LA', '2153 NORTH FOSTER\nBATON ROUGE, LA\n(30.468214, -91.139807)', '2157 SHERWOOD MEADOW\nBATON ROUGE, LA\n(30.488988, -91.168888)', '2180 MONTERREY\nBATON ROUGE, LA\n(30.469211, -91.084563)', '2195 DALLAS\nBATON ROUGE, LA\n(30.469754, -91.112978)', '220 ST VINCENT DE PAUL\nBATON ROUGE, LA\n(30.449081, -91.172734)', '2200 CHIPPEWA ST.\nBATON ROUGE, LA\n(30.473074, -91.167707)', '2200 COLLEGE\nBATON ROUGE, LA\n(30.428241, -91.136322)', '2200 CONVENTION\nBATON ROUGE, LA\n(30.44893, -91.165182)', '2200 CUNARD AVE.\nBATON ROUGE, LA\n(30.55298, -91.171643)', '2200 GEORGIA\nBATON ROUGE, LA\n(30.426733, -91.175246)', '2200 KENTUCKY STREET\nBATON ROUGE, LA 70802\n(30.426773, -91.174491)', '2200 SCENIC\nBATON ROUGE, LA', '2200 THOMAS H DELPIT\nBATON ROUGE, LA\n(30.427062, -91.176814)', '2200 THOMAS H. DELPIT\nBATON ROUGE, LA\n(30.427062, -91.176814)', '2205 WISTERIA\nBATON ROUGE, LA\n(30.443017, -91.16513)', '222 ST LOUIS\nBATON ROUGE, LA\n(30.446002, -91.1876)', '222 ST. LOUIS\nBATON ROUGE, LA\n(30.446002, -91.1876)', '2224 DAVENPORT\nBATON ROUGE, LA\n(30.557649, -91.170114)', '2225 COLLEGE\nBATON ROUGE, LA\n(30.428339, -91.136264)', '2226 BRIGHTSIDE\nBATON ROUGE, LA\n(30.38847, -91.1838)', '2227 EDGEWOOD\nBATON ROUGE, LA\n(30.454923, -91.165736)', '2234 MARYLAND\nBATON ROUGE, LA\n(30.426691, -91.17373)', '2238 MINNESOTA\nBATON ROUGE, LA\n(30.42655, -91.182135)', '2245 COLLEGE\nBATON ROUGE, LA\n(30.428088, -91.136415)', '225 DENTATION\nBATON ROUGE, LA\n(30.382827, -91.142794)', '2250 FLORDIA\nBATON ROUGE, LA', '2250 FLORIDA\nBATON ROUGE, LA\n(30.450012, -91.164854)', '2251 MAIN\nBATON ROUGE, LA\n(30.452107, -91.164927)', '2251 MAIN STREET\nBATON ROUGE, LA\n(30.452112, -91.164767)', '2265 HIGHLAND\nBATON ROUGE, LA\n(30.426063, -91.180166)', '2268 WOODDALE\nBATON ROUGE, LA\n(30.469512, -91.1158)', '227 N. 13TH\nBATON ROUGE, LA\n(30.449012, -91.176278)', '2285 GEORGIA\nBATON ROUGE, LA\n(30.426031, -91.175227)', '2290 CUNARD\nBATON ROUGE, LA\n(30.552932, -91.170683)', '2300 72ND. AVE.\nBATON ROUGE, LA\n(30.514428, -91.16845)', '2300 BRASHEARS\nBATON ROUGE, LA\n(30.530552, -91.16934)', '2300 COLLEGE DR\nBATON ROUGE, LA\n(30.427068, -91.137056)', '2300 KAUFMAN\nBATON ROUGE, LA\n(30.510274, -91.168032)', '2300 SEMINOLE\nBATON ROUGE, LA\n(30.464564, -91.165922)', '2300 THOMAS H DELPIT\nBATON ROUGE, LA\n(30.425828, -91.176772)', '2300 WILLOW\nBATON ROUGE, LA\n(30.461495, -91.164437)', '2301 MAIN\nBATON ROUGE, LA\n(30.452123, -91.164472)', '23041/2 GRACIE ST\nBATON ROUGE, LA', '2315 BERNWOOD\nBATON ROUGE, LA\n(30.432474, -91.017575)', '2317 71ST\nBATON ROUGE, LA\n(30.513723, -91.168325)', '2319 SHAWNEE\nBATON ROUGE, LA\n(30.465544, -91.166072)', '2323 PLANK\nBATON ROUGE, LA\n(30.4689, -91.163917)', '2325 ERIE\nBATON ROUGE, LA\n(30.476123, -91.166072)', '233 ST. LOUIS\nBATON ROUGE, LA 70802\n(30.445405, -91.187571)', '2334 N ACADIAN\nBATON ROUGE, LA', '2345 DOGWOOD\nBATON ROUGE, LA\n(30.427064, -91.163256)', '2360 BALIS\nBATON ROUGE, LA\n(30.426779, -91.140161)', '2360 SHADOWBROOK\nBATON ROUGE, LA\n(30.43073, -91.015886)', '2363 COLLEGE\nBATON ROUGE, LA\n(30.426512, -91.137365)', '2364 TENNESSEE\nBATON ROUGE, LA\n(30.425225, -91.175951)', '2365 TENNESSEE\nBATON ROUGE, LA\n(30.425245, -91.175952)', '2382 LOBDELL\nBATON ROUGE, LA\n(30.471246, -91.12267)', '2400 CHIPPEWA ST.\nBATON ROUGE, LA\n(30.473239, -91.16477)', '2400 FLORIDA\nBATON ROUGE, LA\n(30.450049, -91.163626)', '2400 FLORIDA BLVD.\nBATON ROUGE, LA\n(30.450049, -91.163626)', '2400 HIGHLAND\nBATON ROUGE, LA\n(30.425131, -91.179742)', '2400 HUNDRED OAKS AVENUE\nBATON ROUGE, LA\n(30.432019, -91.162091)', '2400 IROQUOIS\nBATON ROUGE, LA\n(30.47216, -91.165641)', '2400 KENILWORTH\nBATON ROUGE, LA', '2400 LOBELIA\nBATON ROUGE, LA', '2400 MONTERREY\nBATON ROUGE, LA\n(30.471766, -91.084744)', '2400 OSAGE\nBATON ROUGE, LA\n(30.474136, -91.165715)', '2400 SCENIC\nBATON ROUGE, LA', '2401 JEFFERSON\nBATON ROUGE, LA\n(30.46434, -91.164283)', '2401 SCENIC\nBATON ROUGE, LA', '2403 BRIGHSIDE\nBATON ROUGE, LA', '2405 BRIGHTSIDE\nBATON ROUGE, LA\n(30.388882, -91.187489)', '2409 EBONY\nBATON ROUGE, LA\n(30.426845, -91.162398)', '2415 BALIS\nBATON ROUGE, LA\n(30.426322, -91.140445)', '2422 HORACE\nBATON ROUGE, LA\n(30.431078, -91.162403)', '2424 IBERIA\nBATON ROUGE, LA\n(30.495645, -91.16679)', '2427 ARBUTUS\nBATON ROUGE, LA', '2442 TED DUNHAM\nBATON ROUGE, LA\n(30.468459, -91.183893)', '2445 FAIRFIELDS\nBATON ROUGE, LA\n(30.466755, -91.164143)', '2455 WELDWOOD\nBATON ROUGE, LA\n(30.436945, -91.023871)', '2463 SENECA\nBATON ROUGE, LA\n(30.471218, -91.16454)', '247 BRICE\nBATON ROUGE, LA\n(30.446103, -91.17101)', '2487 WINBOURNE\nBATON ROUGE, LA\n(30.477973, -91.164431)', '2490 SILVEREST\nBATON ROUGE, LA\n(30.428373, -91.072308)', '2500 73RD\nBATON ROUGE, LA\n(30.515283, -91.166355)', '2500 ADAMS\nBATON ROUGE, LA\n(30.468394, -91.164092)', '2500 BOCAGE LAKE\nBATON ROUGE, LA', '2500 BOGAN WALK\nBATON ROUGE, LA\n(30.461224, -91.163153)', '2500 FLORIDA\nBATON ROUGE, LA\n(30.450075, -91.16271)', '2500 MAIN\nBATON ROUGE, LA\n(30.452181, -91.162835)', '2500 PLOVER\nBATON ROUGE, LA\n(30.527062, -91.167042)', '2500 SCENIC\nBATON ROUGE, LA', '2502 MAIN\nBATON ROUGE, LA\n(30.452182, -91.162816)', '2504 GATES CIRCLE\nBATON ROUGE, LA\n(30.423685, -91.1238)', '2504 HOLLYWOOD\nBATON ROUGE, LA\n(30.499297, -91.165889)', '2504 SCENIC\nBATON ROUGE, LA', '2510 FAIRWAY\nBATON ROUGE, LA\n(30.427689, -91.088891)', '2515 75TH\nBATON ROUGE, LA\n(30.516778, -91.166575)', '2520 JACKSON\nBATON ROUGE, LA\n(30.46593, -91.163634)', '2520 PLANK\nBATON ROUGE, LA\n(30.470339, -91.163412)', '2530 AMARILLO\nBATON ROUGE, LA\n(30.500233, -91.164856)', '2531 AIRLINE HWY.\nBATON ROUGE, LA\n(30.508718, -91.166639)', '2531 MONTESANO\nBATON ROUGE, LA\n(30.509294, -91.165896)', '2532 74\nBATO</t>
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>335638</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>['(Null)', 'A', 'B', 'C', 'D', 'E', 'F', 'G', 'T']</t>
         </is>
       </c>
     </row>
@@ -1917,10 +2063,10 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>246571</v>
+        <v>267773</v>
       </c>
       <c r="E19" t="n">
-        <v>246571</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1935,19 +2081,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K19" t="n">
         <v>-1</v>
       </c>
       <c r="L19" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N19" t="n">
-        <v>84</v>
+        <v>13573</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -1965,24 +2111,32 @@
       </c>
       <c r="S19" t="inlineStr">
         <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>424</v>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
           <t>1</t>
         </is>
       </c>
-      <c r="T19" t="n">
-        <v>11170</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
       <c r="V19" t="n">
-        <v>5470533</v>
+        <v>120153</v>
       </c>
       <c r="W19" t="n">
-        <v>25367</v>
-      </c>
-      <c r="X19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">['1', '1 DALRYMPLE\nBATON ROUGE, LA 70808', '1 DALRYMPLE\nBATON ROUGE, LA 70820\n(30.415783, -91.176362)', '1 DALRYMPLE DR\nBATON ROUGE, LA\n(30.415783, -91.176362)', '1 DARLYMPLE DR\nBATON ROUGE, LA', '1 DARYMPLE\nBATON ROUGE, LA 70820', '1 RUE SORBONNE\nBATON ROUGE, LA 70808\n(30.406303, -91.171551)', '1 W FRATERNITY DR\nBATON ROUGE, LA', '10', '10 DALRYMPLE DR\nBATON ROUGE, LA\n(30.415757, -91.175315)', '100', '100 12TH ST\nBATON ROUGE, LA\n(30.447231, -91.177142)', '100 3RD ST\nBATON ROUGE, LA\n(30.447266, -91.188164)', '100 AMHERST AV\nBATON ROUGE, LA\n(30.403615, -91.172333)', '100 APARTMENT COURT DR\nBATON ROUGE, LA\n(30.446683, -91.123122)', '100 ASTER ST\nBATON ROUGE, LA\n(30.419875, -91.177346)', '100 BRICE ST\nBATON ROUGE, LA\n(30.447708, -91.171056)', '100 CHATSWORTH ST\nBATON ROUGE, LA\n(30.433567, -91.183508)', '100 CHOCTAW DR\nBATON ROUGE, LA', '100 CLOUD DR\nBATON ROUGE, LA\n(30.450733, -91.132157)', '100 CONVENTION ST\nBATON ROUGE, LA\n(30.448174, -91.190353)', '100 COURSEY BL\nBATON ROUGE, LA', '100 DALRYMPLE DR\nBATON ROUGE, LA', '100 DOROTHY DIX DR\nBATON ROUGE, LA', '100 E BOYD\nBATON ROUGE, LA\n(30.403577, -91.172286)', '100 E I-12\nBATON ROUGE, LA', '100 E I10\nBATON ROUGE, LA', '100 E I12\nBATON ROUGE, LA', '100 EAST BL\nBATON ROUGE, LA\n(30.448377, -91.149567)', '100 EAST BOYD ST\nBATON ROUGE, LA\n(30.403577, -91.172286)', '100 EAST I-10 HW\nBATON ROUGE, LA', '100 EAST I-12 HW\nBATON ROUGE, LA', '100 EDDIE ROBINSON\nBATON ROUGE, LA 70808\n(30.447234, -91.175943)', '100 EDDIE ROBINSON DR\nBATON ROUGE, LA\n(30.447234, -91.175943)', '100 EDDIE ROBINSON SR DR\nBATON ROUGE, LA\n(30.447234, -91.175943)', '100 ELMER AV\nBATON ROUGE, LA\n(30.537841, -91.20159)', '100 ELTON C HARRISON DR\nBATON ROUGE, LA', '100 EVERGREEN DR\nBATON ROUGE, LA\n(30.447945, -91.163126)', '100 FLORIDA\nBATON ROUGE, LA 70802', '100 FLORIDA BL\nBATON ROUGE, LA', '100 FLORIDA ST\nBATON ROUGE, LA\n(30.449273, -91.190404)', '100 FRANCE ST\nBATON ROUGE, LA\n(30.442734, -91.190016)', '100 GARDERE LN\nBATON ROUGE, LA\n(30.365905, -91.119651)', '100 GOTTLIEB ST\nBATON ROUGE, LA\n(30.44809, -91.158998)', '100 GOVERNMENT ST\nBATON ROUGE, LA\n(30.443968, -91.189906)', '100 GRETA ST\nBATON ROUGE, LA\n(30.448157, -91.156764)', '100 HAZEL ST\nBATON ROUGE, LA\n(30.434841, -91.184341)', '100 HEARTHSTONE AV\nBATON ROUGE, LA\n(30.448157, -91.156764)', '100 HEATHERWOOD DR\nBATON ROUGE, LA\n(30.367748, -91.121399)', '100 HOLMES DR\nBATON ROUGE, LA\n(30.451617, -91.11696)', '100 I-110 HW\nBATON ROUGE, LA', '100 JENNIFER JEAN AV\nBATON ROUGE, LA', '100 JULIA ST\nBATON ROUGE, LA', '100 KENILWORTH PK\nBATON ROUGE, LA\n(30.377923, -91.137912)', '100 LAFAYETTE ST\nBATON ROUGE, LA\n(30.447098, -91.189332)', '100 LAUREL ST\nBATON ROUGE, LA\n(30.450299, -91.190465)', '100 LEE DR\nBATON ROUGE, LA\n(30.394183, -91.159427)', '100 LOBDELL AV\nBATON ROUGE, LA\n(30.451651, -91.112061)', '100 LONGBOW DR\nBATON ROUGE, LA\n(30.46088, -91.044769)', '100 LOUISE ST\nBATON ROUGE, LA\n(30.433923, -91.183234)', '100 LSU AV\nBATON ROUGE, LA\n(30.402155, -91.170463)', '100 MAYFLOWER\nBATON ROUGE, LA 70802\n(30.440724, -91.18867)', '100 MAYFLOWER\nBATON ROUGE, LA 70805\n(30.440724, -91.18867)', '100 MAYFLOWER ST\nBATON ROUGE, LA\n(30.440724, -91.18867)', '100 MCDONALD DR\nBATON ROUGE, LA\n(30.392237, -91.157654)', '100 MCGEHEE DR\nBATON ROUGE, LA\n(30.457735, -91.064563)', '100 N 4TH ST\nBATON ROUGE, LA\n(30.447199, -91.186916)', '100 N I-110\nBATON ROUGE, LA', '100 N RIVER ROAD\nBATON ROUGE, LA\n(30.447053, -91.190145)', '100 N STADIUM\nBATON ROUGE, LA\n(30.415671, -91.182361)', '100 N3RD\nBATON ROUGE, LA 70802', '100 NAPOLEON ST\nBATON ROUGE, LA\n(30.44687, -91.183852)', '100 NORTH BL\nBATON ROUGE, LA\n(30.447053, -91.190145)', '100 NORTH BT\nBATON ROUGE, LA', '100 NORTH ST\nBATON ROUGE, LA\n(30.45243, -91.190428)', '100 NORTH STADIUM DR\nBATON ROUGE, LA\n(30.3974, -91.1565)', '100 RIVER RD\nBATON ROUGE, LA\n(30.447053, -91.190145)', '100 S 13TH\nBATON ROUGE, LA\n(30.447234, -91.175943)', '100 S 17TH\nBATON ROUGE, LA\n(30.447691, -91.17169)', '100 S I-110\nBATON ROUGE, LA', '100 S I110\nBATON ROUGE, LA', '100 S STADIUM\nBATON ROUGE, LA\n(30.415671, -91.182361)', '100 S. STADIUM DR\nBATON ROUGE, LA', '100 SHARP BL\nBATON ROUGE, LA\n(30.456398, -91.072071)', '100 SHARP LN\nBATON ROUGE, LA', '100 SHARP RD\nBATON ROUGE, LA\n(30.456398, -91.072071)', '100 SHERWOOD FOREST BL\nBATON ROUGE, LA', '100 SKIP BERTMAN DR\nBATON ROUGE, LA', '100 SOUTH BL\nBATON ROUGE, LA\n(30.439528, -91.189945)', '100 SOUTH I-110 HW\nBATON ROUGE, LA', '100 SPANISH TOWN RD\nBATON ROUGE, LA', '100 ST FERDINAND ST\nBATON ROUGE, LA\n(30.446962, -91.186679)', '100 ST LOUIS ST\nBATON ROUGE, LA\n(30.446927, -91.187744)', '100 ST VINCENT DE PAUL PL\nBATON ROUGE, LA\n(30.447807, -91.172792)', '100 STANFORD AV\nBATON ROUGE, LA\n(30.402862, -91.169846)', '100 STEELE RD\nBATON ROUGE, LA\n(30.448344, -91.150735)', '100 SUNSET BL\nBATON ROUGE, LA\n(30.388406, -91.152395)', '100 TAFT\nBATON ROUGE, LA 79802\n(30.425327, -91.17983)', '100 TAFT ST\nBATON ROUGE, LA\n(30.425327, -91.17983)', '100 TAYLOR ST\nBATON ROUGE, LA\n(30.426469, -91.180352)', '100 THIRD ST\nBATON ROUGE, LA\n(30.447266, -91.188164)', '100 TOWER\nBATON ROUGE, LA 70808', '100 TOWER DR\nBATON ROUGE, LA', '100 VAN BUREN ST\nBATON ROUGE, LA\n(30.430266, -91.181444)', '100 VETA ST\nBATON ROUGE, LA\n(30.43549, -91.184767)', '100 W CHIMES\nBATON ROUGE, LA\n(30.417243, -91.176423)', '100 W I-12\nBATON ROUGE, LA', '100 W I10\nBATON ROUGE, LA', '100 W I12\nBATON ROUGE, LA', '100 WEST I-10 HW\nBATON ROUGE, LA', '100 WEST I-12 HW\nBATON ROUGE, LA', '100 WESTMORELAND DR\nBATON ROUGE, LA\n(30.448246, -91.15382)', '1000 37TH ST\nBATON ROUGE, LA\n(30.457379, -91.152732)', '1000 ASTER ST\nBATON ROUGE, LA\n(30.419522, -91.188438)', '1000 BAIRD AV\nBATON ROUGE, LA\n(30.385341, -91.120205)', '1000 BOB PETIT\nBATON ROUGE, LA 70802', '1000 BOB PETIT DR\nBATON ROUGE, LA', '1000 BOB PETIT ST\nBATON ROUGE, LA', '1000 BOB PETTIT AV\nBATON ROUGE, LA\n(30.396516, -91.178363)', '1000 BOB PETTIT BL\nBATON ROUGE, LA\n(30.396516, -91.178363)', '1000 BOB PETTIT DR\nBATON ROUGE, LA\n(30.396516, -91.178363)', '1000 BOB PETTIT ST\nBATON ROUGE, LA\n(30.396516, -91.178363)', '1000 BOB PETTITE AV\nBATON ROUGE, LA', '1000 BOB PRTTIT BL\nBATON ROUGE, LA', '1000 BOB PTTTIT BL\nBATON ROUGE, LA', '1000 BRIGHTSIDE\nBATON ROUGE, LA 70802', '1000 BRIGHTSIDE DR\nBATON ROUGE, LA', '1000 BRIGHTSIDE LN\nBATON ROUGE, LA', '1000 CAPITOL ACCESS RD\nBATON ROUGE, LA\n(30.458061, -91.180038)', '1000 CENTRAL RD\nBATON ROUGE, LA\n(30.53456, -91.183326)', '1000 CHARLES T SMITH DR\nBATON ROUGE, LA', '1000 CHIPPEWA ST\nBATON ROUGE, LA\n(30.472726, -91.180394)', '1000 CHOCTAW DR\nBATON ROUGE, LA\n(30.469454, -91.180174)', '1000 COLUMBUS DUNN DR\nBATON ROUGE, LA\n(30.457275, -91.144217)', '1000 CONVENTION ST\nBATON ROUGE, LA\n(30.448499, -91.17961)', '1000 COURSEY BL\nBATON ROUGE, LA', '1000 EAST BL\nBATON ROUGE, LA', '1000 EAST I-10 HW\nBATON ROUGE, LA', '1000 EUROPE ST\nBATON ROUGE, LA\n(30.441986, -91.179639)', '1000 FIG ST\nBATON ROUGE, LA\n(30.431735, -91.176335)', '1000 FLORIDA BL\nBATON ROUGE, LA', '1000 FLORIDA ST\nBATON ROUGE, LA\n(30.449579, -91.17947)', '1000 FOREST OAK DR\nBATON ROUGE, LA', '1000 GOVERNMENT ST\nBATON ROUGE, LA\n(30.443471, -91.179801)', '1000 HARDING BL\nBATON ROUGE, LA\n(30.520395, -91.184014)', '1000 I-10 EAST BL\nBATON ROUGE, LA', '1000 I-110\nBATON ROUGE, LA 70805', '1000 IRIS ST\nBATON ROUGE, LA', '1000 JENNIFER JEAN AV\nBATON ROUGE, LA', '1000 JENNIFER JEAN DR\nBATON ROUGE, LA', '1000 JENNIFER JEAN ST\nBATON ROUGE, LA', '1000 JULIA ST\nBATON ROUGE, LA\n(30.437302, -91.178872)', '1000 LAUREL ST\nBATON ROUGE, LA\n(30.450612, -91.180119)', '1000 LEE DR\nBATON ROUGE, LA\n(30.403264, -91.15165)', '1000 LEE DRIVE ST\nBATON ROUGE, LA', '1000 LETTSWORTH ST\nBATON ROUGE, LA', '1000 LOUISIANA AV\nBATON ROUGE, LA\n(30.445089, -91.179717)', '1000 MAIN ST\nBATON ROUGE, LA\n(30.451681, -91.179349)', '1000 MARILYN BL\nBATON ROUGE, LA\n(30.444439, -91.076935)', '1000 MARSH ST\nBATON ROUGE, LA\n(30.526088, -91.183516)', '1000 MAXIMILLIAN ST\nBATON ROUGE, LA\n(30.43824, -91.181176)', '1000 MONET ST\nBATON ROUGE, LA\n(30.459075, -91.117411)', '1000 MYRTLE ST\nBATON ROUGE, LA\n(30.43828, -91.179467)', '1000 N 39TH\nBATON ROUGE, LA\n(30.457392, -91.151164)', '1000 N/B I-110 @ WELLER AVE\nBATON ROUGE, LA 70805', '1000 NICHOLSON DR\nBATON ROUGE, LA\n(30.437994, -91.187325)', '1000 NICHOLSON ST\nBATON ROUGE, LA\n(30.437994, -91.187325)', '1000 NORTH BL\nBATON ROUGE, LA\n(30.45272, -91.179788)', '1000 NORTH I-110 HW\nBATON ROUGE, LA', '1000 NORTH ST\nBATON ROUGE, LA\n(30.45272, -91.179788)', '1000 PITTSBURG\nBATON ROUGE, LA 70806\n(30.467069, -91.178367)', '1000 PROGRESS RD\nBATON ROUGE, LA\n(30.537474, -91.184317)', '1000 PROGRESS ST\nBATON ROUGE, LA\n(30.457495, -91.158133)', '1000 RODIN DR\nBATON ROUGE, LA\n(30.459019, -91.122729)', '1000 ROSENWALD RD\nBATON ROUGE, LA\n(30.531241, -91.185458)', '1000 S 15TH\nBATON ROUGE, LA\n(30.438695, -91.173219)', '1000 S FOSTER\nBATON ROUGE, LA\n(30.440024, -91.13564)', '1000 S I 110\nBATON ROUGE, LA', '1000 S I110\nBATON ROUGE, LA', '1000 SHARP LN\nBATON ROUGE, LA\n(30.460657, -91.072045)', '1000 SHERWOOD FOREST BL\nBATON ROUGE, LA', '1000 SOUTH BL\nBATON ROUGE, LA\n(30.439623, -91.179376)', '1000 SOUTH I-110 HW\nBATON ROUGE, LA', '1000 SPANISH TOWN RD\nBATON ROUGE, LA\n(30.454855, -91.179463)', '1000 ST CHARLES ST\nBATON ROUGE, LA\n(30.437772, -91.185668)', '1000 ST ROSE AV\nBATON ROUGE, LA\n(30.438934, -91.162103)', '1000 STANFORD AV\nBATON ROUGE, LA\n(30.408862, -91.162895)', '1000 SWAN AV\nBATON ROUGE, LA\n(30.523658, -91.183355)', '1000 TERRACE\nBATON ROUGE, LA 70802\n(30.436333, -91.178181)', '1000 TERRACE ST\nBATON ROUGE, LA\n(30.436333, -91.178181)', '1000 THOMAS H DELPIT DR\nBATON ROUGE, LA', '1000 TOWNSLEY ST\nBATON ROUGE, LA\n(30.524719, -91.183908)', '1000 VALCOUR DR\nBATON ROUGE, LA\n(30.45753, -91.135365)', '1000 W I - 10\nBATON ROUGE, LA', '1000 W I-10\nBATON ROUGE, LA', '1000 W I10\nBATON ROUGE, LA', '1000 WEST I-10 HW\nBATON ROUGE, LA', '10000 AIRLINE\nBATON ROUGE, LA 70815', '10000 AIRLINE BL\nBATON ROUGE, LA', '10000 AIRLINE HW\nBATON ROUGE, LA\n(30.420375, -91.072703)', '10000 AVE A ST\nBATON ROUGE, LA\n(30.535407, -91.190477)', '10000 AVE B AV\nBATON ROUGE, LA\n(30.535472, -91.191383)', '10000 AVE F AV\nBATON ROUGE, LA\n(30.535358, -91.19506)', '10000 AVE H\nBATON ROUGE, LA 70807\n(30.535615, -91.197011)', '10000 AVE. J ST\nBATON ROUGE, LA\n(30.535255, -91.198849)', '10000 AVENUE B ST\nBATON ROUGE, LA\n(30.535472, -91.191383)', '10000 AVENUE E ST\nBATON ROUGE, LA', '10000 AVENUE H ST\nBATON ROUGE, LA\n(30.535615, -91.197011)', '10000 AVENUE I\nBATON ROUGE, LA 70808\n(30.534986, -91.197924)', '10000 AVENUE I ST\nBATON ROUGE, LA\n(30.534986, -91.197924)', '10000 AVENUE J ST\nBATON ROUGE, LA\n(30.535255, -91.198849)', '10000 AVENUE L\nBATON ROUGE, LA 70807\n(30.535234, -91.200679)', '10000 CASHEL AV\nBATON ROUGE, LA', '10000 COURSEY BL\nBATON ROUGE, LA\n(30.416449834000048, -91.06963228699999)', '10000 DAWNADELE AV\nBATON ROUGE, LA\n(30.419209, -91.072149)', '10000 ELM GROVE GARDEN DR\nBATON ROUGE, LA\n(30.535262, -91.169432)', '10000 FLORIDA BL\nBATON ROUGE, LA', '10000 FLORIDA BL\nBATON ROUGE, LA\n(30.456382627000039, -91.072001363999959)', '10000 GOODWOOD BL\nBATON ROUGE, LA\n(30.443634, -91.07693)', '10000 GWENADELE AV\nBATON ROUGE, LA\n(30.4267, -91.076759)', '10000 HWY 19\nBATON ROUGE, LA 70808', '10000 MERGANZER AV\nBATON ROUGE, LA\n(30.535618, -91.190103)', '10000 MOLLYLEA DR\nBATON ROUGE, LA\n(30.452514, -91.075506)', '10000 OLD HAMMOND HW\nBATON ROUGE, LA\n(30.431939, -91.076511)', '10000 RED OAK DR\nBATON ROUGE, LA', '10000 SCENIC HW\nBATON ROUGE, LA\n(30.539311, -91.190025)', '10000 SCOTLAND AV\nBATON ROUGE, LA\n(30.534923, -91.178337)', '10000 TAMS\nBATON ROUGE, LA 70815\n(30.467281, -91.073334)', '10000 TAMS DR\nBATON ROUGE, LA\n(30.467281, -91.073334)', '10001 AVENUE F ST\nBATON ROUGE, LA\n(30.535431, -91.195064)', '10002 AVENUE I ST\nBATON ROUGE, LA\n(30.53501, -91.197926)', '10002 BOOKERLINE AV\nBATON ROUGE, LA\n(30.377396, -91.104675)', '10002 FLORIDA BL\nBATON ROUGE, LA', '10002 GOODWOOD BL\nBATON ROUGE, LA\n(30.443634, -91.076908)', '10003 AVENUE H ST\nBATON ROUGE, LA\n(30.53567, -91.197012)', '10004 CHANADIA DR\nBATON ROUGE, LA\n(30.377988, -91.10392)', '10005 AVENUE H ST\nBATON ROUGE, LA\n(30.535682, -91.197012)', '10006 AVENUE I ST\nBATON ROUGE, LA\n(30.535057, -91.197928)', '10008 AVE K\nBATON ROUGE, LA 70807\n(30.535112, -91.199762)', '10008 AVE L\nBATON ROUGE, LA 70807\n(30.535918, -91.200706)', '10008 AVE L ST\nBATON ROUGE, LA\n(30.535301, -91.200682)', '10008 AVENUE I ST\nBATON ROUGE, LA\n(30.535081, -91.197929)', '10008 AVENUE L\nBATON ROUGE, LA 70807\n(30.535918, -91.200706)', '10008 AVENUE L AV\nBATON ROUGE, LA\n(30.535301, -91.200682)', '10008 AVENUE L ST\nBATON ROUGE, LA\n(30.535301, -91.200682)', '10009 AVENUE H ST\nBATON ROUGE, LA\n(30.535706, -91.197013)', '1001 ASTER ST\nBATON ROUGE, LA\n(30.419537, -91.188824)', '1001 CAMELIA AV\nBATON ROUGE, LA\n(30.43931, -91.166659)', '1001 DREHR AV\nBATON ROUGE, LA\n(30.439395, -91.163612)', '1001 FUQUA ST\nBATON ROUGE, LA', '1001 N 23RD\nBATON ROUGE, LA\n(30.458309, -91.164912)', '1001 N 31ST\nBATON ROUGE, LA\n(30.457962, -91.157379)', '1001 NORTH BL\nBATON ROUGE, LA\n(30.45271, -91.180189)', '1001 PARK BL\nBATON ROUGE, LA', '1001 SCENIC HW\nBATON ROUGE, LA\n(30.45735, -91.167433)', '10010 COURSEY BL\nBATON ROUGE, LA\n(30.416492, -91.069746)', '10010 KAREN DR\nBATON ROUGE, LA\n(30.459464, -91.073252)', '10010 SOMBRERO AV\nBATON ROUGE, LA\n(30.462362, -91.073626)', '10012 EL CAMINO AV\nBATON ROUGE, LA\n(30.463331, -91.073632)', '10013 EL CAMINO AV\nBATON ROUGE, LA\n(30.463331, -91.073647)', '1002 BROMLEY DR\nBATON ROUGE, LA\n(30.38551, -91.12811)', '10020 A AV\nBATON ROUGE, LA', '10020 AVE E ST\nBATON ROUGE, LA', '10020 FLORIDA BL\nBATON ROUGE, LA', '10020 GAMMA DR\nBATON ROUGE, LA\n(30.486808, -91.073229)', '10020 MAMMOTH AV\nBATON ROUGE, LA\n(30.475486, -91.075635)', '10021 ALPHA DR\nBATON ROUGE, LA\n(30.488982, -91.072998)', '10023 FLORIDA BL\nBATON ROUGE, LA', '10025 AVENUE H ST\nBATON ROUGE, LA\n(30.535802, -91.197015)', '1003 BOB PETIT\nBATON ROUGE, LA 70820\n(30.396451, -91.178491)', '1003 BOB PETIT BL\nBATON ROUGE, LA', '1003 BOB PETITE ST\nBATON ROUGE, LA', '1003 BOB PETTIT\nBATON ROUGE, LA 70808\n(30.396451, -91.178491)', '1003 BOB PETTIT BL\nBATON ROUGE, LA\n(30.396451, -91.178491)', '1003 BOB PETTIT DR\nBATON ROUGE, LA\n(30.396451, -91.178491)', '10031 RHINE AV\nBATON ROUGE, LA\n(30.376502, -91.104776)', '10032 AVE I\nBATON ROUGE, LA 70807\n(30.535789, -91.197941)', '10032 AVE I ST\nBATON ROUGE, LA\n(30.535366, -91.197934)', '10032 AVENUE I\nBATON ROUGE, LA 70808\n(30.535366, -91.197934)', '10032 AVENUE I ST\nBATON ROUGE, LA\n(30.535366, -91.197934)', '10032 KENLEE DR\nBATON ROUGE, LA', '10033 AVENUE J ST\nBATON ROUGE, LA\n(30.535332, -91.198851)', '10034 AVENUE E ST\nBATON ROUGE, LA', '10035 GREAT SMOKEY AV\nBATON ROUGE, LA\n(30.477994, -91.073464)', '10037 AVE H\nBATON ROUGE, LA 70805\n(30.535875, -91.197017)', '10037 AVENUE H\nBATON ROUGE, LA 70811\n(30.535875, -91.197017)', '10037 AVENUE H AV\nBATON ROUGE, LA\n(30.535875, -91.197017)', '10038 AVE K ST\nBATON ROUGE, LA\n(30.53532, -91.199771)', '10038 AVENUE K AV\nBATON ROUGE, LA\n(30.53532, -91.199771)', '10038 AVENUE K ST\nBATON ROUGE, LA\n(30.53532, -91.199771)', '10038 BOOKERLINE AV\nBATON ROUGE, LA\n(30.377075, -91.103983)', '10038 FLORIDA BL\nBATON ROUGE, LA', '10038 KINGLET DR\nBATON ROUGE, LA\n(30.380991, -91.069999)', '10038 S CHOCTAW\nBATON ROUGE, LA\n(30.472022, -91.073539)', '10039 FLORIDA BL\nBATON ROUGE, LA', '1004 COTTON ST\nBATON ROUGE, LA\n(30.434786, -91.177576)', '1004 JULIA ST\nBATON ROUGE, LA\n(30.437303, -91.178852)', '10041 AVENUE J ST\nBATON ROUGE, LA\n(30.535427, -91.198853)', '10041 FLORIDA BL\nBATON ROUGE, LA', '10041 RHINE AV\nBATON ROUGE, LA\n(30.376422, -91.104606)', '10043 MAMMOTH AV\nBATON ROUGE, LA\n(30.475639, -91.075358)', '10043 MAMMOTH DR\nBATON ROUGE, LA\n(30.475773, -91.075116)', '10044 AVENUE I ST\nBATON ROUGE, LA\n(30.535509, -91.197936)', '10045 FLORIDA\nBATON ROUGE, LA 70815\n(30.456881, -91.071815)', '10045 FLORIDA BL\nBATON ROUGE, LA', '10045 GWENADALE\nBATON ROUGE, LA 70815', '10045 GWENADALE AV\nBATON ROUGE, LA', '10045 GWENADALE DR\nBATON ROUGE, LA', '10045 GWENADELE\nBATON ROUGE, LA 70815\n(30.42633, -91.076191)', '10045 GWENADELE AV\nBATON ROUGE, LA\n(30.426459, -91.076436)', '10045 GWENADELLE\nBATON ROUGE, LA 70805', '10045 GWENADELLE DR\nBATON ROUGE, LA', '10045 GWENEDALE DR\nBATON ROUGE, LA', '10047 CHANADIA DR\nBATON ROUGE, LA\n(30.377753, -91.10339)', '1005 PROGRESS RD\nBATON ROUGE, LA\n(30.537482, -91.183609)', '1005 PROGRESS ST\nBATON ROUGE, LA\n(30.457523, -91.158134)', '10050 ELM GROVE GARDEN DR\nBATON ROUGE, LA\n(30.535889, -91.169443)', '10050 HYACINTH AV\nBATON ROUGE, LA\n(30.380292, -91.100533)', '10051 FLORIDA BL\nBATON ROUGE, LA', '10055 AVENUE F\nBATON ROUGE, LA 70807\n(30.535775, -91.195086)', '10055 AVENUE F ST\nBATON ROUGE, LA\n(30.535873, -91.195093)', '10058 AVE K\nBATON ROUGE, LA 70807\n(30.535451, -91.199777)', '10058 AVENUE K ST\nBATON ROUGE, LA\n(30.535458, -91.199777)', '10059 AVENUE M ST\nBATON ROUGE, LA\n(30.535676, -91.201621)', '1006 WAVERLY DR\nBATON ROUGE, LA\n(30.457998, -91.13391)', '10060 DAVID DR\nBATON ROUGE, LA\n(30.460434, -91.072608)', '10064 ELM GROVE GARDEN\nBATON ROUGE, LA 70808', '10064 ELM GROVE GARDEN DR\nBATON ROUGE, LA\n(30.536516, -91.169454)', '10065 AVENUE G ST\nBATON ROUGE, LA\n(30.535893, -91.196061)', '10067 AVENUE E ST\nBATON ROUGE, LA', '10067 EL CAMINO AV\nBATON ROUGE, LA\n(30.463343, -91.072644)', '10068 GREENWELL SPRINGS RD\nBATON ROUGE, LA\n(30.490515, -91.072726)', '1007 PARK BL\nBATON ROUGE, LA', '10070 AVENUE D AV\nBATON ROUGE, LA\n(30.536021, -91.193251)', '10070 FLORIDA BL\nBATON ROUGE, LA', '10073 MAMMOTH AV\nBATON ROUGE, LA\n(30.475872, -91.074938)', '10075 AVE J\nBATON ROUGE, LA 70807\n(30.535833, -91.198865)', '10075 AVENUE J AV\nBATON ROUGE, LA\n(30.53583, -91.198865)', '10075 AVENUE J ST\nBATON ROUGE, LA\n(30.53583, -91.198865)', '10077 AVENUE D ST\nBATON ROUGE, LA\n(30.536176, -91.193258)', '1008 CAMELIA AV\nBATON ROUGE, LA\n(30.439196, -91.166653)', '1008 CAMELLIA AV\nBATON ROUGE, LA\n(30.439341, -91.16666)', '10080 KAREN DR\nBATON ROUGE, LA\n(30.459538, -91.072322)', '10084 AVENUE K ST\nBATON ROUGE, LA\n(30.535638, -91.199784)', '10085 AVENUE E ST\nBATON ROUGE, LA', '10085 GREAT SMOKEY AV\nBATON ROUGE, LA\n(30.478692, -91.072213)', '10085 GREAT SMOKEY DR\nBATON ROUGE, LA\n(30.478546, -91.07245)', '10086 CUYHANGA PK\nBATON ROUGE, LA\n(30.464336, -91.072371)', '10088 AVENUE G\nBATON ROUGE, LA 70807\n(30.536062, -91.19607)', '10088 AVENUE G ST\nBATON ROUGE, LA\n(30.536104, -91.196072)', '10090 BIG BEND AV\nBATON ROUGE, LA\n(30.480159, -91.072167)', '10090 FLORIDA\nBATON ROUGE, LA 70815\n(30.456513, -91.071354)', '10090 FLORIDA BL\nBATON ROUGE, LA', '10091 AVE B AV\nBATON ROUGE, LA\n(30.536275, -91.191415)', '10091 AVENUE B ST\nBATON ROUGE, LA\n(30.536275, -91.191415)', '10092 AVENUE M ST\nBATON ROUGE, LA\n(30.53601, -91.20163)', '10097 AVENUE L AV\nBATON ROUGE, LA\n(30.535975, -91.200709)', '101 FRANCE ST\nBATON ROUGE, LA\n(30.442741, -91.18982)', '101 GOVERNMENT ST\nBATON ROUGE, LA\n(30.443968, -91.189906)', '101 NORTH ST\nBATON ROUGE, LA\n(30.45243, -91.190428)', '101 ST FERDINAND ST\nBATON ROUGE, LA\n(30.446597, -91.186621)', '1010 SPANISH TOWN RD\nBATON ROUGE, LA\n(30.454855, -91.179365)', '10100 AVE C AV\nBATON ROUGE, LA\n(30.536536, -91.192335)', '10100 AVENUE H ST\nBATON ROUGE, LA\n(30.536164, -91.197024)', '10100 AVENUE I\nBATON ROUGE, LA 70808\n(30.53615, -91.197947)', '10100 AVENUE J\nBATON ROUGE, LA 70808\n(30.536436, -91.198885)', '10100 COURSEY BL\nBATON ROUGE, LA\n(30.416591, -91.069566)', '10100 DARADELL AV\nBATON ROUGE, LA\n(30.419247, -91.071752)', '10100 DARRYL DR\nBATON ROUGE, LA\n(30.470869, -91.071948)', '10100 FLETCHER WILLIAMS DR\nBATON ROUGE, LA\n(30.534665, -91.179813)', '10100 FLETCHER WILLIAMS RD\nBATON ROUGE, LA\n(30.534665, -91.179813)', '10100 FLORIDA BL\nBATON ROUGE, LA', '10100 GOODWOOD\nBATON ROUGE, LA 70815\n(30.443623, -91.075708)', '10100 GOODWOOD BL\nBATON ROUGE, LA\n(30.443623, -91.075708)', '10100 GREENWELL SPRINGS RD\nBATON ROUGE, LA\n(30.490719, -91.072171)', '10100 MERGANZER AV\nBATON ROUGE, LA\n(30.536384, -91.190515)', '10100 OLD HAMMOND HW\nBATON ROUGE, LA\n(30.432083, -91.075797)', '10100 SUNNY CLINE DR\nBATON ROUGE, LA\n(30.485799, -91.071988)', '10101 SEIGAN LN\nBATON ROUGE, LA', '10106 AVENUE I ST\nBATON ROUGE, LA\n(30.536194, -91.197949)', '10107 AVE F AV\nBATON ROUGE, LA\n(30.536288, -91.195118)', '10107 AVENUE F ST\nBATON ROUGE, LA\n(30.536288, -91.195118)', '10108 AVENUE G ST\nBATON ROUGE, LA\n(30.536268, -91.196079)', '10109 AVENUE B ST\nBATON ROUGE, LA\n(30.536419, -91.191422)', '10110 COURSEY BL\nBATON ROUGE, LA\n(30.416602, -91.069546)', '10111 AVENUE J ST\nBATON ROUGE, LA\n(30.536187, -91.198876)', '10111 GWENADELE\nBATON ROUGE, LA 70816\n(30.426063, -91.075206)', '10111 GWENADELE AV\nBATON ROUGE, LA\n(30.426408, -91.074103)', '10111 GWENADELLE DR\nBATON ROUGE, LA', '10113 AVENUE I ST\nBATON ROUGE, LA\n(30.536237, -91.197952)', '10115 AVEJ ST\nBATON ROUGE, LA', '10115 AVENUE J ST\nBATON ROUGE, LA\n(30.536217, -91.198877)', '10115 BALLINA AV\nBATON ROUGE, LA\n(30.454467, -91.074325)', '10116 MERGANZER AV\nBATON ROUGE, LA\n(30.536501, -91.190576)', '1012 PROGRESS ST\nBATON ROUGE, LA\n(30.457746, -91.158145)', '1012 TIMBERSIDE DR\nBATON ROUGE, LA\n(30.459293, -91.129578)', '1012 WESTMORELAND DR\nBATON ROUGE, LA\n(30.439218, -91.152104)', '10120 AVE I\nBATON ROUGE, LA 70805\n(30.536295, -91.197955)', '10120 AVENUE J ST\nBATON ROUGE, LA\n(30.536565, -91.19889)', '10120 BOWMAN AV\nBATON ROUGE, LA\n(30.536758, -91.184285)', '10120 DARADELE AV\nBATON ROUGE, LA\n(30.419457, -91.071641)', '10120 FLORIDA BL\nBATON ROUGE, LA', '10120 RED OAK DR\nBATON ROUGE, LA\n(30.462725, -91.071676)', '10120 WHITE OAK\nBATON ROUGE, LA 70815\n(30.465859, -91.071393)', '10122 AVENUE F\nBATON ROUGE, LA 70807\n(30.536478, -91.195124)', '10122 AVENUE F ST\nBATON ROUGE, LA\n(30.536414, -91.195122)', '10123 AVE F\nBATON ROUGE, LA 70807\n(30.536561, -91.195126)', '10123 AVENUE F\nBATON ROUGE, LA 70807\n(30.536561, -91.195126)', '10123 GRANDEUR DR\nBATON ROUGE, LA\n(30.43783, -91.075351)', '10124 CLETUS DR\nBATON ROUGE, LA\n(30.468629, -91.071282)', '10124 RHAPSODY\nBATON ROUGE, LA 70815\n(30.435093, -91.074926)', '10125 BOWMAN AV\nBATON ROUGE, LA\n(30.536761, -91.184285)', '10125 DARRYL DR\nBATON ROUGE, LA\n(30.470869, -91.071929)', '10125 RUNNYMEDE AV\nBATON ROUGE, LA\n(30.43278, -91.07381)', '10126 AVENUE I ST\nBATON ROUGE, LA\n(30.536339, -91.197957)', '10127 FLORIDA BL\nBATON ROUGE, LA', '10128 FLORIDA BL\nBATON ROUGE, LA', '1013 BOB PETIT BL\nBATON ROUGE, LA', '10130 AVENUE J ST\nBATON ROUGE, LA\n(30.536629, -91.198893)', '10130 COURSEY\nBATON ROUGE, LA 70816\n(30.416624, -91.069507)', '10130 COURSEY BL\nBATON ROUGE, LA\n(30.416624, -91.069507)', '10130 GREENWELL SPRINGS RD\nBATON ROUGE, LA\n(30.490815, -91.071919)', '10131 KNIGHTS BRIDGE CT\nBATON ROUGE, LA\n(30.43088, -91.073895)', '10132 AVENUE H AV\nBATON ROUGE, LA\n(30.536458, -91.197037)', '10132 AVENUE H ST\nBATON ROUGE, LA\n(30.536458, -91.197037)', '10134 AVE I ST\nBATON ROUGE, LA\n(30.536397, -91.19796)', '10134 DARRYL DR\nBATON ROUGE, LA\n(30.470869, -91.071923)', '10134 FLORIDA BL\nBATON ROUGE, LA', '10135 AVENUE G ST\nBATON ROUGE, LA\n(30.536499, -91.196087)', '1014 FOXLANE DR\nBATON ROUGE, LA\n(30.470274, -91.025477)', '1014 PROGRESS ST\nBATON ROUGE, LA\n(30.457866, -91.158151)', '1014 WINDINGWAY DR\nBATON ROUGE, LA\n(30.377149, -91.103511)', '10140 JANICE ST\nBATON ROUGE, LA\n(30.420857, -91.071099)', '10140 WHITE OAK DR\nBATON ROUGE, LA\n(30.465858, -91.071449)', '10144 GERALD DR\nBATON ROUGE, LA\n(30.469793276000075, -91.071530252999935)', '10145 AVENUE E ST\nBATON ROUGE, LA', '10145 BALLINA\nBATON ROUGE, LA 70815\n(30.45446, -91.074182)', '10145 FLORIDA BL\nBATON ROUGE, LA', '10145 MAMMOTH AV\nBATON ROUGE, LA\n(30.476175, -91.074393)', '10145 RED OAK DR\nBATON ROUGE, LA\n(30.462719, -91.071434)', '10148 AVE J AV\nBATON ROUGE, LA\n(30.536745, -91.198897)', '10148 AVENUE J ST\nBATON ROUGE, LA\n(30.536745, -91.198897)', '10148 AVENUE K ST\nBATON ROUGE, LA\n(30.536081, -91.199803)', '10149 AVE G\nBATON ROUGE, LA 70807\n(30.536906, -91.196102)', '1015 BAYBERRY AV\nBATON ROUGE, LA\n(30.540039, -91.184444)', '1015 COLUMBUS DUNN DR\nBATON ROUGE, LA\n(30.457474, -91.144226)', '1015 SEYBURN DR\nBATON ROUGE, LA\n(30.388806, -91.135493)', '10150 AIRLINE DR\nBATON ROUGE, LA', '10150 AIRLINE HW\nBATON ROUGE, LA\n(30.418793, -91.071576)', '10152 PLAZA AMERICANA DR\nBATON ROUGE, LA', '10154 BOWMAN AV\nBATON ROUGE, LA\n(30.537043, -91.184298)', '10155 AVE E ST\nBATON ROUGE, LA', '10155 GOODWOOD BL\nBATON ROUGE, LA\n(30.443728, -91.075069)', '10155 MAMMOTH AV\nBATON ROUGE, LA\n(30.476266, -91.074229)', '10155 TAMS ST\nBATON ROUGE, LA\n(30.467358, -91.071449)', '10157 CASHEL AV\nBATON ROUGE, LA\n(30.453296, -91.073905)', '10160 AIRLINE HW\nBATON ROUGE, LA\n(30.41872, -91.071524)', '10160 BAYNARD ST\nBATON ROUGE, LA\n(30.537486, -91.177065)', '10164 DEVONSHIRE DR\nBATON ROUGE, LA\n(30.402065, -91.070675)', '10165 DARRYL DR\nBATON ROUGE, LA\n(30.470877573000053, -91.071220288999939)', '1017 SILVERWOOD DR\nBATON ROUGE, LA\n(30.538426, -91.183996)', '10172 MAMMOTH AV\nBATON ROUGE, LA\n(30.476341, -91.074094)', '10174 AIRLINE HW\nBATON ROUGE, LA\n(30.418617, -91.071451)', '10175 AVENUE D ST\nBATON ROUGE, LA\n(30.536879, -91.193284)', '10175 MAMMOTH AV\nBATON ROUGE, LA\n(30.476436, -91.073923)', '10178 AVENUE H ST\nBATON ROUGE, LA\n(30.536881, -91.197056)', '10180 PARKVIEW DR\nBATON ROUGE, LA\n(30.445747, -91.07149)', '10188 AVE E\nBATON ROUGE, LA 70807', '10188 FLORIDA BL\nBATON ROUGE, LA', '1019 OSPREY AV\nBATON ROUGE, LA\n(30.524328, -91.182757)', '10198 AVENUE D ST\nBATON ROUGE, LA\n(30.537005, -91.193288)', '10198 AVENUE F ST\nBATON ROUGE, LA\n(30.537037, -91.195141)', '102 FRANCE ST\nBATON ROUGE, LA\n(30.442766, -91.189154)', '102 MAYFLOWER ST\nBATON ROUGE, LA\n(30.440725, -91.188658)', '1020 ABERDEEN AV\nBATON ROUGE, LA\n(30.406636, -91.155715)', '1020 ARCADIA DR\nBATON ROUGE, LA\n(30.379476, -91.10914)', '1020 MAIN ST\nBATON ROUGE, LA\n(30.451676, -91.179538)', '1020 MARLBROOK DR\nBATON ROUGE, LA\n(30.446047, -91.062457)', '10200 AIRLINE\nBATON ROUGE, LA 70808', '10200 AIRLINE HW\nBATON ROUGE, LA\n(30.418425, -91.071316)', '10200 ALMOND ST\nBATON ROUGE, LA\n(30.538188, -91.182661)', '10200 AVE D\nBATON ROUGE, LA 70807\n(30.537019, -91.193289)', '10200 AVENUE C ST\nBATON ROUGE, LA\n(30.53762, -91.192382)', '10200 AVENUE D ST\nBATON ROUGE, LA\n(30.537019, -91.193289)', '10200 AVENUE E\nBATON ROUGE, LA 70807', '10200 AVENUE E\nBATON ROUGE, LA 70808', '10200 AVENUE E ST\nBATON ROUGE, LA', '10200 AVENUE F AV\nBATON ROUGE, LA\n(30.537054, -91.195142)', '10200 AVENUE H ST\nBATON ROUGE, LA\n(30.537083, -91.197065)', '10200 AVENUE J ST\nBATON ROUGE, LA\n(30.53708, -91.19891)', '10200 AVENUE L ST\nBATON ROUGE, LA\n(30.536966, -91.200747)', '10200 BARBARA ST\nBATON ROUGE, LA\n(30.442943, -91.073843)', '10200 COURSEY BL\nBATON ROUGE, LA\n(30.416704, -91.069368)', '10200 ELAIN DR\nBATON ROUGE, LA\n(30.482427, -91.070889)', '10200 GREENWELL SPRINGS RD\nBATON ROUGE, LA\n(30.491441, -91.070278)', '10200 HWY 19 HW\nBATON ROUGE, LA', '10200 MERGANZER AV\nBATON ROUGE, LA\n(30.537116, -91.190894)', '10200 MOLLYLEA DR\nBATON ROUGE, LA\n(30.452512, -91.072947)', '10200 S CHOCTAW\nBATON ROUGE, LA\n(30.472072, -91.071361)', '10200 SCOTLAND AV\nBATON ROUGE, LA\n(30.537427, -91.177865)', '10200 VETERANS MEMORIAL\nBATON ROUGE, LA 70807', '10201 AVE K ST\nBATON ROUGE, LA\n(30.536838, -91.199833)', '10201 AVENUE B ST\nBATON ROUGE, LA\n(30.537255, -91.191471)', '10201 AVENUE C ST\nBATON ROUGE, LA\n(30.53762, -91.192382)', '10201 CASHEL DR\nBATON ROUGE, LA\n(30.453293, -91.073687)', '10201 FLORIDA BL\nBATON ROUGE, LA', '10207 AVENUE J ST\nBATON ROUGE, LA\n(30.53689, -91.198903)', '10207 MAMMOTH AV\nBATON ROUGE, LA\n(30.476591, -91.073644)', '10209 AVE M\nBATON ROUGE, LA 70807\n(30.536894, -91.201684)', '10209 AVE M AV\nBATON ROUGE, LA\n(30.537066, -91.201695)', '10209 AVENUE M\nBATON ROUGE, LA 70807\n(30.536894, -91.201684)', '10209 AVENUE M ST\nBATON ROUGE, LA\n(30.537066, -91.201695)', '1021 BRAEBURN DR\nBATON ROUGE, LA\n(30.447605, -91.061492)', '1021 OAKLEY DR\nBATON ROUGE, LA\n(30.44098, -91.094878)', '1021 SHERWOOD FOREST BL\nBATON ROUGE, LA', '1021 WOODHILL DR\nBATON ROUGE, LA\n(30.459173, -91.128644)', '10210 AVE K ST\nBATON ROUGE, LA\n(30.536975, -91.199838)', '10210 AVE L\nBATON ROUGE, LA 70802\n(30.537057, -91.200751)', '10210 AVE L\nBATON ROUGE, LA 70807\n(30.536896, -91.200745)', '10210 AVE L AV\nBATON ROUGE, LA\n(30.537057, -91.200751)', '10210 AVE L ST\nBATON ROUGE, LA\n(30.537057, -91.200751)', '10210 AVENUE K ST\nBATON ROUGE, LA\n(30.536975, -91.199838)', '10210 AVENUE L\nBATON ROUGE, LA 70807\n(30.536896, -91.200745)', '10210 AVENUE L ST\nBATON ROUGE, LA\n(30.537057, -91.200751)', '10210 CANADA ST\nBATON ROUGE, LA\n(30.537639, -91.188402)', '10212 AVENUE H ST\nBATON ROUGE, LA\n(30.537193, -91.19707)', '10213 AVENUE G ST\nBATON ROUGE, LA\n(30.537198, -91.196113)', '10213 BALLINA AV\nBATON ROUGE, LA\n(30.454367, -91.073337)', '10217 AVENUE I ST\nBATON ROUGE, LA\n(30.536992, -91.197991)', '1022 SWAN AV\nBATON ROUGE, LA\n(30.523658, -91.183081)', '1022 WOODDALE BL\nBATON ROUGE, LA\n(30.458973, -91.10872)', '10220 AVE J ST\nBATON ROUGE, LA\n(30.537209, -91.198915)', '10220 AVENUE J ST\nBATON ROUGE, LA\n(30.537209, -91.198915)', '10220 JANICE ST\nBATON ROUGE, LA\n(30.421095, -91.070427)', '10221 ALMOND ST\nBATON ROUGE, LA\n(30.538188, -91.182661)', '10224 BARBARA ST\nBATON ROUGE, LA\n(30.442949, -91.073571)', '10224 DARRYL DR\nBATON ROUGE, LA\n(30.470868, -91.070961)', '10224 FLORIDA\nBATON ROUGE, LA 70814\n(30.456683, -91.070286)', '10224 FLORIDA BL\nBATON ROUGE, LA', '10225 AVENUE H ST\nBATON ROUGE, LA\n(30.537348, -91.197077)', '10225 FLORIDA BL\nBATON ROUGE, LA', '10226 FLORIDA BL\nBATON ROUGE, LA', '10229 AVENUE L ST\nBATON ROUGE, LA\n(30.537194, -91.200756)', '1023 ELM GROVE GARDEN DR\nBATON ROUGE, LA', '1023 LAUREL ST\nBATON ROUGE, LA\n(30.450632, -91.179471)', '1023 N LOBDELL\nBATON ROUGE, LA\n(30.459689, -91.114332)', '1023 WOODSTONE DR\nBATON ROUGE, LA\n(30.39431, -91.143261)', '1023 WOODVINE DR\nBATON ROUGE, LA\n(30.459825, -91.128358)', '10230 MOLLYLEA DR\nBATON ROUGE, LA\n(30.452557, -91.071627)', '10233 BALLINA AV\nBATON ROUGE, LA\n(30.454336, -91.07316)', '10234 FLORIDA BL\nBATON ROUGE, LA', '10236 AVE H ST\nBATON ROUGE, LA\n(30.537413, -91.19708)', '10236 AVENUE H ST\nBATON ROUGE, LA\n(30.537413, -91.19708)', '10236 AVENUE K ST\nBATON ROUGE, LA\n(30.537362, -91.199854)', '10238 CANADA ST\nBATON ROUGE, LA\n(30.537992, -91.188702)', '10239 CASHEL AV\nBATON ROUGE, LA\n(30.453275, -91.072771)', '1024 EXECUTIVE PARK AV\nBATON ROUGE, LA\n(30.459307, -91.125155)', '1024 FOXLANE DR\nBATON ROUGE, LA\n(30.470454, -91.025442)', '1024 PROGRESS RD\nBATON ROUGE, LA\n(30.537478, -91.183944)', '1024 PROGRESS ST\nBATON ROUGE, LA\n(30.458355, -91.158166)', '10240 AVE E ST\nBATON ROUGE, LA', '10240 BARBARA ST\nBATON ROUGE, LA\n(30.442879, -91.073151)', '10244 FLORIDA BL\nBATON ROUGE, LA', '10245 AIRLINE HW\nBATON ROUGE, LA\n(30.418948, -91.07153)', '10245 AVENUE L ST\nBATON ROUGE, LA\n(30.537345, -91.200762)', '10245 BLACK OAK DR\nBATON ROUGE, LA\n(30.464307, -91.070824)', '10247 MAMMOTH AV\nBATON ROUGE, LA\n(30.476911, -91.073067)', '10249 CASHEL AV\nBATON ROUGE, LA\n(30.453271, -91.07267)', '1025 CORA DR\nBATON ROUGE, LA\n(30.444669, -91.081579)', '1025 EXECUTIVE PARK AV\nBATON ROUGE, LA\n(30.458822, -91.125138)', '1025 LOUISIANA AV\nBATON ROUGE, LA\n(30.445089, -91.178722)', '1025 MAGNOLIA WOOD AV\nBATON ROUGE, LA\n(30.384867, -91.118791)', '1025 PROGRESS RD\nBATON ROUGE, LA\n(30.537482, -91.183595)', '1025 PROGRESS ST\nBATON ROUGE, LA\n(30.458207, -91.15816)', '1025 RICHLAND AV\nBATON ROUGE, LA\n(30.438529, -91.148359)', '10250 AVENUE G ST\nBATON ROUGE, LA\n(30.53758, -91.196127)', '10250 PLAZA AMERICANA\nBATON ROUGE, LA 70816\n(30.426616, -91.073298)', '10250 PLAZA AMERICANA DR\nBATON ROUGE, LA\n(30.426483, -91.073962)', '10251 AVENUE E AV\nBATON ROUGE, LA\n(30.537239, -91.198004)', '10251 AVENUE E ST\nBATON ROUGE, LA', '10254 TWIN CEDARS ST\nBATON ROUGE, LA\n(30.424605, -91.06747)', '10255 MOLLYLEA DR\nBATON ROUGE, LA\n(30.452505, -91.07216)', '10259 RED OAK DR\nBATON ROUGE, LA\n(30.462699, -91.070497)', '1026 E RIVER OAKS\nBATON </t>
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>335638</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>['(Null)', '1', '2', '3', '4', '5', 'H']</t>
         </is>
       </c>
     </row>
@@ -2001,10 +2155,10 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>151360</v>
+        <v>267773</v>
       </c>
       <c r="E20" t="n">
-        <v>151360</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2019,54 +2173,62 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K20" t="n">
         <v>-1</v>
       </c>
       <c r="L20" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="M20" t="n">
+        <v>6</v>
+      </c>
+      <c r="N20" t="n">
+        <v>13573</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>1B4</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
         <v>2</v>
       </c>
-      <c r="N20" t="n">
-        <v>89</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>&lt;Unspecified&gt;</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>1C1</t>
-        </is>
-      </c>
-      <c r="T20" t="n">
-        <v>2123</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>(Null)</t>
+        </is>
       </c>
       <c r="V20" t="n">
-        <v>7660028</v>
+        <v>13573</v>
       </c>
       <c r="W20" t="n">
-        <v>51494</v>
-      </c>
-      <c r="X20" t="inlineStr">
-        <is>
-          <t>['1 DAIRYMPLE DR\nBATON ROUGE, LA 70802', '1 DAIRYMPLE ST\nBATON ROUGE, LA 70802', '1 DALRYMPLE DR\nBATON ROUGE, LA 70802\n(30.415783, -91.176362)', '1 DALRYMPLE DR\nBATON ROUGE, LA 70803\n(30.415783, -91.176362)', '1 DALRYMPLE DR\nBATON ROUGE, LA 70820\n(30.415783, -91.176362)', '1 RUE SORBONNE ST\nBATON ROUGE, LA 70808\n(30.406384, -91.171672)', '1 S AMITE DR\nBATON ROUGE, LA', '1 W LAKESHORE DR\nBATON ROUGE, LA', '10', '10 GOVERNMENT ST\nBATON ROUGE, LA 70808', '10 RUE TOULOUSE ST\nBATON ROUGE, LA 70802\n(30.405535, -91.171963)', '100', '100 22ND AV\nBATON ROUGE, LA 70802', '100 3RD ST\nBATON ROUGE, LA 70802\n(30.447266, -91.188164)', '100 AMHERST AV\nBATON ROUGE, LA 70808\n(30.403615, -91.172333)', '100 APARTMENT COURT DR\nBATON ROUGE, LA 70805\n(30.446683, -91.123122)', '100 ASTER ST\nBATON ROUGE, LA 70802\n(30.419875, -91.177346)', '100 BEDFORD ST\nBATON ROUGE, LA 70806\n(30.448119, -91.157638)', '100 BELLEWOOD DR\nBATON ROUGE, LA 70802\n(30.451043, -91.12217)', '100 BOB PETIT BL\nBATON ROUGE, LA 70810', '100 BRICE ST\nBATON ROUGE, LA 70802\n(30.447708, -91.171056)', '100 BROADMOOR AV\nBATON ROUGE, LA 70815\n(30.452889, -91.091776)', '100 CAMPUS LAKE RD\nBATON ROUGE, LA 70820', '100 CHATSWORTH ST\nBATON ROUGE, LA 70802\n(30.433567, -91.183508)', '100 CHATSWORTH ST\nBATON ROUGE, LA 70806\n(30.433567, -91.183508)', '100 CLOUD DR\nBATON ROUGE, LA 70806\n(30.450733, -91.132157)', '100 COMMUNITY COLLEGE DR\nBATON ROUGE, LA 70806\n(30.450858, -91.136046)', '100 CONVENTION ST\nBATON ROUGE, LA 70802\n(30.448174, -91.190353)', '100 CYPRESS DR\nBATON ROUGE, LA 70802', '100 DALRYMPLE DR\nBATON ROUGE, LA 70810', '100 DALRYMPLE DR\nBATON ROUGE, LA 70820', '100 DELPHINE ST\nBATON ROUGE, LA 70802\n(30.447929, -91.164181)', '100 DOROTHY DIX DR\nBATON ROUGE, LA 70820', '100 E AIRPORT DR\nBATON ROUGE, LA', '100 E BOYD\nBATON ROUGE, LA 70802\n(30.403577, -91.172286)', '100 E BOYD AV\nBATON ROUGE, LA\n(30.403577, -91.172286)', '100 E BOYD DR\nBATON ROUGE, LA\n(30.403577, -91.172286)', '100 E BOYD HW\nBATON ROUGE, LA', '100 E BOYD ST\nBATON ROUGE, LA\n(30.403577, -91.172286)', '100 E BUCHANAN ST\nBATON ROUGE, LA\n(30.424951, -91.179661)', '100 E CHIMES ST\nBATON ROUGE, LA\n(30.417243, -91.176423)', '100 E FRATERNITY LN\nBATON ROUGE, LA', '100 E GARFIELD ST\nBATON ROUGE, LA\n(30.422449, -91.178505)', '100 E GRANT ST\nBATON ROUGE, LA\n(30.42311, -91.17881)', '100 E HARDING ST\nBATON ROUGE, LA\n(30.425906, -91.180094)', '100 E HARRISON ST\nBATON ROUGE, LA\n(30.42891, -91.181483)', '100 E I-10\nBATON ROUGE, LA 70802', '100 E I-10 HW\nBATON ROUGE, LA', '100 E I-12\nBATON ROUGE, LA 70802', '100 E I10\nBATON ROUGE, LA 70802', '100 E I10\nBATON ROUGE, LA 70808', '100 E I10 ST\nBATON ROUGE, LA', '100 E I12\nBATON ROUGE, LA 70808', '100 E I12\nBATON ROUGE, LA 70809', '100 E JOHNSON ST\nBATON ROUGE, LA\n(30.424472, -91.179439)', '100 E MCKINLEY ST\nBATON ROUGE, LA\n(30.423786, -91.178895)', '100 E PARKER BL\nBATON ROUGE, LA\n(30.404542, -91.173557)', '100 E POLK AV\nBATON ROUGE, LA\n(30.426906, -91.180554)', '100 E POLK ST\nBATON ROUGE, LA\n(30.426906, -91.180554)', '100 E ROOSEVELT ST\nBATON ROUGE, LA\n(30.421799, -91.178198)', '100 E STATE ST\nBATON ROUGE, LA\n(30.418207, -91.176576)', '100 E WASHINGTON ST\nBATON ROUGE, LA\n(30.430951, -91.182693)', '100 EAST BL\nBATON ROUGE, LA 70805\n(30.448377, -91.149567)', '100 EAST DR\nBATON ROUGE, LA 70806\n(30.448377, -91.149567)', '100 EAST I-10 HW\nBATON ROUGE, LA 70802', '100 EAST I-10 HW\nBATON ROUGE, LA 70808', '100 EAST I-12 HW\nBATON ROUGE, LA 700802', '100 EAST I-12 HW\nBATON ROUGE, LA 70802', '100 EAST I-12 HW\nBATON ROUGE, LA 70812', '100 EAST I-12 HW\nBATON ROUGE, LA 70816', '100 EDDIE ROBINSON DR\nBATON ROUGE, LA 70802\n(30.447234, -91.175943)', '100 EDDIE ROBINSON SR DR\nBATON ROUGE, LA 70802\n(30.447234, -91.175943)', '100 ELLWOOD ST\nBATON ROUGE, LA 70802\n(30.434149, -91.184439)', '100 ELMER AV\nBATON ROUGE, LA 70805\n(30.537841, -91.20159)', '100 ELMER AV\nBATON ROUGE, LA 70807\n(30.537841, -91.20159)', '100 ELTON C HARRISON DR\nBATON ROUGE, LA 70807', '100 EVERGREEN ST\nBATON ROUGE, LA 70802\n(30.447945, -91.163126)', '100 FLORIDA BL\nBATON ROUGE, LA 70802', '100 FLORIDA ST\nBATON ROUGE, LA 70801\n(30.449273, -91.190404)', '100 FLORIDA ST\nBATON ROUGE, LA 70802\n(30.449273, -91.190404)', '100 FRANCE ST\nBATON ROUGE, LA 70802\n(30.442734, -91.190016)', '100 FRANCE ST\nBATON ROUGE, LA 70805\n(30.442734, -91.190016)', '100 G LEON NETTERVILLE DR\nBATON ROUGE, LA 70807', '100 GOVERNMENT ST\nBATON ROUGE, LA 70708\n(30.443968, -91.189906)', '100 GOVERNMENT ST\nBATON ROUGE, LA 70802\n(30.443968, -91.189906)', '100 GOVERNMENT ST\nBATON ROUGE, LA 70805\n(30.443968, -91.189906)', '100 GOVERNMENT ST\nBATON ROUGE, LA 70806\n(30.443968, -91.189906)', '100 GOVERNMENT ST\nBATON ROUGE, LA 70808\n(30.443968, -91.189906)', '100 HEARTHSTONE AV\nBATON ROUGE, LA 70806\n(30.448157, -91.156764)', '100 HELEN BARRON ST\nBATON ROUGE, LA 70811', '100 HENRY E COBB ST\nBATON ROUGE, LA 70807', '100 JASMINE BL\nBATON ROUGE, LA 70808\n(30.448365, -91.150086)', '100 JENNIFER JEAN AV\nBATON ROUGE, LA 70820', '100 JULIA ST\nBATON ROUGE, LA 70802', '100 JULIA ST\nBATON ROUGE, LA 70806', '100 JULIA ST\nBATON ROUGE, LA 70820', '100 KENILWORTH DR\nBATON ROUGE, LA 70802\n(30.377923, -91.137912)', '100 KENILWORTH PK\nBATON ROUGE, LA 70808\n(30.377923, -91.137912)', '100 LAFAYETTE ST\nBATON ROUGE, LA 70802\n(30.447098, -91.189332)', '100 LAFAYETTE ST\nBATON ROUGE, LA 70805\n(30.447098, -91.189332)', '100 LAFAYETTE ST\nBATON ROUGE, LA 70808\n(30.447098, -91.189332)', '100 LAFEYETTE ST\nBATON ROUGE, LA 70802', '100 LAUREL ST\nBATON ROUGE, LA 70802\n(30.450299, -91.190465)', '100 LEE DR\nBATON ROUGE, LA 70802\n(30.394183, -91.159427)', '100 LEE DR\nBATON ROUGE, LA 70808\n(30.394183, -91.159427)', '100 LEE DR\nBATON ROUGE, LA 70810\n(30.394183, -91.159427)', '100 LITTLE JOHN DR\nBATON ROUGE, LA 70815\n(30.459855, -91.051272)', '100 LOBDELL AV\nBATON ROUGE, LA 70802\n(30.451651, -91.112061)', '100 LOBDELL AV\nBATON ROUGE, LA 70805\n(30.451651, -91.112061)', '100 LOUISE ST\nBATON ROUGE, LA 70802\n(30.433923, -91.183234)', '100 LSU AV\nBATON ROUGE, LA 70802\n(30.402155, -91.170463)', '100 LSU AV\nBATON ROUGE, LA 70808\n(30.402155, -91.170463)', '100 LSU AV\nBATON ROUGE, LA 70810\n(30.402155, -91.170463)', '100 MAIN ST\nBATON ROUGE, LA 70802\n(30.451376, -91.190522)', '100 MAIN ST\nBATON ROUGE, LA 70816\n(30.451376, -91.190522)', '100 MAXIMILIAN ST\nBATON ROUGE, LA 70802\n(30.4471, -91.181494)', '100 MAXIMILLIAN ST\nBATON ROUGE, LA 70802\n(30.4471, -91.181494)', '100 MAYFLOWER ST\nBATON ROUGE, LA 70802\n(30.440724, -91.18867)', '100 MCGEHEE DR\nBATON ROUGE, LA 70815\n(30.457735, -91.064563)', '100 N 11TH ST\nBATON ROUGE, LA\n(30.447461, -91.178582)', '100 N 12TH ST\nBATON ROUGE, LA\n(30.447488, -91.177411)', '100 N 13TH ST\nBATON ROUGE, LA\n(30.447539, -91.176222)', '100 N 14 ST\nBATON ROUGE, LA\n(30.447585, -91.175028)', '100 N 14TH ST\nBATON ROUGE, LA\n(30.447727, -91.175034)', '100 N 17TH ST\nBATON ROUGE, LA\n(30.448073, -91.171473)', '100 N 19TH ST\nBATON ROUGE, LA\n(30.447616, -91.169199)', '100 N 20TH ST\nBATON ROUGE, LA\n(30.447808, -91.167896)', '100 N 21ST CT\nBATON ROUGE, LA\n(30.447847, -91.166711)', '100 N 22ND ST\nBATON ROUGE, LA\n(30.44787, -91.165892)', '100 N 23 RD ST\nBATON ROUGE, LA', '100 N 23RD ST\nBATON ROUGE, LA\n(30.447929, -91.164181)', '100 N 25TH ST\nBATON ROUGE, LA\n(30.447979, -91.162635)', '100 N 26TH ST\nBATON ROUGE, LA\n(30.447997, -91.161936)', '100 N 3RD ST\nBATON ROUGE, LA\n(30.447266, -91.188164)', '100 N 4TH ST\nBATON ROUGE, LA\n(30.447199, -91.186916)', '100 N 5TH ST\nBATON ROUGE, LA\n(30.447253, -91.185465)', '100 N 8TH ST\nBATON ROUGE, LA\n(30.447335, -91.182694)', '100 N 9TH ST\nBATON ROUGE, LA\n(30.447375, -91.181512)', '100 N ACADIAN ST\nBATON ROUGE, LA\n(30.448489, -91.154603)', '100 N ACADIAN TH\nBATON ROUGE, LA', '100 N ARDENWOOD DR\nBATON ROUGE, LA\n(30.451664, -91.127403)', '100 N BAXTER ST\nBATON ROUGE, LA\n(30.447896, -91.164911)', '100 N DONMOOR AV\nBATON ROUGE, LA\n(30.451573, -91.11841)', '100 N DONMOOR DR\nBATON ROUGE, LA\n(30.451573, -91.11841)', '100 N FOSTER DR\nBATON ROUGE, LA\n(30.448699, -91.138913)', '100 N I110\nBATON ROUGE, LA 70805', '100 N LOBDELL AV\nBATON ROUGE, LA\n(30.451759, -91.112069)', '100 N LOBDELL BL\nBATON ROUGE, LA\n(30.451759, -91.112069)', '100 N RIVER RD\nBATON ROUGE, LA\n(30.447053, -91.190145)', '100 N STADIUM\nBATON ROUGE, LA 70820\n(30.415671, -91.182361)', '100 N STADIUM DR\nBATON ROUGE, LA\n(30.3974, -91.1565)', '100 N STADIUM RD\nBATON ROUGE, LA\n(30.415671, -91.182361)', '100 N STEVENDALE AV\nBATON ROUGE, LA\n(30.467741, -91.002952)', '100 N THIRD ST\nBATON ROUGE, LA\n(30.447266, -91.188164)', '100 N. 21ST ST\nBATON ROUGE, LA 70802\n(30.447847, -91.166711)', '100 NAPOLEON ST\nBATON ROUGE, LA 70802\n(30.44687, -91.183852)', '100 NORTH BL\nBATON ROUGE, LA 70801\n(30.447053, -91.190145)', '100 NORTH BL\nBATON ROUGE, LA 70802\n(30.45243, -91.190428)', '100 NORTH BL\nBATON ROUGE, LA 70803\n(30.447053, -91.190145)', '100 NORTH BL\nBATON ROUGE, LA 70805\n(30.447053, -91.190145)', '100 NORTH BL\nBATON ROUGE, LA 70808\n(30.447053, -91.190145)', '100 NORTH BT\nBATON ROUGE, LA 70802', '100 NORTH ST\nBATON ROUGE, LA 70802\n(30.45242687800004, -91.190291939999952)', '100 NORTH ST\nBATON ROUGE, LA 70805\n(30.45243, -91.190428)', '100 OGDEN DR\nBATON ROUGE, LA 70806\n(30.448096, -91.158524)', '100 OKLAHOMA ST\nBATON ROUGE, LA 70802\n(30.434981, -91.184911)', '100 RIVER RD\nBATON ROUGE, LA 70802\n(30.447053, -91.190145)', '100 RIVER RD\nBATON ROUGE, LA 70805\n(30.447053, -91.190145)', '100 RIVER RD\nBATON ROUGE, LA 70810', '100 S 11TH ST\nBATON ROUGE, LA\n(30.447191, -91.178186)', '100 S 12TH ST\nBATON ROUGE, LA\n(30.447231, -91.177142)', '100 S 13TH ST RD\nBATON ROUGE, LA', '100 S 14TH ST\nBATON ROUGE, LA\n(30.447587, -91.17486)', '100 S 16TH ST\nBATON ROUGE, LA\n(30.447633, -91.172878)', '100 S 18TH ST\nBATON ROUGE, LA\n(30.447868, -91.170289)', '100 S 20TH ST\nBATON ROUGE, LA\n(30.447802, -91.168077)', '100 S 22ND ST\nBATON ROUGE, LA\n(30.44787, -91.165892)', '100 S ACADIAN TH\nBATON ROUGE, LA', '100 S ARDENWOOD DR\nBATON ROUGE, LA\n(30.450721, -91.127448)', '100 S DONMOORE AV\nBATON ROUGE, LA\n(30.450534, -91.118338)', '100 S EUGENE ST\nBATON ROUGE, LA\n(30.448041, -91.160442)', '100 S FAIRFAX DR\nBATON ROUGE, LA\n(30.450786, -91.133045)', '100 S FLANNERY DR\nBATON ROUGE, LA\n(30.462254, -91.0352)', '100 S FLANNERY RD\nBATON ROUGE, LA\n(30.462254, -91.0352)', '100 S FOSTER DR\nBATON ROUGE, LA\n(30.448699, -91.138913)', '100 S I-110 HW\nBATON ROUGE, LA', '100 S I110 HW\nBATON ROUGE, LA', '100 S RIVER RD\nBATON ROUGE, LA\n(30.44573, -91.1901)', '100 S SHERWOOD FOREST BL\nBATON ROUGE, LA', '100 S STADIUM\nBATON ROUGE, LA 70808\n(30.415671, -91.182361)', '100 S STADIUM\nBATON ROUGE, LA 70820\n(30.415671, -91.182361)', '100 S STADIUM DR\nBATON ROUGE, LA', '100 S TOWER\nBATON ROUGE, LA 70802', '100 S WOODDALE BL\nBATON ROUGE, LA\n(30.451912, -91.104154)', '100 SHADOWS BEND DR\nBATON ROUGE, LA 70802\n(30.364681, -91.116408)', '100 SHARP RD\nBATON ROUGE, LA 70815\n(30.456398, -91.072071)', '100 SHARP RD\nBATON ROUGE, LA 70816\n(30.456398, -91.072071)', '100 SHERWOOD FOREST BL\nBATON ROUGE, LA 70815', '100 SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '100 SKIP BERTMAN DR\nBATON ROUGE, LA 70820', '100 SOUTH BL\nBATON ROUGE, LA 70802\n(30.439528, -91.189945)', '100 SOUTH I-110 HW\nBATON ROUGE, LA 70802', '100 SOUTH I-110 HW\nBATON ROUGE, LA 70806', '100 SOUTH I-110 HW\nBATON ROUGE, LA 70808', '100 ST FERDINAND ST\nBATON ROUGE, LA 70802\n(30.446962, -91.186679)', '100 ST LOUIS ST\nBATON ROUGE, LA 70802\n(30.446927, -91.187744)', '100 ST VINCENT DE PAUL PL\nBATON ROUGE, LA 70802\n(30.447807, -91.172792)', '100 ST VINCENT DE PAUL PL\nBATON ROUGE, LA 70805\n(30.447807, -91.172792)', '100 ST. CHARLES ST\nBATON ROUGE, LA 70802\n(30.446993, -91.185463)', '100 STANFORD AV\nBATON ROUGE, LA 70708\n(30.402862, -91.169846)', '100 STANFORD AV\nBATON ROUGE, LA 70802\n(30.402862, -91.169846)', '100 STANFORD AV\nBATON ROUGE, LA 70806\n(30.402862, -91.169846)', '100 STARING LN\nBATON ROUGE, LA 70808\n(30.368961, -91.122942)', '100 STARING LN\nBATON ROUGE, LA 70809\n(30.368961, -91.122942)', '100 TAFT ST\nBATON ROUGE, LA 70802\n(30.425327, -91.17983)', '100 TAYLOR ST\nBATON ROUGE, LA 70802\n(30.426469, -91.180352)', '100 TAYLOR ST\nBATON ROUGE, LA 70808\n(30.426469, -91.180352)', '100 THIRD ST\nBATON ROUGE, LA 708001\n(30.447266, -91.188164)', '100 THIRD ST\nBATON ROUGE, LA 70802\n(30.447266, -91.188164)', '100 THIRD ST\nBATON ROUGE, LA 70805\n(30.447266, -91.188164)', '100 THOMAS RD\nBATON ROUGE, LA 70807\n(30.550222, -91.203688)', '100 TOWER DR\nBATON ROUGE, LA 70005', '100 TOWER DR\nBATON ROUGE, LA 70802', '100 TOWER DR\nBATON ROUGE, LA 70803', '100 TOWER DR\nBATON ROUGE, LA 70805', '100 TOWER DR\nBATON ROUGE, LA 70808', '100 TOWER DR\nBATON ROUGE, LA 70820', '100 VAN BUREN ST\nBATON ROUGE, LA 70802\n(30.430266, -91.181444)', '100 VETA ST\nBATON ROUGE, LA 70802\n(30.43549, -91.184767)', '100 W BUCHANAN ST\nBATON ROUGE, LA\n(30.425571, -91.17994)', '100 W CHIMES\nBATON ROUGE, LA 70808\n(30.417243, -91.176423)', '100 W CHIMES ST\nBATON ROUGE, LA\n(30.417243, -91.176423)', '100 W FRAT LN\nBATON ROUGE, LA', '100 W GRANT ST\nBATON ROUGE, LA\n(30.42311, -91.17881)', '100 W HARDING ST\nBATON ROUGE, LA\n(30.426128, -91.180196)', '100 W HARRISON ST\nBATON ROUGE, LA\n(30.429202, -91.181618)', '100 W I-12\nBATON ROUGE, LA 70802', '100 W I-12\nBATON ROUGE, LA 70808', '100 W I10\nBATON ROUGE, LA 70812', '100 W I12\nBATON ROUGE, LA 70808', '100 W I12\nBATON ROUGE, LA 70810', '100 W I12 HW\nBATON ROUGE, LA', '100 W INTERSTATE 12 HW\nBATON ROUGE, LA', '100 W JOHNSON\nBATON ROUGE, LA 70802\n(30.424472, -91.179439)', '100 W JOHNSON ST\nBATON ROUGE, LA\n(30.424472, -91.179439)', '100 W LEE DR\nBATON ROUGE, LA\n(30.393883, -91.159789)', '100 W LEE ST\nBATON ROUGE, LA\n(30.393883, -91.159789)', '100 W MCKINLEY ST\nBATON ROUGE, LA\n(30.423791, -91.179136)', '100 W PARKER BL\nBATON ROUGE, LA\n(30.40454, -91.17369)', '100 W PARKER RD\nBATON ROUGE, LA\n(30.40454, -91.17369)', '100 W POLK ST\nBATON ROUGE, LA\n(30.427399, -91.180777)', '100 W ROOSEVELT ST\nBATON ROUGE, LA\n(30.421799, -91.178198)', '100 W STATE ST\nBATON ROUGE, LA\n(30.418207, -91.176576)', '100 WEST I-10 HW\nBATON ROUGE, LA 70802', '100 WEST I-10 HW\nBATON ROUGE, LA 70808', '100 WEST I-12 HW\nBATON ROUGE, LA 70806', '100 WEST I-12 HW\nBATON ROUGE, LA 70809', '100 WOODDALE BL\nBATON ROUGE, LA 70805', '100 WOODDALE BL\nBATON ROUGE, LA 70806\n(30.452025, -91.104022)', '1000 37TH ST\nBATON ROUGE, LA 70802\n(30.457379, -91.152732)', '1000 48TH ST\nBATON ROUGE, LA 70808\n(30.457514, -91.141865)', '1000 AIRLINE HW\nBATON ROUGE, LA 70816', '1000 ASTER ST\nBATON ROUGE, LA 70802\n(30.419522, -91.188438)', '1000 ASTER ST\nBATON ROUGE, LA 70806\n(30.419522, -91.188438)', '1000 AVE B ST\nBATON ROUGE, LA 70807', '1000 BAIRD AV\nBATON ROUGE, LA 70808\n(30.385341, -91.120205)', '1000 BARANCO DR\nBATON ROUGE, LA 70805\n(30.529472, -91.183748)', '1000 BARANCO ST\nBATON ROUGE, LA 70805\n(30.529472, -91.183748)', '1000 BARANCO ST\nBATON ROUGE, LA 70807\n(30.529472, -91.183748)', '1000 BARANCO ST\nBATON ROUGE, LA 70808\n(30.529472, -91.183748)', '1000 BOB PETIT DR\nBATON ROUGE, LA 70808', '1000 BOB PETIT DR\nBATON ROUGE, LA 70820', '1000 BOB PETIT ST\nBATON ROUGE, LA 70802', '1000 BOB PETTIT AV\nBATON ROUGE, LA 70806\n(30.396516, -91.178363)', '1000 BOB PETTIT AV\nBATON ROUGE, LA 70808\n(30.396516, -91.178363)', '1000 BOB PETTIT AV\nBATON ROUGE, LA 70820\n(30.396516, -91.178363)', '1000 BOB PETTIT BL\nBATON ROUGE, LA 70808\n(30.396516, -91.178363)', '1000 BOB PETTIT BL\nBATON ROUGE, LA 70810\n(30.396516, -91.178363)', '1000 BOB PETTIT BL\nBATON ROUGE, LA 70812\n(30.396516, -91.178363)', '1000 BOB PETTIT BL\nBATON ROUGE, LA 70816\n(30.396516, -91.178363)', '1000 BOB PETTIT BL\nBATON ROUGE, LA 70820\n(30.396516, -91.178363)', '1000 BOB PETTIT ST\nBATON ROUGE, LA 70802\n(30.396516, -91.178363)', '1000 BRIGHTSIDE DR\nBATON ROUGE, LA 70820', '1000 BRIGHTSIDE LN\nBATON ROUGE, LA 70802', '1000 BRIGHTSIDE LN\nBATON ROUGE, LA 70805', '1000 BRIGHTSIDE LN\nBATON ROUGE, LA 70820', '1000 CAMELIA ST\nBATON ROUGE, LA 70808', '1000 CAPITOL ACCESS RD\nBATON ROUGE, LA 70805\n(30.458061, -91.180038)', '1000 CARDINAL ST\nBATON ROUGE, LA 70805\n(30.527481, -91.183218)', '1000 CENTRAL RD\nBATON ROUGE, LA 70807\n(30.53456, -91.183326)', '1000 CHARLES T SMITH DR\nBATON ROUGE, LA 70802', '1000 COLUMBUS DUNN DR\nBATON ROUGE, LA 70805\n(30.457275, -91.144217)', '1000 COLUMBUS DUNN DR\nBATON ROUGE, LA 70806\n(30.457275, -91.144217)', '1000 COLUMBUS DUNN ST\nBATON ROUGE, LA 70805\n(30.457275, -91.144217)', '1000 CONVENTION ST\nBATON ROUGE, LA 70802\n(30.448499, -91.17961)', '1000 CONVENTION ST\nBATON ROUGE, LA 70808\n(30.448499, -91.17961)', '1000 E BOYD DR\nBATON ROUGE, LA', '1000 E BUCHANAN ST\nBATON ROUGE, LA\n(30.425107, -91.173694)', '1000 E I-10\nBATON ROUGE, LA 70802', '1000 E I10\nBATON ROUGE, LA 70809', '1000 E I10 HW\nBATON ROUGE, LA', '1000 E JOHNSON ST\nBATON ROUGE, LA\n(30.424449, -91.173626)', '1000 E POLK ST\nBATON ROUGE, LA\n(30.427116, -91.173751)', '1000 E WASHINGTON ST\nBATON ROUGE, LA\n(30.431143, -91.175428)', '1000 EAST BL\nBATON ROUGE, LA 70802', '1000 EAST I-10 HW\nBATON ROUGE, LA 70805', '1000 EAST I-10 HW\nBATON ROUGE, LA 70808', '1000 EAST I-10 HW\nBATON ROUGE, LA 70809', '1000 EAST I-10 HW\nBATON ROUGE, LA 70820', '1000 FIG ST\nBATON ROUGE, LA 70802\n(30.431735, -91.176335)', '1000 FLORIDA BL\nBATON ROUGE, LA 70802', '1000 FLORIDA BL\nBATON ROUGE, LA 70805', '1000 FLORIDA BL\nBATON ROUGE, LA 70808', '1000 FLORIDA ST\nBATON ROUGE, LA 70802\n(30.449579, -91.17947)', '1000 FLORIDA ST\nBATON ROUGE, LA 70805\n(30.449579, -91.17947)', '1000 FOREST OAK DR\nBATON ROUGE, LA 70815', '1000 GOVERNMENT ST\nBATON ROUGE, LA 70802\n(30.443471, -91.179801)', '1000 GOVERNMENT ST\nBATON ROUGE, LA 70805\n(30.443471, -91.179801)', '1000 GOVERNMENT ST\nBATON ROUGE, LA 70808\n(30.443471, -91.179801)', '1000 HARDING BL\nBATON ROUGE, LA 70807\n(30.520395, -91.184014)', '1000 HASTINGS ST\nBATON ROUGE, LA 70807', '1000 HIGHLAND RD\nBATON ROUGE, LA 70802\n(30.439568, -91.186377)', '1000 JENNIFER JEAN AV\nBATON ROUGE, LA 70820', '1000 JENNIFER JEAN DR\nBATON ROUGE, LA 70802', '1000 JENNIFER JEAN DR\nBATON ROUGE, LA 70805', '1000 JENNIFER JEAN DR\nBATON ROUGE, LA 70808', '1000 JENNIFER JEAN DR\nBATON ROUGE, LA 70813', '1000 JENNIFER JEAN DR\nBATON ROUGE, LA 70820', '1000 JENNIFER JEAN ST\nBATON ROUGE, LA 70802', '1000 JENNIFER JEAN ST\nBATON ROUGE, LA 70810', '1000 JULIA ST\nBATON ROUGE, LA 70802\n(30.437302, -91.178872)', '1000 LAUREL AV\nBATON ROUGE, LA 70802\n(30.450612, -91.180119)', '1000 LAUREL ST\nBATON ROUGE, LA 70802\n(30.450612, -91.180119)', '1000 LEE DR\nBATON ROUGE, LA 70802\n(30.403264, -91.15165)', '1000 LEE DR\nBATON ROUGE, LA 70808\n(30.403264, -91.15165)', '1000 LEE DR\nBATON ROUGE, LA 70820\n(30.389692, -91.167506)', '1000 LETTSWORTH ST\nBATON ROUGE, LA 70802', '1000 LETTSWORTH ST\nBATON ROUGE, LA 70808', '1000 LOUISE ST\nBATON ROUGE, LA 70802\n(30.434265, -91.176898)', '1000 MAIN ST\nBATON ROUGE, LA 70802\n(30.451681, -91.179349)', '1000 MARSH ST\nBATON ROUGE, LA 70807\n(30.526088, -91.183516)', '1000 MCCLUNG ST\nBATON ROUGE, LA 70802\n(30.432318, -91.188609)', '1000 MONET DR\nBATON ROUGE, LA 70805\n(30.459075, -91.117411)', '1000 MONET ST\nBATON ROUGE, LA 70806\n(30.459075, -91.117411)', '1000 MYRTLE ST\nBATON ROUGE, LA 70802\n(30.43828, -91.179467)', '1000 N 19TH ST\nBATON ROUGE, LA\n(30.457401, -91.169688)', '1000 N 20TH ST\nBATON ROUGE, LA', '1000 N 22ND ST\nBATON ROUGE, LA\n(30.457391, -91.166167)', '1000 N 23 ST\nBATON ROUGE, LA 70805\n(30.458309, -91.164912)', '1000 N 23RD ST\nBATON ROUGE, LA\n(30.459306, -91.164953)', '1000 N 25TH ST\nBATON ROUGE, LA', '1000 N 28 ST\nBATON ROUGE, LA\n(30.457814, -91.160563)', '1000 N 28TH ST\nBATON ROUGE, LA\n(30.457814, -91.160563)', '1000 N 29TH ST\nBATON ROUGE, LA\n(30.457735, -91.159625)', '1000 N 30TH ST\nBATON ROUGE, LA\n(30.457538, -91.15876)', '1000 N 32ND ST\nBATON ROUGE, LA\n(30.457582, -91.156722)', '1000 N 35TH ST\nBATON ROUGE, LA\n(30.45729, -91.154329)', '1000 N 37TH ST\nBATON ROUGE, LA\n(30.457379, -91.152732)', '1000 N 38TH\nBATON ROUGE, LA 70802\n(30.457367, -91.151964)', '1000 N 38TH ST\nBATON ROUGE, LA\n(30.457367, -91.151964)', '1000 N 40TH ST\nBATON ROUGE, LA\n(30.457414, -91.150376)', '1000 N 44TH ST\nBATON ROUGE, LA\n(30.457242, -91.145013)', '1000 N 46TH ST\nBATON ROUGE, LA\n(30.457245, -91.143378)', '1000 N 47TH ST\nBATON ROUGE, LA\n(30.457528, -91.14263)', '1000 N 48TH ST\nBATON ROUGE, LA\n(30.457514, -91.141865)', '1000 N DONMOOR AV\nBATON ROUGE, LA\n(30.458813, -91.118645)', '1000 N DONMOOR BL\nBATON ROUGE, LA\n(30.458813, -91.118645)', '1000 N FOSTER DR\nBATON ROUGE, LA\n(30.457703, -91.139335)', '1000 N I110 OT\nBATON ROUGE, LA', '1000 N LITTLE JOHN DR\nBATON ROUGE, LA\n(30.460643, -91.051271)', '1000 NICHOLSON DR\nBATON ROUGE, LA 70802\n(30.437994, -91.187325)', '1000 NICHOLSON ST\nBATON ROUGE, LA 70802\n(30.437994, -91.187325)', '1000 NORTH BL\nBATON ROUGE, LA 70802\n(30.45272, -91.179788)', '1000 NORTH ST\nBATON ROUGE, LA 70802\n(30.45272, -91.179788)', '1000 OSPREY AV\nBATON ROUGE, LA 70807\n(30.524309, -91.18369)', '1000 OWL AV\nBATON ROUGE, LA 70807\n(30.522958, -91.183012)', '1000 OWL ST\nBATON ROUGE, LA 70807\n(30.522958, -91.183012)', '1000 PARK BL\nBATON ROUGE, LA 70802', '1000 PITTSBURG AV\nBATON ROUGE, LA 70802\n(30.467069, -91.178367)', '1000 PROGRESS RD\nBATON ROUGE, LA 70807\n(30.537474, -91.184317)', '1000 PROGRESS ST\nBATON ROUGE, LA 70802\n(30.457495, -91.158133)', '1000 PROGRESS ST\nBATON ROUGE, LA 70805\n(30.457495, -91.158133)', '1000 RIVER RD\nBATON ROUGE, LA 70804\n(30.456212, -91.189942)', '1000 RIVER RD\nBATON ROUGE, LA 70805\n(30.456212, -91.189942)', '1000 S 15TH ST\nBATON ROUGE, LA\n(30.438695, -91.173219)', '1000 S 16TH ST\nBATON ROUGE, LA\n(30.439147, -91.171973)', '1000 S ACADIAN TH\nBATON ROUGE, LA', '1000 S FOSTER DR\nBATON ROUGE, LA\n(30.440024, -91.13564)', '1000 S FOSTER ST\nBATON ROUGE, LA\n(30.440024, -91.13564)', '1000 S I 110\nBATON ROUGE, LA 70805', '1000 S I-110\nBATON ROUGE, LA 70802', '1000 S I-110 OT\nBATON ROUGE, LA', '1000 S I110\nBATON ROUGE, LA 70802', '1000 S I110\nBATON ROUGE, LA 70806', '1000 S RIVER RD\nBATON ROUGE, LA\n(30.437203, -91.190266)', '1000 S SHERWOOD FOREST BL\nBATON ROUGE, LA', '1000 SCENIC HW\nBATON ROUGE, LA 70806\n(30.45683, -91.167415)', '1000 SEYBURN DR\nBATON ROUGE, LA 70810\n(30.388925, -91.135538)', '1000 SHARP RD\nBATON ROUGE, LA 70816\n(30.444851, -91.068037)', '1000 SHERWOOD FOREST BL\nBATON ROUGE, LA 70815', '1000 SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '1000 SOUTH BL\nBATON ROUGE, LA 70802\n(30.439623, -91.179376)', '1000 SOUTH BL\nBATON ROUGE, LA 70808\n(30.439623, -91.179376)', '1000 SOUTH I-110 HW\nBATON ROUGE, LA 70805', '1000 SOUTH I-110 HW\nBATON ROUGE, LA 70811', '1000 SPARROW ST\nBATON ROUGE, LA 70807\n(30.52541, -91.183146)', '1000 ST CHARLES ST\nBATON ROUGE, LA 70802\n(30.437772, -91.185668)', '1000 STANFORD AV\nBATON ROUGE, LA 70802\n(30.408862, -91.162895)', '1000 STANFORD AV\nBATON ROUGE, LA 70808\n(30.408862, -91.162895)', '1000 STARING LN\nBATON ROUGE, LA 70808\n(30.382516, -91.11453)', '1000 SWAN AV\nBATON ROUGE, LA 70802\n(30.523658, -91.183355)', '1000 SWAN AV\nBATON ROUGE, LA 70805\n(30.523658, -91.183355)', '1000 SWAN AV\nBATON ROUGE, LA 70806\n(30.523658, -91.183355)', '1000 SWAN AV\nBATON ROUGE, LA 70807\n(30.523658, -91.183355)', '1000 SWAN AV\nBATON ROUGE, LA 70811\n(30.523658, -91.183355)', '1000 TERRACE ST\nBATON ROUGE, LA 70802\n(30.436333, -91.178181)', '1000 THOMAS H DELPIT DR\nBATON ROUGE, LA 70802', '1000 TOWNSLEY ST\nBATON ROUGE, LA 70807\n(30.524719, -91.183908)', '1000 W I 10\nBATON ROUGE, LA 70808', '1000 W I-10\nBATON ROUGE, LA 70809', '1000 W I-10\nBATON ROUGE, LA 70810', '1000 W I-10 OT\nBATON ROUGE, LA', '1000 W I10\nBATON ROUGE, LA 70806', '1000 W LEE DR\nBATON ROUGE, LA\n(30.389692, -91.167506)', '1000 W ROOSEVELT ST\nBATON ROUGE, LA\n(30.421555, -91.189353)', '1000 WAVERLY DR\nBATON ROUGE, LA 70805\n(30.457781, -91.133658)', '1000 WEST I-10 HW\nBATON ROUGE, LA 70802', '1000 WEST I-10 HW\nBATON ROUGE, LA 70809', '1000 WEST I-10 HW\nBATON ROUGE, LA 70810', '10000 AIRLINE HW\nBATON ROUGE, LA 70508\n(30.420375, -91.072703)', '10000 AIRLINE HW\nBATON ROUGE, LA 70806\n(30.420375, -91.072703)', '10000 AIRLINE HW\nBATON ROUGE, LA 70808\n(30.420375, -91.072703)', '10000 AIRLINE HW\nBATON ROUGE, LA 70809\n(30.420375, -91.072703)', '10000 AIRLINE HW\nBATON ROUGE, LA 70815', '10000 AIRLINE HW\nBATON ROUGE, LA 70816\n(30.420375, -91.072703)', '10000 AVE A ST\nBATON ROUGE, LA 70807\n(30.535407, -91.190477)', '10000 AVE B AV\nBATON ROUGE, LA 70802\n(30.535472, -91.191383)', '10000 AVE F AV\nBATON ROUGE, LA 70805\n(30.535358, -91.19506)', '10000 AVENUE B ST\nBATON ROUGE, LA 70805\n(30.535472, -91.191383)', '10000 AVENUE C ST\nBATON ROUGE, LA 70807\n(30.535482, -91.192303)', '10000 AVENUE D AV\nBATON ROUGE, LA 70807\n(30.535349, -91.193222)', '10000 AVENUE D ST\nBATON ROUGE, LA 70808\n(30.535349, -91.193222)', '10000 AVENUE E ST\nBATON ROUGE, LA 70805', '10000 AVENUE E ST\nBATON ROUGE, LA 70807', '10000 AVENUE F ST\nBATON ROUGE, LA 70807\n(30.535358, -91.19506)', '10000 AVENUE G ST\nBATON ROUGE, LA 70807\n(30.535316, -91.196033)', '10000 AVENUE H ST\nBATON ROUGE, LA 70807\n(30.535615, -91.197011)', '10000 AVENUE H ST\nBATON ROUGE, LA 70810\n(30.535615, -91.197011)', '10000 AVENUE I ST\nBATON ROUGE, LA 708011\n(30.534986, -91.197924)', '10000 AVENUE I ST\nBATON ROUGE, LA 70805\n(30.534986, -91.197924)', '10000 AVENUE I ST\nBATON ROUGE, LA 70807\n(30.534986, -91.197924)', '10000 AVENUE J ST\nBATON ROUGE, LA 70807\n(30.535255, -91.198849)', '10000 AVENUE K ST\nBATON ROUGE, LA 70807\n(30.535057, -91.19976)', '10000 AVENUE L ST\nBATON ROUGE, LA 70807\n(30.535234, -91.200679)', '10000 AVENUE M ST\nBATON ROUGE, LA 70807\n(30.535107, -91.201606)', '10000 BETA DR\nBATON ROUGE, LA 70814\n(30.487828, -91.073251)', '10000 CASHEL AV\nBATON ROUGE, LA 70815', '10000 CELTIC DR\nBATON ROUGE, LA 70815\n(30.419092, -91.075909)', '10000 CHOCTAW DR\nBATON ROUGE, LA 70808\n(30.47201, -91.073987)', '10000 COURSEY BL\nBATON ROUGE, LA 70808\n(30.416481, -91.069766)', '10000 COURSEY BL\nBATON ROUGE, LA 70815\n(30.416481, -91.069766)', '10000 COURSEY BL\nBATON ROUGE, LA 70816\n(30.416481, -91.069766)', '10000 COURSEY BL\nBATON ROUGE, LA 70817', '10000 DAVID DR\nBATON ROUGE, LA 70815\n(30.460424, -91.07347)', '10000 DAWNADALE AV\nBATON ROUGE, LA 70814\n(30.420062, -91.072749)', '10000 DAWNADELE AV\nBATON ROUGE, LA 70809\n(30.419209, -91.072149)', '10000 DAWNADELE AV\nBATON ROUGE, LA 70809\n(30.420181783000032, -91.072933731999967)', '10000 DAWNADELE AV\nBATON ROUGE, LA 70815\n(30.420062, -91.072749)', '10000 DAWNADELE AV\nBATON ROUGE, LA 70816\n(30.420062, -91.072749)', '10000 E POMONA DR\nBATON ROUGE, LA\n(30.461372, -91.073709)', '10000 FLORIDA BL\nBATON ROUGE, LA 70802', '10000 FLORIDA BL\nBATON ROUGE, LA 70808', '10000 FLORIDA BL\nBATON ROUGE, LA 70815', '10000 FLORIDA BL\nBATON ROUGE, LA 70816', '10000 GOODWOOD BL\nBATON ROUGE, LA 70815\n(30.443634, -91.07693)', '10000 GWENADELE AV\nBATON ROUGE, LA 70815\n(30.4267, -91.076759)', '10000 MERGANZER ST\nBATON ROUGE, LA 70807\n(30.535618, -91.190103)', '10000 MOLLYLEA DR\nBATON ROUGE, LA 70815\n(30.452514, -91.075506)', '10000 N MAGNA CARTA AV\nBATON ROUGE, LA\n(30.43421, -91.075972)', '10000 OLD HAMMOND HW\nBATON ROUGE, LA 70815\n(30.431939, -91.076511)', '10000 OLD HAMMOND HW\nBATON ROUGE, LA 70816\n(30.431939, -91.076511)', '10000 RED OAK DR\nBATON ROUGE, LA 70817', '10000 S CHOCTAW DR\nBATON ROUGE, LA\n(30.47201, -91.073987)', '10000 SCENIC HW\nBATON ROUGE, LA 70805', '10000 SCENIC HW\nBATON ROUGE, LA 70807\n(30.539311, -91.190025)', '10000 SCOTLAND AV\nBATON ROUGE, LA 70802\n(30.534923, -91.178337)', '10000 SCOTLAND AV\nBATON ROUGE, LA 70805\n(30.534923, -91.178337)', '10000 SCOTLAND AV\nBATON ROUGE, LA 70807\n(30.534923, -91.178337)', '10000 SCOTLAND AV\nBATON ROUGE, LA 70808\n(30.534923, -91.178337)', '10000 TAMS DR\nBATON ROUGE, LA 70815\n(30.467281, -91.073334)', '10001 AIRLINE HW\nBATON ROUGE, LA 70813\n(30.420595, -91.072702)', '10001 AVENUE F ST\nBATON ROUGE, LA 70807\n(30.535431, -91.195064)', '10001 AVENUE F ST\nBATON ROUGE, LA 70811\n(30.535431, -91.195064)', '10001 FLORIDA BL\nBATON ROUGE, LA 70816', '10002 AVENUE I ST\nBATON ROUGE, LA 70802\n(30.53501, -91.197926)', '10002 AVENUE I ST\nBATON ROUGE, LA 70805\n(30.53501, -91.197926)', '10002 AVENUE I ST\nBATON ROUGE, LA 70807\n(30.53501, -91.197926)', '10002 BOOKERLINE AV\nBATON ROUGE, LA 70802\n(30.377358, -91.104592)', '10002 FLORIDA BL\nBATON ROUGE, LA 70815', '10002 GOODWOOD BL\nBATON ROUGE, LA 70815\n(30.443634, -91.076908)', '10003 AVENUE H ST\nBATON ROUGE, LA 70807\n(30.53567, -91.197012)', '10004 MAGNA CARTA PL\nBATON ROUGE, LA 70815\n(30.434233, -91.075936)', '10005 AVENUE E ST\nBATON ROUGE, LA 70807\n(30.535380005000036, -91.194192956999984)', '10005 AVENUE H ST\nBATON ROUGE, LA 70802\n(30.535682, -91.197012)', '10005 AVENUE H ST\nBATON ROUGE, LA 70807\n(30.535682, -91.197012)', '10006 AVENUE I ST\nBATON ROUGE, LA 70807\n(30.535057, -91.197928)', '10008 AVE L AV\nBATON ROUGE, LA 70807\n(30.535301, -91.200682)', '10008 AVE L ST\nBATON ROUGE, LA 70802\n(30.535301, -91.200682)', '10008 AVE L ST\nBATON ROUGE, LA 70807\n(30.535301, -91.200682)', '10008 AVENUE L AV\nBATON ROUGE, LA 70807\n(30.535301, -91.200682)', '10008 AVENUE L ST\nBATON ROUGE, LA 70805\n(30.535301, -91.200682)', '10008 AVENUE L ST\nBATON ROUGE, LA 70807\n(30.535282061000032, -91.200668779999944)', '10008 AVENUE L ST\nBATON ROUGE, LA 70807\n(30.535301, -91.200682)', '10008 AVENUE L ST\nBATON ROUGE, LA 70812\n(30.535301, -91.200682)', '10008 AVENUE L ST\nBATON ROUGE, LA 70816\n(30.535301, -91.200682)', '10008 AVENUE M ST\nBATON ROUGE, LA 70807\n(30.535185, -91.201608)', '10008 L AV\nBATON ROUGE, LA 70807', '10009 AVE H ST\nBATON ROUGE, LA 70814\n(30.535706, -91.197013)', '1001 ASTER ST\nBATON ROUGE, LA 70802\n(30.419537, -91.188824)', '1001 ASTER ST\nBATON ROUGE, LA 70805\n(30.419522, -91.188438)', '1001 ASTER ST\nBATON ROUGE, LA 70806\n(30.419522, -91.188438)', '1001 ASTER ST\nBATON ROUGE, LA 70820\n(30.419522, -91.188438)', '1001 CAMELIA AV\nBATON ROUGE, LA 70802\n(30.439452, -91.166666)', '1001 CAMELIA AV\nBATON ROUGE, LA 70808\n(30.439452, -91.166666)', '1001 CAMELLIA AV\nBATON ROUGE, LA 70802', '1001 CAMELLIA ST\nBATON ROUGE, LA 70806', '1001 CONVENTION ST\nBATON ROUGE, LA 70802\n(30.4485, -91.179562)', '1001 CONVENTION ST\nBATON ROUGE, LA 70805\n(30.4485, -91.179562)', '1001 N 22ND ST\nBATON ROUGE, LA\n(30.457641, -91.166183)', '1001 N 23RD ST\nBATON ROUGE, LA\n(30.458309, -91.164912)', '1001 N 31ST ST\nBATON ROUGE, LA\n(30.458076, -91.157383)', '1001 N.23RD ST\nBATON ROUGE, LA 70802\n(30.458309, -91.164912)', '1001 NORTH BL\nBATON ROUGE, LA 70802\n(30.45271, -91.180189)', '1001 NORTH BL\nBATON ROUGE, LA 70805\n(30.45271, -91.180189)', '1001 NORTH BL\nBATON ROUGE, LA 70808\n(30.45271, -91.180189)', '1001 PARK BL\nBATON ROUGE, LA 70802', '1001 PROGRESS ST\nBATON ROUGE, LA 70805\n(30.457495, -91.158133)', '1001 SCENIC HW\nBATON ROUGE, LA 70802\n(30.45735, -91.167433)', '10010 AVENUE F ST\nBATON ROUGE, LA 70807\n(30.535447, -91.195065)', '10010 COURSEY BL\nBATON ROUGE, LA 70808\n(30.416492, -91.069746)', '10010 DAVID DR\nBATON ROUGE, LA 70815\n(30.460422, -91.073202)', '10012 AVE H AV\nBATON ROUGE, LA 70807\n(30.535682, -91.197012)', '10012 EL CAMINO AV\nBATON ROUGE, LA 70815\n(30.463331, -91.073632)', '10013 MAMMOTH AV\nBATON ROUGE, LA 70814\n(30.475363, -91.07586)', '10019 S PERDUE AV\nBATON ROUGE, LA\n(30.473297, -91.072529)', '1002 BROMLEY DR\nBATON ROUGE, LA 70809\n(30.385393, -91.128181)', '1002 JULIA ST\nBATON ROUGE, LA 70802\n(30.437307, -91.178687)', '1002 N 31ST ST\nBATON ROUGE, LA\n(30.458003, -91.15738)', '1002 PARKER ST\nBATON ROUGE, LA 70802\n(30.438625, -91.154988)', '1002 S 16TH ST\nBATON ROUGE, LA\n(30.438886, -91.171963)', '1002 TIMBERSIDE DR\nBATON ROUGE, LA 70806\n(30.45908, -91.12975)', '10020 AVE E ST\nBATON ROUGE, LA 70807', '10020 AVE H ST\nBATON ROUGE, LA 70807\n(30.535727, -91.197013)', '10020 AVENUE H ST\nBATON ROUGE, LA 70807\n(30.535727, -91.197013)', '10020 FLORIDA BL\nBATON ROUGE, LA 70815', '10020 FLORIDA BL\nBATON ROUGE, LA 70816', '10020 GAMMA DR\nBATON ROUGE, LA 70814\n(30.486808, -91.073229)', '10020 GAMMA DR\nBATON ROUGE, LA 70815\n(30.486898, -91.072902)', '10020 GAMMA DR\nBATON ROUGE, LA 70816\n(30.486898, -91.072902)', '10020 MAMMOTH AV\nBATON ROUGE, LA 70815\n(30.475657, -91.075326)', '10021 CUYHANGA ST\nBAT</t>
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>853240</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>78</v>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>['(Null)', '10', '100', '1A1', '1A2', '1A3', '1A4', '1B1', '1B2', '1B3', '1B4', '1C1', '1C2', '1C3', '1D1', '1D2', '1D3', '1F1', '1F2', '20', '200', '2000', '20000', '200000', '2A1', '2A2', '2A3', '2A4', '2B1', '2B2', '2B3', '2B4', '2B5', '2C1', '2C2', '2C3', '2D1', '2D2', '2D3', '2F1', '2F2', '30', '300', '3000', '30000', '300000', '3A1', '3A2', '3A3', '3B1', '3B2', '3C1', '3C2', '3C3', '3D1', '3D2', '3D3', '3F1', '3F2', '3F3', '3G1', '3G2', '3G3', '40', '400', '4A1', '4A2', '4B1', '4B2', '4B3', '4C1', '4C2', '4D1', '4D2', '4D3', '4F1', '4F2', 'OTH']</t>
         </is>
       </c>
     </row>
@@ -2085,10 +2247,10 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>21111</v>
+        <v>267773</v>
       </c>
       <c r="E21" t="n">
-        <v>21111</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2103,19 +2265,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K21" t="n">
         <v>-1</v>
       </c>
       <c r="L21" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="M21" t="n">
-        <v>33</v>
+        <v>90</v>
       </c>
       <c r="N21" t="n">
-        <v>90</v>
+        <v>1662</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -2133,26 +2295,494 @@
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>3700 E BROOKSTOWN DR
-BATON ROUGE, LA 70805
-(30.484289, -91.128064)</t>
+          <t>2507 JACKSON AV
+BATON ROUGE, LA
+(30.465933, -91.163552)</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>175</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0.504</v>
+        <v>1</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>(Null)</t>
+        </is>
       </c>
       <c r="V21" t="n">
-        <v>1249013</v>
+        <v>1662</v>
       </c>
       <c r="W21" t="n">
-        <v>8899</v>
-      </c>
-      <c r="X21" t="inlineStr">
-        <is>
-          <t>['100 E BOYD AV\nBATON ROUGE, LA 70806\n(30.403577, -91.172286)', '100 E BOYD AV\nBATON ROUGE, LA 70808\n(30.403577, -91.172286)', '100 E BOYD AV\nBATON ROUGE, LA 70820\n(30.403577, -91.172286)', '100 E BOYD DR\nBATON ROUGE, LA 70802\n(30.403577, -91.172286)', '100 E BOYD DR\nBATON ROUGE, LA 70805\n(30.403577, -91.172286)', '100 E BOYD DR\nBATON ROUGE, LA 70808\n(30.403577, -91.172286)', '100 E BOYD DR\nBATON ROUGE, LA 70820\n(30.403577, -91.172286)', '100 E BOYD HW\nBATON ROUGE, LA 70808\n(30.403577, -91.172286)', '100 E BOYD ST\nBATON ROUGE, LA 70802\n(30.403577, -91.172286)', '100 E BOYD ST\nBATON ROUGE, LA 70808\n(30.403577, -91.172286)', '100 E BOYD ST\nBATON ROUGE, LA 70820\n(30.403577, -91.172286)', '100 E BUCHANAN ST\nBATON ROUGE, LA 70802\n(30.424951, -91.179661)', '100 E BUCHANAN ST\nBATON ROUGE, LA 70805\n(30.424951, -91.179661)', '100 E BUCHANAN ST\nBATON ROUGE, LA 70808\n(30.424951, -91.179661)', '100 E CHIMES ST\nBATON ROUGE, LA 70802\n(30.417243, -91.176423)', '100 E CHIMES ST\nBATON ROUGE, LA 70820\n(30.417243, -91.176423)', '100 E FRATERNITY LN\nBATON ROUGE, LA 70802', '100 E GARFIELD ST\nBATON ROUGE, LA 70802\n(30.422449, -91.178505)', '100 E GRANT DR\nBATON ROUGE, LA 70802\n(30.42311, -91.17881)', '100 E GRANT ST\nBATON ROUGE, LA 70802\n(30.42311, -91.17881)', '100 E HARDING ST\nBATON ROUGE, LA 70802\n(30.425906, -91.180094)', '100 E HARRISON ST\nBATON ROUGE, LA 70802\n(30.42891, -91.181483)', '100 E I-10 HW\nBATON ROUGE, LA 70802', '100 E I-12 HW\nBATON ROUGE, LA 70816', '100 E I10 HW\nBATON ROUGE, LA 70802', '100 E I10 ST\nBATON ROUGE, LA 70808', '100 E MCKINLEY ST\nBATON ROUGE, LA 70808\n(30.423786, -91.178895)', '100 E MCKINLEY ST\nBATON ROUGE, LA 70820\n(30.423786, -91.178895)', '100 E POLK ST\nBATON ROUGE, LA 70802\n(30.426906, -91.180554)', '100 E POLK ST\nBATON ROUGE, LA 70814\n(30.426906, -91.180554)', '100 E RIVER OAKS DR\nBATON ROUGE, LA 70816\n(30.453918, -91.087749)', '100 E ROOSEVELT RD\nBATON ROUGE, LA 70820\n(30.421799, -91.178198)', '100 E ROOSEVELT ST\nBATON ROUGE, LA 70802\n(30.421799, -91.178198)', '100 E ROOSEVELT ST\nBATON ROUGE, LA 70806\n(30.421799, -91.178198)', '100 E ROOSEVELT ST\nBATON ROUGE, LA 70820\n(30.421799, -91.178198)', '100 E STATE ST\nBATON ROUGE, LA 70802\n(30.418207, -91.176576)', '100 E STATE ST\nBATON ROUGE, LA 70805\n(30.418207, -91.176576)', '100 E STATE ST\nBATON ROUGE, LA 70808\n(30.418207, -91.176576)', '100 E STATE ST\nBATON ROUGE, LA 70820\n(30.418207, -91.176576)', '100 E WASHINGTON ST\nBATON ROUGE, LA 70802\n(30.430951, -91.182693)', '100 E WASHINGTON ST\nBATON ROUGE, LA 70805\n(30.430951, -91.182693)', '100 E WASHINGTON ST\nBATON ROUGE, LA 70806\n(30.430951, -91.182693)', '100 N 10TH ST\nBATON ROUGE, LA 70802\n(30.447454, -91.179693)', '100 N 10TH ST\nBATON ROUGE, LA 70805\n(30.447454, -91.179693)', '100 N 11TH ST\nBATON ROUGE, LA 70805\n(30.447461, -91.178582)', '100 N 12TH ST\nBATON ROUGE, LA 70802\n(30.447488, -91.177411)', '100 N 12TH ST\nBATON ROUGE, LA 70805\n(30.447488, -91.177411)', '100 N 13TH ST\nBATON ROUGE, LA 700802\n(30.447539, -91.176222)', '100 N 13TH ST\nBATON ROUGE, LA 70802\n(30.447539, -91.176222)', '100 N 13TH ST\nBATON ROUGE, LA 70805\n(30.447539, -91.176222)', '100 N 13TH ST\nBATON ROUGE, LA 70808\n(30.447539, -91.176222)', '100 N 14TH ST\nBATON ROUGE, LA 70802\n(30.447727, -91.175034)', '100 N 14TH ST\nBATON ROUGE, LA 70808\n(30.447585, -91.175028)', '100 N 15TH ST\nBATON ROUGE, LA 70802', '100 N 17TH ST\nBATON ROUGE, LA 70802\n(30.448073, -91.171473)', '100 N 17TH ST\nBATON ROUGE, LA 70808\n(30.448073, -91.171473)', '100 N 18TH ST\nBATON ROUGE, LA 70802\n(30.447868, -91.170289)', '100 N 19TH ST\nBATON ROUGE, LA 70802\n(30.447616, -91.169199)', '100 N 19TH ST\nBATON ROUGE, LA 70806\n(30.447616, -91.169199)', '100 N 21ST CT\nBATON ROUGE, LA 70820\n(30.447847, -91.166711)', '100 N 21ST ST\nBATON ROUGE, LA 70802\n(30.447847, -91.166711)', '100 N 21ST ST\nBATON ROUGE, LA 70808\n(30.447847, -91.166711)', '100 N 22ND ST\nBATON ROUGE, LA 70802\n(30.44787, -91.165892)', '100 N 22ND ST\nBATON ROUGE, LA 70805\n(30.44787, -91.165892)', '100 N 22ND ST\nBATON ROUGE, LA 70808\n(30.44787, -91.165892)', '100 N 23 RD ST\nBATON ROUGE, LA 70805', '100 N 25TH ST\nBATON ROUGE, LA 70802\n(30.447979, -91.162635)', '100 N 25TH ST\nBATON ROUGE, LA 70808\n(30.447979, -91.162635)', '100 N 26TH ST\nBATON ROUGE, LA 70802\n(30.447997, -91.161936)', '100 N 26TH ST\nBATON ROUGE, LA 70806\n(30.447997, -91.161936)', '100 N 26TH ST\nBATON ROUGE, LA 70808\n(30.447997, -91.161936)', '100 N 27TH ST\nBATON ROUGE, LA 70808', '100 N 3RD ST\nBATON ROUGE, LA 70802\n(30.447266, -91.188164)', '100 N 4TH ST\nBATON ROUGE, LA 70802\n(30.447199, -91.186916)', '100 N 5TH ST\nBATON ROUGE, LA 70802\n(30.447253, -91.185465)', '100 N 6TH ST\nBATON ROUGE, LA 70802\n(30.447276, -91.184665)', '100 N 6TH ST\nBATON ROUGE, LA 70806\n(30.447276, -91.184665)', '100 N 8 ST\nBATON ROUGE, LA 70802\n(30.447335, -91.182694)', '100 N 9TH ST\nBATON ROUGE, LA 70802\n(30.447375, -91.181512)', '100 N 9TH ST\nBATON ROUGE, LA 70812\n(30.447375, -91.181512)', '100 N ACADIAN ST\nBATON ROUGE, LA 70802\n(30.448489, -91.154603)', '100 N ACADIAN TH\nBATON ROUGE, LA 70802', '100 N ARDENWOD DR\nBATON ROUGE, LA 70806\n(30.451664, -91.127403)', '100 N ARDENWOOD DR\nBATON ROUGE, LA 70802\n(30.451664, -91.127403)', '100 N ARDENWOOD DR\nBATON ROUGE, LA 70805\n(30.451664, -91.127403)', '100 N ARDENWOOD DR\nBATON ROUGE, LA 70806\n(30.451664, -91.127403)', '100 N BAXTER ST\nBATON ROUGE, LA 70802\n(30.447896, -91.164911)', '100 N BAXTER ST\nBATON ROUGE, LA 70805\n(30.447896, -91.164911)', '100 N DONMOOR AV\nBATON ROUGE, LA 70802\n(30.451573, -91.11841)', '100 N DONMOOR AV\nBATON ROUGE, LA 70805\n(30.451573, -91.11841)', '100 N DONMOOR AV\nBATON ROUGE, LA 70806\n(30.451573, -91.11841)', '100 N DONMOOR DR\nBATON ROUGE, LA 70806\n(30.451573, -91.11841)', '100 N EUGENE ST\nBATON ROUGE, LA 70802\n(30.448041, -91.160442)', '100 N FOSTER DR\nBATON ROUGE, LA 70802\n(30.448699, -91.138913)', '100 N FOSTER DR\nBATON ROUGE, LA 70805\n(30.448699, -91.138913)', '100 N FOSTER DR\nBATON ROUGE, LA 70806\n(30.448699, -91.138913)', '100 N LAFAYETTE ST\nBATON ROUGE, LA 70801\n(30.447098, -91.189332)', '100 N LOBDELL AV\nBATON ROUGE, LA 70806\n(30.451759, -91.112069)', '100 N LOBDELL BL\nBATON ROUGE, LA 70805', '100 N LOBDELL BL\nBATON ROUGE, LA 70806\n(30.451759, -91.112069)', '100 N RIVER RD\nBATON ROUGE, LA 70802\n(30.447053, -91.190145)', '100 N STADIUM RD\nBATON ROUGE, LA 70810\n(30.415671, -91.182361)', '100 S 10TH ST\nBATON ROUGE, LA 70802\n(30.447285, -91.179598)', '100 S 11TH ST\nBATON ROUGE, LA 70802\n(30.447191, -91.178186)', '100 S 12TH ST\nBATON ROUGE, LA 70802\n(30.447231, -91.177142)', '100 S 13TH ST RD\nBATON ROUGE, LA 70802', '100 S 15TH ST\nBATON ROUGE, LA 70802\n(30.447615, -91.173536)', '100 S 15TH ST\nBATON ROUGE, LA 70806\n(30.447615, -91.173536)', '100 S 16TH ST\nBATON ROUGE, LA 70802\n(30.447633, -91.172878)', '100 S 16TH ST\nBATON ROUGE, LA 70807\n(30.447633, -91.172878)', '100 S 16TH ST\nBATON ROUGE, LA 70808\n(30.447633, -91.172878)', '100 S 18TH ST\nBATON ROUGE, LA 70802\n(30.447868, -91.170289)', '100 S 18TH ST\nBATON ROUGE, LA 70808\n(30.447868, -91.170289)', '100 S 21ST ST\nBATON ROUGE, LA 70802\n(30.447838, -91.166981)', '100 S 22ND ST\nBATON ROUGE, LA 70802\n(30.44787, -91.165892)', '100 S ACADIAN TH\nBATON ROUGE, LA 70802', '100 S ACADIAN TH\nBATON ROUGE, LA 70805', '100 S ACADIAN TH\nBATON ROUGE, LA 70808', '100 S ACADIAN TH\nBATON ROUGE, LA 70810', '100 S DONMOORE AV\nBATON ROUGE, LA 70802\n(30.450534, -91.118338)', '100 S FAIRFAX DR\nBATON ROUGE, LA 70808\n(30.450786, -91.133045)', '100 S FLANNERY DR\nBATON ROUGE, LA 70802\n(30.462254, -91.0352)', '100 S FLANNERY RD\nBATON ROUGE, LA 70815\n(30.462254, -91.0352)', '100 S FLANNERY RD\nBATON ROUGE, LA 70816\n(30.462254, -91.0352)', '100 S FOSTER DR\nBATON ROUGE, LA 70806\n(30.448699, -91.138913)', '100 S FOSTER DR\nBATON ROUGE, LA 70808\n(30.448699, -91.138913)', '100 S I-110 HW\nBATON ROUGE, LA 70802', '100 S I110 HW\nBATON ROUGE, LA 70802', '100 S RIVER RD\nBATON ROUGE, LA 70801\n(30.447053, -91.190145)', '100 S RIVER RD\nBATON ROUGE, LA 70802\n(30.44573, -91.1901)', '100 S RIVER RD\nBATON ROUGE, LA 70805\n(30.447053, -91.190145)', '100 S RIVER RD\nBATON ROUGE, LA 70808\n(30.447053, -91.190145)', '100 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70815', '100 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '100 S STADIUM DR\nBATON ROUGE, LA 70802', '100 S STADIUM RD\nBATON ROUGE, LA 70802\n(30.415671, -91.182361)', '100 S TOWER DR\nBATON ROUGE, LA 70820', '100 S WOODDALE AV\nBATON ROUGE, LA 70806\n(30.451912, -91.104154)', '100 S WOODDALE BL\nBATON ROUGE, LA 70815\n(30.451912, -91.104154)', '100 W BUCHANAN ST\nBATON ROUGE, LA 70802\n(30.425571, -91.17994)', '100 W CHIMES ST\nBATON ROUGE, LA 70802\n(30.417243, -91.176423)', '100 W GARFIELD ST\nBATON ROUGE, LA 70802\n(30.422449, -91.178505)', '100 W HARDING BL\nBATON ROUGE, LA 70802\n(30.426128, -91.180196)', '100 W HARDING ST\nBATON ROUGE, LA 70802\n(30.426128, -91.180196)', '100 W HARRISON ST\nBATON ROUGE, LA 70802\n(30.429202, -91.181618)', '100 W I-10 AV\nBATON ROUGE, LA 70809', '100 W I12 HW\nBATON ROUGE, LA 70808', '100 W I12 HW\nBATON ROUGE, LA 70809', '100 W INTERSTATE 12 HW\nBATON ROUGE, LA 70802', '100 W JOHNSON ST\nBATON ROUGE, LA 70802\n(30.424472, -91.179439)', '100 W LAKESHORE DR\nBATON ROUGE, LA 70808', '100 W LEE DR\nBATON ROUGE, LA 70802\n(30.393883, -91.159789)', '100 W LEE DR\nBATON ROUGE, LA 70808\n(30.393883, -91.159789)', '100 W LEE ST\nBATON ROUGE, LA 70802\n(30.393883, -91.159789)', '100 W MCKINLEY ST\nBATON ROUGE, LA 70802\n(30.423791, -91.179136)', '100 W MCKINLEY ST\nBATON ROUGE, LA 70808\n(30.423791, -91.179136)', '100 W PARKER BL\nBATON ROUGE, LA 70802\n(30.40454, -91.17369)', '100 W PARKER RD\nBATON ROUGE, LA 70820\n(30.40454, -91.17369)', '100 W POLK ST\nBATON ROUGE, LA 70802\n(30.427399, -91.180777)', '100 W POLK ST\nBATON ROUGE, LA 70806\n(30.427399, -91.180777)', '100 W POLK ST\nBATON ROUGE, LA 70808\n(30.427399, -91.180777)', '100 W ROOSEVELT ST\nBATON ROUGE, LA 70802\n(30.421799, -91.178198)', '100 W ROOSEVELT ST\nBATON ROUGE, LA 70808\n(30.421799, -91.178198)', '100 W ROOSEVELT ST\nBATON ROUGE, LA 70810\n(30.421799, -91.178198)', '100 W STATE ST\nBATON ROUGE, LA 70802\n(30.418207, -91.176576)', '100 W WASHINGTON ST\nBATON ROUGE, LA 70802\n(30.430951, -91.182693)', '1000 E BUCHANAN ST\nBATON ROUGE, LA 70802\n(30.425107, -91.173694)', '1000 E HARRISON ST\nBATON ROUGE, LA 70802\n(30.429173, -91.174574)', '1000 E I10 HW\nBATON ROUGE, LA 70808', '1000 E JOHNSON ST\nBATON ROUGE, LA 70802\n(30.424449, -91.173626)', '1000 E POLK ST\nBATON ROUGE, LA 70802\n(30.427116, -91.173751)', '1000 E POLK ST\nBATON ROUGE, LA 70808\n(30.427116, -91.173751)', '1000 E WASHINGTON ST\nBATON ROUGE, LA 70806\n(30.431143, -91.175428)', '1000 N 19TH ST\nBATON ROUGE, LA 70802\n(30.457401, -91.169688)', '1000 N 19TH ST\nBATON ROUGE, LA 70805\n(30.457401, -91.169688)', '1000 N 222ND ST\nBATON ROUGE, LA 70802', '1000 N 22ND ST\nBATON ROUGE, LA 70802\n(30.457391, -91.166167)', '1000 N 22ND ST\nBATON ROUGE, LA 70805\n(30.457391, -91.166167)', '1000 N 23 ST\nBATON ROUGE, LA 70806\n(30.458309, -91.164912)', '1000 N 23RD ST\nBATON ROUGE, LA 70802\n(30.459306, -91.164953)', '1000 N 23RD ST\nBATON ROUGE, LA 70805\n(30.458309, -91.164912)', '1000 N 23RD ST\nBATON ROUGE, LA 70806\n(30.458309, -91.164912)', '1000 N 25TH ST\nBATON ROUGE, LA 70802', '1000 N 28 ST\nBATON ROUGE, LA 70802\n(30.457814, -91.160563)', '1000 N 29TH ST\nBATON ROUGE, LA 70802\n(30.457735, -91.159625)', '1000 N 29TH ST\nBATON ROUGE, LA 70806\n(30.457735, -91.159625)', '1000 N 30TH ST\nBATON ROUGE, LA 70802\n(30.457538, -91.15876)', '1000 N 30TH ST\nBATON ROUGE, LA 70805\n(30.457538, -91.15876)', '1000 N 32ND ST\nBATON ROUGE, LA 70802\n(30.457582, -91.156722)', '1000 N 32ND ST\nBATON ROUGE, LA 70805\n(30.457582, -91.156722)', '1000 N 35TH ST\nBATON ROUGE, LA 70802\n(30.45729, -91.154329)', '1000 N 36TH ST\nBATON ROUGE, LA 70817\n(30.457348, -91.153498)', '1000 N 37TH ST\nBATON ROUGE, LA 70802\n(30.457379, -91.152732)', '1000 N 37TH ST\nBATON ROUGE, LA 70805\n(30.457379, -91.152732)', '1000 N 38TH ST\nBATON ROUGE, LA 70805\n(30.457367, -91.151964)', '1000 N 39TH ST\nBATON ROUGE, LA 70805\n(30.457392, -91.151164)', '1000 N 40TH ST\nBATON ROUGE, LA 70802\n(30.457414, -91.150376)', '1000 N 40TH ST\nBATON ROUGE, LA 70805\n(30.457414, -91.150376)', '1000 N 44TH ST\nBATON ROUGE, LA 70802\n(30.457242, -91.145013)', '1000 N 44TH ST\nBATON ROUGE, LA 70805\n(30.457242, -91.145013)', '1000 N 46TH ST\nBATON ROUGE, LA 70802\n(30.457245, -91.143378)', '1000 N 48TH ST\nBATON ROUGE, LA 70802\n(30.457514, -91.141865)', '1000 N 48TH ST\nBATON ROUGE, LA 70805\n(30.457514, -91.141865)', '1000 N DONMOOR AV\nBATON ROUGE, LA 70806\n(30.458813, -91.118645)', '1000 N DONMOOR BL\nBATON ROUGE, LA 70806\n(30.458813, -91.118645)', '1000 N DONMOOR DR\nBATON ROUGE, LA 70806\n(30.458813, -91.118645)', '1000 N FOSTER DR\nBATON ROUGE, LA 70802\n(30.457703, -91.139335)', '1000 N FOSTER DR\nBATON ROUGE, LA 70806\n(30.457703, -91.139335)', '1000 N I-110 HW\nBATON ROUGE, LA 70802', '1000 N I-110 OT\nBATON ROUGE, LA 70806', '1000 N I110 OT\nBATON ROUGE, LA 70805', '1000 N LITTLE JOHN DR\nBATON ROUGE, LA 70815\n(30.460643, -91.051271)', '1000 N SABINE DR\nBATON ROUGE, LA 70809\n(30.378353, -91.106363)', '1000 S 15TH ST\nBATON ROUGE, LA 70802\n(30.438695, -91.173219)', '1000 S 15TH ST\nBATON ROUGE, LA 70816\n(30.438695, -91.173219)', '1000 S 16TH ST\nBATON ROUGE, LA 70802\n(30.439147, -91.171973)', '1000 S FOSTER DR\nBATON ROUGE, LA 70808\n(30.440024, -91.13564)', '1000 S FOSTER ST\nBATON ROUGE, LA 70805', '1000 S I-110 OT\nBATON ROUGE, LA 70805', '1000 S RIVER RD\nBATON ROUGE, LA 70801\n(30.437203, -91.190266)', '1000 S RIVER RD\nBATON ROUGE, LA 70802\n(30.437203, -91.190266)', '1000 S RIVER RD\nBATON ROUGE, LA 70810\n(30.437203, -91.190266)', '1000 S RIVER RD\nBATON ROUGE, LA 80802\n(30.437203, -91.190266)', '1000 W GARFIELD ST\nBATON ROUGE, LA 70802\n(30.42221, -91.189422)', '1000 W GARFIELD ST\nBATON ROUGE, LA 70815\n(30.42221, -91.189422)', '1000 W I-10 HW\nBATON ROUGE, LA 70808', '1000 W I-10 OT\nBATON ROUGE, LA 70802', '1000 W I-10 OT\nBATON ROUGE, LA 70808', '1000 W MOUNT PLEASANT RD\nBATON ROUGE, LA 70791', '1000 W ROOSEVELT ST\nBATON ROUGE, LA 70802\n(30.421555, -91.189353)', '1000 W ROOSEVELT ST\nBATON ROUGE, LA 70805\n(30.421555, -91.189353)', '10000 E POMONA DR\nBATON ROUGE, LA 70815\n(30.461372, -91.073709)', '10000 N MAGNA CARTA AV\nBATON ROUGE, LA 70816\n(30.43421, -91.075972)', '10000 S CHOCTAW DR\nBATON ROUGE, LA 70815\n(30.47201, -91.073987)', '10000 S PERDUE DR\nBATON ROUGE, LA 70815', '1001 N 23 ST\nBATON ROUGE, LA 70806\n(30.458309, -91.164912)', '1001 N 23RD ST\nBATON ROUGE, LA 70802\n(30.458309, -91.164912)', '1001 N 23RD ST\nBATON ROUGE, LA 70802\n(30.458468650000043, -91.164961870999946)', '1001 N 23RD ST\nBATON ROUGE, LA 70805\n(30.458309, -91.164912)', '1001 N 29TH ST\nBATON ROUGE, LA 70802\n(30.45778, -91.159628)', '1001 N 31ST ST\nBATON ROUGE, LA 70802\n(30.458076, -91.157383)', '1001 N 31ST ST\nBATON ROUGE, LA 70805\n(30.457962, -91.157379)', '10010 N MAGNA CARTA PL\nBATON ROUGE, LA 70815\n(30.43431, -91.075453)', '10012 N MAGNA CARTA BL\nBATON ROUGE, LA 70815\n(30.434246, -91.075852)', '10019 S PERDUE AV\nBATON ROUGE, LA 70806\n(30.473292, -91.072683)', '10019 S PERDUE AV\nBATON ROUGE, LA 70814\n(30.473297, -91.072529)', '1002 N 31ST ST\nBATON ROUGE, LA 70802\n(30.458003, -91.15738)', '1002 N 31ST ST\nBATON ROUGE, LA 70805\n(30.458003, -91.15738)', '10021 W TAMS DR\nBATON ROUGE, LA 70815\n(30.467299, -91.073124)', '10022 E TAMPA DR\nBATON ROUGE, LA 70815\n(30.465321, -91.073248)', '10022 E TAMPA DR\nBATON ROUGE, LA 70816\n(30.465321, -91.073264)', '10024 N PARKVIEW DR\nBATON ROUGE, LA 70815\n(30.446949, -91.076444)', '10027 E POMONA DR\nBATON ROUGE, LA 70815\n(30.461368, -91.0731)', '10027 W DARRYL PK\nBATON ROUGE, LA 70815\n(30.470724, -91.073304)', '10030 E POMONA DR\nBATON ROUGE, LA 70814\n(30.461369, -91.073179)', '1004 N 30TH ST\nBATON ROUGE, LA 70802\n(30.45771, -91.158769)', '1004 N 30TH ST\nBATON ROUGE, LA 70805\n(30.457691, -91.158769)', '1004 N 35TH ST\nBATON ROUGE, LA 70802\n(30.457344, -91.15433)', '1004 N 47TH ST\nBATON ROUGE, LA 70806\n(30.457571, -91.142632)', '10040 S CHOCTAW DR\nBATON ROUGE, LA 70815\n(30.472022, -91.073515)', '10040 S CHOCTAW DR\nBATON ROUGE, LA 70816\n(30.472022, -91.073515)', '10043 E CORONADO DR\nBATON ROUGE, LA 70815\n(30.466287, -91.072885)', '10044 W TAMS DR\nBATON ROUGE, LA 70815\n(30.467324, -91.072827)', '10046 E POMONA DR\nBATON ROUGE, LA 70815\n(30.461361, -91.072626)', '10049 S PERDUE AV\nBATON ROUGE, LA 70814\n(30.473304, -91.072299)', '10049 S PERDUE AV\nBATON ROUGE, LA 70815\n(30.473304, -91.072299)', '1005 E POLK ST\nBATON ROUGE, LA 70808\n(30.427116, -91.173751)', '1005 N 30TH ST\nBATON ROUGE, LA 70802\n(30.458178, -91.158793)', '1005 N 32ND ST\nBATON ROUGE, LA 70802\n(30.457731, -91.156727)', '1005 N 39TH ST\nBATON ROUGE, LA 70802\n(30.457426, -91.151166)', '1005 N 39TH ST\nBATON ROUGE, LA 70805\n(30.457421, -91.151166)', '10058 S CHOCTAW DR\nBATON ROUGE, LA 70805\n(30.472028, -91.073303)', '10058 S CHOCTAW DR\nBATON ROUGE, LA 70812\n(30.472028, -91.073303)', '10058 S CHOCTAW DR\nBATON ROUGE, LA 70815\n(30.47203, -91.073203)', '10058 S CHOCTAW DR\nBATON ROUGE, LA 70816\n(30.472028, -91.073303)', '1006 N 46TH ST\nBATON ROUGE, LA 70802\n(30.457277, -91.14338)', '1006 N 46TH ST\nBATON ROUGE, LA 70805\n(30.4573, -91.143381)', '1006 S 16TH ST\nBATON ROUGE, LA 70802\n(30.438767, -91.171959)', '1006 S 16TH ST\nBATON ROUGE, LA 70807\n(30.439118, -91.171972)', '10066 E CORONADO DR\nBATON ROUGE, LA 70815\n(30.466311, -91.072569)', '10066 E CORONADO DR\nBATON ROUGE, LA 70816\n(30.46631, -91.072583)', '10066 S CHOCTAW DR\nBATON ROUGE, LA 70812\n(30.47203, -91.073208)', '10066 S CHOCTAW DR\nBATON ROUGE, LA 70814\n(30.47203, -91.073208)', '10066 W TAMS DR\nBATON ROUGE, LA 70815\n(30.467351, -91.072518)', '10067 W TAMS DR\nBATON ROUGE, LA 70815\n(30.467349, -91.072537)', '1007 E JOHNSON ST\nBATON ROUGE, LA 70802\n(30.424452, -91.173557)', '1007 E JOHNSON ST\nBATON ROUGE, LA 70812\n(30.42445, -91.173589)', '1007 N 32ND ST\nBATON ROUGE, LA 70802\n(30.457777, -91.156729)', '1007 N 32ND ST\nBATON ROUGE, LA 70805\n(30.457806, -91.15673)', '1007 N 47TH ST\nBATON ROUGE, LA 70802\n(30.457523, -91.14263)', '10074 S CHOCTAW HW\nBATON ROUGE, LA 70815\n(30.472033, -91.073114)', '10078 S CHOCTAW DR\nBATON ROUGE, LA 70815\n(30.472034, -91.073067)', '10083 W DARRYL PK\nBATON ROUGE, LA 70816\n(30.470737, -91.072796)', '1009 N 32ND ST\nBATON ROUGE, LA 70802\n(30.457777, -91.156729)', '101 S FOSTER DR\nBATON ROUGE, LA 70806\n(30.448699, -91.138913)', '101 W STATE ST\nBATON ROUGE, LA 70802\n(30.41812, -91.17694)', '101 W STATE ST\nBATON ROUGE, LA 70803\n(30.418207, -91.176576)', '1010 S ACADIAN TH\nBATON ROUGE, LA 70802', '1010 S ACADIAN TH\nBATON ROUGE, LA 70808', '10100 N HARVEY DR\nBATON ROUGE, LA 70815\n(30.459947, -91.072057)', '10100 S CHOCTAW DR\nBATON ROUGE, LA 70815\n(30.472041, -91.072807)', '1011 N 32ND ST\nBATON ROUGE, LA 70802\n(30.45788, -91.156732)', '1011 N 32ND ST\nBATON ROUGE, LA 70805\n(30.45788, -91.156732)', '1011 N BON MARCHE DR\nBATON ROUGE, LA 70806\n(30.459819, -91.115529)', '1011 W ROOSEVELT ST\nBATON ROUGE, LA 70802\n(30.421537, -91.190072)', '10116 N MAGNA CARTA PL\nBATON ROUGE, LA 70809\n(30.434297, -91.074753)', '1012 N 48TH ST\nBATON ROUGE, LA 0870802\n(30.457639, -91.141871)', '1012 N 48TH ST\nBATON ROUGE, LA 70805\n(30.457639, -91.141871)', '1012 N 48TH ST\nBATON ROUGE, LA 70806\n(30.457639, -91.141871)', '1012 S ACADIAN TH\nBATON ROUGE, LA 70802', '1012 S ACADIAN TH\nBATON ROUGE, LA 70806', '10122 N MAGNA CARTA PL\nBATON ROUGE, LA 70815\n(30.434132, -91.074155)', '1013 N 44TH ST\nBATON ROUGE, LA 70802\n(30.457452, -91.145023)', '1013 N 44TH ST\nBATON ROUGE, LA 70805\n(30.457408, -91.145021)', '10135 S RIVER OAKS DR\nBATON ROUGE, LA 70815\n(30.450379, -91.076103)', '10148 N HARVEY DR\nBATON ROUGE, LA 70815\n(30.459949, -91.071569)', '1015 E POLK ST\nBATON ROUGE, LA 70802\n(30.427129, -91.173398)', '1015 W LEE DR\nBATON ROUGE, LA 70808\n(30.389379, -91.168548)', '10154 S CHOCTAW DR\nBATON ROUGE, LA 70815\n(30.472051, -91.071971)', '1016 W GARFIELD ST\nBATON ROUGE, LA 70802\n(30.422207, -91.189606)', '1016 W GARFIELD ST\nBATON ROUGE, LA 70808\n(30.422208, -91.189565)', '1017 E POLK ST\nBATON ROUGE, LA 70802\n(30.42712, -91.173652)', '1019 W GARFIELD ST\nBATON ROUGE, LA 70802\n(30.422207, -91.189597)', '102 S ACADIAN TH\nBATON ROUGE, LA 70806', '1020 N 46TH ST\nBATON ROUGE, LA 70806\n(30.457446, -91.143389)', '1020 N ARDENWOOD DR\nBATON ROUGE, LA 70805\n(30.459366, -91.127683)', '1020 S FOSTER DR\nBATON ROUGE, LA 70808\n(30.439838, -91.135287)', '1021 N 36TH ST\nBATON ROUGE, LA 70802\n(30.457463, -91.153503)', '1021 N 37TH ST\nBATON ROUGE, LA 70802\n(30.457468, -91.152736)', '1021 N 44TH ST\nBATON ROUGE, LA 70802\n(30.457562, -91.145028)', '1021 S 15TH ST\nBATON ROUGE, LA 70802\n(30.43874, -91.173222)', '1021 W ROOSEVELT ST\nBATON ROUGE, LA 70802\n(30.421537, -91.190094)', '10217 N HARVEY DR\nBATON ROUGE, LA 70815\n(30.459953, -91.070804)', '1022 S FOSTER DR\nBATON ROUGE, LA 70808\n(30.439819, -91.135252)', '10222 S PERDUE AV\nBATON ROUGE, LA 70814\n(30.47333, -91.071242)', '10225 W DARRYL DR\nBATON ROUGE, LA 70815', '10225 W DARRYL DR\nBATON ROUGE, LA 70816', '1023 N LOBDELL BL\nBATON ROUGE, LA 70806\n(30.459689, -91.114332)', '1024 N 28TH ST\nBATON ROUGE, LA 70802\n(30.457884, -91.160567)', '1024 N 28TH ST\nBATON ROUGE, LA 70805\n(30.457958, -91.160571)', '1024 N FOSTER DR\nBATON ROUGE, LA 70802\n(30.457908, -91.139343)', '1024 N FOSTER DR\nBATON ROUGE, LA 70805\n(30.457908, -91.139343)', '1024 N FOSTER DR\nBATON ROUGE, LA 70806\n(30.457554, -91.139328)', '1024 W GARFIELD ST\nBATON ROUGE, LA 70805\n(30.422207, -91.189637)', '1024 W GARFIELD ST\nBATON ROUGE, LA 70812\n(30.422207, -91.189637)', '1024 W ROOSEVELT ST\nBATON ROUGE, LA 70802\n(30.421546, -91.189705)', '10241 N HARVEY DR\nBATON ROUGE, LA 70815\n(30.459954, -91.070547)', '1025 N 30TH ST\nBATON ROUGE, LA 70802\n(30.458231, -91.158795)', '1025 N 30TH ST\nBATON ROUGE, LA 70805\n(30.458231, -91.158795)', '1025 N 31ST ST\nBATON ROUGE, LA 70802\n(30.458329, -91.157392)', '1025 S ALAMEDA DR\nBATON ROUGE, LA 70815\n(30.458913, -91.086613)', '1025 W GARFIELD ST\nBATON ROUGE, LA 70802\n(30.422205, -91.189726)', '1025 W GARFIELD ST\nBATON ROUGE, LA 70820\n(30.422207, -91.189604)', '1026 E WASHINGTON AV\nBATON ROUGE, LA 70802\n(30.431159, -91.175181)', '1026 E WASHINGTON ST\nBATON ROUGE, LA 70802\n(30.431156, -91.175242)', '1026 N CARROLLTON AV\nBATON ROUGE, LA 70806\n(30.459266, -91.123859)', '1027 N 36TH ST\nBATON ROUGE, LA 70802\n(30.457536, -91.153506)', '1027 W LEE DR\nBATON ROUGE, LA 70802\n(30.388946, -91.17)', '1027 W LEE DR\nBATON ROUGE, LA 70808\n(30.388946, -91.17)', '1027 W LEE DR\nBATON ROUGE, LA 70820\n(30.3889, -91.170156)', '10271 N HARVEY DR\nBATON ROUGE, LA 70815\n(30.459955, -91.07028)', '10276 S HAMPTON ST\nBATON ROUGE, LA 70815\n(30.425556, -91.066667)', '10276 S HAMPTON ST\nBATON ROUGE, LA 70816\n(30.425552, -91.067088)', '1028 N 46TH ST\nBATON ROUGE, LA 70805\n(30.457543, -91.143394)', '1028 N SABINE DR\nBATON ROUGE, LA 70812\n(30.378519, -91.106264)', '10296 S CHOCTAW DR\nBATON ROUGE, LA 70815\n(30.472111, -91.070203)', '1030 S EUGENE ST\nBATON ROUGE, LA 70802\n(30.438804, -91.159799)', '1030 S EUGENE ST\nBATON ROUGE, LA 70808\n(30.438804, -91.159799)', '1031 N 47TH ST\nBATON ROUGE, LA 70805\n(30.457833, -91.142644)', '1031 S 16TH ST\nBATON ROUGE, LA 70802\n(30.438654, -91.171954)', '1031 W LEE DR\nBATON ROUGE, LA 70802\n(30.388874, -91.170242)', '1031 W LEE DR\nBATON ROUGE, LA 70808\n(30.388874, -91.170242)', '1031 W LEE DR\nBATON ROUGE, LA 70819\n(30.388874, -91.170242)', '1031 W LEE DR\nBATON ROUGE, LA 70820\n(30.389024, -91.169736)', '10315 S PERDUE AV\nBATON ROUGE, LA 70814\n(30.473365, -91.069797)', '10315 S PURDUE DR\nBATON ROUGE, LA 70806', '10319 N HARVEY DR\nBATON ROUGE, LA 70815\n(30.459965, -91.069948)', '1032 N 30TH ST\nBATON ROUGE, LA 70805\n(30.458452, -91.158802)', '1032 N 46TH ST\nBATON ROUGE, LA 70806\n(30.457592, -91.143397)', '1032 S ACADIAN TH\nBATON ROUGE, LA 70808', '1033 N LEIGHTON DR\nBATON ROUGE, LA 70806\n(30.458165, -91.136615)', '10331 W ALMOND DR\nBATON ROUGE, LA 70807\n(30.538751, -91.18429)', '10331 W ALMOND ST\nBATON ROUGE, LA 70807\n(30.538549, -91.184286)', '10333 N HARVEY DR\nBATON ROUGE, LA 70816\n(30.459989, -91.069746)', '10334 S CHOCTAW DR\nBATON ROUGE, LA 70815\n(30.472117, -91.070043)', '1034 N DONMOOR AV\nBATON ROUGE, LA 70805\n(30.459068, -91.118657)', '1034 N DONMOOR AV\nBATON ROUGE, LA 70806\n(30.459026, -91.118655)', '10341 W ALMOND DR\nBATON ROUGE, LA 70807\n(30.538815, -91.184291)', '10341 W ALMOND ST\nBATON ROUGE, LA 70807\n(30.538876, -91.184292)', '1035 N 35TH ST\nBATON ROUGE, LA 70802\n(30.457631, -91.15434)', '1036 N 31ST ST\nBATON ROUGE, LA 70805\n(30.458674, -91.157405)', '1036 N 31ST ST\nBATON ROUGE, LA 70820\n(30.458674, -91.157405)', '1036 N 36TH ST\nBATON ROUGE, LA 70802\n(30.457445, -91.153502)', '1036 W GARFIELD ST\nBATON ROUGE, LA 70810\n(30.422205, -91.189744)', '10364 S PERDUE AV\nBATON ROUGE, LA 70814\n(30.473384, -91.068999)', '10365 S PERDUE AV\nBATON ROUGE, LA 70814\n(30.473385, -91.068976)', '10365 S PERDUE DR\nBATON ROUGE, LA 70815', '1037 N 36TH ST\nBATON ROUGE, LA 70805\n(30.457608, -91.153509)', '1038 N 44TH ST\nBATON ROUGE, LA 70802\n(30.45778, -91.145039)', '1038 N 44TH ST\nBATON ROUGE, LA 70805\n(30.457705, -91.145035)', '10384 S CHOCTAW DR\nBATON ROUGE, LA 70815\n(30.472149, -91.069091)', '104 S 10TH ST\nBATON ROUGE, LA 70802\n(30.447183, -91.179534)', '1040 S FOSTER DR\nBATON ROUGE, LA 70806\n(30.439647, -91.134936)', '10400 S CHOCTAW DR\nBATON ROUGE, LA 70815\n(30.472159, -91.068795)', '10407 W ALMOND DR\nBATON ROUGE, LA 70807\n(30.539233, -91.184298)', '10407 W ALMOND ST\nBATON ROUGE, LA 70807\n(30.539206, -91.184298)', '1041 N 46TH ST\nBATON ROUGE, LA 70802\n(30.457836, -91.14341)', '1041 N 46TH ST\nBATON ROUGE, LA 70805\n(30.457766, -91.143406)', '10412 E GRANDEUR DR\nBATON ROUGE, LA 70816\n(30.437864, -91.0719)', '10412 S CHOCTAW DR\nBATON ROUGE, LA 70814\n(30.472164, -91.068641)', '10412 S CHOCTAW DR\nBATON ROUGE, LA 70815\n(30.472154, -91.068933)', '10418 N HARVEY DR\nBATON ROUGE, LA 70815\n(30.460086, -91.069095)', '1042 N 46TH ST\nBATON ROUGE, LA 70805\n(30.457713, -91.143403)', '10422 E GRANDUER DR\nBATON ROUGE, LA 70815\n(30.437866, -91.071696)', '10425 S RIVER OAKS DR\nBATON ROUGE, LA 70814\n(30.450166, -91.071527)', '10425 S RIVER OAKS DR\nBATON ROUGE, LA 70815\n(30.450171, -91.072012)', '1043 N 29TH ST\nBATON ROUGE, LA 70805\n(30.458067, -91.159648)', '1043 N 37TH ST\nBATON ROUGE, LA 70802\n(30.457658, -91.152745)', '10436 N HARVEY DR\nBATON ROUGE, LA 70515\n(30.460104, -91.068735)', '10443 E GRANDEUR DR\nBATON ROUGE, LA 70816\n(30.437872, -91.071186)', '10443 N CARRIAGE HOUSE AV\nBATON ROUGE, LA 70815\n(30.435987, -91.068994)', '1045 N 29TH ST\nBATON ROUGE, LA 70805\n(30.458081, -91.159649)', '1045 W MCKINLEY ST\nBATON ROUGE, LA 70803\n(30.423509, -91.189728)', '10451 N HARVEY DR\nBATON ROUGE, LA 70815\n(30.460105, -91.068619)', '10452 S CHOCTAW DR\nBATON ROUGE, LA 70814\n(30.472182, -91.068127)', '10453 N CARRIAGE HOUSE AV\nBATON ROUGE, LA 70815\n(30.435983, -91.068786)', '10455 N HARVEY DR\nBATON ROUGE, LA 70815\n(30.460103, -91.068379)', '10455 N HARVEY DR\nBATON ROUGE, LA 70816\n(30.460104, -91.068539)', '1046 N 36TH ST\nBATON ROUGE, LA 70802\n(30.457634, -91.15351)', '1046 N 36TH ST\nBATON ROUGE, LA 70805\n(30.457681, -91.153512)', '10462 E GRANDEUR DR\nBATON ROUGE, LA 70816\n(30.437877, -91.070676)', '10465 S RIVEROAKS DR\nBATON ROUGE, LA 70815\n(30.450174, -91.071029)', '1047 N 47TH ST\nBATON ROUGE, LA 70802\n(30.457965, -91.142651)', '10492 E GRANDEUR DR\nBATON ROUGE, LA 70816\n(30.437885, -91.069911)', '1050 N ARDENWOOD DR\nBATON ROUGE, LA 70806\n(30.459638, -91.127697)', '1050 N DONMOOR AV\nBATON ROUGE, LA 70805\n(30.459173, -91.118662)', '1050 N DONMOOR AV\nBATON ROUGE, LA 70806\n(30.459768, -91.118682)', '1050 N DONMOOR AV\nBATON ROUGE, LA 70811\n(30.459173, -91.118662)', '1050 N FOSTER DR\nBATON ROUGE, LA 70802\n(30.45813, -91.139353)', '1050 N FOSTER DR\nBATON ROUGE, LA 70805\n(30.45813, -91.139353)', '1050 N FOSTER DR\nBATON ROUGE, LA 70806\n(30.45842, -91.139365)', '1050 N FOSTER RD\nBATON ROUGE, LA 70805', '1050 S 16TH ST\nBATON ROUGE, LA 70812\n(30.438905, -91.171964)', '1050 S FOSTER DR\nBATON ROUGE, LA 70806\n(30.439587, -91.13483)', '1050 S FOSTER DR\nBATON ROUGE, LA 70808\n(30.439549, -91.134762)', '1051 N ACADIAN W TH\nBATON ROUGE, LA 70805', '1051 N LEIGHTON DR\nBATON ROUGE, LA 70805\n(30.458254, -91.136619)', '1051 N THIRD ST\nBATON ROUGE, LA 70802\n(30.457728, -91.18856)', '10515 S TALLOW DR\nBATON ROUGE, LA 70802\n(30.540215, -91.184871)', '1052 N ARDENWOOD DR\nBATON ROUGE, LA 70805\n(30.459656, -91.127698)', '1052 N ARDENWOOD DR\nBATON ROUGE, LA 70806\n(30.459656, -91.127698)', '1052 S 18TH ST\nBATON ROUGE, LA 70802\n(30.438817, -91.170133)', '10536 N HARVEY DR\nBATON ROUGE, LA 70815\n(30.460099, -91.067701)', '1054 N ARDENWOOD DR\nBATON ROUGE, LA 70805\n(30.459674, -91.127699)', '1054 N ARDENWOOD DR\nBATON ROUGE, LA 70806\n(30.459674, -91.127699)', '1055 N 37TH ST\nBATON ROUGE, LA 70802\n(30.457754, -91.152749)', '1055 N 37TH ST\nBATON ROUGE, LA 70805\n(30.457756, -91.152749)', '1056 N ARDENWOOD DR\nBATON ROUGE, LA 70806\n(30.459692, -91.1277)', '1057 N 40TH ST\nBATON ROUGE, LA 70805\n(30.457827, -91.150391)', '1057 S FLANNERY RD\nBATON ROUGE, LA 70815\n(30.449287, -91.034844)', '1057 S TINLEY DR\nBATON ROUGE, LA 70815\n(30.447435, -91.06034)', '10577 N HARVEY DR\nBATON ROUGE, LA 70815\n(30.460092, -91.067515)', '1058 N ARDENWOOD DR\nBATON ROUGE, LA 70806\n(30.459711, -91.127701)', '1060 N 30TH ST\nBATON ROUGE, LA 70805\n(30.459015, -91.158824)', '1060 N ARDENWOOD DR\nBATON ROUGE, LA 70805\n(30.459729, -91.127702)', '1060 N ARDENWOOD DR\nBATON ROUGE, LA 70806\n(30.459729, -91.127702)', "10600 N HARRELL'S FERRY RD\nBATON ROUGE, LA 70815\n(30.434671, -91.064508)", '10600 N HARVEY DR\nBATON ROUGE, LA 70815\n(30.460088, -91.067383)', '10600 S CHOCTAW DR\nBATON ROUGE, LA 70815\n(30.472213, -91.066466)', '10600 S CHOCTAW DR\nBATON ROUGE, LA 70816\n(30.472246, -91.065664)', '10609 N DUAL DR\nBATON ROUGE, LA 70814\n(30.473427, -91.066601)', '1061 N ACADIAN W TH\nBATON ROUGE, LA 70805', '1062 E BUCHANAN ST\nBATON ROUGE, LA 70802\n(30.425131, -91.173213)', '10625 N HARVEY DR\nBATON ROUGE, LA 70815\n(30.460084, -91.067291)', '1064 N ARDENWOOD DR\nBATON ROUGE, LA 70805\n(30.459765, -91.127703)', '1064 N ARDENWOOD DR\nBATON ROUGE, LA 70806\n(30.459765, -91.127703)', '10641 N DUAL ST\nBATON ROUGE, LA 70815\n(30.473454, -91.066195)', '1065 N 44TH ST\nBATON ROUGE, LA 70805\n(30.458128, -91.145055)', '1065 N LEIGHTON DR\nBATON ROUGE, LA 70805\n(30.458387, -91.136625)', '1065 S ALAMEDA DR\nBATON ROUGE, LA 70815\n(30.459504, -91.086662)', '10651 N HARVEY DR\nBATON ROUGE, LA 70808\n(30.460077, -91.067072)', '1066 N 44TH ST\nBATON ROUGE, LA 70802\n(30.458111, -91.145054)', '1066 N ARDENWOOD DR\nBATON ROUGE, LA 70805\n(30.459783, -91.127704)', '1066 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '10663 N HARVEY DR\nBATON ROUGE, LA 70815\n(30.460068, -91.066801)', '1067 N 49TH ST\nBATON ROUGE, LA 70805\n(30.458398, -91.141107)', '10675 N DUAL ST\nBATON ROUGE, LA 70815\n(30.473462, -91.065849)', '10675 S CHOCTAW DR\nBATON ROUGE, LA 70815\n(30.472277, -91.064936)', '1068 N ARDENWOOD DR\nBATON ROUGE, LA 70802\n(30.459802, -91.127705)', '1068 N ARDENWOOD DR\nBATON ROUGE, LA 70805\n(30.459802, -91.127705)', '1068 N ARDENWOOD DR\nBATON ROUGE, LA 70806\n(30.459802, -91.127705)', '10683 N HARVEY DR\nBATON ROUGE, LA 70815\n(30.460052, -91.06654)', '1069 N 38TH ST\nBATON ROUGE, LA 70802\n(30.457972, -91.151993)', '1069 N 38TH ST\nBATON ROUGE, LA 70805\n(30.457867, -91.151988)', '107 S 10TH ST\nBATON ROUGE, LA 70802\n(30.447261, -91.179267)', '107 S 10TH ST\nBATON ROUGE, LA 70808\n(30.447261, -91.179267)', '1070 N ARDENWOOD DR\nBATON ROUGE, LA 70805\n(30.45982, -91.127706)', '1070 N ARDENWOOD DR\nBATON ROUGE, LA 70806\n(30.45982, -91.127706)', '1070 W LEE DR\nBATON ROUGE, LA 70807\n(30.389353, -91.168637)', '10700 S CHOCTAW DR\nBATON ROUGE, LA 70815\n(30.472284, -91.06468)', '10700 S GIBBENS RD\nBATON ROUGE, LA 70807\n(30.542023, -91.155553)', '1072 N 48TH ST\nBATON ROUGE, LA 70802\n(30.458098, -91.141895)', '1072 N ACADIAN WEST DR\nBATON ROUGE, LA 70805', '1072 N ARDENWOOD DR\nBATON ROUGE, LA 70805\n(30.459838, -91.127707)', '1072 N ARDENWOOD DR\nBATON ROUGE,</t>
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>14922538</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>90544</v>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>['(Null)', '1 DAIRYMPLE DR\nBATON ROUGE, LA 70802', '1 DAIRYMPLE ST\nBATON ROUGE, LA 70802', '1 DALRYMPLE\nBATON ROUGE, LA\n(30.415783, -91.176362)', '1 DALRYMPLE\nBATON ROUGE, LA 70808', '1 DALRYMPLE\nBATON ROUGE, LA 70820\n(30.415783, -91.176362)', '1 DALRYMPLE DR\nBATON ROUGE, LA\n(30.415783, -91.176362)', '1 DALRYMPLE DR\nBATON ROUGE, LA 70802\n(30.415783, -91.176362)', '1 DALRYMPLE DR\nBATON ROUGE, LA 70803\n(30.415783, -91.176362)', '1 DALRYMPLE DR\nBATON ROUGE, LA 70820\n(30.415783, -91.176362)', '1 DARLYMPLE DR\nBATON ROUGE, LA', '1 DARYMPLE\nBATON ROUGE, LA 70820', '1 RUE SORBONNE\nBATON ROUGE, LA 70808\n(30.406303, -91.171551)', '1 RUE SORBONNE ST\nBATON ROUGE, LA 70808\n(30.406384, -91.171672)', '1 S AMITE DR\nBATON ROUGE, LA', '1 W FRATERNITY DR\nBATON ROUGE, LA', '1 W LAKESHORE DR\nBATON ROUGE, LA', '10 DALRYMPLE DR\nBATON ROUGE, LA\n(30.415757, -91.175315)', '10 GOVERNMENT ST\nBATON ROUGE, LA 70808', '10 RUE TOULOUSE ST\nBATON ROUGE, LA 70802\n(30.405535, -91.171963)', '100 12TH ST\nBATON ROUGE, LA\n(30.447231, -91.177142)', '100 22ND AV\nBATON ROUGE, LA 70802', '100 3RD ST\nBATON ROUGE, LA\n(30.447266, -91.188164)', '100 3RD ST\nBATON ROUGE, LA 70802\n(30.447266, -91.188164)', '100 AMHERST AV\nBATON ROUGE, LA\n(30.403615, -91.172333)', '100 AMHERST AV\nBATON ROUGE, LA 70808\n(30.403615, -91.172333)', '100 APARTMENT COURT DR\nBATON ROUGE, LA\n(30.446683, -91.123122)', '100 APARTMENT COURT DR\nBATON ROUGE, LA 70805\n(30.446683, -91.123122)', '100 ASTER ST\nBATON ROUGE, LA\n(30.419875, -91.177346)', '100 ASTER ST\nBATON ROUGE, LA 70802\n(30.419875, -91.177346)', '100 BEDFORD ST\nBATON ROUGE, LA 70806\n(30.448119, -91.157638)', '100 BELLEWOOD DR\nBATON ROUGE, LA 70802\n(30.451043, -91.12217)', '100 BOB PETIT BL\nBATON ROUGE, LA 70810', '100 BRICE ST\nBATON ROUGE, LA\n(30.447708, -91.171056)', '100 BRICE ST\nBATON ROUGE, LA 70802\n(30.447708, -91.171056)', '100 BROADMOOR AV\nBATON ROUGE, LA 70815\n(30.452889, -91.091776)', '100 CAMPUS LAKE RD\nBATON ROUGE, LA 70820', '100 CHATSWORTH ST\nBATON ROUGE, LA\n(30.433567, -91.183508)', '100 CHATSWORTH ST\nBATON ROUGE, LA 70802\n(30.433567, -91.183508)', '100 CHATSWORTH ST\nBATON ROUGE, LA 70806\n(30.433567, -91.183508)', '100 CHOCTAW DR\nBATON ROUGE, LA', '100 CHOCTAW DR\nBATON ROUGE, LA 70805', '100 CLOUD DR\nBATON ROUGE, LA\n(30.450733, -91.132157)', '100 CLOUD DR\nBATON ROUGE, LA 70806\n(30.450733, -91.132157)', '100 COMMUNITY COLLEGE DR\nBATON ROUGE, LA 70806\n(30.450858, -91.136046)', '100 CONVENTION\nBATON ROUGE, LA\n(30.448174, -91.190353)', '100 CONVENTION ST\nBATON ROUGE, LA\n(30.448174, -91.190353)', '100 CONVENTION ST\nBATON ROUGE, LA 70802\n(30.448174, -91.190353)', '100 COURSEY BL\nBATON ROUGE, LA', '100 CYPRESS DR\nBATON ROUGE, LA 70802', '100 DALRYMPLE\nBATON ROUGE, LA', '100 DALRYMPLE DR\nBATON ROUGE, LA', '100 DALRYMPLE DR\nBATON ROUGE, LA 70810', '100 DALRYMPLE DR\nBATON ROUGE, LA 70820', '100 DARYMPLE\nBATON ROUGE, LA 70820', '100 DELPHINE ST\nBATON ROUGE, LA 70802\n(30.447929, -91.164181)', '100 DOROTHY DIX DR\nBATON ROUGE, LA', '100 DOROTHY DIX DR\nBATON ROUGE, LA 70820', '100 E AIRPORT DR\nBATON ROUGE, LA', '100 E BOYD\nBATON ROUGE, LA\n(30.403577, -91.172286)', '100 E BOYD\nBATON ROUGE, LA 70802\n(30.403577, -91.172286)', '100 E BOYD\nBATON ROUGE, LA 70820\n(30.403577, -91.172286)', '100 E BOYD AV\nBATON ROUGE, LA\n(30.403577, -91.172286)', '100 E BOYD AV\nBATON ROUGE, LA 70806\n(30.403577, -91.172286)', '100 E BOYD AV\nBATON ROUGE, LA 70808\n(30.403577, -91.172286)', '100 E BOYD AV\nBATON ROUGE, LA 70820\n(30.403577, -91.172286)', '100 E BOYD DR\nBATON ROUGE, LA\n(30.403577, -91.172286)', '100 E BOYD DR\nBATON ROUGE, LA 70802\n(30.403577, -91.172286)', '100 E BOYD DR\nBATON ROUGE, LA 70805\n(30.403577, -91.172286)', '100 E BOYD DR\nBATON ROUGE, LA 70808\n(30.403577, -91.172286)', '100 E BOYD DR\nBATON ROUGE, LA 70820\n(30.403577, -91.172286)', '100 E BOYD HW\nBATON ROUGE, LA', '100 E BOYD HW\nBATON ROUGE, LA 70808\n(30.403577, -91.172286)', '100 E BOYD ST\nBATON ROUGE, LA\n(30.403577, -91.172286)', '100 E BOYD ST\nBATON ROUGE, LA 70802\n(30.403577, -91.172286)', '100 E BOYD ST\nBATON ROUGE, LA 70808\n(30.403577, -91.172286)', '100 E BOYD ST\nBATON ROUGE, LA 70820\n(30.403577, -91.172286)', '100 E BUCHANAN ST\nBATON ROUGE, LA\n(30.424951, -91.179661)', '100 E BUCHANAN ST\nBATON ROUGE, LA 70802\n(30.424951, -91.179661)', '100 E BUCHANAN ST\nBATON ROUGE, LA 70805\n(30.424951, -91.179661)', '100 E BUCHANAN ST\nBATON ROUGE, LA 70808\n(30.424951, -91.179661)', '100 E CHIMES\nBATON ROUGE, LA 70802\n(30.417243, -91.176423)', '100 E CHIMES ST\nBATON ROUGE, LA\n(30.417243, -91.176423)', '100 E CHIMES ST\nBATON ROUGE, LA 70802\n(30.417243, -91.176423)', '100 E CHIMES ST\nBATON ROUGE, LA 70820\n(30.417243, -91.176423)', '100 E FRATERNITY LN\nBATON ROUGE, LA', '100 E FRATERNITY LN\nBATON ROUGE, LA 70802', '100 E GARFIELD ST\nBATON ROUGE, LA\n(30.422449, -91.178505)', '100 E GARFIELD ST\nBATON ROUGE, LA 70802\n(30.422449, -91.178505)', '100 E GRANT DR\nBATON ROUGE, LA 70802\n(30.42311, -91.17881)', '100 E GRANT ST\nBATON ROUGE, LA\n(30.42311, -91.17881)', '100 E GRANT ST\nBATON ROUGE, LA 70802\n(30.42311, -91.17881)', '100 E HARDING ST\nBATON ROUGE, LA\n(30.425906, -91.180094)', '100 E HARDING ST\nBATON ROUGE, LA 70802\n(30.425906, -91.180094)', '100 E HARRISON ST\nBATON ROUGE, LA\n(30.42891, -91.181483)', '100 E HARRISON ST\nBATON ROUGE, LA 70802\n(30.42891, -91.181483)', '100 E I-10\nBATON ROUGE, LA 70802', '100 E I-10 HW\nBATON ROUGE, LA', '100 E I-10 HW\nBATON ROUGE, LA 70802', '100 E I-12\nBATON ROUGE, LA', '100 E I-12\nBATON ROUGE, LA 70802', '100 E I-12 HW\nBATON ROUGE, LA 70816', '100 E I10\nBATON ROUGE, LA', '100 E I10\nBATON ROUGE, LA 70802', '100 E I10\nBATON ROUGE, LA 70808', '100 E I10 HW\nBATON ROUGE, LA', '100 E I10 HW\nBATON ROUGE, LA 70802', '100 E I10 ST\nBATON ROUGE, LA', '100 E I10 ST\nBATON ROUGE, LA 70808', '100 E I12\nBATON ROUGE, LA', '100 E I12\nBATON ROUGE, LA 70808', '100 E I12\nBATON ROUGE, LA 70809', '100 E JOHNSON ST\nBATON ROUGE, LA\n(30.424472, -91.179439)', '100 E MCKINLEY ST\nBATON ROUGE, LA\n(30.423786, -91.178895)', '100 E MCKINLEY ST\nBATON ROUGE, LA 70808\n(30.423786, -91.178895)', '100 E MCKINLEY ST\nBATON ROUGE, LA 70820\n(30.423786, -91.178895)', '100 E PARKER BL\nBATON ROUGE, LA\n(30.404542, -91.173557)', '100 E POLK AV\nBATON ROUGE, LA\n(30.426906, -91.180554)', '100 E POLK ST\nBATON ROUGE, LA\n(30.426906, -91.180554)', '100 E POLK ST\nBATON ROUGE, LA 70802\n(30.426906, -91.180554)', '100 E POLK ST\nBATON ROUGE, LA 70814\n(30.426906, -91.180554)', '100 E RIVER OAKS DR\nBATON ROUGE, LA 70816\n(30.453918, -91.087749)', '100 E ROOSEVELT RD\nBATON ROUGE, LA 70820\n(30.421799, -91.178198)', '100 E ROOSEVELT ST\nBATON ROUGE, LA\n(30.421799, -91.178198)', '100 E ROOSEVELT ST\nBATON ROUGE, LA 70802\n(30.421799, -91.178198)', '100 E ROOSEVELT ST\nBATON ROUGE, LA 70806\n(30.421799, -91.178198)', '100 E ROOSEVELT ST\nBATON ROUGE, LA 70820\n(30.421799, -91.178198)', '100 E STATE ST\nBATON ROUGE, LA\n(30.418207, -91.176576)', '100 E STATE ST\nBATON ROUGE, LA 70802\n(30.418207, -91.176576)', '100 E STATE ST\nBATON ROUGE, LA 70805\n(30.418207, -91.176576)', '100 E STATE ST\nBATON ROUGE, LA 70808\n(30.418207, -91.176576)', '100 E STATE ST\nBATON ROUGE, LA 70820\n(30.418207, -91.176576)', '100 E WASHINGTON ST\nBATON ROUGE, LA\n(30.430951, -91.182693)', '100 E WASHINGTON ST\nBATON ROUGE, LA 70802\n(30.430951, -91.182693)', '100 E WASHINGTON ST\nBATON ROUGE, LA 70805\n(30.430951, -91.182693)', '100 E WASHINGTON ST\nBATON ROUGE, LA 70806\n(30.430951, -91.182693)', '100 EAST BL\nBATON ROUGE, LA\n(30.448377, -91.149567)', '100 EAST BL\nBATON ROUGE, LA 70805\n(30.448377, -91.149567)', '100 EAST BOYD ST\nBATON ROUGE, LA\n(30.403577, -91.172286)', '100 EAST DR\nBATON ROUGE, LA 70806\n(30.448377, -91.149567)', '100 EAST I-10 HW\nBATON ROUGE, LA', '100 EAST I-10 HW\nBATON ROUGE, LA 70802', '100 EAST I-10 HW\nBATON ROUGE, LA 70808', '100 EAST I-12\nBATON ROUGE, LA', '100 EAST I-12 HW\nBATON ROUGE, LA', '100 EAST I-12 HW\nBATON ROUGE, LA 700802', '100 EAST I-12 HW\nBATON ROUGE, LA 70802', '100 EAST I-12 HW\nBATON ROUGE, LA 70812', '100 EAST I-12 HW\nBATON ROUGE, LA 70816', '100 EDDIE ROBINSON\nBATON ROUGE, LA\n(30.447234, -91.175943)', '100 EDDIE ROBINSON\nBATON ROUGE, LA 70808\n(30.447234, -91.175943)', '100 EDDIE ROBINSON DR\nBATON ROUGE, LA\n(30.447234, -91.175943)', '100 EDDIE ROBINSON DR\nBATON ROUGE, LA 70802\n(30.447234, -91.175943)', '100 EDDIE ROBINSON SR DR\nBATON ROUGE, LA\n(30.447234, -91.175943)', '100 EDDIE ROBINSON SR DR\nBATON ROUGE, LA 70802\n(30.447234, -91.175943)', '100 ELLWOOD ST\nBATON ROUGE, LA 70802\n(30.434149, -91.184439)', '100 ELMER AV\nBATON ROUGE, LA\n(30.537841, -91.20159)', '100 ELMER AV\nBATON ROUGE, LA 70805\n(30.537841, -91.20159)', '100 ELMER AV\nBATON ROUGE, LA 70807\n(30.537841, -91.20159)', '100 ELTON C HARRISON DR\nBATON ROUGE, LA', '100 ELTON C HARRISON DR\nBATON ROUGE, LA 70807', '100 EVERGREEN DR\nBATON ROUGE, LA\n(30.447945, -91.163126)', '100 EVERGREEN ST\nBATON ROUGE, LA 70802\n(30.447945, -91.163126)', '100 FIELD HOUSE DR\nBATON ROUGE, LA 70820', '100 FLORIDA\nBATON ROUGE, LA\n(30.449273, -91.190404)', '100 FLORIDA\nBATON ROUGE, LA 70802', '100 FLORIDA BL\nBATON ROUGE, LA', '100 FLORIDA BL\nBATON ROUGE, LA 70802', '100 FLORIDA ST\nBATON ROUGE, LA\n(30.449273, -91.190404)', '100 FLORIDA ST\nBATON ROUGE, LA 70801\n(30.449273, -91.190404)', '100 FLORIDA ST\nBATON ROUGE, LA 70802\n(30.449273, -91.190404)', '100 FRANCE ST\nBATON ROUGE, LA\n(30.442734, -91.190016)', '100 FRANCE ST\nBATON ROUGE, LA 70802\n(30.442734, -91.190016)', '100 FRANCE ST\nBATON ROUGE, LA 70805\n(30.442734, -91.190016)', '100 G LEON NETTERVILLE DR\nBATON ROUGE, LA 70807', '100 GARDERE LN\nBATON ROUGE, LA\n(30.365905, -91.119651)', '100 GOTTLIEB ST\nBATON ROUGE, LA\n(30.44809, -91.158998)', '100 GOVERNMENT ST\nBATON ROUGE, LA\n(30.443968, -91.189906)', '100 GOVERNMENT ST\nBATON ROUGE, LA 70708\n(30.443968, -91.189906)', '100 GOVERNMENT ST\nBATON ROUGE, LA 70802\n(30.443968, -91.189906)', '100 GOVERNMENT ST\nBATON ROUGE, LA 70805\n(30.443968, -91.189906)', '100 GOVERNMENT ST\nBATON ROUGE, LA 70806\n(30.443968, -91.189906)', '100 GOVERNMENT ST\nBATON ROUGE, LA 70808\n(30.443968, -91.189906)', '100 GRETA ST\nBATON ROUGE, LA\n(30.448157, -91.156764)', '100 HAZEL ST\nBATON ROUGE, LA\n(30.434841, -91.184341)', '100 HEARTHSTONE AV\nBATON ROUGE, LA\n(30.448157, -91.156764)', '100 HEARTHSTONE AV\nBATON ROUGE, LA 70806\n(30.448157, -91.156764)', '100 HEATHERWOOD DR\nBATON ROUGE, LA\n(30.367748, -91.121399)', '100 HELEN BARRON ST\nBATON ROUGE, LA 70811', '100 HENRY E COBB ST\nBATON ROUGE, LA 70807', '100 HOLMES DR\nBATON ROUGE, LA\n(30.451617, -91.11696)', '100 I-10\nBATON ROUGE, LA', '100 I-110 HW\nBATON ROUGE, LA', '100 JASMINE BL\nBATON ROUGE, LA 70808\n(30.448365, -91.150086)', '100 JENNIFER JEAN AV\nBATON ROUGE, LA', '100 JENNIFER JEAN AV\nBATON ROUGE, LA 70820', '100 JULIA ST\nBATON ROUGE, LA', '100 JULIA ST\nBATON ROUGE, LA 70802', '100 JULIA ST\nBATON ROUGE, LA 70806', '100 JULIA ST\nBATON ROUGE, LA 70820', '100 KENILWORTH DR\nBATON ROUGE, LA 70802\n(30.377923, -91.137912)', '100 KENILWORTH PK\nBATON ROUGE, LA\n(30.377923, -91.137912)', '100 KENILWORTH PK\nBATON ROUGE, LA 70808\n(30.377923, -91.137912)', '100 LAFAYETTE ST\nBATON ROUGE, LA\n(30.447098, -91.189332)', '100 LAFAYETTE ST\nBATON ROUGE, LA 70802\n(30.447098, -91.189332)', '100 LAFAYETTE ST\nBATON ROUGE, LA 70805\n(30.447098, -91.189332)', '100 LAFAYETTE ST\nBATON ROUGE, LA 70808\n(30.447098, -91.189332)', '100 LAFEYETTE ST\nBATON ROUGE, LA 70802', '100 LAUREL\nBATON ROUGE, LA\n(30.450299, -91.190465)', '100 LAUREL ST\nBATON ROUGE, LA\n(30.450299, -91.190465)', '100 LAUREL ST\nBATON ROUGE, LA 70802\n(30.450299, -91.190465)', '100 LEE\nBATON ROUGE, LA\n(30.393883, -91.159789)', '100 LEE DR\nBATON ROUGE, LA\n(30.394183, -91.159427)', '100 LEE DR\nBATON ROUGE, LA 70802\n(30.394183, -91.159427)', '100 LEE DR\nBATON ROUGE, LA 70808\n(30.394183, -91.159427)', '100 LEE DR\nBATON ROUGE, LA 70810\n(30.394183, -91.159427)', '100 LITTLE JOHN DR\nBATON ROUGE, LA 70815\n(30.459855, -91.051272)', '100 LOBDELL AV\nBATON ROUGE, LA\n(30.451651, -91.112061)', '100 LOBDELL AV\nBATON ROUGE, LA 70802\n(30.451651, -91.112061)', '100 LOBDELL AV\nBATON ROUGE, LA 70805\n(30.451651, -91.112061)', '100 LONGBOW DR\nBATON ROUGE, LA\n(30.46088, -91.044769)', '100 LOUISE ST\nBATON ROUGE, LA\n(30.433923, -91.183234)', '100 LOUISE ST\nBATON ROUGE, LA 70802\n(30.433923, -91.183234)', '100 LSU AV\nBATON ROUGE, LA\n(30.402155, -91.170463)', '100 LSU AV\nBATON ROUGE, LA 70802\n(30.402155, -91.170463)', '100 LSU AV\nBATON ROUGE, LA 70808\n(30.402155, -91.170463)', '100 LSU AV\nBATON ROUGE, LA 70810\n(30.402155, -91.170463)', '100 MAIN ST\nBATON ROUGE, LA 70802\n(30.451376, -91.190522)', '100 MAIN ST\nBATON ROUGE, LA 70816\n(30.451376, -91.190522)', '100 MAXIMILIAN ST\nBATON ROUGE, LA 70802\n(30.4471, -91.181494)', '100 MAXIMILLIAN ST\nBATON ROUGE, LA 70802\n(30.4471, -91.181494)', '100 MAYFLOWER\nBATON ROUGE, LA\n(30.440724, -91.18867)', '100 MAYFLOWER\nBATON ROUGE, LA 70802\n(30.440724, -91.18867)', '100 MAYFLOWER\nBATON ROUGE, LA 70805\n(30.440724, -91.18867)', '100 MAYFLOWER ST\nBATON ROUGE, LA\n(30.440724, -91.18867)', '100 MAYFLOWER ST\nBATON ROUGE, LA 70802\n(30.440724, -91.18867)', '100 MCDONALD DR\nBATON ROUGE, LA\n(30.392237, -91.157654)', '100 MCGEHEE DR\nBATON ROUGE, LA\n(30.457735, -91.064563)', '100 MCGEHEE DR\nBATON ROUGE, LA 70815\n(30.457735, -91.064563)', '100 N 10TH ST\nBATON ROUGE, LA 70802\n(30.447454, -91.179693)', '100 N 10TH ST\nBATON ROUGE, LA 70805\n(30.447454, -91.179693)', '100 N 11TH ST\nBATON ROUGE, LA\n(30.447461, -91.178582)', '100 N 11TH ST\nBATON ROUGE, LA 70805\n(30.447461, -91.178582)', '100 N 12TH ST\nBATON ROUGE, LA\n(30.447488, -91.177411)', '100 N 12TH ST\nBATON ROUGE, LA 70802\n(30.447488, -91.177411)', '100 N 12TH ST\nBATON ROUGE, LA 70805\n(30.447488, -91.177411)', '100 N 13TH ST\nBATON ROUGE, LA\n(30.447539, -91.176222)', '100 N 13TH ST\nBATON ROUGE, LA 700802\n(30.447539, -91.176222)', '100 N 13TH ST\nBATON ROUGE, LA 70802\n(30.447539, -91.176222)', '100 N 13TH ST\nBATON ROUGE, LA 70805\n(30.447539, -91.176222)', '100 N 13TH ST\nBATON ROUGE, LA 70808\n(30.447539, -91.176222)', '100 N 14 ST\nBATON ROUGE, LA\n(30.447585, -91.175028)', '100 N 14TH ST\nBATON ROUGE, LA\n(30.447727, -91.175034)', '100 N 14TH ST\nBATON ROUGE, LA 70802\n(30.447727, -91.175034)', '100 N 14TH ST\nBATON ROUGE, LA 70808\n(30.447585, -91.175028)', '100 N 15TH ST\nBATON ROUGE, LA 70802', '100 N 17TH ST\nBATON ROUGE, LA\n(30.448073, -91.171473)', '100 N 17TH ST\nBATON ROUGE, LA 70802\n(30.448073, -91.171473)', '100 N 17TH ST\nBATON ROUGE, LA 70808\n(30.448073, -91.171473)', '100 N 18TH ST\nBATON ROUGE, LA 70802\n(30.447868, -91.170289)', '100 N 19TH ST\nBATON ROUGE, LA\n(30.447616, -91.169199)', '100 N 19TH ST\nBATON ROUGE, LA 70802\n(30.447616, -91.169199)', '100 N 19TH ST\nBATON ROUGE, LA 70806\n(30.447616, -91.169199)', '100 N 20TH ST\nBATON ROUGE, LA\n(30.447808, -91.167896)', '100 N 21ST CT\nBATON ROUGE, LA\n(30.447847, -91.166711)', '100 N 21ST CT\nBATON ROUGE, LA 70820\n(30.447847, -91.166711)', '100 N 21ST ST\nBATON ROUGE, LA 70802\n(30.447847, -91.166711)', '100 N 21ST ST\nBATON ROUGE, LA 70808\n(30.447847, -91.166711)', '100 N 22ND ST\nBATON ROUGE, LA\n(30.44787, -91.165892)', '100 N 22ND ST\nBATON ROUGE, LA 70802\n(30.44787, -91.165892)', '100 N 22ND ST\nBATON ROUGE, LA 70805\n(30.44787, -91.165892)', '100 N 22ND ST\nBATON ROUGE, LA 70808\n(30.44787, -91.165892)', '100 N 23 RD ST\nBATON ROUGE, LA', '100 N 23 RD ST\nBATON ROUGE, LA 70805', '100 N 23RD ST\nBATON ROUGE, LA\n(30.447929, -91.164181)', '100 N 25 ST\nBATON ROUGE, LA\n(30.447979, -91.162635)', '100 N 25TH ST\nBATON ROUGE, LA\n(30.447979, -91.162635)', '100 N 25TH ST\nBATON ROUGE, LA 70802\n(30.447979, -91.162635)', '100 N 25TH ST\nBATON ROUGE, LA 70808\n(30.447979, -91.162635)', '100 N 26TH ST\nBATON ROUGE, LA\n(30.447997, -91.161936)', '100 N 26TH ST\nBATON ROUGE, LA 70802\n(30.447997, -91.161936)', '100 N 26TH ST\nBATON ROUGE, LA 70806\n(30.447997, -91.161936)', '100 N 26TH ST\nBATON ROUGE, LA 70808\n(30.447997, -91.161936)', '100 N 27TH ST\nBATON ROUGE, LA 70808', '100 N 3RD ST\nBATON ROUGE, LA\n(30.447266, -91.188164)', '100 N 3RD ST\nBATON ROUGE, LA 70802\n(30.447266, -91.188164)', '100 N 4TH ST\nBATON ROUGE, LA\n(30.447199, -91.186916)', '100 N 4TH ST\nBATON ROUGE, LA 70802\n(30.447199, -91.186916)', '100 N 5TH ST\nBATON ROUGE, LA\n(30.447253, -91.185465)', '100 N 5TH ST\nBATON ROUGE, LA 70802\n(30.447253, -91.185465)', '100 N 6TH ST\nBATON ROUGE, LA 70802\n(30.447276, -91.184665)', '100 N 6TH ST\nBATON ROUGE, LA 70806\n(30.447276, -91.184665)', '100 N 8 ST\nBATON ROUGE, LA 70802\n(30.447335, -91.182694)', '100 N 8TH ST\nBATON ROUGE, LA\n(30.447335, -91.182694)', '100 N 9TH ST\nBATON ROUGE, LA\n(30.447375, -91.181512)', '100 N 9TH ST\nBATON ROUGE, LA 70802\n(30.447375, -91.181512)', '100 N 9TH ST\nBATON ROUGE, LA 70812\n(30.447375, -91.181512)', '100 N ACADIAN ST\nBATON ROUGE, LA\n(30.448489, -91.154603)', '100 N ACADIAN ST\nBATON ROUGE, LA 70802\n(30.448489, -91.154603)', '100 N ACADIAN TH\nBATON ROUGE, LA', '100 N ACADIAN TH\nBATON ROUGE, LA 70802', '100 N ARDENWOD DR\nBATON ROUGE, LA 70806\n(30.451664, -91.127403)', '100 N ARDENWOOD DR\nBATON ROUGE, LA\n(30.451664, -91.127403)', '100 N ARDENWOOD DR\nBATON ROUGE, LA 70802\n(30.451664, -91.127403)', '100 N ARDENWOOD DR\nBATON ROUGE, LA 70805\n(30.451664, -91.127403)', '100 N ARDENWOOD DR\nBATON ROUGE, LA 70806\n(30.451664, -91.127403)', '100 N BAXTER ST\nBATON ROUGE, LA\n(30.447896, -91.164911)', '100 N BAXTER ST\nBATON ROUGE, LA 70802\n(30.447896, -91.164911)', '100 N BAXTER ST\nBATON ROUGE, LA 70805\n(30.447896, -91.164911)', '100 N DONMOOR AV\nBATON ROUGE, LA\n(30.451573, -91.11841)', '100 N DONMOOR AV\nBATON ROUGE, LA 70802\n(30.451573, -91.11841)', '100 N DONMOOR AV\nBATON ROUGE, LA 70805\n(30.451573, -91.11841)', '100 N DONMOOR AV\nBATON ROUGE, LA 70806\n(30.451573, -91.11841)', '100 N DONMOOR DR\nBATON ROUGE, LA\n(30.451573, -91.11841)', '100 N DONMOOR DR\nBATON ROUGE, LA 70806\n(30.451573, -91.11841)', '100 N EUGENE ST\nBATON ROUGE, LA 70802\n(30.448041, -91.160442)', '100 N FOSTER DR\nBATON ROUGE, LA\n(30.448699, -91.138913)', '100 N FOSTER DR\nBATON ROUGE, LA 70802\n(30.448699, -91.138913)', '100 N FOSTER DR\nBATON ROUGE, LA 70805\n(30.448699, -91.138913)', '100 N FOSTER DR\nBATON ROUGE, LA 70806\n(30.448699, -91.138913)', '100 N I-110\nBATON ROUGE, LA', '100 N I110\nBATON ROUGE, LA 70805', '100 N LAFAYETTE ST\nBATON ROUGE, LA 70801\n(30.447098, -91.189332)', '100 N LOBDELL AV\nBATON ROUGE, LA\n(30.451759, -91.112069)', '100 N LOBDELL AV\nBATON ROUGE, LA 70806\n(30.451759, -91.112069)', '100 N LOBDELL BL\nBATON ROUGE, LA\n(30.451759, -91.112069)', '100 N LOBDELL BL\nBATON ROUGE, LA 70805', '100 N LOBDELL BL\nBATON ROUGE, LA 70806\n(30.451759, -91.112069)', '100 N RIVER RD\nBATON ROUGE, LA\n(30.447053, -91.190145)', '100 N RIVER RD\nBATON ROUGE, LA 70802\n(30.447053, -91.190145)', '100 N RIVER ROAD\nBATON ROUGE, LA\n(30.447053, -91.190145)', '100 N STADIUM\nBATON ROUGE, LA\n(30.415671, -91.182361)', '100 N STADIUM\nBATON ROUGE, LA 70820\n(30.415671, -91.182361)', '100 N STADIUM DR\nBATON ROUGE, LA\n(30.3974, -91.1565)', '100 N STADIUM RD\nBATON ROUGE, LA\n(30.415671, -91.182361)', '100 N STADIUM RD\nBATON ROUGE, LA 70810\n(30.415671, -91.182361)', '100 N STEVENDALE AV\nBATON ROUGE, LA\n(30.467741, -91.002952)', '100 N THIRD ST\nBATON ROUGE, LA\n(30.447266, -91.188164)', '100 N. 21ST ST\nBATON ROUGE, LA 70802\n(30.447847, -91.166711)', '100 N3RD\nBATON ROUGE, LA 70802', '100 NAPOLEON ST\nBATON ROUGE, LA\n(30.44687, -91.183852)', '100 NAPOLEON ST\nBATON ROUGE, LA 70802\n(30.44687, -91.183852)', '100 NORTH BL\nBATON ROUGE, LA\n(30.447053, -91.190145)', '100 NORTH BL\nBATON ROUGE, LA 70801\n(30.447053, -91.190145)', '100 NORTH BL\nBATON ROUGE, LA 70802\n(30.45243, -91.190428)', '100 NORTH BL\nBATON ROUGE, LA 70803\n(30.447053, -91.190145)', '100 NORTH BL\nBATON ROUGE, LA 70805\n(30.447053, -91.190145)', '100 NORTH BL\nBATON ROUGE, LA 70808\n(30.447053, -91.190145)', '100 NORTH BT\nBATON ROUGE, LA', '100 NORTH BT\nBATON ROUGE, LA 70802', '100 NORTH ST\nBATON ROUGE, LA\n(30.45243, -91.190428)', '100 NORTH ST\nBATON ROUGE, LA 70802\n(30.45242687800004, -91.190291939999952)', '100 NORTH ST\nBATON ROUGE, LA 70805\n(30.45243, -91.190428)', '100 NORTH STADIUM DR\nBATON ROUGE, LA\n(30.3974, -91.1565)', '100 OGDEN DR\nBATON ROUGE, LA 70806\n(30.448096, -91.158524)', '100 OKLAHOMA ST\nBATON ROUGE, LA 70802\n(30.434981, -91.184911)', '100 RIVER RD\nBATON ROUGE, LA\n(30.447053, -91.190145)', '100 RIVER RD\nBATON ROUGE, LA 70802\n(30.447053, -91.190145)', '100 RIVER RD\nBATON ROUGE, LA 70805\n(30.447053, -91.190145)', '100 RIVER RD\nBATON ROUGE, LA 70810', '100 S 10TH ST\nBATON ROUGE, LA 70802\n(30.447285, -91.179598)', '100 S 11TH ST\nBATON ROUGE, LA\n(30.447191, -91.178186)', '100 S 11TH ST\nBATON ROUGE, LA 70802\n(30.447191, -91.178186)', '100 S 12TH ST\nBATON ROUGE, LA\n(30.447231, -91.177142)', '100 S 12TH ST\nBATON ROUGE, LA 70802\n(30.447231, -91.177142)', '100 S 13TH\nBATON ROUGE, LA\n(30.447234, -91.175943)', '100 S 13TH ST RD\nBATON ROUGE, LA', '100 S 13TH ST RD\nBATON ROUGE, LA 70802', '100 S 14TH ST\nBATON ROUGE, LA\n(30.447587, -91.17486)', '100 S 15TH ST\nBATON ROUGE, LA 70802\n(30.447615, -91.173536)', '100 S 15TH ST\nBATON ROUGE, LA 70806\n(30.447615, -91.173536)', '100 S 16TH ST\nBATON ROUGE, LA\n(30.447633, -91.172878)', '100 S 16TH ST\nBATON ROUGE, LA 70802\n(30.447633, -91.172878)', '100 S 16TH ST\nBATON ROUGE, LA 70807\n(30.447633, -91.172878)', '100 S 16TH ST\nBATON ROUGE, LA 70808\n(30.447633, -91.172878)', '100 S 17TH\nBATON ROUGE, LA\n(30.447691, -91.17169)', '100 S 18TH ST\nBATON ROUGE, LA\n(30.447868, -91.170289)', '100 S 18TH ST\nBATON ROUGE, LA 70802\n(30.447868, -91.170289)', '100 S 18TH ST\nBATON ROUGE, LA 70808\n(30.447868, -91.170289)', '100 S 20TH ST\nBATON ROUGE, LA\n(30.447802, -91.168077)', '100 S 21ST ST\nBATON ROUGE, LA 70802\n(30.447838, -91.166981)', '100 S 22ND ST\nBATON ROUGE, LA\n(30.44787, -91.165892)', '100 S 22ND ST\nBATON ROUGE, LA 70802\n(30.44787, -91.165892)', '100 S ACADIAN TH\nBATON ROUGE, LA', '100 S ACADIAN TH\nBATON ROUGE, LA 70802', '100 S ACADIAN TH\nBATON ROUGE, LA 70805', '100 S ACADIAN TH\nBATON ROUGE, LA 70808', '100 S ACADIAN TH\nBATON ROUGE, LA 70810', '100 S ARDENWOOD DR\nBATON ROUGE, LA\n(30.450721, -91.127448)', '100 S DONMOORE AV\nBATON ROUGE, LA\n(30.450534, -91.118338)', '100 S DONMOORE AV\nBATON ROUGE, LA 70802\n(30.450534, -91.118338)', '100 S EUGENE ST\nBATON ROUGE, LA\n(30.448041, -91.160442)', '100 S FAIRFAX DR\nBATON ROUGE, LA\n(30.450786, -91.133045)', '100 S FAIRFAX DR\nBATON ROUGE, LA 70808\n(30.450786, -91.133045)', '100 S FLANNERY DR\nBATON ROUGE, LA\n(30.462254, -91.0352)', '100 S FLANNERY DR\nBATON ROUGE, LA 70802\n(30.462254, -91.0352)', '100 S FLANNERY RD\nBATON ROUGE, LA\n(30.462254, -91.0352)', '100 S FLANNERY RD\nBATON ROUGE, LA 70815\n(30.462254, -91.0352)', '100 S FLANNERY RD\nBATON ROUGE, LA 70816\n(30.462254, -91.0352)', '100 S FOSTER DR\nBATON ROUGE, LA\n(30.448699, -91.138913)', '100 S FOSTER DR\nBATON ROUGE, LA 70805\n(30.448699, -91.138913)', '100 S FOSTER DR\nBATON ROUGE, LA 70806\n(30.448699, -91.138913)', '100 S FOSTER DR\nBATON ROUGE, LA 70808\n(30.448699, -91.138913)', '100 S I-110\nBATON ROUGE, LA', '100 S I-110 HW\nBATON ROUGE, LA', '100 S I-110 HW\nBATON ROUGE, LA 70802', '100 S I110\nBATON ROUGE, LA', '100 S I110 HW\nBATON ROUGE, LA', '100 S I110 HW\nBATON ROUGE, LA 70802', '100 S RIVER RD\nBATON ROUGE, LA\n(30.44573, -91.1901)', '100 S RIVER RD\nBATON ROUGE, LA 70801\n(30.447053, -91.190145)', '100 S RIVER RD\nBATON ROUGE, LA 70802\n(30.44573, -91.1901)', '100 S RIVER RD\nBATON ROUGE, LA 70805\n(30.447053, -91.190145)', '100 S RIVER RD\nBATON ROUGE, LA 70808\n(30.447053, -91.190145)', '100 S SHERWOOD FOREST BL\nBATON ROUGE, LA', '100 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70815', '100 S SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '100 S STADIUM\nBATON ROUGE, LA\n(30.415671, -91.182361)', '100 S STADIUM\nBATON ROUGE, LA 70808\n(30.415671, -91.182361)', '100 S STADIUM\nBATON ROUGE, LA 70820\n(30.415671, -91.182361)', '100 S STADIUM DR\nBATON ROUGE, LA', '100 S STADIUM DR\nBATON ROUGE, LA 70802', '100 S STADIUM RD\nBATON ROUGE, LA 70802\n(30.415671, -91.182361)', '100 S TOWER\nBATON ROUGE, LA 70802', '100 S TOWER DR\nBATON ROUGE, LA 70820', '100 S WOODDALE AV\nBATON ROUGE, LA 70806\n(30.451912, -91.104154)', '100 S WOODDALE BL\nBATON ROUGE, LA\n(30.451912, -91.104154)', '100 S WOODDALE BL\nBATON ROUGE, LA 70815\n(30.451912, -91.104154)', '100 S. STADIUM DR\nBATON ROUGE, LA', '100 SECURITY LN\nBATON ROUGE, LA', '100 SHADOWS BEND DR\nBATON ROUGE, LA 70802\n(30.364681, -91.116408)', '100 SHARP BL\nBATON ROUGE, LA\n(30.456398, -91.072071)', '100 SHARP LN\nBATON ROUGE, LA', '100 SHARP RD\nBATON ROUGE, LA\n(30.456398, -91.072071)', '100 SHARP RD\nBATON ROUGE, LA 70815\n(30.456398, -91.072071)', '100 SHARP RD\nBATON ROUGE, LA 70816\n(30.456398, -91.072071)', '100 SHERWOOD FOREST BL\nBATON ROUGE, LA', '100 SHERWOOD FOREST BL\nBATON ROUGE, LA 70815', '100 SHERWOOD FOREST BL\nBATON ROUGE, LA 70816', '100 SKIP BERTMAN\nBATON ROUGE, LA', '100 SKIP BERTMAN DR\nBATON ROUGE, LA', '100 SKIP BERTMAN DR\nBATON ROUGE, LA 70820', '100 SOUTH BL\nBATON ROUGE, LA\n(30.439528, -91.189945)', '100 SOUTH BL\nBATON ROUGE, LA 70802\n(30.439528, -91.189945)', '100 SOUTH I-110 HW\nBATON ROUGE, LA', '100 SOUTH I-110 HW\nBATON ROUGE, LA 70802', '100 SOUTH I-110 HW\nBATON ROUGE, LA 70806', '100 SOUTH I-110 HW\nBATON ROUGE, LA 70808', '100 SPANISH TOWN RD\nBATON ROUGE, LA', '100 ST FERDINAND ST\nBATON ROUGE, LA\n(30.446962, -91.186679)', '100 ST FERDINAND ST\nBATON ROUGE, LA 70802\n(30.446962, -91.186679)', '100 ST LOUIS ST\nBATON ROUGE, LA\n(30.446927, -91.187744)', '100 ST LOUIS ST\nBATON ROUGE, LA 70802\n(30.446927, -91.187744)', '100 ST VINCENT DE PAUL PL\nBATON ROUGE, LA\n(30.447807, -91.172792)', '100 ST VINCENT DE PAUL PL\nBATON ROUGE, LA 70802\n(30.447807, -91.172792)', '100 ST VINCENT DE PAUL PL\nBATON ROUGE, LA 70805\n(30.447807, -91.172792)', '100 ST. CHARLES ST\nBATON ROUGE, LA 70802\n(30.446993, -91.185463)', '100 STANFORD AV\nBATON ROUGE, LA\n(30.402862, -91.169846)', '100 STANFORD AV\nBATON ROUGE, LA 70708\n(30.402862, -91.169846)', '100 STANFORD AV\nBATON ROUGE, LA 70802\n(30.402862, -91.169846)', '100 STANFORD AV\nBATON ROUGE, LA 70806\n(30.402862, -91.169846)', '100 STARING LN\nBATON ROUGE, LA 70808\n(30.368961, -91.122942)', '100 STARING LN\nBATON ROUGE, LA 70809\n(30.368961, -91.122942)', '100 STEELE RD\nBATON ROUGE, LA\n(30.448344, -91.150735)', '100 SUNSET BL\nBATON ROUGE, LA\n(30.388406, -91.152395)', '100 TAFT\nBATON ROUGE, LA 79802\n(30.425327, -91.17983)', '100 TAFT ST\nBATON ROUGE, LA\n(30.425327, -91.17983)', '100 TAFT ST\nBATON ROUGE, LA 70802\n(30.425327, -91.17983)', '100 TAYLOR ST\nBATON ROUGE, LA\n(30.426469, -91.180352)', '100 TAYLOR ST\nBATON ROUGE, LA 70802\n(30.426469, -91.180352)', '100 TAYLOR ST\nBATON ROUGE, LA 70808\n(30.426469, -91.180352)', '100 THIRD ST\nBATON ROUGE, LA\n(30.447266, -91.188164)', '100 THIRD ST\nBATON ROUGE, LA 708001\n(30.447266, -91.188164)', '100 THIRD ST\nBATON ROUGE, LA 70802\n(30.447266, -91.188164)', '100 THIRD ST\nBATON ROUGE, LA 70805\n(30.447266, -91.188164)', '100 THOMAS RD\nBATON ROUGE, LA 70807\n(30.550222, -91.203688)', '100 TOWER\nBATON ROUGE, LA', '100 TOWER\nBATON ROUGE, LA 70808', '100 TOWER DR\nBATON ROUGE, LA', '100 TOWER DR\nBATON ROUGE, LA 70005', '100 TOWER DR\nBATON ROUGE, LA 70802', '100 TOWER DR\nBATON ROUGE, LA 70803', '100 TOWER DR\nBATON ROUGE, LA 70805', '100 TOWER DR\nBATON ROUGE, LA 70808', '100 TOWER DR\nBATON ROUGE, LA 70820', '100 VAN BUREN ST\nBATON ROUGE, LA\n(30.430266, -91.181444)', '100 VAN BUREN ST\nBATON ROUGE, LA 70802\n(30.430266, -91.181444)', '100 VETA ST\nBATON ROUGE, LA\n(30.43549, -91.184767)', '100 VETA ST\nBATON ROUGE, LA 70802\n(30.43549, -91.184767)', '100 W BUCHANAN ST\nBATON ROUGE, LA\n(30.425571, -91.17994)', '100 W BUCHANAN ST\nBATON ROUGE, LA 70802\n(30.425571, -91.17994)', '100 W CHIMES\nBATON ROUGE, LA\n(30.417243, -91.176423)', '100 W CHIMES\nBATON ROUGE, LA 70808\n(30.417243, -91.176423)', '100 W CHIMES ST\nBATON ROUGE, LA\n(30.417243, -91.176423)', '100 W CHIMES ST\nBATON ROUGE, LA 70802\n(30.417243, -91.176423)', '100 W FRAT LN\nBATON ROUGE, LA', '100 W GARFIELD ST\nBATON ROUGE, LA 70802\n(30.422449, -91.178505)', '100 W GRANT ST\nBATON ROUGE, LA\n(30.42311, -91.17881)', '100 W HARDING BL\nBATON ROUGE, LA 70802\n(30.426128, -91.180196)', '100 W HARDING ST\nBATON ROUGE, LA\n(30.426128, -91.180196)', '100 W HARDING ST\nBATON ROUGE, LA 70802\n(30.426128, -91.180196)', '100 W HARRISON ST\nBATON ROUGE, LA\n(30.429202, -91.181618)', '100 W HARRISON ST\nBATON ROUGE, LA 70802\n(30.429202, -91.181618)', '100 W I-10 AV\nBATON ROUGE, LA 70809', '100 W I-12\nBATON ROUGE, LA', '100 W I-12\nBATON ROUGE, LA 70802', '100 W I-12\nBATON ROUGE, LA 70808', '100 W I10\nBATON ROUGE, LA', '100 W I10\nBATON ROUGE, LA 70812', '100 W I12\nBATON ROUGE, LA', '100 W I12\nBATON ROUGE, LA 70808', '100 W I12\nBATON ROUGE, LA 70810', '100 W I12 HW\nBATON ROUGE, LA', '100 W I12 HW\nBATON ROUGE, LA 70808', '100 W I12 HW\nBATON ROUGE, LA 70809', '100 W INTERSTATE 12 HW\nBATON ROUGE, LA', '100 W INTERSTATE 12 HW\nBATON ROUGE, LA 70802', '100 W JOHNSON\nBATON ROUGE, LA 70802\n(30.424472, -91.179439)', '100 W JOHNSON ST\nBATON ROUGE, LA\n(30.424472, -91.179439)', '100 W JOHNSON ST\nBATON ROUGE, LA 70802\n(30.424472, -91.179439)', '100 W JOHNSON ST\nBATON ROUGE, LA 70816\n(30.424472, -91.179439)', '100 W LAKESHORE DR\nBATON ROUGE, LA 70808', '100 W LEE DR\nBATON ROUGE, LA\n(30.393883, -91.159789)', '100 W LEE DR\nBATON ROUGE, LA 70802\n(30.393883, -91.159789)', '100 W LEE DR\nBATON ROUGE, LA 70808\n(30.393883, -91.159789)', '100 W LEE ST\nBATON ROUGE, LA\n(30.393883, -91.159789)', '100 W LEE ST\nBATON ROUGE, LA 70802\n(30.393883, -91.159789)', '100 W MCKINLEY ST\nBATON ROUGE, LA\n(30.423791, -91.179136)', '100 W MCKINLEY ST\nBATON ROUGE, LA 70802\n(30.423791, -91.179136)', '100 W MCKINLEY ST\nBATON ROUGE, LA 70808\n(30.423791, -91.179136)', '100 W PARKER\nBATON ROUGE, LA 70820\n(30.40454, -91.17369)', '100 W PARKER BL\nBATON ROUGE, LA\n(30.40454, -91.17369)', '100 W PARKER BL\nBATON ROUGE, LA 70802\n(30.40454, -91.17369)', '100 W PARKER RD\nBATON ROUGE, LA\n(30.40454, -91.17369)', '100 W PARKER RD\nBATON ROUGE, LA 70820\n(30.40454, -91.17369)', '100 W POLK ST\nBATON ROUGE, LA\n(30.427399, -91.180777)', '100 W POLK ST\nBATON ROUGE, LA 70802\n(30.427399, -91.180777)', '100 W POLK ST\nBATON ROUGE, LA 70806\n(30.427399, -91.180777)', '100 W POLK ST\nBATON ROUGE, LA 70808\n(30.427399, -91.180777)', '100 W ROOSEVELT ST\nBATON ROUGE, LA\n(30.421799, -91.178198)', '100 W ROOSEVELT ST\nBATON ROUGE, LA 70802\n(30.421799, -91.178198)', '100 W ROOSEVELT ST\nBATON ROUGE, LA 70808\n(30.421799, -91.178198)', '100 W ROOSEVELT ST\nBATON ROUGE, LA 70810\n(30.421799, -91.178198)', '100 W STATE ST\nBATON ROUGE, LA\n(30.418207, -91.176576)', '100 W STATE ST\nBATON ROUGE, LA 70802\n(30.418207, -91.176576)', '100 W WASHINGTON ST\nBATON ROUGE, LA 70802\n(30.430951, -91.182693)', '100 WEST I-10 HW\nBATON ROUGE, LA', '100 WEST I-10 HW\nBATON ROUGE, LA 70802', '100 WEST I-10 HW\nBATON ROUGE, LA 70808', '100 WEST I-12 HW\nBATON ROUGE, LA', '100 WEST I-12 HW\nBATON ROUGE, LA 70806', '100 WEST I-12 HW\nBATON ROUGE, LA 70809', '100 WESTMORELAND DR\nBATON ROUGE, LA\n(30.448246, -91.15382)', '100 WOODDALE BL\nBATON ROUGE, LA 70805', '100 WOODDALE BL\nBATON ROUGE, LA 70806\n(30.452025, -91.104022)', '1000 37TH ST\nBATON ROUGE, LA\n(30.457379, -91.152732)', '1000 37TH ST\nBATON ROUGE, LA 70802\n(30.457379, -91.152732)', '1000 38TH ST\nBATON ROUGE, LA\n(30.457367, -91.151964)', '1000 48TH ST\nBATON ROUGE, LA 70808\n(30.457514, -91.141865)', '1000 AIRLINE HW\nBATON ROUGE, LA 70816', '1000 ASTER ST\nBATON ROUGE, LA\n(30.419522, -91.188438)', '1000 ASTER ST\nBATON ROUGE, LA 70802\n(30.419522, -91.188438)', '1000 ASTER ST\nBATON ROUGE, LA 70806\n(30.419522, -91.188438)', '1000 AVE B ST\nBATON ROUGE, LA 70807', '1000 BAIRD AV\nBATON ROUGE, LA\n(30.385341, -91.120205)', '1000 BAIRD AV\nBATON ROUGE, LA 70808\n(30.385341, -91.120205)', '1000 BARANCO DR\nBATON ROUGE, LA 70805\n(30.529472, -91.183748)', '1000 BARANCO ST\nBATON ROUGE, LA 70805\n(30.529472, -91.183748)', '1000 BARANCO ST\nBATON ROUGE, LA 70807\n(30.529472, -91.183748)', '1000 BARANCO ST\nBATON ROUGE, LA 70808\n(30.529472, -91.183748)', '1000 BOB PETIT\nBATON ROUGE, LA', '1000 BOB PETIT\nBATON ROUGE, LA 70802', '1000 BOB PETI</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>&lt;Undefined_20&gt;</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>267773</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M22" t="n">
+        <v>6</v>
+      </c>
+      <c r="N22" t="n">
+        <v>267773</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>(Null)</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>267773</v>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>(Null)</t>
+        </is>
+      </c>
+      <c r="V22" t="n">
+        <v>267773</v>
+      </c>
+      <c r="W22" t="n">
+        <v>0</v>
+      </c>
+      <c r="X22" t="n">
+        <v>1606638</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>['(Null)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>&lt;Undefined_21&gt;</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>267773</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L23" t="n">
+        <v>6</v>
+      </c>
+      <c r="M23" t="n">
+        <v>6</v>
+      </c>
+      <c r="N23" t="n">
+        <v>267773</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>(Null)</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>267773</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>(Null)</t>
+        </is>
+      </c>
+      <c r="V23" t="n">
+        <v>267773</v>
+      </c>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1606638</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>['(Null)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>&lt;Undefined_22&gt;</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>267773</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K24" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L24" t="n">
+        <v>6</v>
+      </c>
+      <c r="M24" t="n">
+        <v>6</v>
+      </c>
+      <c r="N24" t="n">
+        <v>267773</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>(Null)</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>267773</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>(Null)</t>
+        </is>
+      </c>
+      <c r="V24" t="n">
+        <v>267773</v>
+      </c>
+      <c r="W24" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1606638</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>['(Null)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>&lt;Undefined_23&gt;</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>267773</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L25" t="n">
+        <v>6</v>
+      </c>
+      <c r="M25" t="n">
+        <v>6</v>
+      </c>
+      <c r="N25" t="n">
+        <v>267773</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>(Null)</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>267773</v>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>(Null)</t>
+        </is>
+      </c>
+      <c r="V25" t="n">
+        <v>267773</v>
+      </c>
+      <c r="W25" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" t="n">
+        <v>1606638</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>['(Null)']</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>&lt;Undefined_24&gt;</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>integer</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>267773</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>6</v>
+      </c>
+      <c r="M26" t="n">
+        <v>6</v>
+      </c>
+      <c r="N26" t="n">
+        <v>267773</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>(Null)</t>
+        </is>
+      </c>
+      <c r="T26" t="n">
+        <v>267773</v>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>(Null)</t>
+        </is>
+      </c>
+      <c r="V26" t="n">
+        <v>267773</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1606638</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>['(Null)']</t>
         </is>
       </c>
     </row>

--- a/examples/USA OGD/Baton_rouge/Baton_Rouge_Crime_Incidents_profile.xlsx
+++ b/examples/USA OGD/Baton_rouge/Baton_Rouge_Crime_Incidents_profile.xlsx
@@ -53,6 +53,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -495,7 +563,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>int</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -1231,7 +1299,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>int</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -2337,7 +2405,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>int</t>
         </is>
       </c>
       <c r="D22" t="n">
@@ -2429,7 +2497,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>int</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -2521,7 +2589,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>int</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -2613,7 +2681,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>int</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -2705,7 +2773,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>integer</t>
+          <t>int</t>
         </is>
       </c>
       <c r="D26" t="n">
